--- a/Text_Insight.xlsx
+++ b/Text_Insight.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,100 +463,3225 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Amazon Inc Annual Report.pdf</t>
+          <t>Apple Annual Report.pdf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sanitation</t>
+          <t>Content</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CLEAN WATER AND SANITATION</t>
+          <t>Telecom services</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>&lt;p&gt;These regulations and laws cover taxation, privacy, data protection, data security, network security, consumer protection, pricing, content, copyrights, distribution, transportation, mobile communications, electronic device certification, electronic waste, energy consumption, environmental regulation, electronic contracts and other communications, competition, employment, trade and protectionist measures, web services, the provision of online payment services, registration, licensing, and information reporting requirements, unencumbered Internet access to our services or access to our facilities, the design and operation of websites, health, safety, and &lt;mark&gt;sanitation&lt;/mark&gt; standards, the characteristics, legality, and quality of products and services, product labeling, the commercial operation of unmanned aircraft systems, and other matters.&lt;/p&gt;</t>
+          <t>&lt;p&gt;Apple Inc. Form 10-K For the Fiscal Year Ended September 26, 2020 TABLE OF &lt;mark&gt;CONTENT&lt;/mark&gt;S Page Part I Item 1. Business 1 Item 1A.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Cloud Services The Company’s cloud services store and keep customers’ &lt;mark&gt;content&lt;/mark&gt; up-to-date and available across multiple Apple devices and Windows personal computers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Digital &lt;mark&gt;Content&lt;/mark&gt; The Company operates various platforms, including the App Store , that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company also offers digital &lt;mark&gt;content&lt;/mark&gt; through subscription-based services, including Apple Arcade , a game subscription service; Apple Music , which offers users a curated listening experience with on-demand radio stations; Apple News+ , a subscription news and magazine service; and Apple TV+ , which offers exclusive original content.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s services compete with business models that provide &lt;mark&gt;content&lt;/mark&gt; to users for free and use illegitimate means to obtain third-party digital content and applications.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company faces substantial competition in these markets from companies that have significant technical, marketing, distribution and other resources, as well as established hardware, software and digital &lt;mark&gt;content&lt;/mark&gt; supplier relationships.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company competes with business models that provide &lt;mark&gt;content&lt;/mark&gt; to users for free.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company also competes with illegitimate means to obtain third-party digital &lt;mark&gt;content&lt;/mark&gt; and applications.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company relies on access to third-party digital &lt;mark&gt;content&lt;/mark&gt;, which may not be available to the Company on commercially reasonable terms or at all.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company contracts with numerous third parties to offer their digital &lt;mark&gt;content&lt;/mark&gt; to customers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This includes the right to sell currently available &lt;mark&gt;content&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some third-party &lt;mark&gt;content&lt;/mark&gt; providers and distributors currently or in the future may offer competing products and services, and can take actions to make it more difficult or impossible for the Company to license or otherwise distribute their content in the future.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Other &lt;mark&gt;content&lt;/mark&gt; owners, providers or distributors may seek to limit the Company’s access to, or increase the cost of, such content.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company may be unable to continue to offer a wide variety of &lt;mark&gt;content&lt;/mark&gt; at commercially reasonable prices with acceptable usage rules, or continue to expand its geographic reach.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Failure to obtain the right to make third-party digital &lt;mark&gt;content&lt;/mark&gt; available, or to make such content available on commercially reasonable terms, could have a material adverse impact on the Company’s financial condition and operating results.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some third-party digital &lt;mark&gt;content&lt;/mark&gt; providers require the Company to provide digital rights management and other security solutions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, certain countries have passed or may propose and adopt legislation that would force the Company to license its digital rights management, which could lessen the protection of &lt;mark&gt;content&lt;/mark&gt; and subject it to piracy and also could negatively affect arrangements with the Company’s content providers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s global operations are subject to complex and changing laws and regulations on subjects including, but not limited to: antitrust; privacy, data security and data localization; consumer protection; advertising, sales, billing and e-commerce; product liability; intellectual property ownership and infringement; digital platforms; Internet, telecommunications, and mobile communications; media, television, film and digital &lt;mark&gt;content&lt;/mark&gt;; availability of third-party software applications and services; labor and employment; anti-corruption; import, export and trade; foreign exchange controls and cash repatriation restrictions; anti–money laundering; foreign ownership and investment; tax; and environmental, health and safety.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s gross margins are subject to volatility and downward pressure due to a variety of factors, including: continued industry-wide global product pricing pressures and product pricing actions that the Company may take in response to such pressures; increased competition; the Company’s ability to effectively stimulate demand for certain of its products and services; compressed product life cycles; potential increases in the cost of components, outside manufacturing services, and developing, acquiring and delivering &lt;mark&gt;content&lt;/mark&gt; for the Company’s services; the Company’s ability to manage product quality and warranty costs effectively; shifts in the mix of products and services, or in the geographic, currency or channel mix; fluctuations in foreign exchange rates; and the introduction of new products or services, including new products or services with higher cost structures.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;(3) Services net sales include sales from the Company’s advertising, AppleCare, digital &lt;mark&gt;content&lt;/mark&gt; and other services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Other Purchase Obligations The Company’s other purchase obligations consist of noncancelable obligations to acquire capital assets, including product tooling and manufacturing process equipment, and noncancelable obligations related to advertising, licensing, R&amp;D, Internet and telecommunications services, &lt;mark&gt;content&lt;/mark&gt; creation and other activities.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For third-party applications sold through the App Store and certain digital &lt;mark&gt;content&lt;/mark&gt; sold through the Company’s other digital content stores, the Company does not obtain control of the product before transferring it to the customer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;(3) Services net sales include sales from the Company’s advertising, AppleCare, digital &lt;mark&gt;content&lt;/mark&gt; and other services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s unconditional purchase obligations primarily consist of payments for supplier arrangements, Internet and telecommunication services, intellectual property licenses and &lt;mark&gt;content&lt;/mark&gt; creation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Among other things, the Articles and Bylaws: • provide that, except for a vacancy caused by the removal of a director as provided in the Bylaws, a vacancy on the Company’s Board of Directors may be filled by a person selected by a majority of the remaining directors then in office, whether or not less than a quorum, or by a sole remaining director; • provide that shareholders seeking to present proposals before a meeting of shareholders or to nominate candidates for election as directors at a meeting of shareholders must provide notice in writing in a timely manner, and also specify requirements as to the form and &lt;mark&gt;content&lt;/mark&gt; of a shareholder’s notice; • provide that a shareholder, or group of up to 20 shareholders, that has owned continuously for at least three years shares of Common Stock representing an aggregate of at least 3% of the Company’s outstanding shares of Common Stock, may nominate and include in the Company’s proxy materials director nominees constituting up to 20% of the Company’s Board of Directors, provided that the shareholder(s) and nominee(s) satisfy the requirements in the Bylaws; • do not provide for cumulative voting rights for the election of directors; and • provide that special meetings of the shareholders may only be called by two or more members of the Board of Directors, the Chairman of the Board of Directors, the Chief Executive Officer or by one or more holders of shares entitled to cast not less than ten percent (10%) of the votes on the record date established pursuant to the Company’s Bylaws.&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Amazon Inc Annual Report.pdf</t>
+          <t>Apple Annual Report.pdf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>cable</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DECENT WORK AND ECONOMIC GROWTH</t>
+          <t>Telecom Infra</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>&lt;p&gt;These regulations and laws cover taxation, privacy, data protection, data security, network security, consumer protection, pricing, content, copyrights, distribution, transportation, mobile communications, electronic device certification, electronic waste, energy consumption, environmental regulation, electronic contracts and other communications, competition, &lt;mark&gt;employment&lt;/mark&gt;, trade and protectionist measures, web services, the provision of online payment services, registration, licensing, and information reporting requirements, unencumbered Internet access to our services or access to our facilities, the design and operation of websites, health, safety, and sanitation standards, the characteristics, legality, and quality of products and services, product labeling, the commercial operation of unmanned aircraft systems, and other matters.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Claims, Litigation, Government Investigations, and Other Proceedings May Adversely Affect Our Business and Results of Operations As an innovative company offering a wide range of consumer and business products and services around the world, we are regularly subject to actual and threatened claims, litigation, reviews, investigations, and other proceedings, including proceedings by governments and regulatory authorities, involving a wide range of issues, including patent and other intellectual property matters, taxes, labor and &lt;mark&gt;employment&lt;/mark&gt;, competition and antitrust, privacy, data protection, data security, network security, consumer protection, commercial disputes, goods and services offered by us and by third parties, and other matters.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, we are regularly subject to claims, litigation, and other proceedings, including potential regulatory proceedings, involving patent and other intellectual property matters, taxes, labor and &lt;mark&gt;employment&lt;/mark&gt;, competition and antitrust, privacy and data protection, consumer protection, commercial disputes, goods and services offered by us and by third parties, and other matters.&lt;/p&gt;</t>
+          <t>&lt;p&gt;The Company has implemented policies and procedures designed to ensure compliance with appli&lt;mark&gt;cable&lt;/mark&gt; laws and regulations, but there can be no assurance that the Company’s employees, contractors or agents will not violate such laws and regulations or the Company’s policies and procedures.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mine Safety Disclosures Not appli&lt;mark&gt;cable&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Financial Statements and Supplementary Data Index to Consolidated Financial Statements Page Consolidated Statements of Operations for the years ended September 26, 2020, September 28, 2019 and September 29, 2018 31 Consolidated Statements of Comprehensive Income for the years ended September 26, 2020, September 28, 2019 and September 29, 2018 32 Consolidated Balance Sheets as of September 26, 2020 and September 28, 2019 33 Consolidated Statements of Shareholders’ Equity for the years ended September 26, 2020, September 28, 2019 and September 29, 2018 34 Consolidated Statements of Cash Flows for the years ended September 26, 2020, September 28, 2019 and September 29, 2018 35 Notes to Consolidated Financial Statements 36 Selected Quarterly Financial Information (Unaudited) 57 Reports of Independent Registered Public Accounting Firm 59 All financial statement schedules have been omitted, since the required information is not appli&lt;mark&gt;cable&lt;/mark&gt; or is not present in amounts sufficient to require submission of the schedule, or because the information required is included in the consolidated financial statements and accompanying notes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Payment for Products and Services net sales is collected within a short period following transfer of control or commencement of delivery of services, as appli&lt;mark&gt;cable&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s process for estimating SSPs without observable prices considers multiple factors that may vary depending upon the unique facts and circumstances related to each performance obligation including, where appli&lt;mark&gt;cable&lt;/mark&gt;, prices charged by the Company for similar offerings, market trends in the pricing for similar offerings, product-specific business objectives and the estimated cost to provide the performance obligation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For further discussion regarding the Company’s use of derivative instruments, refer to the Derivative Financial Instruments section of Note 3, “Financial Instruments.” The effective interest rates for the Notes include the interest on the Notes, amortization of the discount or premium and, if appli&lt;mark&gt;cable&lt;/mark&gt;, adjustments related to hedging.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The majority of RSUs that vested in 2020, 2019 and 2018 were net share settled such that the Company withheld shares with a value equivalent to the employees’ obligation for the appli&lt;mark&gt;cable&lt;/mark&gt; income and other employment taxes, and remitted the cash to the appropriate taxing authorities.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We are a public accounting firm registered with the PCAOB and are required to be independent with respect to Apple Inc. in accordance with the U.S. federal securities laws and the appli&lt;mark&gt;cable&lt;/mark&gt; rules and regulations of the U.S. Securities and Exchange Commission and the PCAOB.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To evaluate Apple Inc.’s assessment of which tax positions are more likely than not to be sustained, our audit procedures included, among others, reading and evaluating management’s assumptions and analysis, and, as appli&lt;mark&gt;cable&lt;/mark&gt;, Apple Inc.’s communications with taxing authorities, that detailed the basis and technical merits of the uncertain tax positions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We are a public accounting firm registered with the PCAOB and are required to be independent with respect to Apple Inc. in accordance with the U.S. federal securities laws and the appli&lt;mark&gt;cable&lt;/mark&gt; rules and regulations of the U.S. Securities and Exchange Commission and the PCAOB.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Directors, Executive Officers and Corporate Governance The information required by this Item is set forth under the headings “Corporate Governance,” “Directors,” “Executive Officers” and, if appli&lt;mark&gt;cable&lt;/mark&gt;, “Other Information— Security Ownership of Certain Beneficial Owners and Management” in the Company’s 2021 Proxy Statement to be filed with the SEC within 120 days after September 26, 2020 in connection with the solicitation of proxies for the Company’s 2021 annual meeting of shareholders, and is incorporated herein by reference.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Executive Compensation The information required by this Item is set forth under the heading “Executive Compensation,” under the subheadings “Board Oversight of Risk Management” and, if appli&lt;mark&gt;cable&lt;/mark&gt;, “Compensation Committee Interlocks and Insider Participation” under the heading “Corporate Governance” and under the subheadings “Compensation of Directors” and “Director Compensation—2020” under the heading “Directors” in the Company’s 2021 Proxy Statement to be filed with the SEC within 120 days after September 26, 2020, and is incorporated herein by reference.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Exhibit and Financial Statement Schedules (a) Documents filed as part of this report (1) All financial statements Index to Consolidated Financial Statements Page Consolidated Statements of Operations for the years ended September 26, 2020, September 28, 2019 and September 29, 2018 31 Consolidated Statements of Comprehensive Income for the years ended September 26, 2020, September 28, 2019 and September 29, 2018 32 Consolidated Balance Sheets as of September 26, 2020 and September 28, 2019 33 Consolidated Statements of Shareholders’ Equity for the years ended September 26, 2020, September 28, 2019 and September 29, 2018 34 Consolidated Statements of Cash Flows for the years ended September 26, 2020, September 28, 2019 and September 29, 2018 35 Notes to Consolidated Financial Statements 36 Selected Quarterly Financial Information (Unaudited) 57 Reports of Independent Registered Public Accounting Firm 59 (2) Financial Statement Schedules All financial statement schedules have been omitted, since the required information is not appli&lt;mark&gt;cable&lt;/mark&gt; or is not present in amounts sufficient to require submission of the schedule, or because the information required is included in the consolidated financial statements and accompanying notes included in this Form 10-K. (3) Exhibits required by Item 601 of Regulation S-K  Incorporated by Reference Exhibit Number Exhibit Description Form Exhibit Filing Date/ Period End Date 3.1 Restated Articles of Incorporation of the Registrant filed on August 3, 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;DESCRIPTION OF COMMON STOCK The following is a description of the rights of Common Stock and related provisions of the Company’s Restated Articles of Incorporation (the “Articles”) and Amended and Restated Bylaws (the “Bylaws”) and appli&lt;mark&gt;cable&lt;/mark&gt; California law.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This description is qualified in its entirety by, and should be read in conjunction with, the Articles, Bylaws and appli&lt;mark&gt;cable&lt;/mark&gt; California law.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This description is qualified in its entirety by reference, as appli&lt;mark&gt;cable&lt;/mark&gt;, to the Indenture, dated as of April 29, 2013, between Apple Inc. and The 2 Bank of New York Mellon Trust Company, N.A., as trustee (the “2013 Indenture”) and the Indenture, dated as of November 5, 2018, between Apple Inc. and The Bank of New York Mellon Trust Company, N.A., as trustee (the “2018 Indenture,” and together with the 2013 Indenture, the “Indentures”).&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Notes Each of the Notes were issued under the appli&lt;mark&gt;cable&lt;/mark&gt; Indenture, which provides that debt securities may be issued under such Indenture from time to time in one or more series.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Any payment in respect of the 2022 Notes, the 2024 Notes, the 0.000% 2025 Notes, the 0.875% 2025 Notes, the 2026 Notes, the 2027 Notes, the 1.375% 2029 Notes and the 2031 Notes so made in U.S. dollars will not constitute an event of default under such Notes or the appli&lt;mark&gt;cable&lt;/mark&gt; Indenture.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;All of the Notes also contain a covenant substantially similar to the following: The Company will, subject to the exceptions and limitations set forth below, pay as additional interest on the Notes such additional amounts (“Additional Amounts”) as are necessary in order that the net payment by the Company or the paying agent of the Company for the appli&lt;mark&gt;cable&lt;/mark&gt; Notes (“Paying Agent”) of the principal of and interest on the Notes to a holder who is not a United States person (as defined below), after withholding or deduction for any present or future tax, assessment or other governmental charge (“Tax”) imposed by the United States or a taxing authority in the United States, will not be less than the amount provided in the Notes to be then due and payable; provided, however, that the foregoing obligation to pay Additional Amounts shall not apply: (1) to any Tax that is imposed by reason of the holder (or the beneficial owner for whose benefit such holder holds the Notes), or a fiduciary, settlor, beneficiary, member or shareholder of the holder if the holder is an estate, trust, partnership or corporation, or a person holding a power over an estate or trust administered by a fiduciary holder, being considered as: (a) being or having been engaged in a trade or business in the United States or having or having had a permanent establishment in the United States; (b) having a current or former connection with the United States (other than a connection arising solely as a result of the ownership of the Notes, the receipt of any payment or the enforcement of any rights hereunder), including being or having been a citizen or resident of the United States; (c) being or having been a personal holding company, a passive foreign investment company or a controlled foreign corporation for U.S. federal income tax purposes or a corporation that has accumulated earnings to avoid U.S. federal income tax; (d) being or having been a “10-percent shareholder” of the Company as defined in Section 871(h)(3) of the Internal Revenue Code of 1986, as amended (the “Code”); 5 (e) being a controlled foreign corporation that is related to the Company within the meaning of Section 864(d)(4) of the Code; or (f) being a bank receiving payments on an extension of credit made pursuant to a loan agreement entered into in the ordinary course of its trade or business; (2) to any holder that is not the sole beneficial owner of the Notes, or a portion of the Notes, or that is a fiduciary, partnership or limited liability company, but only to the extent that a beneficial owner with respect to the holder, a beneficiary or settlor with respect to the fiduciary, or a beneficial owner or member of the partnership or limited liability company would not have been entitled to the payment of an additional amount had the beneficiary, settlor, beneficial owner or member received directly its beneficial or distributive share of the payment; (3) to any Tax that would not have been imposed but for the failure of the holder or any other person to comply with certification, identification or information reporting requirements concerning the nationality, residence, identity or connection with the United States of the holder or beneficial owner of the Notes, if compliance is required by statute, by regulation of the United States or any taxing authority therein or by an applicable income tax treaty to which the United States is a party as a precondition to exemption from such Tax (including, but not limited to, the requirement to provide Internal Revenue Service Forms W- 8BEN, W-8BEN-E, W-8ECI, or any subsequent versions thereof or successor thereto, and any documentation requirement under an applicable income tax treaty); (4) to any Tax that is imposed otherwise than by withholding by the Company or a Paying Agent from the payment; (5) to any Tax that would not have been imposed but for a change in law, regulation, or administrative or judicial interpretation that becomes effective more than 10 days after the payment becomes due or is duly provided for, whichever occurs later; (6) to any estate, inheritance, gift, sales, excise, transfer, wealth, capital gains or personal property or similar Tax; (7) to any Tax required to be withheld by any paying agent from any payment of principal of or interest on any Note, if such payment can be made without such withholding by at least one other paying agent; (8) to any Tax that would not have been imposed but for the presentation by the holder of any Note, where presentation is required, for payment on a date more than 30 days after the date on which payment became due and payable or the date on which payment thereof is duly provided for, whichever occurs later; (9) to any Tax imposed under Sections 1471 through 1474 of the Code (or any amended or successor provisions), any current or future regulations or official interpretations thereof, any agreement entered into pursuant to Section 1471(b) of the Code, or any fiscal or regulatory legislation, rules or practices adopted pursuant to any intergovernmental agreement entered into in connection with the implementation of such sections of the Code; or (10)in the case of any combination of items (1) through (9) above.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Notes are subject in all cases to any tax, fiscal or other law or regulation or administrative or judicial interpretation appli&lt;mark&gt;cable&lt;/mark&gt; to the Notes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As used under “—Payment of Additional Amounts” and under “— Redemption for Tax Reasons,” the term “United States” means the United States of America (including the states and the District of Columbia and any political subdivision thereof), and the term “United States person” means any individual who is a citizen or resident of the United States for U.S. federal income tax purposes, a corporation, partnership or other entity created or organized in or under the laws of the United States, any state of the United States or the District of Columbia (other than a partnership that is not treated as a United States person under any appli&lt;mark&gt;cable&lt;/mark&gt; Treasury regulations), or any estate or trust the income of which is subject to U.S. federal income taxation regardless of its source.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;6 Redemption for Tax Reasons If, as a result of any change in, or amendment to, or, in the case of the 0.000% 2025 Notes and the 2031 Notes, introduction of, the laws (or any regulations or rulings promulgated under the laws) of the United States (or any political subdivision or taxing authority of or in the United States), or any change in, or amendments to, an official position regarding the application or interpretation of such laws, regulations or rulings, which change or amendment is announced or becomes effective on or after the date of the appli&lt;mark&gt;cable&lt;/mark&gt; prospectus supplement, we become, or based upon a written opinion of independent counsel selected by us, will become obligated to pay additional amounts as described above under the heading “Payments of Additional Amounts” with respect to a series of the Notes, then we may at our option redeem, in whole, but not in part, in the case of the 2022 Notes, the 2024 Notes, the 2026 Notes, the 2027 Notes, the 3.050% 2029 Notes and the 2042 Notes, the Notes of such series on not less than 30 nor more than 60 days’ prior notice, in the case of the 0.875% 2025 Notes and the 1.375% 2029 Notes, the Notes of such series on not less than 15 nor more than 60 days’ notice, and in the case of the 0.000% 2025 Notes and the 2031 Notes, the Notes of such series on not less than 10 nor more than 60 days’ prior notice, in each case at a redemption price equal to 100% of their principal amount, together with interest accrued but unpaid on those Notes to (and, in the case of the 0.000% 2025 Notes and the 2031 Notes, but not including) the date fixed for redemption.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Optional Redemption We may redeem the 2022 Notes, the 2024 Notes, the 2026 Notes, the 2027 Notes, the 3.050% 2029 Notes and the 2042 Notes at our option, at any time in whole or from time to time in part, at a redemption price equal to the greater of: • 100% of the principal amount of the Notes to be redeemed; or • the sum of the present values of the remaining scheduled payments of principal and interest thereon (not including any portion of such payments of interest accrued as of the date of redemption), discounted to the date of redemption on an annual basis (ACTUAL/ACTUAL (ICMA)) at the appli&lt;mark&gt;cable&lt;/mark&gt; Comparable Government Bond Rate (as defined below), plus 5 basis points in the case of the 2022 Notes, plus 10 basis points in the case of the 2026 Notes, plus 15 basis points in the case of the 2024 Notes, the 3.050% 2029 Notes and the 2042 Notes and plus 20 basis points in the case of the 2027 Notes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We may redeem the 0.000% 2025 Notes, the 0.875% 2025 Notes, the 1.375% 2029 Notes and the 2031 Notes at our option, at any time in whole or from time to time in part, prior to the appli&lt;mark&gt;cable&lt;/mark&gt; Par Call Date at a redemption price equal to the greater of: • 100% of the principal amount of the Notes to be redeemed; or • the sum of the present values of the remaining scheduled payments of principal and interest thereon assuming that the Notes matured on the applicable Par Call Date (not including any portion of such payments of interest accrued as of the date of redemption), discounted to the date of redemption on an annual basis (ACTUAL/ACTUAL (ICMA)) at the applicable Comparable Government Bond Rate (as defined below), plus 10 basis points in the case of the 0.000% 2025 Notes, plus 15 basis points in the case of the 0.875% 2025 Notes and the 2031 Notes, and 20 basis points in the case of the 2029 Notes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If any of the 0.000% 2025 Notes, the 0.875% 2025 Notes, the 1.375% 2029 Notes or the 2031 Notes are redeemed on or after the appli&lt;mark&gt;cable&lt;/mark&gt; Par Call Date, the redemption price for such Notes will equal 100% of the principal amount of the Notes being redeemed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;7 Installments of interest on Notes being redeemed that are due and payable on interest payment dates falling on or prior to a redemption date shall be payable on the interest payment date to the holders as of the close of business on the relevant regular record date according to the Notes and the appli&lt;mark&gt;cable&lt;/mark&gt; Indenture.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;“Comparable Government Bond” means, in relation to any Comparable Government Bond Rate calculation for the 0.000% 2025 Notes, the 0.875% 2025 Notes, the 1.375% 2029 Notes and the 2031 Notes, at the discretion of an independent investment bank selected by us, a German government bond whose maturity is closest to the appli&lt;mark&gt;cable&lt;/mark&gt; Par Call Date of the Notes being redeemed, or if such independent investment bank in its discretion determines that such similar bond is not in issue, such other German government bond as such independent investment bank may, with the advice of three brokers of, and/or market makers in, German government bonds selected by us, determine to be appropriate for determining the Comparable Government Bond Rate.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Consolidation, Merger and Sale of Assets The Indentures provide that we may consolidate with or merge with or into any other person, and may sell, transfer, or lease or convey all or substantially all of our properties and assets to another person; provided that the following conditions are satisfied: • we are the continuing entity, or the resulting, surviving or transferee person (the “Successor”) is a person (if such person is not a corporation, then the Successor will include a corporate co-issuer of the debt securities) organized and existing under the laws of the United States of America, any state thereof or the District of Columbia and the Successor (if not us) will expressly assume, by supplemental indenture, all of our obligations under the debt securities and the appli&lt;mark&gt;cable&lt;/mark&gt; Indenture and, for each security that by its terms provides for conversion, provide for the right to convert such security in accordance with its terms; 8 • immediately after giving effect to such transaction, no default or event of default under the applicable Indenture has occurred and is continuing; and • in the case of the 2013 Indenture, the trustee receives from us an officers’ certificate and an opinion of counsel that the transaction and such supplemental indenture, as the case may be, complies with the applicable provisions of the 2013 Indenture.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Events of Default Each of the following events are defined in the Indentures as an “event of default” (whatever the reason for such event of default and whether or not it will be voluntary or involuntary or be effected by operation of law or pursuant to any judgment, decree or order of any court or any order, rule or regulation of any administrative or governmental body) with respect to the debt securities of any series: (1)    default in the payment of any installment of interest on any debt securities of such series for 30 days after becoming due; (2)    default in the payment of principal of or premium, if any, on any debt securities of such series when it becomes due and payable at its stated maturity, upon optional redemption, upon declaration or otherwise; (3)    default in the performance, or breach, of any covenant or agreement of ours in the appli&lt;mark&gt;cable&lt;/mark&gt; Indenture with respect to the debt securities of such series (other than a covenant or agreement, a default in the performance of which or a breach of which is elsewhere in the applicable Indenture specifically dealt with or that has expressly been included in the applicable Indenture solely for the benefit of a series of debt securities other than such series), which continues for a period of 90 days after written notice to us by the trustee or to us and the trustee by the holders of, in the case of the 2013 Indenture, at least 25% in aggregate principal amount of the outstanding debt securities of that series, and in the case of the 2018 Indenture, at least 33% in aggregate principal amount of the outstanding debt securities of that series; (4)    we, pursuant to or within the meaning of the Bankruptcy Law: • commence a voluntary case or proceeding; • consent to the entry of an order for relief against us in an involuntary case or proceeding; • consent to the appointment of a custodian of us or for all or substantially all of our property; • make a general assignment for the benefit of our creditors; • file a petition in bankruptcy or answer or consent seeking reorganization or relief; • consent to the filing of such petition or the appointment of or taking possession by a custodian; or • take any comparable action under any foreign laws relating to insolvency; (5)    a court of competent jurisdiction enters an order or decree under any Bankruptcy Law that: 9 • is for relief against us in an involuntary case, or adjudicates us insolvent or bankrupt; • appoints a custodian of us or for all or substantially all of our property; or • orders the winding-up or liquidation of us (or any similar relief is granted under any foreign laws); and the order or decree remains unstayed and in effect for 90 days (or, in the case of the 2018 Indenture, 90 consecutive days); or (6)    any other event of default provided with respect to debt securities of such series occurs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We are required to furnish the trustee annually within 120 days after the end of our fiscal year a statement by one of our officers to the effect that, to the best knowledge of such officer, we are not in default in the fulfillment of any of our obligations under the appli&lt;mark&gt;cable&lt;/mark&gt; Indenture or, if there has been a default in the fulfillment of any such obligation, specifying each such default and the nature and status thereof.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;No holder of any debt securities of any series will have any right to institute any judicial or other proceeding with respect to the appli&lt;mark&gt;cable&lt;/mark&gt; Indenture, or for the appointment of a receiver or trustee, or for any other remedy unless: (1)    an event of default has occurred and is continuing and such holder has given the trustee prior written notice of such continuing event of default with respect to the debt securities of such series; (2)    in the case of the 2013 Indenture, the holders of not less than 25% of the aggregate principal amount of the outstanding debt securities of such series, and in the case of the 2018 Indenture, the holders of not less than 33% of the aggregate principal amount of the outstanding debt securities of such series have requested the trustee to institute proceedings in respect of such event of default; (3)    the trustee has been offered indemnity reasonably satisfactory to it against its costs, expenses and liabilities in complying with such request; (4)    the trustee has failed to institute proceedings 60 days after the receipt of such notice, request and offer of indemnity; and 10 (5)    no direction inconsistent with such written request has been given for 60 days by the holders of a majority in aggregate principal amount of the outstanding debt securities of such series.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Subject to such provisions, the trustee will be under no obligation to exercise any of its rights or powers under the appli&lt;mark&gt;cable&lt;/mark&gt; Indenture at the request of any of the holders of the debt securities of a series unless they will have offered to the trustee security or indemnity satisfactory to the trustee against the costs, expenses and liabilities which might be incurred by it in compliance with such request.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Modification and Waivers Modification and amendments of the Indentures and the Notes may be made by us and the trustee with the consent of the holders of not less than a majority in aggregate principal amount of the outstanding series of Notes affected thereby; provided, however, that no such modification or amendment may, without the consent of the holder of each outstanding Note of that series affected thereby: • change the stated maturity of the principal of, or installment of interest on, any Note; • reduce the principal amount of any Note or reduce the amount of the principal of any Note which would be due and payable upon a declaration of acceleration of the maturity thereof or reduce the rate of interest on any Note; • reduce any premium payable on the redemption of any Note or change the date on which any Note may or must be redeemed (in the case of the 2018 Indenture, it being understood that a change to any notice requirement with respect to such date shall not be deemed to be a change of such date); • change the coin or currency in which the principal of, premium, if any, or interest on any Note is payable; • impair the right of any holder to institute suit for the enforcement of any payment on or after the stated maturity of any Note (or, in the case of redemption, on or after the redemption date); • reduce the percentage in principal amount of the outstanding Notes, the consent of whose holders is required in order to take certain actions; • reduce the requirements for quorum or voting by holders of Notes in the appli&lt;mark&gt;cable&lt;/mark&gt; Indenture or the Note; • modify any of the provisions in the applicable Indenture regarding the waiver of past defaults and the waiver of certain covenants by the holders of Notes except to increase any percentage vote required or to provide that certain other provisions of the applicable Indenture cannot be modified or waived without the consent of the holder of each Notes affected thereby; • make any change that adversely affects the right to convert or exchange any debt security or decreases the conversion or exchange rate or increases the conversion price of any convertible or exchangeable debt security, unless such decrease or increase is permitted by the terms of the debt securities; or • modify any of the above provisions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We and the trustee may, without the consent of any holders, modify or amend the terms of the Indentures and any series of Notes with respect to the following: 11 • to add to our covenants for the benefit of holders of all or any series of the Notes or to surrender any right or power conferred upon us; • to evidence the succession of another person to, and the assumption by the successor of our covenants, agreements and obligations under, the appli&lt;mark&gt;cable&lt;/mark&gt; Indenture pursuant to the covenant described above under the caption “Covenants—Consolidation, Merger and Sale of Assets”; • to add any additional events of default for the benefit of holders of all or any series of the Notes; • to add one or more guarantees, and in the case of the 2018 Indenture, co-obligors, for the benefit of holders of the Notes; • to secure the Notes pursuant to the covenants of the Indenture; • to add or appoint a successor or separate trustee or other agent; • to provide for the issuance of additional debt securities of any series; • to establish the form or terms of the debt securities of any series as permitted by the Indenture; • to comply with the rules of any applicable securities depository; • to provide for uncertificated Notes in addition to or in place of certificated Notes; • in the case of the 2013 Indenture, to add to, change or eliminate any of the provisions of the 2013 Indenture in respect of one or more series of debt securities; provided that any such addition, change or elimination (a) shall neither (1) apply to any debt security of any series created prior to the execution of such supplemental indenture and entitled to the benefit of such provision nor (2) modify the rights of the holder of any such debt security with respect to such provision or (b) shall become effective only when there is no debt security described in clause (a)(1) outstanding; • in the case of the 2018 Indenture, to add to, change or eliminate any of the provisions of the 2018 Indenture in respect of one or more series of debt securities; provided that any such addition, change or elimination shall become effective only when there is no outstanding security of any series created prior to the execution of such supplemental indenture that is entitled to the benefit of such provision and as to which such supplemental indenture would apply; • to cure any ambiguity, omission, defect or inconsistency; • to change any other provision; provided that the change does not adversely affect the interests of the holders of debt securities of, in the case of the 2013 Indenture any series, and in the case of the 2018 Indenture, any outstanding series, in any material respect; • to supplement any of the provisions of the applicable Indenture to such extent as shall be necessary to permit or facilitate the defeasance and discharge of any series of Notes pursuant to the Indenture; provided that any such action shall not adversely affect the interests of the holders of Notes of such series or any other series of debt securities in any material respect; • to comply with the rules or regulations of any securities exchange or automated quotation system on which any of the Notes may be listed or traded; and • to add to, change or eliminate any of the provisions of the applicable Indenture as shall be necessary or desirable in accordance with any amendments to the Trust Indenture Act of 1939, as amended, and in the case of the 2013 Indenture, provided that such action does not adversely affect the rights or interests of any holder of debt securities in any material respect.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The holders of not less than a majority in aggregate principal amount of the outstanding Notes of a series 12 may, on behalf of the holders of all Notes of that series, waive any past default and its consequences under the appli&lt;mark&gt;cable&lt;/mark&gt; Indenture with respect to the Notes of that series, except a default (1) in the payment of principal or premium, if any, or interest on Notes of that series or (2) in respect of a covenant or provision of the applicable Indenture that cannot be modified or amended without the consent of the holder of each Note of that series.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Indentures provide that we may elect either (1) to defease and be discharged from any and all obligations with respect to the Notes of a series (except for, among other things, obligations to register the transfer or exchange of the Notes, to replace temporary or mutilated, destroyed, lost or stolen Notes, to maintain an office or agency with respect to the Notes and to hold moneys for payment in trust) (“legal defeasance”) or (2) to be released from our obligations to comply with the restrictiv</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amazon Inc Annual Report.pdf</t>
+          <t>Apple Annual Report.pdf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diversity</t>
+          <t>Investment</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LIFE ON LAND</t>
+          <t>Digital investment</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>&lt;p&gt;We focus on investment and innovation, inclusion and &lt;mark&gt;diversity&lt;/mark&gt;, safety, and engagement to hire and develop the best talent.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We believe that operating income (loss) is a more meaningful measure than gross profit and gross margin due to the &lt;mark&gt;diversity&lt;/mark&gt; of our product categories and services.&lt;/p&gt;</t>
+          <t>&lt;p&gt;As a result, the Company must make significant &lt;mark&gt;investment&lt;/mark&gt;s in R&amp;D.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There can be no assurance that these &lt;mark&gt;investment&lt;/mark&gt;s will achieve expected returns, and the Company may not be able to develop and market new products and services successfully.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;These programs can require a substantial &lt;mark&gt;investment&lt;/mark&gt; while not assuring return or incremental sales.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s global operations are subject to complex and changing laws and regulations on subjects including, but not limited to: antitrust; privacy, data security and data localization; consumer protection; advertising, sales, billing and e-commerce; product liability; intellectual property ownership and infringement; digital platforms; Internet, telecommunications, and mobile communications; media, television, film and digital content; availability of third-party software applications and services; labor and employment; anti-corruption; import, export and trade; foreign exchange controls and cash repatriation restrictions; anti–money laundering; foreign ownership and &lt;mark&gt;investment&lt;/mark&gt;; tax; and environmental, health and safety.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s retail stores have required and will continue to require a substantial &lt;mark&gt;investment&lt;/mark&gt; and commitment of resources and are subject to numerous risks and uncertainties.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s retail stores have required substantial &lt;mark&gt;investment&lt;/mark&gt; in equipment and leasehold improvements, information systems, inventory and personnel.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Because of their unique design elements, locations and size, these stores require substantially more &lt;mark&gt;investment&lt;/mark&gt; than the Company’s more typical retail stores.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Investment&lt;/mark&gt; in new business strategies and acquisitions could disrupt the Company’s ongoing business, present risks not originally contemplated and adversely affect the Company’s reputation, financial condition and operating results.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The failure of any significant &lt;mark&gt;investment&lt;/mark&gt; could adversely affect the Company’s reputation, financial condition and operating results.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company is exposed to credit risk and fluctuations in the values of its &lt;mark&gt;investment&lt;/mark&gt; portfolio.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s &lt;mark&gt;investment&lt;/mark&gt;s can be negatively affected by liquidity, credit deterioration, financial results, market and economic conditions, political risk, sovereign risk, interest rate fluctuations or other factors.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;* $100 invested on September 25, 2015 in stock or index, including re&lt;mark&gt;investment&lt;/mark&gt; of dividends.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company continues to believe that focused &lt;mark&gt;investment&lt;/mark&gt;s in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Based on the composition of the Company’s &lt;mark&gt;investment&lt;/mark&gt; portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 will not have a material impact on its consolidated financial statements.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Further information regarding the State Aid Decision can be found in Part II, Item 8 of this Form 10-K in the Notes to Consolidated Financial Statements in Note 5, “Income Taxes.” The Company’s marketable securities &lt;mark&gt;investment&lt;/mark&gt; portfolio is primarily invested in highly rated securities, with the primary objective of minimizing the potential risk of principal loss.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s &lt;mark&gt;investment&lt;/mark&gt; policy generally requires securities to be investment grade and limits the amount of credit exposure to any one issuer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Interest Rate Risk The Company’s exposure to changes in interest rates relates primarily to the Company’s &lt;mark&gt;investment&lt;/mark&gt; portfolio and outstanding debt.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s &lt;mark&gt;investment&lt;/mark&gt; policy and strategy are focused on the preservation of capital and supporting the Company’s liquidity requirements.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company uses a combination of internal and external management to execute its &lt;mark&gt;investment&lt;/mark&gt; strategy and achieve its investment objectives.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s &lt;mark&gt;investment&lt;/mark&gt; policy generally requires securities to be investment grade and limits the amount of credit exposure to any one issuer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To provide a meaningful assessment of the interest rate risk associated with the Company’s &lt;mark&gt;investment&lt;/mark&gt; portfolio, the Company performed a sensitivity analysis to determine the impact a change in interest rates would have on the value of the investment portfolio assuming a 100 basis point parallel shift in the yield curve.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Based on &lt;mark&gt;investment&lt;/mark&gt; positions as of September 26, 2020 and September 28, 2019, a hypothetical 100 basis point increase in interest rates across all maturities would result in a $3.1 billion and $2.8 billion incremental decline in the fair market value of the portfolio, respectively.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Such losses would only be realized if the Company sold the &lt;mark&gt;investment&lt;/mark&gt;s prior to maturity.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company may enter into foreign currency forward and option contracts with financial institutions to protect against foreign exchange risks associated with certain existing assets and liabilities, certain firmly committed transactions, forecasted future cash flows and net &lt;mark&gt;investment&lt;/mark&gt;s in foreign subsidiaries.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Actual future gains and losses associated with the Company’s &lt;mark&gt;investment&lt;/mark&gt; portfolio, debt and derivative positions may differ materially from the sensitivity analyses performed as of September 26, 2020 due to the inherent limitations associated with predicting the timing and amount of changes in interest rates, foreign currency exchange rates and the Company’s actual exposures and positions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Cash Equivalents and Marketable Securities All highly liquid &lt;mark&gt;investment&lt;/mark&gt;s with maturities of three months or less at the date of purchase are classified as cash equivalents.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s &lt;mark&gt;investment&lt;/mark&gt;s in marketable debt securities have been classified and accounted for as available-for-sale.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s &lt;mark&gt;investment&lt;/mark&gt;s in marketable equity securities are classified based on the nature of the securities and their availability for use in current operations.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As such, the Company’s non-marketable equity securities are measured at cost, less any impairment, and are adjusted for changes in fair value resulting from observable transactions for identical or similar &lt;mark&gt;investment&lt;/mark&gt;s of the same issuer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;(1) (1)  (1) (1)(2) (3) (4) Apple Inc. | 2020 Form 10-K | 39 Note 3 – Financial Instruments Cash, Cash Equivalents and Marketable Securities The following tables show the Company’s cash and marketable securities by significant &lt;mark&gt;investment&lt;/mark&gt; category as of September 26, 2020 and September 28, 2019 (in millions): 2020 Adjusted Cost Unrealized Gains Unrealized Losses Fair Value Cash and Cash Equivalents Current Marketable Securities Non-Current Marketable Securities Cash $ 17,773  $ —  $ —  $ 17,773 $ 17,773  $ —  $ —  Level 1 : Money market funds 2,171  —  —  2,171  2,171  —  —  Subtotal 2,171  —  —  2,171  2,171  —  —  Level 2 : U.S. Treasury securities 28,439  331  —  28,770  8,580  11,972  8,218  U.S. agency securities 8,604  8  —  8,612  2,009  3,078  3,525  Non-U.S. government securities 19,361  275  (186) 19,450  255  3,329  15,866  Certificates of deposit and time deposits 10,399  —  —  10,399  4,043  6,246  110  Commercial paper 11,226  —  —  11,226  3,185  8,041  —  Corporate debt securities 76,937  1,834  (175) 78,596  —  19,687  58,909  Municipal securities 1,001  22  —  1,023  —  139  884  Mortgage- and asset-backed securities 13,520  314  (24) 13,810  —  435  13,375  Subtotal 169,487  2,784  (385) 171,886  18,072  52,927  100,887  Total  $ 189,431  $ 2,784  $ (385) $ 191,830 $ 38,016  $ 52,927  $ 100,887  2019 Adjusted Cost Unrealized Gains Unrealized Losses Fair Value Cash and Cash Equivalents Current Marketable Securities Non-Current Marketable Securities Cash $ 12,204  $ —  $ —  $ 12,204 $ 12,204  $ —  $ —  Level 1 : Money market funds 15,897  —  —  15,897  15,897  —  —  Subtotal 15,897  —  —  15,897  15,897  —  —  Level 2 : U.S. Treasury securities 30,293  33  (62) 30,264  6,165  9,817  14,282  U.S. agency securities 9,767  1  (3) 9,765  6,489  2,249  1,027  Non-U.S. government securities 19,821  337  (50) 20,108  749  3,168  16,191  Certificates of deposit and time deposits 4,041  —  —  4,041  2,024  1,922  95  Commercial paper 12,433  —  —  12,433  5,193  7,240  —  Corporate debt securities 85,383  756  (92) 86,047  123  26,127  59,797  Municipal securities 958  8  (1) 965  —  68  897  Mortgage- and asset-backed securities 14,180  67  (73) 14,174  —  1,122  13,052  Subtotal 176,876  1,202  (281) 177,797  20,743  51,713  105,341  Total  $ 204,977  $ 1,202  $ (281) $ 205,898 $ 48,844  $ 51,713  $ 105,341  (1) Level 1 fair value estimates are based on quoted prices in active markets for identical assets or liabilities.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s &lt;mark&gt;investment&lt;/mark&gt; policy generally requires securities to be investment grade and limits the amount of credit exposure to any one issuer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Fair values were determined for each individual security in the &lt;mark&gt;investment&lt;/mark&gt; portfolio.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Derivative Financial Instruments The Company may use derivatives to partially offset its business exposure to foreign currency and interest rate risk on expected future cash flows, net &lt;mark&gt;investment&lt;/mark&gt;s in certain foreign subsidiaries, and certain existing assets and liabilities.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To protect the net &lt;mark&gt;investment&lt;/mark&gt; in a foreign operation from fluctuations in foreign currency exchange rates, the Company may enter into foreign currency forward and option contracts to offset a portion of the changes in the carrying amounts of these investments due to fluctuations in foreign currency exchange rates.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, the Company may use non-derivative financial instruments, such as its foreign currency–denominated debt, as hedges of its net &lt;mark&gt;investment&lt;/mark&gt;s in certain foreign subsidiaries.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In both of these cases, the Company designates these instruments as net &lt;mark&gt;investment&lt;/mark&gt; hedges.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Net &lt;mark&gt;Investment&lt;/mark&gt; Hedges Net investment hedge amounts that are included in the assessment of hedge effectiveness are recorded in OCI as a part of the cumulative translation adjustment.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For foreign exchange forward contracts designated as net &lt;mark&gt;investment&lt;/mark&gt; hedges, the forward carry component is excluded from the assessment of hedge effectiveness and recognized in OCI on a straight-line basis over the life of the hedge.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The following table shows the pre-tax gains and losses of the Company’s derivative and non-derivative instruments designated as cash flow and fair value hedges in OCI and the Consolidated Statements of Operations for 2020, 2019 and 2018 (in millions): 2020 2019 2018 Gains/(Losses) recognized in OCI – included in effectiveness assessment: Cash flow hedges: Foreign exchange contracts $ 365 $ (959) $ 682  Interest rate contracts (57) —  1  Total $ 308 $ (959) $ 683  Net &lt;mark&gt;investment&lt;/mark&gt; hedges: Foreign currency debt $ 15 $ (58) $ 4  Gains/(Losses) reclassified from AOCI into net income – included in effectiveness assessment: Cash flow hedges: Foreign exchange contracts $ 1,553 $ (116) $ (482) Interest rate contracts (8) (7) 1  Total $ 1,545 $ (123) $ (481) The amount excluded from the effectiveness assessment of the Company’s hedges and recognized in OCI was a loss of $168 million for 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As of September 28, 2019, a portion of the Company’s Japanese yen–denominated notes with a carrying value of $1.0 billion was designated as a hedge of the foreign currency exposure of the Company’s net &lt;mark&gt;investment&lt;/mark&gt; in a foreign operation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s Japanese yen–denominated notes matured during 2020 and the associated net &lt;mark&gt;investment&lt;/mark&gt; hedges were terminated.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;All of the Notes also contain a covenant substantially similar to the following: The Company will, subject to the exceptions and limitations set forth below, pay as additional interest on the Notes such additional amounts (“Additional Amounts”) as are necessary in order that the net payment by the Company or the paying agent of the Company for the applicable Notes (“Paying Agent”) of the principal of and interest on the Notes to a holder who is not a United States person (as defined below), after withholding or deduction for any present or future tax, assessment or other governmental charge (“Tax”) imposed by the United States or a taxing authority in the United States, will not be less than the amount provided in the Notes to be then due and payable; provided, however, that the foregoing obligation to pay Additional Amounts shall not apply: (1) to any Tax that is imposed by reason of the holder (or the beneficial owner for whose benefit such holder holds the Notes), or a fiduciary, settlor, beneficiary, member or shareholder of the holder if the holder is an estate, trust, partnership or corporation, or a person holding a power over an estate or trust administered by a fiduciary holder, being considered as: (a) being or having been engaged in a trade or business in the United States or having or having had a permanent establishment in the United States; (b) having a current or former connection with the United States (other than a connection arising solely as a result of the ownership of the Notes, the receipt of any payment or the enforcement of any rights hereunder), including being or having been a citizen or resident of the United States; (c) being or having been a personal holding company, a passive foreign &lt;mark&gt;investment&lt;/mark&gt; company or a controlled foreign corporation for U.S. federal income tax purposes or a corporation that has accumulated earnings to avoid U.S. federal income tax; (d) being or having been a “10-percent shareholder” of the Company as defined in Section 871(h)(3) of the Internal Revenue Code of 1986, as amended (the “Code”); 5 (e) being a controlled foreign corporation that is related to the Company within the meaning of Section 864(d)(4) of the Code; or (f) being a bank receiving payments on an extension of credit made pursuant to a loan agreement entered into in the ordinary course of its trade or business; (2) to any holder that is not the sole beneficial owner of the Notes, or a portion of the Notes, or that is a fiduciary, partnership or limited liability company, but only to the extent that a beneficial owner with respect to the holder, a beneficiary or settlor with respect to the fiduciary, or a beneficial owner or member of the partnership or limited liability company would not have been entitled to the payment of an additional amount had the beneficiary, settlor, beneficial owner or member received directly its beneficial or distributive share of the payment; (3) to any Tax that would not have been imposed but for the failure of the holder or any other person to comply with certification, identification or information reporting requirements concerning the nationality, residence, identity or connection with the United States of the holder or beneficial owner of the Notes, if compliance is required by statute, by regulation of the United States or any taxing authority therein or by an applicable income tax treaty to which the United States is a party as a precondition to exemption from such Tax (including, but not limited to, the requirement to provide Internal Revenue Service Forms W- 8BEN, W-8BEN-E, W-8ECI, or any subsequent versions thereof or successor thereto, and any documentation requirement under an applicable income tax treaty); (4) to any Tax that is imposed otherwise than by withholding by the Company or a Paying Agent from the payment; (5) to any Tax that would not have been imposed but for a change in law, regulation, or administrative or judicial interpretation that becomes effective more than 10 days after the payment becomes due or is duly provided for, whichever occurs later; (6) to any estate, inheritance, gift, sales, excise, transfer, wealth, capital gains or personal property or similar Tax; (7) to any Tax required to be withheld by any paying agent from any payment of principal of or interest on any Note, if such payment can be made without such withholding by at least one other paying agent; (8) to any Tax that would not have been imposed but for the presentation by the holder of any Note, where presentation is required, for payment on a date more than 30 days after the date on which payment became due and payable or the date on which payment thereof is duly provided for, whichever occurs later; (9) to any Tax imposed under Sections 1471 through 1474 of the Code (or any amended or successor provisions), any current or future regulations or official interpretations thereof, any agreement entered into pursuant to Section 1471(b) of the Code, or any fiscal or regulatory legislation, rules or practices adopted pursuant to any intergovernmental agreement entered into in connection with the implementation of such sections of the Code; or (10)in the case of any combination of items (1) through (9) above.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;“Comparable Government Bond” means, in relation to any Comparable Government Bond Rate calculation for the 2022 Notes, the 2024 Notes, the 2026 Notes and the 2027 Notes, at the discretion of an independent &lt;mark&gt;investment&lt;/mark&gt; bank selected by us, a German government bond whose maturity is closest to the maturity of the Notes being redeemed, or if such independent investment bank in its discretion determines that such similar bond is not in issue, such other German government bond as such independent investment bank may, with the advice of three brokers of, and/or market makers in, German government bonds selected by us, determine to be appropriate for determining the Comparable Government Bond Rate.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;“Comparable Government Bond” means, in relation to any Comparable Government Bond Rate calculation for the 3.050% 2029 Notes and the 2042 Notes, at the discretion of an independent &lt;mark&gt;investment&lt;/mark&gt; bank selected by us, a United Kingdom government bond whose maturity is closest to the maturity of the Notes being redeemed, or if such independent investment bank in its discretion determines that such similar bond is not in issue, such other United Kingdom government bond as such independent investment bank may, with the advice of three brokers of, and/or market makers in, United Kingdom government bonds selected by us, determine to be appropriate for determining the Comparable Government Bond Rate.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;“Comparable Government Bond” means, in relation to any Comparable Government Bond Rate calculation for the 0.000% 2025 Notes, the 0.875% 2025 Notes, the 1.375% 2029 Notes and the 2031 Notes, at the discretion of an independent &lt;mark&gt;investment&lt;/mark&gt; bank selected by us, a German government bond whose maturity is closest to the applicable Par Call Date of the Notes being redeemed, or if such independent investment bank in its discretion determines that such similar bond is not in issue, such other German government bond as such independent investment bank may, with the advice of three brokers of, and/or market makers in, German government bonds selected by us, determine to be appropriate for determining the Comparable Government Bond Rate.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;“Comparable Government Bond Rate” means the price, expressed as a percentage (rounded to three decimal places, with 0.0005 being rounded upwards), at which the gross redemption yield on the Notes, if they were to be purchased at such price on the third business day prior to the date fixed for redemption, would be equal to the gross redemption yield on such business day of the Comparable Government Bond on the basis of the middle market price of the Comparable Government Bond prevailing at 11:00 a.m. (London time) on such business day as determined by an independent &lt;mark&gt;investment&lt;/mark&gt; bank selected by us.&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Amazon Inc Annual Report.pdf</t>
+          <t>Apple Annual Report.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Supply Chain Management</t>
+          <t>Privacy</t>
         </is>
       </c>
       <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The Company’s global operations are subject to complex and changing laws and regulations on subjects including, but not limited to: antitrust; &lt;mark&gt;privacy&lt;/mark&gt;, data security and data localization; consumer protection; advertising, sales, billing and e-commerce; product liability; intellectual property ownership and infringement; digital platforms; Internet, telecommunications, and mobile communications; media, television, film and digital content; availability of third-party software applications and services; labor and employment; anti-corruption; import, export and trade; foreign exchange controls and cash repatriation restrictions; anti–money laundering; foreign ownership and investment; tax; and environmental, health and safety.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Health data is subject to additional &lt;mark&gt;privacy&lt;/mark&gt;, security and breach notification requirements, and the Company can be subject to audit by governmental authorities regarding the Company’s compliance with these obligations.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company makes statements about its use and disclosure of PII through its &lt;mark&gt;privacy&lt;/mark&gt; policy, information provided on its website and press statements.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Any failure by the Company to comply with these public statements or with other federal, state or international &lt;mark&gt;privacy&lt;/mark&gt;-related or data protection laws and regulations could result in proceedings against the Company by governmental entities or others.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Data &lt;mark&gt;Privacy&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Data &lt;mark&gt;Privacy&lt;/mark&gt;.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Apple Annual Report.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The Company’s global operations are subject to complex and changing laws and regulations on subjects including, but not limited to: anti&lt;mark&gt;trust&lt;/mark&gt;; privacy, data security and data localization; consumer protection; advertising, sales, billing and e-commerce; product liability; intellectual property ownership and infringement; digital platforms; Internet, telecommunications, and mobile communications; media, television, film and digital content; availability of third-party software applications and services; labor and employment; anti-corruption; import, export and trade; foreign exchange controls and cash repatriation restrictions; anti–money laundering; foreign ownership and investment; tax; and environmental, health and safety.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For example, the Company is subject to anti&lt;mark&gt;trust&lt;/mark&gt; investigations in various jurisdictions around the world, which can result in legal proceedings and claims against the Company that could, individually or in the aggregate, have a materially adverse impact on the Company’s financial condition and operating results.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;4.2 Indenture, dated as of April 29, 2013, between the Registrant and The Bank of New York Mellon &lt;mark&gt;Trust&lt;/mark&gt; Company, N.A., as Trustee.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;8-K 4.1 11/13/17 4.20 Indenture, dated as of November 5, 2018, between the Registrant and The Bank of New York Mellon &lt;mark&gt;Trust&lt;/mark&gt; Company, N.A., as Trustee.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This description is qualified in its entirety by reference, as applicable, to the Indenture, dated as of April 29, 2013, between Apple Inc. and The 2 Bank of New York Mellon &lt;mark&gt;Trust&lt;/mark&gt; Company, N.A., as trustee (the “2013 Indenture”) and the Indenture, dated as of November 5, 2018, between Apple Inc. and The Bank of New York Mellon Trust Company, N.A., as trustee (the “2018 Indenture,” and together with the 2013 Indenture, the “Indentures”).&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;All of the Notes also contain a covenant substantially similar to the following: The Company will, subject to the exceptions and limitations set forth below, pay as additional interest on the Notes such additional amounts (“Additional Amounts”) as are necessary in order that the net payment by the Company or the paying agent of the Company for the applicable Notes (“Paying Agent”) of the principal of and interest on the Notes to a holder who is not a United States person (as defined below), after withholding or deduction for any present or future tax, assessment or other governmental charge (“Tax”) imposed by the United States or a taxing authority in the United States, will not be less than the amount provided in the Notes to be then due and payable; provided, however, that the foregoing obligation to pay Additional Amounts shall not apply: (1) to any Tax that is imposed by reason of the holder (or the beneficial owner for whose benefit such holder holds the Notes), or a fiduciary, settlor, beneficiary, member or shareholder of the holder if the holder is an estate, &lt;mark&gt;trust&lt;/mark&gt;, partnership or corporation, or a person holding a power over an estate or trust administered by a fiduciary holder, being considered as: (a) being or having been engaged in a trade or business in the United States or having or having had a permanent establishment in the United States; (b) having a current or former connection with the United States (other than a connection arising solely as a result of the ownership of the Notes, the receipt of any payment or the enforcement of any rights hereunder), including being or having been a citizen or resident of the United States; (c) being or having been a personal holding company, a passive foreign investment company or a controlled foreign corporation for U.S. federal income tax purposes or a corporation that has accumulated earnings to avoid U.S. federal income tax; (d) being or having been a “10-percent shareholder” of the Company as defined in Section 871(h)(3) of the Internal Revenue Code of 1986, as amended (the “Code”); 5 (e) being a controlled foreign corporation that is related to the Company within the meaning of Section 864(d)(4) of the Code; or (f) being a bank receiving payments on an extension of credit made pursuant to a loan agreement entered into in the ordinary course of its trade or business; (2) to any holder that is not the sole beneficial owner of the Notes, or a portion of the Notes, or that is a fiduciary, partnership or limited liability company, but only to the extent that a beneficial owner with respect to the holder, a beneficiary or settlor with respect to the fiduciary, or a beneficial owner or member of the partnership or limited liability company would not have been entitled to the payment of an additional amount had the beneficiary, settlor, beneficial owner or member received directly its beneficial or distributive share of the payment; (3) to any Tax that would not have been imposed but for the failure of the holder or any other person to comply with certification, identification or information reporting requirements concerning the nationality, residence, identity or connection with the United States of the holder or beneficial owner of the Notes, if compliance is required by statute, by regulation of the United States or any taxing authority therein or by an applicable income tax treaty to which the United States is a party as a precondition to exemption from such Tax (including, but not limited to, the requirement to provide Internal Revenue Service Forms W- 8BEN, W-8BEN-E, W-8ECI, or any subsequent versions thereof or successor thereto, and any documentation requirement under an applicable income tax treaty); (4) to any Tax that is imposed otherwise than by withholding by the Company or a Paying Agent from the payment; (5) to any Tax that would not have been imposed but for a change in law, regulation, or administrative or judicial interpretation that becomes effective more than 10 days after the payment becomes due or is duly provided for, whichever occurs later; (6) to any estate, inheritance, gift, sales, excise, transfer, wealth, capital gains or personal property or similar Tax; (7) to any Tax required to be withheld by any paying agent from any payment of principal of or interest on any Note, if such payment can be made without such withholding by at least one other paying agent; (8) to any Tax that would not have been imposed but for the presentation by the holder of any Note, where presentation is required, for payment on a date more than 30 days after the date on which payment became due and payable or the date on which payment thereof is duly provided for, whichever occurs later; (9) to any Tax imposed under Sections 1471 through 1474 of the Code (or any amended or successor provisions), any current or future regulations or official interpretations thereof, any agreement entered into pursuant to Section 1471(b) of the Code, or any fiscal or regulatory legislation, rules or practices adopted pursuant to any intergovernmental agreement entered into in connection with the implementation of such sections of the Code; or (10)in the case of any combination of items (1) through (9) above.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As used under “—Payment of Additional Amounts” and under “— Redemption for Tax Reasons,” the term “United States” means the United States of America (including the states and the District of Columbia and any political subdivision thereof), and the term “United States person” means any individual who is a citizen or resident of the United States for U.S. federal income tax purposes, a corporation, partnership or other entity created or organized in or under the laws of the United States, any state of the United States or the District of Columbia (other than a partnership that is not treated as a United States person under any applicable Treasury regulations), or any estate or &lt;mark&gt;trust&lt;/mark&gt; the income of which is subject to U.S. federal income taxation regardless of its source.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Consolidation, Merger and Sale of Assets The Indentures provide that we may consolidate with or merge with or into any other person, and may sell, transfer, or lease or convey all or substantially all of our properties and assets to another person; provided that the following conditions are satisfied: • we are the continuing entity, or the resulting, surviving or transferee person (the “Successor”) is a person (if such person is not a corporation, then the Successor will include a corporate co-issuer of the debt securities) organized and existing under the laws of the United States of America, any state thereof or the District of Columbia and the Successor (if not us) will expressly assume, by supplemental indenture, all of our obligations under the debt securities and the applicable Indenture and, for each security that by its terms provides for conversion, provide for the right to convert such security in accordance with its terms; 8 • immediately after giving effect to such transaction, no default or event of default under the applicable Indenture has occurred and is continuing; and • in the case of the 2013 Indenture, the &lt;mark&gt;trust&lt;/mark&gt;ee receives from us an officers’ certificate and an opinion of counsel that the transaction and such supplemental indenture, as the case may be, complies with the applicable provisions of the 2013 Indenture.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For purposes of this covenant, “person” means any individual, corporation, partnership, limited liability company, joint venture, association, joint-stock company, &lt;mark&gt;trust&lt;/mark&gt;, unincorporated organization or government or any agency or political subdivision thereof or any other entity.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Events of Default Each of the following events are defined in the Indentures as an “event of default” (whatever the reason for such event of default and whether or not it will be voluntary or involuntary or be effected by operation of law or pursuant to any judgment, decree or order of any court or any order, rule or regulation of any administrative or governmental body) with respect to the debt securities of any series: (1)    default in the payment of any installment of interest on any debt securities of such series for 30 days after becoming due; (2)    default in the payment of principal of or premium, if any, on any debt securities of such series when it becomes due and payable at its stated maturity, upon optional redemption, upon declaration or otherwise; (3)    default in the performance, or breach, of any covenant or agreement of ours in the applicable Indenture with respect to the debt securities of such series (other than a covenant or agreement, a default in the performance of which or a breach of which is elsewhere in the applicable Indenture specifically dealt with or that has expressly been included in the applicable Indenture solely for the benefit of a series of debt securities other than such series), which continues for a period of 90 days after written notice to us by the &lt;mark&gt;trust&lt;/mark&gt;ee or to us and the trustee by the holders of, in the case of the 2013 Indenture, at least 25% in aggregate principal amount of the outstanding debt securities of that series, and in the case of the 2018 Indenture, at least 33% in aggregate principal amount of the outstanding debt securities of that series; (4)    we, pursuant to or within the meaning of the Bankruptcy Law: • commence a voluntary case or proceeding; • consent to the entry of an order for relief against us in an involuntary case or proceeding; • consent to the appointment of a custodian of us or for all or substantially all of our property; • make a general assignment for the benefit of our creditors; • file a petition in bankruptcy or answer or consent seeking reorganization or relief; • consent to the filing of such petition or the appointment of or taking possession by a custodian; or • take any comparable action under any foreign laws relating to insolvency; (5)    a court of competent jurisdiction enters an order or decree under any Bankruptcy Law that: 9 • is for relief against us in an involuntary case, or adjudicates us insolvent or bankrupt; • appoints a custodian of us or for all or substantially all of our property; or • orders the winding-up or liquidation of us (or any similar relief is granted under any foreign laws); and the order or decree remains unstayed and in effect for 90 days (or, in the case of the 2018 Indenture, 90 consecutive days); or (6)    any other event of default provided with respect to debt securities of such series occurs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;“Custodian” means any custodian, receiver, &lt;mark&gt;trust&lt;/mark&gt;ee, assignee, liquidator or other similar official under any Bankruptcy Law.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If an event of default with respect to debt securities of any series (other than an event of default relating to certain events of bankruptcy, insolvency, or reorganization of us) occurs and is continuing, the &lt;mark&gt;trust&lt;/mark&gt;ee by notice to us, or the holders of, in the case of the 2013 Indenture, at least 25% in aggregate principal amount of the outstanding debt securities of such series, and in the case of the 2018 Indenture, at least 33% in aggregate principal amount of the outstanding debt securities of such series, by notice to us and the trustee, may, and the trustee at the request of these holders will, declare the principal of and premium, if any, and accrued and unpaid interest on all the debt securities of such series to be due and payable.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If an event of default relating to certain events of bankruptcy, insolvency, or reorganization of us occurs and is continuing, the principal of and premium, if any, and accrued and unpaid interest on the debt securities of such series will become and be immediately due and payable without any declaration or other act on the part of the &lt;mark&gt;trust&lt;/mark&gt;ee or any holders.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The holders of not less than a majority in aggregate principal amount of the outstanding debt securities of any series may rescind a declaration of acceleration and its consequences, if we have deposited certain sums with the &lt;mark&gt;trust&lt;/mark&gt;ee and all events of default with respect to the debt securities of such series, other than the non- payment of the principal or interest which have become due solely by such acceleration, have been cured or waived, as provided in the Indentures.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We are required to furnish the &lt;mark&gt;trust&lt;/mark&gt;ee annually within 120 days after the end of our fiscal year a statement by one of our officers to the effect that, to the best knowledge of such officer, we are not in default in the fulfillment of any of our obligations under the applicable Indenture or, if there has been a default in the fulfillment of any such obligation, specifying each such default and the nature and status thereof.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;No holder of any debt securities of any series will have any right to institute any judicial or other proceeding with respect to the applicable Indenture, or for the appointment of a receiver or &lt;mark&gt;trust&lt;/mark&gt;ee, or for any other remedy unless: (1)    an event of default has occurred and is continuing and such holder has given the trustee prior written notice of such continuing event of default with respect to the debt securities of such series; (2)    in the case of the 2013 Indenture, the holders of not less than 25% of the aggregate principal amount of the outstanding debt securities of such series, and in the case of the 2018 Indenture, the holders of not less than 33% of the aggregate principal amount of the outstanding debt securities of such series have requested the trustee to institute proceedings in respect of such event of default; (3)    the trustee has been offered indemnity reasonably satisfactory to it against its costs, expenses and liabilities in complying with such request; (4)    the trustee has failed to institute proceedings 60 days after the receipt of such notice, request and offer of indemnity; and 10 (5)    no direction inconsistent with such written request has been given for 60 days by the holders of a majority in aggregate principal amount of the outstanding debt securities of such series.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The holders of a majority in aggregate principal amount of outstanding debt securities of a series will have the right, subject to certain limitations, to direct the time, method and place of conducting any proceeding for any remedy available to the &lt;mark&gt;trust&lt;/mark&gt;ee with respect to the debt securities of that series or exercising any trust or power conferred to the trustee, and to waive certain defaults.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Each of the Indentures provides that if an event of default occurs and is continuing, the &lt;mark&gt;trust&lt;/mark&gt;ee will exercise such of its rights and powers under such Indenture, and use the same degree of care and skill in their exercise, as a prudent person would exercise or use under the circumstances in the conduct of such person’s own affairs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Subject to such provisions, the &lt;mark&gt;trust&lt;/mark&gt;ee will be under no obligation to exercise any of its rights or powers under the applicable Indenture at the request of any of the holders of the debt securities of a series unless they will have offered to the trustee security or indemnity satisfactory to the trustee against the costs, expenses and liabilities which might be incurred by it in compliance with such request.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Modification and Waivers Modification and amendments of the Indentures and the Notes may be made by us and the &lt;mark&gt;trust&lt;/mark&gt;ee with the consent of the holders of not less than a majority in aggregate principal amount of the outstanding series of Notes affected thereby; provided, however, that no such modification or amendment may, without the consent of the holder of each outstanding Note of that series affected thereby: • change the stated maturity of the principal of, or installment of interest on, any Note; • reduce the principal amount of any Note or reduce the amount of the principal of any Note which would be due and payable upon a declaration of acceleration of the maturity thereof or reduce the rate of interest on any Note; • reduce any premium payable on the redemption of any Note or change the date on which any Note may or must be redeemed (in the case of the 2018 Indenture, it being understood that a change to any notice requirement with respect to such date shall not be deemed to be a change of such date); • change the coin or currency in which the principal of, premium, if any, or interest on any Note is payable; • impair the right of any holder to institute suit for the enforcement of any payment on or after the stated maturity of any Note (or, in the case of redemption, on or after the redemption date); • reduce the percentage in principal amount of the outstanding Notes, the consent of whose holders is required in order to take certain actions; • reduce the requirements for quorum or voting by holders of Notes in the applicable Indenture or the Note; • modify any of the provisions in the applicable Indenture regarding the waiver of past defaults and the waiver of certain covenants by the holders of Notes except to increase any percentage vote required or to provide that certain other provisions of the applicable Indenture cannot be modified or waived without the consent of the holder of each Notes affected thereby; • make any change that adversely affects the right to convert or exchange any debt security or decreases the conversion or exchange rate or increases the conversion price of any convertible or exchangeable debt security, unless such decrease or increase is permitted by the terms of the debt securities; or • modify any of the above provisions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We and the &lt;mark&gt;trust&lt;/mark&gt;ee may, without the consent of any holders, modify or amend the terms of the Indentures and any series of Notes with respect to the following: 11 • to add to our covenants for the benefit of holders of all or any series of the Notes or to surrender any right or power conferred upon us; • to evidence the succession of another person to, and the assumption by the successor of our covenants, agreements and obligations under, the applicable Indenture pursuant to the covenant described above under the caption “Covenants—Consolidation, Merger and Sale of Assets”; • to add any additional events of default for the benefit of holders of all or any series of the Notes; • to add one or more guarantees, and in the case of the 2018 Indenture, co-obligors, for the benefit of holders of the Notes; • to secure the Notes pursuant to the covenants of the Indenture; • to add or appoint a successor or separate trustee or other agent; • to provide for the issuance of additional debt securities of any series; • to establish the form or terms of the debt securities of any series as permitted by the Indenture; • to comply with the rules of any applicable securities depository; • to provide for uncertificated Notes in addition to or in place of certificated Notes; • in the case of the 2013 Indenture, to add to, change or eliminate any of the provisions of the 2013 Indenture in respect of one or more series of debt securities; provided that any such addition, change or elimination (a) shall neither (1) apply to any debt security of any series created prior to the execution of such supplemental indenture and entitled to the benefit of such provision nor (2) modify the rights of the holder of any such debt security with respect to such provision or (b) shall become effective only when there is no debt security described in clause (a)(1) outstanding; • in the case of the 2018 Indenture, to add to, change or eliminate any of the provisions of the 2018 Indenture in respect of one or more series of debt securities; provided that any such addition, change or elimination shall become effective only when there is no outstanding security of any series created prior to the execution of such supplemental indenture that is entitled to the benefit of such provision and as to which such supplemental indenture would apply; • to cure any ambiguity, omission, defect or inconsistency; • to change any other provision; provided that the change does not adversely affect the interests of the holders of debt securities of, in the case of the 2013 Indenture any series, and in the case of the 2018 Indenture, any outstanding series, in any material respect; • to supplement any of the provisions of the applicable Indenture to such extent as shall be necessary to permit or facilitate the defeasance and discharge of any series of Notes pursuant to the Indenture; provided that any such action shall not adversely affect the interests of the holders of Notes of such series or any other series of debt securities in any material respect; • to comply with the rules or regulations of any securities exchange or automated quotation system on which any of the Notes may be listed or traded; and • to add to, change or eliminate any of the provisions of the applicable Indenture as shall be necessary or desirable in accordance with any amendments to the Trust Indenture Act of 1939, as amended, and in the case of the 2013 Indenture, provided that such action does not adversely affect the rights or interests of any holder of debt securities in any material respect.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Discharge, Defeasance and Covenant Defeasance We may discharge certain obligations to holders of the Notes of a series that have not already been delivered to the &lt;mark&gt;trust&lt;/mark&gt;ee for cancellation and that either have become due and payable or will become due and payable within one year (or scheduled for redemption within one year) by depositing with the trustee, in trust, funds in U.S. dollars in an amount sufficient to pay the entire indebtedness including, but not limited to, the principal and premium, if any, and interest to the date of such deposit (if due and payable) or to the maturity thereof or the redemption date of the Notes of that series, as the case may be.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We may direct the &lt;mark&gt;trust&lt;/mark&gt;ee to invest such funds in U.S. Treasury securities with a maturity of one year or less or in a money market fund that invests solely in short-term U.S. Treasury securities.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Indentures provide that we may elect either (1) to defease and be discharged from any and all obligations with respect to the Notes of a series (except for, among other things, obligations to register the transfer or exchange of the Notes, to replace temporary or mutilated, destroyed, lost or stolen Notes, to maintain an office or agency with respect to the Notes and to hold moneys for payment in &lt;mark&gt;trust&lt;/mark&gt;) (“legal defeasance”) or (2) to be released from our obligations to comply with the restrictive covenants under the applicable Indenture, and any omission to comply with such obligations will not constitute a default or an event of default with respect to the Notes of a series and clauses (3) and (6) under the caption “Events of Default” above will no longer be applied (“covenant defeasance”).&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Legal defeasance or covenant defeasance, as the case may be, will be conditioned upon, among other things, the irrevocable deposit by us with the &lt;mark&gt;trust&lt;/mark&gt;ee, in trust, of an amount in U.S. dollars, or U.S. government obligations (as such term is modified below), or both, applicable to the Notes of that series which through the scheduled payment of principal and interest in accordance with their terms will provide money in an amount sufficient to pay the principal or premium, if any, and interest on the Notes on the scheduled due dates therefor.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If we effect covenant defeasance with respect to the Notes of any series, the amount in U.S. dollars, or U.S. government obligations (as such term is modified below), or both, on deposit with the &lt;mark&gt;trust&lt;/mark&gt;ee will be sufficient, in the opinion of a nationally recognized firm of independent accountants, to pay amounts due on the Notes of that series at the time of the stated maturity but may not be sufficient to pay amounts due on the Notes of that series at the time of the acceleration resulting from such event of default.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We will be required to deliver to the &lt;mark&gt;trust&lt;/mark&gt;ee an opinion of counsel that the deposit and related defeasance will not cause the holders and beneficial owners of the Notes of that series to recognize income, gain or loss for 13 federal income tax purposes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Certificated Notes Subject to certain conditions, the Notes represented by the global notes are exchangeable for certificated notes in definitive form of like tenor, in minimum denominations of €100,000 principal amount and integral multiples of €1,000 in excess thereof in the case of the 2022 Notes, the 2024 Notes, the 0.000% 2025 Notes, the 0.875% 2025 Notes, the 2026 Notes, the 2027 Notes, the 1.375% 2029 Notes and the 2031 Notes, and in minimum denominations of £100,000 principal amount and integral multiples of £1,000 in excess thereof in the case of the 3.050% 2029 Notes and the 2042 Notes, if: 1. the common depositary notifies us that it is unwilling or unable to continue as depositary or if the common depositary ceases to be eligible under the applicable Indenture and we do not appoint a successor depository within 90 days; 2.    we determine that the Notes will no longer be represented by global securities and execute and deliver to the &lt;mark&gt;trust&lt;/mark&gt;ee an order to that effect; or 3.    an event of default with respect to the Notes will have occurred and be continuing.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The &lt;mark&gt;Trust&lt;/mark&gt;ee for the Notes The Bank of New York Mellon Trust Company, N.A.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;is the &lt;mark&gt;trust&lt;/mark&gt;ee under the Indentures.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We have commercial deposits and custodial arrangements with The Bank of New York Mellon &lt;mark&gt;Trust&lt;/mark&gt; Company, N.A.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, BNYM acts as &lt;mark&gt;trust&lt;/mark&gt;ee and as paying agent with respect to other debt securities issued by us, and may do so for future issuances of debt securities by us as well.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Stock Units shall not be treated as property or as a &lt;mark&gt;trust&lt;/mark&gt; fund of any kind.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This Award Agreement creates only a contractual obligation on the part of the Company as to amounts payable and shall not be construed as creating a &lt;mark&gt;trust&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Stock Units shall not be treated as property or as a &lt;mark&gt;trust&lt;/mark&gt; fund of any kind.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This Award Agreement creates only a contractual obligation on the part of the Company as to amounts payable and shall not be construed as creating a &lt;mark&gt;trust&lt;/mark&gt;.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Apple Annual Report.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>74</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Decentralized Finance/Marketplaces</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;mark&gt;Payment&lt;/mark&gt; Services The Company offers payment services, including Apple Card™, a co-branded credit card, and Apple Pay , a cashless payment service.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some carriers providing cellular network service for iPhone offer financing, installment &lt;mark&gt;payment&lt;/mark&gt; plans or subsidies for users’ purchases of the device.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company reviews long-lived assets, including capital assets held at its suppliers’ facilities and inventory pre&lt;mark&gt;payment&lt;/mark&gt;s, for impairment whenever events or circumstances indicate the assets may not be recoverable.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Although the Company believes its inventory, capital assets, inventory pre&lt;mark&gt;payment&lt;/mark&gt;s and other assets and purchase commitments are currently recoverable, no assurance can be given that the Company will not incur write-downs, fees, impairments and other charges given the rapid and unpredictable pace of product obsolescence in the industries in which the Company competes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company has invested in manufacturing process equipment, much of which is held at certain of its outsourcing partners, and has made pre&lt;mark&gt;payment&lt;/mark&gt;s to certain of its suppliers associated with long-term supply agreements.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While these arrangements help ensure the supply of components and finished goods, if these outsourcing partners or suppliers experience severe financial problems or other disruptions in their business, such continued supply can be reduced or terminated, and the recoverability of manufacturing process equipment or pre&lt;mark&gt;payment&lt;/mark&gt;s can be negatively impacted.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition to the risks relating to general confidential information described above, the Company is also subject to specific obligations relating to health data and &lt;mark&gt;payment&lt;/mark&gt; card data.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Under &lt;mark&gt;payment&lt;/mark&gt; card rules and obligations, if cardholder information is potentially compromised, the Company could be liable for associated investigatory expenses and could also incur significant fees or fines if the Company fails to follow payment card industry data security standards.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company could also experience a significant increase in &lt;mark&gt;payment&lt;/mark&gt; card transaction costs or lose the ability to process payment cards if it fails to follow payment card industry data security standards, which would materially adversely affect the Company’s reputation, financial condition and operating results.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company is exposed to credit risk on its trade accounts receivable, vendor non-trade receivables and pre&lt;mark&gt;payment&lt;/mark&gt;s related to long-term supply agreements, and this risk is heightened during periods when economic conditions worsen.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, the Company has made pre&lt;mark&gt;payment&lt;/mark&gt;s associated with long-term supply agreements to secure supply of inventory components.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As of September 26, 2020, the Company’s vendor non-trade receivables and pre&lt;mark&gt;payment&lt;/mark&gt;s related to long-term supply agreements were concentrated among a few individual vendors located primarily in Asia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While the Company has procedures to monitor and limit exposure to credit risk on its trade and vendor non-trade receivables, as well as long-term pre&lt;mark&gt;payment&lt;/mark&gt;s, there can be no assurance such procedures will effectively limit its credit risk and avoid losses.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company believes its existing balances of cash, cash equivalents and marketable securities, along with commercial paper and other short-term liquidity arrangements, will be sufficient to satisfy its working capital needs, capital asset purchases, dividends, share repurchases, debt re&lt;mark&gt;payment&lt;/mark&gt;s and other liquidity requirements associated with its existing operations.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company believes its existing balances of cash, cash equivalents and marketable securities, along with commercial paper and other short-term liquidity arrangements, will be sufficient to satisfy its working capital needs, capital asset purchases, dividends, share repurchases, debt re&lt;mark&gt;payment&lt;/mark&gt;s and other liquidity requirements associated with its existing operations over the next 12 months.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Cash used in financing activities of $86.8 billion during 2020 consisted primarily of cash used to repurchase common stock of $72.4 billion, cash used to pay dividends and dividend equivalents of $14.1 billion, cash used to repay or redeem term debt of $12.6 billion and net re&lt;mark&gt;payment&lt;/mark&gt;s of commercial paper of $1.0 billion, partially offset by net proceeds from the issuance of term debt of $16.1 billion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Cash used in financing activities of $91.0 billion during 2019 consisted primarily of cash used to repurchase common stock of $66.9 billion, cash used to pay dividends and dividend equivalents of $14.1 billion, cash used to repay term debt of $8.8 billion and net re&lt;mark&gt;payment&lt;/mark&gt;s of commercial paper of $6.0 billion, partially offset by net proceeds from the issuance of term debt of $7.0 billion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Contractual Obligations The following table presents certain &lt;mark&gt;payment&lt;/mark&gt;s due by the Company as of September 26, 2020, and includes amounts already recorded on the Consolidated Balance Sheet, except for manufacturing purchase obligations, other purchase obligations and certain lease obligations (in millions): Payments due in 2021 Payments due in 2022–2023 Payments due in 2024–2025 Payments due after 2025 Total Term debt $ 8,750 $ 20,958 $ 21,029 $ 55,341 $ 106,078  Leases 1,622  3,097  2,352  5,888  12,959  Manufacturing purchase obligations  47,961  1,849  61  40  49,911  Other purchase obligations 6,178  2,736  400  90  9,404  Deemed repatriation tax payable 1,533  5,923  12,955  9,254  29,665  Total $ 66,044 $ 34,563 $ 36,797 $ 70,613 $ 208,017  (1) Represents amount expected to be paid under manufacturing-related supplier arrangements, which are primarily noncancelable.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The above contractual obligations table includes future &lt;mark&gt;payment&lt;/mark&gt;s under leases that had commenced as of September 26, 2020, and were therefore recorded on the Company’s Consolidated Balance Sheet, as well as leases that had been signed but not yet commenced as of September 26, 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Other Non-Current Liabilities The Company’s remaining other non-current liabilities primarily consist of items for which the Company is unable to make a reasonably reliable estimate of the timing or amount of &lt;mark&gt;payment&lt;/mark&gt;s; therefore, such amounts are not included in the above contractual obligations table.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Valuation of Manufacturing-Related Assets and Estimation of Inventory Purchase Commitment Cancellation Fees The Company invests in manufacturing-related assets, including capital assets held at its suppliers’ facilities and pre&lt;mark&gt;payment&lt;/mark&gt;s provided to certain of its suppliers associated with long-term agreements to secure the supply of inventory.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Interest rate swaps allow the Company to effectively convert fixed-rate &lt;mark&gt;payment&lt;/mark&gt;s into floating-rate payments or floating-rate payments into fixed-rate payments.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Apple Inc. | 2020 Form 10-K | 34 Apple Inc. CONSOLIDATED STATEMENTS OF CASH FLOWS (In millions) Years ended September 26, 2020 September 28, 2019 September 29, 2018 Cash, cash equivalents and restricted cash, beginning balances $ 50,224  $ 25,913  $ 20,289  Operating activities: Net income 57,411  55,256  59,531  Adjustments to reconcile net income to cash generated by operating activities: Depreciation and amortization 11,056  12,547  10,903  Share-based compensation expense 6,829  6,068  5,340  Deferred income tax benefit (215) (340) (32,590) Other (97) (652) (444) Changes in operating assets and liabilities: Accounts receivable, net 6,917  245  (5,322) Inventories (127) (289) 828  Vendor non-trade receivables 1,553  2,931  (8,010) Other current and non-current assets (9,588) 873  (423) Accounts payable (4,062) (1,923) 9,175  Deferred revenue 2,081  (625) (3) Other current and non-current liabilities 8,916  (4,700) 38,449  Cash generated by operating activities 80,674  69,391  77,434  Investing activities: Purchases of marketable securities (114,938) (39,630) (71,356) Proceeds from maturities of marketable securities 69,918  40,102  55,881  Proceeds from sales of marketable securities 50,473  56,988  47,838  &lt;mark&gt;Payment&lt;/mark&gt;s for acquisition of property, plant and equipment (7,309) (10,495) (13,313) Payments made in connection with business acquisitions, net (1,524) (624) (721) Purchases of non-marketable securities (210) (1,001) (1,871) Proceeds from non-marketable securities 92  1,634  353  Other (791) (1,078) (745) Cash generated by/(used in) investing activities (4,289) 45,896  16,066  Financing activities: Proceeds from issuance of common stock 880  781  669  Payments for taxes related to net share settlement of equity awards (3,634) (2,817) (2,527) Payments for dividends and dividend equivalents (14,081) (14,119) (13,712) Repurchases of common stock (72,358) (66,897) (72,738) Proceeds from issuance of term debt, net 16,091  6,963  6,969  Repayments of term debt (12,629) (8,805) (6,500) Repayments of commercial paper, net (963) (5,977) (37) Other (126) (105) —  Cash used in financing activities (86,820) (90,976) (87,876) Increase/(Decrease) in cash, cash equivalents and restricted cash (10,435) 24,311  5,624  Cash, cash equivalents and restricted cash, ending balances $ 39,789  $ 50,224  $ 25,913  Supplemental cash flow disclosure: Cash paid for income taxes, net $ 9,501  $ 15,263  $ 10,417  Cash paid for interest $ 3,002  $ 3,423  $ 3,022  See accompanying Notes to Consolidated Financial Statements.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Control is generally transferred when the Company has a present right to &lt;mark&gt;payment&lt;/mark&gt; and title and the significant risks and rewards of ownership of products or services are transferred to its customers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Payment&lt;/mark&gt; for Products and Services net sales is collected within a short period following transfer of control or commencement of delivery of services, as applicable.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The following table provides a summary of cash flows associated with the issuance and maturities of Commercial Paper for 2020, 2019 and 2018 (in millions): 2020 2019 2018 Maturities 90 days or less: Proceeds from/(Re&lt;mark&gt;payment&lt;/mark&gt;s of) commercial paper, net $ 100 $ (3,248) $ 1,044  Maturities greater than 90 days: Proceeds from commercial paper 6,185  13,874  14,555  Repayments of commercial paper (7,248) (16,603) (15,636) Repayments of commercial paper, net (1,063) (2,729) (1,081) Total repayments of commercial paper, net $ (963) $ (5,977) $ (37) In 2020, the Company entered into agreements to sell certain of its marketable securities with a promise to repurchase the securities at a specified time and amount (“Repos”).&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The future principal &lt;mark&gt;payment&lt;/mark&gt;s for the Company’s Notes as of September 26, 2020, are as follows (in millions): 2021 $ 8,750  2022 9,569  2023 11,389  2024 10,115  2025 10,914  Thereafter 55,341  Total term debt $ 106,078  As of September 26, 2020 and September 28, 2019, the fair value of the Company’s Notes, based on Level 2 inputs, was $117.1 billion and $107.5 billion, respectively.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Total &lt;mark&gt;payment&lt;/mark&gt;s for the employees’ tax obligations to taxing authorities were $3.9 billion, $3.0 billion and $2.7 billion in 2020, 2019 and 2018, respectively.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s unconditional purchase obligations primarily consist of &lt;mark&gt;payment&lt;/mark&gt;s for supplier arrangements, Internet and telecommunication services, intellectual property licenses and content creation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Future &lt;mark&gt;payment&lt;/mark&gt;s under noncancelable unconditional purchase obligations having a remaining term in excess of one year as of September 26, 2020, are as follows (in millions): 2021 $ 3,476  2022 2,885  2023 1,700  2024 357  2025 104  Thereafter 130  Total $ 8,652  Contingencies The Company is subject to various legal proceedings and claims that have arisen in the ordinary course of business and that have not been fully resolved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Payment&lt;/mark&gt;s under the Company’s lease arrangements may be fixed or variable, and variable lease payments are primarily based on purchases of output of the underlying leased assets.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Lease costs associated with fixed &lt;mark&gt;payment&lt;/mark&gt;s on the Company’s operating leases were $1.5 billion for 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Lease costs associated with variable &lt;mark&gt;payment&lt;/mark&gt;s on the Company’s leases were $9.3 billion for 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For 2020, the Company made $1.5 billion of fixed cash &lt;mark&gt;payment&lt;/mark&gt;s related to operating leases.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As of September 26, 2020, the Company had $1.7 billion of future &lt;mark&gt;payment&lt;/mark&gt;s under additional leases, primarily for corporate facilities and retail space, that had not yet commenced.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We may, without the consent of the holders of the debt securities of any series, issue additional debt securities ranking equally with, and otherwise similar in all respects to, the debt securities of the series (except for the date of issuance, the date interest begins to accrue and, in certain circumstances, the first interest &lt;mark&gt;payment&lt;/mark&gt; date) so that those additional debt securities will be consolidated and form a single series with the debt securities of the series previously offered and sold; provided, however, that any additional debt securities will have a separate ISIN number unless certain conditions are met.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Payment&lt;/mark&gt; on the Notes All payments of principal of, the redemption price (if any), and interest and additional amounts (if any) on the 2022 Notes, the 2024 Notes, the 0.000% 2025 Notes, the 0.875% 2025 Notes, the 2026 Notes, the 2027 Notes, the 1.375% 2029 Notes and the 2031 Notes are payable in euro, provided that, if the euro is unavailable to the Company due to the imposition of exchange controls or other circumstances beyond the Company’s control, or if the euro is no longer being used by the then member states of the European Monetary Union that have adopted the euro as their currency or for the settlement of transactions by public institutions of or within the international banking community, then all payments in respect of the 2022 Notes, the 2024 Notes, the 0.000% 2025 Notes, the 0.875% 2025 Notes, the 2026 Notes, the 2027 Notes, the 1.375% 2029 Notes and the 2031 Notes will be made in U.S. dollars, until the euro is again available to the Company or so used.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The amount payable on any date in euro will be converted into U.S. dollars at the rate mandated by the U.S. Federal Reserve Board as of the close of business on the second Business Day prior to the relevant &lt;mark&gt;payment&lt;/mark&gt; date or, in the event the U.S. Federal Reserve Board has not mandated a rate of conversion, on the basis of the most recent U.S. dollar/euro exchange rate published in The Wall Street Journal on or prior to the second Business Day prior to the relevant payment date.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Any &lt;mark&gt;payment&lt;/mark&gt; in respect of the 2022 Notes, the 2024 Notes, the 0.000% 2025 Notes, the 0.875% 2025 Notes, the 2026 Notes, the 2027 Notes, the 1.375% 2029 Notes and the 2031 Notes so made in U.S. dollars will not constitute an event of default under such Notes or the applicable Indenture.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;All &lt;mark&gt;payment&lt;/mark&gt;s of principal of, the redemption price (if any), and interest and additional amounts (if any) on the 3.050% 2029 Notes and the 2042 Notes are payable in pounds sterling, or, if the United Kingdom adopts euro as its lawful currency, in euro.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If pounds sterling or, in the event the Notes are redenominated into euro, euro is unavailable to the Company due to the imposition of exchange controls or other circumstances beyond the Company’s control or, in the event the notes are redenominated into euro, the euro is no longer being used by the then member states of the European Monetary Union that have adopted the euro as their currency or for the settlement of transactions by public institutions of or within the international banking community, then all &lt;mark&gt;payment&lt;/mark&gt;s in respect of the 3.050% 2029 Notes and the 2042 Notes will be made in U.S. dollars until the pound sterling or euro, as the case may be, is again available to the Company or so used.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The amount payable on any date in pounds sterling or, in the event such Notes are redenominated into euro, euro will be converted into U.S. dollars at the rate mandated by the U.S. Federal Reserve Board as of the close of business on the second Business Day prior to the relevant &lt;mark&gt;payment&lt;/mark&gt; date or, in the event the U.S. Federal Reserve Board has not mandated a rate of conversion, on the basis of the most recent U.S. dollar/pounds sterling or, in the event the Notes are redenominated into euro, the most recent U.S. dollar/euro exchange rate published in The Wall Street Journal on or prior to the second Business Day prior to the relevant payment date.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Any &lt;mark&gt;payment&lt;/mark&gt; in respect of the 3.050% 2029 Notes and the 2042 Notes so made in U.S. dollars will not constitute an event of default under such Notes or the 2013 Indenture.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;With respect to the 3.050% 2029 Notes and the 2042 Notes, “Business Day” means any day which is not a day on which banking institutions in The City of New York or London or the relevant place of &lt;mark&gt;payment&lt;/mark&gt; are authorized or required by law, regulation or executive order to close.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Payment&lt;/mark&gt; of Additional Amounts The terms of the Notes state that all payments of principal and interest in respect of the Notes will be made free and clear of, and without deduction or withholding for or on account of any present or future taxes, duties, assessments or other governmental charges of whatsoever nature required to be deducted or withheld by the United States or any political subdivision or taxing authority of or in the United States, unless such withholding or deduction is required by law.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;All of the Notes also contain a covenant substantially similar to the following: The Company will, subject to the exceptions and limitations set forth below, pay as additional interest on the Notes such additional amounts (“Additional Amounts”) as are necessary in order that the net &lt;mark&gt;payment&lt;/mark&gt; by the Company or the paying agent of the Company for the applicable Notes (“Paying Agent”) of the principal of and interest on the Notes to a holder who is not a United States person (as defined below), after withholding or deduction for any present or future tax, assessment or other governmental charge (“Tax”) imposed by the United States or a taxing authority in the United States, will not be less than the amount provided in the Notes to be then due and payable; provided, however, that the foregoing obligation to pay Additional Amounts shall not apply: (1) to any Tax that is imposed by reason of the holder (or the beneficial owner for whose benefit such holder holds the Notes), or a fiduciary, settlor, beneficiary, member or shareholder of the holder if the holder is an estate, trust, partnership or corporation, or a person holding a power over an estate or trust administered by a fiduciary holder, being considered as: (a) being or having been engaged in a trade or business in the United States or having or having had a permanent establishment in the United States; (b) having a current or former connection with the United States (other than a connection arising solely as a result of the ownership of the Notes, the receipt of any payment or the enforcement of any rights hereunder), including being or having been a citizen or resident of the United States; (c) being or having been a personal holding company, a passive foreign investment company or a controlled foreign corporation for U.S. federal income tax purposes or a corporation that has accumulated earnings to avoid U.S. federal income tax; (d) being or having been a “10-percent shareholder” of the Company as defined in Section 871(h)(3) of the Internal Revenue Code of 1986, as amended (the “Code”); 5 (e) being a controlled foreign corporation that is related to the Company within the meaning of Section 864(d)(4) of the Code; or (f) being a bank receiving payments on an extension of credit made pursuant to a loan agreement entered into in the ordinary course of its trade or business; (2) to any holder that is not the sole beneficial owner of the Notes, or a portion of the Notes, or that is a fiduciary, partnership or limited liability company, but only to the extent that a beneficial owner with respect to the holder, a beneficiary or settlor with respect to the fiduciary, or a beneficial owner or member of the partnership or limited liability company would not have been entitled to the payment of an additional amount had the beneficiary, settlor, beneficial owner or member received directly its beneficial or distributive share of the payment; (3) to any Tax that would not have been imposed but for the failure of the holder or any other person to comply with certification, identification or information reporting requirements concerning the nationality, residence, identity or connection with the United States of the holder or beneficial owner of the Notes, if compliance is required by statute, by regulation of the United States or any taxing authority therein or by an applicable income tax treaty to which the United States is a party as a precondition to exemption from such Tax (including, but not limited to, the requirement to provide Internal Revenue Service Forms W- 8BEN, W-8BEN-E, W-8ECI, or any subsequent versions thereof or successor thereto, and any documentation requirement under an applicable income tax treaty); (4) to any Tax that is imposed otherwise than by withholding by the Company or a Paying Agent from the payment; (5) to any Tax that would not have been imposed but for a change in law, regulation, or administrative or judicial interpretation that becomes effective more than 10 days after the payment becomes due or is duly provided for, whichever occurs later; (6) to any estate, inheritance, gift, sales, excise, transfer, wealth, capital gains or personal property or similar Tax; (7) to any Tax required to be withheld by any paying agent from any payment of principal of or interest on any Note, if such payment can be made without such withholding by at least one other paying agent; (8) to any Tax that would not have been imposed but for the presentation by the holder of any Note, where presentation is required, for payment on a date more than 30 days after the date on which payment became due and payable or the date on which payment thereof is duly provided for, whichever occurs later; (9) to any Tax imposed under Sections 1471 through 1474 of the Code (or any amended or successor provisions), any current or future regulations or official interpretations thereof, any agreement entered into pursuant to Section 1471(b) of the Code, or any fiscal or regulatory legislation, rules or practices adopted pursuant to any intergovernmental agreement entered into in connection with the implementation of such sections of the Code; or (10)in the case of any combination of items (1) through (9) above.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Except as specifically provided under this heading “—&lt;mark&gt;Payment&lt;/mark&gt; of Additional Amounts,” the Company will not be required to make any payment for any Tax imposed by any government or a political subdivision or taxing authority of or in any government or political subdivision.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As used under “—&lt;mark&gt;Payment&lt;/mark&gt; of Additional Amounts” and under “— Redemption for Tax Reasons,” the term “United States” means the United States of America (including the states and the District of Columbia and any political subdivision thereof), and the term “United States person” means any individual who is a citizen or resident of the United States for U.S. federal income tax purposes, a corporation, partnership or other entity created or organized in or under the laws of the United States, any state of the United States or the District of Columbia (other than a partnership that is not treated as a United States person under any applicable Treasury regulations), or any estate or trust the income of which is subject to U.S. federal income taxation regardless of its source.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;6 Redemption for Tax Reasons If, as a result of any change in, or amendment to, or, in the case of the 0.000% 2025 Notes and the 2031 Notes, introduction of, the laws (or any regulations or rulings promulgated under the laws) of the United States (or any political subdivision or taxing authority of or in the United States), or any change in, or amendments to, an official position regarding the application or interpretation of such laws, regulations or rulings, which change or amendment is announced or becomes effective on or after the date of the applicable prospectus supplement, we become, or based upon a written opinion of independent counsel selected by us, will become obligated to pay additional amounts as described above under the heading “&lt;mark&gt;Payment&lt;/mark&gt;s of Additional Amounts” with respect to a series of the Notes, then we may at our option redeem, in whole, but not in part, in the case of the 2022 Notes, the 2024 Notes, the 2026 Notes, the 2027 Notes, the 3.050% 2029 Notes and the 2042 Notes, the Notes of such series on not less than 30 nor more than 60 days’ prior notice, in the case of the 0.875% 2025 Notes and the 1.375% 2029 Notes, the Notes of such series on not less than 15 nor more than 60 days’ notice, and in the case of the 0.000% 2025 Notes and the 2031 Notes, the Notes of such series on not less than 10 nor more than 60 days’ prior notice, in each case at a redemption price equal to 100% of their principal amount, together with interest accrued but unpaid on those Notes to (and, in the case of the 0.000% 2025 Notes and the 2031 Notes, but not including) the date fixed for redemption.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Optional Redemption We may redeem the 2022 Notes, the 2024 Notes, the 2026 Notes, the 2027 Notes, the 3.050% 2029 Notes and the 2042 Notes at our option, at any time in whole or from time to time in part, at a redemption price equal to the greater of: • 100% of the principal amount of the Notes to be redeemed; or • the sum of the present values of the remaining scheduled &lt;mark&gt;payment&lt;/mark&gt;s of principal and interest thereon (not including any portion of such payments of interest accrued as of the date of redemption), discounted to the date of redemption on an annual basis (ACTUAL/ACTUAL (ICMA)) at the applicable Comparable Government Bond Rate (as defined below), plus 5 basis points in the case of the 2022 Notes, plus 10 basis points in the case of the 2026 Notes, plus 15 basis points in the case of the 2024 Notes, the 3.050% 2029 Notes and the 2042 Notes and plus 20 basis points in the case of the 2027 Notes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We may redeem the 0.000% 2025 Notes, the 0.875% 2025 Notes, the 1.375% 2029 Notes and the 2031 Notes at our option, at any time in whole or from time to time in part, prior to the applicable Par Call Date at a redemption price equal to the greater of: • 100% of the principal amount of the Notes to be redeemed; or • the sum of the present values of the remaining scheduled &lt;mark&gt;payment&lt;/mark&gt;s of principal and interest thereon assuming that the Notes matured on the applicable Par Call Date (not including any portion of such payments of interest accrued as of the date of redemption), discounted to the date of redemption on an annual basis (ACTUAL/ACTUAL (ICMA)) at the applicable Comparable Government Bond Rate (as defined below), plus 10 basis points in the case of the 0.000% 2025 Notes, plus 15 basis points in the case of the 0.875% 2025 Notes and the 2031 Notes, and 20 basis points in the case of the 2029 Notes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;7 Installments of interest on Notes being redeemed that are due and payable on interest &lt;mark&gt;payment&lt;/mark&gt; dates falling on or prior to a redemption date shall be payable on the interest payment date to the holders as of the close of business on the relevant regular record date according to the Notes and the applicable Indenture.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Events of Default Each of the following events are defined in the Indentures as an “event of default” (whatever the reason for such event of default and whether or not it will be voluntary or involuntary or be effected by operation of law or pursuant to any judgment, decree or order of any court or any order, rule or regulation of any administrative or governmental body) with respect to the debt securities of any series: (1)    default in the &lt;mark&gt;payment&lt;/mark&gt; of any installment of interest on any debt securities of such series for 30 days after becoming due; (2)    default in the payment of principal of or premium, if any, on any debt securities of such series when it becomes due and payable at its stated maturity, upon optional redemption, upon declaration or otherwise; (3)    default in the performance, or breach, of any covenant or agreement of ours in the applicable Indenture with respect to the debt securities of such series (other than a covenant or agreement, a default in the performance of which or a breach of which is elsewhere in the applicable Indenture specifically dealt with or that has expressly been included in the applicable Indenture solely for the benefit of a series of debt securities other than such series), which continues for a period of 90 days after written notice to us by the trustee or to us and the trustee by the holders of, in the case of the 2013 Indenture, at least 25% in aggregate principal amount of the outstanding debt securities of that series, and in the case of the 2018 Indenture, at least 33% in aggregate principal amount of the outstanding debt securities of that series; (4)    we, pursuant to or within the meaning of the Bankruptcy Law: • commence a voluntary case or proceeding; • consent to the entry of an order for relief against us in an involuntary case or proceeding; • consent to the appointment of a custodian of us or for all or substantially all of our property; • make a general assignment for the benefit of our creditors; • file a petition in bankruptcy or answer or consent seeking reorganization or relief; • consent to the filing of such petition or the appointment of or taking possession by a custodian; or • take any comparable action under any foreign laws relating to insolvency; (5)    a court of competent jurisdiction enters an order or decree under any Bankruptcy Law that: 9 • is for relief against us in an involuntary case, or adjudicates us insolvent or bankrupt; • appoints a custodian of us or for all or substantially all of our property; or • orders the winding-up or liquidation of us (or any similar relief is granted under any foreign laws); and the order or decree remains unstayed and in effect for 90 days (or, in the case of the 2018 Indenture, 90 consecutive days); or (6)    any other event of default provided with respect to debt securities of such series occurs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The holders of not less than a majority in aggregate principal amount of the outstanding debt securities of any series may rescind a declaration of acceleration and its consequences, if we have deposited certain sums with the trustee and all events of default with respect to the debt securities of such series, other than the non- &lt;mark&gt;payment&lt;/mark&gt; of the principal or interest which have become due solely by such acceleration, have been cured or waived, as provided in the Indentures.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Notwithstanding the foregoing, the holder of any debt security will have an absolute and unconditional right to receive &lt;mark&gt;payment&lt;/mark&gt; of the principal of and premium, if any, and interest on that debt security on or after the due dates expressed in that debt security and to institute suit for the enforcement of payment.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Modification and Waivers Modification and amendments of the Indentures and the Notes may be made by us and the trustee with the consent of the holders of not less than a majority in aggregate principal amount of the outstanding series of Notes affected thereby; provided, however, that no such modification or amendment may, without the consent of the holder of each outstanding Note of that series affected thereby: • change the stated maturity of the principal of, or installme</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Apple Annual Report.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Devices</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Telecom Infra</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Cloud Services The Company’s cloud services store and keep customers’ content up-to-date and available across multiple Apple &lt;mark&gt;devices&lt;/mark&gt; and Windows personal computers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;® ® SM ® SM SM SM ® Apple Inc. | 2020 Form 10-K | 2 The Company is focused on expanding its market opportunities related to smartphones, personal computers, tablets and other electronic &lt;mark&gt;devices&lt;/mark&gt; and services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, some of the Company’s competitors have broader product lines, lower- priced products and a larger installed base of active &lt;mark&gt;devices&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company also competes for various components with other participants in the markets for smartphones, personal computers, tablets and other electronic &lt;mark&gt;devices&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Intellectual Property The Company currently holds a broad collection of intellectual property rights relating to certain aspects of its hardware &lt;mark&gt;devices&lt;/mark&gt;, accessories, software and services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, some of the Company’s competitors have broader product lines, lower-priced products and a larger installed base of active &lt;mark&gt;devices&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If developers focus their efforts on these competing platforms, the availability and quality of applications for the Company’s &lt;mark&gt;devices&lt;/mark&gt; may suffer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Should future facts and circumstances change, the Company’s SSPs and the future rate of related amortization for product-related bundled services and unspecified software upgrade rights related to future sales of these &lt;mark&gt;devices&lt;/mark&gt; could change.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company also competes for various components with other participants in the markets for smartphones, personal computers, tablets and other electronic &lt;mark&gt;devices&lt;/mark&gt;.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Apple Annual Report.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Partnership</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Digital investment</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;All of the Notes also contain a covenant substantially similar to the following: The Company will, subject to the exceptions and limitations set forth below, pay as additional interest on the Notes such additional amounts (“Additional Amounts”) as are necessary in order that the net payment by the Company or the paying agent of the Company for the applicable Notes (“Paying Agent”) of the principal of and interest on the Notes to a holder who is not a United States person (as defined below), after withholding or deduction for any present or future tax, assessment or other governmental charge (“Tax”) imposed by the United States or a taxing authority in the United States, will not be less than the amount provided in the Notes to be then due and payable; provided, however, that the foregoing obligation to pay Additional Amounts shall not apply: (1) to any Tax that is imposed by reason of the holder (or the beneficial owner for whose benefit such holder holds the Notes), or a fiduciary, settlor, beneficiary, member or shareholder of the holder if the holder is an estate, trust, &lt;mark&gt;partnership&lt;/mark&gt; or corporation, or a person holding a power over an estate or trust administered by a fiduciary holder, being considered as: (a) being or having been engaged in a trade or business in the United States or having or having had a permanent establishment in the United States; (b) having a current or former connection with the United States (other than a connection arising solely as a result of the ownership of the Notes, the receipt of any payment or the enforcement of any rights hereunder), including being or having been a citizen or resident of the United States; (c) being or having been a personal holding company, a passive foreign investment company or a controlled foreign corporation for U.S. federal income tax purposes or a corporation that has accumulated earnings to avoid U.S. federal income tax; (d) being or having been a “10-percent shareholder” of the Company as defined in Section 871(h)(3) of the Internal Revenue Code of 1986, as amended (the “Code”); 5 (e) being a controlled foreign corporation that is related to the Company within the meaning of Section 864(d)(4) of the Code; or (f) being a bank receiving payments on an extension of credit made pursuant to a loan agreement entered into in the ordinary course of its trade or business; (2) to any holder that is not the sole beneficial owner of the Notes, or a portion of the Notes, or that is a fiduciary, partnership or limited liability company, but only to the extent that a beneficial owner with respect to the holder, a beneficiary or settlor with respect to the fiduciary, or a beneficial owner or member of the partnership or limited liability company would not have been entitled to the payment of an additional amount had the beneficiary, settlor, beneficial owner or member received directly its beneficial or distributive share of the payment; (3) to any Tax that would not have been imposed but for the failure of the holder or any other person to comply with certification, identification or information reporting requirements concerning the nationality, residence, identity or connection with the United States of the holder or beneficial owner of the Notes, if compliance is required by statute, by regulation of the United States or any taxing authority therein or by an applicable income tax treaty to which the United States is a party as a precondition to exemption from such Tax (including, but not limited to, the requirement to provide Internal Revenue Service Forms W- 8BEN, W-8BEN-E, W-8ECI, or any subsequent versions thereof or successor thereto, and any documentation requirement under an applicable income tax treaty); (4) to any Tax that is imposed otherwise than by withholding by the Company or a Paying Agent from the payment; (5) to any Tax that would not have been imposed but for a change in law, regulation, or administrative or judicial interpretation that becomes effective more than 10 days after the payment becomes due or is duly provided for, whichever occurs later; (6) to any estate, inheritance, gift, sales, excise, transfer, wealth, capital gains or personal property or similar Tax; (7) to any Tax required to be withheld by any paying agent from any payment of principal of or interest on any Note, if such payment can be made without such withholding by at least one other paying agent; (8) to any Tax that would not have been imposed but for the presentation by the holder of any Note, where presentation is required, for payment on a date more than 30 days after the date on which payment became due and payable or the date on which payment thereof is duly provided for, whichever occurs later; (9) to any Tax imposed under Sections 1471 through 1474 of the Code (or any amended or successor provisions), any current or future regulations or official interpretations thereof, any agreement entered into pursuant to Section 1471(b) of the Code, or any fiscal or regulatory legislation, rules or practices adopted pursuant to any intergovernmental agreement entered into in connection with the implementation of such sections of the Code; or (10)in the case of any combination of items (1) through (9) above.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As used under “—Payment of Additional Amounts” and under “— Redemption for Tax Reasons,” the term “United States” means the United States of America (including the states and the District of Columbia and any political subdivision thereof), and the term “United States person” means any individual who is a citizen or resident of the United States for U.S. federal income tax purposes, a corporation, &lt;mark&gt;partnership&lt;/mark&gt; or other entity created or organized in or under the laws of the United States, any state of the United States or the District of Columbia (other than a partnership that is not treated as a United States person under any applicable Treasury regulations), or any estate or trust the income of which is subject to U.S. federal income taxation regardless of its source.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For purposes of this covenant, “person” means any individual, corporation, &lt;mark&gt;partnership&lt;/mark&gt;, limited liability company, joint venture, association, joint-stock company, trust, unincorporated organization or government or any agency or political subdivision thereof or any other entity.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Apple Annual Report.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;mark&gt;Cloud&lt;/mark&gt; Services The Company’s cloud services store and keep customers’ content up-to-date and available across multiple Apple devices and Windows personal computers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Services net sales also include amortization of the deferred value of Maps, Siri, and free i&lt;mark&gt;Cloud&lt;/mark&gt;  storage and Apple TV+ services, which are bundled in the sales price of certain products.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Services Services net sales increased during 2020 compared to 2019 due primarily to higher net sales from the App Store, advertising and &lt;mark&gt;cloud&lt;/mark&gt; services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The second performance obligation is the right to receive certain product-related bundled services, which include i&lt;mark&gt;Cloud&lt;/mark&gt;, Siri and Maps.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The second performance obligation is the right to receive certain product-related bundled services, which include i&lt;mark&gt;Cloud&lt;/mark&gt;, Siri and Maps.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Services net sales also include amortization of the deferred value of Maps, Siri, and free i&lt;mark&gt;Cloud&lt;/mark&gt; storage and Apple TV+ services, which are bundled in the sales price of certain products.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Apple Annual Report.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>479</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Security Ownership of Cert&lt;mark&gt;ai&lt;/mark&gt;n Beneficial Owners and Management and Related Stockholder Matters 63 Item 13.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Cert&lt;mark&gt;ai&lt;/mark&gt;n Relationships and Related Transactions, and Director Independence 63 Item 14.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Form 10-K Summary 66 This Annual Report on Form 10-K (“Form 10-K”) cont&lt;mark&gt;ai&lt;/mark&gt;ns forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Many of the forward-looking statements are located in Part II, Item 7 of this Form 10-K under the heading “Management’s Discussion and Analysis of Financial Condition and Results of Operations.” Forward-looking statements provide current expectations of future events based on cert&lt;mark&gt;ai&lt;/mark&gt;n assumptions and include any statement that does not directly relate to any historical or current fact.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In October 2020, the Company announced four new iPhone models with 5G technology: iPhone 12 and iPhone 12 Pro were av&lt;mark&gt;ai&lt;/mark&gt;lable starting in October 2020, and iPhone 12 Pro Max and iPhone 12 mini are both expected to be available in November 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;During 2020, the Company released a new 16-inch MacBook Pro , a fully redesigned Mac Pro , and updated versions of its MacBook &lt;mark&gt;Ai&lt;/mark&gt;r , 13-inch MacBook Pro and 27-inch iMac .&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In September 2020, the Company released an eighth-generation iPad and introduced an all-new iPad &lt;mark&gt;Ai&lt;/mark&gt;r , which was available starting in October 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Wearables, Home and Accessories Wearables, Home and Accessories includes &lt;mark&gt;Ai&lt;/mark&gt;rPods , Apple TV , Apple Watch , Beats  products, HomePod , iPod touch  and other Apple-branded and third-party accessories.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Ai&lt;/mark&gt;rPods are the Company’s wireless headphones that interact with Siri .&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;During 2020, the Company released &lt;mark&gt;Ai&lt;/mark&gt;rPods Pro .&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In October 2020, the Company announced HomePod mini™, which is expected to be av&lt;mark&gt;ai&lt;/mark&gt;lable in November 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The offerings provide priority access to Apple technical support, access to the global Apple authorized service network for rep&lt;mark&gt;ai&lt;/mark&gt;r and replacement services, and in many cases additional coverage for instances of accidental damage and/or theft and loss, depending on the country and type of product.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Cloud Services The Company’s cloud services store and keep customers’ content up-to-date and av&lt;mark&gt;ai&lt;/mark&gt;lable across multiple Apple devices and Windows personal computers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In September 2020, the Company announced Apple Fitness+ , a personalized fitness service built for Apple Watch, which is expected to be av&lt;mark&gt;ai&lt;/mark&gt;lable before the end of calendar 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company sells its products and resells third-party products in most of its major markets directly to consumers, small and mid-sized businesses, and education, enterprise and government customers through its ret&lt;mark&gt;ai&lt;/mark&gt;l and online stores and its direct sales force.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company also employs a variety of indirect distribution channels, such as third-party cellular network carriers, wholesalers, ret&lt;mark&gt;ai&lt;/mark&gt;lers and resellers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Cert&lt;mark&gt;ai&lt;/mark&gt;n competitors may have the resources, experience or cost structures to provide products at little or no profit or even at a loss.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s services compete with business models that provide content to users for free and use illegitimate means to obt&lt;mark&gt;ai&lt;/mark&gt;n third-party digital content and applications.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Supply of Components Although most components essential to the Company’s business are generally av&lt;mark&gt;ai&lt;/mark&gt;lable from multiple sources, certain components are currently obtained from single or limited sources.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Therefore, many components used by the Company, including those that are av&lt;mark&gt;ai&lt;/mark&gt;lable from multiple sources, are at times subject to industry-wide shortage and significant commodity pricing fluctuations.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company uses some custom components that are not commonly used by its competitors, and new products introduced by the Company often utilize custom components av&lt;mark&gt;ai&lt;/mark&gt;lable from only one source.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;When a component or product uses new technologies, initial capacity constr&lt;mark&gt;ai&lt;/mark&gt;nts may exist until the suppliers’ yields have matured or their manufacturing capacities have increased.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The continued av&lt;mark&gt;ai&lt;/mark&gt;lability of these components at acceptable prices, or at all, may be affected if suppliers decide to concentrate on the production of common components instead of components customized to meet the Company’s requirements.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Intellectual Property The Company currently holds a broad collection of intellectual property rights relating to cert&lt;mark&gt;ai&lt;/mark&gt;n aspects of its hardware devices, accessories, software and services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company also holds copyrights relating to cert&lt;mark&gt;ai&lt;/mark&gt;n aspects of its products and services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While the Company has generally been able to obt&lt;mark&gt;ai&lt;/mark&gt;n such licenses on commercially reasonable terms in the past, there is no guarantee that such licenses could be obtained in the future on reasonable terms or at all.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Av&lt;mark&gt;ai&lt;/mark&gt;lable Information The Company’s Annual Reports on Form 10-K, Quarterly Reports on Form 10-Q, Current Reports on Form 8-K, and amendments to reports filed pursuant to Sections 13(a) and 15(d) of the Securities Exchange Act of 1934, as amended (the “Exchange Act”), are filed with the Securities and Exchange Commission (the “SEC”).&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Such reports and other information filed by the Company with the SEC are av&lt;mark&gt;ai&lt;/mark&gt;lable free of charge at investor.apple.com/investor-relations/sec-filings/default.aspx when such reports are available on the SEC’s website.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This includes press releases and other information about financial performance, information on corporate governance and det&lt;mark&gt;ai&lt;/mark&gt;ls related to the Company’s annual meeting of shareholders.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The information cont&lt;mark&gt;ai&lt;/mark&gt;ned on the websites referenced in this Form 10-K is not incorporated by reference into this filing.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Risk Factors The following discussion of risk factors cont&lt;mark&gt;ai&lt;/mark&gt;ns forward-looking statements.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The COVID-19 pandemic has significantly curt&lt;mark&gt;ai&lt;/mark&gt;led global economic activity and caused significant volatility and disruption in global financial markets.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Following the initial outbreak of the virus, the Company experienced disruptions to its manufacturing, supply ch&lt;mark&gt;ai&lt;/mark&gt;n and logistical services provided by outsourcing partners, resulting in temporary iPhone supply shortages that affected sales worldwide.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;During the course of the pandemic, the Company’s ret&lt;mark&gt;ai&lt;/mark&gt;l stores, as well as channel partner points of sale, have been temporarily closed at various times.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The full extent of the impact of the COVID-19 pandemic on the Company’s operational and financial performance is currently uncert&lt;mark&gt;ai&lt;/mark&gt;n and will depend on many factors outside the Company’s control, including, without limitation, the timing, extent, trajectory and duration of the pandemic, the development and availability of effective treatments and vaccines, the imposition of and compliance with protective public safety measures, and the impact of the pandemic on the global economy and demand for consumer products.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Additional future impacts on the Company may include, but are not limited to, material adverse effects on: demand for the Company’s products and services; the Company’s supply ch&lt;mark&gt;ai&lt;/mark&gt;n and sales and distribution channels; the Company’s ability to execute its strategic plans; and the Company’s profitability and cost structure.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, a majority of the Company’s supply ch&lt;mark&gt;ai&lt;/mark&gt;n, and its manufacturing and assembly activities, are located outside the U.S. As a result, the Company’s operations and performance depend significantly on global and regional economic conditions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Apple Inc. | 2020 Form 10-K | 5 In addition to an adverse impact on demand for the Company’s products, uncert&lt;mark&gt;ai&lt;/mark&gt;nty about, or a decline in, global or regional economic conditions could have a significant impact on the Company’s suppliers, contract manufacturers, logistics providers, distributors, cellular network carriers and other channel partners.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Potential effects include financial instability; inability to obt&lt;mark&gt;ai&lt;/mark&gt;n credit to finance operations and purchases of the Company’s products; and insolvency.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A downturn in the economic environment could also lead to increased credit and collectibility risk on the Company’s trade receivables; the f&lt;mark&gt;ai&lt;/mark&gt;lure of derivative counterparties and other financial institutions; limitations on the Company’s ability to issue new debt; reduced liquidity; and declines in the fair value of the Company’s financial instruments.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Effective intellectual property protection may not be consistently av&lt;mark&gt;ai&lt;/mark&gt;lable in every country in which the Company operates.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If the Company is unable to continue to develop and sell innovative new products with attractive margins or if competitors infringe on the Company’s intellectual property, the Company’s ability to m&lt;mark&gt;ai&lt;/mark&gt;ntain a competitive advantage could be adversely affected.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Cert&lt;mark&gt;ai&lt;/mark&gt;n competitors may have the resources, experience or cost structures to provide products at little or no profit or even at a loss.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company also competes with illegitimate means to obt&lt;mark&gt;ai&lt;/mark&gt;n third-party digital content and applications.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s financial condition and operating results depend substantially on the Company’s ability to continually improve its products and services to m&lt;mark&gt;ai&lt;/mark&gt;ntain their functional and design advantages.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Apple Inc. | 2020 Form 10-K | 6 To rem&lt;mark&gt;ai&lt;/mark&gt;n competitive and stimulate customer demand, the Company must successfully manage frequent introductions and transitions of products and services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The success of new product and service introductions depends on a number of factors including, but not limited to, timely and successful development, market acceptance, the Company’s ability to manage the risks associated with new product production ramp-up issues, the av&lt;mark&gt;ai&lt;/mark&gt;lability of application software for new products, the effective management of purchase commitments and inventory levels in line with anticipated product demand, the availability of products in appropriate quantities and at expected costs to meet anticipated demand, and the risk that new products and services may have quality or other defects or deficiencies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company depends on the performance of carriers, wholesalers, ret&lt;mark&gt;ai&lt;/mark&gt;lers and other resellers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company distributes its products through cellular network carriers, wholesalers, ret&lt;mark&gt;ai&lt;/mark&gt;lers and resellers, many of whom distribute products from competing manufacturers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company also sells its products and resells third-party products in most of its major markets directly to consumers, small and mid-sized businesses, and education, enterprise and government customers through its ret&lt;mark&gt;ai&lt;/mark&gt;l and online stores and its direct sales force.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The financial condition of these resellers could weaken, these resellers could stop distributing the Company’s products, or uncert&lt;mark&gt;ai&lt;/mark&gt;nty regarding demand for some or all of the Company’s products could cause resellers to reduce their ordering and marketing of the Company’s products.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company reviews long-lived assets, including capital assets held at its suppliers’ facilities and inventory prepayments, for imp&lt;mark&gt;ai&lt;/mark&gt;rment whenever events or circumstances indicate the assets may not be recoverable.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If the Company determines that an imp&lt;mark&gt;ai&lt;/mark&gt;rment has occurred, it records a write-down equal to the amount by which the carrying value of the asset exceeds its fair value.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Although the Company believes its inventory, capital assets, inventory prepayments and other assets and purchase commitments are currently recoverable, no assurance can be given that the Company will not incur write-downs, fees, imp&lt;mark&gt;ai&lt;/mark&gt;rments and other charges given the rapid and unpredictable pace of product obsolescence in the industries in which the Company competes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Apple Inc. | 2020 Form 10-K | 7 Future operating results depend upon the Company’s ability to obt&lt;mark&gt;ai&lt;/mark&gt;n components in sufficient quantities on commercially reasonable terms.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Because the Company currently obt&lt;mark&gt;ai&lt;/mark&gt;ns certain components from single or limited sources, the Company is subject to significant supply and pricing risks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Many components, including those that are av&lt;mark&gt;ai&lt;/mark&gt;lable from multiple sources, are at times subject to industry-wide shortages and significant commodity pricing fluctuations that could materially adversely affect the Company’s financial condition and operating results.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Component suppliers may suffer from poor financial conditions, which can lead to business f&lt;mark&gt;ai&lt;/mark&gt;lure for the supplier or consolidation within a particular industry, further limiting the Company’s ability to obtain sufficient quantities of components on commercially reasonable terms.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The effects of global or regional economic conditions on the Company’s suppliers, described in “Global and regional economic conditions could materially adversely affect the Company’s business, results of operations, financial condition and growth,” above, also could affect the Company’s ability to obt&lt;mark&gt;ai&lt;/mark&gt;n components.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Therefore, the Company rem&lt;mark&gt;ai&lt;/mark&gt;ns subject to significant risks of supply shortages and price increases that could materially adversely affect its financial condition and operating results.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s new products often utilize custom components av&lt;mark&gt;ai&lt;/mark&gt;lable from only one source.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;When a component or product uses new technologies, initial capacity constr&lt;mark&gt;ai&lt;/mark&gt;nts may exist until the suppliers’ yields have matured or their manufacturing capacities have increased.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The continued av&lt;mark&gt;ai&lt;/mark&gt;lability of these components at acceptable prices, or at all, can be affected for any number of reasons, including if suppliers decide to concentrate on the production of common components instead of components customized to meet the Company’s requirements.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If the Company’s supply of components for a new or existing product were delayed or constr&lt;mark&gt;ai&lt;/mark&gt;ned, or if an outsourcing partner delayed shipments of completed products to the Company, the Company’s financial condition and operating results could be materially adversely affected.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s business and financial performance could also be materially adversely affected depending on the time required to obt&lt;mark&gt;ai&lt;/mark&gt;n sufficient quantities from the source, or to identify and obtain sufficient quantities from an alternative source.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Although arrangements with these partners may cont&lt;mark&gt;ai&lt;/mark&gt;n provisions for product defect expense reimbursement, the Company generally remains responsible to the consumer for warranty and out-of-warranty service in the event of product defects and could experience an unanticipated product defect liability.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Any f&lt;mark&gt;ai&lt;/mark&gt;lure of these partners to perform can have a negative impact on the Company’s cost or supply of components or finished goods.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, manufacturing or logistics in these locations or transit to final destinations can be disrupted for a variety of reasons including, but not limited to, natural and man-made disasters, information technology system f&lt;mark&gt;ai&lt;/mark&gt;lures, commercial disputes, military actions, economic, business, labor, environmental, public health or political issues, or international trade disputes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company has invested in manufacturing process equipment, much of which is held at cert&lt;mark&gt;ai&lt;/mark&gt;n of its outsourcing partners, and has made prepayments to certain of its suppliers associated with long-term supply agreements.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;F&lt;mark&gt;ai&lt;/mark&gt;lure to do so could result in widespread technical and performance issues affecting the Company’s products and services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, the Company can be exposed to product liability cl&lt;mark&gt;ai&lt;/mark&gt;ms, recalls, product replacements or modifications, write- offs of inventory, property, plant and equipment, and/or intangible assets, and significant warranty and other expenses, including litigation costs and regulatory fines.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company relies on access to third-party digital content, which may not be av&lt;mark&gt;ai&lt;/mark&gt;lable to the Company on commercially reasonable terms or at all.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This includes the right to sell currently av&lt;mark&gt;ai&lt;/mark&gt;lable content.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;F&lt;mark&gt;ai&lt;/mark&gt;lure to obtain the right to make third-party digital content available, or to make such content available on commercially reasonable terms, could have a material adverse impact on the Company’s financial condition and operating results.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, cert&lt;mark&gt;ai&lt;/mark&gt;n countries have passed or may propose and adopt legislation that would force the Company to license its digital rights management, which could lessen the protection of content and subject it to piracy and also could negatively affect arrangements with the Company’s content providers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company believes decisions by customers to purchase its hardware products depend in part on the av&lt;mark&gt;ai&lt;/mark&gt;lability of third-party software applications and services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There is no assurance that third-party developers will continue to develop and m&lt;mark&gt;ai&lt;/mark&gt;ntain software applications and services for the Company’s products.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If third-party software applications and services cease to be developed and m&lt;mark&gt;ai&lt;/mark&gt;ntained for the Company’s products, customers may choose not to buy the Company’s products.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company believes the av&lt;mark&gt;ai&lt;/mark&gt;lability of third-party software applications and services for its products depends in part on the developers’ perception and analysis of the relative benefits of developing, maintaining and upgrading such software and services for the Company’s products compared to competitors’ platforms, such as Android for smartphones and tablets and Windows for personal computers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If developers focus their efforts on these competing platforms, the av&lt;mark&gt;ai&lt;/mark&gt;lability and quality of applications for the Company’s devices may suffer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Apple Inc. | 2020 Form 10-K | 9 The Company relies on the continued av&lt;mark&gt;ai&lt;/mark&gt;lability and development of compelling and innovative software applications for its products.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company only ret&lt;mark&gt;ai&lt;/mark&gt;ns a commission from sales of applications through its platforms and in situations where a developer offers purchases for digital features, services, or goods within an application.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If the rate of the commission that the Company ret&lt;mark&gt;ai&lt;/mark&gt;ns on such sales is reduced, or if it is otherwise narrowed in scope or eliminated, the Company’s financial condition and operating results could be materially adversely affected.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company relies on access to third-party intellectual property, which may not be av&lt;mark&gt;ai&lt;/mark&gt;lable to the Company on commercially reasonable terms or at all.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;From time to time, the Company has been notified that it may be infringing cert&lt;mark&gt;ai&lt;/mark&gt;n patents or other intellectual property rights of third parties.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Based on experience and industry practice, the Company believes licenses to such third-party intellectual property can generally be obt&lt;mark&gt;ai&lt;/mark&gt;ned on commercially reasonable terms.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There is, however, no assurance that the necessary licenses can be obt&lt;mark&gt;ai&lt;/mark&gt;ned on commercially reasonable terms or at all.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;F&lt;mark&gt;ai&lt;/mark&gt;lure to obtain the right to use third-party intellectual property, or to use such intellectual property on commercially reasonable terms, could preclude the Company from selling certain products or services, or otherwise have a material adverse impact on the Company’s financial condition and operating results.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company is subject to various cl&lt;mark&gt;ai&lt;/mark&gt;ms, legal proceedings and government investigations that have arisen in the ordinary course of business and have not yet been fully resolved, and new matters may arise in the future.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, agreements entered into by the Company sometimes include indemnification provisions which can subject the Company to costs and damages in the event of a cl&lt;mark&gt;ai&lt;/mark&gt;m against an indemnified third party.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The number of cl&lt;mark&gt;ai&lt;/mark&gt;ms, legal proceedings and government investigations involving the Company, and the alleged magnitude of such claims, proceedings and government investigations, has generally increased over time and may continue to increase.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company has faced and continues to face a significant number of patent cl&lt;mark&gt;ai&lt;/mark&gt;ms relating to its cellular-enabled products, and new claims may arise in the future.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The pl&lt;mark&gt;ai&lt;/mark&gt;ntiffs in these actions frequently seek injunctions and substantial damages.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Regardless of the merit of particular cl&lt;mark&gt;ai&lt;/mark&gt;ms, defending against litigation or responding to government investigations can be expensive, time-consuming, disruptive to the Company’s operations and distracting to management.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;No assurance can be given that such agreements can be obt&lt;mark&gt;ai&lt;/mark&gt;ned on acceptable terms or that litigation will not occur.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Except as described in Part II, Item 8 of this Form 10-K in the Notes to Consolidated Financial Statements in Note 10, “Commitments and Contingencies” under the heading “Contingencies,” in the opinion of management, there was not at least a reasonable possibility the Company may have incurred a material loss, or a material loss greater than a recorded accrual, concerning loss contingencies for asserted legal and other cl&lt;mark&gt;ai&lt;/mark&gt;ms, including matters related to infringement of intellectual property rights.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The outcome of litigation or government investigations is inherently uncert&lt;mark&gt;ai&lt;/mark&gt;n.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If one or more legal matters were resolved ag&lt;mark&gt;ai&lt;/mark&gt;nst the Company or an indemnified third party in a reporting period for amounts above management’s expectations, the Company’s financial condition and operating results for that reporting period could be materially adversely affected.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Further, such an outcome could result in significant compensatory, punitive or trebled monetary damages, disgorgement of revenue or profits, remedial corporate measures or injunctive relief ag&lt;mark&gt;ai&lt;/mark&gt;nst the Company, and could require the Company to change its business practices or limit the Company’s ability to offer certain products and services, all of which could materially adversely affect its financial condition and operating results.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While the Company m&lt;mark&gt;ai&lt;/mark&gt;ntains insurance coverage for certain types of claims, such insurance coverage may be insufficient to cover all losses or all types of claims that may arise.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s global operations are subject to complex and changing laws and regulations on subjects including, but not limited to: antitrust; privacy, data security and data localization; consumer protection; advertising, sales, billing and e-commerce; product liability; intellectual property ownership and infringement; digital platforms; Internet, telecommunications, and mobile communications; media, television, film and digital content; av&lt;mark&gt;ai&lt;/mark&gt;lability of third-party software applications and services; labor and employment; anti-corruption; import, export and trade; foreign exchange controls and cash repatriation restrictions; anti–money laundering; foreign ownership and investment; tax; and environmental, health and safety.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Changes to laws and regulations can adversely affect the Company’s business by increasing the Company’s costs, limiting the Company’s ability to offer a product or service to customers, requiring changes to the Company’s supply ch&lt;mark&gt;ai&lt;/mark&gt;n and business practices or otherwise making the Company’s products and services less attractive to customers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For example, the Company is subject to antitrust investigations in various jurisdictions around the world, which can result in legal proceedings and cl&lt;mark&gt;ai&lt;/mark&gt;ms against the Company that could, individually or in the aggregate, have a materially adverse impact on the Company’s financial condition and operating results.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Further, the Company’s business partners are or may become subject to litigation that, if resolved ag&lt;mark&gt;ai&lt;/mark&gt;nst them, could affect the Company’s relationships with these business partners and have a materially adverse impact on the Company’s financial condition and operating results.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s ret&lt;mark&gt;ai&lt;/mark&gt;l stores have required and will continue to require a substantial investment and commitment of resources and are subject to numerous risks and uncertainties.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s ret&lt;mark&gt;ai&lt;/mark&gt;l stores have required substantial investment in equipment and leasehold improvements, information systems, inventory and personnel.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company also has entered into substantial lease commitments for ret&lt;mark&gt;ai&lt;/mark&gt;l space.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Cert&lt;mark&gt;ai&lt;/mark&gt;n stores have been designed and built to serve as high-profile venues to promote brand awareness.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Because of their unique design elements, locations and size, these stores require substantially more investment than the Company’s more typical ret&lt;mark&gt;ai&lt;/mark&gt;l stores.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Due to the high cost structure associated with the Company’s ret&lt;mark&gt;ai&lt;/mark&gt;l stores, a decline in sales or the closure or poor performance of an individual store or multiple stores, including as a result of protective public safety measures in response to the COVID-19 pandemic, could result in significant lease termination costs, write- offs of equipment and leasehold improvements and severance costs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s ret&lt;mark&gt;ai&lt;/mark&gt;l operations are subject to many factors that pose risks and uncertainties and could adversely impact the Company’s financial condition and operating results, including macro-economic factors that could have an adverse effect on general retail activity.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Other factors include, but are not limited to, the Company’s ability to: manage costs associated with ret&lt;mark&gt;ai&lt;/mark&gt;l store construction and operation; manage relationships with existing retail partners; manage costs associated with fluctuations in the value of retail inventory; and obtain and renew leases in quality retail locations at a reasonable cost.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Such endeavors may involve significant risks and uncert&lt;mark&gt;ai&lt;/mark&gt;nties, including distraction of management from current operations, greater-than-expected liabilities and expenses, economic, political, legal and regulatory challenges associated with operating in new businesses, regions or countries, inadequate return on capital, potential impairment of tangible and intangible assets, and significant write-offs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The f&lt;mark&gt;ai&lt;/mark&gt;lure of any significant investment could adversely affect the Company’s reputation, financial condition and operating results.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Apple Inc. | 2020 Form 10-K | 11 The Company’s business and reputation may be impacted by information technology system f&lt;mark&gt;ai&lt;/mark&gt;lures or network disruptions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company is exposed to information technology system f&lt;mark&gt;ai&lt;/mark&gt;lures or network disruptions caused by natural disasters, accidents, power disruptions, telecommunications failures, acts of terrorism or war, computer viruses, physical or electronic break-ins, or other events or disruptions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Such f&lt;mark&gt;ai&lt;/mark&gt;lures or disruptions can adversely impact the Company’s business by, among other things, preventing access to the Company’s online services, interfering with customer transactions or impeding the manufacturing and shipping of the Company’s products.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For example, the Company may experience a security breach impacting the Company’s information technology systems that compromises the confidentiality, integrity or av&lt;mark&gt;ai&lt;/mark&gt;lability of confidential information.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Such an incident could, among other things, imp&lt;mark&gt;ai&lt;/mark&gt;r the Company’s ability to attract and retain customers for its products and services, impact the Company’s stock price, materially damage supplier relationships, and expose the Company to litigation or government investigations, which could result in penalties, fines or judgments against the Company.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Although malicious attacks perpetrated to g&lt;mark&gt;ai&lt;/mark&gt;n access to confidential information, including PII, affect many companies across various industries, the Company is at a relatively greater risk of being targeted because of its high profile and the value of the confidential information it creates, owns, manages, stores and processes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If the Company f&lt;mark&gt;ai&lt;/mark&gt;ls to adequately comply with these rules and requirements, or if health data is handled in a manner not permitted by law or under the Company’s agreements with healthcare institutions, the Company could be subject to litigation or government investigations, may be liable for associated investigatory expenses, and could also incur significant fees or fines.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Under payment card rules and obligations, if cardholder information is potentially compromised, the Company could be liable for associated investigatory expenses and could also incur significant fees or fines if the Company f&lt;mark&gt;ai&lt;/mark&gt;ls to follow payment card industry data security standards.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company could also experience a significant increase in payment card transaction costs or lose the ability to process payment cards if it f&lt;mark&gt;ai&lt;/mark&gt;ls to follow payment card industry data security standards, which would materially adversely affect the Company’s reputation, financial condition and operating results.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While the Company m&lt;mark&gt;ai&lt;/mark&gt;ntains insurance coverage that is intended to address certain aspects of data security risks, such insurance coverage may be insufficient to cover all losses or all types of claims that may arise.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Any f&lt;mark&gt;ai&lt;/mark&gt;lure by the Company to comply with these public statements or with other federal, state or international privacy-related or data protection laws and regulations could result in proceedings against the Company by governmental entities or others.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s success depends largely on the continued service and av&lt;mark&gt;ai&lt;/mark&gt;lability of key personnel.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Much of the Company’s future success depends on the continued av&lt;mark&gt;ai&lt;/mark&gt;lability and service of key personnel, including its Chief Executive Officer, executive team and other highly skilled employees.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For example, tensions between the U.S. and China have led to a series of tariffs being imposed by the U.S. on imports from China m&lt;mark&gt;ai&lt;/mark&gt;nland, as well as other business restrictions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Countries may also adopt other measures, such as controls on imports or exports of goods, technology or data, that could adversely impact the Company’s operations and supply ch&lt;mark&gt;ai&lt;/mark&gt;n and limit the Company’s ability to offer its products and services as designed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Political uncert&lt;mark&gt;ai&lt;/mark&gt;nty surrounding international trade disputes could also have a negative effect on consumer confidence and spending, whic</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Apple Annual Report.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AR </t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>109</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;UNITED STATES SECURITIES AND EXCHANGE COMMISSION Washington, D.C. 20549 FORM 10-K (Mark One) ☒ ANNUAL REPORT PURSUANT TO SECTION 13 OR 15(d) OF THE SECURITIES EXCHANGE ACT OF 1934 For the fiscal ye&lt;mark&gt;ar &lt;/mark&gt;ended September 26, 2020 or ☐ TRANSITION REPORT PURSUANT TO SECTION 13 OR 15(d) OF THE SECURITIES EXCHANGE ACT OF 1934 For the transition period from              to             .&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;One Apple Park Way Cupertino, California 95014 (Address of principal executive offices) (Zip Code) (408) 996-1010 (Registrant’s telephone number, including area code) Securities registered pursuant to Section 12(b) of the Act: Title of each class Trading symbol(s) Name of each exchange on which registered Common Stock, $0.00001 p&lt;mark&gt;ar &lt;/mark&gt;value per share AAPL The Nasdaq Stock Market LLC 1.000% Notes due 2022 — The Nasdaq Stock Market LLC 1.375% Notes due 2024 — The Nasdaq Stock Market LLC 0.000% Notes due 2025 — The Nasdaq Stock Market LLC 0.875% Notes due 2025 — The Nasdaq Stock Market LLC 1.625% Notes due 2026 — The Nasdaq Stock Market LLC 2.000% Notes due 2027 — The Nasdaq Stock Market LLC 1.375% Notes due 2029 — The Nasdaq Stock Market LLC 3.050% Notes due 2029 — The Nasdaq Stock Market LLC 0.500% Notes due 2031 — The Nasdaq Stock Market LLC 3.600% Notes due 2042 — The Nasdaq Stock Market LLC Securities registered pursuant to Section 12(g) of the Act: None Indicate by check mark if the Registrant is a well-known seasoned issuer, as defined in Rule 405 of the Securities Act.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The 2021 Proxy Statement will be filed with the U.S. Securities and Exchange Commission within 120 days after the end of the fiscal ye&lt;mark&gt;ar &lt;/mark&gt;to which this report relates.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Apple Inc. Form 10-K For the Fiscal Ye&lt;mark&gt;ar &lt;/mark&gt;Ended September 26, 2020 TABLE OF CONTENTS Page Part I Item 1. Business 1 Item 1A.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and simil&lt;mark&gt;ar &lt;/mark&gt;terms.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Unless otherwise stated, all information presented herein is based on the Company’s fiscal calendar, and references to particul&lt;mark&gt;ar &lt;/mark&gt;years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s fiscal ye&lt;mark&gt;ar &lt;/mark&gt;is the 52- or 53-week period that ends on the last Saturday of September.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In September 2020, the Company announced Apple Fitness+ , a personalized fitness service built for Apple Watch, which is expected to be available before the end of calend&lt;mark&gt;ar &lt;/mark&gt;2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company also employs a variety of indirect distribution channels, such as third-party cellul&lt;mark&gt;ar &lt;/mark&gt;network carriers, wholesalers, retailers and resellers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company has entered into agreements for the supply of many components; however, there can be no guarantee that the Company will be able to extend or renew these agreements on simil&lt;mark&gt;ar &lt;/mark&gt;terms, or at all.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Apple Inc. | 2020 Form 10-K | 3 Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal ye&lt;mark&gt;ar &lt;/mark&gt;due in part to seasonal holiday demand.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Apple Inc. | 2020 Form 10-K | 5 In addition to an adverse impact on demand for the Company’s products, uncertainty about, or a decline in, global or regional economic conditions could have a significant impact on the Company’s suppliers, contract manufacturers, logistics providers, distributors, cellul&lt;mark&gt;ar &lt;/mark&gt;network carriers and other channel partners.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company distributes its products through cellul&lt;mark&gt;ar &lt;/mark&gt;network carriers, wholesalers, retailers and resellers, many of whom distribute products from competing manufacturers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some carriers providing cellul&lt;mark&gt;ar &lt;/mark&gt;network service for iPhone offer financing, installment payment plans or subsidies for users’ purchases of the device.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While the Company has entered into agreements for the supply of many components, there can be no assurance that the Company will be able to extend or renew these agreements on simil&lt;mark&gt;ar &lt;/mark&gt;terms, or at all.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Component suppliers may suffer from poor financial conditions, which can lead to business failure for the supplier or consolidation within a particul&lt;mark&gt;ar &lt;/mark&gt;industry, further limiting the Company’s ability to obtain sufficient quantities of components on commercially reasonable terms.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Regardless of the merit of particul&lt;mark&gt;ar &lt;/mark&gt;claims, defending against litigation or responding to government investigations can be expensive, time-consuming, disruptive to the Company’s operations and distracting to management.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Political events, international trade disputes, war, terrorism, natural disasters, public health issues, industrial accidents and other business interruptions could harm or disrupt international commerce and the global economy, and could have a material adverse effect on the Company and its customers, suppliers, contract manufacturers, logistics providers, distributors, cellul&lt;mark&gt;ar &lt;/mark&gt;network carriers and other channel partners.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, such operations and facilities are subject to the risk of interruption by fire, power shortages, nucle&lt;mark&gt;ar &lt;/mark&gt;power plant accidents and other industrial accidents, terrorist attacks and other hostile acts, labor disputes, public health issues, including pandemics such as the COVID-19 pandemic, and other events beyond the Company’s control.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal ye&lt;mark&gt;ar &lt;/mark&gt;due in part to seasonal holiday demand.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s financial performance is subject to risks associated with changes in the value of the U.S. doll&lt;mark&gt;ar &lt;/mark&gt;relative to local currencies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The weakening of foreign currencies relative to the U.S. doll&lt;mark&gt;ar &lt;/mark&gt;adversely affects the U.S. dollar value of the Company’s foreign currency–denominated sales and earnings, and generally leads the Company to raise international pricing, potentially reducing demand for the Company’s products.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In some circumstances, for competitive or other reasons, the Company may decide not to raise international pricing to offset the U.S. dollar’s strengthening, which would adversely affect the U.S. doll&lt;mark&gt;ar &lt;/mark&gt;value of the gross margins the Company earns on foreign currency–denominated sales.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company distributes its products through third-party cellul&lt;mark&gt;ar &lt;/mark&gt;network carriers, wholesalers, retailers and resellers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A substantial majority of the Company’s outstanding trade receivables are not covered by collateral, third-party bank support or financing arrangements, or credit insurance, and a significant portion of the Company’s trade receivables can be concentrated within cellul&lt;mark&gt;ar &lt;/mark&gt;network carriers or other resellers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Purchases of Equity Securities by the Issuer and Affiliated Purchasers Share repurchase activity during the three months ended September 26, 2020 was as follows (in millions, except number of shares, which are reflected in thousands, and per share amounts): Periods Total Number of Shares Purchased Average Price Paid Per Share Total Number of Shares Purchased as Part of Publicly Announced Plans or Programs Approximate Doll&lt;mark&gt;ar &lt;/mark&gt;Value of Shares That May Yet Be Purchased Under the Plans or Programs  June 28, 2020 to August 1, 2020: Open market and privately negotiated purchases 67,990  $ 94.68  67,990  August 2, 2020 to August 29, 2020: May 2020 ASR 3,115  3,115  Open market and privately negotiated purchases 40,004  $ 115.99  40,004  August 30, 2020 to September 26, 2020: Open market and privately negotiated purchases 60,725  $ 114.00  60,725  Total 171,834  $ 56,353  (1) As of September 26, 2020, the Company was authorized to purchase up to $225 billion of the Company’s common stock under a share repurchase program announced on April 30, 2020, of which $168.6 billion had been utilized.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Data points are the last day of each fiscal ye&lt;mark&gt;ar &lt;/mark&gt;for the Company’s common stock and September 30th for indexes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This section of this Form 10-K generally discusses 2020 and 2019 items and year-to-ye&lt;mark&gt;ar &lt;/mark&gt;comparisons between 2020 and 2019.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Discussions of 2018 items and year-to- ye&lt;mark&gt;ar &lt;/mark&gt;comparisons between 2019 and 2018 that are not included in this Form 10-K can be found in “Management’s Discussion and Analysis of Financial Condition and Results of Operations” in Part II, Item 7 of the Company’s Annual Report on Form 10-K for the fiscal year ended September 28, 2019.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Fiscal Ye&lt;mark&gt;ar &lt;/mark&gt;Highlights COVID-19 Update COVID-19 has spread rapidly throughout the world, prompting governments and businesses to take unprecedented measures in response.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Although the reportable segments provide simil&lt;mark&gt;ar &lt;/mark&gt;hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The weakness in foreign currencies relative to the U.S. doll&lt;mark&gt;ar &lt;/mark&gt;had an unfavorable impact on Americas net sales during 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The weakness in foreign currencies relative to the U.S. doll&lt;mark&gt;ar &lt;/mark&gt;had an unfavorable impact on Europe net sales during 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The weakness in foreign currencies relative to the U.S. doll&lt;mark&gt;ar &lt;/mark&gt;had an unfavorable impact on Greater China net sales during 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The strength of the Japanese yen relative to the U.S. doll&lt;mark&gt;ar &lt;/mark&gt;had a favorable impact on Japan net sales during 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The weakness in foreign currencies relative to the U.S. doll&lt;mark&gt;ar &lt;/mark&gt;had an unfavorable impact on Rest of Asia Pacific net sales during 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Apple Inc. | 2020 Form 10-K | 22 Gross Margin Products and Services gross margin and gross margin percentage for 2020, 2019 and 2018 were as follows (dollars in millions): 2020 2019 2018 Gross margin: Products $ 69,461 $ 68,887 $ 77,683  Services 35,495  29,505  24,156  Total gross margin $ 104,956 $ 98,392 $ 101,839  Gross margin percentage: Products 31.5 % 32.2 % 34.4 % Services 66.0 % 63.7 % 60.8 % Total gross margin percentage 38.2 % 37.8 % 38.3 % Products Gross Margin Products gross margin increased during 2020 compared to 2019 due primarily to higher Products volume and material cost savings, partially offset by the weakness in foreign currencies relative to the U.S. doll&lt;mark&gt;ar &lt;/mark&gt;and a different Products mix.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Products gross margin percentage decreased during 2020 compared to 2019 due primarily to the weakness in foreign currencies relative to the U.S. doll&lt;mark&gt;ar &lt;/mark&gt;and a different Products mix, partially offset by material cost savings and higher leverage.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Operating Expenses Operating expenses for 2020, 2019 and 2018 were as follows (dollars in millions): 2020 Change 2019 Change 2018 Research and development $ 18,752  16 % $ 16,217  14 % $ 14,236  Percentage of total net sales 7 % 6 % 5 % Selling, general and administrative $ 19,916  9 % $ 18,245  9 % $ 16,705  Percentage of total net sales 7 % 7 % 6 % Total operating expenses $ 38,668  12 % $ 34,462  11 % $ 30,941  Percentage of total net sales 14 % 13 % 12 % Research and Development The year-over-ye&lt;mark&gt;ar &lt;/mark&gt;growth in R&amp;D expense in 2020 was driven primarily by increases in headcount-related expenses.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Selling, General and Administrative The year-over-ye&lt;mark&gt;ar &lt;/mark&gt;growth in selling, general and administrative expense in 2020 was driven primarily by increases in headcount-related expenses, higher spending on marketing and advertising, and higher variable selling expenses.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Apple Inc. | 2020 Form 10-K | 23 Other Income/(Expense), Net Other income/(expense), net (“OI&amp;E”) for 2020, 2019 and 2018 was as follows (dollars in millions): 2020 Change 2019 Change 2018 Interest and dividend income $ 3,763  $ 4,961  $ 5,686  Interest expense (2,873) (3,576) (3,240) Other income/(expense), net (87) 422  (441) Total other income/(expense), net $ 803  (56) % $ 1,807  (10) % $ 2,005  The year-over-ye&lt;mark&gt;ar &lt;/mark&gt;decrease in OI&amp;E during 2020 was due primarily to lower interest income and net impairment/gain activity on non-marketable securities, partially offset by lower interest expense.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s retail store and other facility leases typically have original terms not exceeding 10 years and generally contain multi-ye&lt;mark&gt;ar &lt;/mark&gt;renewal options.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Accordingly, changes in exchange rates, and in particul&lt;mark&gt;ar &lt;/mark&gt;a strengthening of the U.S. dollar, will negatively affect the Company’s net sales and gross margins as expressed in U.S. dollars.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;However, the Company may choose not to hedge certain foreign exchange exposures for a variety of reasons including, but not limited to, accounting considerations or the prohibitive economic cost of hedging particul&lt;mark&gt;ar &lt;/mark&gt;exposures.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The V&lt;mark&gt;AR &lt;/mark&gt;model consisted of using a Monte Carlo simulation to generate thousands of random market price paths assuming normal market conditions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The V&lt;mark&gt;AR &lt;/mark&gt;is the maximum expected loss in fair value, for a given confidence interval, to the Company’s foreign currency derivative positions due to adverse movements in rates.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The V&lt;mark&gt;AR &lt;/mark&gt;model is not intended to represent actual losses but is used as a risk estimation and management tool.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Apple Inc. | 2020 Form 10-K | 32 Apple Inc. CONSOLIDATED BALANCE SHEETS (In millions, except number of shares which are reflected in thousands and p&lt;mark&gt;ar &lt;/mark&gt;value) September 26, 2020 September 28, 2019 ASSETS: Current assets: Cash and cash equivalents $ 38,016 $ 48,844  Marketable securities 52,927  51,713  Accounts receivable, net 16,120  22,926  Inventories 4,061  4,106  Vendor non-trade receivables 21,325  22,878  Other current assets 11,264  12,352  Total current assets 143,713  162,819  Non-current assets: Marketable securities 100,887  105,341  Property, plant and equipment, net 36,766  37,378  Other non-current assets 42,522  32,978  Total non-current assets 180,175  175,697  Total assets $ 323,888 $ 338,516  LIABILITIES AND SHAREHOLDERS’ EQUITY: Current liabilities: Accounts payable $ 42,296 $ 46,236  Other current liabilities 42,684  37,720  Deferred revenue 6,643  5,522  Commercial paper 4,996  5,980  Term debt 8,773  10,260  Total current liabilities 105,392  105,718  Non-current liabilities: Term debt 98,667  91,807  Other non-current liabilities 54,490  50,503  Total non-current liabilities 153,157  142,310  Total liabilities 258,549  248,028  Commitments and contingencies Shareholders’ equity: Common stock and additional paid-in capital, $0.00001 par value: 50,400,000 shares authorized; 16,976,763 and 17,772,945 shares issued and outstanding, respectively 50,779  45,174  Retained earnings 14,966  45,898  Accumulated other comprehensive income/(loss) (406) (584) Total shareholders’ equity 65,339  90,488  Total liabilities and shareholders’ equity $ 323,888 $ 338,516  See accompanying Notes to Consolidated Financial Statements.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s fiscal ye&lt;mark&gt;ar &lt;/mark&gt;is the 52- or 53-week period that ends on the last Saturday of September.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An additional week is included in the first fiscal quarter every five or six years to realign the Company’s fiscal quarters with calend&lt;mark&gt;ar &lt;/mark&gt;quarters.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Unless otherwise stated, references to particul&lt;mark&gt;ar &lt;/mark&gt;years, quarters, months and periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As such, the Company’s non-marketable equity securities are measured at cost, less any impairment, and are adjusted for changes in fair value resulting from observable transactions for identical or simil&lt;mark&gt;ar &lt;/mark&gt;investments of the same issuer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s process for estimating SSPs without observable prices considers multiple factors that may vary depending upon the unique facts and circumstances related to each performance obligation including, where applicable, prices charged by the Company for simil&lt;mark&gt;ar &lt;/mark&gt;offerings, market trends in the pricing for similar offerings, product-specific business objectives and the estimated cost to provide the performance obligation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;(2) Level 2 fair value estimates are based on observable inputs other than quoted prices in active markets for identical assets and liabilities, quoted prices for identical or simil&lt;mark&gt;ar &lt;/mark&gt;assets or liabilities in inactive markets, or other inputs that are observable or can be corroborated by observable market data for substantially the full term of the assets or liabilities.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;However, the Company may choose not to hedge certain exposures for a variety of reasons including, but not limited to, accounting considerations or the prohibitive economic cost of hedging particul&lt;mark&gt;ar &lt;/mark&gt;exposures.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To protect gross margins from fluctuations in foreign currency exchange rates, certain of the Company’s subsidiaries whose functional currency is the U.S. doll&lt;mark&gt;ar &lt;/mark&gt;may hedge a portion of forecasted foreign currency revenue, and subsidiaries whose functional currency is not the U.S. dollar may hedge a portion of forecasted inventory purchases not denominated in the subsidiaries’ functional currencies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Accounts Receivable Trade Receivables The Company has considerable trade receivables outstanding with its third-party cellul&lt;mark&gt;ar &lt;/mark&gt;network carriers, wholesalers, retailers, resellers, small and mid-sized businesses and education, enterprise and government customers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s cellul&lt;mark&gt;ar &lt;/mark&gt;network carriers accounted for 51% of total trade receivables as of September 28, 2019.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The aggregate change in the balance of gross unrecognized tax benefits, which excludes interest and penalties, for 2020, 2019 and 2018, is as follows (in millions): 2020 2019 2018 Beginning balances $ 15,619 $ 9,694 $ 8,407  Increases related to tax positions taken during a prior ye&lt;mark&gt;ar &lt;/mark&gt;454  5,845  2,431  Decreases related to tax positions taken during a prior year (791) (686) (2,212) Increases related to tax positions taken during the current year 1,347  1,697  1,824  Decreases related to settlements with taxing authorities (85) (852) (756) Decreases related to expiration of the statute of limitations (69) (79) —  Ending balances $ 16,475 $ 15,619 $ 9,694  The Company is subject to taxation and files income tax returns in the U.S. federal jurisdiction and many state and foreign jurisdictions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The following table provides a summary of the Company’s term debt as of September 26, 2020 and September 28, 2019: Maturities (calend&lt;mark&gt;ar &lt;/mark&gt;year) 2020 2019 Amount (in millions) Effective Interest Rate Amount (in millions) Effective Interest Rate 2013 – 2019 debt issuances: Floating-rate notes 2021 – 2022 $ 2,250  0.60% – 1.39% $ 4,250  2.25% – 3.28% Fixed-rate 0.375% – 4.650% notes 2020 – 2049 87,487  0.28% – 4.78% 97,429  0.28% – 4.78% First quarter 2020 debt issuance of €2.0 billion: Fixed-rate 0.000% – 0.500% notes 2025 – 2031 2,341  0.03% – 0.56% —  — % Third quarter 2020 debt issuance of $8.5 billion: Fixed-rate 0.750% – 2.650% notes 2023 – 2050 8,500  0.84% – 2.72% —  — % Fourth quarter 2020 debt issuance of $5.5 billion: Fixed-rate 0.550% – 2.550% notes 2025 – 2060 5,500  0.60% – 2.59% —  — % Total term debt 106,078  101,679  Unamortized premium/(discount) and issuance costs, net (314) (224) Hedge accounting fair value adjustments 1,676  612  Less: Current portion of term debt (8,773) (10,260) Total non-current portion of term debt $ 98,667  $ 91,807  To manage interest rate risk on certain of its U.S. dollar–denominated fixed- or floating-rate notes, the Company has entered into interest rate swaps to effectively convert the fixed interest rates to floating interest rates or the floating interest rates to fixed interest rates on a portion of these notes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Shares of Common Stock The following table shows the changes in shares of common stock for 2020, 2019 and 2018 (in thousands): 2020 2019 2018 Common stock outstanding, beginning balances 17,772,945  19,019,943  20,504,805  Common stock repurchased (917,270) (1,380,819) (1,622,198) Common stock issued, net of shares withheld for employee taxes 121,088  133,821  137,336  Common stock outstanding, ending balances 16,976,763  17,772,945  19,019,943  Note 8 – Comprehensive Income The Company’s OCI consists of foreign currency translation adjustments from those subsidiaries not using the U.S. doll&lt;mark&gt;ar &lt;/mark&gt;as their functional currency, net deferred gains and losses on certain derivative instruments accounted for as cash flow hedges and unrealized gains and losses on marketable debt securities classified as available- for-sale.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An employee’s payroll deductions under the Purchase Plan are limited to 10% of the employee’s compensation and employees may not purchase more than $25,000 of stock during any calend&lt;mark&gt;ar &lt;/mark&gt;year.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Under the 401(k) Plan, participating U.S. employees may defer a portion of their pre-tax earnings, up to the IRS annual contribution limit ($19,500 for calend&lt;mark&gt;ar &lt;/mark&gt;year 2020).&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company has entered into agreements for the supply of many components; however, there can be no guarantee that the Company will be able to extend or renew these agreements on simil&lt;mark&gt;ar &lt;/mark&gt;terms, or at all.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Future payments under noncancelable unconditional purchase obligations having a remaining term in excess of one ye&lt;mark&gt;ar &lt;/mark&gt;as of September 26, 2020, are as follows (in millions): 2021 $ 3,476  2022 2,885  2023 1,700  2024 357  2025 104  Thereafter 130  Total $ 8,652  Contingencies The Company is subject to various legal proceedings and claims that have arisen in the ordinary course of business and that have not been fully resolved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Although the reportable segments provide simil&lt;mark&gt;ar &lt;/mark&gt;hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;These leases typically have original terms not exceeding 10 years and generally contain multi-ye&lt;mark&gt;ar &lt;/mark&gt;renewal options, some of which are reasonably certain of exercise.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;These leases will commence between 2021 and 2022, with lease terms ranging from 1 ye&lt;mark&gt;ar &lt;/mark&gt;to 20 years.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;BELL /s/ Al Gore Director October 29, 2020 AL GORE /s/ Andrea Jung Director October 29, 2020 ANDREA JUNG /s/ Arthur D. Levinson Director October 29, 2020 ARTHUR D. LEVINSON /s/ Ronald D. Sug&lt;mark&gt;ar &lt;/mark&gt;Director October 29, 2020 RONALD D. SUGAR /s/ Susan L. Wagner Director October 29, 2020 SUSAN L. WAGNER Apple Inc. | 2020 Form 10-K | 67 Exhibit 4.1 DESCRIPTION OF THE REGISTRANT’S SECURITIES REGISTERED PURSUANT TO SECTION 12 OF THE SECURITIES EXCHANGE ACT OF 1934 As of September 26, 2020, Apple Inc. (“Apple” or the “Company”) had eleven classes of securities registered under Section 12 of the Securities Exchange Act of 1934, as amended (the “Exchange Act”): (i) Common Stock, $0.00001 par value per share (“Common Stock”); (ii) 1.000% Notes due 2022 (the “2022 Notes”); (iii) 1.375% Notes due 2024 (the “2024 Notes”); (iv) 0.000% Notes due 2025 (the “0.000% 2025 Notes”); (v) 0.875% Notes due 2025 (the “0.875% 2025 Notes”); (vi) 1.625% Notes due 2026 (the “2026 Notes”); (vii) 2.000% Notes due 2027 (the “2027 Notes”); (viii) 1.375% Notes due 2029 (the “1.375% 2029 Notes”); (ix) 3.050% Notes due 2029 (the “3.050% 2029 Notes”); (x) 0.500% Notes due 2031 (the “2031 Notes”); and (xi) 3.600% Notes due 2042 (the “2042 Notes,” and together with the 2022 Notes, the 2024 Notes, the 0.000% 2025 Notes, the 0.875% 2025 Notes, the 2026 Notes, the 2027 Notes, the 1.375% 2029 Notes, the 3.050% 2029 Notes, and the 2031 Notes, the “Notes”).&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;No Preemptive or Simil&lt;mark&gt;ar &lt;/mark&gt;Rights Common Stock has no preemptive or other subscription rights, and there are no conversion rights or redemption or sinking fund provisions with respect to such shares of Common Stock.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We may, without the consent of the holders of the debt securities of any series, issue additional debt securities ranking equally with, and otherwise simil&lt;mark&gt;ar &lt;/mark&gt;in all respects to, the debt securities of the series (except for the date of issuance, the date interest begins to accrue and, in certain circumstances, the first interest payment date) so that those additional debt securities will be consolidated and form a single series with the debt securities of the series previously offered and sold; provided, however, that any additional debt securities will have a separate ISIN number unless certain conditions are met.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Payment of Additional Amounts The terms of the Notes state that all payments of principal and interest in respect of the Notes will be made free and cle&lt;mark&gt;ar &lt;/mark&gt;of, and without deduction or withholding for or on account of any present or future taxes, duties, assessments or other governmental charges of whatsoever nature required to be deducted or withheld by the United States or any political subdivision or taxing authority of or in the United States, unless such withholding or deduction is required by law.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;All of the Notes also contain a covenant substantially simil&lt;mark&gt;ar &lt;/mark&gt;to the following: The Company will, subject to the exceptions and limitations set forth below, pay as additional interest on the Notes such additional amounts (“Additional Amounts”) as are necessary in order that the net payment by the Company or the paying agent of the Company for the applicable Notes (“Paying Agent”) of the principal of and interest on the Notes to a holder who is not a United States person (as defined below), after withholding or deduction for any present or future tax, assessment or other governmental charge (“Tax”) imposed by the United States or a taxing authority in the United States, will not be less than the amount provided in the Notes to be then due and payable; provided, however, that the foregoing obligation to pay Additional Amounts shall not apply: (1) to any Tax that is imposed by reason of the holder (or the beneficial owner for whose benefit such holder holds the Notes), or a fiduciary, settlor, beneficiary, member or shareholder of the holder if the holder is an estate, trust, partnership or corporation, or a person holding a power over an estate or trust administered by a fiduciary holder, being considered as: (a) being or having been engaged in a trade or business in the United States or having or having had a permanent establishment in the United States; (b) having a current or former connection with the United States (other than a connection arising solely as a result of the ownership of the Notes, the receipt of any payment or the enforcement of any rights hereunder), including being or having been a citizen or resident of the United States; (c) being or having been a personal holding company, a passive foreign investment company or a controlled foreign corporation for U.S. federal income tax purposes or a corporation that has accumulated earnings to avoid U.S. federal income tax; (d) being or having been a “10-percent shareholder” of the Company as defined in Section 871(h)(3) of the Internal Revenue Code of 1986, as amended (the “Code”); 5 (e) being a controlled foreign corporation that is related to the Company within the meaning of Section 864(d)(4) of the Code; or (f) being a bank receiving payments on an extension of credit made pursuant to a loan agreement entered into in the ordinary course of its trade or business; (2) to any holder that is not the sole beneficial owner of the Notes, or a portion of the Notes, or that is a fiduciary, partnership or limited liability company, but only to the extent that a beneficial owner with respect to the holder, a beneficiary or settlor with respect to the fiduciary, or a beneficial owner or member of the partnership or limited liability company would not have been entitled to the payment of an additional amount had the beneficiary, settlor, beneficial owner or member received directly its beneficial or distributive share of the payment; (3) to any Tax that would not have been imposed but for the failure of the holder or any other person to comply with certification, identification or information reporting requirements concerning the nationality, residence, identity or connection with the United States of the holder or beneficial owner of the Notes, if compliance is required by statute, by regulation of the United States or any taxing authority therein or by an applicable income tax treaty to which the United States is a party as a precondition to exemption from such Tax (including, but not limited to, the requirement to provide Internal Revenue Service Forms W- 8BEN, W-8BEN-E, W-8ECI, or any subsequent versions thereof or successor thereto, and any documentation requirement under an applicable income tax treaty); (4) to any Tax that is imposed otherwise than by withholding by the Company or a Paying Agent from the payment; (5) to any Tax that would not have been imposed but for a change in law, regulation, or administrative or judicial interpretation that becomes effective more than 10 days after the payment becomes due or is duly provided for, whichever occurs later; (6) to any estate, inheritance, gift, sales, excise, transfer, wealth, capital gains or personal property or similar Tax; (7) to any Tax required to be withheld by any paying agent from any payment of principal of or interest on any Note, if such payment can be made without such withholding by at least one other paying agent; (8) to any Tax that would not have been imposed but for the presentation by the holder of any Note, where presentation is required, for payment on a date more than 30 days after the date on which payment became due and payable or the date on which payment thereof is duly provided for, whichever occurs later; (9) to any Tax imposed under Sections 1471 through 1474 of the Code (or any amended or successor provisions), any current or future regulations or official interpretations thereof, any agreement entered into pursuant to Section 1471(b) of the Code, or any fiscal or regulatory legislation, rules or practices adopted pursuant to any intergovernmental agreement entered into in connection with the implementation of such sections of the Code; or (10)in the case of any combination of items (1) through (9) above.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We may redeem the 0.000% 2025 Notes, the 0.875% 2025 Notes, the 1.375% 2029 Notes and the 2031 Notes at our option, at any time in whole or from time to time in part, prior to the applicable P&lt;mark&gt;ar &lt;/mark&gt;Call Date at a redemption price equal to the greater of: • 100% of the principal amount of the Notes to be redeemed; or • the sum of the present values of the remaining scheduled payments of principal and interest thereon assuming that the Notes matured on the applicable Par Call Date (not including any portion of such payments of interest accrued as of the date of redemption), discounted to the date of redemption on an annual basis (ACTUAL/ACTUAL (ICMA)) at the applicable Comparable Government Bond Rate (as defined below), plus 10 basis points in the case of the 0.000% 2025 Notes, plus 15 basis points in the case of the 0.875% 2025 Notes and the 2031 Notes, and 20 basis points in the case of the 2029 Notes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;“P&lt;mark&gt;ar &lt;/mark&gt;Call Date” means (i) with respect to the 0.000% 2025 Notes, August 15, 2025 (three months prior to the maturity date of the 0.000% 2025 Notes), (ii) with respect to the 0.875% 2025 Notes, February 24, 2025 (three months prior to the matu</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Apple Annual Report.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ecosystem</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Principal competitive factors important to the Company include price, product and service features (including security features), relative price and performance, product and service quality and reliability, design innovation, a strong third-party software and accessories &lt;mark&gt;ecosystem&lt;/mark&gt;, marketing and distribution capability, service and support, and corporate reputation.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Apple Annual Report.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>954</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;UNITED STATES SECURITIES AND EXCHANGE COMMISSION Washington, D.C. 20549 FORM 10-K (M&lt;mark&gt;ar&lt;/mark&gt;k One) ☒ ANNUAL REPORT PURSUANT TO SECTION 13 OR 15(d) OF THE SECURITIES EXCHANGE ACT OF 1934 For the fiscal year ended September 26, 2020 or ☐ TRANSITION REPORT PURSUANT TO SECTION 13 OR 15(d) OF THE SECURITIES EXCHANGE ACT OF 1934 For the transition period from              to             .&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Commission File Number: 001-36743 Apple Inc. (Exact name of Registrant as specified in its ch&lt;mark&gt;ar&lt;/mark&gt;ter) California 94-2404110 (State or other jurisdiction of incorporation or organization) (I.R.S.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;One Apple P&lt;mark&gt;ar&lt;/mark&gt;k Way Cupertino, California 95014 (Address of principal executive offices) (Zip Code) (408) 996-1010 (Registrant’s telephone number, including area code) Securities registered pursuant to Section 12(b) of the Act: Title of each class Trading symbol(s) Name of each exchange on which registered Common Stock, $0.00001 par value per share AAPL The Nasdaq Stock Market LLC 1.000% Notes due 2022 — The Nasdaq Stock Market LLC 1.375% Notes due 2024 — The Nasdaq Stock Market LLC 0.000% Notes due 2025 — The Nasdaq Stock Market LLC 0.875% Notes due 2025 — The Nasdaq Stock Market LLC 1.625% Notes due 2026 — The Nasdaq Stock Market LLC 2.000% Notes due 2027 — The Nasdaq Stock Market LLC 1.375% Notes due 2029 — The Nasdaq Stock Market LLC 3.050% Notes due 2029 — The Nasdaq Stock Market LLC 0.500% Notes due 2031 — The Nasdaq Stock Market LLC 3.600% Notes due 2042 — The Nasdaq Stock Market LLC Securities registered pursuant to Section 12(g) of the Act: None Indicate by check mark if the Registrant is a well-known seasoned issuer, as defined in Rule 405 of the Securities Act.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Yes  ☒     No  ☐ Indicate by check m&lt;mark&gt;ar&lt;/mark&gt;k if the Registrant is not required to file reports pursuant to Section 13 or Section 15(d) of the Act.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Yes  ☐     No  ☒ Indicate by check m&lt;mark&gt;ar&lt;/mark&gt;k whether the Registrant (1) has filed all reports required to be filed by Section 13 or 15(d) of the Securities Exchange Act of 1934 during the preceding 12 months (or for such shorter period that the Registrant was required to file such reports), and (2) has been subject to such filing requirements for the past 90 days.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Yes  ☒     No  ☐ Indicate by check m&lt;mark&gt;ar&lt;/mark&gt;k whether the Registrant has submitted electronically every Interactive Data File required to be submitted pursuant to Rule 405 of Regulation S-T (§232.405 of this chapter) during the preceding 12 months (or for such shorter period that the Registrant was required to submit such files).&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Yes  ☒     No  ☐ Indicate by check m&lt;mark&gt;ar&lt;/mark&gt;k whether the Registrant is a large accelerated filer, an accelerated filer, a non-accelerated filer, a smaller reporting company, or an emerging growth company.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;See the definitions of “l&lt;mark&gt;ar&lt;/mark&gt;ge accelerated filer,” “accelerated filer,” “smaller reporting company,” and “emerging growth company” in Rule 12b-2 of the Exchange Act.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;L&lt;mark&gt;ar&lt;/mark&gt;ge accelerated filer ☒ Accelerated filer ☐ Non-accelerated filer ☐ Smaller reporting company ☐ Emerging growth company ☐ If an emerging growth company, indicate by check mark if the Registrant has elected not to use the extended transition period for complying with any new or revised financial accounting standards provided pursuant to Section 13(a) of the Exchange Act.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;☐ Indicate by check m&lt;mark&gt;ar&lt;/mark&gt;k whether the Registrant has filed a report on and attestation to its management’s assessment of the effectiveness of its internal control over financial reporting under Section 404(b) of the Sarbanes-Oxley Act (15 U.S.C.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;7262(b)) by the registered public accounting firm that prep&lt;mark&gt;ar&lt;/mark&gt;ed or issued its audit report.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;☒ Indicate by check m&lt;mark&gt;ar&lt;/mark&gt;k whether the Registrant is a shell company (as defined in Rule 12b-2 of the Act).&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Yes  ☐     No  ☒ The aggregate m&lt;mark&gt;ar&lt;/mark&gt;ket value of the voting and non-voting stock held by non-affiliates of the Registrant, as of March 27, 2020, the last business day of the Registrant’s most recently completed second fiscal quarter, was approximately $1,070,633,000,000.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Solely for purposes of this disclosure, sh&lt;mark&gt;ar&lt;/mark&gt;es of common stock held by executive officers and directors of the Registrant as of such date have been excluded because such persons may be deemed to be affiliates.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This determination of executive officers and directors as affiliates is not necess&lt;mark&gt;ar&lt;/mark&gt;ily a conclusive determination for any other purposes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;17,001,802,000 sh&lt;mark&gt;ar&lt;/mark&gt;es of common stock were issued and outstanding as of October 16, 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;DOCUMENTS INCORPORATED BY REFERENCE Portions of the Registrant’s definitive proxy statement relating to its 2021 annual meeting of sh&lt;mark&gt;ar&lt;/mark&gt;eholders (the “2021 Proxy Statement”) are incorporated by reference into Part III of this Annual Report on Form 10-K where indicated.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The 2021 Proxy Statement will be filed with the U.S. Securities and Exchange Commission within 120 days after the end of the fiscal ye&lt;mark&gt;ar&lt;/mark&gt; to which this report relates.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Apple Inc. Form 10-K For the Fiscal Ye&lt;mark&gt;ar&lt;/mark&gt; Ended September 26, 2020 TABLE OF CONTENTS Page Part I Item 1. Business 1 Item 1A.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mine Safety Disclosures 16 P&lt;mark&gt;ar&lt;/mark&gt;t II Item 5.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;M&lt;mark&gt;ar&lt;/mark&gt;ket for Registrant’s Common Equity, Related Stockholder Matters and Issuer Purchases of Equity Securities 17 Item 6.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Quantitative and Qualitative Disclosures About M&lt;mark&gt;ar&lt;/mark&gt;ket Risk 28 Item 8.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Financial Statements and Supplement&lt;mark&gt;ar&lt;/mark&gt;y Data 30 Item 9.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Other Information 62 P&lt;mark&gt;ar&lt;/mark&gt;t III Item 10.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Principal Accountant Fees and Services 63 P&lt;mark&gt;ar&lt;/mark&gt;t IV Item 15.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Form 10-K Summ&lt;mark&gt;ar&lt;/mark&gt;y 66 This Annual Report on Form 10-K (“Form 10-K”) contains forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Many of the forw&lt;mark&gt;ar&lt;/mark&gt;d-looking statements are located in Part II, Item 7 of this Form 10-K under the heading “Management’s Discussion and Analysis of Financial Condition and Results of Operations.” Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For example, statements in this Form 10-K reg&lt;mark&gt;ar&lt;/mark&gt;ding the potential future impact of the COVID-19 pandemic on the Company’s business and results of operations are forward-looking statements.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Forw&lt;mark&gt;ar&lt;/mark&gt;d-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Forw&lt;mark&gt;ar&lt;/mark&gt;d-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Factors that might cause such differences include, but &lt;mark&gt;ar&lt;/mark&gt;e not limited to, those discussed in Part I, Item 1A of this Form 10-K under the heading “Risk Factors.” The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Unless otherwise stated, all information presented herein is based on the Company’s fiscal calend&lt;mark&gt;ar&lt;/mark&gt;, and references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly owned subsidi&lt;mark&gt;ar&lt;/mark&gt;ies, unless otherwise stated.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;P&lt;mark&gt;AR&lt;/mark&gt;T I Item 1.    Business Company Background The Company designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s fiscal ye&lt;mark&gt;ar&lt;/mark&gt; is the 52- or 53-week period that ends on the last Saturday of September.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Products iPhone iPhone  is the Company’s line of sm&lt;mark&gt;ar&lt;/mark&gt;tphones based on its iOS operating system.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In October 2020, the Company announced four new iPhone models with 5G technology: iPhone 12 and iPhone 12 Pro were available st&lt;mark&gt;ar&lt;/mark&gt;ting in October 2020, and iPhone 12 Pro Max and iPhone 12 mini are both expected to be available in November 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In September 2020, the Company released an eighth-generation iPad and introduced an all-new iPad Air , which was available st&lt;mark&gt;ar&lt;/mark&gt;ting in October 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We&lt;mark&gt;ar&lt;/mark&gt;ables, Home and Accessories Wearables, Home and Accessories includes AirPods , Apple TV , Apple Watch , Beats  products, HomePod , iPod touch  and other Apple-branded and third-party accessories.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;AirPods &lt;mark&gt;ar&lt;/mark&gt;e the Company’s wireless headphones that interact with Siri .&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Apple Watch is the Company’s line of sm&lt;mark&gt;ar&lt;/mark&gt;t watches based on its watchOS  operating system.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Services Advertising The Company’s advertising services include v&lt;mark&gt;ar&lt;/mark&gt;ious third-party licensing arrangements and the Company’s own advertising platforms.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;® ® ® ® ® ® ® ® ® ® ® ® ® ® ® ® ® ® ® ® Apple Inc. | 2020 Form 10-K | 1 AppleC&lt;mark&gt;ar&lt;/mark&gt;e The Company offers a portfolio of fee-based service and support products under the AppleCare  brand.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Digital Content The Company operates v&lt;mark&gt;ar&lt;/mark&gt;ious platforms, including the App Store , that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company also offers digital content through subscription-based services, including Apple &lt;mark&gt;Ar&lt;/mark&gt;cade , a game subscription service; Apple Music , which offers users a curated listening experience with on-demand radio stations; Apple News+ , a subscription news and magazine service; and Apple TV+ , which offers exclusive original content.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In September 2020, the Company announced Apple Fitness+ , a personalized fitness service built for Apple Watch, which is expected to be available before the end of calend&lt;mark&gt;ar&lt;/mark&gt; 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Payment Services The Company offers payment services, including Apple C&lt;mark&gt;ar&lt;/mark&gt;d™, a co-branded credit card, and Apple Pay , a cashless payment service.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;M&lt;mark&gt;ar&lt;/mark&gt;kets and Distribution The Company’s customers are primarily in the consumer, small and mid-sized business, education, enterprise and government markets.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company sells its products and resells third-p&lt;mark&gt;ar&lt;/mark&gt;ty products in most of its major markets directly to consumers, small and mid-sized businesses, and education, enterprise and government customers through its retail and online stores and its direct sales force.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company also employs a v&lt;mark&gt;ar&lt;/mark&gt;iety of indirect distribution channels, such as third-party cellular network carriers, wholesalers, retailers and resellers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Competition The m&lt;mark&gt;ar&lt;/mark&gt;kets for the Company’s products and services are highly competitive, and are characterized by aggressive price competition and resulting downward pressure on gross margins, frequent introduction of new products and services, short product life cycles, evolving industry standards, continual improvement in product price and performance characteristics, rapid adoption of technological advancements by competitors, and price sensitivity on the part of consumers and businesses.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Many of the Company’s competitors seek to compete prim&lt;mark&gt;ar&lt;/mark&gt;ily through aggressive pricing and very low cost structures, and by emulating the Company’s products and infringing on its intellectual property.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s ability to compete successfully depends heavily on ensuring the continuing and timely introduction of innovative new products, services and technologies to the m&lt;mark&gt;ar&lt;/mark&gt;ketplace.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company believes it is unique in that it designs and develops ne&lt;mark&gt;ar&lt;/mark&gt;ly the entire solution for its products, including the hardware, operating system, numerous software applications and related services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Principal competitive factors important to the Company include price, product and service features (including security features), relative price and performance, product and service quality and reliability, design innovation, a strong third-p&lt;mark&gt;ar&lt;/mark&gt;ty software and accessories ecosystem, marketing and distribution capability, service and support, and corporate reputation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;® ® SM ® SM SM SM ® Apple Inc. | 2020 Form 10-K | 2 The Company is focused on expanding its m&lt;mark&gt;ar&lt;/mark&gt;ket opportunities related to smartphones, personal computers, tablets and other electronic devices and services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company faces substantial competition in these m&lt;mark&gt;ar&lt;/mark&gt;kets from companies that have significant technical, marketing, distribution and other resources, as well as established hardware, software, and service offerings with large customer bases.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, some of the Company’s competitors have broader product lines, lower- priced products and a l&lt;mark&gt;ar&lt;/mark&gt;ger installed base of active devices.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Competition has been p&lt;mark&gt;ar&lt;/mark&gt;ticularly intense as competitors have aggressively cut prices and lowered product margins.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s services compete with business models that provide content to users for free and use illegitimate means to obtain third-p&lt;mark&gt;ar&lt;/mark&gt;ty digital content and applications.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company expects competition in these m&lt;mark&gt;ar&lt;/mark&gt;kets to intensify significantly as competitors imitate the Company’s product features and applications within their products, or collaborate to offer integrated solutions that are more competitive than those they currently offer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Supply of Components Although most components essential to the Company’s business &lt;mark&gt;ar&lt;/mark&gt;e generally available from multiple sources, certain components are currently obtained from single or limited sources.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company also competes for v&lt;mark&gt;ar&lt;/mark&gt;ious components with other participants in the markets for smartphones, personal computers, tablets and other electronic devices.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Therefore, many components used by the Company, including those that &lt;mark&gt;ar&lt;/mark&gt;e available from multiple sources, are at times subject to industry-wide shortage and significant commodity pricing fluctuations.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company uses some custom components that &lt;mark&gt;ar&lt;/mark&gt;e not commonly used by its competitors, and new products introduced by the Company often utilize custom components available from only one source.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company has entered into agreements for the supply of many components; however, there can be no gu&lt;mark&gt;ar&lt;/mark&gt;antee that the Company will be able to extend or renew these agreements on similar terms, or at all.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Substantially all of the Company’s h&lt;mark&gt;ar&lt;/mark&gt;dware products are manufactured by outsourcing partners that are located primarily in Asia, with some Mac computers manufactured in the U.S. and Ireland.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Rese&lt;mark&gt;ar&lt;/mark&gt;ch and Development Because the industries in which the Company competes are characterized by rapid technological advances, the Company’s ability to compete successfully depends heavily upon its ability to ensure a continual and timely flow of competitive products, services and technologies to the marketplace.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company continues to develop new technologies to enhance existing products and services, and to expand the range of its offerings through rese&lt;mark&gt;ar&lt;/mark&gt;ch and development (“R&amp;D”), licensing of intellectual property and acquisition of third-party businesses and technology.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Intellectual Property The Company currently holds a broad collection of intellectual property rights relating to certain aspects of its h&lt;mark&gt;ar&lt;/mark&gt;dware devices, accessories, software and services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This includes patents, copyrights, tradem&lt;mark&gt;ar&lt;/mark&gt;ks, service marks, trade dress and other forms of intellectual property rights in the U.S. and various foreign countries.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Although the Company believes the ownership of such intellectual property rights is an important factor in its business and that its success does depend in p&lt;mark&gt;ar&lt;/mark&gt;t on such ownership, the Company relies primarily on the innovative skills, technical competence and marketing abilities of its personnel.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company regul&lt;mark&gt;ar&lt;/mark&gt;ly files patent applications to protect innovations arising from its research, development and design, and is currently pursuing thousands of patent applications around the world.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Over time, the Company has accumulated a l&lt;mark&gt;ar&lt;/mark&gt;ge portfolio of issued patents, including utility patents, design patents and others.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition to Company-owned intellectual property, many of the Company’s products and services &lt;mark&gt;ar&lt;/mark&gt;e designed to include intellectual property owned by third parties.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It may be necess&lt;mark&gt;ar&lt;/mark&gt;y in the future to seek or renew licenses relating to various aspects of the Company’s products, processes and services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While the Company has generally been able to obtain such licenses on commercially reasonable terms in the past, there is no gu&lt;mark&gt;ar&lt;/mark&gt;antee that such licenses could be obtained in the future on reasonable terms or at all.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Apple Inc. | 2020 Form 10-K | 3 Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first qu&lt;mark&gt;ar&lt;/mark&gt;ter compared to other quarters in its fiscal year due in part to seasonal holiday demand.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels &lt;mark&gt;ar&lt;/mark&gt;e filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Available Information The Company’s Annual Reports on Form 10-K, Qu&lt;mark&gt;ar&lt;/mark&gt;terly Reports on Form 10-Q, Current Reports on Form 8-K, and amendments to reports filed pursuant to Sections 13(a) and 15(d) of the Securities Exchange Act of 1934, as amended (the “Exchange Act”), are filed with the Securities and Exchange Commission (the “SEC”).&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Such reports and other information filed by the Company with the SEC &lt;mark&gt;ar&lt;/mark&gt;e available free of charge at investor.apple.com/investor-relations/sec-filings/default.aspx when such reports are available on the SEC’s website.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This includes press releases and other information about financial performance, information on corporate governance and details related to the Company’s annual meeting of sh&lt;mark&gt;ar&lt;/mark&gt;eholders.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Further, the Company’s references to website URLs &lt;mark&gt;ar&lt;/mark&gt;e intended to be inactive textual references only.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Risk Factors The following discussion of risk factors contains forw&lt;mark&gt;ar&lt;/mark&gt;d-looking statements.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The following information should be read in conjunction with P&lt;mark&gt;ar&lt;/mark&gt;t II, Item 7, “Management’s Discussion and Analysis of Financial Condition and Results of Operations” and the consolidated financial statements and accompanying notes in Part II, Item 8, “Financial Statements and Supplementary Data” of this Form 10-K.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The business, financial condition and operating results of the Company can be affected by a number of factors, whether currently known or unknown, including but not limited to those described below, any one or more of which could, directly or indirectly, cause the Company’s actual financial condition and operating results to v&lt;mark&gt;ar&lt;/mark&gt;y materially from past, or from anticipated future, financial condition and operating results.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Any of these factors, in whole or in p&lt;mark&gt;ar&lt;/mark&gt;t, could materially and adversely affect the Company’s business, financial condition, operating results and stock price.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Such measures have included restrictions on travel and business operations, tempor&lt;mark&gt;ar&lt;/mark&gt;y closures of businesses, and quarantines and shelter-in-place orders.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The COVID-19 pandemic has significantly curtailed global economic activity and caused significant volatility and disruption in global financial m&lt;mark&gt;ar&lt;/mark&gt;kets.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Following the initial outbreak of the virus, the Company experienced disruptions to its manufacturing, supply chain and logistical services provided by outsourcing p&lt;mark&gt;ar&lt;/mark&gt;tners, resulting in temporary iPhone supply shortages that affected sales worldwide.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;During the course of the pandemic, the Company’s retail stores, as well as channel p&lt;mark&gt;ar&lt;/mark&gt;tner points of sale, have been temporarily closed at various times.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In many cases, where stores and points of sale have reopened they &lt;mark&gt;ar&lt;/mark&gt;e subject to operating restrictions to protect public health and the health and safety of employees and customers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Additional future impacts on the Company may include, but &lt;mark&gt;ar&lt;/mark&gt;e not limited to, material adverse effects on: demand for the Company’s products and services; the Company’s supply chain and sales and distribution channels; the Company’s ability to execute its strategic plans; and the Company’s profitability and cost structure.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To the extent the COVID-19 pandemic adversely affects the Company’s business, results of operations, financial condition and stock price, it may also have the effect of heightening many of the other risks described in this P&lt;mark&gt;ar&lt;/mark&gt;t I, Item 1A of this Form 10-K.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, a majority of the Company’s supply chain, and its manufacturing and assembly activities, &lt;mark&gt;ar&lt;/mark&gt;e located outside the U.S. As a result, the Company’s operations and performance depend significantly on global and regional economic conditions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Adverse macroeconomic conditions, including inflation, slower growth or recession, new or increased t&lt;mark&gt;ar&lt;/mark&gt;iffs and other barriers to trade, changes to fiscal and monetary policy, tighter credit, higher interest rates, high unemployment and currency fluctuations could materially adversely affect demand for the Company’s products and services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, consumer confidence and spending could be adversely affected in response to financial m&lt;mark&gt;ar&lt;/mark&gt;ket volatility, negative financial news, conditions in the real estate and mortgage markets, declines in income or asset values, changes to fuel and other energy costs, labor and healthcare costs and other economic factors.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Apple Inc. | 2020 Form 10-K | 5 In addition to an adverse impact on demand for the Company’s products, uncertainty about, or a decline in, global or regional economic conditions could have a significant impact on the Company’s suppliers, contract manufacturers, logistics providers, distributors, cellul&lt;mark&gt;ar&lt;/mark&gt; network carriers and other channel partners.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A downturn in the economic environment could also lead to increased credit and collectibility risk on the Company’s trade receivables; the failure of derivative counterp&lt;mark&gt;ar&lt;/mark&gt;ties and other financial institutions; limitations on the Company’s ability to issue new debt; reduced liquidity; and declines in the fair value of the Company’s financial instruments.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Global m&lt;mark&gt;ar&lt;/mark&gt;kets for the Company’s products and services are highly competitive and subject to rapid technological change, and the Company may be unable to compete effectively in these markets.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s products and services &lt;mark&gt;ar&lt;/mark&gt;e offered in highly competitive global markets characterized by aggressive price competition and resulting downward pressure on gross margins, frequent introduction of new products and services, short product life cycles, evolving industry standards, continual improvement in product price and performance characteristics, rapid adoption of technological advancements by competitors, and price sensitivity on the part of consumers and businesses.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s ability to compete successfully depends heavily on ensuring the continuing and timely introduction of innovative new products, services and technologies to the m&lt;mark&gt;ar&lt;/mark&gt;ketplace.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company believes it is unique in that it designs and develops ne&lt;mark&gt;ar&lt;/mark&gt;ly the entire solution for its products, including the hardware, operating system, numerous software applications and related services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There can be no assurance that these investments will achieve expected returns, and the Company may not be able to develop and m&lt;mark&gt;ar&lt;/mark&gt;ket new products and services successfully.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company currently holds a significant number of patents, tradem&lt;mark&gt;ar&lt;/mark&gt;ks and copyrights and has registered, and applied to register, numerous patents, trademarks and copyrights.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In contrast, many of the Company’s competitors seek to compete prim&lt;mark&gt;ar&lt;/mark&gt;ily through aggressive pricing and very low cost structures, and by emulating the Company’s products and infringing on its intellectual property.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If the Company is unable to continue to develop and sell innovative new products with attractive m&lt;mark&gt;ar&lt;/mark&gt;gins or if competitors infringe on the Company’s intellectual property, the Company’s ability to maintain a competitive advantage could be adversely affected.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company has a minority m&lt;mark&gt;ar&lt;/mark&gt;ket share in the global smartphone, personal computer and tablet markets.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company faces substantial competition in these m&lt;mark&gt;ar&lt;/mark&gt;kets from companies that have significant technical, marketing, distribution and other resources, as well as established hardware, software and digital content supplier relationships.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, some of the Company’s competitors have broader product lines, lower-priced products and a l&lt;mark&gt;ar&lt;/mark&gt;ger installed base of active devices.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Competition has been p&lt;mark&gt;ar&lt;/mark&gt;ticularly intense as competitors have aggressively cut prices and lowered product margins.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some of the m&lt;mark&gt;ar&lt;/mark&gt;kets in which the Company competes have from time to time experienced little to no growth or contracted overall.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Additionally, the Company faces significant competition as competitors imitate the Company’s product features and applications within their products or collaborate to offer solutions that &lt;mark&gt;ar&lt;/mark&gt;e more competitive than those they currently offer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s services also face substantial competition, including from companies that have significant resources and experience and have established service offerings with l&lt;mark&gt;ar&lt;/mark&gt;ge customer bases.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company also competes with illegitimate means to obtain third-p&lt;mark&gt;ar&lt;/mark&gt;ty digital content and applications.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The success of new product and service introductions depends on a number of factors including, but not limited to, timely and successful development, m&lt;mark&gt;ar&lt;/mark&gt;ket acceptance, the Company’s ability to manage the risks associated with new product production ramp-up issues, the availability of application software for new products, the effective management of purchase commitments and inventory levels in line with anticipated product demand, the availability of products in appropriate quantities and at expected costs to meet anticipated demand, and the risk that new products and services may have quality or other defects or deficiencies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company depends on the performance of c&lt;mark&gt;ar&lt;/mark&gt;riers, wholesalers, retailers and other resellers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company distributes its products through cellul&lt;mark&gt;ar&lt;/mark&gt; network carriers, wholesalers, retailers and resellers, many of whom distribute products from competing manufacturers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company also sells its products and resells third-p&lt;mark&gt;ar&lt;/mark&gt;ty products in most of its major markets directly to consumers, small and mid-sized businesses, and education, enterprise and government customers through its retail and online stores and its direct sales force.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some c&lt;mark&gt;ar&lt;/mark&gt;riers providing cellular network service for iPhone offer financing, installment payment plans or subsidies for users’ purchases of the device.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There is no assurance that such offers will be continued at all or in the same amounts upon renewal of the Company’s agreements with these c&lt;mark&gt;ar&lt;/mark&gt;riers or in agreements the Company enters into with new carriers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The financial condition of these resellers could weaken, these resellers could stop distributing the Company’s products, or uncertainty reg&lt;mark&gt;ar&lt;/mark&gt;ding demand for some or all of the Company’s products could cause resellers to reduce their ordering and marketing of the Company’s products.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company also accrues necess&lt;mark&gt;ar&lt;/mark&gt;y cancellation fee reserves for orders of excess products and components.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If the Company determines that an impairment has occurred, it records a write-down equal to the amount by which the c&lt;mark&gt;ar&lt;/mark&gt;rying value of the asset exceeds its fair value.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Although the Company believes its inventory, capital assets, inventory prepayments and other assets and purchase commitments &lt;mark&gt;ar&lt;/mark&gt;e currently recoverable, no assurance can be given that the Company will not incur write-downs, fees, impairments and other charges given the rapid and unpredictable pace of product obsolescence in the industries in which the Company competes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Because the Company’s m&lt;mark&gt;ar&lt;/mark&gt;kets are volatile, competitive and subject to rapid technology and price changes, there is a risk the Company will forecast incorrectly and order or produce excess or insufficient amounts of components or products, or not fully utilize firm purchase commitments.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Many components, including those that &lt;mark&gt;ar&lt;/mark&gt;e available from multiple sources, are at times subject to industry-wide shortages and significant commodity pricing fluctuations that could materially adversely affect the Company’s financial condition and operating results.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While the Company has entered into agreements for the supply of many components, there can be no assurance that the Company will be able to extend or renew these agreements on simil&lt;mark&gt;ar&lt;/mark&gt; terms, or at all.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Component suppliers may suffer from poor financial conditions, which can lead to business failure for the supplier or consolidation within a p&lt;mark&gt;ar&lt;/mark&gt;ticular industry, further limiting the Company’s ability to obtain sufficient quantities of components on commercially reasonable terms.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If the Company’s supply of components for a new or existing product were delayed or constrained, or if an outsourcing p&lt;mark&gt;ar&lt;/mark&gt;tner delayed shipments of completed products to the Company, the Company’s financial condition and operating results could be materially adversely affected.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company depends on component and product manufacturing and logistical services provided by outsourcing p&lt;mark&gt;ar&lt;/mark&gt;tners, many of which are located outside of the U.S.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Substantially all of the Company’s manufacturing is performed in whole or in p&lt;mark&gt;ar&lt;/mark&gt;t by outsourcing partners located primarily in Asia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A significant concentration of this manufacturing is currently performed by a small number of outsourcing p&lt;mark&gt;ar&lt;/mark&gt;tners, often in single locations.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While these &lt;mark&gt;ar&lt;/mark&gt;rangements can lower operating costs, they also reduce the Company’s direct contro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Apple Annual Report.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Platform</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>8</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Telecom Infra</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Services Advertising The Company’s advertising services include various third-party licensing arrangements and the Company’s own advertising &lt;mark&gt;platform&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Digital Content The Company operates various &lt;mark&gt;platform&lt;/mark&gt;s, including the App Store , that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company believes the availability of third-party software applications and services for its products depends in part on the developers’ perception and analysis of the relative benefits of developing, maintaining and upgrading such software and services for the Company’s products compared to competitors’ &lt;mark&gt;platform&lt;/mark&gt;s, such as Android for smartphones and tablets and Windows for personal computers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If developers focus their efforts on these competing &lt;mark&gt;platform&lt;/mark&gt;s, the availability and quality of applications for the Company’s devices may suffer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company only retains a commission from sales of applications through its &lt;mark&gt;platform&lt;/mark&gt;s and in situations where a developer offers purchases for digital features, services, or goods within an application.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If developers reduce their use of the Company’s &lt;mark&gt;platform&lt;/mark&gt;s, including in-app purchases, then the volume of sales, and the commission that the Company earns on those sales, would decrease.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Company’s global operations are subject to complex and changing laws and regulations on subjects including, but not limited to: antitrust; privacy, data security and data localization; consumer protection; advertising, sales, billing and e-commerce; product liability; intellectual property ownership and infringement; digital &lt;mark&gt;platform&lt;/mark&gt;s; Internet, telecommunications, and mobile communications; media, television, film and digital content; availability of third-party software applications and services; labor and employment; anti-corruption; import, export and trade; foreign exchange controls and cash repatriation restrictions; anti–money laundering; foreign ownership and investment; tax; and environmental, health and safety.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;These measures can require the Company to take various actions, including change suppliers, restructure business relationships, and stop offering third-party applications on its &lt;mark&gt;platform&lt;/mark&gt;s.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>20</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;TD Ed McNicholas, co-leader of the cybersecurity practice at law firm Ropes &amp; Gray LLP, said ensuring that ransomware payments aren't going to sanctioned Russian entities has g&lt;mark&gt;ott&lt;/mark&gt;en "much harder" recently.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The breakaway pro-Russian enclave of Transnistria on Wednesday reported gunfire and drones sp&lt;mark&gt;ott&lt;/mark&gt;ed over a village near its border with Ukraine after it said three separate attacks earlier this week targeted a Transnistrian military base, two radio towers and the headquarters of its state security service.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;So Biden is saying to Asian allies, we haven't forg&lt;mark&gt;ott&lt;/mark&gt;en you.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Commodities SE Markets HD Russian Gas Stoppages Spur Europe's Race for New Energy Supplies; European officials say Kremlin is thr&lt;mark&gt;ott&lt;/mark&gt;ling gas for Poland and Bulgaria to warn countries not to impose embargoes or arm Ukraine BY By Georgi Kantchev, Joe Wallace and Matthew Dalton WC 1,715 words PD 27 April 2022 ET 22:16 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For Moscow, the decision to thr&lt;mark&gt;ott&lt;/mark&gt;le gas flows to Poland and Bulgaria is a high-risk gamble that could undermine one of main supports of Russia's embattled economy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Auto manufacturers in particular have been struggling to cope with higher costs from rising raw-materials and energy prices, the semiconductor shortage, the impact of Covid-19 lockdowns on their supply chains, and now new b&lt;mark&gt;ott&lt;/mark&gt;lenecks caused by the war in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mercedes-Benz new car sales fell 10% to 487,008 vehicles in the first quarter "mainly due to semiconductor supply b&lt;mark&gt;ott&lt;/mark&gt;lenecks, Covid-19 lockdowns, as well as the war in Ukraine," the company said in its report.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Unlike the U.S., Russia doesn't have much space to store oil, so dwindling demand quickly backs up through the supply chain and prompts producers to thr&lt;mark&gt;ott&lt;/mark&gt;le back output.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some of the consulting giants have g&lt;mark&gt;ott&lt;/mark&gt;en out faster.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While sanctions and industrial b&lt;mark&gt;ott&lt;/mark&gt;lenecks are unlikely to quickly affect battlefields in Ukraine, they could if the war grinds on.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukrainian forces' large-scale destruction of Russian military equipment using modern Western-supplied drones, artillery and portable missile launchers undermines the reputation of Moscow's arms, said Sc&lt;mark&gt;ott&lt;/mark&gt; Boston, a senior defense analyst at Rand Corp. "When their weapons are being shown to be blown up all over the place, there's a general perception that maybe this equipment isn't that good," he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some of the consulting giants have g&lt;mark&gt;ott&lt;/mark&gt;en out faster.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While sanctions and industrial b&lt;mark&gt;ott&lt;/mark&gt;lenecks are unlikely to quickly affect battlefields in Ukraine, they could if the war grinds on.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukrainian forces' large-scale destruction of Russian military equipment using modern Western-supplied drones, artillery and portable missile launchers undermines the reputation of Moscow's arms, said Sc&lt;mark&gt;ott&lt;/mark&gt; Boston, a senior defense analyst at Rand Corp. "When their weapons are being shown to be blown up all over the place, there's a general perception that maybe this equipment isn't that good," he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Real-estate development firms and water b&lt;mark&gt;ott&lt;/mark&gt;lers are expected to follow soon.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He said he saw his name was at the b&lt;mark&gt;ott&lt;/mark&gt;om of the first of two pagesof names not listed in alphabetical order.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Trash piled in the hallways, and b&lt;mark&gt;ott&lt;/mark&gt;les of beer and wine littered the floor.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine's government has been leaning on companies to import more food into the country after Russia bombed depots, stores and warehouses while destroying packaging and b&lt;mark&gt;ott&lt;/mark&gt;ling factories.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Nestlé says it has donated 2,080 tons of b&lt;mark&gt;ott&lt;/mark&gt;led water, baby food, instant noodles, coffee and other products so far and has been working to increase imports for donation from 10 to 25 trucks a week.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The relevance of this older pipeline dispute to the recent Nord Stream 2 saga was not lost on Secretary of State Antony Blinken, who once wrote a book on this forg&lt;mark&gt;ott&lt;/mark&gt;en crisis of the Atlantic alliance.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>99</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Russia Can't Depend on India Either IN idef : Defense Equipment/Products | iaer : Aerospace/Defense | iindstrls : Industrial Goods NS c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | nedc : Commentaries/Opinions | gcat : Political/General News | gdip : International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter RE india : India | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | ndelh : New Delhi | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | delhi : Delhi | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | indsubz : Indian Subcontinent | sasiaz : Southern Asia | weurz : Western Europe IPD Opinion | IPC I/ARO PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s008kd Page 3 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Putin Really May Break the Nuclear Taboo in Ukraine NS gnuclw : Nuclear Weapons Programs | gvexe : Executive Branch | gpir : Politics/International Relations | gwar : War Crimes | ncolu : Columns | nedc : Commentaries/Opinions | gcat : Political/General News | gcns : National/Public Security | gcrim : Crime/Legal Action | gdef : Armed Forces | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | gvio : Military Action | gweap : Weapons Programs | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter Page 5 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;NS gweap : Weapons Programs | gcat : Political/General News | gvexe : Executive Branch | gvbod : Government Bodies | gpir : Politics/International Relations | gpol : Domestic Politics | gvcng : Legislative Branch | gvio : Military Action | ncolu : Columns | nedc : Commentaries/Opinions | gcns : National/Public Security | gdef : Armed Forces | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC G/CNG PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s00911 Page 8 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Ken Thomas at ken.thomas@wsj.com Biden Asks Congress for $33 Billion to Support Ukraine CO uscong : United States Congress NS gcat : Political/General News | gdev : Development/Humanitarian Aid | ghea : Health | gpir : Politics/International Relations | gpol : Domestic Politics | gvcng : Legislative Branch | gvio : Military Action | ncolu : Columns | gsars : Novel Coronaviruses | gweap : Weapons Programs | gcns : National/Public Security | gcold : Respiratory Tract Diseases | gdef : Armed Forces | gdip : International Relations | gmed : Medical Conditions | grisk : Risk News | gspox : Infectious Diseases | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | usa : United States | eurz : Europe | namz : North America | uk : United Kingdom | usdc : Washington DC | uss : Southern U.S. | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC G/CNG PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s0040h Page 11 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;(WSJ April 29, 2022) License this article from Dow Jones Reprint Service CO rumfa : Russia Ministry of Foreign Affairs | uafor : Ukraine Ministry of Foreign Affairs NS gdip : International Relations | gdrug : Drug Trafficking/Dealing | gcrim : Crime/Legal Action | gpris : Prisons/Prisoners | gtraff : Trafficking/Smuggling | ncrx : Corrected Items | gcat : Political/General News | gcns : National/Public Security | ghome : Law Enforcement | gpir : Politics/International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE russ : Russia | ukrn : Ukraine | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220428ei4s0000q Page 13 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to James Marson at james.marson@wsj.com Biden Seeks New Aid for Ukraine as Russia Makes Slow Progress in Seizing East CO uscong : United States Congress NS gcat : Political/General News | gvio : Military Action | gvexe : Executive Branch | gvbod : Government Bodies | ecat : Economic News | gcrim : Crime/Legal Action | gpir : Politics/International Relations | gpol : Domestic Politics | gvcng : Legislative Branch | gwar : War Crimes | ncolu : Columns | nimage : Images | gweap : Weapons Programs | gcns : National/Public Security | gdef : Armed Forces | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | namz : North America | weurz : Western Europe IPD Wires IPC G/CNG PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s001jl Page 17 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Doug Cameron at doug.cameron@wsj.com and Gordon Lubold at Gordon.Lubold@wsj.com U.S. Efforts to Arm Ukraine Shine Light on Limited Production Lines IN iaer : Aerospace/Defense | idef : Defense Equipment/Products | iindstrls : Industrial Goods NS gvdef : Defense Department | c21 : Output/Production | cpshrt : Product Shortage | cactio : Corporate Actions | ccat : Corporate/Industrial News | gpir : Politics/International Relations | gvio : Military Action | ncolu : Columns | npda : DJ Exclusive Analysis - All | gcat : Political/General News | cexpro : Products/Services | gcns : National/Public Security | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | gvexe : Executive Branch | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters RE ukrn : Ukraine | usa : United States | eurz : Europe | namz : North America | uk : United Kingdom | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC AJRD PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s001p7 Page 20 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN iengwh : Energy Wholesale | i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | i61 : Wholesalers | i64 : Retail/Wholesale | ifosfl : Fossil Fuels | iioil : Integrated Oil/Gas NS c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | m14 : Commodity Markets | mcat : Commodity/Financial Market News | ncolu : Columns | npda : DJ Exclusive Analysis - All | gcat : Political/General News | m143 : Energy Markets | gdip : International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | switz : Switzerland | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Wires IPC 0005.HK PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s00669 Page 24 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO rumedt : Russia Ministry of Economic Development NS ecat : Economic News | c13 : Regulation/Government Policy | gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | nimage : Images | e11 : Economic Performance/Indicators | ccat : Corporate/Industrial News | e51 : Trade/External Payments | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter Page 26 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO brglcb : Brussels European and Global Economic Laboratory | euruno : European Union IN i1 : Energy | ifosfl : Fossil Fuels | i1300003 : Crude Petroleum Extraction | i13 : Crude Oil/Natural Gas Upstream Operations | iextra : Natural Gas/Oil Extraction NS gtrade : Trade Barriers/Restrictions | gesanc : International Sanctions | c314 : Pricing | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gdip : International Relations | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | gcat : Political/General News | c31 : Marketing | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | gfr : Germany | eecz : European Union Countries | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD WSJ IPC GAZP.RS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s003ux Page 31 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Ryan Dezember at ryan.dezember@wsj.com Corn and Soybeans Near Record Prices, Push Food Costs Higher IN i0100223 : Soybean Farming | i0 : Agriculture | i1 : Energy | ialtful : Alternative Fuels | i010013205 : Corn Farming | i01001 : Farming | i0100132 : Oilseed/Grain Farming NS mcorn : Corn Markets | gdroug : Drought | gntdis : Natural Disasters/Catastrophes | gvio : Military Action | m14 : Commodity Markets | magric : Soft Commodity Markets | mcat : Commodity/Financial Market News | mgroil : Grains/Edible Oils Markets | ncolu : Columns | gcat : Political/General News | moilsd : Oilseed Markets | gcns : National/Public Security | gdis : Disasters/Accidents | grisk : Risk News | gwea : Weather | m141 : Agricultural Commodity Markets | mgrain : Grain Markets | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter RE ukrn : Ukraine | usa : United States | eurz : Europe | namz : North America | russ : Russia | uk : United Kingdom | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | ussrz : CIS Countries | weurz : Western Europe IPD Wires IPC G/AGD PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s0012y Page 33 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Richard Vanderford at richard.vanderford@wsj.com Russia Sanctions Complicate Paying Ransomware Hackers CO ropgry : Ropes &amp; Gray LLP IN ibcs : Business/Consumer Services | i835 : Legal Services NS gcvir : Malware | gext : Extortion/Blackmail | gesanc : International Sanctions | gcrim : Crime/Legal Action | ghack : Cybercrime/Hacking | gpir : Politics/International Relations | ncolu : Columns | gcat : Political/General News | gdip : International Relations | gfinc : Financial Crime | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Wires IPC I/BCS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s00107 Page 35 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Brett Forrest at brett.forrest@wsj.com Ukraine Brings First War-Crimes Charges Against Russian Soldiers in Bucha NS gcrim : Crime/Legal Action | gwar : War Crimes | gdef : Armed Forces | gdip : International Relations | gpir : Politics/International Relations | gvio : Military Action | ncolu : Columns | nimage : Images | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC N/CRM PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s002gx Page 38 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Political/General News | gcns : National/Public Security | gcom : Society/Community | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC BAYN.XE PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s00335 Page 41 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;NS gvexe : Executive Branch | gcat : Political/General News | gpir : Politics/International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ncolu : Columns | gpol : Domestic Politics | gvbod : Government Bodies RE ukrn : Ukraine | russ : Russia | asiaz : Asia | crimea : Crimea | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC N/DJN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s005v5 Page 44 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to James Marson at james.marson@wsj.com and Ann M. Simmons at ann.simmons@wsj.com Russia Suffers Another Fire at a Supply Depot as It Advances in Eastern Ukraine NS gdip : International Relations | gcat : Political/General News | gcrim : Crime/Legal Action | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | nimage : Images | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | ussrz : CIS Countries | asiaz : Asia | bul : Bulgaria | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | russ : Russia | uk : United Kingdom | apacz : Asia Pacific | balkz : Balkan States | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC GAZP.RS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220427ei4r001jl Page 47 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i351 : Motor Vehicles | i35104 : Alternative Fuel Vehicles | i814 : Banking | i81402 : Commercial Banking | iaut : Automotive | ibnk : Banking/Credit | ifinal : Financial Services | iibnk : Integrated Banks NS gvexe : Executive Branch | gvio : Military Action | naudvl : Audio-visual Links | ntra : Transcripts | gpir : Politics/International Relations | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | niwe : IWE Filter RE ukrn : Ukraine | usa : United States | eurz : Europe | asiaz : Asia | easiaz : Eastern Asia | namz : North America | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD SYND IPC BARC.LN PUB Dow Jones &amp; Company, Inc. AN Document WSJPOD0020220428ei4s0008d Page 52 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i3302 : Computers/Consumer Electronics | i64 : Retail/Wholesale | i656000301 : Etailing | i97411 : Broadcasting | i9741109 : Cable Broadcasting | iecom : E-commerce | iint : Online Service Providers | imed : Media/Entertainment | iretail : Retail | isocial : Social Media Platforms/Tools | itech : Technology NS gcat : Political/General News | gvexe : Executive Branch | naudvl : Audio-visual Links | ntra : Transcripts | gdip : International Relations | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | niwe : IWE Filter RE ukrn : Ukraine | usa : United States | eurz : Europe | namz : North America | uk : United Kingdom | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD SYND Page 53 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service IN i16 : Electricity/Gas Utilities | i1 : Energy | iutil : Utilities NS mnatgs : Natural Gas Markets | m14 : Commodity Markets | m143 : Energy Markets | mcat : Commodity/Financial Market News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter RE russ : Russia | eurz : Europe | bul : Bulgaria | pol : Poland | ukrn : Ukraine | usa : United States | asiaz : Asia | balkz : Balkan States | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eecz : European Union Countries | eeurz : Central/Eastern Europe | namz : North America | ussrz : CIS Countries IPC GMA PUB Dow Jones &amp; Company, Inc. AN Document J000000020220428ei4s0001b Page 56 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO gzpmbk : Gazprombank OAO | gngpf : Gazfond Non-Governmental Pension Fund IN i1 : Energy | i814 : Banking | i81402 : Commercial Banking | ibnk : Banking/Credit | ifinal : Financial Services NS gvexe : Executive Branch | gext : Extortion/Blackmail | gfinc : Financial Crime | gcat : Political/General News | gvio : Military Action | ncolu : Columns | c12 : Corporate Crime/Legal Action | ccat : Corporate/Industrial News | gcns : National/Public Security | gcrim : Crime/Legal Action | gpir : Politics/International Relations | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | eurz : Europe | bul : Bulgaria | pol : Poland | ukrn : Ukraine | usa : United States | asiaz : Asia | balkz : Balkan States | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eecz : European Union Countries | eeurz : Central/Eastern Europe | namz : North America | ussrz : CIS Countries IPC EXE PUB Dow Jones &amp; Company, Inc. AN Document J000000020220428ei4s0001a Page 58 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN iaut : Automotive | i35101 : Passenger Cars | i351 : Motor Vehicles NS ccat : Corporate/Industrial News | neqac : Equities Asset Class News | c181 : Acquisitions/Mergers/Shareholdings | c23 : Research/Development | c18 : Ownership Changes | cactio : Corporate Actions | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | fra : France | ukrn : Ukraine | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eecz : European Union Countries | eeurz : Central/Eastern Europe | eurz : Europe | medz : Mediterranean | ussrz : CIS Countries | weurz : Western Europe IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220428ei4s0000w Page 63 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO mcrost : Microsoft Corporation IN i3302 : Computers/Consumer Electronics | i330202 : Software | i3302021 : Applications Software | icomp : Computing | itech : Technology NS ghack : Cybercrime/Hacking | gcrim : Crime/Legal Action | gdip : International Relations | gvio : Military Action | gcat : Political/General News | gcns : National/Public Security | gpir : Politics/International Relations | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC MEN PUB Dow Jones &amp; Company, Inc. AN Document J000000020220428ei4s0000v Page 65 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Georgi Kantchev at georgi.kantchev@wsj.com and Joe Wallace at joe.wallace@wsj.com Russian Gas Stoppages Spur Europe's Race for New Energy Supplies CO gzprm : Gazprom PJSC | euruno : European Union IN i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | ifosfl : Fossil Fuels | iioil : Integrated Oil/Gas NS gvexe : Executive Branch | gtrade : Trade Barriers/Restrictions | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | m14 : Commodity Markets | ncolu : Columns | gcat : Political/General News | gdip : International Relations | gpol : Domestic Politics | gvbod : Government Bodies | mcat : Commodity/Financial Market News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | asiaz : Asia | bul : Bulgaria | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | pol : Poland | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | apacz : Asia Pacific | balkz : Balkan States | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC GAZP.RS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220427ei4r001e1 Page 68 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Major importers of Indonesian palm oil include China, India, and the U.S. Write to Jon Emont at jonathan.emont@wsj.com Indonesia, World's Largest Palm-Oil Producer, Bans Exports of Ubiquitous Commodity IN i411 : Vegetable Oils | i010013202 : Edible Oil Plant/Seed Farming | i41 : Food/Beverages | icnp : Consumer Goods | ifood : Food Products | i0 : Agriculture | i01001 : Farming | i0100132 : Oilseed/Grain Farming NS gtrade : Trade Barriers/Restrictions | gesanc : International Sanctions | e51 : Trade/External Payments | ecat : Economic News | gpir : Politics/International Relations | m14 : Commodity Markets | mcat : Commodity/Financial Market News | ncolu : Columns | gcat : Political/General News | gfod : Food/Drink | gdip : International Relations | glife : Living/Lifestyle | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter RE indon : Indonesia | russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | seasiaz : Southeast Asia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC I/FBT PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220427ei4r0058x Page 70 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;France's Total Takes $4.1 Billion Charge Related to Russia Sanctions CO bp : BP PLC | fdp : TotalEnergies SE | gzprm : Gazprom PJSC IN ifosfl : Fossil Fuels | i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | i1300004 : Liquefied/Compressed Gas | i5020022 : Oil Production Platform Construction | iindstrls : Industrial Goods | i14 : Downstream Operations | i502 : Heavy Construction | iconst : Construction | icre : Real Estate/Construction | iioil : Integrated Oil/Gas NS c24 : Capacity/Facilities | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | gcat : Political/General News | gdip : International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE russ : Russia | arct : Arctic | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | fra : France | namz : North America | uk : United Kingdom | ukrn : Ukraine | usa : United States | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | medz : Mediterranean IPD Wires IPC BP PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220427ei4r006sh Page 72 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO usdojc : United States Department of Justice NS gvjus : Justice Department | gvbod : Government Bodies | gvio : Military Action | gpir : Politics/International Relations | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | gpol : Domestic Politics | grisk : Risk News | gvexe : Executive Branch | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE russ : Russia | usa : United States | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usmi : Michigan | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | usc : Midwest U.S. | weurz : Western Europe IPD Wires IPC G/JUS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220427ei4r007k9 Page 74 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i0 : Agriculture | i0100132 : Oilseed/Grain Farming | i41 : Food/Beverages | icnp : Consumer Goods | ifood : Food Products | i01001 : Farming | i416 : Flour/Malt Products NS mwheat : Wheat Markets | mgroil : Grains/Edible Oils Markets | c15 : Financial Performance | gvio : Military Action | c151 : Earnings | ccat : Corporate/Industrial News | magric : Soft Commodity Markets | mcorn : Corn Markets | mgrain : Grain Markets | ncolu : Columns | gcat : Political/General News | gfod : Food/Drink | reqraf : Suggested Reading Agriculture/Forestry | gcns : National/Public Security | glife : Living/Lifestyle | grisk : Risk News | m14 : Commodity Markets | m141 : Agricultural Commodity Markets | mcat : Commodity/Financial Market News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC ADM PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220427ei4r003h1 Page 76 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN iaut : Automotive | i35101 : Passenger Cars | i351 : Motor Vehicles NS ccat : Corporate/Industrial News | cdiv : Divestments | c181 : Acquisitions/Mergers/Shareholdings | c23 : Research/Development | cacqu : Acquisitions/Mergers | cactio : Corporate Actions | gcar : Cars | gpir : Politics/International Relations | gpol : Domestic Politics | gvio : Military Action | ncolu : Columns | gcat : Political/General News | c18 : Ownership Changes | gcns : National/Public Security | glife : Living/Lifestyle | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC 7201.TO PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220427ei4r005mt Page 78 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Laurence Norman at laurence.norman@wsj.com EU Targets Hungary's Funding Amid Russia Sanctions Fight CO euruno : European Union NS gcat : Political/General News | e211 : Government Budget/Taxation | c341 : Government Aid/Grants | gvexe : Executive Branch | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | ecat : Economic News | gdip : International Relations | gesanc : International Sanctions | gpir : Politics/International Relations | ncolu : Columns | e21 : Government Finance | gpol : Domestic Politics | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE hung : Hungary | eecz : European Union Countries | asiaz : Asia | belg : Belgium | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | benluxz : Benelux Countries | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Wires IPC N/CMR PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220427ei4r00335 Page 80 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Hackers Linked to Russia Launched Hundreds of Cyberattacks in Ukraine, Microsoft Says CO mcrost : Microsoft Corporation IN i3302 : Computers/Consumer Electronics | i330202 : Software | icph : Computer Hardware | iint : Online Service Providers | itech : Technology | icomp : Computing | i3302021 : Applications Software NS ghack : Cybercrime/Hacking | ncolu : Columns | nimage : Images | gcat : Political/General News | gcrim : Crime/Legal Action | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | russ : Russia | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe Page 82 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Paul Hannon at paul.hannon@wsj.com, Georgi Kantchev at georgi.kantchev@wsj.com and Yuliya Chernova at yuliya.chernova@wsj.com Russia's New Economic Data Is Inconsistent on Impact of War and Sanctions CO rumedt : Russia Ministry of Economic Development | imonf : International Monetary Fund NS ecat : Economic News | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e11 : Economic Performance/Indicators | e51 : Trade/External Payments | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | npred : Economic Predictions/Forecasts | gcat : Political/General News | gdip : International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ussrz : CIS Countries | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging M</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>cable</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Telecom Infra</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The Pentagon is looking at the Defense Production Act and other legal mechanisms "to determine whether they are appli&lt;mark&gt;cable&lt;/mark&gt; or prudent, and is applying those authorities as needed to help replenish stockpiles in the most efficient manner," said a Pentagon spokeswoman.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i3302 : Computers/Consumer Electronics | i64 : Retail/Wholesale | i656000301 : Etailing | i97411 : Broadcasting | i9741109 : &lt;mark&gt;Cable&lt;/mark&gt; Broadcasting | iecom : E-commerce | iint : Online Service Providers | imed : Media/Entertainment | iretail : Retail | isocial : Social Media Platforms/Tools | itech : Technology NS gcat : Political/General News | gvexe : Executive Branch | naudvl : Audio-visual Links | ntra : Transcripts | gdip : International Relations | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | niwe : IWE Filter RE ukrn : Ukraine | usa : United States | eurz : Europe | namz : North America | uk : United Kingdom | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD SYND Page 53 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Florida, Utah Take on ESG Farce CO dsnyw : The Walt Disney Company IN i97411 : Broadcasting | imed : Media/Entertainment | i9741109 : &lt;mark&gt;Cable&lt;/mark&gt; Broadcasting NS ccsr : Corporate Social Responsibility | cesg : Environmental/Social/Governance | ccat : Corporate/Industrial News | m11 : Equity Markets | ncolu : Columns | nedc : Commentaries/Opinions | mcat : Commodity/Financial Market News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter RE usut : Utah | usa : United States | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | russ : Russia | ussrz : CIS Countries | usw : Western U.S. | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Opinion | IPC 0386.HK PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220425ei4p004bl Page 167 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Investment</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>44</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Digital investment</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;CLM Review &amp; Outlook (U.S.) SE Opinion HD Congress's Turn to Step Up on Ukraine; Biden's request to help Kyiv is an &lt;mark&gt;investment&lt;/mark&gt; in U.S. security.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Vladimir Putin seems set on a long war, and the &lt;mark&gt;investment&lt;/mark&gt; in defeating him will be cheap if it succeeds.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The retreat will also likely mean substantial losses on &lt;mark&gt;investment&lt;/mark&gt;s the traders made in the country as they sought to deepen their roots, such as a giant drilling project in the Arctic Circle partly owned by Trafigura and Vitol.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Sechin's strategy was to grant barrels of oil in return for funding and &lt;mark&gt;investment&lt;/mark&gt;s, all the while playing Trafigura, Vitol and Glencore off against each other, said Mr. Lambert, the former banker.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Trafigura froze its &lt;mark&gt;investment&lt;/mark&gt; in Vostokwithout detailing what that entailed, and industry executives expect the company to absorb a large loss on the project.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In Berlin, the government of Chancellor Olaf Scholz is accelerating &lt;mark&gt;investment&lt;/mark&gt;s in renewable energy and building LNG terminals.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Chamberlain, a former &lt;mark&gt;investment&lt;/mark&gt; banker who has run LME since 2017, had said in January that he would depart at the end of April to run a cryptocurrency startup.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We were not immune to global market sentiment which resulted in some softness in the IPO market, reduced valuations in our &lt;mark&gt;investment&lt;/mark&gt; portfolio and pricing volatility in our commodities market," Mr. Aguzin said in a statement.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Dave Sebastian at dave.sebastian@wsj.com London Metal Exchange CEO Matthew Chamberlain to Stay, a Reversal From Planned Departure CO hkexch : Hong Kong Exchanges and Clearing Limited IN i2114 : Copper Ore/Nickel Ore Mining | i22 : Primary Metals | i224 : Non-ferrous Metals | i831 : Financial &lt;mark&gt;Investment&lt;/mark&gt; Services | i8394 : Computer Services | ibnk : Banking/Credit | ifinal : Financial Services | iinv : Investing/Securities | itech : Technology | imet : Mining/Quarrying | ivicu : Virtual Currencies/Cryptocurrencies | i211 : Metal Ore Mining | ibasicm : Basic Materials/Resources | ibcs : Business/Consumer Services | ifmsoft : Financial Technology | infmore : Non-ferrous Metal Ore Mining | i83106 : Securities/Commodity Exchange Activities NS cslmc : Senior Level Management | m142 : Metals Markets | mnonfr : Non-ferrous Metals Markets | mnickl : Nickel Markets | c41 : Management | ccat : Corporate/Industrial News | m14 : Commodity Markets | mcat : Commodity/Financial Market News | ncolu : Columns | reqris : Suggested Reading Investing/Securities | reqrmm : Suggested Reading Metals/Mining | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE china : China | ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC 0388.HK PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220427ei4r001b9 Page 90 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Revenue at its corporate bank rose 11%, and 7% at its &lt;mark&gt;investment&lt;/mark&gt; bank.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It recently suffered a setback when U.S. &lt;mark&gt;investment&lt;/mark&gt; firm Capital Group Cos. dumped its roughly 5% stake in the bank, months after another large investor, Cerberus Capital Management, sold its shares.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;You've got great big companies, you've got Petrobras, you've got (Vale), that if they want to borrow money for an &lt;mark&gt;investment&lt;/mark&gt; in Brazil, they can go abroad.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And so any &lt;mark&gt;investment&lt;/mark&gt; in your business is going to be just that much more expensive.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Private Equity | ialtinv : Alternative &lt;mark&gt;Investment&lt;/mark&gt;s | ibasicm : Basic Materials/Resources | icnp : Consumer Goods | ifinal : Financial Services | ifosfl : Fossil Fuels | iinv : Investing/Securities | iioil : Integrated Oil/Gas | ilgood : Leisure/Travel Goods | imet : Mining/Quarrying NS naudvl : Audio-visual Links | ntra : Transcripts | gvio : Military Action | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | niwe : IWE Filter RE india : India | braz : Brazil | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | lamz : Latin America | ndelh : New Delhi | russ : Russia | samz : South America | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | delhi : Delhi | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | indsubz : Indian Subcontinent | sasiaz : Southern Asia | weurz : Western Europe IPD SYND IPC CSGN.EB PUB Dow Jones &amp; Company, Inc. AN Document WSJPOD0020220427ei4r0008d Page 105 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO apolmn : Apollo Global Management Inc. | boeing : The Boeing Company | matl : Mattel Inc | vcestr : T-Mobile US Inc. | twnit : Twitter Inc. | dbptel : Deutsche Telekom AG IN i364 : Aerospace Products/Parts | i3640010 : Civil Aircraft | i4941 : Dolls/Toys/Games | i7902 : Telecommunication Services | i79022 : Wireless Telecommunications Services | i81502 : Trusts/Funds/Financial Vehicles | i8150203 : Private Equity | iaer : Aerospace/Defense | ialtinv : Alternative &lt;mark&gt;Investment&lt;/mark&gt;s | icnp : Consumer Goods | ifinal : Financial Services | iindstrls : Industrial Goods | iint : Online Service Providers | iinv : Investing/Securities | ilgood : Leisure/Travel Goods | imed : Media/Entertainment | isocial : Social Media Platforms/Tools | itech : Technology NS naudvl : Audio-visual Links | ntra : Transcripts | gcrim : Crime/Legal Action | ncolu : Columns | gcat : Political/General News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | niwe : IWE Filter Page 106 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The government of chancellor Olaf Scholz is trying to reduce this dependence by accelerating &lt;mark&gt;investment&lt;/mark&gt;s in renewable energy and building liquefied natural-gas terminals but has so far rejected an outright Russian gas embargo amid fears of the economic consequences.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The clean-energy &lt;mark&gt;investment&lt;/mark&gt;s should be a much bigger deal, a much bigger benefit than any small cost on the supply side."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Fidelity &lt;mark&gt;Investment&lt;/mark&gt;s plans to become the first major retirement-plan provider to allow investors to put a bitcoin account in their 401(k)s. Luke Vargas hosts.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Fidelity &lt;mark&gt;Investment&lt;/mark&gt;s is planning to become the first major retirement plan provider to allow investors to put a Bitcoin account in their 401ks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN ivicu : Virtual Currencies/Cryptocurrencies | i3302 : Computers/Consumer Electronics | i831 : Financial &lt;mark&gt;Investment&lt;/mark&gt; Services | i8394 : Computer Services | icph : Computer Hardware | ifinal : Financial Services | iint : Online Service Providers | imed : Media/Entertainment | itech : Technology | ibcs : Business/Consumer Services | ibnk : Banking/Credit | icomp : Computing | ifmsoft : Financial Technology | iinv : Investing/Securities | i330202 : Software | i3302021 : Applications Software | i8395464 : Internet Search Engines | isocial : Social Media Platforms/Tools NS naudvl : Audio-visual Links | ntra : Transcripts | c152 : Earnings Projections | ccat : Corporate/Industrial News | gpir : Politics/International Relations | gretir : Retirement Planning | ncolu : Columns | gcat : Political/General News | c15 : Financial Performance | gpersf : Personal Finance | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | niwe : IWE Filter Page 154 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The pipeline shutdown pushes world oil prices higher, puts pressure on Europe, hits the U.S. oil firms that have substantial &lt;mark&gt;investment&lt;/mark&gt;s in Kazakhstan -- and reminds the Kazakhs who is in charge.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;These risky &lt;mark&gt;investment&lt;/mark&gt;s didn't pay off -- and might have pushed Ukrainians closer to the West and democratic government.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;More than $7 billion of foreign capital flowed into Middle East stocks in March, a record month, according to &lt;mark&gt;investment&lt;/mark&gt; firm Franklin Templeton.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Investors running funds dedicated to emerging markets are shifting capital to the Middle East from countries that were once magnets for &lt;mark&gt;investment&lt;/mark&gt; but now face turmoil, bankers and investors said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Gulf is "increasingly perceived by investors as the only viable emerging-markets play," said Andrée Chakhtoura, head of &lt;mark&gt;investment&lt;/mark&gt; banking in the region at Bank of America.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It provides a bigger universe, more &lt;mark&gt;investment&lt;/mark&gt; opportunities in the Gulf," said Fadi Arbid, co-founder and chief investment officer of Riyadh- and Dubai-based alternative asset manager Amwal Capital Partners.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;His efforts to attract direct &lt;mark&gt;investment&lt;/mark&gt; from foreign companies, which involves more exposure to local policies, have faced major obstacles.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Saudi government is expected to sell more of Aramco on the local exchange, and the country's sovereign-wealth vehicle, Public &lt;mark&gt;Investment&lt;/mark&gt; Fund, is encouraging companies in which it owns stakes to list.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This might be true given Berlin's chronic under&lt;mark&gt;investment&lt;/mark&gt; in its military over many years, but it's also irrelevant.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While the Russian invasion of Ukraine put the brakes on the recent &lt;mark&gt;investment&lt;/mark&gt; banking boom, it also brought market volatility, particularly in commodities and interest-rate expectations.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Rochelle Toplensky at rochelle.toplensky@wsj.com A Choppy First Quarter May Be as Good as It Gets for European Banks CO barc : Barclays PLC IN i81402 : Commercial Banking | i814 : Banking | i81501 : Credit Types/Services | i831 : Financial &lt;mark&gt;Investment&lt;/mark&gt; Services | ibnk : Banking/Credit | ifinal : Financial Services | iinv : Investing/Securities | iibnk : Integrated Banks NS e1101 : Economic Growth/Recession | gvio : Military Action | ccat : Corporate/Industrial News | e11 : Economic Performance/Indicators | ecat : Economic News | ncolu : Columns | npred : Economic Predictions/Forecasts | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : Content Types RE russ : Russia | ukrn : Ukraine | eurz : Europe | asiaz : Asia | easiaz : Eastern Asia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC 0005.HK PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220425ei4p00105 Page 190 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Everyone is thinking about something like a Marshall Plan for Ukraine, like what happened after World War II," she said, referring to the U.S.-led multinational reconstruction program launched in 1948 that helped revive Europe's economy through official aid and private &lt;mark&gt;investment&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP About the author: Christopher Smart is chief global strategist and head of the Barings &lt;mark&gt;Investment&lt;/mark&gt; Institute.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Over that time, the points of friction (Serbia, Syria, Iraq, Snowden, Magnitsky, Navalny, and cyberattacks) quickly overwhelmed any fragile grounds for cooperation (tentative foreign &lt;mark&gt;investment&lt;/mark&gt;, Afghanistan, and space).&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;By 2015, after Russia had seized the Donbas and Crimea, I worked at the National Security Council as part of a team that began to deliberately dismantle the economic relationship, imposing sanctions, discouraging corporate &lt;mark&gt;investment&lt;/mark&gt;, and cutting off areas of cooperation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The headline figure, which is adjusted for inflation, will likely reflect surging prices, a growing trade imbalance and slower inventory growth, masking relative strength in consumer spending, business &lt;mark&gt;investment&lt;/mark&gt; and real estate.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;At the end of 2020, Russia's stock of foreign direct &lt;mark&gt;investment&lt;/mark&gt; stood at $446 billion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Portfolio &lt;mark&gt;investment&lt;/mark&gt;s worth another $120 billion have become irretrievable or at risk of default.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Everyone is thinking about something like a Marshall Plan for Ukraine, like what happened after World War II," she said, referring to the U.S.-led multinational reconstruction program launched in 1948 that helped to revive Europe's economy through official aid and private &lt;mark&gt;investment&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Bringing in private-sector &lt;mark&gt;investment&lt;/mark&gt;s is also essential, officials said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Included were Bank of America Corp., Goldman Sachs Group Inc., Citigroup Inc. and Mastercard Inc. "We believe that the only way to give us the necessary energy to get out from the crisis is a huge amount of &lt;mark&gt;investment&lt;/mark&gt;, private investment," Mr. Marchenko said in an interview with The Wall Street Journal.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He said the group discussed possible reforms in Ukraine to accommodate greater private &lt;mark&gt;investment&lt;/mark&gt;, including fighting corruption, improving the judicial system and bolstering investor protections.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"It's wise to do some steps, some necessary steps to be able to attract additional &lt;mark&gt;investment&lt;/mark&gt; into Ukraine," Mr. Marchenko said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia had worked for years to improve its creditworthiness with foreign investors and was rated &lt;mark&gt;investment&lt;/mark&gt; grade before the war.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Privacy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>RESPONSIBLE CONSUMPTION AND PRODUCTION</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Our current and potential competitors include: (1) physical, e-commerce, and omnichannel retailers, publishers, vendors, distributors, manufacturers, and producers of the products we offer and sell to consumers and businesses; (2) publishers, producers, and distributors of physical, digital, and interactive media of all types and all distribution channels; (3) web search engines, comparison shopping websites, social networks, web portals, and other online and app-based means of discovering, using, or acquiring goods and services, either directly or in collaboration with other retailers; (4) companies that provide e-commerce services, including website development and hosting, omnichannel sales, inventory and &lt;mark&gt;supply chain management&lt;/mark&gt;, advertising, fulfillment, customer service, and payment processing; (5) companies that provide fulfillment and logistics services for themselves or for third parties, whether online or offline; (6) companies that provide information technology services or products, including on-premises or cloud-based infrastructure and other services; (7) companies that design, manufacture, market, or sell consumer electronics, telecommunication, and electronic devices; (8) companies that sell grocery products online and in physical stores; and (9) companies that provide advertising services, whether in digital or other formats.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Fulfillment Fulfillment costs primarily consist of those costs incurred in operating and staffing our North America and International segments’ fulfillment centers, physical stores, and customer service centers, including costs attributable to buying, receiving, inspecting, and warehousing inventories; picking, packaging, and preparing customer orders for shipment; payment processing and related transaction costs, including costs associated with our guarantee for certain seller transactions; responding to inquiries from customers; and &lt;mark&gt;supply chain management&lt;/mark&gt; for our manufactured electronic devices.&lt;/p&gt;</t>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Kenneth N. Rashbaum is a partner at Barton LLP where he advises multinational corporations, financial services organizations, life sciences organizations, and other businesses that collect, use, and share electronic information in the areas of &lt;mark&gt;privacy&lt;/mark&gt; and cybersecurity.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;NS ghack : Cybercrime/Hacking | gdatap : &lt;mark&gt;Privacy&lt;/mark&gt; Issues/Information Security | gcvir : Malware | gcrim : Crime/Legal Action | ncolu : Columns | gcat : Political/General News | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Advisor POV IPC G/FBI PUB Dow Jones &amp; Company, Inc. AN Document BON0000020220425ei4p002mh Page 192 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>14</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;But it is also the result of lingering mis&lt;mark&gt;trust&lt;/mark&gt; of Washington and an abiding confidence in Moscow's reliability that has been built over decades, Indian officials and analysts said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD "The attacks have not only degraded the systems of institutions in Ukraine but have also sought to disrupt people's access to reliable information and critical life services, and have attempted to shake confidence in the country's leadership," Tom Burt, Microsoft's vice president of customer security and &lt;mark&gt;trust&lt;/mark&gt;, said in a blog post accompanying the research.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The attacks have not only degraded the systems of institutions in Ukraine but have also sought to disrupt people's access to reliable information and critical life services, and have attempted to shake confidence in the country's leadership," Tom Burt, Microsoft's vice president of customer security and &lt;mark&gt;trust&lt;/mark&gt;, said in a blog post accompanying the research.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;WSJ South Asia correspondent Shan Li explains why American overtures have so far gone unanswered in New Delhi, thanks to India's reliance on Russian arms, regional security concerns and decades of lingering dis&lt;mark&gt;trust&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And that has resulted in a lot of lingering mis&lt;mark&gt;trust&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;So now actually I think a lot of them have come around and fully understand the sort of underlying sentiment of dis&lt;mark&gt;trust&lt;/mark&gt; against the West.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | i211 : Metal Ore Mining | i2111 : Ferrous Metal Ore Mining | i4941 : Dolls/Toys/Games | i81502 : &lt;mark&gt;Trust&lt;/mark&gt;s/Funds/Financial Vehicles | i8150203 : Page 104 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO apolmn : Apollo Global Management Inc. | boeing : The Boeing Company | matl : Mattel Inc | vcestr : T-Mobile US Inc. | twnit : Twitter Inc. | dbptel : Deutsche Telekom AG IN i364 : Aerospace Products/Parts | i3640010 : Civil Aircraft | i4941 : Dolls/Toys/Games | i7902 : Telecommunication Services | i79022 : Wireless Telecommunications Services | i81502 : &lt;mark&gt;Trust&lt;/mark&gt;s/Funds/Financial Vehicles | i8150203 : Private Equity | iaer : Aerospace/Defense | ialtinv : Alternative Investments | icnp : Consumer Goods | ifinal : Financial Services | iindstrls : Industrial Goods | iint : Online Service Providers | iinv : Investing/Securities | ilgood : Leisure/Travel Goods | imed : Media/Entertainment | isocial : Social Media Platforms/Tools | itech : Technology NS naudvl : Audio-visual Links | ntra : Transcripts | gcrim : Crime/Legal Action | ncolu : Columns | gcat : Political/General News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | niwe : IWE Filter Page 106 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM World News SE World HD India's Neutrality on Ukraine Rooted in Deep Ties to Russia, Lingering Mis&lt;mark&gt;trust&lt;/mark&gt; of U.S. American officials have struggled to overcome the dynamics of relationships built over decades BY By Shan Li and Rajesh Roy in New Delhi and Sabrina Siddiqui in Washington WC 1,840 words PD 26 April 2022 ET 17:11 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But it is also the result of lingering mis&lt;mark&gt;trust&lt;/mark&gt; of Washington and an abiding confidence in Moscow's reliability that has been built over decades, Indian officials and analysts said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Shan Li at shan.li@wsj.com, Rajesh Roy at rajesh.roy@wsj.com and Sabrina Siddiqui at Sabrina.Siddiqui@wsj.com India's Neutrality on Ukraine Rooted in Deep Ties to Russia, Lingering Mis&lt;mark&gt;trust&lt;/mark&gt; of U.S. NS gdip : International Relations | gvdhs : Department of Homeland/National Security | gpir : Politics/International Relations | gvio : Military Action | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | gvexe : Executive Branch | ncat : Content Types RE india : India | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | ndelh : New Delhi | uk : United Kingdom | ukrn : Ukraine | usa : United States | ussrz : CIS Countries | delhi : Delhi | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | indsubz : Indian Subcontinent | sasiaz : Southern Asia | weurz : Western Europe IPD Wires IPC N/CMR PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220426ei4q001md Page 126 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Twitter co-founder and former CEO, Jack Dorsey, tweeted that he endorsed Musk's goal of creating a platform that is "maximally &lt;mark&gt;trust&lt;/mark&gt;ed and broadly inclusive."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;American influence appears to be fading in the region following the retreat from Afghanistan, and Beijing's persecution of ethnic Kazakhs in nearby Xinjiang has reinforced a deep cultural dis&lt;mark&gt;trust&lt;/mark&gt; of China.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There is an attractive simplicity to the logic that in the wake of Soviet collapse, the West overreached and failed to gain Moscow's &lt;mark&gt;trust&lt;/mark&gt;.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>70</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Decentralized Finance/Marketplaces</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Though Russian oil may not face official sanctions, it still carries reputational risks, at which private companies spanning insurance to logistics to &lt;mark&gt;payment&lt;/mark&gt;s may balk.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia Can't Depend on India Either IN idef : Defense Equipment/Products | iaer : Aerospace/Defense | iindstrls : Industrial Goods NS c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | nedc : Commentaries/Opinions | gcat : Political/General News | gdip : International Relations | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter RE india : India | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | ndelh : New Delhi | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | delhi : Delhi | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | indsubz : Indian Subcontinent | sasiaz : Southern Asia | weurz : Western Europe IPD Opinion | IPC I/ARO PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s008kd Page 3 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN iengwh : Energy Wholesale | i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | i61 : Wholesalers | i64 : Retail/Wholesale | ifosfl : Fossil Fuels | iioil : Integrated Oil/Gas NS c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | m14 : Commodity Markets | mcat : Commodity/Financial Market News | ncolu : Columns | npda : DJ Exclusive Analysis - All | gcat : Political/General News | m143 : Energy Markets | gdip : International Relations | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | switz : Switzerland | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Wires IPC 0005.HK PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s00669 Page 24 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO rumedt : Russia Ministry of Economic Development NS ecat : Economic News | c13 : Regulation/Government Policy | gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | nimage : Images | e11 : Economic Performance/Indicators | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter Page 26 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;She suggested Europe could keep buying oil while restricting Russia's access to &lt;mark&gt;payment&lt;/mark&gt;s, echoing talk in Europe of making payments into an escrow account.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The EU imports between 3 million and 3.5 million barrels of oil a day from Russia, sending just under $400 million in &lt;mark&gt;payment&lt;/mark&gt;s daily, according to Bruegel.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The bloc is considering the option of combining a gradual phaseout of oil purchases with more immediate measures to reduce demand or cut &lt;mark&gt;payment&lt;/mark&gt;s to Moscow, such as a price cap or a tariff on oil imports.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While Germany has swung behind the idea of phasing out Russian oil purchases, Berlin remains skeptical of price caps, tariffs and proposals to put Russia's oil &lt;mark&gt;payment&lt;/mark&gt;s into escrow accounts.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO brglcb : Brussels European and Global Economic Laboratory | euruno : European Union IN i1 : Energy | ifosfl : Fossil Fuels | i1300003 : Crude Petroleum Extraction | i13 : Crude Oil/Natural Gas Upstream Operations | iextra : Natural Gas/Oil Extraction NS gtrade : Trade Barriers/Restrictions | gesanc : International Sanctions | c314 : Pricing | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gdip : International Relations | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | gcat : Political/General News | c31 : Marketing | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | gfr : Germany | eecz : European Union Countries | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD WSJ IPC GAZP.RS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s003ux Page 31 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Ed McNicholas, co-leader of the cybersecurity practice at law firm Ropes &amp; Gray LLP, said ensuring that ransomware &lt;mark&gt;payment&lt;/mark&gt;s aren't going to sanctioned Russian entities has gotten "much harder" recently.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Traditionally, the list of entities under sanction has been mostly relevant to those in financial services, but recent surges in ransomware attacks have meant that cybersecurity experts have had to do their best to ensure ransom &lt;mark&gt;payment&lt;/mark&gt;s aren't going to blacklisted entities.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;U.S. law imposes so-called strict liability on anyone that makes a &lt;mark&gt;payment&lt;/mark&gt; to a sanctioned entity—meaning that a lack of intent to flaunt sanctions doesn't exonerate the paying party.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;So far, U.S. enforcers haven't publicly targeted a company for making a ransomware &lt;mark&gt;payment&lt;/mark&gt; to a sanctioned entity, but several experts have said some kind of enforcement activity is likely.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. Treasury Department's Office of Foreign Assets Control and its Financial Crimes Enforcement Network both have highlighted ransomware &lt;mark&gt;payment&lt;/mark&gt;s in recent months.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;OFAC said in September that it "strongly discourages" extortion &lt;mark&gt;payment&lt;/mark&gt;s and reiterated that it can take action against payers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Lapin said he thought OFAC would most likely take action against a ransomware-paying company that had failed to conduct appropriate due diligence on its &lt;mark&gt;payment&lt;/mark&gt; or failed to proactively communicate with law enforcement or OFAC itself.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;FinCEN in March warned financial institutions to beware of Russia-linked ransomware attacks, and OFAC earlier this month sanctioned a "darknet" market and cryptocurrency exchange suspected of involvement in ransomware &lt;mark&gt;payment&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Coveware refuses to facilitate a &lt;mark&gt;payment&lt;/mark&gt; to a suspected sanctioned entity—anyone involved in facilitating a payment to a sanctioned entity can be found liable for violating the law—but has had clients ask that it ignore sanctions, Mr. Siegel said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Even absent an enforcement action, the mere possibility of an action by OFAC, which enforces sanctions, can be enough to complicate a ransomware &lt;mark&gt;payment&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Insurance companies can be reluctant to make &lt;mark&gt;payment&lt;/mark&gt;s if there is even a hint of involvement by a sanctioned entity, said Roberta Sutton, a partner at Potomac Law Group PLLC whose practice focuses on insurance recovery and risk management.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;After one of Ms. Sutton's clients, a firm she declined to name that provides information-technology-related services, made a ransomware &lt;mark&gt;payment&lt;/mark&gt; to release its systems after a June 2020 attack, the company hasn't been paid by its insurer, she said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A third-party not involved in the investigation wrote an article suggesting the attack might be attributable to a sanctioned entity, which led the insurance company to halt the $1 million &lt;mark&gt;payment&lt;/mark&gt;, Ms. Sutton said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Most European countries have rejected Russia's demand for ruble &lt;mark&gt;payment&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Russian energy giant Gazprom PJSC said it had not received &lt;mark&gt;payment&lt;/mark&gt; in rubles for gas sales to Poland and Bulgaria, as required by a new decree by President Vladimir Putin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some European officials said Russia's move against Poland and Bulgaria was likely not about &lt;mark&gt;payment&lt;/mark&gt; modalities but was a warning aimed at all EU members that are sending weapons to Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Georgi Kantchev at georgi.kantchev@wsj.com and Joe Wallace at joe.wallace@wsj.com Russian Gas Stoppages Spur Europe's Race for New Energy Supplies CO gzprm : Gazprom PJSC | euruno : European Union IN i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | ifosfl : Fossil Fuels | iioil : Integrated Oil/Gas NS gvexe : Executive Branch | gtrade : Trade Barriers/Restrictions | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | m14 : Commodity Markets | ncolu : Columns | gcat : Political/General News | gdip : International Relations | gpol : Domestic Politics | gvbod : Government Bodies | mcat : Commodity/Financial Market News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | asiaz : Asia | bul : Bulgaria | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | pol : Poland | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | apacz : Asia Pacific | balkz : Balkan States | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC GAZP.RS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220427ei4r001e1 Page 68 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Major importers of Indonesian palm oil include China, India, and the U.S. Write to Jon Emont at jonathan.emont@wsj.com Indonesia, World's Largest Palm-Oil Producer, Bans Exports of Ubiquitous Commodity IN i411 : Vegetable Oils | i010013202 : Edible Oil Plant/Seed Farming | i41 : Food/Beverages | icnp : Consumer Goods | ifood : Food Products | i0 : Agriculture | i01001 : Farming | i0100132 : Oilseed/Grain Farming NS gtrade : Trade Barriers/Restrictions | gesanc : International Sanctions | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gpir : Politics/International Relations | m14 : Commodity Markets | mcat : Commodity/Financial Market News | ncolu : Columns | gcat : Political/General News | gfod : Food/Drink | gdip : International Relations | glife : Living/Lifestyle | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter RE indon : Indonesia | russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | seasiaz : Southeast Asia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC I/FBT PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220427ei4r0058x Page 70 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;France's Total Takes $4.1 Billion Charge Related to Russia Sanctions CO bp : BP PLC | fdp : TotalEnergies SE | gzprm : Gazprom PJSC IN ifosfl : Fossil Fuels | i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | i1300004 : Liquefied/Compressed Gas | i5020022 : Oil Production Platform Construction | iindstrls : Industrial Goods | i14 : Downstream Operations | i502 : Heavy Construction | iconst : Construction | icre : Real Estate/Construction | iioil : Integrated Oil/Gas NS c24 : Capacity/Facilities | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | gcat : Political/General News | gdip : International Relations | ncat : Content Types RE russ : Russia | arct : Arctic | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | fra : France | namz : North America | uk : United Kingdom | ukrn : Ukraine | usa : United States | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | medz : Mediterranean IPD Wires IPC BP PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220427ei4r006sh Page 72 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Prosecutors have used the U.S. Foreign Corrupt Practices Act, which prohibits &lt;mark&gt;payment&lt;/mark&gt;s by companies to foreign officials, to target large corporations and impose billions of dollars in fines.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Financial institutions often are the first entities to be held responsible for sanctions violations, particularly in situations where they process &lt;mark&gt;payment&lt;/mark&gt;s by individuals or companies that violate national security prohibitions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The European Union's executive body laid down a sharp new challenge to Hungarian Prime Minister Viktor Orban on Wednesday, activating a tool for the first time that could see Brussels withhold large-scale EU budget &lt;mark&gt;payment&lt;/mark&gt;s to the country.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The same day, PayPal, which was Ms. Razdobudrina's only way of receiving &lt;mark&gt;payment&lt;/mark&gt;s, suspended its service.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Paul Hannon at paul.hannon@wsj.com, Georgi Kantchev at georgi.kantchev@wsj.com and Yuliya Chernova at yuliya.chernova@wsj.com Russia's New Economic Data Is Inconsistent on Impact of War and Sanctions CO rumedt : Russia Ministry of Economic Development | imonf : International Monetary Fund NS ecat : Economic News | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e11 : Economic Performance/Indicators | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | npred : Economic Predictions/Forecasts | gcat : Political/General News | gdip : International Relations | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ussrz : CIS Countries | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD WSJ IPC N/CNW PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220427ei4r005k1 Page 86 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Today's events can work as an added incentive for the EU, and especially Germany, to find a way to work out a Ruble &lt;mark&gt;payment&lt;/mark&gt; mechanism given the significant economic toll a halt in gas flows would have in the region," she wrote.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM WSJ Podcast Minute Briefing HD Russia Is Halting Gas to Poland, Bulgaria Over &lt;mark&gt;Payment&lt;/mark&gt; Terms WC 341 words PD 27 April 2022 ET 15:34 SN WSJ Podcasts SC WSJPOD LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To preserve the power of its financial weapons, the U.S. should take steps to impede the adoption of Chinese &lt;mark&gt;payment&lt;/mark&gt; systems.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Then, they banned several Russian banks from conducting cross-border banking transactions via the SWIFT system—an interbank message system that facilitates &lt;mark&gt;payment&lt;/mark&gt;s worth $1.5 trillion daily.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;They may even support the Chinese &lt;mark&gt;payment&lt;/mark&gt; mechanism as an alternative.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In 2015, China launched its Cross-Border Interbank &lt;mark&gt;Payment&lt;/mark&gt; System to facilitate international trade in its own currency.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Global cross-border &lt;mark&gt;payment&lt;/mark&gt; and settlement are dominated by the U.S. dollar and the euro, while CIPS has 3.2% market share by value.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The People's Bank of China is also exploring cross-border &lt;mark&gt;payment&lt;/mark&gt;s by using its recently launched digital yuan.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This trend can pave the path for more cross-border &lt;mark&gt;payment&lt;/mark&gt; and settlement in yuan as an alternative to the dollar and the euro, driving more international institutions to adopt CIPS as an alternative to SWIFT.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Besides upgrading SWIFT, the U.S. should expedite its development of a digital dollar to make cross-border &lt;mark&gt;payment&lt;/mark&gt;s faster and cheaper.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO rosgos : Central Bank of the Russian Federation NS e1119 : Reserve Assets Figures | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e11 : Economic Performance/Indicators | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gdip : International Relations | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | npred : Economic Predictions/Forecasts | gcat : Political/General News | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | china : China | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | ukrn : Ukraine | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Commentary IPC N/CNW PUB Dow Jones &amp; Company, Inc. AN Document BON0000020220427ei4r000jh Page 109 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It asked for &lt;mark&gt;payment&lt;/mark&gt; in rubles, an unusual twist, and said the oil would be loaded onto tankers at ports in the Baltic and Black seas in May and June.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO rsneft : Rosneft Oil Company OJSC | rosnft : Rosneftegaz IN ifosfl : Fossil Fuels | i1 : Energy | i1300006 : Pipeline Transportation | iioil : Integrated Oil/Gas | i13 : Crude Oil/Natural Gas Upstream Operations | imidstr : Oil/Natural Gas Midstream Operations NS gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | neqac : Equities Asset Class News | m143 : Energy Markets | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | m14 : Commodity Markets | mcat : Commodity/Financial Market News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220427ei4r0000x Page 123 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM World News SE World HD Russia Halting Gas Flows to Poland, Bulgaria Over &lt;mark&gt;Payment&lt;/mark&gt; Terms; Poland was already aiming to become independent of Russian gas this year, but Bulgaria gets more than 75% of its gas from Russia BY By Drew Hinshaw and Georgi Kantchev WC 932 words PD 27 April 2022 ET 02:43 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Poland "is obliged to pay for gas supplies in accordance with the new &lt;mark&gt;payment&lt;/mark&gt; procedure," Gazprom said, according to Russian state newswire TASS.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Drew Hinshaw at drew.hinshaw@wsj.com and Georgi Kantchev at georgi.kantchev@wsj.com Russia Halting Gas Flows to Poland, Bulgaria Over &lt;mark&gt;Payment&lt;/mark&gt; Terms CO gzprm : Gazprom PJSC | pgng : Polskie Gornictwo Naftowe i Gazownictwo SA IN i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | ifosfl : Fossil Fuels | iioil : Integrated Oil/Gas NS ccat : Corporate/Industrial News | gvbod : Government Bodies | ncolu : Columns | gcat : Political/General News | gpir : Politics/International Relations | gpol : Domestic Politics | ncat : Content Types RE russ : Russia | pol : Poland | asiaz : Asia | bul : Bulgaria | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | gfr : Germany | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | apacz : Asia Pacific | balkz : Balkan States | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC BGAS.YY PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220426ei4q0063h Page 128 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It asked for &lt;mark&gt;payment&lt;/mark&gt; in rubles, an unusual twist, and said the oil would be loaded onto tankers at ports in the Baltic and Black Seas in May and June.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO rsneft : Rosneft Oil Company OJSC | rosnft : Rosneftegaz IN ifosfl : Fossil Fuels | i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | i1300002 : Oil Exploration | iexplo : Natural Gas/Oil Exploration | iioil : Integrated Oil/Gas NS gesanc : International Sanctions | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | m14 : Commodity Markets | mcat : Commodity/Financial Market News | ncolu : Columns | gcat : Political/General News | m143 : Energy Markets | gdip : International Relations | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE ussrz : CIS Countries | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ukrn : Ukraine | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC GAZP.RS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220426ei4q004ph Page 130 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;State-owned arms manufacturer Almaz-Antey in March said it was unable to receive roughly $1 billion in &lt;mark&gt;payment&lt;/mark&gt; from clients, including India and Egypt, and urged the Russian government to help military companies by developing systems to process foreign transactions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Right now, because of the imposed sanctions, the processing of &lt;mark&gt;payment&lt;/mark&gt;s has stalled," Almaz-Antey's finance director, Rustam Ulumbekov, told Russia's TASS news agency.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i364 : Aerospace Products/Parts | iaer : Aerospace/Defense | iindstrls : Industrial Goods NS gvio : Military Action | c13 : Regulation/Government Policy | gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | nimage : Images | gweap : Weapons Programs | reqrad : Suggested Reading Aerospace/Defense | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gcat : Political/General News | gcns : National/Public Security | gdef : Armed Forces | gdip : International Relations | gpir : Politics/International Relations | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE russ : Russia | ukrn : Ukraine | ussrz : CIS Countries | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe IPC PIC PUB Dow Jones &amp; Company, Inc. AN Document J000000020220426ei4q0000y Page 153 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;State-owned arms manufacturer Almaz-Antey said last month it was unable to receive roughly $1 billion in &lt;mark&gt;payment&lt;/mark&gt; from clients, including India and Egypt, and urged the Russian government to help military companies by developing systems to process foreign transactions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Right now, because of the imposed sanctions, the processing of &lt;mark&gt;payment&lt;/mark&gt;s has stalled," Almaz-Antey finance director Rustam Ulumbekov told Russia's TASS news agency.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Daniel Michaels at daniel.michaels@wsj.com and Matthew Luxmoore at Matthew.Luxmoore@wsj.com Russian Military's Next Front Line: Replacing Battlefield Equipment Destroyed in Ukraine IN iaer : Aerospace/Defense | iindstrls : Industrial Goods NS gvio : Military Action | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | gcat : Political/General News | gweap : Weapons Programs | gcns : National/Public Security | gdef : Armed Forces | gdip : International Relations | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires Page 179 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service IN ifosfl : Fossil Fuels | i1 : Energy NS ecat : Economic News | e1118 : Trade Figures | c13 : Regulation/Government Policy | gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | ccat : Corporate/Industrial News | e11 : Economic Performance/Indicators | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC NRG PUB Dow Jones &amp; Company, Inc. AN Document J000000020220425ei4p0000y Page 210 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;NS gdip : International Relations | c13 : Regulation/Government Policy | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gcat : Political/General News | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Barrons.com IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document B000000020220422ei4p00001 Page 216 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To help workers, the company has rolled out a wartime employee support plan that includes paying salaries in advance, offering one-off relocation &lt;mark&gt;payment&lt;/mark&gt;s and healthcare services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO rosgos : Central Bank of the Russian Federation NS gdip : International Relations | gvexe : Executive Branch | gcat : Political/General News | gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | gvio : Military Action | ncor : Corrections | ncrx : Corrected Items | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : Content Types RE russ : Russia | ukrn : Ukraine | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220423ei4n0000k Page 225 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Officials from multilateral institutions said they hope to provide support for Ukraine's short-term budgetary needs with grants from countries, rather than loans that require re&lt;mark&gt;payment&lt;/mark&gt;s, given the current dysfunction of its economy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Tuesday, the central bank suspended the release of the foreign-debt &lt;mark&gt;payment&lt;/mark&gt; schedule, which typically lays out the external debt that Russia needs to pay in a schedule based on its maturity.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;With a big chunk of its foreign reserves sanctioned, Russia now can't make certain &lt;mark&gt;payment&lt;/mark&gt;s in dollars.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Earlier this month, S&amp;P Global moved Russia into default on its foreign-debt credit rating after the government attempted to make a &lt;mark&gt;payment&lt;/mark&gt; on a dollar bond to investors in rubles.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It cut major Russian banks' access to the dollar and other reserve currencies and severed some of the lenders from the Swift global-&lt;mark&gt;payment&lt;/mark&gt;s messaging system.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN ifosfl : Fossil Fuels | i1 : Energy NS e1118 : Trade Figures | ecat : Economic News | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e11 : Economic Performance/Indicators | e212 : Government Borrowing | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | gesanc : International Sanctions | gpir : Politics/International Relations | gpol : Domestic Politics | gtrade : Trade Barriers/Restrictions | ncolu : Columns | npred : Economic Predictions/Forecasts | gcat : Political/General News | e21 : Government Finance | gdip : International Relations | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Wires IPC I/FSL PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220423ei4n000gp Page 231 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Costas Paris at costas.paris@wsj.com Sanctions Strand Thousands of Russia-Bound Luxury Cars IN i763 : Port/Harbor Operations | iaut : Automotive | iship : Water Transport/Shipping | itsp : Transportation/Logistics | imarfr : Marine Freight | i74 : Marine Transport | icargo : Freight Transport/Logistics NS gesanc : International Sanctions | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | gcat : Political/General News | gdip : International Relations | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | belg : Belgium | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | benluxz : Benelux Countries | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Wires IPC CVX PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220423ei4n001jl Page 233 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Making international &lt;mark&gt;payment&lt;/mark&gt;s, importing raw materials and paying sta</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Connectivity</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;That fundamentally undermines the strategy of the bank, which is based on global &lt;mark&gt;connectivity&lt;/mark&gt;, he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He said during the Thursday roundtable that the rebuilding should start with urgent repairs to essential infrastructure such as transportation, power, heating and digital &lt;mark&gt;connectivity&lt;/mark&gt; within six to eight months of the end of the war.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Cybersecurity</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;TD Ed McNicholas, co-leader of the &lt;mark&gt;cybersecurity&lt;/mark&gt; practice at law firm Ropes &amp; Gray LLP, said ensuring that ransomware payments aren't going to sanctioned Russian entities has gotten "much harder" recently.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Traditionally, the list of entities under sanction has been mostly relevant to those in financial services, but recent surges in ransomware attacks have meant that &lt;mark&gt;cybersecurity&lt;/mark&gt; experts have had to do their best to ensure ransom payments aren't going to blacklisted entities.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The new findings from Microsoft, published Wednesday, largely support what &lt;mark&gt;cybersecurity&lt;/mark&gt; experts, large technology companies and Western intelligence officials have observed so far: While large-scale, knockout blows have eluded them or been thwarted, Russian hackers have been highly active in the Ukraine conflict, focusing much of their efforts on more limited, tactical operations to support their military engagements.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The new findings from Microsoft, published Wednesday, largely support what &lt;mark&gt;cybersecurity&lt;/mark&gt; experts, large technology companies and Western intelligence officials have observed so far: While large-scale, knockout blows have eluded them or been thwarted, Russian hackers have been highly active in the Ukraine conflict, focusing much of their efforts on more limited, tactical operations to support their military engagements.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Cybersecurity&lt;/mark&gt; experts working with Deutsche Windtechnik are investigating whether the ransomware attack used Conti malware, Mr. Brandt said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;U.S. utilities aiming to provide alternative energy to Europe have also been targets, said Jim Guinn, who leads consulting firm Accenture PLC's global &lt;mark&gt;cybersecurity&lt;/mark&gt; business for energy, utilities, chemicals and mining.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A hacker who manages to infect the industrial equipment that controls wind turbines could manipulate the machines' brakes to stop power production, said Trond Solbert, managing director for &lt;mark&gt;cybersecurity&lt;/mark&gt; at Norwegian risk-management company DNV GL.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The Russia-Ukraine war has resulted in increased &lt;mark&gt;cybersecurity&lt;/mark&gt; threats that directly impact financial advisors.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The FBI and CISA (&lt;mark&gt;Cybersecurity&lt;/mark&gt; and Infrastructure Agency) issued ajoint warning at the start of the war about potential cyber collateral damage from the Ukraine conflict, and those warnings comprise important safeguards all advisors should take now.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Kenneth N. Rashbaum is a partner at Barton LLP where he advises multinational corporations, financial services organizations, life sciences organizations, and other businesses that collect, use, and share electronic information in the areas of privacy and &lt;mark&gt;cybersecurity&lt;/mark&gt;.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Devices</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Telecom Infra</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Recently, &lt;mark&gt;devices&lt;/mark&gt; from U.S. startups increasingly have been used by Ukrainians in search-and-rescue efforts and other aspects of the country's defense.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Recently, &lt;mark&gt;devices&lt;/mark&gt; from U.S. startups have increasingly been used by Ukrainians in search-and-rescue efforts and other aspects of the country's defense.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The Gepard is a very efficient system…but it is also one of the most complex ones, with two radar &lt;mark&gt;devices&lt;/mark&gt;," said Gustav Gressel, a military expert with the European Council on Foreign Relations.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Partnership</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Digital investment</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Although U.S. Secretary of Commerce Gina Raimondo became the latest senior official to reject joining the Comprehensive and Progressive Agreement for Trans-Pacific &lt;mark&gt;Partnership&lt;/mark&gt; in late 2021, the U.S. should reconsider doing it anyway.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Deutsche Bank has promised to meet a series of financial goals this year, but the bank's visibility over the rest of the year has been &lt;mark&gt;cloud&lt;/mark&gt;ed by the war in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In that way, the data limits help "&lt;mark&gt;cloud&lt;/mark&gt; the picture of the problems the Russian energy industry is facing," said Mikhail Krutikhin, a partner at independent consulting firm RusEnergy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In that way, the data limits help "&lt;mark&gt;cloud&lt;/mark&gt; the picture of the problems the Russian energy industry is facing," said Mikhail Krutikhin, a partner at independent consulting firm RusEnergy.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2120</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;LP India's neutrality in the growing confrontation between Russia and the West over Ukr&lt;mark&gt;ai&lt;/mark&gt;ne is causing heartburn in Western capitals.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But while disappointment may be justified, undue focus on New Delhi's unwillingness to condemn Moscow or impose sanctions misses an important det&lt;mark&gt;ai&lt;/mark&gt;l: India's apparent forbearance toward Russia is largely symbolic.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Since the conflict in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne began, India has placed orders for at least 40 million barrels of Russian oil on the cheap—more than twice as much as it purchased in all of 2021.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As Foreign Minister Subrahmanyam J&lt;mark&gt;ai&lt;/mark&gt;shankarpointed out last month, this is unlikely to change.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Indian billion&lt;mark&gt;ai&lt;/mark&gt;res like Mukesh Ambani own vacation homes in London and educate their children in the Ivy League.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Western sanctions on Russia could accelerate this decline by undermining Russia's ability to m&lt;mark&gt;ai&lt;/mark&gt;ntain a sophisticated defense-industrial base.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Another area of Indian cooperation with Russia is its membership in non-Western groupings such as Brics (Brazil, Russia, India, China, South Africa), RIC (Russia, India, China) and the Shangh&lt;mark&gt;ai&lt;/mark&gt; Cooperation Organization.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;None of these groupings will materially influence the outcome of the war in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia Can't Depend on India Either IN idef : Defense Equipment/Products | iaer : Aerospace/Defense | iindstrls : Industrial Goods NS c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | nedc : Commentaries/Opinions | gcat : Political/General News | gdip : International Relations | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter RE india : India | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | ndelh : New Delhi | uk : United Kingdom | ukrn : Ukr&lt;mark&gt;ai&lt;/mark&gt;ne | ussrz : CIS Countries | delhi : Delhi | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | indsubz : Indian Subcontinent | sasiaz : Southern Asia | weurz : Western Europe IPD Opinion | IPC I/ARO PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s008kd Page 3 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Declarations SE Opinion HD Putin Really May Break the Nuclear Taboo in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne; It seems unthinkable, but American leaders' failure to think about it heightens the risk it will happen.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Sometimes a thing keeps nagging around your br&lt;mark&gt;ai&lt;/mark&gt;n and though you've said it before you have to say it again.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We factor in but do not sufficiently appreciate the real possibility of nuclear-weapon use by Russia in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Diplomatic solutions are less likely than ever; war crimes and atrocities have hardened the Ukr&lt;mark&gt;ai&lt;/mark&gt;nians, and in any case they're winning and the world is on their side.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;British intelligence this week reported Russia has lost around 15,000 troops, 2,000 armored vehicles and 60 &lt;mark&gt;ai&lt;/mark&gt;rcraft.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;America and Russia have rough parity in the number of strategic nuclear weapons, but Russia has an estimated 10 times as many tactical nuclear weapons as the U.S. and delivery systems that range from artillery shells to &lt;mark&gt;ai&lt;/mark&gt;rcraft.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He did it ag&lt;mark&gt;ai&lt;/mark&gt;n Wednesday: In a meeting with politicians in St. Petersburg, he said if anyone intervenes in Ukraine and "creates unacceptable threats for us that are strategic in nature," the Russian response will be "lightning fast."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He s&lt;mark&gt;ai&lt;/mark&gt;d: "We have all the tools for this that no one else can boast of having.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There are signs the Russians are deliberately creating a historical paper tr&lt;mark&gt;ai&lt;/mark&gt;l, as if to say they warned us.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Monday Foreign Minister Sergei Lavrov s&lt;mark&gt;ai&lt;/mark&gt;d the risk of nuclear conflict is "serious" and "should not be underestimated."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It s&lt;mark&gt;ai&lt;/mark&gt;d shipments of the "most sensitive" weapons systems to Ukraine were "adding fuel" to the conflict and could bring "unpredictable consequences."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This week Defense Secretary Lloyd Austin told reporters the U.S. &lt;mark&gt;ai&lt;/mark&gt;m in Ukraine: "We want to see Russia weakened to the degree it can't do the kinds of things it's done in Ukraine."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The original American &lt;mark&gt;ai&lt;/mark&gt;m was to protect Ukraine's sovereignty and independence.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As for NATO, "we have the right to ask: Ag&lt;mark&gt;ai&lt;/mark&gt;nst whom is this expansion intended?"&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;ne isn't the Mideast, a side show; it is the main event.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He launched a world-historic military invasion that, whatever his geostrategic &lt;mark&gt;ai&lt;/mark&gt;ms, was shambolic—fully aggressive and confident, yet not realistically thought through.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It seemed thrown together, almost haphazard, cert&lt;mark&gt;ai&lt;/mark&gt;nly not professional.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Putin Really May Break the Nuclear Taboo in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne NS gnuclw : Nuclear Weapons Programs | gvexe : Executive Branch | gpir : Politics/International Relations | gwar : War Crimes | ncolu : Columns | nedc : Commentaries/Opinions | gcat : Political/General News | gcns : National/Public Security | gcrim : Crime/Legal Action | gdef : Armed Forces | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | gvio : Military Action | gweap : Weapons Programs | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter Page 5 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;RE russ : Russia | ukrn : Ukr&lt;mark&gt;ai&lt;/mark&gt;ne | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD COLUMN IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s008hl Page 6 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Review &amp; Outlook (U.S.) SE Opinion HD Congress's Turn to Step Up on Ukr&lt;mark&gt;ai&lt;/mark&gt;ne; Biden's request to help Kyiv is an investment in U.S. security.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The Biden Administration on Thursday rolled out a $33 billion request for assistance for Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, and let's hope Congress doesn't suddenly plead poverty.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;About $20 billion of the package is earmarked for military &lt;mark&gt;ai&lt;/mark&gt;d, with more for a mix of humanitarian and economic assistance, as well as sanctions enforcement.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But caving to aggression is going to be more costly, if we allow it to happen," s&lt;mark&gt;ai&lt;/mark&gt;d President Biden.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD The request includes such crucial Ukr&lt;mark&gt;ai&lt;/mark&gt;nian needs as "accelerated cyber capabilities and advanced air defense systems"; increased intelligence support; and more "artillery, armored vehicles, anti-armor and anti-air capabilities."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Congress can scrutinize and shape the det&lt;mark&gt;ai&lt;/mark&gt;ls to ensure the Ukrainians will end up with long-range artillery, as well as training on more complex Western systems such as air defenses and unmanned vehicles.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Ukr&lt;mark&gt;ai&lt;/mark&gt;nians also need systems that can operate together and at scale, not merely a potpourri of whatever is available in Western stocks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A promising development on that front was this week's meeting at Ramstein &lt;mark&gt;Ai&lt;/mark&gt;r Base in Germany, where Western countries discussed how better to coordinate military aid for Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Germany committed heavy weaponry such as 50 Cheetah anti-&lt;mark&gt;ai&lt;/mark&gt;rcraft tanks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A test will be whether these weapons move into Ukr&lt;mark&gt;ai&lt;/mark&gt;ne at what U.S. Defense Secretary Lloyd Austin called "the speed of war."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A panel of Pentagon purchasing experts told Congress this week that the U.S. has burned one-third of its Javelin antitank supply in two months in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Stinger anti-&lt;mark&gt;ai&lt;/mark&gt;rcraft missiles are also dwindling.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The risk, as ever, is that Mr. Biden's Ukr&lt;mark&gt;ai&lt;/mark&gt;ne funding becomes a hostage in Congress.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden's Thursday letter to Congress mentions his request for $22.5 billion for more Covid-19 &lt;mark&gt;ai&lt;/mark&gt;d, and Democrats want to hold up Ukraine's weapons over domestic spending.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Immigration fights also threaten to der&lt;mark&gt;ai&lt;/mark&gt;l the bill.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The stakes in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne are enormous for U.S. security.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The war is in a crucial phase, as Russia tries to expand its control in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne's east and crush the Ukrainian army.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Congress's Turn to Step Up on Ukr&lt;mark&gt;ai&lt;/mark&gt;ne CO uscong : United States Congress Page 7 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;NS gweap : Weapons Programs | gcat : Political/General News | gvexe : Executive Branch | gvbod : Government Bodies | gpir : Politics/International Relations | gpol : Domestic Politics | gvcng : Legislative Branch | gvio : Military Action | ncolu : Columns | nedc : Commentaries/Opinions | gcns : National/Public Security | gdef : Armed Forces | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukr&lt;mark&gt;ai&lt;/mark&gt;ne | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC G/CNG PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s00911 Page 8 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Politics and Policy SE Politics HD Biden Asks Congress for $33 Billion to Support Ukr&lt;mark&gt;ai&lt;/mark&gt;ne; Package includes $20 billion in military and security assistance to maintain flow of weapons and ammunition to Kyiv BY By Ken Thomas WC 1,239 words PD 29 April 2022 ET 03:21 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP WASHINGTON—Democratic and Republican lawmakers welcomed President Biden's request for $33 billion to fund weapons and provide longer-term economic and humanitarian &lt;mark&gt;ai&lt;/mark&gt;d to Ukraine, as the country's conflict with Russia enters its third month.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The proposal, announced by Mr. Biden Thursday, is designed to back Ukr&lt;mark&gt;ai&lt;/mark&gt;ne's war effort through the end of September.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Lawmakers must now work out how to approve the &lt;mark&gt;ai&lt;/mark&gt;d while also trying to advance a package funding Covid-19 vaccines and treatments and resolving a dispute over U.S.-Mexico border policy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD "We either back the Ukr&lt;mark&gt;ai&lt;/mark&gt;nian people as they defend their country or we stand by as the Russians continue their atrocities and aggression in Ukraine," Mr. Biden said at the White House, terming it a "fight for freedom."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SHARE YOUR THOUGHTS Does the proposed &lt;mark&gt;ai&lt;/mark&gt;d package offer the right amount of support for Ukraine?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Congress provided Ukr&lt;mark&gt;ai&lt;/mark&gt;ne earlier this year with $13.6 billion in military, humanitarian and economic aid as part of a broader spending bill, covering the first two months of the war.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In his remarks, Mr. Biden s&lt;mark&gt;ai&lt;/mark&gt;d that money was nearly exhausted, requiring Congress to provide more to sustain Ukraine's defenses.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;White House officials s&lt;mark&gt;ai&lt;/mark&gt;d of the $3.5 billion in that initial package devoted to shipping weapons and ammunition to Ukraine's military, about $250 million remains, making it important for Congress to act quickly.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Lawmakers, who returned from recess this week, backed the new proposal and s&lt;mark&gt;ai&lt;/mark&gt;d they were prepared to quickly approve another package of Ukraine aid.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;s&lt;mark&gt;ai&lt;/mark&gt;d Congress would provide Ukraine "all they need," saying the country "is fighting for freedom and democracy, not only in their own homeland but throughout the world."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The proposal, described by administration officials, includes, $20.4 billion in military and security &lt;mark&gt;ai&lt;/mark&gt;d, an additional $8.5 billion in economic assistance to help Ukraine respond to the crisis and provide Page 9 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;basic services for its people and another $3 billion in humanitarian &lt;mark&gt;ai&lt;/mark&gt;d, including efforts to support the nation's wheat crop and food supply.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Administration officials s&lt;mark&gt;ai&lt;/mark&gt;d it would also include "targeted funding" of an additional $500 million to address economic disruptions at home and abroad, particularly to help increase the production of crops such as wheat and soybeans.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden s&lt;mark&gt;ai&lt;/mark&gt;d the military aid "would provide even more artillery, armored vehicles, anti-armored systems, anti-air capabilities that have been used so effectively in the battlefield by Ukrainian warriors."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The House on Thursday voted 417-10 to approve legislation to create a lend-lease agreement designed to speed up the transfer of military equipment to Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, similar to what the U.S. did with Britain in World War II.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Inside the Russian Siege of Mariupol Recent photos reveal the suffering of residents in the once-thriving Ukr&lt;mark&gt;ai&lt;/mark&gt;nian city Already, the U.S. has sent nearly $4 billion worth of military equipment to Ukraine this year.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The gear has ranged from small drones to helicopters to Javelin anti-armor and Stinger anti&lt;mark&gt;ai&lt;/mark&gt;rcraft systems, and more recently, heavy artillery, including Howitzers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The first batch of tr&lt;mark&gt;ai&lt;/mark&gt;ning on those Howitzers, which occurred outside Ukraine, is complete, a senior defense official said Thursday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Additional tr&lt;mark&gt;ai&lt;/mark&gt;ning, on a radar system the U.S. has provided and on armored personnel carriers, is either complete or under way.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Howitzers, radar systems, small drones and other weaponry are t&lt;mark&gt;ai&lt;/mark&gt;lored to the needs of the fight as it begins to unfold in the open terrain in the Donbas region in eastern Ukraine, the official said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We're trying to send them systems that will help them with the fight in the Donbas," the official s&lt;mark&gt;ai&lt;/mark&gt;d, "but that don't require such an onerous training regimen that you have to take fighters out of the fight for too long."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Ukr&lt;mark&gt;ai&lt;/mark&gt;nians have continually sought more and bigger weapons systems, including jet fighters and more advanced drones.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;They also have called for the U.S. and allies to m&lt;mark&gt;ai&lt;/mark&gt;ntain a no-fly zone over Ukraine, which Washington has rejected as potentially leading to direct conflict with Moscow.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Ukr&lt;mark&gt;ai&lt;/mark&gt;ne aid garnered broad bipartisan support in Congress, but Republicans have urged Democrats to keep it separate from other spending priorities, such as a package funding Covid-19 vaccines and treatments, which has been stalled by a dispute over border policy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The president—asked if he wanted the Democratic majority in Congress to combine the two funds in a single spending bill—s&lt;mark&gt;ai&lt;/mark&gt;d he was agnostic.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"I don't care how they do it," he s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;However, Republicans have insisted that any pandemic &lt;mark&gt;ai&lt;/mark&gt;d that moves through Congress must also include a vote sustaining Title 42, which allows Border Patrol agents to quickly turn away migrants at the southern border.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"It's enough for now," s&lt;mark&gt;ai&lt;/mark&gt;d Sen. Dick Durbin (D., Ill.) of the Ukraine aid request.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Asked if it would be combined with Covid-19 &lt;mark&gt;ai&lt;/mark&gt;d, he said it should be done in a way that would help it pass quickly.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Lawmakers didn't indicate that the emergency &lt;mark&gt;ai&lt;/mark&gt;d would need to be tied to any revenue generation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"I'd like to pay for some of it, but this is truly an emergency and we've got a chance to deliver a decisive blow for freedom," s&lt;mark&gt;ai&lt;/mark&gt;d Sen. Lindsey Graham (R., S.C.), noting he was glad to see Mr. Biden send the request to Congress.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition to the funding request, Mr. Biden is asking Congress to approve a legislative package targeting Russian oligarchs, including a measure that would allow forfeited funds to be used to help Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Proposals in the package include creating a criminal offense by making it unlawful for a person to knowingly possess proceeds obt&lt;mark&gt;ai&lt;/mark&gt;ned from corrupt dealings with the Russian government; allowing for the forfeiture of property that Russian oligarchs use to evade sanctions; adding sanctions evasion to the definition of "racketeering activity" under the Racketeer Influenced and Corrupt Organizations Act, or RICO; and extending the statute of limitations to pursue money laundering prosecutions from five years to 10 years.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"This package of proposals will establish new authorities for the forfeiture of property linked to Russian kleptocracy, allow the government to use the proceeds to support Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, and further strengthen related law enforcement tools," a White House fact sheet says.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The president s&lt;mark&gt;ai&lt;/mark&gt;d both countries had gas reserves, and he has been in touch with U.S. allies to divert supplies to the two nations.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Ken Thomas at ken.thomas@wsj.com Biden Asks Congress for $33 Billion to Support Ukr&lt;mark&gt;ai&lt;/mark&gt;ne CO uscong : United States Congress NS gcat : Political/General News | gdev : Development/Humanitarian Aid | ghea : Health | gpir : Politics/International Relations | gpol : Domestic Politics | gvcng : Legislative Branch | gvio : Military Action | ncolu : Columns | gsars : Novel Coronaviruses | gweap : Weapons Programs | gcns : National/Public Security | gcold : Respiratory Tract Diseases | gdef : Armed Forces | gdip : International Relations | gmed : Medical Conditions | grisk : Risk News | gspox : Infectious Diseases | gvbod : Government Bodies | ncat : Content Types RE ukrn : Ukraine | usa : United States | eurz : Europe | namz : North America | uk : United Kingdom | usdc : Washington DC | uss : Southern U.S. | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC G/CNG PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s0040h Page 11 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukr&lt;mark&gt;ai&lt;/mark&gt;ne Crisis: Retired Marine Is Released in Exchange for a Russian Prisoner BY By Ann M. Simmons and Brett Forrest WC 676 words PD 28 April 2022 SN The Wall Street Journal SC J PG A8 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Trevor Reed, a U.S. citizen and retired Marine who has been det&lt;mark&gt;ai&lt;/mark&gt;ned in Russia since 2019, was released in a prisoner swap in a move lauded by Washington at a time when relations between the countries are at a historic low.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian foreign ministry spokeswoman Maria Zakharova s&lt;mark&gt;ai&lt;/mark&gt;d Mr. Reed was exchanged for Russian citizen Konstantin Yaroshenko, who was sentenced to 20 years in prison in 2010 for conspiracy to smuggle cocaine into the U.S. TD The release of Mr. Reed, a student at the University of North Texas, who in 2020 was sentenced to nine years in prison after being found guilty of assaulting two police officers, comes as Russia stands at odds with the U.S. and Europe over its invasion of Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;President Biden pr&lt;mark&gt;ai&lt;/mark&gt;sed the release.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We welcome home Trevor Reed and celebrate his return to the family that missed him dearly," he s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Reed was found guilty of using violence ag&lt;mark&gt;ai&lt;/mark&gt;nst government officials and was ordered to pay each officer 100,000 rubles, equivalent to about $1,378, at the time.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Officials at the U.S. State Department s&lt;mark&gt;ai&lt;/mark&gt;d talks to win Mr. Reed's release unfolded over months, starting well before Moscow's broad invasion of Ukraine in February.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Like the absolute top, s&lt;mark&gt;ai&lt;/mark&gt;d Alexey Tarasov, a Houston-based lawyer who represents Mr. Yaroshenko.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Reed family pr&lt;mark&gt;ai&lt;/mark&gt;sed Bill Richardson, a former U.S. ambassador to the United Nations and governor of New Mexico who has advocated on behalf of Mr. Reed and Paul Whelan, another retired Marine, of Novi, Mich., who was found guilty of espionage and sentenced in June 2020 to 16 years in prison in a case that also drew U.S. condemnation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Whelan, who holds U.S., U.K., Canadian and Irish citizenship, m&lt;mark&gt;ai&lt;/mark&gt;ntains his innocence.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A senior administration official s&lt;mark&gt;ai&lt;/mark&gt;d the "discussions with the Russians that led to this exchange were strictly limited to these topics, not a broader diplomatic conversation."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Reed's lawyer, Sergey Nikitenkov, s&lt;mark&gt;ai&lt;/mark&gt;d in a phone call Wednesday that the "fact of the exchange does not mean that he agreed with something, signed something about guilt or asked that he wants to be pardoned or repent of something," he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Nikitenkov s&lt;mark&gt;ai&lt;/mark&gt;d Mr. Reed's mood and reaction to his release was mixed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On one hand he is "a person who was kept in harsh conditions. . .he was ill there repeatedly. . .his physical condition is difficult," the lawyer s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He was flown to the U.S. and charged with conspiring to transport South American coc&lt;mark&gt;ai&lt;/mark&gt;ne from Liberia to the U.S.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Friday, Russia and the U.S. completed a deal to exchange the two det&lt;mark&gt;ai&lt;/mark&gt;nees, Mr. Tarasov said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Even after the deal was brokered, Mr. Yaroshenko rem&lt;mark&gt;ai&lt;/mark&gt;ned circumspect, his lawyer said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"After 12 years of incarceration, you'll always take things with a gr&lt;mark&gt;ai&lt;/mark&gt;n of salt," Mr. Tarasov said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A senior U.S. administration official told reporters Wednesday that Mr. Yaroshenko has "already p&lt;mark&gt;ai&lt;/mark&gt;d a steep price in the U.S. justice system," adding that he currently is in Russian custody.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Yaroshenko plans to rejoin his wife, Viktoria, in Rostov-on-Don, his lawyer s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A Ukr&lt;mark&gt;ai&lt;/mark&gt;ne Crisis article on Thursday about a prisoner swap with Russia incorrectly said they are retired Marines.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;(WSJ April 29, 2022) License this article from Dow Jones Reprint Service CO rumfa : Russia Ministry of Foreign Aff&lt;mark&gt;ai&lt;/mark&gt;rs | uafor : Ukraine Ministry of Foreign Affairs NS gdip : International Relations | gdrug : Drug Trafficking/Dealing | gcrim : Crime/Legal Action | gpris : Prisons/Prisoners | gtraff : Trafficking/Smuggling | ncrx : Corrected Items | gcat : Political/General News | gcns : National/Public Security | ghome : Law Enforcement | gpir : Politics/International Relations | ncat : Content Types RE russ : Russia | ukrn : Ukraine | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220428ei4s0000q Page 13 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM World News SE World HD Biden Seeks New &lt;mark&gt;Ai&lt;/mark&gt;d for Ukraine as Russia Makes Slow Progress in Seizing East; Congress is asked to provide $33 billion to fund more weapons and provide longer-term economic assistance BY By James Marson WC 1,674 words PD 29 April 2022 ET 05:07 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP President Biden sent Congress a $33 billion request to fund more weapons and provide longer-term economic assistance for Kyiv, as Russia's military is gradually seizing more territory in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne's east, pushing south from the city of Izyum with the apparent aim of cutting off Ukrainian forces.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden s&lt;mark&gt;ai&lt;/mark&gt;d Thursday that the $13.6 billion in funding that Congress had initially provided to Ukraine to help cover the first two months of the war was nearly depleted and that far more was needed, describing the conflict as being at a pivotal point.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD The push for more Ukr&lt;mark&gt;ai&lt;/mark&gt;ne aid has garnered broad bipartisan support in Congress and signals how the U.S. and its European allies are preparing for a longer war that could grind on for months.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Thursday's proposal, as described by administration officials, includes $20.4 billion in military and security &lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian forces have seized villages south of Izyum in recent days and are gathering for a fresh thrust after Ukr&lt;mark&gt;ai&lt;/mark&gt;ne halted their progress, Ukraine's military said Thursday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;nian and Western officials and analysts say Moscow's progress is slow and has yet to achieve a decisive breakthrough.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia at the end of March switched its immediate objectives from taking Kyiv and ousting the elected government to seizing chunks of territory in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne's east.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But any success in severing Ukr&lt;mark&gt;ai&lt;/mark&gt;nian units' supply lines might not be decisive, analysts say, because Russian forces would be vulnerable to Ukrainian counterattacks and face tough urban fighting.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Moscow is seeking a quick advance before Ukr&lt;mark&gt;ai&lt;/mark&gt;ne is able to transfer new and rejuvenated units to the east, bolstered by heavy weapons promised or already delivered by the West, analysts say.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;nian officials say Russia is suffering heavy losses.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;nian President Volodymyr Zelensky said in a late-night address that he was grateful to the American people and to Mr. Biden for the request for more aid for his country and that he hoped Congress would act quickly.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The negative consequences of Russia's aggression ag&lt;mark&gt;ai&lt;/mark&gt;nst Ukraine and against democracy are so large-scale for the whole world that, in comparison with them, this support from the United States is necessary," Mr. Zelensky said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Lawmakers in Washington have s&lt;mark&gt;ai&lt;/mark&gt;d that they have been prepared to approve another package of military, humanitarian and economic aid for Ukraine quickly, but that they have Page 14 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;disagreed over whether to tackle Mr. Biden's request on its own, as Republicans want, or combine the Ukr&lt;mark&gt;ai&lt;/mark&gt;ne request with other spending packages, as Democrats prefer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The House on Thursday approved legislation to create a lend-lease agreement designed to speed up the transfer of military equipment to Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, similar to what the U.S. did with Britain during World War II.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Pentagon s&lt;mark&gt;ai&lt;/mark&gt;d Wednesday that more than half of the 90 howitzers it recently pledged to Ukraine had been delivered.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Oleksiy Arestovych, a Ukr&lt;mark&gt;ai&lt;/mark&gt;nian presidential adviser, said that by the end of May, arms would have arrived in sufficient quantities to change the balance of forces on the front.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"By the middle of June…we will be ready to go on the attack," he s&lt;mark&gt;ai&lt;/mark&gt;d in a Ukrainian television interview late Wednesday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An embrace Thursday at a reception point in Zaporizhzhia, Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, for people displaced by the war.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;PHOTO: Manu Brabo for The Wall Street Journal Ukr&lt;mark&gt;ai&lt;/mark&gt;nian girls upon their arrival at the reception point in Zaporizhzhia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;PHOTO: Manu Brabo for The Wall Street Journal The West is funneling arms, such as artillery and anti&lt;mark&gt;ai&lt;/mark&gt;rcraft guns, and ammunition to Ukraine to help it defend itself in a new phase of the war, in which heavy weapons are expected to play a more important role.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some of the systems are new to Ukr&lt;mark&gt;ai&lt;/mark&gt;nians and require training and integrating into Kyiv's military.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Pentagon s&lt;mark&gt;ai&lt;/mark&gt;d it had completed howitzer training this week for 50 Ukrainians who can pass on the knowledge to teammates.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That has left Russian forces there without sufficient logistical and other support, preventing a significant breakthrough, the U.K. Ministry of Defense s&lt;mark&gt;ai&lt;/mark&gt;d Wednesday, describing Russian advances as minor.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"They have not taken enough time to rebuild forces wrecked in fighting around Kyiv," s&lt;mark&gt;ai&lt;/mark&gt;d Frederick Kagan, senior fellow at the American Enterprise Institute, a think tank in Washington.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"They are hurling them into combat as they become av&lt;mark&gt;ai&lt;/mark&gt;lable."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian officials say they intend to push Ukr&lt;mark&gt;ai&lt;/mark&gt;nian forces out of the Donetsk and Luhansk regions in eastern Ukraine, which the Kremlin recognized as independent in February.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Arestovych, the Ukr&lt;mark&gt;ai&lt;/mark&gt;nian presidential adviser, said that Russia could achieve further advances where it has concentrated artillery and aerial power for bombardments, but that Page 15 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;nian forces were inflicting heavy losses and withdrawing only to take up better defensive positions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A Ukr&lt;mark&gt;ai&lt;/mark&gt;nian serviceman cleaning his weapon Thursday in a bunker outside Kyiv.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;PHOTO: Justyna Mielnikiewicz/MAPS for The Wall Street Journal Russia's military has so far had little success breaching the defensive line that Ukr&lt;mark&gt;ai&lt;/mark&gt;ne's army set up along the front line of an eight-year conflict with Russian proxies in eastern Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But Russia has made progress striking from Russian territory in the north, where Ukr&lt;mark&gt;ai&lt;/mark&gt;nian defenses were less prepared.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Russian advances south of Izyum appear &lt;mark&gt;ai&lt;/mark&gt;med at cutting off Ukrainian troops in the cities of Slovyansk and Kramatorsk.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Analysts s&lt;mark&gt;ai&lt;/mark&gt;d it was as yet unclear whether Russia would seek a large encirclement of Ukrainian troops or smaller pockets.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But even if they surround Ukr&lt;mark&gt;ai&lt;/mark&gt;nian units, Russian forces will be vulnerable to counterattacks and would have to pursue urban fighting, in which defenders have a significant advantage.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's military surrounded large cities such as Chernihiv in northern Ukr&lt;mark&gt;ai&lt;/mark&gt;ne in March but failed to capture them.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"At a cert&lt;mark&gt;ai&lt;/mark&gt;n point it is possible, but not inevitable, that the Russian will to fight will break, that they will not be able to conduct offensive operations if they continue to take terrible losses," said Mr. Kagan.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's Defense Ministry s&lt;mark&gt;ai&lt;/mark&gt;d Thursday that its forces shot down a Ukrainian Su-24 aircraft near Mykolaivka in eastern Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It s&lt;mark&gt;ai&lt;/mark&gt;d that Russia's air force struck 67 Ukrainian military facilities over the previous 24 hours and that Russian forces had repelled an attack by Ukrainian forces with Tochka-U missiles and rocket launchers in Russian-held territory in Kherson, in Ukraine's south.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Zelensky, meanwhile, accused Russia of using what he called energy blackm&lt;mark&gt;ai&lt;/mark&gt;l to warn European countries off providing further support for Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Moscow cut off gas supplies to Poland and Bulgaria on Wednesday, a move that the Ukr&lt;mark&gt;ai&lt;/mark&gt;nian leader called a clear demonstration that "no one in Europe can hope to maintain any normal economic cooperation with Russia."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some European officials have s&lt;mark&gt;ai&lt;/mark&gt;d that Russia's moves against Poland and Bulgaria were intended as a warning against all European Union members sending weapons and ammunition to Uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AR </t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>500</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;According to a 2019 Reserve Bank of Indiastudy, every extra doll&lt;mark&gt;ar &lt;/mark&gt;a barrel India pays for oil imports increases the country's budget deficit by $1.25 billion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As of 2020, its top three oil suppliers were Iraq, Saudi Arabia and the United Arab Emirates, while its top gas suppliers were Qat&lt;mark&gt;ar &lt;/mark&gt;and the U.S. With access to reliable energy supplies from the Gulf, Indian refiners don't need to turn to faraway Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Indian businesses are also f&lt;mark&gt;ar &lt;/mark&gt;more deeply integrated with the West than with Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;None of these groupings will materially influence the outcome of the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Declarations SE Opinion HD Putin Really May Break the Nucle&lt;mark&gt;ar &lt;/mark&gt;Taboo in Ukraine; It seems unthinkable, but American leaders' failure to think about it heightens the risk it will happen.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD The w&lt;mark&gt;ar &lt;/mark&gt;is in its third month.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Diplomatic solutions are less likely than ever; w&lt;mark&gt;ar &lt;/mark&gt;crimes and atrocities have hardened the Ukrainians, and in any case they're winning and the world is on their side.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We aren't worried enough about Russian nucle&lt;mark&gt;ar &lt;/mark&gt;use in part because we imagine such a thing as huge missiles with huge warheads launched from another continent and speeding through space.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But the more likely use would be not of big strategic nucle&lt;mark&gt;ar &lt;/mark&gt;weapons but smaller tactical ones on the battlefield.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;America and Russia have rough parity in the number of strategic nucle&lt;mark&gt;ar &lt;/mark&gt;weapons, but Russia has an estimated 10 times as many tactical nuclear weapons as the U.S. and delivery systems that range from artillery shells to aircraft.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Why would Vladimir Putin use tactical nucle&lt;mark&gt;ar &lt;/mark&gt;weapons?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Putin talks about nucle&lt;mark&gt;ar &lt;/mark&gt;weapons a lot.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Monday Foreign Minister Sergei Lavrov said the risk of nucle&lt;mark&gt;ar &lt;/mark&gt;conflict is "serious" and "should not be underestimated."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This month President Biden referred to Mr. Putin as a w&lt;mark&gt;ar &lt;/mark&gt;criminal.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In his 2007 speech to the Munich Security Conference he accused the U.S. of arrogance, hypocrisy and having created a "unipol&lt;mark&gt;ar &lt;/mark&gt;world" with "one center of authority, one center of force, one center of decision making," headed by "one master, one sovereign."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;People who have known Mr. Putin have told me I am wrong in my concern about his potential nucle&lt;mark&gt;ar &lt;/mark&gt;use in that he knows if he makes one move with such a weapon, Moscow will in turn be reduced to a smoking ruin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;No one since 1945, in spite of all the wars, has used nucle&lt;mark&gt;ar &lt;/mark&gt;weapons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Putin Really May Break the Nucle&lt;mark&gt;ar &lt;/mark&gt;Taboo in Ukraine NS gnuclw : Nuclear Weapons Programs | gvexe : Executive Branch | gpir : Politics/International Relations | gwar : War Crimes | ncolu : Columns | nedc : Commentaries/Opinions | gcat : Political/General News | gcns : National/Public Security | gcrim : Crime/Legal Action | gdef : Armed Forces | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | gvio : Military Action | gweap : Weapons Programs | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter Page 5 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The w&lt;mark&gt;ar &lt;/mark&gt;is in a crucial phase, as Russia tries to expand its control in Ukraine's east and crush the Ukrainian army.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Defeating Mr. Putin's w&lt;mark&gt;ar &lt;/mark&gt;of conquest is still possible, and the West can make the world safer by showing that an alliance of democracies can defeat a marauding dictator.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The proposal, announced by Mr. Biden Thursday, is designed to back Ukraine's w&lt;mark&gt;ar &lt;/mark&gt;effort through the end of September.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Congress provided Ukraine earlier this ye&lt;mark&gt;ar &lt;/mark&gt;with $13.6 billion in military, humanitarian and economic aid as part of a broader spending bill, covering the first two months of the war.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The House on Thursday voted 417-10 to approve legislation to create a lend-lease agreement designed to speed up the transfer of military equipment to Ukraine, simil&lt;mark&gt;ar &lt;/mark&gt;to what the U.S. did with Britain in World War II.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The ge&lt;mark&gt;ar &lt;/mark&gt;has ranged from small drones to helicopters to Javelin anti-armor and Stinger antiaircraft systems, and more recently, heavy artillery, including Howitzers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Additional training, on a rad&lt;mark&gt;ar &lt;/mark&gt;system the U.S. has provided and on armored personnel carriers, is either complete or under way.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Howitzers, rad&lt;mark&gt;ar &lt;/mark&gt;systems, small drones and other weaponry are tailored to the needs of the fight as it begins to unfold in the open terrain in the Donbas region in eastern Ukraine, the official said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden said Thursday that the $13.6 billion in funding that Congress had initially provided to Ukraine to help cover the first two months of the w&lt;mark&gt;ar &lt;/mark&gt;was nearly depleted and that far more was needed, describing the conflict as being at a pivotal point.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD The push for more Ukraine aid has garnered broad bipartisan support in Congress and signals how the U.S. and its European allies are preparing for a longer w&lt;mark&gt;ar &lt;/mark&gt;that could grind on for months.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The House on Thursday approved legislation to create a lend-lease agreement designed to speed up the transfer of military equipment to Ukraine, simil&lt;mark&gt;ar &lt;/mark&gt;to what the U.S. did with Britain during World War II.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia has quickly thrown together the remnants of units that were decimated in fighting around Kyiv in the first weeks of the w&lt;mark&gt;ar &lt;/mark&gt;and sent them into fighting in the east.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;PHOTO: Justyna Mielnikiewicz/MAPS for The Wall Street Journal Russia's military has so f&lt;mark&gt;ar &lt;/mark&gt;had little success breaching the defensive line that Ukraine's army set up along the front line of an eight-year conflict with Russian proxies in eastern Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Russian advances south of Izyum appe&lt;mark&gt;ar &lt;/mark&gt;aimed at cutting off Ukrainian troops in the cities of Slovyansk and Kramatorsk.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Analysts said it was as yet uncle&lt;mark&gt;ar &lt;/mark&gt;whether Russia would seek a large encirclement of Ukrainian troops or smaller pockets.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's Defense Ministry said Thursday that its forces shot down a Ukrainian Su-24 aircraft ne&lt;mark&gt;ar &lt;/mark&gt;Mykolaivka in eastern Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Moscow cut off gas supplies to Poland and Bulgaria on Wednesday, a move that the Ukrainian leader called a cle&lt;mark&gt;ar &lt;/mark&gt;demonstration that "no one in Europe can hope to maintain any normal economic cooperation with Russia."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"But when we talk about w&lt;mark&gt;ar &lt;/mark&gt;crimes, we cannot forget that the worst of crimes is war itself."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukrainian authorities on Thursday filed criminal charges against 10 Russian soldiers accused of taking civilians hostage and mistreating them in Bucha, in the first such move by prosecutors investigating possible w&lt;mark&gt;ar &lt;/mark&gt;crimes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia has previously rejected allegations of w&lt;mark&gt;ar &lt;/mark&gt;crimes, including accusations of targeting civilians.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to James Marson at james.marson@wsj.com Biden Seeks New Aid for Ukraine as Russia Makes Slow Progress in Seizing East CO uscong : United States Congress NS gcat : Political/General News | gvio : Military Action | gvexe : Executive Branch | gvbod : Government Bodies | ecat : Economic News | gcrim : Crime/Legal Action | gpir : Politics/International Relations | gpol : Domestic Politics | gvcng : Legislative Branch | gw&lt;mark&gt;ar &lt;/mark&gt;: War Crimes | ncolu : Columns | nimage : Images | gweap : Weapons Programs | gcns : National/Public Security | gdef : Armed Forces | grisk : Risk News | ncat : Content Types RE ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | namz : North America | weurz : Western Europe IPD Wires IPC G/CNG PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s001jl Page 17 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Pentagon said it has so f&lt;mark&gt;ar &lt;/mark&gt;earmarked around 1,400 Stingers for Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;More on the W&lt;mark&gt;ar &lt;/mark&gt;in Ukraine Inside the Russian Siege of Mariupol "We have a problem with the government not paying to maintain production capacity," Ms. Lord, now a senior adviser at The Chertoff Group, a security risk consultant, said Tuesday at a Congressional hearing.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Industry representatives say the issues raised by the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine and the expected need to surge production capacity require the government and Congress to think more broadly about industrial strategy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The pressure is on," said Mr. Durbin, who added that he was in regul&lt;mark&gt;ar &lt;/mark&gt;contact on the matter with Defense Secretary Lloyd Austin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Commodities SE Markets HD Oil Middlemen Fueled Putin's W&lt;mark&gt;ar &lt;/mark&gt;Machine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It will cut its business with the state producer to a sliver of prew&lt;mark&gt;ar &lt;/mark&gt;levels, supplying only some refined products such as diesel into Europe, according to a spokeswoman.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Trafigura and other traders were already poised to lose a big chunk of their Russian business on May 15, when sanctions go into effect that b&lt;mark&gt;ar &lt;/mark&gt;them from selling Rosneft oil to countries outside the European Union and Switzerland.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Vitol, Trafigura's biggest competitor in oil, also plans to retreat from the Russian market, according to people famili&lt;mark&gt;ar &lt;/mark&gt;with the decision.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Glencore PLC, a mining and trading giant with a long history in Russia, suspended its contract to export Rosneft oil in March, people famili&lt;mark&gt;ar &lt;/mark&gt;with the decision said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While the traders continued to ship Russian oil after w&lt;mark&gt;ar &lt;/mark&gt;broke out, they faced mounting pressures from Western governments, financial institutions and Ukrainian officials.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Their disengagement is forcing Russia to hastily rework its commodity-export business, the foundation of the country's economic wealthand the feedstock for Vladimir Putin's w&lt;mark&gt;ar &lt;/mark&gt;machine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It churned out a profit of $3.1 billion in the ye&lt;mark&gt;ar &lt;/mark&gt;through last September.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Last month, Trafigura announced it had doubled the size of a credit facility with banks to more than $2 billion to weather extreme price moves sparked by the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A set of Trafigura bonds issued late last ye&lt;mark&gt;ar &lt;/mark&gt;have fallen nearly 10% since just before the start of the war.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Together Trafigura and its competitors have channeled billions of dollars to Rosneft from Western lenders and invested in oil fields and port terminals in Russia—to ende&lt;mark&gt;ar &lt;/mark&gt;themselves to producers in the country and gain access to their oil, current and former industry executives say.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But data tracking shipments from Russian ports and calculations by rival companies suggest Trafigura grew to be by f&lt;mark&gt;ar &lt;/mark&gt;the biggest exporter of Rosneft oil.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But people famili&lt;mark&gt;ar &lt;/mark&gt;with their terms say Trafigura, and its rivals, agree to long-term contracts to buy millions of barrels of Russian oil with prices set according to formulas based on recent prices of oil benchmarks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Cargoes that once headed to Europe instead traveled to markets such as India, which has avoided denouncing the w&lt;mark&gt;ar &lt;/mark&gt;and scooped up Russian oil on the cheap.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Joe Wallace at Joe.Wallace@wsj.com and Eliot Brown at eliot.brown@wsj.com Oil Middlemen Fueled Putin's W&lt;mark&gt;ar &lt;/mark&gt;Machine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukraine Crisis: Gaps M&lt;mark&gt;ar &lt;/mark&gt;Moscow Economic Data --- Inconsistent figures make it difficult to gauge impact of war, Western sanctions BY By Paul Hannon, Georgi Kantchev and Yuliya Chernova WC 961 words PD 28 April 2022 SN The Wall Street Journal SC J PG A8 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's Ministry of Economic Development said on Wednesday that the country's economic output was 1.6% higher in March than a ye&lt;mark&gt;ar &lt;/mark&gt;earlier.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It may be too soon for the impact of the w&lt;mark&gt;ar &lt;/mark&gt;and sanctions to be reflected in the economic data.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's oil production this ye&lt;mark&gt;ar &lt;/mark&gt;may decline by as much as 17% in volume terms because of Western sanctions, Finance Minister Anton Siluanov said Wednesday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There are cle&lt;mark&gt;ar &lt;/mark&gt;signs the economy has been shaken.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It had previously recorded a sharp pickup in inflation during March, reflecting the ruble's steep decline in the early weeks of the w&lt;mark&gt;ar &lt;/mark&gt;and a rush to stockpile essentials by households in anticipation of shortages.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The ruble, supported byrestrictions on taking money out of the country, has since rebounded to its prew&lt;mark&gt;ar &lt;/mark&gt;levels.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But the long-term effects of the w&lt;mark&gt;ar &lt;/mark&gt;are still unfurling and the impact on Russia's job market may not be felt for months.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Europe News SE World HD Germany Drops Opposition to Embargo on Russian Oil; The shift paves the way for a next round of European sanctions over the Ukraine w&lt;mark&gt;ar &lt;/mark&gt;BY By Bojan Pancevski, Laurence Norman and Georgi Kantchev WC 1,189 words PD 28 April 2022 ET 22:54 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Critics have said that these funds are bankrolling Russian President Vladimir Putin's regime and its w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Commodities SE Markets HD Corn and Soybeans Ne&lt;mark&gt;ar &lt;/mark&gt;Record Prices, Push Food Costs Higher; Ukraine war, drought in South America and biofuel demand pressure supplies of the crops BY By Ryan Dezember WC 873 words PD 29 April 2022 ET 00:51 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD The price of soybeans, which are fed to cows, chicken and salmon and crushed into oils, has gained 26% so f&lt;mark&gt;ar &lt;/mark&gt;this year.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Food companies say shoppers have so f&lt;mark&gt;ar &lt;/mark&gt;kept up.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;U.S. food prices in March were up 8.8% from a ye&lt;mark&gt;ar &lt;/mark&gt;earlier, according to the Bureau of Labor Statistics.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A United Nations group said global food prices hit a new high last month, and the World Bank said it expects w&lt;mark&gt;ar &lt;/mark&gt;in Europe to boost food prices about 23% this year, after a 31% climb in 2021 when snarled supply chains and bad weather jolted agricultural commodity markets.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Just 7% of this year's corn was planted by the start of the week, compared with 16% a ye&lt;mark&gt;ar &lt;/mark&gt;ago, the Agriculture Department said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This ye&lt;mark&gt;ar &lt;/mark&gt;is expected to be just the third on record in which U.S. farmers plant more land with soybeans than with corn.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The analysts forecast the U.S. will use about five times as much corn to make motor fuels this ye&lt;mark&gt;ar &lt;/mark&gt;than Ukraine typically exports in total.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Ryan Dezember at ryan.dezember@wsj.com Corn and Soybeans Ne&lt;mark&gt;ar &lt;/mark&gt;Record Prices, Push Food Costs Higher IN i0100223 : Soybean Farming | i0 : Agriculture | i1 : Energy | ialtful : Alternative Fuels | i010013205 : Corn Farming | i01001 : Farming | i0100132 : Oilseed/Grain Farming NS mcorn : Corn Markets | gdroug : Drought | gntdis : Natural Disasters/Catastrophes | gvio : Military Action | m14 : Commodity Markets | magric : Soft Commodity Markets | mcat : Commodity/Financial Market News | mgroil : Grains/Edible Oils Markets | ncolu : Columns | gcat : Political/General News | moilsd : Oilseed Markets | gcns : National/Public Security | gdis : Disasters/Accidents | grisk : Risk News | gwea : Weather | m141 : Agricultural Commodity Markets | mgrain : Grain Markets | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter RE ukrn : Ukraine | usa : United States | eurz : Europe | namz : North America | russ : Russia | uk : United Kingdom | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | ussrz : CIS Countries | weurz : Western Europe IPD Wires IPC G/AGD PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s0012y Page 33 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The nearly nonstop series of new U.S. sanctions being levied in a bid to halt Russia's w&lt;mark&gt;ar &lt;/mark&gt;machine have complicated events for companies facing their own external threat: ransomware attacks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;PHOTO: Christopher Occhicone for the Wall Street Journal TD Ukrainian authorities filed criminal charges Thursday against 10 individual Russian soldiers accused of taking civilians hostage and mistreating them in the Kyiv suburb of Bucha—the first such move by prosecutors investigating possible w&lt;mark&gt;ar &lt;/mark&gt;crimes by Moscow's forces.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine accused them of "ill-treatment of civilians, which is a violation of the laws and customs of w&lt;mark&gt;ar &lt;/mark&gt;under international treaties."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;W&lt;mark&gt;ar &lt;/mark&gt;crimes prosecutor Ruslan Kravchenko examined evidence in Bucha, Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;criminal arrest warrants, before presenting a broader case against Russian w&lt;mark&gt;ar &lt;/mark&gt;crimes to the International Criminal Court, Mr. Kravchenko said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Brett Forrest at brett.forrest@wsj.com Ukraine Brings First War-Crimes Charges Against Russian Soldiers in Bucha NS gcrim : Crime/Legal Action | gw&lt;mark&gt;ar &lt;/mark&gt;: War Crimes | gdef : Armed Forces | gdip : International Relations | gpir : Politics/International Relations | gvio : Military Action | ncolu : Columns | nimage : Images | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : Content Types RE ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC N/CRM PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s002gx Page 38 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;When Russian troops pulled out of areas around Kyiv, they left shattered buildings and were accused of w&lt;mark&gt;ar &lt;/mark&gt;crimes against the local population.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"It looks like this ye&lt;mark&gt;ar &lt;/mark&gt;or even the year after we will not be able to do anything here," Mr. Lissitsa said of parts of the land.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Taras Vysotskyi, Ukraine's deputy minister of agrarian policy and food, said it was cle&lt;mark&gt;ar &lt;/mark&gt;that the targeting of agriculture was deliberate because Russian forces placed mines in fields of no military value and continued to do so even as they withdrew.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Despite having been sent photos of damage to his farm ne&lt;mark&gt;ar &lt;/mark&gt;the northern city of Chernihiv, Petro Melnyk said he wasn't prepared for the extent of the destruction when he returned over two weeks ago.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Farmers are waiting for the Ukrainian military to cle&lt;mark&gt;ar &lt;/mark&gt;the mines and munitions, which could take a while.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Evgeniy Kharlan, who farms asparagus and blueberries, asked the military to cle&lt;mark&gt;ar &lt;/mark&gt;unexploded munitions on his land close to the front line in eastern Ukraine and was told that clearing cities and towns was a higher priority.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Kharlan also said the military told him to avoid his other farm ne&lt;mark&gt;ar &lt;/mark&gt;Chernobyl because of the risk posed by mines.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The delay in getting back to work likely will reduce the harvest this ye&lt;mark&gt;ar &lt;/mark&gt;and potentially next, Mr. Kharlan said, adding that only around 30% to 40% of his fields were now being farmed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But Ukraine remains particularly low on fertilizers, which before the w&lt;mark&gt;ar &lt;/mark&gt;it had bought from Russia and Belarus.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;At a reading in 1992, less than a ye&lt;mark&gt;ar &lt;/mark&gt;into Ukraine's existence as an independent nation, Brodsky offered a new poem titled "To the Independence of Ukraine."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;President Vladimir Putin's views on Ukraine, which he expounded in an essay last ye&lt;mark&gt;ar &lt;/mark&gt;that was read to Russian soldiers preparing for the invasion, are no outlier.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;They follow a lengthy tradition that helps to explain the continuing support for the w&lt;mark&gt;ar &lt;/mark&gt;among Russia's citizens.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Putin paid a visit to Solzhenitsyn in his country home in 2007, a ye&lt;mark&gt;ar &lt;/mark&gt;before the novelist's death, and gave him one of Russia's highest prizes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Even the imprisoned Russian opposition leader Alexei Navalny, who is now protesting vociferously against Mr. Putin's w&lt;mark&gt;ar &lt;/mark&gt;on Ukraine, said at the time that Crimea should remain part of Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's former president and current deputy national security chief, Dmitry Medvedev, outlined a simil&lt;mark&gt;ar &lt;/mark&gt;vision for the future of Ukraine days later, writing that after the Russian victory, the Ukrainian state will disappear just like the Nazi Third Reich.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP An ammunition depot caught fire ne&lt;mark&gt;ar &lt;/mark&gt;Russia's border with Ukraine, a local official said, the latest in a series of incidents to afflict Moscow's military facilities in recent weeks that could pressure supply lines to its forces.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The fire at the depot in a village ne&lt;mark&gt;ar &lt;/mark&gt;Belgorod, around 15 miles from the Ukrainian border, was extinguished by early morning Wednesday, according to Vyacheslav Gladkov, the regional governor.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The incidents follow a series of simil&lt;mark&gt;ar &lt;/mark&gt;events in recent weeks in the regions neighboring eastern Ukraine, where Russia is attempting to seize territory.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Keir Giles, a Russian security expert at the Chatham House think tank in London, said Russia often suffers from accidents and disasters related to negligence and other factors, so the involvement of Ukraine was uncle&lt;mark&gt;ar &lt;/mark&gt;so long as it didn't take responsibility for the incidents.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's finance minister, Anton Siluanov, said Wednesday that Russia's oil production this ye&lt;mark&gt;ar &lt;/mark&gt;could decline by as much as 17% due to the sanctions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's Foreign Minister Sergei Lavrov had told Russian media on Monday that the West was now engaged in a proxy w&lt;mark&gt;ar &lt;/mark&gt;with Russia by arming and assisting Ukraine, and that it could escalate into a global conflict with nuclear weapons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;U.S. Defense Secretary Lloyd Austin, speaking to reporters at Ramstein Air Base in Germany on Tuesday, said "any bluster about the possible use of nucle&lt;mark&gt;ar &lt;/mark&gt;weapons is dangerous and unhelpful."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;President Biden is scheduled to speak about the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine on Thursday, the White House said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The breakaway pro-Russian enclave of Transnistria on Wednesday reported gunfire and drones spotted over a village ne&lt;mark&gt;ar &lt;/mark&gt;its border with Ukraine after it said three separate attacks earlier this week targeted a Transnistrian military base, two radio towers and the headquarters of its state security service.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Moldova has been on edge since the Russian invasion of Ukraine put it on the border of an active w&lt;mark&gt;ar &lt;/mark&gt;zone, potentially inflaming Moldova's relationship with Transnistria.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The narrow strip of land was carved out of Moldova after a civil w&lt;mark&gt;ar &lt;/mark&gt;in 1992 and is held by pro-Russian nationalists.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Diplomatic efforts to end the Ukraine conflict appe&lt;mark&gt;ar &lt;/mark&gt;to be moving slowly.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;After the meeting, Mr. Lavrov blamed the w&lt;mark&gt;ar &lt;/mark&gt;on the North Atlantic Treaty Organization's expansion and accused the West of attempting to create an alternative global governance outside the U.N. Mr. Guterres is scheduled to meet with Mr. Zelensky in Kyiv on Thursday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM WSJ Podcast What's News HD Is W&lt;mark&gt;ar &lt;/mark&gt;Spilling Beyond Ukraine's Borders?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;From attacks in Russia to Moscow cutting off natural-gas supplies to parts of Europe, an increasing number of headlines about the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine are playing out beyond the country's borders.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Plus between cross-border attacks and more threatening rhetoric, is the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine entering a new phase?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The UN estimates that more than 13 million people are trapped in areas affected by w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine, many without access to food, water, or electricity.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Meanwhile, the UK's Foreign Secretary Liz Truss has warned that if Russian President Vladimir Putin wins in his w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine, there would be "terrible consequences across the globe."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some argue that we shouldn't provide heavy weapons for fe&lt;mark&gt;ar &lt;/mark&gt;of provoking something worse.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Luke Vargas: We'll have more on whether the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine is starting to spill beyond the country's borders later in the show.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Yes, there's a w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine, but out here in Asia, we still have China threatening to take control of Taiwan by force and North Korea just had a big military parade showing off its latest intercontinental ballistic missiles.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And leader Kim Jong-un said he would step up nucle&lt;mark&gt;ar &lt;/mark&gt;weapons development.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;They also said that many of Tesla's directors were conflicted and that it overpaid for the home sol&lt;mark&gt;ar &lt;/mark&gt;company.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;European gas prices are still below their peak reached last month, but remain roughly five times as expensive as a ye&lt;mark&gt;ar &lt;/mark&gt;ago.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And in the US the benchmark price also climbed at a time of the ye&lt;mark&gt;ar &lt;/mark&gt;when typically spring's milder weather sets in and drives prices lower.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;So in the ne&lt;mark&gt;ar &lt;/mark&gt;term, as you said, we're likely to see these prices remain elevated just because of the fact that even though it's spring and getting into summer, and you would see some of those prices naturally start to come down, there is all of this uncertainty over what happens with Russian energy supplies in the near term.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And also most countries, even outside of that have said that they plan on winging themselves off of Russia by the end of the ye&lt;mark&gt;ar &lt;/mark&gt;for energy supplies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Is the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine escalating into a broader conflict?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An increasing number of recent headlines about the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine don't even concern events taking place there, whether it's a series of attacks beyond Ukraine's borders in Russia and Moldova, Russian warnings about a World War, or Moscow cutting off gas supplies to parts of Europe.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Luke Vargas: Meanwhile, Matthew, Russia has accused NATO of fighting a proxy w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But of course, we know that Russia has f&lt;mark&gt;ar &lt;/mark&gt;more destructive weaponry, has long-range ballistic missiles, it has nuclear weapons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There has been speculation recently of a possible tactical nucle&lt;mark&gt;ar &lt;/mark&gt;strike.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;I wouldn't want to speculate on the possibility of Russia hitting Western weapons facilities f&lt;mark&gt;ar &lt;/mark&gt;beyond the borders of Ukraine, but Russian officials, some lawmakers have already suggested that this might be a adequate response to Western attempts to Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Luke Vargas: And finally Matthew, in our final moments, what do we need to be watching for next, if it's even possible at all to forecast the next turns this w&lt;mark&gt;ar &lt;/mark&gt;could take?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Matthew Luxmoore: Yeah, I'm mean the w&lt;mark&gt;ar &lt;/mark&gt;has taken so many twists and turns.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;I would definitely not want to be making any predictions, but it does seem like Russia's initial w&lt;mark&gt;ar &lt;/mark&gt;aims have not worked out as it had planned.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The only other thing I'd mention is obviously, we should be watching out for increased rhetoric from Russia about the possibility of defending itself from these attacks, staged on its territory, maybe through the use of more heavy weaponry, including nucle&lt;mark&gt;ar &lt;/mark&gt;weapons, which obviously would be very concerning if those kinds of statements started coming out of Moscow.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Meanwhile, Russian President Vladimir Putin warned that Moscow would have a lightning fast response to any country that interferes in the conflict, and in Washington, the White House said President Biden is scheduled to speak about the w&lt;mark&gt;ar &lt;/mark&gt;today.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Lawmakers are aiming to win the critical support of Democratic Senator Joe Manchin of West Virginia, who last ye&lt;mark&gt;ar &lt;/mark&gt;rejected a roughly $2 trillion spending package.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Natural-gas prices swung higher on both sides of the Atlantic on Wednesday after Russia stopped exports to Poland and Bulgaria, a move that investors fe&lt;mark&gt;ar &lt;/mark&gt;could portend deeper global supply strains ahead.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That is well below the peak price European gas reached in March, but still roughly five times as expensive as a ye&lt;mark&gt;ar &lt;/mark&gt;ago.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Last ye&lt;mark&gt;ar &lt;/mark&gt;marked the first when American tanker exports of liquefied natural gas exceeded pipeline exports to Canada and Mexico, Jefferies researchers said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We're probably going to be running at or ne&lt;mark&gt;ar &lt;/mark&gt;capacity levels of exported LNG through the rest of this year," Mr. Ritterbusch said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Poland says it had planned to let its Gazprom contract expire later this ye&lt;mark&gt;ar &lt;/mark&gt;anyway.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Putin's ploy is a prod to Chancellor Olaf Scholz to cancel the retirement of Germany's last remaining nucle&lt;mark&gt;ar &lt;/mark&gt;plants this year.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Wholesale gas prices in Europe rose 20% Wednesday morning and are more than six times higher than a ye&lt;mark&gt;ar &lt;/mark&gt;ago.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But cutting off exports would also wound Russia, as fuel sales fund its w&lt;mark&gt;ar &lt;/mark&gt;machine and nearly half its budget.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's w&lt;mark&gt;ar &lt;/mark&gt;on Ukraine has awakened Europeans from their energy illusions, but Mr. Biden is still snoozing.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;U.S. officials have argued that the Ukraine w&lt;mark&gt;ar &lt;/mark&gt;shows that Russian military equipment is unreliable and that it will soon be in short supply.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukraine Crisis: Russian Arms Depot Catches Fire --- Ukraine doesn't take credit, but official calls recent simil&lt;mark&gt;ar &lt;/mark&gt;events 'karma' for waging war BY By James Marson and Ann M. Simmons WC 780 words PD 28 April 2022 SN The Wall Street Journal SC J PG A7 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP An ammunition depot caught fire ne&lt;mark&gt;ar &lt;/mark&gt;Russia's border with Ukraine, a local official said, the latest in a series of incidents to afflict Russian military facilities in regions adjacent to Ukraine in recent weeks that could pressure supply lines to Russian forces.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The fire at the depot in a village ne&lt;mark&gt;ar &lt;/mark&gt;Belgorod, around 15 miles from the border, was extinguished by early morning Wednesday, according to Vyacheslav Gladkov, the regional governor.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The incidents follow a series of simil&lt;mark&gt;ar &lt;/mark&gt;events in recent weeks in the regions neighboring eastern Ukraine, where Russia is attempting to seize territory.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Keir Giles, a Russian security expert at the Chatham House think tank in London, said Russia often suffers from accidents and disasters related to negligence and other factors, so the involvement of Ukraine was uncle&lt;mark&gt;ar &lt;/mark&gt;so long as it didn't take responsibility for the incidents.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's finance minister, Anton Siluanov, said Wednesday that Russia's oil production this ye&lt;mark&gt;ar &lt;/mark&gt;could decline</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>VR</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>22</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;On Monday Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov said the risk of nuclear conflict is "serious" and "should not be underestimated."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In Kyiv, United Nations Secretary-General António Guterres met with Mr. Zelensky on Thursday after meeting with Mr. Putin and Russian Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov in Moscow earlier this week.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov had told Russian media on Monday that the West was now engaged in a proxy war with Russia by arming and assisting Ukraine, and that it could escalate into a global conflict with nuclear weapons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;United Nations Secretary-General António Guterres met with Mr. La&lt;mark&gt;vr&lt;/mark&gt;ov and Mr. Putin in Moscow on Tuesday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;After the meeting, Mr. La&lt;mark&gt;vr&lt;/mark&gt;ov blamed the war on the North Atlantic Treaty Organization's expansion and accused the West of attempting to create an alternative global governance outside the U.N. Mr. Guterres is scheduled to meet with Mr. Zelensky in Kyiv on Thursday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD A day later, Russian Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov struck a very different tone after a meeting with his Indian counterpart, offering to sell India whatever it wanted to buy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Exxon Mobil (ticker: XOM), Hess (HES), and Che&lt;mark&gt;vr&lt;/mark&gt;on (CVX) are due to post earnings over the next few days.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO apolmn : Apollo Global Management Inc. | matl : Mattel Inc | petbrs : Petroleo Brasileiro SA | c&lt;mark&gt;vr&lt;/mark&gt;d : Vale S.A.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It should not be underestimated," Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov of Russia said in a Russian state-television interview broadcast Monday night.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Mr. La&lt;mark&gt;vr&lt;/mark&gt;ov said the West was increasing the risk of a bigger conflict by providing arms to Ukraine: "NATO is, in essence, going to war with Russia through a proxy and arming that proxy."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On the diplomatic front, United Nations Secretary-General Antonio Guterres met with met with Messrs. Putin and La&lt;mark&gt;vr&lt;/mark&gt;ov in Moscow on Tuesday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In his Monday interview, Mr. La&lt;mark&gt;vr&lt;/mark&gt;ov said there has been no progress in peace talks with Kyiv, but that the conflict would end in a treaty that would depend on the situation on the ground.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD A day later, Russian Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov struck a very different tone after a meeting with his Indian counterpart, offering to sell India whatever it wanted to buy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"NATO is, in essence, going to war with Russia through a proxy and arming that proxy," Russian Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov said in a Russian state-TV interview broadcast Monday night.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine said the comments by Russian Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov indicated that Moscow felt it was losing.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For example, S&amp;P gave Russian-controlled energy producers higher ESG ratings than similar entities in the U.S. Russian energy giants Gazprom and Rosneft outscored American energy companies ExxonMobil and Che&lt;mark&gt;vr&lt;/mark&gt;on on S&amp;P's ESG scale.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While S&amp;P recently removed all Russian company scores from their website, it is inconceivable how these energy giants, controlled by a corrupt and reckless regime—and having been sanctioned for that regime's misadventures before—managed to cobble together ESG scores up until a few weeks ago that exceeded those of law-abiding American companies critical to U.S. energy security.... S&amp;P also gave the Chinese state-owned China Petroleum &amp; Chemical Corporation a higher ESG score than ExxonMobil and Che&lt;mark&gt;vr&lt;/mark&gt;on, despite human rights violations by the Chinese.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i3302 : Computers/Consumer Electronics | i330202 : Software | i3302021 : Applications Software | i351 : Motor Vehicles | i35104 : Alternative Fuel Vehicles | i41 : Food/Beverages | i428 : Soft Drinks | iaut : Automotive | ibe&lt;mark&gt;vr&lt;/mark&gt;ge : Beverages/Drinks | icnp : Consumer Goods | icomp : Computing | igamsof : Games Software | iint : Online Service Providers | ilgood : Leisure/Travel Goods | imed : Media/Entertainment | inonal : Non-alcoholic Beverages/Drinks | isocial : Social Media Platforms/Tools | itech : Technology NS gvexe : Executive Branch | naudvl : Audio-visual Links | ntra : Transcripts | gpir : Politics/International Relations | ncolu : Columns | gcat : Political/General News | gpol : Domestic Politics | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | niwe : IWE Filter Page 195 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian advances on the towns of Oleksandrivka, Ta&lt;mark&gt;vr&lt;/mark&gt;i and Mykolaivka were also beaten back by Ukrainian artillery, it said in a statement.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We have 4-5 ships with Che&lt;mark&gt;vr&lt;/mark&gt;on on time charter, but we can't sail in to pick up the crude because we can't get insured," said Nikolas Tsakos, founder and chief executive of New York-listed TEN Ltd., one of the world's biggest tanker operators.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO artboe : Anheuser-Busch InBev SA/NV | dfobry : Carlsberg A/S | hh : Heineken NV | anhsrb : Anheuser-Busch Companies Inc | hhhold : Heineken Holding NV IN i427 : Brewing | i41 : Food/Beverages | ibe&lt;mark&gt;vr&lt;/mark&gt;ge : Beverages/Drinks | ialco : Alcoholic Beverages/Drinks | icnp : Consumer Goods NS c184 : Joint Ventures/Consortia | cdiv : Divestments | ccat : Corporate/Industrial News | c13 : Regulation/Government Policy | gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | neqac : Equities Asset Class News | c181 : Acquisitions/Mergers/Shareholdings | c18 : Ownership Changes | cactio : Corporate Actions | e51 : Trade/External Payments | ecat : Economic News | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | turk : Turkey | asiaz : Asia | balkz : Balkan States | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | meastz : Middle East | medz : Mediterranean | ussrz : CIS Countries | wasiaz : Western Asia IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220423ei4n0001z Page 235 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As part of an effort to pursue an end to the war, United Nations Secretary-General António Guterres will travel to Moscow and meet with Mr. Putin and Russian Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov on Tuesday and will travel to Ukraine and meet with Mr. Zelensky and Ukrainian Foreign Minister Dmytro Kuleba on Thursday, according to Mr. Guterres's office.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Funding</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>23</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Digital investment</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Ditto for &lt;mark&gt;funding&lt;/mark&gt; for a "stronger NATO security posture" to underwrite U.S. troop deployments to deter a Putin foray into Poland or the Baltic states.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The risk, as ever, is that Mr. Biden's Ukraine &lt;mark&gt;funding&lt;/mark&gt; becomes a hostage in Congress.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Lawmakers must now work out how to approve the aid while also trying to advance a package &lt;mark&gt;funding&lt;/mark&gt; Covid-19 vaccines and treatments and resolving a dispute over U.S.-Mexico border policy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Administration officials said it would also include "targeted &lt;mark&gt;funding&lt;/mark&gt;" of an additional $500 million to address economic disruptions at home and abroad, particularly to help increase the production of crops such as wheat and soybeans.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Ukraine aid garnered broad bipartisan support in Congress, but Republicans have urged Democrats to keep it separate from other spending priorities, such as a package &lt;mark&gt;funding&lt;/mark&gt; Covid-19 vaccines and treatments, which has been stalled by a dispute over border policy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition to the &lt;mark&gt;funding&lt;/mark&gt; request, Mr. Biden is asking Congress to approve a legislative package targeting Russian oligarchs, including a measure that would allow forfeited funds to be used to help Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden said Thursday that the $13.6 billion in &lt;mark&gt;funding&lt;/mark&gt; that Congress had initially provided to Ukraine to help cover the first two months of the war was nearly depleted and that far more was needed, describing the conflict as being at a pivotal point.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Pentagon has in recent years directed more &lt;mark&gt;funding&lt;/mark&gt; toward higher-end weapons designed to tackle China's military expansion often at the expense of older, simpler systems like the Javelin, said industry experts.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Sechin's strategy was to grant barrels of oil in return for &lt;mark&gt;funding&lt;/mark&gt; and investments, all the while playing Trafigura, Vitol and Glencore off against each other, said Mr. Lambert, the former banker.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Europe News SE World HD EU Targets Hungary's &lt;mark&gt;Funding&lt;/mark&gt; Amid Russia Sanctions Fight; Brussels activates, for the first time, a tool that could lead to the EU blocking large amounts of budget payouts to Hungary BY By Laurence Norman WC 734 words PD 27 April 2022 ET 19:58 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Laurence Norman at laurence.norman@wsj.com EU Targets Hungary's &lt;mark&gt;Funding&lt;/mark&gt; Amid Russia Sanctions Fight CO euruno : European Union NS gcat : Political/General News | e211 : Government Budget/Taxation | c341 : Government Aid/Grants | gvexe : Executive Branch | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | ecat : Economic News | gdip : International Relations | gesanc : International Sanctions | gpir : Politics/International Relations | ncolu : Columns | e21 : Government Finance | gpol : Domestic Politics | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE hung : Hungary | eecz : European Union Countries | asiaz : Asia | belg : Belgium | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | benluxz : Benelux Countries | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Wires IPC N/CMR PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220427ei4r00335 Page 80 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In Washington, lawmakers say they are ready to approve another package, &lt;mark&gt;funding&lt;/mark&gt; weapons and economic aid for Ukraine as the US shifts to a longer term commitment to back Kyiv in its fight against Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;President Biden has said the administration would soon submit a request to Congress for more &lt;mark&gt;funding&lt;/mark&gt; for Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;U.S. Secretary of State Antony Blinken testified on Tuesday on the administration's budget blueprint and told senators that "fully &lt;mark&gt;funding&lt;/mark&gt; it is critical, in my judgment, to ensuring that Russia's war in Ukraine is a strategic failure for the Kremlin and serves as a powerful lesson to those who might consider following its path."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP WASHINGTON -- Lawmakers said they were prepared to quickly approve another package &lt;mark&gt;funding&lt;/mark&gt; weapons and economic aid for Ukraine, as the U.S. shifted to a longer-term commitment to back Kyiv to fend off Russia's invasion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Republicans said they also are on board, but want Democratic leaders to keep the Ukraine spending package separate from other pending agenda items, such as a stalled package &lt;mark&gt;funding&lt;/mark&gt; Covid-19 vaccines and treatments, which has been caught up in a border-policy dispute.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP WASHINGTON—Lawmakers said they were prepared to quickly approve another package &lt;mark&gt;funding&lt;/mark&gt; weapons and economic aid for Ukraine, as the U.S. shifted to a longer-term commitment to back Kyiv to fend off Russia's invasion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Republicans said they also were on board but wanted Democratic leaders to keep the Ukraine spending package separate from other pending agenda items, such as a stalled package &lt;mark&gt;funding&lt;/mark&gt; Covid-19 vaccines and treatments, which has been caught up in a dispute over border policy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The approval of new aid could be slowed down if Democratic leadership tries to tie the Ukraine &lt;mark&gt;funding&lt;/mark&gt; to Covid aid.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;NS c1711 : Initial Public Offerings | c02 : Corporate Changes | c14 : Stock Listings | c171 : Share Capital | ccat : Corporate/Industrial News | ncolu : Columns | npda : DJ Exclusive Analysis - All | c17 : Corporate &lt;mark&gt;Funding&lt;/mark&gt; | cactio : Corporate Actions | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE saarab : Saudi Arabia | uae : United Arab Emirates | ukrn : Ukraine | asiaz : Asia | eurz : Europe | meastz : Middle East | uk : United Kingdom | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | gulfstz : Persian Gulf Region | wasiaz : Western Asia | weurz : Western Europe IPD Wires IPC 0005.HK PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220425ei4p0015r Page 183 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Politics and Policy SE Politics HD Pandemic Border Policy Could Complicate Covid Relief, Ukraine Bills; Congress returns to face two major &lt;mark&gt;funding&lt;/mark&gt; requests from the Biden administration BY By Eliza Collins and Michelle Hackman WC 1,183 words PD 25 April 2022 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Senate Majority Leader Chuck Schumer (D., N.Y.) had previously said he would like to combine global vaccine &lt;mark&gt;funding&lt;/mark&gt; with Ukraine aid but hasn't detailed what a larger request would include.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The new &lt;mark&gt;funding&lt;/mark&gt; comes after two previous military-aid packages of $800 million each for Ukraine that included heavy artillery, armored personnel carriers and helicopters.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2619</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;LP India's neutrality in the growing confrontation between Russia and the West over Ukraine is causing he&lt;mark&gt;ar&lt;/mark&gt;tburn in Western capitals.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But while disappointment may be justified, undue focus on New Delhi's unwillingness to condemn Moscow or impose sanctions misses an important detail: India's app&lt;mark&gt;ar&lt;/mark&gt;ent forbearance toward Russia is largely symbolic.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As a practical matter, New Delhi is unlikely to help its "special and privileged strategic p&lt;mark&gt;ar&lt;/mark&gt;tner" stave off Western pressure.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Since the conflict in Ukraine began, India has placed orders for at least 40 million b&lt;mark&gt;ar&lt;/mark&gt;rels of Russian oil on the cheap—more than twice as much as it purchased in all of 2021.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As the world's third-l&lt;mark&gt;ar&lt;/mark&gt;gest importer of oil, India could make a big difference for Vladimir Putin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;According to a 2019 Reserve Bank of Indiastudy, every extra doll&lt;mark&gt;ar&lt;/mark&gt; a barrel India pays for oil imports increases the country's budget deficit by $1.25 billion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Though Russian oil may not face official sanctions, it still c&lt;mark&gt;ar&lt;/mark&gt;ries reputational risks, at which private companies spanning insurance to logistics to payments may balk.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"They've tried to mop up some discounted prices on relatively modest contracts," says Ashley Tellis of the C&lt;mark&gt;ar&lt;/mark&gt;negie Endowment for International Peace in a phone interview.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian oil makes up a small fraction of Indian oil imports—only &lt;mark&gt;ar&lt;/mark&gt;ound 2% in 2021.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As Foreign Minister Subrahmanyam Jaishank&lt;mark&gt;ar&lt;/mark&gt;pointed out last month, this is unlikely to change.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Most of Indian energy comes from Gulf nations that &lt;mark&gt;ar&lt;/mark&gt;e friendly to America.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As of 2020, its top three oil suppliers were Iraq, Saudi &lt;mark&gt;Ar&lt;/mark&gt;abia and the United Arab Emirates, while its top gas suppliers were Qatar and the U.S. With access to reliable energy supplies from the Gulf, Indian refiners don't need to turn to faraway Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Indian businesses &lt;mark&gt;ar&lt;/mark&gt;e also far more deeply integrated with the West than with Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;At roughly $150 billion a ye&lt;mark&gt;ar&lt;/mark&gt;, U.S.-India trade alone is more than 12 times as large as Russia-India trade.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some could &lt;mark&gt;ar&lt;/mark&gt;gue that even if New Delhi doesn't have economic incentives to buy up Russian oil, it could still offer Moscow a lifeline as the largest customer for another key Russian export: weapons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A little over a qu&lt;mark&gt;ar&lt;/mark&gt;ter of Russia's arms exports from 2017 through 2021 went to India.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;(The second-place recipient of Russian &lt;mark&gt;ar&lt;/mark&gt;ms, China, accounted for about a fifth.)&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia also offers India its most sophisticated weapons—such as the Sukhoi Su-30 fighter and the S-400 missile defense system—while the West often holds back its newest ge&lt;mark&gt;ar&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's &lt;mark&gt;ar&lt;/mark&gt;ms manufacturers are tightly linked to the government.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Despite all this, India's reliance on Russian &lt;mark&gt;ar&lt;/mark&gt;ms has been declining—down from 69% of Indian arms purchases in 2012-16 to 46% in 2017-21.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's battlefield losses may also force its &lt;mark&gt;ar&lt;/mark&gt;ms producers to focus on replenishing its own stocks over expanding exports.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And though Moscow has been a reliable strategic p&lt;mark&gt;ar&lt;/mark&gt;tner to New Delhi in the past, its growing closeness to Beijing makes it less dependable.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Tellis predicts a continued "gentle decline" in Indian &lt;mark&gt;ar&lt;/mark&gt;ms imports from Russia, at least compared with India's imports from other nations such as the U.S., Israel and France.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Another &lt;mark&gt;ar&lt;/mark&gt;ea of Indian cooperation with Russia is its membership in non-Western groupings such as Brics (Brazil, Russia, India, China, South Africa), RIC (Russia, India, China) and the Shanghai Cooperation Organization.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But these &lt;mark&gt;ar&lt;/mark&gt;e really only talk shops with little policy coherence or influence.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Besides, India's involvement is in l&lt;mark&gt;ar&lt;/mark&gt;ge part meant to ensure that Russia does not draw too close to China, which may be fruitless at this point.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;None of these groupings will materially influence the outcome of the w&lt;mark&gt;ar&lt;/mark&gt; in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia Can't Depend on India Either IN idef : Defense Equipment/Products | iaer : Aerospace/Defense | iindstrls : Industrial Goods NS c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade B&lt;mark&gt;ar&lt;/mark&gt;riers/Restrictions | ncolu : Columns | nedc : Commentaries/Opinions | gcat : Political/General News | gdip : International Relations | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter RE india : India | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | ndelh : New Delhi | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | delhi : Delhi | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | indsubz : Indian Subcontinent | sasiaz : Southern Asia | weurz : Western Europe IPD Opinion | IPC I/ARO PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s008kd Page 3 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Decl&lt;mark&gt;ar&lt;/mark&gt;ations SE Opinion HD Putin Really May Break the Nuclear Taboo in Ukraine; It seems unthinkable, but American leaders' failure to think about it heightens the risk it will happen.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Sometimes a thing keeps nagging &lt;mark&gt;ar&lt;/mark&gt;ound your brain and though you've said it before you have to say it again.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We factor in but do not sufficiently appreciate the real possibility of nucle&lt;mark&gt;ar&lt;/mark&gt;-weapon use by Russia in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And once it st&lt;mark&gt;ar&lt;/mark&gt;ts, it doesn't stop.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD The w&lt;mark&gt;ar&lt;/mark&gt; is in its third month.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Diplomatic solutions &lt;mark&gt;ar&lt;/mark&gt;e less likely than ever; war crimes and atrocities have hardened the Ukrainians, and in any case they're winning and the world is on their side.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;British intelligence this week reported Russia has lost &lt;mark&gt;ar&lt;/mark&gt;ound 15,000 troops, 2,000 armored vehicles and 60 aircraft.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We &lt;mark&gt;ar&lt;/mark&gt;en't worried enough about Russian nuclear use in part because we imagine such a thing as huge missiles with huge warheads launched from another continent and speeding through space.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But the more likely use would be not of big strategic nucle&lt;mark&gt;ar&lt;/mark&gt; weapons but smaller tactical ones on the battlefield.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Such weapons have a shorter range and c&lt;mark&gt;ar&lt;/mark&gt;ry lower-yield warheads.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;America and Russia have rough p&lt;mark&gt;ar&lt;/mark&gt;ity in the number of strategic nuclear weapons, but Russia has an estimated 10 times as many tactical nuclear weapons as the U.S. and delivery systems that range from artillery shells to aircraft.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Why would Vladimir Putin use tactical nucle&lt;mark&gt;ar&lt;/mark&gt; weapons?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To shock and destabilize his advers&lt;mark&gt;ar&lt;/mark&gt;ies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To sc&lt;mark&gt;ar&lt;/mark&gt;e the people of North Atlantic Treaty Organization countries so they'll force their leaders to back away.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To remind the world—and Russians—that he does have milit&lt;mark&gt;ar&lt;/mark&gt;y power.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To avoid a massive and public milit&lt;mark&gt;ar&lt;/mark&gt;y defeat.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Putin talks about nucle&lt;mark&gt;ar&lt;/mark&gt; weapons a lot.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He did it again Wednesday: In a meeting with politicians in St. Petersburg, he said if anyone intervenes in Ukraine and "creates unacceptable threats for us that &lt;mark&gt;ar&lt;/mark&gt;e strategic in nature," the Russian response will be "lightning fast."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It's a tactic: He's trying to sc&lt;mark&gt;ar&lt;/mark&gt;e everybody.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There &lt;mark&gt;ar&lt;/mark&gt;e signs the Russians are deliberately creating a historical paper trail, as if to say they warned us.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Monday Foreign Minister Sergei Lavrov said the risk of nucle&lt;mark&gt;ar&lt;/mark&gt; conflict is "serious" and "should not be underestimated."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;E&lt;mark&gt;ar&lt;/mark&gt;lier, Anatoly Antonov, Russia's ambassador to Washington, sent a formal diplomatic note to the U.S. saying it was inflaming the conflict.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This month President Biden referred to Mr. Putin as a w&lt;mark&gt;ar&lt;/mark&gt; criminal.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In M&lt;mark&gt;ar&lt;/mark&gt;ch Mr. Biden called for regime change; the White House walked it back.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This week Defense Secret&lt;mark&gt;ar&lt;/mark&gt;y Lloyd Austin told reporters the U.S. aim in Ukraine: "We want to see Russia weakened to the degree it can't do the kinds of things it's done in Ukraine."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;What l&lt;mark&gt;ar&lt;/mark&gt;ger strategic vision is the administration acting on?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In my experience with American diplomats, they &lt;mark&gt;ar&lt;/mark&gt;e aware of but don't always grasp the full implications of their opponents' histories.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Putin was a KGB spy who in 1991 saw the Soviet system in which he'd risen crash all &lt;mark&gt;ar&lt;/mark&gt;ound him.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In his 2007 speech to the Munich Security Conference he accused the U.S. of &lt;mark&gt;ar&lt;/mark&gt;rogance, hypocrisy and having created a "unipolar world" with "one center of authority, one center of force, one center of decision making," headed by "one master, one sovereign."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;So let me make an &lt;mark&gt;ar&lt;/mark&gt;gument for my anxieties: For this man, Russia can't lose to the West.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It seems to me he has become more c&lt;mark&gt;ar&lt;/mark&gt;eless, operating with a different historical consciousness.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He launched a world-historic milit&lt;mark&gt;ar&lt;/mark&gt;y invasion that, whatever his geostrategic aims, was shambolic—fully aggressive and confident, yet not realistically thought through.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;His &lt;mark&gt;ar&lt;/mark&gt;my wasn't up to the task.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It seemed thrown together, almost haphaz&lt;mark&gt;ar&lt;/mark&gt;d, certainly not professional.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Rich&lt;mark&gt;ar&lt;/mark&gt;d Haass, president of the Council on Foreign Relations, often notes that Mr. Putin has killed all the institutions in his country, sucked the strength, independence and respectability from them, as dictators do.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;They take out power centers that might threaten them but might also w&lt;mark&gt;ar&lt;/mark&gt;n them of weaknesses in their own governments.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;All dictatorships &lt;mark&gt;ar&lt;/mark&gt;e ultimately self-weakening in that way.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;People who have known Mr. Putin have told me I am wrong in my concern about his potential nucle&lt;mark&gt;ar&lt;/mark&gt; use in that he knows if he makes one move with such a weapon, Moscow will in turn be reduced to a smoking ruin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;No one since 1945, in spite of all the w&lt;mark&gt;ar&lt;/mark&gt;s, has used nuclear weapons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We &lt;mark&gt;ar&lt;/mark&gt;e in the habit, no matter what we acknowledge as a hypothetical possibility, of thinking: It still won't happen, history will proceed as it has in the past.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;They should return to the admirable terseness of the e&lt;mark&gt;ar&lt;/mark&gt;ly days of the invasion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And when you think, think d&lt;mark&gt;ar&lt;/mark&gt;k.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Putin Really May Break the Nucle&lt;mark&gt;ar&lt;/mark&gt; Taboo in Ukraine NS gnuclw : Nuclear Weapons Programs | gvexe : Executive Branch | gpir : Politics/International Relations | gwar : War Crimes | ncolu : Columns | nedc : Commentaries/Opinions | gcat : Political/General News | gcns : National/Public Security | gcrim : Crime/Legal Action | gdef : Armed Forces | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | gvio : Military Action | gweap : Weapons Programs | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter Page 5 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging M&lt;mark&gt;ar&lt;/mark&gt;ket Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD COLUMN IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s008hl Page 6 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;BY By The Editorial Bo&lt;mark&gt;ar&lt;/mark&gt;d WC 502 words PD 29 April 2022 ET 04:25 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Vladimir Putin seems set on a long w&lt;mark&gt;ar&lt;/mark&gt;, and the investment in defeating him will be cheap if it succeeds.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;About $20 billion of the package is e&lt;mark&gt;ar&lt;/mark&gt;marked for military aid, with more for a mix of humanitarian and economic assistance, as well as sanctions enforcement.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD The request includes such crucial Ukrainian needs as "accelerated cyber capabilities and advanced air defense systems"; increased intelligence support; and more "&lt;mark&gt;ar&lt;/mark&gt;tillery, armored vehicles, anti-armor and anti-air capabilities."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Congress can scrutinize and shape the details to ensure the Ukrainians will end up with long-range &lt;mark&gt;ar&lt;/mark&gt;tillery, as well as training on more complex Western systems such as air defenses and unmanned vehicles.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A promising development on that front was this week's meeting at Ramstein Air Base in Germany, where Western countries discussed how better to coordinate milit&lt;mark&gt;ar&lt;/mark&gt;y aid for Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A test will be whether these weapons move into Ukraine at what U.S. Defense Secret&lt;mark&gt;ar&lt;/mark&gt;y Lloyd Austin called "the speed of war."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Stinger anti-aircraft missiles &lt;mark&gt;ar&lt;/mark&gt;e also dwindling.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Refills will take ye&lt;mark&gt;ar&lt;/mark&gt;s, owing to brittle or closed production lines, and better to get started now.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But voters understand these &lt;mark&gt;ar&lt;/mark&gt;e separate matters, and lawmakers can sort out their differences accordingly.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The stakes in Ukraine &lt;mark&gt;ar&lt;/mark&gt;e enormous for U.S. security.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The w&lt;mark&gt;ar&lt;/mark&gt; is in a crucial phase, as Russia tries to expand its control in Ukraine's east and crush the Ukrainian army.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Defeating Mr. Putin's w&lt;mark&gt;ar&lt;/mark&gt; of conquest is still possible, and the West can make the world safer by showing that an alliance of democracies can defeat a marauding dictator.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;NS gweap : Weapons Programs | gcat : Political/General News | gvexe : Executive Branch | gvbod : Government Bodies | gpir : Politics/International Relations | gpol : Domestic Politics | gvcng : Legislative Branch | gvio : Milit&lt;mark&gt;ar&lt;/mark&gt;y Action | ncolu : Columns | nedc : Commentaries/Opinions | gcns : National/Public Security | gdef : Armed Forces | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC G/CNG PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s00911 Page 8 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Politics and Policy SE Politics HD Biden Asks Congress for $33 Billion to Support Ukraine; Package includes $20 billion in milit&lt;mark&gt;ar&lt;/mark&gt;y and security assistance to maintain flow of weapons and ammunition to Kyiv BY By Ken Thomas WC 1,239 words PD 29 April 2022 ET 03:21 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP WASHINGTON—Democratic and Republican lawmakers welcomed President Biden's request for $33 billion to fund weapons and provide longer-term economic and humanit&lt;mark&gt;ar&lt;/mark&gt;ian aid to Ukraine, as the country's conflict with Russia enters its third month.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The proposal, announced by Mr. Biden Thursday, is designed to back Ukraine's w&lt;mark&gt;ar&lt;/mark&gt; effort through the end of September.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SH&lt;mark&gt;AR&lt;/mark&gt;E YOUR THOUGHTS Does the proposed aid package offer the right amount of support for Ukraine?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Congress provided Ukraine e&lt;mark&gt;ar&lt;/mark&gt;lier this year with $13.6 billion in military, humanitarian and economic aid as part of a broader spending bill, covering the first two months of the war.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In his rem&lt;mark&gt;ar&lt;/mark&gt;ks, Mr. Biden said that money was nearly exhausted, requiring Congress to provide more to sustain Ukraine's defenses.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;White House officials said of the $3.5 billion in that initial package devoted to shipping weapons and ammunition to Ukraine's milit&lt;mark&gt;ar&lt;/mark&gt;y, about $250 million remains, making it important for Congress to act quickly.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden, who prep&lt;mark&gt;ar&lt;/mark&gt;ed the proposal after consulting with military and national security advisers, made the request to Congress as the U.S. and European allies prepare for a conflict that could continue for months.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Lawmakers, who returned from recess this week, backed the new proposal and said they were prep&lt;mark&gt;ar&lt;/mark&gt;ed to quickly approve another package of Ukraine aid.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The proposal, described by administration officials, includes, $20.4 billion in milit&lt;mark&gt;ar&lt;/mark&gt;y and security aid, an additional $8.5 billion in economic assistance to help Ukraine respond to the crisis and provide Page 9 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;basic services for its people and another $3 billion in humanit&lt;mark&gt;ar&lt;/mark&gt;ian aid, including efforts to support the nation's wheat crop and food supply.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Administration officials said it would also include "t&lt;mark&gt;ar&lt;/mark&gt;geted funding" of an additional $500 million to address economic disruptions at home and abroad, particularly to help increase the production of crops such as wheat and soybeans.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden said the milit&lt;mark&gt;ar&lt;/mark&gt;y aid "would provide even more artillery, armored vehicles, anti-armored systems, anti-air capabilities that have been used so effectively in the battlefield by Ukrainian warriors."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The House on Thursday voted 417-10 to approve legislation to create a lend-lease agreement designed to speed up the transfer of milit&lt;mark&gt;ar&lt;/mark&gt;y equipment to Ukraine, similar to what the U.S. did with Britain in World War II.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Senate passed the bill e&lt;mark&gt;ar&lt;/mark&gt;lier this month.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Inside the Russian Siege of M&lt;mark&gt;ar&lt;/mark&gt;iupol Recent photos reveal the suffering of residents in the once-thriving Ukrainian city Already, the U.S. has sent nearly $4 billion worth of military equipment to Ukraine this year.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The ge&lt;mark&gt;ar&lt;/mark&gt; has ranged from small drones to helicopters to Javelin anti-armor and Stinger antiaircraft systems, and more recently, heavy artillery, including Howitzers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Additional training, on a rad&lt;mark&gt;ar&lt;/mark&gt; system the U.S. has provided and on armored personnel carriers, is either complete or under way.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Howitzers, rad&lt;mark&gt;ar&lt;/mark&gt; systems, small drones and other weaponry are tailored to the needs of the fight as it begins to unfold in the open terrain in the Donbas region in eastern Ukraine, the official said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Ukraine aid g&lt;mark&gt;ar&lt;/mark&gt;nered broad bipartisan support in Congress, but Republicans have urged Democrats to keep it separate from other spending priorities, such as a package funding Covid-19 vaccines and treatments, which has been stalled by a dispute over border policy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"I don't c&lt;mark&gt;ar&lt;/mark&gt;e how they do it," he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition to the funding request, Mr. Biden is asking Congress to approve a legislative package t&lt;mark&gt;ar&lt;/mark&gt;geting Russian oligarchs, including a measure that would allow forfeited funds to be used to help Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Proposals in the package include creating a criminal offense by making it unlawful for a person to knowingly possess proceeds obtained from corrupt dealings with the Russian government; allowing for the forfeiture of property that Russian olig&lt;mark&gt;ar&lt;/mark&gt;chs use to evade sanctions; adding sanctions evasion to the definition of "racketeering activity" under the Racketeer Influenced and Corrupt Organizations Act, or RICO; and extending the statute of limitations to pursue money laundering prosecutions from five years to 10 years.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden's rem&lt;mark&gt;ar&lt;/mark&gt;ks came as Russia has moved to cut off natural-gas supplies to Poland and Bulgaria.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Natalie Andrews, Gordon Lubold and Alex Le&lt;mark&gt;ar&lt;/mark&gt;y contributed to this article.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Ken Thomas at ken.thomas@wsj.com Biden Asks Congress for $33 Billion to Support Ukraine CO uscong : United States Congress NS gcat : Political/General News | gdev : Development/Humanit&lt;mark&gt;ar&lt;/mark&gt;ian Aid | ghea : Health | gpir : Politics/International Relations | gpol : Domestic Politics | gvcng : Legislative Branch | gvio : Military Action | ncolu : Columns | gsars : Novel Coronaviruses | gweap : Weapons Programs | gcns : National/Public Security | gcold : Respiratory Tract Diseases | gdef : Armed Forces | gdip : International Relations | gmed : Medical Conditions | grisk : Risk News | gspox : Infectious Diseases | gvbod : Government Bodies | ncat : Content Types RE ukrn : Ukraine | usa : United States | eurz : Europe | namz : North America | uk : United Kingdom | usdc : Washington DC | uss : Southern U.S. | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC G/CNG PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s0040h Page 11 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukraine Crisis: Retired M&lt;mark&gt;ar&lt;/mark&gt;ine Is Released in Exchange for a Russian Prisoner BY By Ann M. Simmons and Brett Forrest WC 676 words PD 28 April 2022 SN The Wall Street Journal SC J PG A8 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Trevor Reed, a U.S. citizen and retired M&lt;mark&gt;ar&lt;/mark&gt;ine who has been detained in Russia since 2019, was released in a prisoner swap in a move lauded by Washington at a time when relations between the countries are at a historic low.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian foreign ministry spokeswoman M&lt;mark&gt;ar&lt;/mark&gt;ia Zakharova said Mr. Reed was exchanged for Russian citizen Konstantin Yaroshenko, who was sentenced to 20 years in prison in 2010 for conspiracy to smuggle cocaine into the U.S. TD The release of Mr. Reed, a student at the University of North Texas, who in 2020 was sentenced to nine years in prison after being found guilty of assaulting two police officers, comes as Russia stands at odds with the U.S. and Europe over its invasion of Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We welcome home Trevor Reed and celebrate his return to the family that missed him de&lt;mark&gt;ar&lt;/mark&gt;ly," he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Officials at the U.S. State Dep&lt;mark&gt;ar&lt;/mark&gt;tment said talks to win Mr. Reed's release unfolded over months, starting well before Moscow's broad invasion of Ukraine in February.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Like the absolute top, said Alexey T&lt;mark&gt;ar&lt;/mark&gt;asov, a Houston-based lawyer who represents Mr. Yaroshenko.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Reed family praised Bill Rich&lt;mark&gt;ar&lt;/mark&gt;dson, a former U.S. ambassador to the United Nations and governor of New Mexico who has advocated on behalf of Mr. Reed and Paul Whelan, another retired Marine, of Novi, Mich., who was found guilty of espionage and sentenced in June 2020 to 16 years in prison in a case that also drew U.S. condemnation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Reed's lawyer, Sergey Nikitenkov, said in a phone call Wednesday that the "fact of the exchange does not mean that he agreed with something, signed something about guilt or asked that he wants to be p&lt;mark&gt;ar&lt;/mark&gt;doned or repent of something," he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On one hand he is "a person who was kept in h&lt;mark&gt;ar&lt;/mark&gt;sh conditions. . .he was ill there repeatedly. . .his physical condition is difficult," the lawyer said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Y&lt;mark&gt;ar&lt;/mark&gt;oshenko, a 53-year-old pilot from Rostov-on-Don, in Russia's south, was arrested in Liberia by the U.S. Drug Enforcement Administration and local police.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He was flown to the U.S. and ch&lt;mark&gt;ar&lt;/mark&gt;ged with conspiring to transport South American cocaine from Liberia to the U.S.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He was convicted in Manhattan federal court and sentenced to 20 ye&lt;mark&gt;ar&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Friday, Russia and the U.S. completed a deal to exchange the two detainees, Mr. T&lt;mark&gt;ar&lt;/mark&gt;asov said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Even after the deal was brokered, Mr. Y&lt;mark&gt;ar&lt;/mark&gt;oshenko remained circumspect, his lawyer said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"After 12 ye&lt;mark&gt;ar&lt;/mark&gt;s of incarceration, you'll always take things with a grain of salt," Mr. Tarasov said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A senior U.S. administration official told reporters Wednesday that Mr. Y&lt;mark&gt;ar&lt;/mark&gt;oshenko has "already paid a steep price in the U.S. justice system," adding that he currently is in Russian custody.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Y&lt;mark&gt;ar&lt;/mark&gt;oshenko plans to rejoin his wife, Viktoria, in Rostov-on-Don, his lawyer said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;--- Corrections &amp; Amplifications --- Trevor Reed and Paul Whelan served in the M&lt;mark&gt;ar&lt;/mark&gt;ines.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A Ukraine Crisis &lt;mark&gt;ar&lt;/mark&gt;ticle on Thursday about a prisoner swap with Russia incorrectly said they are retired Marines.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;(WSJ April 29, 2022) License this &lt;mark&gt;ar&lt;/mark&gt;ticle from Dow Jones Reprint Service CO rumfa : Russia Ministry of Foreign Affairs | uafor : Ukraine Ministry of Foreign Affairs NS gdip : International Relations | gdrug : Drug Trafficking/Dealing | gcrim : Crime/Legal Action | gpris : Prisons/Prisoners | gtraff : Trafficking/Smuggling | ncrx : Corrected Items | gcat : Political/General News | gcns : National/Public Security | ghome : Law Enforcement | gpir : Politics/International Relations | ncat : Content Types RE russ : Russia | ukrn : Ukraine | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220428ei4s0000q Page 13 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM World News SE World HD Biden Seeks New Aid for Ukraine as Russia Makes Slow Progress in Seizing East; Congress is asked to provide $33 billion to fund more weapons and provide longer-term economic assistance BY By James M&lt;mark&gt;ar&lt;/mark&gt;son WC 1,674 words PD 29 April 2022 ET 05:07 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP President Biden sent Congress a $33 billion request to fund more weapons and provide longer-term economic assistance for Kyiv, as Russia's milit&lt;mark&gt;ar&lt;/mark&gt;y is gradually seizing more territory in Ukraine's east, pushing south from the city of Izyum with the apparent aim of cutting off Ukrainian forces.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden said Thursday that the $13.6 billion in funding that Congress had initially provided to Ukraine to help cover the first two months of the w&lt;mark&gt;ar&lt;/mark&gt; was nearly depleted and that far more was needed, describing the conflict as being at a pivotal point.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD The push for more Ukraine aid has g&lt;mark&gt;ar&lt;/mark&gt;nered broad bipartisan support in Congress and signals how the U.S. and its European allies are preparing for a longer war that could grind on for months.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Thursday's proposal, as described by administration officials, includes $20.4 billion in milit&lt;mark&gt;ar&lt;/mark&gt;y and security aid.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian forces have seized villages south of Izyum in recent days and &lt;mark&gt;ar&lt;/mark&gt;e gathering for a fresh thrust after Ukraine halted their progress, Ukraine's military said Thursday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia at the end of M&lt;mark&gt;ar&lt;/mark&gt;ch switched its immediate objectives from taking Kyiv and ousting the elected government to seizing chunks of territory in Ukraine's east.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The negative consequences of Russia's aggression against Ukraine and against democracy &lt;mark&gt;ar&lt;/mark&gt;e so large-scale for the whole world that, in comparison with them, this support from the United States is necessary," Mr. Zelensky said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Lawmakers in Washington have said that they have been prep&lt;mark&gt;ar&lt;/mark&gt;ed to approve another package of military, humanitarian and economic aid for Ukraine quickly, but that they have Page 14 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The House on Thursday approved legislation to create a lend-lease agreement designed to speed up the transfer of milit&lt;mark&gt;ar&lt;/mark&gt;y equipment to Ukraine, similar to what the U.S. did with Britain during World War II.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Senate passed the bill e&lt;mark&gt;ar&lt;/mark&gt;lier this month.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Oleksiy &lt;mark&gt;Ar&lt;/mark&gt;estovych, a Ukrainian presidential adviser, said that by the end of May, arms would have arrived in sufficient quantities to change the balance of forces on the front.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An embrace Thursday at a reception point in Zaporizhzhia, Ukraine, for people displaced by the w&lt;mark&gt;ar&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;PHOTO: Manu Brabo for The Wall Street Journal Ukrainian girls upon their &lt;mark&gt;ar&lt;/mark&gt;rival at the reception point in Zaporizhzhia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;PHOTO: Manu Brabo for The Wall Street Journal The West is funneling &lt;mark&gt;ar&lt;/mark&gt;ms, such as artillery and antiaircraft guns, and ammunition to Ukraine to help it defend itself in a new phase of the war, in which heavy weapons are expected to play a more important role.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some of the systems &lt;mark&gt;ar&lt;/mark&gt;e new to Ukrainians and require training and integrating into Kyiv's military.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia has quickly thrown together the remnants of units that were decimated in fighting &lt;mark&gt;ar&lt;/mark&gt;ound Kyiv in the first weeks of the war and sent them into fighting in the east.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"They have not taken enough time to rebuild forces wrecked in fighting &lt;mark&gt;ar&lt;/mark&gt;ound Kyiv," said Frederick Kagan, senior fellow at the American Enterprise Institute, a think tank in Washington.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"They &lt;mark&gt;ar&lt;/mark&gt;e hurling them into combat as they become available."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian officials say they intend to push Ukrainian forces out of the Donetsk and Luhansk regions in eastern Ukraine, which the Kremlin recognized as independent in Febru&lt;mark&gt;ar&lt;/mark&gt;y.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Moscow says the invasion, which it calls a special milit&lt;mark&gt;ar&lt;/mark&gt;y operation, is going according to plan.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. &lt;mark&gt;Ar&lt;/mark&gt;estovych, the Ukrainian presidential adviser, said that Russia could achieve further advances where it has concentrated artillery and aerial power for bombardments, but that Page 15 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;PHOTO: Justyna Mielnikiewicz/MAPS for The Wall Street Journal Russia's milit&lt;mark&gt;ar&lt;/mark&gt;y has so far had little success breaching the defensive line that Ukraine's army set up along the front line of an eight-year conflict with Russian proxies in eastern Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But Russia has made progress striking from Russian territory in the north, where Ukrainian defenses were less prep&lt;mark&gt;ar&lt;/mark&gt;ed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Russian advances south of Izyum appe&lt;mark&gt;ar&lt;/mark&gt; aimed at cutting off Ukrainian troops in the cities of Slovyansk and Kramatorsk.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Another Russian advance f&lt;mark&gt;ar&lt;/mark&gt;ther east, toward the city of Lyman, is attempting to encircle the cities of Severodonetsk and Lysychansk.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Analysts said it was as yet uncle&lt;mark&gt;ar&lt;/mark&gt; whether Russia would seek a large encirclement of Ukrainian troops or smaller pockets.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's milit&lt;mark&gt;ar&lt;/mark&gt;y surrounded large cities such as Chernihiv in northern Ukraine in March but failed to capture them.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's Defense Ministry said Thursday that its forces shot down a Ukrainian Su-24 aircraft ne&lt;mark&gt;ar&lt;/mark&gt; Mykolaivka in eastern Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It said that Russia's air force struck 67 Ukrainian milit&lt;mark&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Platform</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>14</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Telecom Infra</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The company generates almost twice as much revenue as Facebook owner Meta &lt;mark&gt;Platform&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He used the site to mock Twitter's top lawyer over the &lt;mark&gt;platform&lt;/mark&gt;'s alleged political bias, triggering a backlash among the company's employees.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i3302 : Computers/Consumer Electronics | i64 : Retail/Wholesale | i656000301 : Etailing | i97411 : Broadcasting | i9741109 : Cable Broadcasting | iecom : E-commerce | iint : Online Service Providers | imed : Media/Entertainment | iretail : Retail | isocial : Social Media &lt;mark&gt;Platform&lt;/mark&gt;s/Tools | itech : Technology NS gcat : Political/General News | gvexe : Executive Branch | naudvl : Audio-visual Links | ntra : Transcripts | gdip : International Relations | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | niwe : IWE Filter RE ukrn : Ukraine | usa : United States | eurz : Europe | namz : North America | uk : United Kingdom | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD SYND Page 53 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;France's Total Takes $4.1 Billion Charge Related to Russia Sanctions CO bp : BP PLC | fdp : TotalEnergies SE | gzprm : Gazprom PJSC IN ifosfl : Fossil Fuels | i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | i1300004 : Liquefied/Compressed Gas | i5020022 : Oil Production &lt;mark&gt;Platform&lt;/mark&gt; Construction | iindstrls : Industrial Goods | i14 : Downstream Operations | i502 : Heavy Construction | iconst : Construction | icre : Real Estate/Construction | iioil : Integrated Oil/Gas NS c24 : Capacity/Facilities | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | gcat : Political/General News | gdip : International Relations | ncat : Content Types RE russ : Russia | arct : Arctic | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | fra : France | namz : North America | uk : United Kingdom | ukrn : Ukraine | usa : United States | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | medz : Mediterranean IPD Wires IPC BP PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220427ei4r006sh Page 72 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Elon Musk says he is aiming to make Twitter a more freewheeling &lt;mark&gt;platform&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Elon Musk says that as part of his takeover of Twitter, he plans to adopt a more hands-off approach to speech on the &lt;mark&gt;platform&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And Ford, Boeing, T-Mobile, and Facebook owner Meta &lt;mark&gt;Platform&lt;/mark&gt;s are expected to report earnings today.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO apolmn : Apollo Global Management Inc. | boeing : The Boeing Company | matl : Mattel Inc | vcestr : T-Mobile US Inc. | twnit : Twitter Inc. | dbptel : Deutsche Telekom AG IN i364 : Aerospace Products/Parts | i3640010 : Civil Aircraft | i4941 : Dolls/Toys/Games | i7902 : Telecommunication Services | i79022 : Wireless Telecommunications Services | i81502 : Trusts/Funds/Financial Vehicles | i8150203 : Private Equity | iaer : Aerospace/Defense | ialtinv : Alternative Investments | icnp : Consumer Goods | ifinal : Financial Services | iindstrls : Industrial Goods | iint : Online Service Providers | iinv : Investing/Securities | ilgood : Leisure/Travel Goods | imed : Media/Entertainment | isocial : Social Media &lt;mark&gt;Platform&lt;/mark&gt;s/Tools | itech : Technology NS naudvl : Audio-visual Links | ntra : Transcripts | gcrim : Crime/Legal Action | ncolu : Columns | gcat : Political/General News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | niwe : IWE Filter Page 106 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Twitter co-founder and former CEO, Jack Dorsey, tweeted that he endorsed Musk's goal of creating a &lt;mark&gt;platform&lt;/mark&gt; that is "maximally trusted and broadly inclusive."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN ivicu : Virtual Currencies/Cryptocurrencies | i3302 : Computers/Consumer Electronics | i831 : Financial Investment Services | i8394 : Computer Services | icph : Computer Hardware | ifinal : Financial Services | iint : Online Service Providers | imed : Media/Entertainment | itech : Technology | ibcs : Business/Consumer Services | ibnk : Banking/Credit | icomp : Computing | ifmsoft : Financial Technology | iinv : Investing/Securities | i330202 : Software | i3302021 : Applications Software | i8395464 : Internet Search Engines | isocial : Social Media &lt;mark&gt;Platform&lt;/mark&gt;s/Tools NS naudvl : Audio-visual Links | ntra : Transcripts | c152 : Earnings Projections | ccat : Corporate/Industrial News | gpir : Politics/International Relations | gretir : Retirement Planning | ncolu : Columns | gcat : Political/General News | c15 : Financial Performance | gpersf : Personal Finance | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | niwe : IWE Filter Page 154 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"This has definitely been a passion project for all of us, and we feel incredibly lucky to use our &lt;mark&gt;platform&lt;/mark&gt; for this," Bekkerman says.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i3302 : Computers/Consumer Electronics | i330202 : Software | i3302021 : Applications Software | i351 : Motor Vehicles | i35104 : Alternative Fuel Vehicles | i41 : Food/Beverages | i428 : Soft Drinks | iaut : Automotive | ibevrge : Beverages/Drinks | icnp : Consumer Goods | icomp : Computing | igamsof : Games Software | iint : Online Service Providers | ilgood : Leisure/Travel Goods | imed : Media/Entertainment | inonal : Non-alcoholic Beverages/Drinks | isocial : Social Media &lt;mark&gt;Platform&lt;/mark&gt;s/Tools | itech : Technology NS gvexe : Executive Branch | naudvl : Audio-visual Links | ntra : Transcripts | gpir : Politics/International Relations | ncolu : Columns | gcat : Political/General News | gpol : Domestic Politics | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | niwe : IWE Filter Page 195 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Sunday, Mr. Zelensky, who is Jewish, posted a video message from Kyiv's Saint-Sophia Cathedral on the Telegram social-media &lt;mark&gt;platform&lt;/mark&gt;, saying Ukraine on Easter asks "God for great grace to make our great dream come true -- this is another great day -- the day when great peace will come to Ukraine."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;By combing through witness posts on social media and messaging &lt;mark&gt;platform&lt;/mark&gt;s such as Telegram, and cross-referencing those with satellite images and Google Earth maps, the groups have each documented damage at more than 100 sites, ranging from power plants to military installations and water-treatment plants.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Cyber</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>49</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;TD The request includes such crucial Ukrainian needs as "accelerated &lt;mark&gt;cyber&lt;/mark&gt; capabilities and advanced air defense systems"; increased intelligence support; and more "artillery, armored vehicles, anti-armor and anti-air capabilities."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Ed McNicholas, co-leader of the &lt;mark&gt;cyber&lt;/mark&gt;security practice at law firm Ropes &amp; Gray LLP, said ensuring that ransomware payments aren't going to sanctioned Russian entities has gotten "much harder" recently.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Traditionally, the list of entities under sanction has been mostly relevant to those in financial services, but recent surges in ransomware attacks have meant that &lt;mark&gt;cyber&lt;/mark&gt;security experts have had to do their best to ensure ransom payments aren't going to blacklisted entities.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The work of staying up to date has become more intense as the U.S. has steadily piled on sanctions, said Bill Siegel, the chief executive of Coveware Inc., which helps companies handle negotiations and other work associated with attempts at &lt;mark&gt;cyber&lt;/mark&gt; extortion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Richard Vanderford at richard.vanderford@wsj.com Russia Sanctions Complicate Paying Ransomware Hackers CO ropgry : Ropes &amp; Gray LLP IN ibcs : Business/Consumer Services | i835 : Legal Services NS gcvir : Malware | gext : Extortion/Blackmail | gesanc : International Sanctions | gcrim : Crime/Legal Action | ghack : &lt;mark&gt;Cyber&lt;/mark&gt;crime/Hacking | gpir : Politics/International Relations | ncolu : Columns | gcat : Political/General News | gdip : International Relations | gfinc : Financial Crime | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Wires IPC I/BCS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220428ei4s00107 Page 35 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP WASHINGTON -- At least six hacking groups linked to the Russian government have attempted hundreds of &lt;mark&gt;cyber&lt;/mark&gt;attacks in Ukraine since Russia's invasion in February, including dozens intended to destroy computer systems, according to new research from Microsoft Corp. Moscow's hacking activity amounts to a relentless onslaught of disruptive and destructive operations, often tactically paired with kinetic military maneuvers, in addition to traditional cyber espionage, Microsoft said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Though many attacks have been successful, Ukraine's &lt;mark&gt;cyber&lt;/mark&gt; defenses have repelled others, and Ukraine has so far largely evaded the kind of debilitating or nationwide cyber disruption that Western officials feared at the onset of the war.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In a briefing with reporters on Wednesday, Victor Zhora, the deputy chief of Ukraine's &lt;mark&gt;cyber&lt;/mark&gt; defense agency, said he thought Russia had activated its full offensive cyber capabilities against Ukraine as the war has dragged on and was unlikely to deploy "completely new" or unexpected cyber weapons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"But at the same time. . .I suppose that we are completely able to resist, in &lt;mark&gt;cyber&lt;/mark&gt;war and the war generally."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Moscow has routinely denied allegations of &lt;mark&gt;cyber&lt;/mark&gt;attacks against other countries and said it has been victimized recently by cyberattacks launched by Western powers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The new findings from Microsoft, published Wednesday, largely support what &lt;mark&gt;cyber&lt;/mark&gt;security experts, large technology companies and Western intelligence officials have observed so far: While large-scale, knockout blows have eluded them or been thwarted, Russian hackers have been highly active in the Ukraine conflict, focusing much of their efforts on more limited, tactical operations to support their military engagements.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Others have accomplished little more than keeping Ukraine's &lt;mark&gt;cyber&lt;/mark&gt;-defenders busy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In contrast to the confidence expressed by Mr. Zhora of the Kyiv government, U.S. and Western intelligence officials have said they believe Russia has the capabilities and resources to deliver far-more-damaging &lt;mark&gt;cyber&lt;/mark&gt;attacks against Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Microsoft said it had observed nearly 40 destructive &lt;mark&gt;cyber&lt;/mark&gt;attacks in Ukraine on hundreds of systems.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO mcrost : Microsoft Corporation IN i3302 : Computers/Consumer Electronics | i330202 : Software | i3302021 : Applications Software | icomp : Computing | itech : Technology NS ghack : &lt;mark&gt;Cyber&lt;/mark&gt;crime/Hacking | gcrim : Crime/Legal Action | gdip : International Relations | gvio : Military Action | gcat : Political/General News | gcns : National/Public Security | gpir : Politics/International Relations | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC MEN PUB Dow Jones &amp; Company, Inc. AN Document J000000020220428ei4s0000v Page 65 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM World News SE World HD Hackers Linked to Russia Launched Hundreds of &lt;mark&gt;Cyber&lt;/mark&gt;attacks in Ukraine, Microsoft Says; Flurry of malicious activity often coincides with Russian military operations, researchers say BY By Dustin Volz WC 922 words PD 27 April 2022 ET 22:30 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;PHOTO: The Wall Street Journal TD WASHINGTON—At least six hacking groups linked to the Russian government have attempted hundreds of &lt;mark&gt;cyber&lt;/mark&gt;attacks in Ukraine since Russia's invasion in February, including dozens intended to destroy computer systems, according to new research from Microsoft Corp. Moscow's hacking activity amounts to a relentless onslaught of disruptive and destructive operations, often tactically paired with kinetic military maneuvers, in addition to traditional cyber espionage, Microsoft said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Though many attacks have been successful, Ukraine's &lt;mark&gt;cyber&lt;/mark&gt; defenses have repelled others, and Ukraine has so far largely evaded the kind of debilitating or nationwide cyber disruption that Western officials fearedat the onset of the war.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In a briefing with reporters Wednesday, Victor Zhora, the deputy chief of Ukraine's &lt;mark&gt;cyber&lt;/mark&gt; defense agency, said he thought Russia had activated its full offensive cyber capabilities against Ukraine as the war has dragged on and was unlikely to deploy "completely new" or unexpected cyber weapons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"But at the same time… I suppose that we are completely able to resist, in &lt;mark&gt;cyber&lt;/mark&gt;war and the war generally."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Moscow has routinely denied allegations of &lt;mark&gt;cyber&lt;/mark&gt;attacks against other countries and said it has been victimized recently by cyberattacks launched by Western powers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The new findings from Microsoft, published Wednesday, largely support what &lt;mark&gt;cyber&lt;/mark&gt;security experts, large technology companies and Western intelligence officials have observed so far: While large-scale, knockout blows have eluded them or been thwarted, Russian hackers have been highly active in the Ukraine conflict, focusing much of their efforts on more limited, tactical operations to support their military engagements.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Others have accomplished little more than keeping Ukraine's &lt;mark&gt;cyber&lt;/mark&gt;-defenders busy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In some cases, Russia's &lt;mark&gt;cyber&lt;/mark&gt;attacks appeared "strongly correlated and sometimes directly timed with its kinetic military operations," Mr. Burt said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He cited an example of &lt;mark&gt;cyber&lt;/mark&gt;attacks directed at a major broadcasting company, Ukrtelecom, on March 1, the same day that Russian forces launched a missile strike on a TV tower in Kyiv.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In contrast to the confidence expressed by Mr. Zhora of the Ukrainian government, U.S. and Western intelligence officials have said they believe Russia has the capabilities and resources to deliver far more damaging &lt;mark&gt;cyber&lt;/mark&gt;attacks against Ukraine than what has been seen so far.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some have said Russia's initial miscalculation that Kyiv would fall in a matter of days contributed to an early reticence to launch &lt;mark&gt;cyber&lt;/mark&gt;attacks against critical infrastructure that could severely cripple daily life in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Microsoft said it had observed nearly 40 destructive &lt;mark&gt;cyber&lt;/mark&gt;attacks in Ukraine on hundreds of systems.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Hackers Linked to Russia Launched Hundreds of &lt;mark&gt;Cyber&lt;/mark&gt;attacks in Ukraine, Microsoft Says CO mcrost : Microsoft Corporation IN i3302 : Computers/Consumer Electronics | i330202 : Software | icph : Computer Hardware | iint : Online Service Providers | itech : Technology | icomp : Computing | i3302021 : Applications Software NS ghack : Cybercrime/Hacking | ncolu : Columns | nimage : Images | gcat : Political/General News | gcrim : Crime/Legal Action | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | russ : Russia | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe Page 82 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Despite its popularity, the SWIFT system is archaic, inflexible, and slow, and it has lately been prone to &lt;mark&gt;cyber&lt;/mark&gt;attacks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP &lt;mark&gt;Cyber&lt;/mark&gt;attacks on three European wind-energy companies since the start of the war in Ukraine have raised concerns that hackers sympathetic to Russia are trying to cause mayhem in a sector set to benefit from efforts to lessen reliance on Russian oil and gas.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The companies attacked haven't publicly attributed the hacks to a particular criminal group or country and Russia has consistently denied it launches &lt;mark&gt;cyber&lt;/mark&gt;attacks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Serious &lt;mark&gt;cyber&lt;/mark&gt;attacks on industrial equipment aren't common and take significant knowledge to prepare, security experts say.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Cyber&lt;/mark&gt;security experts working with Deutsche Windtechnik are investigating whether the ransomware attack used Conti malware, Mr. Brandt said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;U.S. utilities aiming to provide alternative energy to Europe have also been targets, said Jim Guinn, who leads consulting firm Accenture PLC's global &lt;mark&gt;cyber&lt;/mark&gt;security business for energy, utilities, chemicals and mining.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A hacker who manages to infect the industrial equipment that controls wind turbines could manipulate the machines' brakes to stop power production, said Trond Solbert, managing director for &lt;mark&gt;cyber&lt;/mark&gt;security at Norwegian risk-management company DNV GL.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service IN iwind : Wind Energy | i163 : Renewable Energy Generation | i32 : Machinery | iindstrls : Industrial Goods | i1 : Energy | i16 : Electricity/Gas Utilities | i16101 : Electric Power Generation | ieutil : Electric Utilities | iutil : Utilities NS ghack : &lt;mark&gt;Cyber&lt;/mark&gt;crime/Hacking | gcvir : Malware | gvio : Military Action | gcrim : Crime/Legal Action | c12 : Corporate Crime/Legal Action | neqac : Equities Asset Class News | ccat : Corporate/Industrial News | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | eurz : Europe | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | ussrz : CIS Countries IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220426ei4q0000x Page 162 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Best Practices SE Advisor Center HD Ukraine War Has Increased &lt;mark&gt;Cyber&lt;/mark&gt; Risks for Advisors.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The Russia-Ukraine war has resulted in increased &lt;mark&gt;cyber&lt;/mark&gt;security threats that directly impact financial advisors.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Cyber&lt;/mark&gt; warfare has already led to an increase in hacking and the introduction of malware to systems of organizations beyond Ukraine and Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia has launched &lt;mark&gt;cyber&lt;/mark&gt;attacks against Ukraine, and Ukraine in turn has unleashed its "volunteer IT army" to fight back.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We have seen such &lt;mark&gt;cyber&lt;/mark&gt; collateral damage before.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The standard of liability is failure to take reasonable steps to protect investor information, and "reasonable" is defined by the needs of the circumstances of the current &lt;mark&gt;cyber&lt;/mark&gt; environment of elevated risk.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The FBI and CISA (&lt;mark&gt;Cyber&lt;/mark&gt;security and Infrastructure Agency) issued ajoint warning at the start of the war about potential cyber collateral damage from the Ukraine conflict, and those warnings comprise important safeguards all advisors should take now.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Documentation of the following safeguards can reduce legal risk but also business risk that could arise from loss of the advisor's reputation and the loss of confidence of investors following a successful &lt;mark&gt;cyber&lt;/mark&gt;attack: * Implement Multi-Factor Authentication (MFA), in which login requires entry of a code sent to a smartphone) for access to all systems with investor information, including email.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Kenneth N. Rashbaum is a partner at Barton LLP where he advises multinational corporations, financial services organizations, life sciences organizations, and other businesses that collect, use, and share electronic information in the areas of privacy and &lt;mark&gt;cyber&lt;/mark&gt;security.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine War Has Increased &lt;mark&gt;Cyber&lt;/mark&gt; Risks for Advisors.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;NS ghack : &lt;mark&gt;Cyber&lt;/mark&gt;crime/Hacking | gdatap : Privacy Issues/Information Security | gcvir : Malware | gcrim : Crime/Legal Action | ncolu : Columns | gcat : Political/General News | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Advisor POV IPC G/FBI PUB Dow Jones &amp; Company, Inc. AN Document BON0000020220425ei4p002mh Page 192 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Over that time, the points of friction (Serbia, Syria, Iraq, Snowden, Magnitsky, Navalny, and &lt;mark&gt;cyber&lt;/mark&gt;attacks) quickly overwhelmed any fragile grounds for cooperation (tentative foreign investment, Afghanistan, and space).&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NFT</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Decentralized Finance/Marketplaces</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;CO rsneft : Rosneft Oil Company OJSC | trfig : Trafigura Beheer BV | ros&lt;mark&gt;nft&lt;/mark&gt; : Rosneftegaz Page 23 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO rsneft : Rosneft Oil Company OJSC | ros&lt;mark&gt;nft&lt;/mark&gt; : Rosneftegaz IN ifosfl : Fossil Fuels | i1 : Energy | i1300006 : Pipeline Transportation | iioil : Integrated Oil/Gas | i13 : Crude Oil/Natural Gas Upstream Operations | imidstr : Oil/Natural Gas Midstream Operations NS gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | neqac : Equities Asset Class News | m143 : Energy Markets | e51 : Trade/External Payments | ecat : Economic News | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | m14 : Commodity Markets | mcat : Commodity/Financial Market News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220427ei4r0000x Page 123 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO rsneft : Rosneft Oil Company OJSC | ros&lt;mark&gt;nft&lt;/mark&gt; : Rosneftegaz IN ifosfl : Fossil Fuels | i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | i1300002 : Oil Exploration | iexplo : Natural Gas/Oil Exploration | iioil : Integrated Oil/Gas NS gesanc : International Sanctions | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | m14 : Commodity Markets | mcat : Commodity/Financial Market News | ncolu : Columns | gcat : Political/General News | m143 : Energy Markets | gdip : International Relations | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE ussrz : CIS Countries | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ukrn : Ukraine | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC GAZP.RS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220426ei4q004ph Page 130 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>cryptocurrency</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Decentralized Finance/Marketplaces</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;FinCEN in March warned financial institutions to beware of Russia-linked ransomware attacks, and OFAC earlier this month sanctioned a "darknet" market and &lt;mark&gt;cryptocurrency&lt;/mark&gt; exchange suspected of involvement in ransomware payments.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Chamberlain, a former investment banker who has run LME since 2017, had said in January that he would depart at the end of April to run a &lt;mark&gt;cryptocurrency&lt;/mark&gt; startup.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The move suggests &lt;mark&gt;cryptocurrency&lt;/mark&gt; investing is moving further into the mainstream, though it remains to be seen whether employers will embrace it for their workers.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>crypto</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Decentralized Finance/Marketplaces</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;FinCEN in March warned financial institutions to beware of Russia-linked ransomware attacks, and OFAC earlier this month sanctioned a "darknet" market and &lt;mark&gt;crypto&lt;/mark&gt;currency exchange suspected of involvement in ransomware payments.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Chamberlain, a former investment banker who has run LME since 2017, had said in January that he would depart at the end of April to run a &lt;mark&gt;crypto&lt;/mark&gt;currency startup.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Dave Sebastian at dave.sebastian@wsj.com London Metal Exchange CEO Matthew Chamberlain to Stay, a Reversal From Planned Departure CO hkexch : Hong Kong Exchanges and Clearing Limited IN i2114 : Copper Ore/Nickel Ore Mining | i22 : Primary Metals | i224 : Non-ferrous Metals | i831 : Financial Investment Services | i8394 : Computer Services | ibnk : Banking/Credit | ifinal : Financial Services | iinv : Investing/Securities | itech : Technology | imet : Mining/Quarrying | ivicu : Virtual Currencies/&lt;mark&gt;Crypto&lt;/mark&gt;currencies | i211 : Metal Ore Mining | ibasicm : Basic Materials/Resources | ibcs : Business/Consumer Services | ifmsoft : Financial Technology | infmore : Non-ferrous Metal Ore Mining | i83106 : Securities/Commodity Exchange Activities NS cslmc : Senior Level Management | m142 : Metals Markets | mnonfr : Non-ferrous Metals Markets | mnickl : Nickel Markets | c41 : Management | ccat : Corporate/Industrial News | m14 : Commodity Markets | mcat : Commodity/Financial Market News | ncolu : Columns | reqris : Suggested Reading Investing/Securities | reqrmm : Suggested Reading Metals/Mining | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE china : China | ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC 0388.HK PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220427ei4r001b9 Page 90 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The move suggests &lt;mark&gt;crypto&lt;/mark&gt;currency investing is moving further into the mainstream, though it remains to be seen whether employers will embrace it for their workers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN ivicu : Virtual Currencies/&lt;mark&gt;Crypto&lt;/mark&gt;currencies | i3302 : Computers/Consumer Electronics | i831 : Financial Investment Services | i8394 : Computer Services | icph : Computer Hardware | ifinal : Financial Services | iint : Online Service Providers | imed : Media/Entertainment | itech : Technology | ibcs : Business/Consumer Services | ibnk : Banking/Credit | icomp : Computing | ifmsoft : Financial Technology | iinv : Investing/Securities | i330202 : Software | i3302021 : Applications Software | i8395464 : Internet Search Engines | isocial : Social Media Platforms/Tools NS naudvl : Audio-visual Links | ntra : Transcripts | c152 : Earnings Projections | ccat : Corporate/Industrial News | gpir : Politics/International Relations | gretir : Retirement Planning | ncolu : Columns | gcat : Political/General News | c15 : Financial Performance | gpersf : Personal Finance | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | niwe : IWE Filter Page 154 of 240 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Startup</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Digital investment</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Recently, devices from U.S. &lt;mark&gt;startup&lt;/mark&gt;s increasingly have been used by Ukrainians in search-and-rescue efforts and other aspects of the country's defense.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Recently, devices from U.S. &lt;mark&gt;startup&lt;/mark&gt;s have increasingly been used by Ukrainians in search-and-rescue efforts and other aspects of the country's defense.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Chamberlain, a former investment banker who has run LME since 2017, had said in January that he would depart at the end of April to run a cryptocurrency &lt;mark&gt;startup&lt;/mark&gt;.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>25</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;When Mr. McGurk made an unannounced trip in February last year to lobby for the release of Prince Mohammed's uncle and cousin, who had been detained for allegedly pl&lt;mark&gt;ott&lt;/mark&gt;ing a coup, he was rebuffed, Saudi officials said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;So far, Russian oligarchs—whose sleek megayachts were once Biennale fixtures—haven't been sp&lt;mark&gt;ott&lt;/mark&gt;ed in town, she said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Many of the benefits flowed to companies' b&lt;mark&gt;ott&lt;/mark&gt;om lines: In the U.S. for example, after-tax corporate profits as a percentage of gross domestic product went from 5% in 1990 to 10.5% last year.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM CFO Journal SE C Suite HD Lack of Access Could Hinder Audits of Companies With Ties to Russia; Auditors are worried they may have sp&lt;mark&gt;ott&lt;/mark&gt;y access to information or insufficient evidence to support a company's financials BY By Mark Maurer WC 1,098 words PD 15 April 2022 ET 15:00 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;They will have to study companies' exposure to new risks, for example, boyc&lt;mark&gt;ott&lt;/mark&gt;s of suppliers, suspended sales to certain customers or halted investments in Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In his nightly address, Ukrainian President Volodymyr Zelensky recognized Ukrainians of various professions who have fought Russian forces, including "those who have shown that Russian ships can go…to the b&lt;mark&gt;ott&lt;/mark&gt;om only."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Companies are always reluctant to take a hit to the b&lt;mark&gt;ott&lt;/mark&gt;om line," said D. Larry Crumbley, an accounting professor at Texas A&amp;M University Some companies are disposing of their Russian assets, rather than waiting.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;These atrocities, in fact, resemble Russia's continuing campaign since 2014 to eliminate Tatar traces in occupied Crimea with the aim of eliminating any evidence of the &lt;mark&gt;Ott&lt;/mark&gt;oman Empire.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Greg Abb&lt;mark&gt;ott&lt;/mark&gt; plans to halt police inspections on one bridge linking the city of Laredo with Mexico.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In Texas, Governor Greg Abb&lt;mark&gt;ott&lt;/mark&gt; says he will halt state police inspections of commercial trucks on one of the bridges linking the city of Laredo with Mexico.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Abb&lt;mark&gt;ott&lt;/mark&gt; said the inspections would continue on the state's other international bridges.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;When questioned by Sen. Tom C&lt;mark&gt;ott&lt;/mark&gt;on (R., Ark.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The oil-and-gas industry particularly relies on the aircraft for new drilling projects, said Justin Lancaster, group commercial director at Air Charter Service Ltd. That threatens b&lt;mark&gt;ott&lt;/mark&gt;lenecks in the coming months amid today's higher prices, he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Less trade is one more reason to expect global growth to thr&lt;mark&gt;ott&lt;/mark&gt;le way back this year," said Mark Zandi, chief economist at Moody's Analytics.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The oil-and-gas industry particularly relies on the aircraft for new drilling projects, said Justin Lancaster, group commercial director at Air Charter Service Ltd. That threatens b&lt;mark&gt;ott&lt;/mark&gt;lenecks in the coming months amid today's higher prices, he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Finance SE Markets HD Russia's Oil Industry, Linchpin of Economy, Feels Sting of Ukraine War Disruptions; Storage facilities are filling up, refineries are cutting output and crude-oil wells are thr&lt;mark&gt;ott&lt;/mark&gt;ling back production BY By Joe Wallace and Anna Hirtenstein WC 1,190 words PD 14 April 2022 ET 01:55 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Most pig iron is produced in blast furnaces that are heated with coking coal, a type of processed coal that burns h&lt;mark&gt;ott&lt;/mark&gt;er and more efficiently than regular coal.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Those who have g&lt;mark&gt;ott&lt;/mark&gt;en out of Russia are open about this.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The company's decision to stick to its Russia business has sparked a boyc&lt;mark&gt;ott&lt;/mark&gt; campaign in other markets, particularly Poland, where demonstrations outside Leroy Merlin outlets take place every weekend.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Most pig iron is produced in blast furnaces that are heated with coking coal, a type of processed coal that burns h&lt;mark&gt;ott&lt;/mark&gt;er and more efficiently than regular coal.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The company's decision to stick to its Russia business has sparked a boyc&lt;mark&gt;ott&lt;/mark&gt; campaign in other markets, particularly Poland, where demonstrations outside Leroy Merlin outlets take place every weekend.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It has also destroyed packaging and b&lt;mark&gt;ott&lt;/mark&gt;ling factories.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine is sitting on years' worth of sunflower oil that it can no longer b&lt;mark&gt;ott&lt;/mark&gt;le, and warehouses full of grain that cannot be processed into cereal, Mr. Kachka said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Nestlé SA has donated instant noodles, baby formula, pet food and b&lt;mark&gt;ott&lt;/mark&gt;led water, while U.S. giants General Mills Inc. and Smithfield Foods Inc. have also sent food.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Polusytok pointed to boxes of canned food from Italy and breakfast bars from Germany, alongside other parcels from the United Arab Emirates and Poland, and stacks of b&lt;mark&gt;ott&lt;/mark&gt;led water.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>100</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;NS groyal : Royal Families | gdip : International Relations | gcat : Political/General News | gvio : Military Action | ccat : Corporate/Industrial News | gcns : National/Public Security | gpir : Politics/International Relations | ncolu : Columns | nimage : Images | npda : DJ Exclusive Analysis - All | c21 : Output/Production | cexpro : Products/Services | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters RE saarab : Saudi Arabia | usa : United States | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | israel : Israel | meastz : Middle East | namz : North America | russ : Russia | uk : United Kingdom | ukrn : Ukraine | usdc : Washington DC | uss : Southern U.S. | ussrz : CIS Countries | yemar : Yemen | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | gulfstz : Persian Gulf Region | medz : Mediterranean | wasiaz : Western Asia | weurz : Western Europe IPD Wires IPC G/CIA PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220419ei4j002s1 Page 6 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;How to Deter Nuclear War in Ukraine CO unscou : United Nations Security Council NS gdip : International Relations | gnuclw : Nuclear Weapons Programs | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | gvio : Military Action | ncolu : Columns | nedc : Commentaries/Opinions | gcat : Political/General News | gdef : Armed Forces | grisk : Risk News | gweap : Weapons Programs | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220419ei4j003xp Page 8 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Vladimir Putin's Gift to NATO CO nato : North Atlantic Treaty Organization NS gdip : International Relations | gvexe : Executive Branch | gcat : Political/General News | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | nedc : Commentaries/Opinions | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE fin : Finland | russ : Russia | swed : Sweden | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | scandz : Scandinavia | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | nordz : Nordic Countries | weurz : Western Europe IPD Opinion | IPC N/EEC PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220419ei4j006el Page 10 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Jon Sindreu at jon.sindreu@wsj.com Defense Stocks' Ukraine Premium Needs Handling With Caution CO lckhed : Lockheed Martin Corporation IN iaer : Aerospace/Defense | idef : Defense Equipment/Products | iindstrls : Industrial Goods NS gweap : Weapons Programs | gvio : Military Action | c15 : Financial Performance | c151 : Earnings | c181 : Acquisitions/Mergers/Shareholdings | cacqu : Acquisitions/Mergers | cactio : Corporate Actions | ccat : Corporate/Industrial News | m11 : Equity Markets | mcat : Commodity/Financial Market News | ncolu : Columns | npda : DJ Exclusive Analysis - All | gcat : Political/General News | c18 : Ownership Changes | gcns : National/Public Security | gdef : Armed Forces | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE ukrn : Ukraine | eurz : Europe | uk : United Kingdom | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC 5043 PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220419ei4j00209 Page 12 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS gvio : Military Action | gdef : Armed Forces | gvdef : Defense Department | npag : Page One Stories | gcat : Political/General News | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | gvexe : Executive Branch | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | russ : Russia | donsk : Donbas | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC IGV Page 14 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i257 : Pharmaceuticals | i364 : Aerospace Products/Parts | i3640046 : Spacecraft | i75 : Airlines | i7501 : Passenger Airlines | i951 : Healthcare/Life Sciences | iaer : Aerospace/Defense | iairtr : Air Transport | iindstrls : Industrial Goods | itsp : Transportation/Logistics NS naudvl : Audio-visual Links | ntra : Transcripts | gpir : Politics/International Relations | ncolu : Columns | gcat : Political/General News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | niwe : IWE Filter RE ukrn : Ukraine | usa : United States | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | namz : North America | weurz : Western Europe IPD SYND Page 17 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian security forces patrol the streets and soldiers man checkpoints, inspecting people's identification documents and looking at the &lt;mark&gt;content&lt;/mark&gt;s of their mobile phones, residents say.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO nato : North Atlantic Treaty Organization NS ghack : Cybercrime/Hacking | gcat : Political/General News | gcrim : Crime/Legal Action | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | estnia : Estonia | baltst : Baltic States | dvpcoz : Developing Economies | eecz : European Union Countries | eeurz : Central/Eastern Europe | eurz : Europe IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220419ei4j0000y Page 23 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS gcat : Political/General News | gvexe : Executive Branch | gvio : Military Action | ncolu : Columns | nedc : Commentaries/Opinions | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE russ : Russia | ukrn : Ukraine | eurz : Europe | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | ussrz : CIS Countries IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220419ei4j0000p Page 25 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO ptsiem : Peter G. Peterson Institute for International Economics NS e1103 : Inflation Figures/Price Indices | ecat : Economic News | gpol : Domestic Politics | ncolu : Columns | e11 : Economic Performance/Indicators | gcat : Political/General News | gpir : Politics/International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | usa : United States | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America IPC EXE PUB Dow Jones &amp; Company, Inc. AN Document J000000020220418ei4i0000l Page 27 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An NFT of Ukraine's Zelenskyy Will Raise Funds for Sean Penn's Nonprofit NS gvexe : Executive Branch | gart : Art | gdev : Development/Humanitarian Aid | gent : Arts/Entertainment | gpir : Politics/International Relations | gpol : Domestic Politics | nblog : Blogs | gcat : Political/General News | gdip : International Relations | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types Page 28 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Alastair Gale at alastair.gale@wsj.com Ukraine War Stokes Concerns in Taiwan Over Its Fragile Internet Links IN i3441 : Telecommunications Equipment | i7902 : Telecommunication Services | itech : Technology NS gdip : International Relations | gpir : Politics/International Relations | gvio : Military Action | ncolu : Columns | gcat : Political/General News | reqrte : Suggested Reading Telecommunications | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE taiwan : Taiwan | china : China | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | russ : Russia | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe Page 31 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Catherine Stupp at Catherine.Stupp@wsj.com CO nato : North Atlantic Treaty Organization NS ghack : Cybercrime/Hacking | gcrim : Crime/Legal Action | gcat : Political/General News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | estnia : Estonia | eecz : European Union Countries | eurz : Europe | uk : United Kingdom | baltst : Baltic States | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Neuberger, Anne IPC N/CRM PUB Dow Jones &amp; Company, Inc. AN Document RSTPROCY20220418ei4i00001 Page 34 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian security forces patrol the streets and soldiers man checkpoints, inspecting people's identification documents and looking through the &lt;mark&gt;content&lt;/mark&gt;s of their mobile phones, residents say.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Yaroslav Trofimov at yaroslav.trofimov@wsj.com In Ukraine's South, Russian Occupiers Tighten the Screws NS gdef : Armed Forces | gvio : Military Action | gcat : Political/General News | ncolu : Columns | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | russ : Russia | asiaz : Asia | crimea : Crimea | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220418ei4i00335 Page 37 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Kelly Crow at Kelly.Crow@wsj.com Venice Biennale Makes Historic Turn and Return—Without Russia NS gart : Art | gent : Arts/Entertainment | ncolu : Columns | gcat : Political/General News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | italy : Italy | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | weurz : Western Europe | venet : Veneto | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | medz : Mediterranean IPD Wires IPC N/ART PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220418ei4i000p6 Page 39 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO rumde : Russia Ministry of Defense | bacxnc : BAC Canada Finance Co | oyqpni : Rivian Automotive Inc. | jfoskv : Rivian Automotive LLC | ncnbco : Bank of America Corporation IN i351 : Motor Vehicles | i35104 : Alternative Fuel Vehicles | i814 : Banking | i81402 : Commercial Banking | i81501 : Credit Types/Services | iaut : Automotive | ibnk : Banking/Credit | ifinal : Financial Services | iibnk : Integrated Banks NS ecat : Economic News | naudvl : Audio-visual Links | ntra : Transcripts | ccat : Corporate/Industrial News | gvio : Military Action | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | niwe : IWE Filter RE ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD SYND Page 40 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i364 : Aerospace Products/Parts | iindstrls : Industrial Goods | iaer : Aerospace/Defense | i351 : Motor Vehicles | i35104 : Alternative Fuel Vehicles | iaut : Automotive | iint : Online Service Providers | imed : Media/Entertainment | isocial : Social Media Platforms/Tools | itech : Technology NS gvio : Military Action | c181 : Acquisitions/Mergers/Shareholdings | cacqu : Acquisitions/Mergers | naudvl : Audio-visual Links | ntra : Transcripts | cactio : Corporate Actions | ccat : Corporate/Industrial News | gcrim : Crime/Legal Action | gwar : War Crimes | ncolu : Columns | gcat : Political/General News | c18 : Ownership Changes | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Page 44 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;NS gdef : Armed Forces | gvio : Military Action | gweap : Weapons Programs | npag : Page One Stories | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | russ : Russia | crimea : Crimea | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220418ei4i0001q Page 48 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO imonf : International Monetary Fund | twban : The World Bank NS ecat : Economic News | gpol : Domestic Politics | nfiac : Fixed Income Asset Class News | e11 : Economic Performance/Indicators | e1103 : Inflation Figures/Price Indices | e212 : Government Borrowing | e21 : Government Finance | gcat : Political/General News | gpir : Politics/International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters RE ukrn : Ukraine | russ : Russia | pakis : Pakistan | dvpcoz : Developing Economies | egypt : Egypt | srilan : Sri Lanka | africaz : Africa | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | eeurz : Central/Eastern Europe | eurz : Europe | indsubz : Indian Subcontinent | meastz : Middle East | medz : Mediterranean | nafrz : North Africa | sasiaz : Southern Asia | ussrz : CIS Countries | wasiaz : Western Asia IPC AFXI PUB Dow Jones &amp; Company, Inc. AN Document J000000020220418ei4i0001c Page 52 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Logan Robinson TD Bloomfield Hills, Mich. License this article from Dow Jones Reprint Service NS nlet : Letters | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | niwe : IWE Filter | nrgn : Routine General News RE russ : Russia | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220418ei4i0000k Page 57 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO ptsiem : Peter G. Peterson Institute for International Economics NS e1103 : Inflation Figures/Price Indices | e11 : Economic Performance/Indicators | e211 : Government Budget/Taxation | ecat : Economic News | gdip : International Relations | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | nedc : Commentaries/Opinions | npred : Economic Predictions/Forecasts | gcat : Political/General News | e21 : Government Finance | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | eurz : Europe | uk : United Kingdom | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220417ei4h0028l Page 59 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Matthew Luxmoore at Matthew.Luxmoore@wsj.com Ukrainian Forces in Mariupol Rebuff Russian Ultimatum to Surrender NS gvio : Military Action | gdef : Armed Forces | gvexe : Executive Branch | gpir : Politics/International Relations | ncolu : Columns | nimage : Images | gcat : Political/General News | gcns : National/Public Security | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220417ei4h0008d Page 62 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS gdef : Armed Forces | gvio : Military Action | nimage : Images | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | russ : Russia | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC PIC PUB Dow Jones &amp; Company, Inc. AN Document J000000020220416ei4g0001v Page 64 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Brett Forrest at brett.forrest@wsj.com and Thomas Grove at thomas.grove@wsj.com Russian Forces Closer to Taking Mariupol as They Expand Eastern Ukraine Footprint CO rumde : Russia Ministry of Defense | imonf : International Monetary Fund NS gvio : Military Action | gdef : Armed Forces | gvdef : Defense Department | gvexe : Executive Branch | gpir : Politics/International Relations | ncolu : Columns | nimage : Images | gcat : Political/General News | gcns : National/Public Security | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | donsk : Donbas | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC N/CMR PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220416ei4g000jh Page 67 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Bojan Pancevski at bojan.pancevski@wsj.com Ukraine's Jews Celebrate Wartime Passover in Defiance of Russian Invasion NS grel : Religion | gvio : Military Action | gvexe : Executive Branch | gimm : Human Migration | gcha : Charities/Philanthropy | gpir : Politics/International Relations | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | gcom : Society/Community | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires Page 69 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS gvexe : Executive Branch | gcat : Political/General News | ecat : Economic News | gvio : Military Action | ncolu : Columns | nedc : Commentaries/Opinions | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC NND PUB Dow Jones &amp; Company, Inc. AN Document J000000020220416ei4g00025 Page 72 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS gvio : Military Action | nsur : Surveys/Polls | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE russ : Russia | ukrn : Ukraine | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC NND PUB Dow Jones &amp; Company, Inc. AN Document J000000020220416ei4g0001w Page 73 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO imonf : International Monetary Fund NS gglblz : Globalization | gglobe : Global/World Issues | gvio : Military Action | ccat : Corporate/Industrial News | e11 : Economic Performance/Indicators | ecat : Economic News | ncolu : Columns | npred : Economic Predictions/Forecasts | e1101 : Economic Growth/Recession | gcat : Political/General News | gcns : National/Public Security | gcom : Society/Community | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE russ : Russia | ukrn : Ukraine | gfr : Germany | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Wires IPC 5043 PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220415ei4f000jh Page 77 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Alastair Gale at alastair.gale@wsj.com Russia's Sunken Warship Moskva Recalls Great World War II Naval Battles IN i721 : Urban/Commuter Transit | irailtr : Land Transport | itsp : Transportation/Logistics NS gnavy : Navy | gtacc : Transport Accidents | crecal : Product Recalls | c26 : Product/Consumer Safety | ccat : Corporate/Industrial News | gvio : Military Action | ncolu : Columns | gcat : Political/General News | cexpro : Products/Services | gcns : National/Public Security | gdef : Armed Forces | gdis : Disasters/Accidents | gmmdis : Accidents/Man-made Disasters | grisk : Risk News | gtrans : Transport | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE russ : Russia | jap : Japan | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | kanag : Kanto | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC N/CMR PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220415ei4f000rt Page 79 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;So do you have an exception for &lt;mark&gt;content&lt;/mark&gt; guidelines if somebody is a newsmaker?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i3302 : Computers/Consumer Electronics | icph : Computer Hardware | iint : Online Service Providers | imed : Media/Entertainment | itech : Technology | icomp : Computing | i330202 : Software | i3302021 : Applications Software | i475 : Printing/Publishing | i4751 : Newspaper Publishing | ipubl : Publishing | isocial : Social Media Platforms/Tools NS naudvl : Audio-visual Links | ntra : Transcripts | c171 : Share Capital | c1712 : Shareholder Rights Plans | cactio : Corporate Actions | ccat : Corporate/Industrial News | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | nedc : Commentaries/Opinions | nedi : Editorials | gcat : Political/General News | gvio : Military Action | c17 : Corporate Funding | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | niwe : IWE Filter RE ukrn : Ukraine | slvak : Slovakia | eecz : European Union Countries | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | usdc : Washington DC | uss : Southern U.S. | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD SYND IPC I/ISV PUB Dow Jones &amp; Company, Inc. AN Document WSJPOD0020220415ei4f0015p Page 85 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A China Warning From Russia in Earnings Season NS c151 : Earnings | ccat : Corporate/Industrial News | ncolu : Columns | nedc : Commentaries/Opinions | c15 : Financial Performance | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter RE china : China | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC C PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220415ei4f0060p Page 87 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Confirms CO rumde : Russia Ministry of Defense NS gnavy : Navy | gdef : Armed Forces | gvio : Military Action | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220415ei4f0048t Page 91 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD The Orbit of Sanctions Around Vladimir Putin NS gvexe : Executive Branch | ncolu : Columns | nmajev : Major News Events | gcat : Political/General News | gpir : Politics/International Relations | gpol : Domestic Politics | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | ukrn : Ukraine | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD WSJ IPC N/NWS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220415ei4f000gt Page 92 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO rumde : Russia Ministry of Defense | fed : Board of Governors of the Federal Reserve System NS gvexe : Executive Branch | gsars : Novel Coronaviruses | naudvl : Audio-visual Links | ntra : Transcripts | gvio : Military Action | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | gcold : Respiratory Tract Diseases | ghea : Health | gmed : Medical Conditions | gpir : Politics/International Relations | gpol : Domestic Politics | grisk : Risk News | gspox : Infectious Diseases | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | niwe : IWE Filter Page 93 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i836 : Accounting | iadmin : Administrative/Support Services | ibcs : Business/Consumer Services | iacc : Accounting/Consulting NS cintau : Corporate Audit/Internal Control | cdelis : Stock Delistings | c02 : Corporate Changes | c13 : Regulation/Government Policy | c131 : Regulatory Bodies | c17 : Corporate Funding | c41 : Management | ccat : Corporate/Industrial News | ccpgvn : Corporate Governance | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | gcat : Political/General News | cesg : Environmental/Social/Governance | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC BDO.XX PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220415ei4f000gp Page 97 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service IN ifosfl : Fossil Fuels | i1 : Energy | i32 : Machinery | iindstrls : Industrial Goods NS gesanc : International Sanctions | c13 : Regulation/Government Policy | gtrade : Trade Barriers/Restrictions | gvio : Military Action | m143 : Energy Markets | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gcat : Political/General News | gcns : National/Public Security | gdip : International Relations | gpir : Politics/International Relations | grisk : Risk News | m14 : Commodity Markets | mcat : Commodity/Financial Market News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | eurz : Europe | ukrn : Ukraine | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | ussrz : CIS Countries IPC NRG PUB Dow Jones &amp; Company, Inc.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO nato : North Atlantic Treaty Organization NS gvio : Military Action | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | russ : Russia | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220415ei4f0001b Page 102 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO nato : North Atlantic Treaty Organization | unhrc : United Nations Human Rights Council | utdnat : United Nations NS gdip : International Relations | gvexe : Executive Branch | gcat :</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cable</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Telecom Infra</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;HD The Ukraine Crisis: War Stokes Fears in Taiwan Over Sea &lt;mark&gt;Cable&lt;/mark&gt;s BY By Alastair Gale WC 528 words PD 19 April 2022 SN The Wall Street Journal SC J PG A6 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The war in Ukraine is reviving concerns in Taiwan and some Asia-Pacific nations about the fragility of their internet connections because they rely on undersea &lt;mark&gt;cable&lt;/mark&gt;s that could be severed in a Chinese attack.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD In contrast, Taiwan, a self-ruled island that Beijing claims, receives and sends about 95% of its data-and-voice traffic via &lt;mark&gt;cable&lt;/mark&gt;s that lie on the seabed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Currently officials say about 14 &lt;mark&gt;cable&lt;/mark&gt;s -- bundles of fiber-optic lines about the thickness of a garden hose -- are in operation, and they reach land at four locations on Taiwan's coast.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If the &lt;mark&gt;cable&lt;/mark&gt;s were to be cut at sea by submarines or divers, or if military strikes were to destroy the lightly protected landing stations, most of the island would be thrown offline.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;China hasn't threatened to attack seabed &lt;mark&gt;cable&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Western government officials have expressed concerns about threats to seabed &lt;mark&gt;cable&lt;/mark&gt;s from Russian ships and submarines in recent years, but security analysts say China also has the means to sever them.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Chinese Foreign Ministry didn't respond to a question about seabed &lt;mark&gt;cable&lt;/mark&gt;s but said tension in the Taiwan Strait shouldn't be exaggerated.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In December, the U.S. said companies owned by China's Hengtong Group that lay and manage seabed &lt;mark&gt;cable&lt;/mark&gt;s have links to the Chinese military.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An extreme example of internet vulnerability came this year when an undersea volcanic eruption severed the single &lt;mark&gt;cable&lt;/mark&gt; connecting Tonga to the internet, creating a near blackout of information about the extent of damage on the tiny Pacific archipelago for days.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Even if all its sea &lt;mark&gt;cable&lt;/mark&gt;s were severed, Taiwan would still retain some connection to the internet via satellites.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Fedorov said Melitopol is now connected to Russia's internet via a fiber-optic &lt;mark&gt;cable&lt;/mark&gt; from Crimea.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Asia News SE World HD Ukraine War Stokes Concerns in Taiwan Over Its Fragile Internet Links; Kyiv's successful use of internet to counter Moscow highlights Taiwan's reliance on undersea internet &lt;mark&gt;cable&lt;/mark&gt;s that China could cut BY By Alastair Gale WC 1,032 words PD 18 April 2022 ET 18:09 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The war in Ukraine is reviving concerns in Taiwan and some Asia-Pacific nations about the fragility of their internet connections because they rely on undersea &lt;mark&gt;cable&lt;/mark&gt;s that could be severed in a Chinese attack.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD In contrast, Taiwan, a self-ruled island that Beijing claims, receives and sends about 95% of its data-and-voice traffic via &lt;mark&gt;cable&lt;/mark&gt;s that lie on the seabed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Currently officials say about 14 &lt;mark&gt;cable&lt;/mark&gt;s—bundles of fiber-optic lines about the thickness of a garden hose—are in operation, and they reach land at four locations on Taiwan's coast.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If the &lt;mark&gt;cable&lt;/mark&gt;s were to be cut at sea by submarines or divers, or if military strikes were to destroy the lightly protected landing stations, most of the island would be thrown offline.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;China hasn't threatened to attack seabed &lt;mark&gt;cable&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Western government officials have expressed concerns about threats to seabed &lt;mark&gt;cable&lt;/mark&gt;s from Russian ships and submarines in recent years, but security analysts say China also has the means to sever them.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Chinese foreign ministry didn't respond to a question about seabed &lt;mark&gt;cable&lt;/mark&gt;s but said tension in the Taiwan Strait shouldn't be exaggerated.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In December, the U.S. said companies owned by China's Hengtong Group that lay and manage seabed &lt;mark&gt;cable&lt;/mark&gt;s have links to the Chinese military.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Japan also relies heavily on seabed &lt;mark&gt;cable&lt;/mark&gt;s and worries about being drawn into a conflict with China over Taiwan or some other islands controlled by Tokyo but claimed by Beijing.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Most of Japan's seabed &lt;mark&gt;cable&lt;/mark&gt;s arrive at two landing stations, including one near Tokyo.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"If you go there, all the optical fiber &lt;mark&gt;cable&lt;/mark&gt;s are gathered in one space that's two meters by two meters.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An extreme example of internet vulnerability came earlier this year when an undersea volcanic eruption severed the single &lt;mark&gt;cable&lt;/mark&gt; connecting Tonga to the internet, creating a near blackout of information about the extent of damage on the tiny Pacific archipelago for days.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In a war game conducted by the Center for a New American Security, a Washington think tank, participants simulated Russian and Chinese attacks on seabed &lt;mark&gt;cable&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Seabed &lt;mark&gt;cable&lt;/mark&gt;s are essential plumbing for the global economy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;One recent report estimated the contribution of seabed &lt;mark&gt;cable&lt;/mark&gt;s to the U.S. economy at nearly $649 billion, or about 3% of U.S. gross domestic product.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Asia-Pacific region has some of the highest concentrations of the roughly 436 active seabed &lt;mark&gt;cable&lt;/mark&gt;s that extend more than 800,000 miles around the world.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The &lt;mark&gt;cable&lt;/mark&gt;s, most of which are privately owned by internet companies, are also a security risk because they might be tapped to intercept data.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Even if all its sea &lt;mark&gt;cable&lt;/mark&gt;s were severed, Taiwan would still retain some connection to the internet via satellites, with priority given to the government and military.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Data capacity from satellite connections is a tiny fraction of that from seabed &lt;mark&gt;cable&lt;/mark&gt;s, however, and specialist terminals are needed to receive connections from satellites.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Taiwan is encouraging the construction of new &lt;mark&gt;cable&lt;/mark&gt;s to provide more sources of internet connection and it will likely add one or two more landing stations in the next five years, said Mr. Huang, the CEO of Taiwan Network Information Center.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In December, the U.S. gave approval to Alphabet Inc.'s Google and Facebook parent Meta Platforms Inc. for a new &lt;mark&gt;cable&lt;/mark&gt; that would link Taiwan with the U.S. and the Philippines as early as this year.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The companies are also teaming up to build a new &lt;mark&gt;cable&lt;/mark&gt; linking Taiwan with Japan and other countries in Asia that is expected to be ready to operate in 2024.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Alexander Huang, a former deputy minister in the government council handling relations with China and a security adviser to successive Taiwan governments, said an early-warning system might be developed to guard the &lt;mark&gt;cable&lt;/mark&gt;s from interference at sea, but there are no easy solutions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Fedorov said Melitopol is now connected to Russia's internet via a fiber-optic &lt;mark&gt;cable&lt;/mark&gt; from Crimea.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There's ways the internet can be cut off because the &lt;mark&gt;cable&lt;/mark&gt;'s been cut, and some tech actually has to go out and reconnect it.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And the rhetoric that it has used in this, calling all Ukrainians Nazis in essence, it's despi&lt;mark&gt;cable&lt;/mark&gt;.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Investment</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>30</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Digital investment</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Riyadh also wants help with its civilian nuclear capabilities and more &lt;mark&gt;investment&lt;/mark&gt;s in its economy by U.S. companies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Washington restricted their access to U.S. &lt;mark&gt;investment&lt;/mark&gt; and technology.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Washington restricted their access to U.S. &lt;mark&gt;investment&lt;/mark&gt; and technology.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Public polling has been scant but suggests a tight race between former state treasurer Josh Mandel, &lt;mark&gt;investment&lt;/mark&gt; banker Mike Gibbons and Mr. Vance, according to an average of polls compiled by Real Clear Politics.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Egypt's economy also is struggling with the pandemic's hit to its tourism sector and now higher inflation and fleeing foreign &lt;mark&gt;investment&lt;/mark&gt; since Russia's invasion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Looking back and trying to explain a modest 7% drop during the Cuban missile crisis, economists reached for a similar explanation: There's no point discounting a worst-case outcome because nobody will be around to benefit from a wise &lt;mark&gt;investment&lt;/mark&gt; decision.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The Ukraine war is coming to Wall Street as a new earnings season gets underway and more companies write down their Russia &lt;mark&gt;investment&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Exxon faces substantial costs associated with exiting its Russian &lt;mark&gt;investment&lt;/mark&gt;s, as do a range of consumer-goods and service companies such as McDonald's.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CEOs ought to be calculating their supply-chain and &lt;mark&gt;investment&lt;/mark&gt; risk now in case of a conflict in Asia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Foreign-direct &lt;mark&gt;investment&lt;/mark&gt; as a share of Chinese GDP has shrunk to 1.4% in 2020 from as high as 4.6% in 2005, according to the World Bank.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;They will have to study companies' exposure to new risks, for example, boycotts of suppliers, suspended sales to certain customers or halted &lt;mark&gt;investment&lt;/mark&gt;s in Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Beyond customers shunning its oil, Russia is also facing infrastructure problems at its more than 150,000 oil fields, many of which are old and need &lt;mark&gt;investment&lt;/mark&gt; and equipment to be maintained, analysts say.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The delegations pledged &lt;mark&gt;investment&lt;/mark&gt; and infrastructure aid in return for backing -- or at least not voting to condemn -- Russia at the U.N. Uganda's longtime leader and a key U.S. security partner Yoweri Museveni said Russia should be viewed as the center of gravity in Eastern Europe.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i8395464 : Internet Search Engines | i814 : Banking | i81402 : Commercial Banking | ibcs : Business/Consumer Services | ibnk : Banking/Credit | iinv : Investing/Securities | ifinal : Financial Services | iint : Online Service Providers | itech : Technology | i831 : Financial &lt;mark&gt;Investment&lt;/mark&gt; Services | i83102 : Security Brokering/Dealing NS coffs : Production/Services Relocation | neqac : Equities Asset Class News | c42 : Labor/Personnel | c02 : Corporate Changes | ccat : Corporate/Industrial News | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE uae : United Arab Emirates | dubai : Dubai | russ : Russia | ukrn : Ukraine | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | gulfstz : Persian Gulf Region | meastz : Middle East | namz : North America | ussrz : CIS Countries | wasiaz : Western Asia IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220415ei4f00015 Page 111 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Asset values are depressed in Russia, and companies might struggle to find a buyer for their business or joint-venture &lt;mark&gt;investment&lt;/mark&gt;, or be forced to sell for a knockdown price, according to analysts.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i8395464 : Internet Search Engines | i3302 : Computers/Consumer Electronics | i814 : Banking | i831 : Financial &lt;mark&gt;Investment&lt;/mark&gt; Services | ibcs : Business/Consumer Services | ibnk : Banking/Credit | ibssv : Business Support Services | icph : Computer Hardware | ifinal : Financial Services | iint : Online Service Providers | iinv : Investing/Securities | itech : Technology | icomp : Computing | i81402 : Commercial Banking | i83102 : Security Brokering/Dealing | iibnk : Integrated Banks NS e51 : Trade/External Payments | ecat : Economic News | gpir : Politics/International Relations | gvio : Military Action | ncolu : Columns | ncor : Corrections | ncrx : Corrected Items | gcat : Political/General News | reqris : Suggested Reading Investing/Securities | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE uae : United Arab Emirates | dubai : Dubai | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | meastz : Middle East | namz : North America | russ : Russia | uk : United Kingdom | ukrn : Ukraine | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | gulfstz : Persian Gulf Region | wasiaz : Western Asia | weurz : Western Europe IPD WSJ IPC AZM.XX PUB Dow Jones &amp; Company, Inc.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Revenue in the institutional clients group, which includes &lt;mark&gt;investment&lt;/mark&gt; banking and trading, fell 2% to $11.16 billion and profit dropped 51% on expenses and the Russian credit charges.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Total &lt;mark&gt;investment&lt;/mark&gt; banking fees fell 43%, as equity and debt underwriting declined but fees from advisory work rose.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Abramovich has links to the island, known for its low taxes and light-touch regulation, via an offshore &lt;mark&gt;investment&lt;/mark&gt; vehicle that was long associated with him.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That vehicle, British Virgin Islands-based Norma &lt;mark&gt;Investment&lt;/mark&gt;s Ltd., is the owner of MHC Jersey Ltd., an entity registered in Jersey, according to filings.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Hours after Russia invaded Ukraine, control of Norma &lt;mark&gt;Investment&lt;/mark&gt;s was shifted to one of Mr. Abramovich's longtime business associates David Davidovich, The Wall Street Journal previously reported.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Chelsea FC, a soccer team Mr. Abramovich owns and is in the process of selling, owes GBP 1.4 billion, equivalent to $1.8 billion, to a Jersey-registered company Camberley International &lt;mark&gt;Investment&lt;/mark&gt; Ltd., according to filings.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Adeo suspended new &lt;mark&gt;investment&lt;/mark&gt;s in Russia, he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Adeo suspended new &lt;mark&gt;investment&lt;/mark&gt;s in Russia, he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ms. Nabiullina's authority is broader than those of many of her Western counterparts, because the Russian Central Bank regulates the country's financial markets, insurance companies and &lt;mark&gt;investment&lt;/mark&gt; funds as well as overseeing its banks and setting monetary policy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;So oil industry officials say, instead of this, Biden should actually find ways to encourage &lt;mark&gt;investment&lt;/mark&gt; in more US oil and gas production.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Luke Vargas: Honda also announced new &lt;mark&gt;investment&lt;/mark&gt; in solid state batteries that could improve EV performance.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Just how big of an &lt;mark&gt;investment&lt;/mark&gt; in India does this represent?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Megha Mandavia: So Apple does not divulge any total &lt;mark&gt;investment&lt;/mark&gt;s that they make in India, or make in the manufacturing facilities, but this is more of a thumbs up sign to India.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Société Générale has had &lt;mark&gt;investment&lt;/mark&gt; banking operations in Canada since 1974.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Privacy</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;IN i3302 : Computers/Consumer Electronics | i330202 : Software | icph : Computer Hardware | iint : Online Service Providers | itech : Technology | icomp : Computing | i3302021 : Applications Software | isecpri : Security/&lt;mark&gt;Privacy&lt;/mark&gt; Software NS c1521 : Analysts' Comments/Recommendations | c181 : Acquisitions/Mergers/Shareholdings | cacqu : Acquisitions/Mergers | cactio : Corporate Actions | ccat : Corporate/Industrial News | c18 : Ownership Changes | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE ukrn : Ukraine | eurz : Europe | uk : United Kingdom | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe Page 213 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>9</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Meanwhile, the new administration's anti&lt;mark&gt;trust&lt;/mark&gt; officials seem determined to slam the brakes on 30 years of consolidation among contractors.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE Letters to the Editor HD Can Public Polls in Russia, A Police State, Be &lt;mark&gt;Trust&lt;/mark&gt;ed?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;My strong intuitive sense is that having a public platform that is maximally &lt;mark&gt;trust&lt;/mark&gt;ed and broadly inclusive is extremely important to the future of civilization.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;I remember when we were talking about anti&lt;mark&gt;trust&lt;/mark&gt; suits against Microsoft, et cetera, many over the years.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Certainly, risk of mistake and failure is ever present, but without taking that risk, there is no easy national path back to &lt;mark&gt;trust&lt;/mark&gt;worthiness and honor.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Cuno is president and CEO of the J. Paul Getty &lt;mark&gt;Trust&lt;/mark&gt; and Mr. Weiss is Presidential Professor of Political Science at the CUNY Graduate Center.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Still, the cyber fight has been "relentless," according to Tom Burt, Microsoft Corp.'s vice president of customer security and &lt;mark&gt;trust&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Still, the cyber fight has been "relentless," according to Tom Burt, Microsoft Corp.'s vice president of customer security and &lt;mark&gt;trust&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ms. Nabiullina won the Russian leader's &lt;mark&gt;trust&lt;/mark&gt; because she lacks her own political ambitions and is a stalwart inflation hawk, said Alexei Makarkin, an analyst with the Center for Political Technologies, a Moscow-based think tank.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>21</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Decentralized Finance/Marketplaces</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;In 2021, more than 2,000 participants took part in a simulation that tested how a country might respond to a large-scale cyberattack on its financial system and keep critical functions running, such as &lt;mark&gt;payment&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The war in Ukraine is making it tougher for many emerging-market governments to make debt &lt;mark&gt;payment&lt;/mark&gt;s to foreign creditors, fueling concerns of potential crises that could shake markets and weaken the global economic recovery.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Tuesday, Sri Lanka said it would suspend foreign debt &lt;mark&gt;payment&lt;/mark&gt;s and requested emergency financial assistance from the International Monetary Fund.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Its finance ministry said the Ukraine war and the pandemic, which had hurt tourism revenue, left it unable to make the &lt;mark&gt;payment&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;About 60% of low-income countries -- defined as the roughly 70 nations that qualified for a global debt-&lt;mark&gt;payment&lt;/mark&gt; suspension program during the pandemic -- were at high risk of debt distress or already in distress in 2020, up from 30% in 2015, according to the IMF.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service IN ifosfl : Fossil Fuels | i1 : Energy | i32 : Machinery | iindstrls : Industrial Goods NS gesanc : International Sanctions | c13 : Regulation/Government Policy | gtrade : Trade Barriers/Restrictions | gvio : Military Action | m143 : Energy Markets | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gcat : Political/General News | gcns : National/Public Security | gdip : International Relations | gpir : Politics/International Relations | grisk : Risk News | m14 : Commodity Markets | mcat : Commodity/Financial Market News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | eurz : Europe | ukrn : Ukraine | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | ussrz : CIS Countries IPC NRG PUB Dow Jones &amp; Company, Inc.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO nato : North Atlantic Treaty Organization | unhrc : United Nations Human Rights Council | utdnat : United Nations NS gdip : International Relations | gvexe : Executive Branch | gcat : Political/General News | gesanc : International Sanctions | c13 : Regulation/Government Policy | gtrade : Trade Barriers/Restrictions | gvcom : Commerce Department | gvio : Military Action | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | india : India | braz : Brazil | egypt : Egypt | ethpa : Ethiopia | indon : Indonesia | mex : Mexico | ndelh : New Delhi | saarab : Saudi Arabia | safr : South Africa | sudan : Sudan | uganda : Uganda | usa : United States | delhi : Delhi | africaz : Africa | apacz : Asia Pacific | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eafrz : East Africa | eeurz : Central/Eastern Europe | eurz : Europe | gulfstz : Persian Gulf Region | indsubz : Indian Subcontinent | lamz : Latin America | meastz : Middle East | medz : Mediterranean | nafrz : North Africa | namz : North America | samz : South America | sasiaz : Southern Asia | seasiaz : Southeast Asia | souafrz : Southern Africa | ussrz : CIS Countries | wasiaz : Western Asia IPC COM PUB Dow Jones &amp; Company, Inc. AN Document J000000020220415ei4f0001a Page 105 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Putin said banks from "unfriendly countries," which includes the European Union, are delaying the transfer of &lt;mark&gt;payment&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i8395464 : Internet Search Engines | i3302 : Computers/Consumer Electronics | i814 : Banking | i831 : Financial Investment Services | ibcs : Business/Consumer Services | ibnk : Banking/Credit | ibssv : Business Support Services | icph : Computer Hardware | ifinal : Financial Services | iint : Online Service Providers | iinv : Investing/Securities | itech : Technology | icomp : Computing | i81402 : Commercial Banking | i83102 : Security Brokering/Dealing | iibnk : Integrated Banks NS e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gpir : Politics/International Relations | gvio : Military Action | ncolu : Columns | ncor : Corrections | ncrx : Corrected Items | gcat : Political/General News | reqris : Suggested Reading Investing/Securities | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE uae : United Arab Emirates | dubai : Dubai | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | meastz : Middle East | namz : North America | russ : Russia | uk : United Kingdom | ukrn : Ukraine | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | gulfstz : Persian Gulf Region | wasiaz : Western Asia | weurz : Western Europe IPD WSJ IPC AZM.XX PUB Dow Jones &amp; Company, Inc.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO imonf : International Monetary Fund | twban : The World Bank | fed : Board of Governors of the Federal Reserve System NS gdip : International Relations | gvio : Military Action | gesanc : International Sanctions | c13 : Regulation/Government Policy | gtrade : Trade Barriers/Restrictions | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gcat : Political/General News | gcns : National/Public Security | gpir : Politics/International Relations | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | india : India | ukrn : Ukraine | china : China | usa : United States | usdc : Washington DC | apacz : Asia Pacific | asiaz : Asia | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | easiaz : Eastern Asia | eeurz : Central/Eastern Europe | eurz : Europe | indsubz : Indian Subcontinent | namz : North America | sasiaz : Southern Asia | uss : Southern U.S. | ussrz : CIS Countries IPC TRE PUB Dow Jones &amp; Company, Inc. AN Document J000000020220414ei4e0000z Page 140 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Jason Douglas at jason.douglas@wsj.com Global Trade Hit by Ukraine War, China Lockdowns NS gsars : Novel Coronaviruses | gout : Outbreaks/Epidemics | e512 : Physical Trade | e1101 : Economic Growth/Recession | e11 : Economic Performance/Indicators | e1118 : Trade Figures | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | ghea : Health | ncolu : Columns | npred : Economic Predictions/Forecasts | gcat : Political/General News | gcold : Respiratory Tract Diseases | gmed : Medical Conditions | gspox : Infectious Diseases | ncat : Content Types RE china : China | easiaz : Eastern Asia | asiaz : Asia | eurz : Europe | jap : Japan | uk : United Kingdom | ukrn : Ukraine | zheji : Zhejiang | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC 005380.SE PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220413ei4d001md Page 152 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Andrew Duehren at andrew.duehren@wsj.com Yellen Warns Nations Staying Neutral in Russia's War With Ukraine CO imonf : International Monetary Fund | fed : Board of Governors of the Federal Reserve System NS gdip : International Relations | gvio : Military Action | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | india : India | ukrn : Ukraine | asiaz : Asia | china : China | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | usdc : Washington DC | uss : Southern U.S. | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | indsubz : Indian Subcontinent | sasiaz : Southern Asia | weurz : Western Europe IPD Wires IPC G/FED PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220413ei4d005v5 Page 157 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO rosgos : Central Bank of the Russian Federation | imonf : International Monetary Fund NS ecat : Economic News | gcat : Political/General News | e1101 : Economic Growth/Recession | naudvl : Audio-visual Links | ntra : Transcripts | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e11 : Economic Performance/Indicators | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | gesanc : International Sanctions | gpir : Politics/International Relations | gpol : Domestic Politics | gtrade : Trade Barriers/Restrictions | ncolu : Columns | npred : Economic Predictions/Forecasts | gdip : International Relations | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | niwe : IWE Filter RE russ : Russia | ussrz : CIS Countries | asiaz : Asia | crimea : Crimea | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ukrn : Ukraine | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD SYND IPC N/BIS PUB Dow Jones &amp; Company, Inc. AN Document WSJPOD0020220413ei4d000dx Page 168 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;NS gesanc : International Sanctions | c1513 : Sales Figures | gtrade : Trade Barriers/Restrictions | neqac : Equities Asset Class News | c15 : Financial Performance | c151 : Earnings | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220413ei4d0001u Page 179 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It has given employees an emergency &lt;mark&gt;payment&lt;/mark&gt; equal to two months' wages, and paid the March salaries, staffers said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CX Corrections &amp; Amplifications On April 5, Germany's IGBCE chemical workers union and employers agreed on an interim solution that gave workers a one-off &lt;mark&gt;payment&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;that gave workers a one-off &lt;mark&gt;payment&lt;/mark&gt; to help with higher energy bills and other costs until a new pay deal is agreed on in October.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It has given employees an emergency &lt;mark&gt;payment&lt;/mark&gt; equal to two months' wages, and paid the March salaries, employees said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The expanding list of sanctions means there is a small, and shrinking, pool of buyers and also uncertainty about how any &lt;mark&gt;payment&lt;/mark&gt; might be made.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Will Horner at William.Horner@wsj.com OPEC Cuts Forecasts for Global Growth, Oil Demand, Citing Ukraine War CO opexpc : Organization of the Petroleum Exporting Countries IN i1 : Energy NS ecat : Economic News | e11 : Economic Performance/Indicators | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | gpir : Politics/International Relations | gvio : Military Action | m14 : Commodity Markets | m143 : Energy Markets | mcat : Commodity/Financial Market News | ncolu : Columns | npred : Economic Predictions/Forecasts | e1103 : Inflation Figures/Price Indices | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC M/ENE Page 211 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO rosgos : Central Bank of the Russian Federation NS ecat : Economic News | c13 : Regulation/Government Policy | e12 : Monetary Policy | e1201 : Central Bank Intervention | gesanc : International Sanctions | gpol : Domestic Politics | gtrade : Trade Barriers/Restrictions | gvio : Military Action | m131 : Money Markets | mcat : Commodity/Financial Market News | nimage : Images | npag : Page One Stories | e11 : Economic Performance/Indicators | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | gcat : Political/General News | gcns : National/Public Security | gdip : International Relations | gpir : Politics/International Relations | grisk : Risk News | m13 : Money/Currency Markets | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC PIC PUB Dow Jones &amp; Company, Inc. AN Document J000000020220412ei4c00017 Page 222 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Connectivity</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Wong Po-tsung, the deputy head of Taiwan's National Communications Commission, said the government closely monitors internet &lt;mark&gt;connectivity&lt;/mark&gt; and would be alerted within an hour if an outage occurs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Wong Po-tsung, the deputy head of Taiwan's National Communications Commission, said the government closely monitors internet &lt;mark&gt;connectivity&lt;/mark&gt; and would be alerted within an hour if an outage occurs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Sam Schechner: Interestingly, it seems like most of the internet &lt;mark&gt;connectivity&lt;/mark&gt; that is available in Ukraine is from standard internet service providers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;At the end of March, the country's largest landline provider, which also provides &lt;mark&gt;connectivity&lt;/mark&gt; to the military, was mostly knocked offline from a cyber attack.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;During the conflict, tests of internet services in Ukraine have shown a 16% reduction in &lt;mark&gt;connectivity&lt;/mark&gt;, compared with the weeks before the war started, say researchers at the Georgia Institute of Technology's Internet Outage Detection and Analysis project, which measures internet outages.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;During the conflict, tests of internet services in Ukraine have shown a 16% reduction in &lt;mark&gt;connectivity&lt;/mark&gt;, compared with the weeks before the war started, according to researchers at the Georgia Institute of Technology's Internet Outage Detection and Analysis project, which measures internet outages.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Cybersecurity</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>17</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;"We're very vulnerable," said Kenny Huang, chief executive of Taiwan Network Information Center, a government-affiliated &lt;mark&gt;cybersecurity&lt;/mark&gt; and internet-domain-registration organization.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We're very vulnerable," said Kenny Huang, chief executive of Taiwan Network Information Center, a government-affiliated &lt;mark&gt;cybersecurity&lt;/mark&gt; and internet-domain-registration organization.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE WSJ Pro HD NATO Cyber Game Tests Defenses Amid War in Ukraine; Cyber experts from Ukraine and NATO countries to participate in simulated wargames BY By Catherine Stupp WC 602 words PD 18 April 2022 ET 15:00 SN WSJ Pro &lt;mark&gt;Cybersecurity&lt;/mark&gt; SC RSTPROCY LA English CY Copyright © 2022, Dow Jones &amp; Company, Inc. LP NATO's large, multiday cyber defense exercise is set to bring together technical experts from alliance countries and Ukraine nearly two months after Russia's invasion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While the Biden administration has been open about the kind of defensive &lt;mark&gt;cybersecurity&lt;/mark&gt; assistance it has provided Kyiv -- deploying technical teams to Ukraine to help identify and patch vulnerabilities Russian hackers could exploit, for example -- it continues to draw lines on the kind of cyber operations against Moscow it is willing to engage in, officials and experts have said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While the Biden administration has been open about the kind of defensive &lt;mark&gt;cybersecurity&lt;/mark&gt; assistance it has provided Kyiv—deploying technical teams to Ukraine to help identify and patch vulnerabilities Russian hackers could exploit, for example—it continues to draw lines on the kind of cyber operations against Moscow it is willing to engage in, officials and experts have said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP About the author: Justin Sherman is a fellow at the Atlantic Council's Cyber Statecraft Initiative and an independent &lt;mark&gt;cybersecurity&lt;/mark&gt;, technology policy, and geopolitical risk consultant.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;These firms, many of which likely spend much of their resources on online content moderation and &lt;mark&gt;cybersecurity&lt;/mark&gt;, must now account for physical targeting risks in their decision-making.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While &lt;mark&gt;cybersecurity&lt;/mark&gt; analysts and intelligence officials are working to understand why the scale of the Russian cyber-offenses has been so much more limited than feared, several theories have emerged.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We're seeing B- or C-team players out of Russia," said Matthew Olney, a director with Cisco Systems Inc.'s Talos &lt;mark&gt;cybersecurity&lt;/mark&gt; division.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Tuesday, ESET, a Slovak-based &lt;mark&gt;cybersecurity&lt;/mark&gt; firm, and Ukraine's cybersecurity emergency response team reported that a new strain of malware had been wielded in an attack on high-voltage electrical substations in Ukraine that was scheduled to damage systems earlier this month.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Leroy Merlin cited &lt;mark&gt;cybersecurity&lt;/mark&gt; as a reason to disconnect the systems in a message to employees viewed by the Journal, and employees said the company has continued to pay all Ukrainian staff.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While &lt;mark&gt;cybersecurity&lt;/mark&gt; analysts and intelligence officials are working to understand why the scale of the Russian cyber-offenses has been so much more limited than feared, several theories have emerged.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We're seeing B- or C-team players out of Russia," said Matthew Olney, a director with Cisco Systems Inc.'s Talos &lt;mark&gt;cybersecurity&lt;/mark&gt; division.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Tuesday, ESET, a Slovak-based &lt;mark&gt;cybersecurity&lt;/mark&gt; firm, and Ukraine's cybersecurity emergency response team reported that a new strain of malware had been wielded in an attack on high-voltage electrical substations in Ukraine that was scheduled to damage systems earlier this month.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Sandworm is an apex predator, capable of serious operations, but they aren't infallible," said John Hultquist, vice president of intelligence analysis of the U.S.-based &lt;mark&gt;cybersecurity&lt;/mark&gt; firm Mandiant, on the newly detected attack.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Leroy Merlin cited &lt;mark&gt;cybersecurity&lt;/mark&gt; as a reason to disconnect the systems in a message to employees viewed by the Journal, and employees said the company has continued to pay all Ukrainian staff.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On March 16, in a message to Ukrainian employees via the Viber phone-messaging app viewed by the Journal, Leroy Merlin cited &lt;mark&gt;cybersecurity&lt;/mark&gt; and said it is working to establish a new, closed, communications platform for Ukrainian staff that wouldn't be connected to the rest of the company.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>gaming</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The funding was the most for any &lt;mark&gt;gaming&lt;/mark&gt; company in two decades, and it means that Epic is now valued at $31.5 billion.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Devices</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Telecom Infra</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;If such an outcome became likely, would he use one of his thousands of "tactical" or "battlefield" nuclear &lt;mark&gt;devices&lt;/mark&gt; to take out Kharkiv, Odessa or even Kyiv in an attempt to save face and end the war on terms he dictates?&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Partnership</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>7</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Digital investment</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The U.S.-Saudi &lt;mark&gt;partnership&lt;/mark&gt; was built on the premise that the American military would defend the kingdom from hostile powers to ensure the uninterrupted flow of oil to world markets.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Stellantis operates its factory in Kaluga, southwest of Moscow, in &lt;mark&gt;partnership&lt;/mark&gt; with Japanese car maker Mitsubishi Motors Corp (JP:7211) where it builds commercial vans for Citroën, Opel and Peugeot for the Russian market.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Earlier this month, the organization launched a program in &lt;mark&gt;partnership&lt;/mark&gt; with Mastercard, EML, the Stichting Giustra International Foundation, Tommy Humphreys, and the Parker Foundation to provide digital cash assistance to Ukrainian refugees.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Saudi Arabia, which has a historic security &lt;mark&gt;partnership&lt;/mark&gt; with the U.S., has refrained from condemning Russia's invasion and rebuffed Washington's call to pump more oil to both tame surging prices.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But the Xi-Putin &lt;mark&gt;partnership&lt;/mark&gt; announced in February isn't just about ideological or economic competition.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The department should form &lt;mark&gt;partnership&lt;/mark&gt;s with the private sector to establish a commercial HALEU-enrichment capability and in the meantime make its stockpile of enriched uranium available.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Biden administration, which identified competition with Beijing as its top foreign-policy objective when taking office, has heavily promoted the Quadrilateral Security Dialogue, a &lt;mark&gt;partnership&lt;/mark&gt; among the U.S., Japan, Australia and India.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>5</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;CLM World News SE World HD How U.S.-Saudi Relations Reached the Breaking Point; The decadeslong alliance is at risk over disagreements regarding oil production levels, security concerns and the invasion of Ukraine BY By Stephen Kalin, Summer Said and David S. &lt;mark&gt;Cloud&lt;/mark&gt; WC 2,293 words PD 19 April 2022 ET 21:22 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Stephen Kalin at stephen.kalin@wsj.com, Summer Said at summer.said@wsj.com and David S. &lt;mark&gt;Cloud&lt;/mark&gt; at david.cloud@wsj.com How U.S.-Saudi Relations Reached the Breaking Point IN i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | i1300003 : Crude Petroleum Extraction | iextra : Natural Gas/Oil Extraction | ifosfl : Fossil Fuels Page 5 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;--- Shan Li in New Delhi, Jose de Cordoba in Mexico City and David S. &lt;mark&gt;Cloud&lt;/mark&gt; in Dubai contributed to this article.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This may be true when crypto stays within a circuit of companies with low "know your customer" controls in the niche digital economy -- someone earning bitcoin from mining or ransomware can use it to buy virtual private networks or &lt;mark&gt;cloud&lt;/mark&gt; hosting, for example -- but the range of services on offer is small.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP CrowdStrike Holdings shares are trading sharply higher in response to an enthusiastic endorsement of the &lt;mark&gt;cloud&lt;/mark&gt;-based security software company from Goldman Sachs analyst Brian Essex.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2051</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;CLM World News SE World HD How U.S.-Saudi Relations Reached the Breaking Point; The decadeslong alliance is at risk over disagreements regarding oil production levels, security concerns and the invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne BY By Stephen Kalin, Summer Said and David S. Cloud WC 2,293 words PD 19 April 2022 ET 21:22 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The 36-year-old crown prince ended up shouting at Mr. Sullivan after he r&lt;mark&gt;ai&lt;/mark&gt;sed the 2018 killing of Saudi journalist Jamal Khashoggi.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The prince told Mr. Sullivan he never wanted to discuss the matter ag&lt;mark&gt;ai&lt;/mark&gt;n, said people familiar with the exchange.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The political fissures have deepened since Russia's invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, senior Saudi and U.S. officials said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The crown prince runs the country's day-to-day aff&lt;mark&gt;ai&lt;/mark&gt;rs for his ailing father, King Salman bin Abdulaziz al Saud.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;She cited diplomatic achievements in recent weeks, such as the condemnation by Persian Gulf states, including Saudi Arabia, of Russia's invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;She s&lt;mark&gt;ai&lt;/mark&gt;d Mr. Sullivan didn't discuss oil production with Prince Mohammed at their September meeting and that "there was no shouting."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A Saudi official at the kingdom's Washington embassy s&lt;mark&gt;ai&lt;/mark&gt;d after publication of this article online that the relationship between the U.S. and the kingdom remains strong.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Over the course of the last 77 years of Saudi-U.S relations, there have been many disagreements and differing points of view over many issues, but that has never stopped the two countries from finding a way to work together," the official s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The risk for the U.S. is thatRiyadh will align more closely with Chinaand Russia, or at least rem&lt;mark&gt;ai&lt;/mark&gt;n neutral on issues of vital interest to Washington, as it has on Ukraine, Saudi officials said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In turn, successive Saudi kings m&lt;mark&gt;ai&lt;/mark&gt;ntained a steady supply of crude at reasonable prices, with only occasional disruptions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Instead, it asks only that Saudi Arabia not do anything that would hurt the West's efforts in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, a senior U.S. official said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some close Biden &lt;mark&gt;ai&lt;/mark&gt;des, including Mr. McGurk, have been pushing for political detente with the Saudis, which they see as essential for the U.S. to advance its Middle East interests on everything from oil prices to establishing normal diplomatic relations between Saudi Arabia and Israel, according to officials in both countries.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;White House officials this year worked to set up a call between Mr. Biden, King Salman and Prince Mohammed, s&lt;mark&gt;ai&lt;/mark&gt;d people familiar with the matter.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As the date for the Feb. 9 call approached, Saudi officials told the Biden administration that the crown prince wouldn't take part, these people s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An &lt;mark&gt;ai&lt;/mark&gt;ling President Franklin Roosevelt traveled to the Middle East on a U.S. Navy cruiser in 1945 to launch the relationship with Saudi Arabia's founder, King Abdulaziz ibn Saud.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The strategic relationship between the U.S. and Saudi Arabia has never been as difficult as it is now, s&lt;mark&gt;ai&lt;/mark&gt;d Norman Roule, a former senior U.S. intelligence official covering the Middle East and who maintains contact with senior Saudi officials.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He denied directing the attack on one of his high-profile critics but has s&lt;mark&gt;ai&lt;/mark&gt;d he bears responsibility because it happened on his watch.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The White House no longer classifies the Houthis as a terrorist organization and announced it was reducing support for the Saudi-led military camp&lt;mark&gt;ai&lt;/mark&gt;gn in Yemen, imposing a freeze on the sale of precision-guided missiles.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. s&lt;mark&gt;ai&lt;/mark&gt;d the move was for maintenance.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Prince Mohammed's demand for acknowledgment by Mr. Biden of his cl&lt;mark&gt;ai&lt;/mark&gt;m to inherit the throne has grown more complicated, Saudi officials said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The prince wants to put Mr. Khashoggi's murder behind him—he faces civil lawsuits over the killing—and secure legal immunity in the U.S., Saudi officials s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Saudi Arabia wants more support for its intervention in Yemen's civil war and to bolster its defenses ag&lt;mark&gt;ai&lt;/mark&gt;nst cross-border attacks from Iran-allied Houthi fighters.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On April 13, 30 Democrats, including the leaders of the House foreign aff&lt;mark&gt;ai&lt;/mark&gt;rs and intelligence committees, called on the administration to take a tougher stance on Saudi Arabia, largely over the Saudi response to the Ukraine war and its refusal to boost oil production.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A Patriot antimissile battery at the Prince Sultan &lt;mark&gt;Ai&lt;/mark&gt;r Base in Saudi Arabia in 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;PHOTO: Iman Al-Dabbagh for The Wall Street Journal Weeks before the Sept. 11 attacks—in which the mastermind and 15 of the 19 hijackers were Saudi citizens—Riyadh nearly cut ties with the U.S. over what it saw as Washington's f&lt;mark&gt;ai&lt;/mark&gt;lure to rein in Israel during the Palestinian uprising known as the second intifada.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The idea was shelved when Riyadh, fearing an escalating regional war, declined to take part, U.S. and Saudi officials s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;When Mr. Biden spoke with King Salman last year, the White House s&lt;mark&gt;ai&lt;/mark&gt;d he viewed the 86-year-old monarch as his counterpart, not Prince Mohammed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;When Mr. McGurk made an unannounced trip in February last year to lobby for the release of Prince Mohammed's uncle and cousin, who had been det&lt;mark&gt;ai&lt;/mark&gt;ned for allegedly plotting a coup, he was rebuffed, Saudi officials said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In July, Prince Khalid bin Salman, who is Prince Mohammed's younger brother, met Messrs. Austin and Sullivan in Washington to discuss bolstering Saudi &lt;mark&gt;ai&lt;/mark&gt;r defenses, U.S. and Saudi officials said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Prince Khalid, the most senior Saudi official to visit the U.S. during the Biden administration, canceled a dinner for U.S. officials at the ambassador's Washington residence after being told he wouldn't get the amount of time with Mr. Blinken he had requested, a Saudi official s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The next day, the two men talked briefly one-on-one, s&lt;mark&gt;ai&lt;/mark&gt;d the official and a person familiar with the visit, but the Saudis cut the trip short and left empty-handed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ms. Watson s&lt;mark&gt;ai&lt;/mark&gt;d they "spent the better part of an hour one-on-one."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Favored nation During meetings last year at the seaside palace, Prince Mohammed and King Salman huddled with advisers about what punitive actions Mr. Biden might be planning and how best to pre-empt them, senior Saudi officials s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Prince Mohammed instead chose a more aggressive path—threatening to solidify nascent alliances with Russia and China, the officials s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In September, the Saudis called off Mr. Austin's visit, citing a scheduling conflict, and welcomed on the same night a senior Russian politician sanctioned by the U.S. Two weeks later, Prince Mohammed, dressed in shorts, received Mr. Sullivan at the seaside palace and told him the Saudis would stick with a Russia-blessed oil production plan that didn't significantly r&lt;mark&gt;ai&lt;/mark&gt;se output.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The White House resumed weapons sales for defensive purposes to Riyadh, agreeing to a $650 million sale of &lt;mark&gt;ai&lt;/mark&gt;r-to-air missiles in November.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Messrs. McGurk and Hochstein led a U.S. delegation to Riyadh days before Russia invaded Ukr&lt;mark&gt;ai&lt;/mark&gt;ne and again three weeks later.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Saudis seemed to be leaning closer to the Kremlin over the Ukr&lt;mark&gt;ai&lt;/mark&gt;ne invasion, according to a person briefed by the Biden administration.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In March, weeks after rebuffing the White House invitation to speak with Mr. Biden, Prince Mohammed took a call from Russian President Vladimir Putin and affirmed Riyadh's commitment to m&lt;mark&gt;ai&lt;/mark&gt;ntaining its oil deal with Moscow.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Stephen Kalin at stephen.kalin@wsj.com, Summer S&lt;mark&gt;ai&lt;/mark&gt;d at summer.said@wsj.com and David S. Cloud at david.cloud@wsj.com How U.S.-Saudi Relations Reached the Breaking Point IN i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | i1300003 : Crude Petroleum Extraction | iextra : Natural Gas/Oil Extraction | ifosfl : Fossil Fuels Page 5 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;NS groyal : Royal Families | gdip : International Relations | gcat : Political/General News | gvio : Military Action | ccat : Corporate/Industrial News | gcns : National/Public Security | gpir : Politics/International Relations | ncolu : Columns | nimage : Images | npda : DJ Exclusive Analysis - All | c21 : Output/Production | cexpro : Products/Services | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters RE saarab : Saudi Arabia | usa : United States | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | israel : Israel | meastz : Middle East | namz : North America | russ : Russia | uk : United Kingdom | ukrn : Ukr&lt;mark&gt;ai&lt;/mark&gt;ne | usdc : Washington DC | uss : Southern U.S. | ussrz : CIS Countries | yemar : Yemen | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | gulfstz : Persian Gulf Region | medz : Mediterranean | wasiaz : Western Asia | weurz : Western Europe IPD Wires IPC G/CIA PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220419ei4j002s1 Page 6 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Commentary (U.S.) SE Opinion HD How to Deter Nuclear War in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne; It's crucial for the U.S. to make Russia understand the consequences of an unthinkable escalation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Today, after nearly two months of heavy combat in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, Russia appears to be losing.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If Ukr&lt;mark&gt;ai&lt;/mark&gt;nian forces push Russia out of the Donbas and even Crimea, there would be no way for Mr. Putin to hide Russia's humiliating loss from its people.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Putin and his supporters need to understand that if he detonates a nuclear weapon in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, the U.S. response will be swift and significant—far exceeding the limited export sanctions under consideration around the world in response to Russian atrocities in Bucha.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Among the options: • Clear the Russian navy's two rem&lt;mark&gt;ai&lt;/mark&gt;ning Slava-class cruisers, their escort ships and submarines from the Mediterranean.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;• Eliminate Russian &lt;mark&gt;ai&lt;/mark&gt;r and military assets in Syria and Libya on the same basis.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If the ayatollahs decline, as they likely would, the key elements of Iran's nuclear program could be dismantled by the full &lt;mark&gt;ai&lt;/mark&gt;r power of the regional alliance arrayed against them.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;These are only some of the steps that could be taken if Mr. Putin employs nuclear weapons in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The same strong and well-messaged deterrence that kept the free world safe from nuclear attack during the long years of the Cold War must be restored to avert a nuclear tragedy in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If it isn't, the risk of Russian miscalculation will rise—as will the even greater risk of nuclear escalation beyond Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. O'Brien is ch&lt;mark&gt;ai&lt;/mark&gt;rman of American Global Strategies LLC.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;How to Deter Nuclear War in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne CO unscou : United Nations Security Council NS gdip : International Relations | gnuclw : Nuclear Weapons Programs | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | gvio : Military Action | ncolu : Columns | nedc : Commentaries/Opinions | gcat : Political/General News | gdef : Armed Forces | grisk : Risk News | gweap : Weapons Programs | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220419ei4j003xp Page 8 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Review &amp; Outlook (U.S.) SE Opinion HD Vladimir Putin's Gift to NATO; Finland and Sweden may join the Western alliance after Russia's invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Vladimir Putin hoped that invading Ukr&lt;mark&gt;ai&lt;/mark&gt;ne would make NATO splinter, but the alliance has been energized and is now set to expand.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Finnish Prime Minister Sanna Marins&lt;mark&gt;ai&lt;/mark&gt;d last week that Helsinki would decide whether to apply for NATO membership in the coming weeks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"If Sweden and Finland join NATO, the length of the alliance's land borders with Russia will more than double," former Russian President Dmitry Medvedevs&lt;mark&gt;ai&lt;/mark&gt;d last week.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But the public sees the devastation in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne and realizes it could happen to them.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In 2019 Senators Rand Paul and Mike Lee were the lone votes ag&lt;mark&gt;ai&lt;/mark&gt;nst accepting North Macedonia to the alliance, and other Trump-aligned Senators could join them this time.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Vladimir Putin's Gift to NATO CO nato : North Atlantic Treaty Organization NS gdip : International Relations | gvexe : Executive Branch | gcat : Political/General News | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | nedc : Commentaries/Opinions | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE fin : Finland | russ : Russia | swed : Sweden | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | scandz : Scandinavia | uk : United Kingdom | ukrn : Ukr&lt;mark&gt;ai&lt;/mark&gt;ne | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | nordz : Nordic Countries | weurz : Western Europe IPD Opinion | IPC N/EEC PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220419ei4j006el Page 10 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Heard on the Street SE Markets HD Defense Stocks' Ukr&lt;mark&gt;ai&lt;/mark&gt;ne Premium Needs Handling With Caution; War has raised prospects of higher military spending, but defense valuations tend to deflate a few months after the start of a conflict BY By Jon Sindreu WC 637 words PD 19 April 2022 ET 18:57 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Perhaps defense stocks were flying too high on the back of Russia's invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne—at least in the short term.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But the war in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne changed the narrative: Based on Monday's market close, Lockheed's value is more than 17 times the earnings it is expected to generate over the next 12 months—a valuation it hasn't enjoyed since 2018.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Biden administration has asked lawmakers for $813 billion in military spending for next year, a 4% increase from 2022—and that is without accounting for the $13.6 billion in &lt;mark&gt;ai&lt;/mark&gt;d for Ukraine passed by Congress earlier in March.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Yet these g&lt;mark&gt;ai&lt;/mark&gt;ns were often eventually erased, as the initial sense of danger dissipated.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The same could happen now, particularly given Russia's f&lt;mark&gt;ai&lt;/mark&gt;lure to achieve a swift victory.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Defense companies face challenges other than supply-ch&lt;mark&gt;ai&lt;/mark&gt;n hiccups.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For one, the switch from two decades of fighting terrorism to peer-to-peer warfare ag&lt;mark&gt;ai&lt;/mark&gt;nst big geopolitical rivals could prove hard for legacy companies that make big margins on traditional military gear.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Tanks have shown their limitations in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, and the Pentagon continues to cut back on Lockheed's troubled F-35 multipurpose jet fighter.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To be f&lt;mark&gt;ai&lt;/mark&gt;r, this war seems more geopolitically game-changing than any recent conflict: Countries in Europe are pledging to step up military capabilities, after falling short for years on their commitment to the North Atlantic Treaty Organization of spending 2% of economic output on defense.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;sparked calls to remove military contractors from sust&lt;mark&gt;ai&lt;/mark&gt;nable investors' blacklists, which could bring in new money.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;U.K.-based BAE Systems has more European exposure than its peers, while still counting the Pentagon as its m&lt;mark&gt;ai&lt;/mark&gt;n customer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The war in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne may justify a premium on defense stocks for discerning long-term investors.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Jon Sindreu at jon.sindreu@wsj.com Defense Stocks' Ukr&lt;mark&gt;ai&lt;/mark&gt;ne Premium Needs Handling With Caution CO lckhed : Lockheed Martin Corporation IN iaer : Aerospace/Defense | idef : Defense Equipment/Products | iindstrls : Industrial Goods NS gweap : Weapons Programs | gvio : Military Action | c15 : Financial Performance | c151 : Earnings | c181 : Acquisitions/Mergers/Shareholdings | cacqu : Acquisitions/Mergers | cactio : Corporate Actions | ccat : Corporate/Industrial News | m11 : Equity Markets | mcat : Commodity/Financial Market News | ncolu : Columns | npda : DJ Exclusive Analysis - All | gcat : Political/General News | c18 : Ownership Changes | gcns : National/Public Security | gdef : Armed Forces | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE ukrn : Ukraine | eurz : Europe | uk : United Kingdom | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC 5043 PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220419ei4j00209 Page 12 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP KYIV, Ukr&lt;mark&gt;ai&lt;/mark&gt;ne -- President Volodymyr Zelensky of Ukraine said that Russian forces have begun a fresh offensive in eastern Ukraine, signaling the latest phase of an invasion that has led to a new confrontation between Russia and the West.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Russian troops have started the battle for Donbas, which they had been preparing for a long time," Mr. Zelensky s&lt;mark&gt;ai&lt;/mark&gt;d in an address late Monday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Mr. Zelensky didn't point to any new movements in the east of the country, where Ukr&lt;mark&gt;ai&lt;/mark&gt;nian forces had been fighting Russian-controlled separatists for eight years, and Pentagon officials were cautious about calling a start to the new offensive.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But Mr. Zelensky's statement underscores how quickly the dynamics of the conflict are changing since Russia withdrew its troops from around Kyiv earlier this month, following a f&lt;mark&gt;ai&lt;/mark&gt;led attempt to seize the capital.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;President Biden is scheduled to hold a video call Tuesday morning with allies and partners to discuss Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, the White House said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Earlier in the day, Russian missile strikes on the western Ukr&lt;mark&gt;ai&lt;/mark&gt;nian city of Lviv near Poland's border shattered the calm of a place that had remained mostly unharmed in the war as Russia expanded its strikes across Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Zelensky has s&lt;mark&gt;ai&lt;/mark&gt;d that Russia has deployed more military forces and equipment in and around eastern Ukraine in recent days, setting the stage for a new phase of Moscow's offensive.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A combination of Russian military miscalculations and stronger-than-expected Ukr&lt;mark&gt;ai&lt;/mark&gt;nian resistance helped Kyiv thwart Russia's push on the capital and other parts of the country.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The number of Russian battalion tactical groups in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne has grown to 76 from 65 a few days ago, a senior U.S. defense official said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Pentagon sees the Russian strikes in recent days as part of so-called shaping operations, which are intended by Russia to try to hamper the Ukr&lt;mark&gt;ai&lt;/mark&gt;nians' ability to resupply its combat forces before a major offensive in the east and soften up resistance in key eastern towns.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. s&lt;mark&gt;ai&lt;/mark&gt;d the intended targets included ammunition depots or other hubs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We still consider what we're seeing to be a piece of shaping operations," Pentagon spokesman John Kirby s&lt;mark&gt;ai&lt;/mark&gt;d when asked about Ukrainian statements that war in the east had moved into a more active phase.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In the east, the heaviest fighting had been around Popasna and Donetsk, the senior U.S. defense official s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As fighting intensifies, the U.S. and other members of the NATO alliance have scrambled to supply Ukr&lt;mark&gt;ai&lt;/mark&gt;ne with more military hardware.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. expects to move forward in the next few days on tr&lt;mark&gt;ai&lt;/mark&gt;ning Ukraine troops outside of Ukraine on using howitzers and new radar systems, including counter-battery radars to pinpoint the course of Russian artillery fire.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The strikes on Lviv came as Russian missiles and artillery hit hundreds of targets, leading to civilian deaths and destruction in several other Ukr&lt;mark&gt;ai&lt;/mark&gt;nian towns and cities.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia is ramping up military operations -- including &lt;mark&gt;ai&lt;/mark&gt;rstrikes and artillery -- as part of a campaign to seize control over the eastern Donbas area.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian cruise missiles killed seven and injured 11 people in Lviv, including the child of a family that had fled to the safety of western Ukr&lt;mark&gt;ai&lt;/mark&gt;ne from Kharkiv, which had been under Russian assault since the early days of the conflict, Lviv Mayor Andriy Sadovyi said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Three of the missiles hit military infrastructure, and one missile struck a tire service shop, damaging nearby houses and vehicles, in the city about 40 miles from Poland's border, regional authorities s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"These are the first civilian deaths in our city," Mr. Sadovyi s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;nian authorities also reported four civilian deaths in a Russian attack in the front-line city of Kreminna, in the Luhansk region of the Donbas, and said they had lost control of the city.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Shelling in Kharkiv killed two civilians, the local prosecutors' office s&lt;mark&gt;ai&lt;/mark&gt;d, with shells falling on playgrounds near residential buildings.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;nian troops in the port city of Mariupol, meanwhile, continued to hold out a day after they rejected a Russian ultimatum to surrender.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Once that city is taken, "almost a dozen" battalion tactical groups would be freed up for other operations elsewhere in eastern Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, the official said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Lviv is far from the war's front lines, and its relative safety made it a common destination for Ukr&lt;mark&gt;ai&lt;/mark&gt;nians fleeing the east.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The missile attacks were a reminder that Russia's long-range weapons rem&lt;mark&gt;ai&lt;/mark&gt;n a threat across much of the country at a time when some refugees are returning.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The Russians continue barbarically attacking Ukr&lt;mark&gt;ai&lt;/mark&gt;nian cities from the air, cynically declaring to the whole world their 'right' to .&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;. . kill Ukr&lt;mark&gt;ai&lt;/mark&gt;nians," Mykhailo Podolyak, an adviser to Mr. Zelensky, wrote on Twitter.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Zelensky has called for further peace negotiations to resolve the situation in Mariupol, much of which has been reduced to rubble, leaving most of the rem&lt;mark&gt;ai&lt;/mark&gt;ning residents without access to food, water and power.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Kremlin spokesman Dmitry Peskov s&lt;mark&gt;ai&lt;/mark&gt;d that negotiations with Ukraine were continuing but that progress was slow.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Last week, President Vladimir Putin of Russia s&lt;mark&gt;ai&lt;/mark&gt;d peace talks with Kyiv had reached a dead end.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS gvio : Military Action | gdef : Armed Forces | gvdef : Defense Department | npag : Page One Stories | gcat : Political/General News | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | gvexe : Executive Branch | ncat : Content Types RE ukrn : Ukr&lt;mark&gt;ai&lt;/mark&gt;ne | russ : Russia | donsk : Donbas | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC IGV Page 14 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE D&lt;mark&gt;ai&lt;/mark&gt;ly HD Fiat-Chrysler Owner Halts Vehicle Production at Russia Plant BY By Lina Saigol WC 191 words PD 19 April 2022 ET 15:48 SN Barron's Online SC BON LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Stellantis became the latest car maker to halt operations in Russia, citing logistical difficulties and sanctions ag&lt;mark&gt;ai&lt;/mark&gt;nst Moscow following its invasion of Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD "Given the rapid d&lt;mark&gt;ai&lt;/mark&gt;ly increase in cross sanctions and logistical difficulties, Stellantis has suspended its manufacturing operations in Kaluga to ensure full compliance with all cross sanctions and to protect its employees," Stellantis (ticker: STLA) said in a statement on Tuesday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Lina S&lt;mark&gt;ai&lt;/mark&gt;gol at lina.saigol@dowjones.com Fiat-Chrysler Owner Halts Vehicle Production at Russia Plant CO fiat : Stellantis N.V. | peugct : PSA Peugeot Citroen SA IN i35101 : Passenger Cars | iaut : Automotive | imed : Media/Entertainment | i351 : Motor Vehicles NS ccat : Corporate/Industrial News | cpsrdi : Product/Service Disruptions | gcar : Cars | gesanc : International Sanctions | gpir : Politics/International Relations | cexpro : Products/Services | gcat : Political/General News | gdip : International Relations | glife : Living/Lifestyle RE russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Autos IPC 7211.TO PUB Dow Jones &amp; Company, Inc. AN Document BON0000020220419ei4j000ul Page 16 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM WSJ Podcast Minute Briefing HD Ukr&lt;mark&gt;ai&lt;/mark&gt;ne's President Says Russia Has Begun New Offensive WC 384 words PD 19 April 2022 ET 15:55 SN WSJ Podcasts SC WSJPOD LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Delta &lt;mark&gt;Ai&lt;/mark&gt;r Lines has tested wireless internet technology on its planes developed by Starlink, a unit of Elon Musk's SpaceX.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;nian president, Volodymyr Zelensky, says Russian forces have begun a new offensive in Eastern Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Zelensky didn't point to any new movements in the region where Ukr&lt;mark&gt;ai&lt;/mark&gt;nian forces have been fighting Russian-controlled separatists for years.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The White House s&lt;mark&gt;ai&lt;/mark&gt;d President Biden is scheduled to hold a video call today with allies and partners to discuss Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Separately, the administration reiterated that Biden has no plans to send American troops to Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, rejecting comments from a close Senate ally that the White House should consider such a scenario.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Nearly 5,000 Ukr&lt;mark&gt;ai&lt;/mark&gt;nians were allowed to enter the country on temporary humanitarian grounds, according to U.S. customs and border protection.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We're exclusively reporting that Delta &lt;mark&gt;Ai&lt;/mark&gt;r Lines has tested wireless internet technology on its planes that was developed by a unit of Elon Musk's SpaceX.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO deltaa : Delta &lt;mark&gt;Ai&lt;/mark&gt;r Lines Inc | jonjon : Johnson &amp; Johnson | spaetc : Space Exploration Technologies Corp.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i257 : Pharmaceuticals | i364 : Aerospace Products/Parts | i3640046 : Spacecraft | i75 : &lt;mark&gt;Ai&lt;/mark&gt;rlines | i7501 : Passenger Airlines | i951 : Healthcare/Life Sciences | iaer : Aerospace/Defense | iairtr : Air Transport | iindstrls : Industrial Goods | itsp : Transportation/Logistics NS naudvl : Audio-visual Links | ntra : Transcripts | gpir : Politics/International Relations | ncolu : Columns | gcat : Political/General News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | niwe : IWE Filter RE ukrn : Ukraine | usa : United States | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | namz : North America | weurz : Western Europe IPD SYND Page 17 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukr&lt;mark&gt;ai&lt;/mark&gt;ne Crisis: War Stokes Fears in Taiwan Over Sea Cables BY By Alastair Gale WC 528 words PD 19 April 2022 SN The Wall Street Journal SC J PG A6 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The war in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne is reviving concerns in Taiwan and some Asia-Pacific nations about the fragility of their internet connections because they rely on undersea cables that could be severed in a Chinese attack.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;nians have used the internet to rally resistance to Russia's invasion, counter Moscow's propaganda and win international support, including through President Volodymyr Zelensky's appeals for weapons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;ne has extensive internet connections across its land borders and most of the country has remained online despite Russian attacks on internet infrastructure.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD In contrast, T&lt;mark&gt;ai&lt;/mark&gt;wan, a self-ruled island that Beijing claims, receives and sends about 95% of its data-and-voice traffic via cables that lie on the seabed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Currently officials say about 14 cables -- bundles of fiber-optic lines about the thickness of a garden hose -- are in operation, and they reach land at four locations on T&lt;mark&gt;ai&lt;/mark&gt;wan's coast.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We're very vulnerable," s&lt;mark&gt;ai&lt;/mark&gt;d Kenny Huang, chief executive of Taiwan Network Information Center, a government-affiliated cybersecurity and internet-domain-registration organization.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There are no clear signs that China plans to invade T&lt;mark&gt;ai&lt;/mark&gt;wan, but Beijing says it hasn't ruled out the use of military force to take control of the island.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;China's military doctrine indicates it would seek to achieve &lt;mark&gt;ai&lt;/mark&gt;r, maritime and information superiority before attempting an amphibious assault on Taiwan, said Ivan Kanapathy, who was director for China, Taiwan and Mongolia on the White House's National Security Council staff from 2018 to 2021.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Observing Ukr&lt;mark&gt;ai&lt;/mark&gt;ne's highly effective use of media, Beijing likely judges that disconnecting Taiwan from the world would greatly improve China's chances of success" if it invades, Mr. Kanapathy said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Chinese Foreign Ministry didn't respond to a question about seabed cables but s&lt;mark&gt;ai&lt;/mark&gt;d tension in the Taiwan Strait shouldn't be exaggerated.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In December, the U.S. s&lt;mark&gt;ai&lt;/mark&gt;d companies owned by China's Hengtong Group that lay and manage seabed cables have links to the Chinese military.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Wong Po-tsung, the deputy head of T&lt;mark&gt;ai&lt;/mark&gt;wan's National Communications Commission, said the government closely monitors internet connectivity and would be alerted within an hour if an outage occurs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Even if all its sea cables were severed, T&lt;mark&gt;ai&lt;/mark&gt;wan would still retain some connection to the internet via satellites</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AR </t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>485</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The prince told Mr. Sullivan he never wanted to discuss the matter again, said people famili&lt;mark&gt;ar &lt;/mark&gt;with the exchange.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The White House wanted the Saudis to pump more crude, both to tame oil prices and undercut Moscow's w&lt;mark&gt;ar &lt;/mark&gt;finances.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;White House officials this ye&lt;mark&gt;ar &lt;/mark&gt;worked to set up a call between Mr. Biden, King Salman and Prince Mohammed, said people familiar with the matter.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Prince Mohammed doesn't like his treatment by the Biden administration, which released an intelligence report last ye&lt;mark&gt;ar &lt;/mark&gt;about the crown prince's alleged role in Mr. Khashoggi's killing and dismemberment inside the Saudi consulate in Istanbul.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Saudis were dismayed by the American withdrawal from Afghanistan, as well as the Biden administration's ongoing efforts to revive the Iran nucle&lt;mark&gt;ar &lt;/mark&gt;deal.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Saudi Arabia wants more support for its intervention in Yemen's civil w&lt;mark&gt;ar &lt;/mark&gt;and to bolster its defenses against cross-border attacks from Iran-allied Houthi fighters.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Riyadh also wants help with its civilian nucle&lt;mark&gt;ar &lt;/mark&gt;capabilities and more investments in its economy by U.S. companies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On April 13, 30 Democrats, including the leaders of the House foreign affairs and intelligence committees, called on the administration to take a tougher stance on Saudi Arabia, largely over the Saudi response to the Ukraine w&lt;mark&gt;ar &lt;/mark&gt;and its refusal to boost oil production.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Former President Barack Obama angered the Saudis with his support for the "Arab Spring" uprisings and Washington's secret nucle&lt;mark&gt;ar &lt;/mark&gt;talks with Iran.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Saudis tried to accommodate the Biden administration by ending a three-ye&lt;mark&gt;ar &lt;/mark&gt;rift with Qatar before he took office and releasing several high-profile activists in the initial weeks of Page 4 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;When Mr. McGurk made an unannounced trip in February last ye&lt;mark&gt;ar &lt;/mark&gt;to lobby for the release of Prince Mohammed's uncle and cousin, who had been detained for allegedly plotting a coup, he was rebuffed, Saudi officials said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The next day, the two men talked briefly one-on-one, said the official and a person famili&lt;mark&gt;ar &lt;/mark&gt;with the visit, but the Saudis cut the trip short and left empty-handed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Favored nation During meetings last ye&lt;mark&gt;ar &lt;/mark&gt;at the seaside palace, Prince Mohammed and King Salman huddled with advisers about what punitive actions Mr. Biden might be planning and how best to pre-empt them, senior Saudi officials said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;NS groyal : Royal Families | gdip : International Relations | gcat : Political/General News | gvio : Military Action | ccat : Corporate/Industrial News | gcns : National/Public Security | gpir : Politics/International Relations | ncolu : Columns | nimage : Images | npda : DJ Exclusive Analysis - All | c21 : Output/Production | cexpro : Products/Services | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters RE saarab : Saudi Arabia | usa : United States | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | israel : Israel | meastz : Middle East | namz : North America | russ : Russia | uk : United Kingdom | ukrn : Ukraine | usdc : Washington DC | uss : Southern U.S. | ussrz : CIS Countries | yem&lt;mark&gt;ar &lt;/mark&gt;: Yemen | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | gulfstz : Persian Gulf Region | medz : Mediterranean | wasiaz : Western Asia | weurz : Western Europe IPD Wires IPC G/CIA PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220419ei4j002s1 Page 6 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Commentary (U.S.) SE Opinion HD How to Deter Nucle&lt;mark&gt;ar &lt;/mark&gt;War in Ukraine; It's crucial for the U.S. to make Russia understand the consequences of an unthinkable escalation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;I sat in the Situation Room with military officers and ran through the what-ifs and procedures for continuity of government and retaliation options in the event of a nucle&lt;mark&gt;ar &lt;/mark&gt;attack on the U.S. or one of our treaty allies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The idea that in 2022, a permanent member of the United Nations Security Council would use nucle&lt;mark&gt;ar &lt;/mark&gt;weapons to conquer a neighboring country is unthinkable.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For months, Russian officials and commentators have been rattling their nucle&lt;mark&gt;ar &lt;/mark&gt;saber and touting Moscow's doctrine of "escalating to de-escalate"—in other words, if Russia is losing a war, even one it started, it reserves the right to use a nuclear attack to end it.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;With dark irony, a commentator on Russian state-controlled media denounced the sinking as an act of w&lt;mark&gt;ar &lt;/mark&gt;and urged Moscow to "bomb Kyiv" in response.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If such an outcome became likely, would he use one of his thousands of "tactical" or "battlefield" nucle&lt;mark&gt;ar &lt;/mark&gt;devices to take out Kharkiv, Odessa or even Kyiv in an attempt to save face and end the war on terms he dictates?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Putin and his supporters need to understand that if he detonates a nucle&lt;mark&gt;ar &lt;/mark&gt;weapon in Ukraine, the U.S. response will be swift and significant—far exceeding the limited export sanctions under consideration around the world in response to Russian atrocities in Bucha.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;America and its allies shouldn't retaliate in kind, with nucle&lt;mark&gt;ar &lt;/mark&gt;weapons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Among the options: • Cle&lt;mark&gt;ar &lt;/mark&gt;the Russian navy's two remaining Slava-class cruisers, their escort ships and submarines from the Mediterranean.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;• End Russian dreams of earning hard currency by servicing Iran's nucle&lt;mark&gt;ar &lt;/mark&gt;industry.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The idea that the West would stand by while Iran develops its own tactical nucle&lt;mark&gt;ar &lt;/mark&gt;capacity should be dismissed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S., Israel and their Arab allies would be positioned to give the ayatollahs a short window to completely dismantle Iran's nucle&lt;mark&gt;ar &lt;/mark&gt;program under an intrusive inspection regime.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If the ayatollahs decline, as they likely would, the key elements of Iran's nucle&lt;mark&gt;ar &lt;/mark&gt;program could be dismantled by the full air power of the regional alliance arrayed against them.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;These are only some of the steps that could be taken if Mr. Putin employs nucle&lt;mark&gt;ar &lt;/mark&gt;weapons in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The same strong and well-messaged deterrence that kept the free world safe from nucle&lt;mark&gt;ar &lt;/mark&gt;attack during the long years of the Cold War must be restored to avert a nuclear tragedy in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If it isn't, the risk of Russian miscalculation will rise—as will the even greater risk of nucle&lt;mark&gt;ar &lt;/mark&gt;escalation beyond Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;How to Deter Nucle&lt;mark&gt;ar &lt;/mark&gt;War in Ukraine CO unscou : United Nations Security Council NS gdip : International Relations | gnuclw : Nuclear Weapons Programs | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | gvio : Military Action | ncolu : Columns | nedc : Commentaries/Opinions | gcat : Political/General News | gdef : Armed Forces | grisk : Risk News | gweap : Weapons Programs | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220419ei4j003xp Page 8 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Heard on the Street SE Markets HD Defense Stocks' Ukraine Premium Needs Handling With Caution; W&lt;mark&gt;ar &lt;/mark&gt;has raised prospects of higher military spending, but defense valuations tend to deflate a few months after the start of a conflict BY By Jon Sindreu WC 637 words PD 19 April 2022 ET 18:57 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Buying defense stocks makes sense when w&lt;mark&gt;ar &lt;/mark&gt;breaks out.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine changed the narrative: Based on Monday's market close, Lockheed's value is more than 17 times the earnings it is expected to generate over the next 12 months—a valuation it hasn't enjoyed since 2018.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For the last 20 years, every big military conflict has triggered a jump in defense stocks, including Russia's invasion of Crimea in 2014 and the North Korean nucle&lt;mark&gt;ar &lt;/mark&gt;crisis of 2017, as well as 9/11 in 2001.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To be fair, this w&lt;mark&gt;ar &lt;/mark&gt;seems more geopolitically game-changing than any recent conflict: Countries in Europe are pledging to step up military capabilities, after falling short for years on their commitment to the North Atlantic Treaty Organization of spending 2% of economic output on defense.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Although Lockheed and Northrop have simil&lt;mark&gt;ar &lt;/mark&gt;valuations, the latter company, with its B-21 heavy bomber, is favored by the new budget's increased focus on space and nuclear deterrence.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine may justify a premium on defense stocks for discerning long-term investors.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD Russia Launches Offensive in East --- Zelensky says Moscow has begun a new phase of the w&lt;mark&gt;ar &lt;/mark&gt;as missiles hit western city of Lviv BY By Georgi Kantchev, Thomas Grove and Michael R. Gordon WC 1,081 words PD 19 April 2022 SN The Wall Street Journal SC J PG A1 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Earlier in the day, Russian missile strikes on the western Ukrainian city of Lviv ne&lt;mark&gt;ar &lt;/mark&gt;Poland's border shattered the calm of a place that had remained mostly unharmed in the war as Russia expanded its strikes across Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We still consider what we're seeing to be a piece of shaping operations," Pentagon spokesman John Kirby said when asked about Ukrainian statements that w&lt;mark&gt;ar &lt;/mark&gt;in the east had moved into a more active phase.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. expects to move forward in the next few days on training Ukraine troops outside of Ukraine on using howitzers and new rad&lt;mark&gt;ar &lt;/mark&gt;systems, including counter-battery radars to pinpoint the course of Russian artillery fire.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Shelling in Kharkiv killed two civilians, the local prosecutors' office said, with shells falling on playgrounds ne&lt;mark&gt;ar &lt;/mark&gt;residential buildings.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Lviv is f&lt;mark&gt;ar &lt;/mark&gt;from the war's front lines, and its relative safety made it a common destination for Ukrainians fleeing the east.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Stellantis became the latest c&lt;mark&gt;ar &lt;/mark&gt;maker to halt operations in Russia, citing logistical difficulties and sanctions against Moscow following its invasion of Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The world's fourth- largest c&lt;mark&gt;ar &lt;/mark&gt;maker, which was created last year from the merger of Fiat-Chrysler and Peugeot owner PSA, had already announced in March that it was suspending imports and exports of vehicles from Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The stock is down more than 20% in the ye&lt;mark&gt;ar &lt;/mark&gt;to date.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Stellantis operates its factory in Kaluga, southwest of Moscow, in partnership with Japanese c&lt;mark&gt;ar &lt;/mark&gt;maker Mitsubishi Motors Corp (JP:7211) where it builds commercial vans for Citroën, Opel and Peugeot for the Russian market.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Lina Saigol at lina.saigol@dowjones.com Fiat-Chrysler Owner Halts Vehicle Production at Russia Plant CO fiat : Stellantis N.V. | peugct : PSA Peugeot Citroen SA IN i35101 : Passenger Cars | iaut : Automotive | imed : Media/Entertainment | i351 : Motor Vehicles NS ccat : Corporate/Industrial News | cpsrdi : Product/Service Disruptions | gc&lt;mark&gt;ar &lt;/mark&gt;: Cars | gesanc : International Sanctions | gpir : Politics/International Relations | cexpro : Products/Services | gcat : Political/General News | gdip : International Relations | glife : Living/Lifestyle RE russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Autos IPC 7211.TO PUB Dow Jones &amp; Company, Inc. AN Document BON0000020220419ei4j000ul Page 16 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukraine Crisis: W&lt;mark&gt;ar &lt;/mark&gt;Stokes Fears in Taiwan Over Sea Cables BY By Alastair Gale WC 528 words PD 19 April 2022 SN The Wall Street Journal SC J PG A6 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine is reviving concerns in Taiwan and some Asia-Pacific nations about the fragility of their internet connections because they rely on undersea cables that could be severed in a Chinese attack.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There are no cle&lt;mark&gt;ar &lt;/mark&gt;signs that China plans to invade Taiwan, but Beijing says it hasn't ruled out the use of military force to take control of the island.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An extreme example of internet vulnerability came this ye&lt;mark&gt;ar &lt;/mark&gt;when an undersea volcanic eruption severed the single cable connecting Tonga to the internet, creating a near blackout of information about the extent of damage on the tiny Pacific archipelago for days.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In Kherson, the only regional capital and the biggest Ukrainian city that Russia has captured since launching the w&lt;mark&gt;ar &lt;/mark&gt;on Feb. 24, the elected mayor, Ihor Kolykhaev, has been allowed to keep running the municipality in accordance with Ukrainian law and in cooperation with Kyiv.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Protesters are sometimes dispersed by Russian security forces firing warning shots and te&lt;mark&gt;ar &lt;/mark&gt;gas.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Kolykhaev said Russians gained access to a database of w&lt;mark&gt;ar &lt;/mark&gt;veterans who have fought in Donbas since Russia fomented conflict there in 2014, territorial defense volunteers and other potential foes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In many towns across southern Ukraine, Russian occupation authorities have managed to find local collaborators among politicians affiliated with Opposition Platform For Life, a political party that pushed for closer ties with Moscow before the w&lt;mark&gt;ar &lt;/mark&gt;and recently was disbanded by Mr. Zelensky.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD This year's competition is significant for the countries participating because their cyber-defense units have been on high alert since the outbreak of the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine, said Anett Numa, an international policy adviser in the cyber policy unit of Estonia's ministry of defense.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP As Russia and Ukraine prepare for what could be the biggest tank battle in Europe since World W&lt;mark&gt;ar &lt;/mark&gt;II, the future of Vladimir Putin's war remains impossible to predict.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The worst-case scenario for Mr. Putin would be for Russia's w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine to end in a comprehensive military defeat, with the collapse of pro-Russian enclaves in the Donbas and Moldova and Ukraine's integration into the West.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If Russia fails to conquer the heart of Ukraine (western Ukraine is less of a concern in Russian historical mythology), Russians will be unable to avoid the conclusion that the empire of the czars, painfully assembled over many centuries and restored by Lenin and Stalin after the disasters of World W&lt;mark&gt;ar &lt;/mark&gt;I, has irrevocably fallen.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Putin and his acolytes see the world in simil&lt;mark&gt;ar &lt;/mark&gt;terms, with Russia committed to a war of survival against Western decadence, soullessness and unbridled greed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As the w&lt;mark&gt;ar &lt;/mark&gt;exposes the darkness inherent in Mr. Putin's regime, and as atrocities abroad and repression at home impress the mark of Cain ever more deeply on its brow, it is impossible not to hope for a Russian defeat.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Last week's CPI report shows that prices are up 8.5% from a ye&lt;mark&gt;ar &lt;/mark&gt;ago.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Asia News SE World HD Ukraine W&lt;mark&gt;ar &lt;/mark&gt;Stokes Concerns in Taiwan Over Its Fragile Internet Links; Kyiv's successful use of internet to counter Moscow highlights Taiwan's reliance on undersea internet cables that China could cut BY By Alastair Gale WC 1,032 words PD 18 April 2022 ET 18:09 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine is reviving concerns in Taiwan and some Asia-Pacific nations about the fragility of their internet connections because they rely on undersea cables that could be severed in a Chinese attack.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There are no cle&lt;mark&gt;ar &lt;/mark&gt;signs that China plans to invade Taiwan, but Beijing says it hasn't ruled out the use of military force to take control of the island.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Most of Japan's seabed cables arrive at two landing stations, including one ne&lt;mark&gt;ar &lt;/mark&gt;Tokyo.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An extreme example of internet vulnerability came earlier this ye&lt;mark&gt;ar &lt;/mark&gt;when an undersea volcanic eruption severed the single cable connecting Tonga to the internet, creating a near blackout of information about the extent of damage on the tiny Pacific archipelago for days.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In a w&lt;mark&gt;ar &lt;/mark&gt;game conducted by the Center for a New American Security, a Washington think tank, participants simulated Russian and Chinese attacks on seabed cables.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Alastair Gale at alastair.gale@wsj.com Ukraine W&lt;mark&gt;ar &lt;/mark&gt;Stokes Concerns in Taiwan Over Its Fragile Internet Links IN i3441 : Telecommunications Equipment | i7902 : Telecommunication Services | itech : Technology NS gdip : International Relations | gpir : Politics/International Relations | gvio : Military Action | ncolu : Columns | gcat : Political/General News | reqrte : Suggested Reading Telecommunications | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE taiwan : Taiwan | china : China | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | russ : Russia | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe Page 31 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE WSJ Pro HD NATO Cyber Game Tests Defenses Amid W&lt;mark&gt;ar &lt;/mark&gt;in Ukraine; Cyber experts from Ukraine and NATO countries to participate in simulated wargames BY By Catherine Stupp WC 602 words PD 18 April 2022 ET 15:00 SN WSJ Pro Cybersecurity SC RSTPROCY LA English CY Copyright © 2022, Dow Jones &amp; Company, Inc. LP NATO's large, multiday cyber defense exercise is set to bring together technical experts from alliance countries and Ukraine nearly two months after Russia's invasion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD This year's competition is significant for the countries participating because their cyber defense units have been on high alert since the outbreak of the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine, said Anett Numa, an international policy adviser in the cyber policy unit of Estonia's ministry of defense.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He said he could he&lt;mark&gt;ar &lt;/mark&gt;people crying in pain from nearby cells.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"A dead mayor or a mayor detained somewhere in a cell&lt;mark&gt;ar &lt;/mark&gt;is not of much use," said Vitaliy Nemerets, mayor of the city of Kakhovka in the Kherson region.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In Kherson, the only regional capital and the biggest Ukrainian city that Russia has captured since launching the w&lt;mark&gt;ar &lt;/mark&gt;on Feb. 24, the elected mayor, Ihor Kolykhaev, has been allowed to keep running the municipality in accordance with Ukrainian law and in cooperation with Kyiv.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Protesters are sometimes dispersed by Russian security forces firing warning shots and te&lt;mark&gt;ar &lt;/mark&gt;gas.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Kolykhaev said Russians gained access to a database of w&lt;mark&gt;ar &lt;/mark&gt;veterans who have fought in Donbas since Russia fomented conflict there in 2014, territorial defense volunteers and other potential foes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In many towns across southern Ukraine, Russian occupation authorities have managed to find local collaborators among politicians affiliated with Opposition Platform For Life, a political party that pushed for closer ties with Moscow before the w&lt;mark&gt;ar &lt;/mark&gt;and was recently disbanded by Mr. Zelensky.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The party's leader, Viktor Medvedchuk, who was under house arrest pending a treason investigation when the w&lt;mark&gt;ar &lt;/mark&gt;began, initially managed to escape but was recently captured by Ukrainian security forces.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In the city of Enerhodar, home to Ukraine's largest nucle&lt;mark&gt;ar &lt;/mark&gt;power plant, Russian authorities appointed as acting mayor Andriy Shevchyk, a councilman from Opposition Platform.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Art SE Arts HD Venice Biennale Makes Historic Turn and Return—Without Russia; For the first time, women make up the majority of artists as the prestigious art exhibit returns after a year's delay and to a Europe transformed by w&lt;mark&gt;ar &lt;/mark&gt;BY By Kelly Crow WC 1,010 words PD 18 April 2022 ET 15:00 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The world's most prestigious art exhibition, the Venice Biennale, opens to the public later this week after being delayed a ye&lt;mark&gt;ar &lt;/mark&gt;because of the pandemic.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It is uncle&lt;mark&gt;ar &lt;/mark&gt;whether that is because of optics or because plenty of such vessels were recently confiscated by global authorities.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The only thing anchored ne&lt;mark&gt;ar &lt;/mark&gt;us now is a pirate ship for tourists," she said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Italian rising st&lt;mark&gt;ar &lt;/mark&gt;Giulia Cenci is turning a hallway in the Arsenale into a dystopian scene dominated by "hybrid figures" that evoke both an animal and a machine, Ms. Alemani said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;First-time participants this ye&lt;mark&gt;ar &lt;/mark&gt;include Nepal, Uganda, Cameroon and Oman.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It's a sign that Moscow's weapons remain a threat f&lt;mark&gt;ar &lt;/mark&gt;from the conflicts front lines.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;China says its economic growth accelerated in the first quarter, expanding 4.8% from a ye&lt;mark&gt;ar &lt;/mark&gt;earlier, beating market expectations.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM WSJ Podcast Tech News Briefing HD Tech and the W&lt;mark&gt;ar &lt;/mark&gt;in Ukraine: Your Questions Answered WC 2,155 words PD 18 April 2022 ET 12:30 SN WSJ Podcasts SC WSJPOD LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Tesla is hoping to restart production at a Shanghai plant this week, according to people famili&lt;mark&gt;ar &lt;/mark&gt;with the matter.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Coming up, we answer your questions about how tech is being used in the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Since the start of the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine, we've been keeping you up to date on the many ways tech is playing a role in the conflict, from the war's impact on Ukraine's large IT sector, to how social media companies are reacting, and of course, how cyber attacks are being used by both sides.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Our first question is about something that's been a major topic of discussion in recent days, alleged w&lt;mark&gt;ar &lt;/mark&gt;crimes in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ren Igawa: Hi, my name is (Ren Igawa), and I would like to know how tech companies, in and outside of Ukraine, are helping each other to collect and synthesize critical information, such as locations, date and times, and video data, image data and so on, to build strong cases to indict and try these Russians as w&lt;mark&gt;ar &lt;/mark&gt;criminals.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia has denied involvement in any w&lt;mark&gt;ar &lt;/mark&gt;crimes, but maybe we can broaden this out.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And, what kind of tech can be used to help collect data for possible w&lt;mark&gt;ar &lt;/mark&gt;crimes cases?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This isn't the first armed conflict or w&lt;mark&gt;ar &lt;/mark&gt;where alleged war crimes have been documented.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There's also satellite companies that are saying that they're pushing aside clients, whether they be private or government, to work with Ukraine and others to document potential w&lt;mark&gt;ar &lt;/mark&gt;crimes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;You can use, and it seems that in this war, people have used consumer drones to, say, spot enemy positions or to take videos of things that might have happened during a particul&lt;mark&gt;ar &lt;/mark&gt;encounter.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Our reporting suggests that Russia thought it would triumph quickly when the w&lt;mark&gt;ar &lt;/mark&gt;started, so that might explain why there wasn't an effort to cut off electricity at the beginning of the war.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;I mean, we've heard about the dangers around potential damage to their nucle&lt;mark&gt;ar &lt;/mark&gt;power plants.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But, in other words, that means they have functioning nucle&lt;mark&gt;ar &lt;/mark&gt;power plants that generate electricity.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i364 : Aerospace Products/Parts | iindstrls : Industrial Goods | iaer : Aerospace/Defense | i351 : Motor Vehicles | i35104 : Alternative Fuel Vehicles | iaut : Automotive | iint : Online Service Providers | imed : Media/Entertainment | isocial : Social Media Platforms/Tools | itech : Technology NS gvio : Military Action | c181 : Acquisitions/Mergers/Shareholdings | cacqu : Acquisitions/Mergers | naudvl : Audio-visual Links | ntra : Transcripts | cactio : Corporate Actions | ccat : Corporate/Industrial News | gcrim : Crime/Legal Action | gw&lt;mark&gt;ar &lt;/mark&gt;: War Crimes | ncolu : Columns | gcat : Political/General News | c18 : Ownership Changes | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Page 44 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"You could almost say it's a whole new w&lt;mark&gt;ar &lt;/mark&gt;now," said retired Lt. Gen. Ben Hodges, a former commander of the U.S. Army in Europe, who predicts "a classic steel-on-steel, heavy firepower offensive" fight.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To do so, Russian forces have been moving south from the area ne&lt;mark&gt;ar &lt;/mark&gt;Kharkiv and are also expected to push north from Mariupol, if they complete their seizure of that port city on the Sea of Azov.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The greater challenge for the Ukrainian forces will be replenishing their units if the conflict turns into a grinding w&lt;mark&gt;ar &lt;/mark&gt;of attrition.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some important systems that Ukrainians have sought, such as substantial numbers of Eastern European-supplied T-72 tanks and Western antiship missiles to supplement Ukraine's modest inventory of Neptune missiles, have yet to appe&lt;mark&gt;ar &lt;/mark&gt;on the battlefield.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD U.S. News: W&lt;mark&gt;ar &lt;/mark&gt;Views Fire Up Ohio Race --- A GOP candidate's unorthodox stance on Ukraine causes unease in his party BY By Joshua Jamerson WC 1,056 words PD 18 April 2022 SN The Wall Street Journal SC J PG A4 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Vance was asked by a resident here whether he thought the political and media attention to the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine was a "smokescreen to cover the disasters" in the U.S. "So, I do actually," Mr. Vance replied, before criticizing television news outlets for dedicating so much airtime toward covering the conflict compared with inflation and surges of migrants from Mexico and Central America crossing the border illegally.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Public polling has been scant but suggests a tight race between former state treasurer Josh Mandel, investment banker Mike Gibbons and Mr. Vance, according to an average of polls compiled by Real Cle&lt;mark&gt;ar &lt;/mark&gt;Politics.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;State lawmaker Matt Dolan and Ms. Timken, a former state party chair, are ne&lt;mark&gt;ar &lt;/mark&gt;the back of the pack in polling.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden doesn't appe&lt;mark&gt;ar &lt;/mark&gt;to be winning over Republicans with his handling of Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine is making it tougher for many emerging-market governments to make debt payments to foreign creditors, fueling concerns of potential crises that could shake markets and weaken the global economic recovery.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Its finance ministry said the Ukraine w&lt;mark&gt;ar &lt;/mark&gt;and the pandemic, which had hurt tourism revenue, left it unable to make the payments.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukraine Crisis: Pope Warns Conflict Could Lead to Nucle&lt;mark&gt;ar &lt;/mark&gt;War BY By Francis X. Rocca WC 572 words PD 18 April 2022 SN The Wall Street Journal SC J PG A7 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP ROME -- Pope Francis on Sunday called for peace in Ukraine, warning that the conflict could lead to nucle&lt;mark&gt;ar &lt;/mark&gt;war.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He also continued his practice since the start of the w&lt;mark&gt;ar &lt;/mark&gt;of lamenting the effects of the invasion on Ukraine without naming Russia as the aggressor.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD "May there be peace for war-torn Ukraine, so sorely tried by the violence and destruction of the cruel and senseless w&lt;mark&gt;ar &lt;/mark&gt;into which it was dragged.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In calling for peace in Ukraine, Pope Francis underscored the danger of a nucle&lt;mark&gt;ar &lt;/mark&gt;escalation, quoting from a 1955 manifesto by the philosopher Bertrand Russell and the scientist Albert Einstein that warned of the danger posed by nuclear weapons: "Shall we put an end to the human race, or shall mankind renounce war?"&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP President Biden's accusation last week that Russia is seeking to commit genocide in Ukraine came at the start of a week in which the White House began escalating pressure on nations that remain neutral on the w&lt;mark&gt;ar &lt;/mark&gt;to pick a side.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Macron had said much the same when Mr. Biden earlier called Russian President Vladimir Putin a butcher and a w&lt;mark&gt;ar &lt;/mark&gt;criminal.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"I think w&lt;mark&gt;ar &lt;/mark&gt;is confusing enough without mixed messages."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Wednesday the administration approved a further $800 million in aid, including artillery, armored personnel carriers and helicopters, to aid Ukraine as the seven-week w&lt;mark&gt;ar &lt;/mark&gt;enters a new phase focused on a large Russian land invasion of southeastern Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;U.S. officials have accused Russia of alleged w&lt;mark&gt;ar &lt;/mark&gt;crimes in its actions though have made no formal assessment that a genocide has taken place.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. has only formally determined genocide occurred eight times since the Holocaust during World W&lt;mark&gt;ar &lt;/mark&gt;II.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Most recently, the Biden administration concluded that the Myanm&lt;mark&gt;ar &lt;/mark&gt;military's violence against the Rohingya Muslim minority amounts to genocide.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;When you say genocide, you're saying to Zelensky, 'I he&lt;mark&gt;ar &lt;/mark&gt;you,'" said Tara Sonenshine, a professor of public diplomacy at the Fletcher School of Law and Diplomacy at Tufts University, who served in the Obama and Clinton administrations.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS gvexe : Executive Branch | gw&lt;mark&gt;ar &lt;/mark&gt;: War Crimes | gcat : Political/General News | gcrim : Crime/Legal Action | gpol : Domestic Politics | gvio : Military Action | gcns : National/Public Security | gpir : Politics/International Relations | grisk : Risk News | gvbod : Government Bodies RE ukrn : Ukraine | russ : Russia | fra : France | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eecz : European Union Countries | eeurz : Central/Eastern Europe | eurz : Europe | medz : Mediterranean | namz : North America | ussrz : CIS Countries | weurz : Western Europe IPC EXE PUB Dow Jones &amp; Company, Inc. AN Document J000000020220418ei4i0001a Page 56 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP I was an exchange student in the law faculty of Leningrad State University, one ye&lt;mark&gt;ar &lt;/mark&gt;behind Vladimir Putin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;When I lived in Russia, people would unplug their home phones before speaking to me, for fe&lt;mark&gt;ar &lt;/m</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Ecosystem</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;As I mentioned it earlier, the whole Chinese manufacturing &lt;mark&gt;ecosystem&lt;/mark&gt; has been built, three to four decades.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>VR</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>7</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A day before President Biden landed in Europe last month to shore up international support for Ukraine, ambassadors from what are known as the Brics economies -- Brazil, India, China and South Africa -- smiled for photos with Russian Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov and then met for talks on enhancing mutual cooperation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In the hourlong meeting, covered by Russian state TV, Mr. La&lt;mark&gt;vr&lt;/mark&gt;ov told the ambassadors that Moscow was a victim of an "unprecedented economic war."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;New Delhi hosted top U.S. and U.K. officials for talks on Ukraine this month and meantime held separate meetings with Mr. La&lt;mark&gt;vr&lt;/mark&gt;ov on a proposal to pay for Russian oil in rubles instead of dollars, a way for Moscow to evade sanctions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service IN i1 : Energy | i41 : Food/Beverages | i814 : Banking | i81402 : Commercial Banking | ibe&lt;mark&gt;vr&lt;/mark&gt;ge : Beverages/Drinks | ibnk : Banking/Credit | icnp : Consumer Goods | ifinal : Financial Services NS c151 : Earnings | neqac : Equities Asset Class News | c15 : Financial Performance | ccat : Corporate/Industrial News | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | ussrz : CIS Countries | den : Denmark | eurz : Europe | fra : France | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eecz : European Union Countries | eeurz : Central/Eastern Europe | medz : Mediterranean | namz : North America | nordz : Nordic Countries | scandz : Scandinavia | weurz : Western Europe IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220415ei4f00017 Page 109 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Director of National Intelligence A&lt;mark&gt;vr&lt;/mark&gt;il Haines's office drafts intelligence-sharing guidance for U.S. spy agencies, and the defense secretary's office issues a parallel document on how to implement that guidance for military operators, officials have said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Earlier this month, Russian Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov traveled to India and praised New Delhi for refusing to take sides in the conflict.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. La&lt;mark&gt;vr&lt;/mark&gt;ov's visit came just after U.S. deputy national security adviser for international economics Daleep Singh, a key architect of the Biden administration's sanctions against Russia, also met with officials in New Delhi.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Funding</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>10</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Digital investment</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;"We have allocated about US$5 million to Ukraine relief efforts from our own &lt;mark&gt;funding&lt;/mark&gt; as an initial step," Lee says, "We think this is going to a much bigger, protracted crisis, we need to provide people in displacement safe and healthy shelters."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i3302 : Computers/Consumer Electronics | icph : Computer Hardware | iint : Online Service Providers | imed : Media/Entertainment | itech : Technology | icomp : Computing | i330202 : Software | i3302021 : Applications Software | i475 : Printing/Publishing | i4751 : Newspaper Publishing | ipubl : Publishing | isocial : Social Media Platforms/Tools NS naudvl : Audio-visual Links | ntra : Transcripts | c171 : Share Capital | c1712 : Shareholder Rights Plans | cactio : Corporate Actions | ccat : Corporate/Industrial News | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | nedc : Commentaries/Opinions | nedi : Editorials | gcat : Political/General News | gvio : Military Action | c17 : Corporate &lt;mark&gt;Funding&lt;/mark&gt; | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | niwe : IWE Filter RE ukrn : Ukraine | slvak : Slovakia | eecz : European Union Countries | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | usdc : Washington DC | uss : Southern U.S. | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD SYND IPC I/ISV PUB Dow Jones &amp; Company, Inc. AN Document WSJPOD0020220415ei4f0015p Page 85 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i836 : Accounting | iadmin : Administrative/Support Services | ibcs : Business/Consumer Services | iacc : Accounting/Consulting NS cintau : Corporate Audit/Internal Control | cdelis : Stock Delistings | c02 : Corporate Changes | c13 : Regulation/Government Policy | c131 : Regulatory Bodies | c17 : Corporate &lt;mark&gt;Funding&lt;/mark&gt; | c41 : Management | ccat : Corporate/Industrial News | ccpgvn : Corporate Governance | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | gcat : Political/General News | cesg : Environmental/Social/Governance | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC BDO.XX PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220415ei4f000gp Page 97 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While the EU hasn't banned Russian oil and gas deliveries, sanctions have blocked some &lt;mark&gt;funding&lt;/mark&gt;, technology and equipment necessary for the development of the sector.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Now is the time to stand on the right side of history," said U.S. Commerce Secretary Gina Raimondo, "not &lt;mark&gt;funding&lt;/mark&gt; and fueling and aiding President Putin's war."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Still, sliding demand from Western companies adds to a separate challenge for giants Rosneft Oil Co. and Gazprom PJSC and their smaller rivals: Access to &lt;mark&gt;funding&lt;/mark&gt;, machinery and parts.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;“Fortnite” creator Epic Games raises $2 billion in a &lt;mark&gt;funding&lt;/mark&gt; round.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Epic Games, the company behind Fortnite says it raised $2 billion in a new &lt;mark&gt;funding&lt;/mark&gt; round from a pair of investors, including Sony.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The &lt;mark&gt;funding&lt;/mark&gt; was the most for any gaming company in two decades, and it means that Epic is now valued at $31.5 billion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i25 : Chemicals | ibasicm : Basic Materials/Resources | i3302 : Computers/Consumer Electronics | i3454 : Personal Electronics | ielec : Consumer Electronics | itech : Technology NS gsars : Novel Coronaviruses | gout : Outbreaks/Epidemics | c17 : Corporate &lt;mark&gt;Funding&lt;/mark&gt; | naudvl : Audio-visual Links | ntra : Transcripts | gassa : Assault | ghea : Health | gvio : Military Action | ncolu : Columns | gcat : Political/General News | ccat : Corporate/Industrial News | gcns : National/Public Security | gcold : Respiratory Tract Diseases | gcrim : Crime/Legal Action | gmed : Medical Conditions | grisk : Risk News | gspox : Infectious Diseases | ncat : Content Types | nfact : Factiva Filters | nfce : Page 232 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>XR</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;CO pgx&lt;mark&gt;xr&lt;/mark&gt;c : CrowdStrike Holdings, Inc.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2503</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;CLM World News SE World HD How U.S.-Saudi Relations Reached the Breaking Point; The decadeslong alliance is at risk over disagreements reg&lt;mark&gt;ar&lt;/mark&gt;ding oil production levels, security concerns and the invasion of Ukraine BY By Stephen Kalin, Summer Said and David S. Cloud WC 2,293 words PD 19 April 2022 ET 21:22 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Saudi Crown Prince Mohammed bin Salman, we&lt;mark&gt;ar&lt;/mark&gt;ing shorts at his seaside palace, sought a relaxed tone for his first meeting with President Biden's national security adviser, Jake Sullivan, last September.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The 36-ye&lt;mark&gt;ar&lt;/mark&gt;-old crown prince ended up shouting at Mr. Sullivan after he raised the 2018 killing of Saudi journalist Jamal Khashoggi.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The prince told Mr. Sullivan he never wanted to discuss the matter again, said people famili&lt;mark&gt;ar&lt;/mark&gt; with the exchange.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD The relationship between the U.S. and Saudi &lt;mark&gt;Ar&lt;/mark&gt;abia has hit its lowest point in decades, with Mr. Biden saying in 2019 that the kingdom should be treated like a pariah over human-rights issues such as Mr. Khashoggi's murder.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The White House wanted the Saudis to pump more crude, both to tame oil prices and undercut Moscow's w&lt;mark&gt;ar&lt;/mark&gt; finances.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;After the publication of this &lt;mark&gt;ar&lt;/mark&gt;ticle online, Adrianne Watson, a White House National Security Council spokeswoman, reiterated President Biden's stated commitment that the U.S. would support the kingdom's territorial defense.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;She cited diplomatic achievements in recent weeks, such as the condemnation by Persian Gulf states, including Saudi &lt;mark&gt;Ar&lt;/mark&gt;abia, of Russia's invasion of Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A Saudi official at the kingdom's Washington embassy said after publication of this &lt;mark&gt;ar&lt;/mark&gt;ticle online that the relationship between the U.S. and the kingdom remains strong.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Over the course of the last 77 ye&lt;mark&gt;ar&lt;/mark&gt;s of Saudi-U.S relations, there have been many disagreements and differing points of view over many issues, but that has never stopped the two countries from finding a way to work together," the official said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S.-Saudi p&lt;mark&gt;ar&lt;/mark&gt;tnership was built on the premise that the American military would defend the kingdom from hostile powers to ensure the uninterrupted flow of oil to world markets.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Saudis no longer sell much oil to the U.S. and &lt;mark&gt;ar&lt;/mark&gt;e instead the biggest supplier to China, reorienting Riyadh's commercial and political interests.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Instead, it asks only that Saudi &lt;mark&gt;Ar&lt;/mark&gt;abia not do anything that would hurt the West's efforts in Ukraine, a senior U.S. official said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Saudis cut short a high-level milit&lt;mark&gt;ar&lt;/mark&gt;y delegation to Washington last summer and called off a visit last fall by Defense Secretary Lloyd Austin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A planned visit last month by Secret&lt;mark&gt;ar&lt;/mark&gt;y of State Antony Blinken was canceled.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some close Biden aides, including Mr. McGurk, have been pushing for political detente with the Saudis, which they see as essential for the U.S. to advance its Middle East interests on everything from oil prices to establishing normal diplomatic relations between Saudi &lt;mark&gt;Ar&lt;/mark&gt;abia and Israel, according to officials in both countries.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;White House officials this ye&lt;mark&gt;ar&lt;/mark&gt; worked to set up a call between Mr. Biden, King Salman and Prince Mohammed, said people familiar with the matter.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As the date for the Feb. 9 call approached, Saudi officials told the Biden administration that the crown prince wouldn't take p&lt;mark&gt;ar&lt;/mark&gt;t, these people said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Growing ap&lt;mark&gt;ar&lt;/mark&gt;t The unlikely U.S.-Saudi marriage has endured over the past 75 years in part because of personal ties between the respective leaders of a democracy and a monarchy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An ailing President Franklin Roosevelt traveled to the Middle East on a U.S. Navy cruiser in 1945 to launch the relationship with Saudi &lt;mark&gt;Ar&lt;/mark&gt;abia's founder, King Abdulaziz ibn Saud.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The strategic relationship between the U.S. and Saudi &lt;mark&gt;Ar&lt;/mark&gt;abia has never been as difficult as it is now, said Norman Roule, a former senior U.S. intelligence official covering the Middle East and who maintains contact with senior Saudi officials.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Prince Mohammed doesn't like his treatment by the Biden administration, which released an intelligence report last ye&lt;mark&gt;ar&lt;/mark&gt; about the crown prince's alleged role in Mr. Khashoggi's killing and dismemberment inside the Saudi consulate in Istanbul.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He denied directing the attack on one of his high-profile critics but has said he be&lt;mark&gt;ar&lt;/mark&gt;s responsibility because it happened on his watch.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Saudi leaders &lt;mark&gt;ar&lt;/mark&gt;e also upset about the U.S. approach to Yemen.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The White House no longer classifies the Houthis as a terrorist organization and announced it was reducing support for the Saudi-led milit&lt;mark&gt;ar&lt;/mark&gt;y campaign in Yemen, imposing a freeze on the sale of precision-guided missiles.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Saudi &lt;mark&gt;Ar&lt;/mark&gt;abia saw an uptick in cross-border drone and missile attacks by the Houthis and was alarmed by the Pentagon removing several antimissile systems from Saudi Arabia in June.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Saudis were dismayed by the American withdrawal from Afghanistan, as well as the Biden administration's ongoing efforts to revive the Iran nucle&lt;mark&gt;ar&lt;/mark&gt; deal.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;They also have begun to question the U.S. milit&lt;mark&gt;ar&lt;/mark&gt;y commitment to the Middle East and bristle at presumptions that the kingdom will fall in lockstep with Washington.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Now, Saudi officials &lt;mark&gt;ar&lt;/mark&gt;e skeptical that even a state visit would suffice.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden could facilitate that by directing the State Dep&lt;mark&gt;ar&lt;/mark&gt;tment to recognize Prince Mohammad as a head of state.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Saudi &lt;mark&gt;Ar&lt;/mark&gt;abia wants more support for its intervention in Yemen's civil war and to bolster its defenses against cross-border attacks from Iran-allied Houthi fighters.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Riyadh also wants help with its civilian nucle&lt;mark&gt;ar&lt;/mark&gt; capabilities and more investments in its economy by U.S. companies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden is unable or unlikely to meet most of these demands, given the lack of support for Saudi &lt;mark&gt;Ar&lt;/mark&gt;abia in Congress, especially among Democrats.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On April 13, 30 Democrats, including the leaders of the House foreign affairs and intelligence committees, called on the administration to take a tougher stance on Saudi &lt;mark&gt;Ar&lt;/mark&gt;abia, largely over the Saudi response to the Ukraine war and its refusal to boost oil production.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The 1973 &lt;mark&gt;Ar&lt;/mark&gt;ab oil embargo, led by Saudi Arabia in response to U.S. support for Israel during the Yom Kippur War, sparked the worst U.S. recession in 40 years.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A Patriot antimissile battery at the Prince Sultan Air Base in Saudi &lt;mark&gt;Ar&lt;/mark&gt;abia in 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;PHOTO: Iman Al-Dabbagh for The Wall Street Journal Weeks before the Sept. 11 attacks—in which the mastermind and 15 of the 19 hijackers were Saudi citizens—Riyadh ne&lt;mark&gt;ar&lt;/mark&gt;ly cut ties with the U.S. over what it saw as Washington's failure to rein in Israel during the Palestinian uprising known as the second intifada.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Former President B&lt;mark&gt;ar&lt;/mark&gt;ack Obama angered the Saudis with his support for the "Arab Spring" uprisings and Washington's secret nuclear talks with Iran.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;President Donald Trump, who stood by Prince Mohammed after the Khashoggi killing, proposed a joint milit&lt;mark&gt;ar&lt;/mark&gt;y response to Iran's attack on Saudi oil sites in 2019.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The idea was shelved when Riyadh, fe&lt;mark&gt;ar&lt;/mark&gt;ing an escalating regional war, declined to take part, U.S. and Saudi officials said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;When Mr. Biden spoke with King Salman last ye&lt;mark&gt;ar&lt;/mark&gt;, the White House said he viewed the 86-year-old monarch as his counterpart, not Prince Mohammed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Saudis tried to accommodate the Biden administration by ending a three-ye&lt;mark&gt;ar&lt;/mark&gt; rift with Qatar before he took office and releasing several high-profile activists in the initial weeks of Page 4 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;When Mr. McGurk made an unannounced trip in Febru&lt;mark&gt;ar&lt;/mark&gt;y last year to lobby for the release of Prince Mohammed's uncle and cousin, who had been detained for allegedly plotting a coup, he was rebuffed, Saudi officials said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ms. Watson of the NSC denied Mr. McGurk went to Saudi &lt;mark&gt;Ar&lt;/mark&gt;abia for this purpose.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The next day, the two men talked briefly one-on-one, said the official and a person famili&lt;mark&gt;ar&lt;/mark&gt; with the visit, but the Saudis cut the trip short and left empty-handed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ms. Watson said they "spent the better p&lt;mark&gt;ar&lt;/mark&gt;t of an hour one-on-one."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Favored nation During meetings last ye&lt;mark&gt;ar&lt;/mark&gt; at the seaside palace, Prince Mohammed and King Salman huddled with advisers about what punitive actions Mr. Biden might be planning and how best to pre-empt them, senior Saudi officials said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Since then, Mr. McGurk and Amos Hochstein, the State Dep&lt;mark&gt;ar&lt;/mark&gt;tment's energy envoy, have visited Saudi Arabia frequently for meetings with Prince Mohammed, Prince Khalid and their older half brother, energy minister Prince Abdulaziz bin Salman.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Last month, Saudi &lt;mark&gt;Ar&lt;/mark&gt;abia and the Houthis agreed to a rare truce in their seven-year-old conflict, following diplomacy by Mr. Biden's special envoy to Yemen.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As oil surged tow&lt;mark&gt;ar&lt;/mark&gt;d $140 a barrel, Saudi Arabia took no action.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In M&lt;mark&gt;ar&lt;/mark&gt;ch, weeks after rebuffing the White House invitation to speak with Mr. Biden, Prince Mohammed took a call from Russian President Vladimir Putin and affirmed Riyadh's commitment to maintaining its oil deal with Moscow.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Dion Nissenbaum and Benoit Faucon contributed to this &lt;mark&gt;ar&lt;/mark&gt;ticle.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;NS groyal : Royal Families | gdip : International Relations | gcat : Political/General News | gvio : Milit&lt;mark&gt;ar&lt;/mark&gt;y Action | ccat : Corporate/Industrial News | gcns : National/Public Security | gpir : Politics/International Relations | ncolu : Columns | nimage : Images | npda : DJ Exclusive Analysis - All | c21 : Output/Production | cexpro : Products/Services | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters RE saarab : Saudi Arabia | usa : United States | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | israel : Israel | meastz : Middle East | namz : North America | russ : Russia | uk : United Kingdom | ukrn : Ukraine | usdc : Washington DC | uss : Southern U.S. | ussrz : CIS Countries | yemar : Yemen | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | gulfstz : Persian Gulf Region | medz : Mediterranean | wasiaz : Western Asia | weurz : Western Europe IPD Wires IPC G/CIA PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220419ei4j002s1 Page 6 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Comment&lt;mark&gt;ar&lt;/mark&gt;y (U.S.) SE Opinion HD How to Deter Nuclear War in Ukraine; It's crucial for the U.S. to make Russia understand the consequences of an unthinkable escalation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;I sat in the Situation Room with milit&lt;mark&gt;ar&lt;/mark&gt;y officers and ran through the what-ifs and procedures for continuity of government and retaliation options in the event of a nuclear attack on the U.S. or one of our treaty allies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The idea that in 2022, a permanent member of the United Nations Security Council would use nucle&lt;mark&gt;ar&lt;/mark&gt; weapons to conquer a neighboring country is unthinkable.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Yet here we &lt;mark&gt;ar&lt;/mark&gt;e.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For months, Russian officials and commentators have been rattling their nucle&lt;mark&gt;ar&lt;/mark&gt; saber and touting Moscow's doctrine of "escalating to de-escalate"—in other words, if Russia is losing a war, even one it started, it reserves the right to use a nuclear attack to end it.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Today, after ne&lt;mark&gt;ar&lt;/mark&gt;ly two months of heavy combat in Ukraine, Russia appears to be losing.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;With d&lt;mark&gt;ar&lt;/mark&gt;k irony, a commentator on Russian state-controlled media denounced the sinking as an act of war and urged Moscow to "bomb Kyiv" in response.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If such an outcome became likely, would he use one of his thousands of "tactical" or "battlefield" nucle&lt;mark&gt;ar&lt;/mark&gt; devices to take out Kharkiv, Odessa or even Kyiv in an attempt to save face and end the war on terms he dictates?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Putin and his supporters need to understand that if he detonates a nucle&lt;mark&gt;ar&lt;/mark&gt; weapon in Ukraine, the U.S. response will be swift and significant—far exceeding the limited export sanctions under consideration around the world in response to Russian atrocities in Bucha.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;America and its allies shouldn't retaliate in kind, with nucle&lt;mark&gt;ar&lt;/mark&gt; weapons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. should, however, be prep&lt;mark&gt;ar&lt;/mark&gt;ed to take other serious actions quickly.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Among the options: • Cle&lt;mark&gt;ar&lt;/mark&gt; the Russian navy's two remaining Slava-class cruisers, their escort ships and submarines from the Mediterranean.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This could be accomplished by a diplomatic dém&lt;mark&gt;ar&lt;/mark&gt;che followed by more-forceful action if necessary to enforce compliance.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;• Eliminate Russian air and milit&lt;mark&gt;ar&lt;/mark&gt;y assets in Syria and Libya on the same basis.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Milit&lt;mark&gt;ar&lt;/mark&gt;y assets could assist civilian engineering companies to accomplish this task with dispatch.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;• Advise all non-Western nations, including China, that purchasing Russian oil would result in massive punitive t&lt;mark&gt;ar&lt;/mark&gt;iffs by the U.S., Japan and the European Union that would effectively decouple their economies from the industrial world.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;• End Russian dreams of e&lt;mark&gt;ar&lt;/mark&gt;ning hard currency by servicing Iran's nuclear industry.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The idea that the West would stand by while Iran develops its own tactical nucle&lt;mark&gt;ar&lt;/mark&gt; capacity should be dismissed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S., Israel and their &lt;mark&gt;Ar&lt;/mark&gt;ab allies would be positioned to give the ayatollahs a short window to completely dismantle Iran's nuclear program under an intrusive inspection regime.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If the ayatollahs decline, as they likely would, the key elements of Iran's nucle&lt;mark&gt;ar&lt;/mark&gt; program could be dismantled by the full air power of the regional alliance arrayed against them.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;These &lt;mark&gt;ar&lt;/mark&gt;e only some of the steps that could be taken if Mr. Putin employs nuclear weapons in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The same strong and well-messaged deterrence that kept the free world safe from nucle&lt;mark&gt;ar&lt;/mark&gt; attack during the long years of the Cold War must be restored to avert a nuclear tragedy in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If it isn't, the risk of Russian miscalculation will rise—as will the even greater risk of nucle&lt;mark&gt;ar&lt;/mark&gt; escalation beyond Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;How to Deter Nucle&lt;mark&gt;ar&lt;/mark&gt; War in Ukraine CO unscou : United Nations Security Council NS gdip : International Relations | gnuclw : Nuclear Weapons Programs | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | gvio : Military Action | ncolu : Columns | nedc : Commentaries/Opinions | gcat : Political/General News | gdef : Armed Forces | grisk : Risk News | gweap : Weapons Programs | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220419ei4j003xp Page 8 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;BY By The Editorial Bo&lt;mark&gt;ar&lt;/mark&gt;d WC 562 words PD 20 April 2022 ET 04:20 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Finnish Prime Minister Sanna M&lt;mark&gt;ar&lt;/mark&gt;insaid last week that Helsinki would decide whether to apply for NATO membership in the coming weeks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The country's p&lt;mark&gt;ar&lt;/mark&gt;liament is scheduled to debate this week.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ne&lt;mark&gt;ar&lt;/mark&gt;by Sweden appears likely to apply too, with local media suggesting Stockholm could pursue membership within months.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He w&lt;mark&gt;ar&lt;/mark&gt;ned Russia would retaliate by deploying "Iskanders, hypersonic weapons, and nuclear-armed ships literally at arm's length from their own homes."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Sweden and Finland &lt;mark&gt;ar&lt;/mark&gt;e members of the European Union, but as historically neutral nations they preferred to keep a distance from NATO.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For ye&lt;mark&gt;ar&lt;/mark&gt;s about a third of Swedes wanted to apply, and Finns were even more skeptical.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some Swedish and Finnish elites &lt;mark&gt;ar&lt;/mark&gt;e more hesitant.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Last month Swedish Prime Minister Magdalena Anderssonsuggested that joining NATO "would further destabilize this &lt;mark&gt;ar&lt;/mark&gt;ea of Europe and increase tension."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Finns and Swedes &lt;mark&gt;ar&lt;/mark&gt;e moving toward the alliance because they believe it's the best path to peace in the long run.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The debate should be instructive, and expect opposition from the small but persistent isolationist wing of the Republican P&lt;mark&gt;ar&lt;/mark&gt;ty.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Finland already punches above its weight milit&lt;mark&gt;ar&lt;/mark&gt;ily, and wealthy Sweden can afford its announced defense-spending increases.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some conservatives &lt;mark&gt;ar&lt;/mark&gt;gue that Washington should focus on China and the Pacific rather than make new security commitments in Europe.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;and Moscow &lt;mark&gt;ar&lt;/mark&gt;e working together, and the U.S. will need allies in both theaters to deter them.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Adding Sweden and Finland spreads the burden of deterring Russia and reduces the risks of w&lt;mark&gt;ar&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Vladimir Putin's Gift to NATO CO nato : North Atlantic Treaty Organization NS gdip : International Relations | gvexe : Executive Branch | gcat : Political/General News | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | nedc : Comment&lt;mark&gt;ar&lt;/mark&gt;ies/Opinions | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE fin : Finland | russ : Russia | swed : Sweden | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | scandz : Scandinavia | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | nordz : Nordic Countries | weurz : Western Europe IPD Opinion | IPC N/EEC PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220419ei4j006el Page 10 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM He&lt;mark&gt;ar&lt;/mark&gt;d on the Street SE Markets HD Defense Stocks' Ukraine Premium Needs Handling With Caution; War has raised prospects of higher military spending, but defense valuations tend to deflate a few months after the start of a conflict BY By Jon Sindreu WC 637 words PD 19 April 2022 ET 18:57 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Buying defense stocks makes sense when w&lt;mark&gt;ar&lt;/mark&gt; breaks out.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Investors need to be c&lt;mark&gt;ar&lt;/mark&gt;eful, though, because it also makes sense to sell them when attention starts shifting elsewhere.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Tuesday, sh&lt;mark&gt;ar&lt;/mark&gt;es in military contractor Lockheed Martin dropped about 3% in the futures market after it announced an 8% annual fall in sales in the first-quarter due to supply shortages created by the pandemic, which have affected the entire industry.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;E&lt;mark&gt;ar&lt;/mark&gt;nings surpassed Wall Street's expectations, but the company didn't upgrade its outlook for 2022.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Until recently, their performance had been disappointing, as investors focused on the rapid economic recovery from the Covid-19 crisis and the risk of lower U.S. milit&lt;mark&gt;ar&lt;/mark&gt;y spending after the Trump years.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But the w&lt;mark&gt;ar&lt;/mark&gt; in Ukraine changed the narrative: Based on Monday's market close, Lockheed's value is more than 17 times the earnings it is expected to generate over the next 12 months—a valuation it hasn't enjoyed since 2018.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Other defense majors, like Northrop Grumman and General Dynamics, have traded simil&lt;mark&gt;ar&lt;/mark&gt;ly.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Biden administration has asked lawmakers for $813 billion in milit&lt;mark&gt;ar&lt;/mark&gt;y spending for next year, a 4% increase from 2022—and that is without accounting for the $13.6 billion in aid for Ukraine passed by Congress earlier in March.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For the last 20 ye&lt;mark&gt;ar&lt;/mark&gt;s, every big military conflict has triggered a jump in defense stocks, including Russia's invasion of Crimea in 2014 and the North Korean nuclear crisis of 2017, as well as 9/11 in 2001.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The same could happen now, p&lt;mark&gt;ar&lt;/mark&gt;ticularly given Russia's failure to achieve a swift victory.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For one, the switch from two decades of fighting terrorism to peer-to-peer w&lt;mark&gt;ar&lt;/mark&gt;fare against big geopolitical rivals could prove hard for legacy companies that make big margins on traditional military gear.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Meanwhile, the new administration's antitrust officials seem determined to slam the brakes on 30 ye&lt;mark&gt;ar&lt;/mark&gt;s of consolidation among contractors.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In Febru&lt;mark&gt;ar&lt;/mark&gt;y, their concerns prompted Lockheed to shelve its planned $4.4 billion acquisition of Aerojet Rocketdyne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To be fair, this w&lt;mark&gt;ar&lt;/mark&gt; seems more geopolitically game-changing than any recent conflict: Countries in Europe are pledging to step up military capabilities, after falling short for years on their commitment to the North Atlantic Treaty Organization of spending 2% of economic output on defense.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;sp&lt;mark&gt;ar&lt;/mark&gt;ked calls to remove military contractors from sustainable investors' blacklists, which could bring in new money.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Although Lockheed and Northrop have simil&lt;mark&gt;ar&lt;/mark&gt; valuations, the latter company, with its B-21 heavy bomber, is favored by the new budget's increased focus on space and nuclear deterrence.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The w&lt;mark&gt;ar&lt;/mark&gt; in Ukraine may justify a premium on defense stocks for discerning long-term investors.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Jon Sindreu at jon.sindreu@wsj.com Defense Stocks' Ukraine Premium Needs Handling With Caution CO lckhed : Lockheed M&lt;mark&gt;ar&lt;/mark&gt;tin Corporation IN iaer : Aerospace/Defense | idef : Defense Equipment/Products | iindstrls : Industrial Goods NS gweap : Weapons Programs | gvio : Military Action | c15 : Financial Performance | c151 : Earnings | c181 : Acquisitions/Mergers/Shareholdings | cacqu : Acquisitions/Mergers | cactio : Corporate Actions | ccat : Corporate/Industrial News | m11 : Equity Markets | mcat : Commodity/Financial Market News | ncolu : Columns | npda : DJ Exclusive Analysis - All | gcat : Political/General News | c18 : Ownership Changes | gcns : National/Public Security | gdef : Armed Forces | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE ukrn : Ukraine | eurz : Europe | uk : United Kingdom | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC 5043 PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220419ei4j00209 Page 12 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD Russia Launches Offensive in East --- Zelensky says Moscow has begun a new phase of the w&lt;mark&gt;ar&lt;/mark&gt; as missiles hit western city of Lviv BY By Georgi Kantchev, Thomas Grove and Michael R. Gordon WC 1,081 words PD 19 April 2022 SN The Wall Street Journal SC J PG A1 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Russian troops have st&lt;mark&gt;ar&lt;/mark&gt;ted the battle for Donbas, which they had been preparing for a long time," Mr. Zelensky said in an address late Monday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"A l&lt;mark&gt;ar&lt;/mark&gt;ge portion of the army has been concentrated to carry out this offensive."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Mr. Zelensky didn't point to any new movements in the east of the country, where Ukrainian forces had been fighting Russian-controlled sep&lt;mark&gt;ar&lt;/mark&gt;atists for eight years, and Pentagon officials were cautious about calling a start to the new offensive.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But Mr. Zelensky's statement underscores how quickly the dynamics of the conflict &lt;mark&gt;ar&lt;/mark&gt;e changing since Russia withdrew its troops from around Kyiv earlier this month, following a failed attempt to seize the capital.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;President Biden is scheduled to hold a video call Tuesday morning with allies and p&lt;mark&gt;ar&lt;/mark&gt;tners to discuss Ukraine, the White House said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;E&lt;mark&gt;ar&lt;/mark&gt;lier in the day, Russian missile strikes on the western Ukrainian city of Lviv near Poland's border shattered the calm of a place that had remained mostly unharmed in the war as Russia expanded its strikes across Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Zelensky has said that Russia has deployed more milit&lt;mark&gt;ar&lt;/mark&gt;y forces and equipment in and around eastern Ukraine in recent days, setting the stage for a new phase of Moscow's offensive.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A combination of Russian milit&lt;mark&gt;ar&lt;/mark&gt;y miscalculations and stronger-than-expected Ukrainian resistance helped Kyiv thwart Russia's push on the capital and other parts of the country.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Pentagon sees the Russian strikes in recent days as p&lt;mark&gt;ar&lt;/mark&gt;t of so-called shaping operations, which are intended by Russia to try to hamper the Ukrainians' ability to resupply its combat forces before a major offensive in the east and soften up resistance in key eastern towns.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. said the intended t&lt;mark&gt;ar&lt;/mark&gt;gets included ammunition depots or other hubs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We still consider what we're seeing to be a piece of shaping operations," Pentagon spokesman John Kirby said when asked about Ukrainian statements that w&lt;mark&gt;ar&lt;/mark&gt; in the east had moved into a more active phase.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The Russians &lt;mark&gt;ar&lt;/mark&gt;e continuing to set the conditions for what they believe will be eventual success on the ground by using, by putting in more forces, putting in more enablers, putting in more command and control capability for operations yet to come."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In the east, the heaviest fighting had been &lt;mark&gt;ar&lt;/mark&gt;ound Popasna and Donetsk, the senior U.S. defense official said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Fighting also continued &lt;mark&gt;ar&lt;/mark&gt;ound Izium, and the Russians were marshaling a substantial force north of the town.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As fighting intensifies, the U.S. and other members of the NATO alliance have scrambled to supply Ukraine with more milit&lt;mark&gt;ar&lt;/mark&gt;y hardware.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. expects to move forw&lt;mark&gt;ar&lt;/mark&gt;d in the next few days on training Ukraine troops outside of Ukraine on using howitzers and new radar systems, including counter-battery radars to pinpoint the course of Russian artillery fire.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. is sending 18 155mm howitzers as p&lt;mark&gt;ar&lt;/mark&gt;t of a fresh infusion of weapons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The strikes on Lviv came as Russian missiles and &lt;mark&gt;ar&lt;/mark&gt;tillery hit hundreds of targets, leading to civilian deaths and destruction in several other Ukrainian towns and cities.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia is ramping up milit&lt;mark&gt;ar&lt;/mark&gt;y operations -- including airstrikes and artillery -- as part of a campaign to seize control over the eastern Donbas area.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian cruise missiles killed seven and injured 11 people in Lviv, including the child of a family that had fled to the safety of western Ukraine from Kh&lt;mark&gt;ar&lt;/mark&gt;kiv, which had been under Russian assault since the early days of the conflict, Lviv Mayor Andriy Sadovyi said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Three of the missiles hit milit&lt;mark&gt;ar&lt;/mark&gt;y infrastructure, and one missile struck a tire service shop, damaging nearby houses and vehicles, in the city about 40 miles from Poland's border, regional authorities said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"These &lt;mark&gt;ar&lt;/mark&gt;e the first civilian deaths in our city," Mr. Sadovyi said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Shelling in Kh&lt;mark&gt;ar&lt;/mark&gt;kiv killed two civilians, the local prosecutors' office said, with shells falling on playgrounds near residential buildings.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukrainian troops in the port city of M&lt;mark&gt;ar&lt;/mark&gt;iupol, meanwhile, continued to hold out a day after they rejected a Russian ultimatum to surrender.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The battle for M&lt;mark&gt;ar&lt;/mark&gt;iupol is hampering preparations for that offensive, according to the senior U.S. defense official and British intelligence.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The attack on Lviv was the deadliest in the city since the st&lt;mark&gt;ar&lt;/mark&gt;t of the war.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Lviv is f&lt;mark&gt;ar&lt;/mark&gt; from the war's front lines, and its relative safety made it a common destination for Ukrainians fleeing the east.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The missile attacks were a reminder that Russia's long-range weapons remain a threat across much of the country at a time when some refugees &lt;mark&gt;ar&lt;/mark&gt;e returning.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The Russians continue b&lt;mark&gt;ar&lt;/mark&gt;barically attacking Ukrainian cities from the air, cynically declaring to the whole world their 'right' to .&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Zelensky has called for further peace negotiations to resolve the situation in M&lt;mark&gt;ar&lt;/mark&gt;iupol, much of which has been reduced to rubble, leaving most of the remaining residents without access to food, water and power.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;--- Y&lt;mark&gt;ar&lt;/mark&gt;oslav Trofimov and Isabel Coles contributed to this article.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this &lt;mark&gt;ar&lt;/mark&gt;ticle from Dow Jones Reprint Service NS gvio : Military Action | gdef : Armed Forces | gvdef : Defense Department | npag : Page One Stories | gcat : Political/General News | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | gvexe : Executive Branch | ncat : Content Types RE ukrn : Ukraine | russ : Russia | donsk : Donbas | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC IGV Page 14 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE Daily HD Fiat-Chrysler Owner Halts Vehicle Production at Russia Plant BY By Lina Saigol WC 191 words PD 19 April 2022 ET 15:48 SN B&lt;mark&gt;ar&lt;/mark&gt;ron's Online SC BON LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Stellantis became the latest c&lt;mark&gt;ar&lt;/mark&gt; maker to halt operations in Russia, citing logistical difficulties and sanctions against Moscow following its invasion of Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The world's fourth- l&lt;mark&gt;ar&lt;/mark&gt;gest car maker, which was created last year from the merger of Fiat-Chrysler and Peugeot owner PSA, had already announced in March that it was suspending imports and exports of vehicles from Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Milan-listed sh&lt;mark&gt;ar&lt;/mark&gt;es in Stellantis rose 2.04% in midmorning trading on Tuesday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The stock is down more than 20% in the ye&lt;mark&gt;ar&lt;/mark&gt; to date.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Stellantis operates its factory in Kaluga, southwest of Moscow, in p&lt;mark&gt;ar&lt;/mark&gt;tnership with Japanese car maker Mitsubishi Motors Corp (JP:7211) where it builds commercial vans for Citroën, Opel and Peugeot for the Russian market.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Lina Saigol at lina.saigol@dowjones.com Fiat-Chrysler Owner Halts Vehicle Production at Russia Plant CO fiat : Stellant</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Platform</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>20</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Telecom Infra</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;In many towns across southern Ukraine, Russian occupation authorities have managed to find local collaborators among politicians affiliated with Opposition &lt;mark&gt;Platform&lt;/mark&gt; For Life, a political party that pushed for closer ties with Moscow before the war and recently was disbanded by Mr. Zelensky.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In Melitopol, for example, an Opposition &lt;mark&gt;Platform&lt;/mark&gt; city council member, Galina Danilchenko, was named by occupation forces as the new acting mayor.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In December, the U.S. gave approval to Alphabet Inc.'s Google and Facebook parent Meta &lt;mark&gt;Platform&lt;/mark&gt;s Inc. for a new cable that would link Taiwan with the U.S. and the Philippines as early as this year.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;NATO officials have been discussing various ways the alliance could help Ukraine fend off cyberattacks, and gave the country access to its malware information-sharing &lt;mark&gt;platform&lt;/mark&gt; in January.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In many towns across southern Ukraine, Russian occupation authorities have managed to find local collaborators among politicians affiliated with Opposition &lt;mark&gt;Platform&lt;/mark&gt; For Life, a political party that pushed for closer ties with Moscow before the war and was recently disbanded by Mr. Zelensky.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In Melitopol, for example, an Opposition &lt;mark&gt;Platform&lt;/mark&gt; city council member, Galina Danilchenko, was named by occupation forces as the new acting mayor.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In the city of Enerhodar, home to Ukraine's largest nuclear power plant, Russian authorities appointed as acting mayor Andriy Shevchyk, a councilman from Opposition &lt;mark&gt;Platform&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Opposition &lt;mark&gt;Platform&lt;/mark&gt; candidates won 12 of Enerhodar's 34 city council seats in the latest elections.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i364 : Aerospace Products/Parts | iindstrls : Industrial Goods | iaer : Aerospace/Defense | i351 : Motor Vehicles | i35104 : Alternative Fuel Vehicles | iaut : Automotive | iint : Online Service Providers | imed : Media/Entertainment | isocial : Social Media &lt;mark&gt;Platform&lt;/mark&gt;s/Tools | itech : Technology NS gvio : Military Action | c181 : Acquisitions/Mergers/Shareholdings | cacqu : Acquisitions/Mergers | naudvl : Audio-visual Links | ntra : Transcripts | cactio : Corporate Actions | ccat : Corporate/Industrial News | gcrim : Crime/Legal Action | gwar : War Crimes | ncolu : Columns | gcat : Political/General News | c18 : Ownership Changes | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Page 44 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;My strong intuitive sense is that having a public &lt;mark&gt;platform&lt;/mark&gt; that is maximally trusted and broadly inclusive is extremely important to the future of civilization.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But it's a business question of what the people who own the &lt;mark&gt;platform&lt;/mark&gt; want to allow on their service and what other users want to tolerate.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Kyle Peterson: But even if he doesn't, even if the bid fails, it does seem to me that this is a good pressure on Twitter to think hard about the moderating decisions it's making and to realize that there are a lot of users who value a more open debate than is taking place on the &lt;mark&gt;platform&lt;/mark&gt; right now.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i3302 : Computers/Consumer Electronics | icph : Computer Hardware | iint : Online Service Providers | imed : Media/Entertainment | itech : Technology | icomp : Computing | i330202 : Software | i3302021 : Applications Software | i475 : Printing/Publishing | i4751 : Newspaper Publishing | ipubl : Publishing | isocial : Social Media &lt;mark&gt;Platform&lt;/mark&gt;s/Tools NS naudvl : Audio-visual Links | ntra : Transcripts | c171 : Share Capital | c1712 : Shareholder Rights Plans | cactio : Corporate Actions | ccat : Corporate/Industrial News | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | nedc : Commentaries/Opinions | nedi : Editorials | gcat : Political/General News | gvio : Military Action | c17 : Corporate Funding | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | niwe : IWE Filter RE ukrn : Ukraine | slvak : Slovakia | eecz : European Union Countries | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | usdc : Washington DC | uss : Southern U.S. | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD SYND IPC I/ISV PUB Dow Jones &amp; Company, Inc. AN Document WSJPOD0020220415ei4f0015p Page 85 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Social media, commerce &lt;mark&gt;platform&lt;/mark&gt;s and branded content have given brands new potential paths to reach customers, as audiences are declining for some paid ad channels such as traditional TV commercials.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This would represent the first known use by Kyiv of the Neptune, an extension of the Soviet-designed KH-35 missile that can strike from truck-based &lt;mark&gt;platform&lt;/mark&gt;s at both land and sea targets within a 200-mile range.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Le Pen's campaign &lt;mark&gt;platform&lt;/mark&gt;, devised before the Russian war with Ukraine, calls for Europe to form an alliance with Russia on European security.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The answer is a thriving alternative online news scene, based largely on social-media &lt;mark&gt;platform&lt;/mark&gt;s such as Facebook, which is a particularly popular information source among Slovakia's rural population.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The next day, Adeo disconnected Leroy Merlin's Ukrainian employees from email and corporate &lt;mark&gt;platform&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On March 16, in a message to Ukrainian employees via the Viber phone-messaging app viewed by the Journal, Leroy Merlin cited cybersecurity and said it is working to establish a new, closed, communications &lt;mark&gt;platform&lt;/mark&gt; for Ukrainian staff that wouldn't be connected to the rest of the company.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Luke Vargas: A spokeswoman for TikTok said it had consulted with experts who have cautioned that correlation does not mean causation when it comes to tics and the company's video sharing &lt;mark&gt;platform&lt;/mark&gt;.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Cyber</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>85</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;"We're very vulnerable," said Kenny Huang, chief executive of Taiwan Network Information Center, a government-affiliated &lt;mark&gt;cyber&lt;/mark&gt;security and internet-domain-registration organization.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukraine Crisis: NATO &lt;mark&gt;Cyber&lt;/mark&gt; Exercise Will Test Defenses BY By Catherine Stupp WC 297 words PD 19 April 2022 SN The Wall Street Journal SC J PG A6 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP NATO's large, multiday &lt;mark&gt;cyber&lt;/mark&gt; defense exercise is set to bring together technical experts from alliance countries and Ukraine nearly two months after Russia's invasion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The annual &lt;mark&gt;cyber&lt;/mark&gt; war-games, known as the Locked Shields exercise, will start Tuesday in Tallinn, Estonia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The North Atlantic Treaty Organization's Cooperative &lt;mark&gt;Cyber&lt;/mark&gt; Defense Centre of Excellence organizes the event, which includes fictional cyberattack exercises that test teams have to fend off under time pressure.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD This year's competition is significant for the countries participating because their &lt;mark&gt;cyber&lt;/mark&gt;-defense units have been on high alert since the outbreak of the war in Ukraine, said Anett Numa, an international policy adviser in the cyber policy unit of Estonia's ministry of defense.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The NATO alliance team includes about 30 &lt;mark&gt;cyber&lt;/mark&gt; defenders from different NATO bodies and member countries with specializations such as communications, digital forensics, legal expertise and recovering systems damaged from an attack, said Ian West, chief of the NATO Cyber Security Centre, which defends NATO networks and is a part of the organization's communications and information agency.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The exercise is useful for &lt;mark&gt;cyber&lt;/mark&gt; defenders from different countries to communicate with each other about attacks on the same technology products that several governments use, he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The NATO center organizing Locked Shields doesn't make details of the simulated &lt;mark&gt;cyber&lt;/mark&gt;attacks public.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO nato : North Atlantic Treaty Organization NS ghack : &lt;mark&gt;Cyber&lt;/mark&gt;crime/Hacking | gcat : Political/General News | gcrim : Crime/Legal Action | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | estnia : Estonia | baltst : Baltic States | dvpcoz : Developing Economies | eecz : European Union Countries | eeurz : Central/Eastern Europe | eurz : Europe IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220419ei4j0000y Page 23 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We're very vulnerable," said Kenny Huang, chief executive of Taiwan Network Information Center, a government-affiliated &lt;mark&gt;cyber&lt;/mark&gt;security and internet-domain-registration organization.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE WSJ Pro HD NATO &lt;mark&gt;Cyber&lt;/mark&gt; Game Tests Defenses Amid War in Ukraine; Cyber experts from Ukraine and NATO countries to participate in simulated wargames BY By Catherine Stupp WC 602 words PD 18 April 2022 ET 15:00 SN WSJ Pro Cybersecurity SC RSTPROCY LA English CY Copyright © 2022, Dow Jones &amp; Company, Inc. LP NATO's large, multiday cyber defense exercise is set to bring together technical experts from alliance countries and Ukraine nearly two months after Russia's invasion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The annual &lt;mark&gt;cyber&lt;/mark&gt; wargames, known as the Locked Shields exercise, will start Tuesday in Tallinn, Estonia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The North Atlantic Treaty Organization's Cooperative &lt;mark&gt;Cyber&lt;/mark&gt; Defense Centre of Excellence organizes the event, which includes fictional cyberattack exercises that test teams have to fend off under time pressure.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD This year's competition is significant for the countries participating because their &lt;mark&gt;cyber&lt;/mark&gt; defense units have been on high alert since the outbreak of the war in Ukraine, said Anett Numa, an international policy adviser in the cyber policy unit of Estonia's ministry of defense.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Estonia also experienced a large-scale &lt;mark&gt;cyber&lt;/mark&gt;attack in 2007.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;NATO officials have been discussing various ways the alliance could help Ukraine fend off &lt;mark&gt;cyber&lt;/mark&gt;attacks, and gave the country access to its malware information-sharing platform in January.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In February, U.S. deputy national security adviser for &lt;mark&gt;cyber&lt;/mark&gt; and emerging technology Anne Neuberger, traveled to Brussels and Warsaw to discuss Russian cyber threats with officials from NATO, the European Union, Poland and Baltic countries.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The NATO alliance team includes around 30 &lt;mark&gt;cyber&lt;/mark&gt; defenders from different NATO bodies and member countries with specializations such as communications, digital forensics, legal expertise and recovering systems damaged from an attack, said Ian West, chief of the NATO Cyber Security Centre, which defends NATO networks and is a part of the organization's communications and information agency.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The exercise is useful for &lt;mark&gt;cyber&lt;/mark&gt; defenders from different countries to communicate with each other about attacks on the same technology products that several governments use, Mr. West said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The NATO center organizing Locked Shields doesn't make details of the simulated &lt;mark&gt;cyber&lt;/mark&gt;attacks public.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The wargames don't draw on elements of the recent &lt;mark&gt;cyber&lt;/mark&gt;attacks in Ukraine because those were too recent, but the exercise generally does include scenarios that occurred in real cyberattacks, Ms. Numa said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In 2021, more than 2,000 participants took part in a simulation that tested how a country might respond to a large-scale &lt;mark&gt;cyber&lt;/mark&gt;attack on its financial system and keep critical functions running, such as payments.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The benefit of the exercises is that it sets a baseline for participants to measure their &lt;mark&gt;cyber&lt;/mark&gt; defense skills against each other, said Stefan Soesanto, a senior cyber defense researcher at ETH Zurich.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Catherine Stupp at Catherine.Stupp@wsj.com CO nato : North Atlantic Treaty Organization NS ghack : &lt;mark&gt;Cyber&lt;/mark&gt;crime/Hacking | gcrim : Crime/Legal Action | gcat : Political/General News | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | estnia : Estonia | eecz : European Union Countries | eurz : Europe | uk : United Kingdom | baltst : Baltic States | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Neuberger, Anne IPC N/CRM PUB Dow Jones &amp; Company, Inc. AN Document RSTPROCY20220418ei4i00001 Page 34 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Modern armies and citizens fighting for their survival are relying on tech, whether it's being used as a tool for communication, or as a weapon controlling drones or conducting &lt;mark&gt;cyber&lt;/mark&gt; attacks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Since the start of the war in Ukraine, we've been keeping you up to date on the many ways tech is playing a role in the conflict, from the war's impact on Ukraine's large IT sector, to how social media companies are reacting, and of course, how &lt;mark&gt;cyber&lt;/mark&gt; attacks are being used by both sides.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And then, there also are &lt;mark&gt;cyber&lt;/mark&gt; attacks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;At the end of March, the country's largest landline provider, which also provides connectivity to the military, was mostly knocked offline from a &lt;mark&gt;cyber&lt;/mark&gt; attack.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Zoe Thomas: Sam, I think this is important, because Ukraine did say the other day that one of its electric grids was targeted by a &lt;mark&gt;cyber&lt;/mark&gt; attack.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In the past, we know Russia's managed to cause blackouts in Ukraine via &lt;mark&gt;cyber&lt;/mark&gt; attacks, so that is a danger.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Although, Ukraine's &lt;mark&gt;cyber&lt;/mark&gt; defense officials say that they've hardened their defenses since then, and they don't think that would be possible.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While the Biden administration has been open about the kind of defensive &lt;mark&gt;cyber&lt;/mark&gt;security assistance it has provided Kyiv -- deploying technical teams to Ukraine to help identify and patch vulnerabilities Russian hackers could exploit, for example -- it continues to draw lines on the kind of cyber operations against Moscow it is willing to engage in, officials and experts have said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While the Biden administration has been open about the kind of defensive &lt;mark&gt;cyber&lt;/mark&gt;security assistance it has provided Kyiv—deploying technical teams to Ukraine to help identify and patch vulnerabilities Russian hackers could exploit, for example—it continues to draw lines on the kind of cyber operations against Moscow it is willing to engage in, officials and experts have said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP About the author: Justin Sherman is a fellow at the Atlantic Council's &lt;mark&gt;Cyber&lt;/mark&gt; Statecraft Initiative and an independent cybersecurity, technology policy, and geopolitical risk consultant.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;These firms, many of which likely spend much of their resources on online content moderation and &lt;mark&gt;cyber&lt;/mark&gt;security, must now account for physical targeting risks in their decision-making.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukraine Crisis: Flow of Moscow &lt;mark&gt;Cyber&lt;/mark&gt;attacks Continues BY By Dustin Volz in Washington and Robert McMillan in San Francisco WC 738 words PD 13 April 2022 SN The Wall Street Journal SC J PG A6 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Ukrainian and Western intelligence officials feared Moscow's elite corps of state-sponsored hackers would launch crippling &lt;mark&gt;cyber&lt;/mark&gt;attacks to complement its invasion of Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Instead the &lt;mark&gt;cyber&lt;/mark&gt;war has been something closer to Internet trench warfare: A grinding conflict of relentless, if sometimes unsophisticated attacks that have taken casualties but had limited impact on the course of the fight.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Others have accomplished little more than keeping Ukraine's &lt;mark&gt;cyber&lt;/mark&gt;-defenders busy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Recently, as Russia's strategic aims appear to be shifting to eastern Ukraine, more alarming attacks on Ukraine's energy sector have been discovered, suggesting the next phase of the war could include a more active &lt;mark&gt;cyber&lt;/mark&gt; conflict.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Still, the &lt;mark&gt;cyber&lt;/mark&gt; fight has been "relentless," according to Tom Burt, Microsoft Corp.'s vice president of customer security and trust.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"This is full-on, full-scale &lt;mark&gt;cyber&lt;/mark&gt;war," he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Moscow has routinely denied allegations of &lt;mark&gt;cyber&lt;/mark&gt;attacks against other countries and said recently its government websites were facing unprecedented cyber disruptions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While &lt;mark&gt;cyber&lt;/mark&gt;security analysts and intelligence officials are working to understand why the scale of the Russian cyber-offenses has been so much more limited than feared, several theories have emerged.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian strategists assumed the conventional campaign would wrap up in a matter of days and didn't appear to deploy their toughest &lt;mark&gt;cyber&lt;/mark&gt; weapons, said U.S. officials.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine's &lt;mark&gt;cyber&lt;/mark&gt; defenses have improved in recent years, under constant attack from Russian hackers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We're seeing B- or C-team players out of Russia," said Matthew Olney, a director with Cisco Systems Inc.'s Talos &lt;mark&gt;cyber&lt;/mark&gt;security division.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For Victor Zhora, the state &lt;mark&gt;cyber&lt;/mark&gt;protection agency's deputy chief, the current cyberwar in Ukraine began on Jan. 14 -- weeks before the first Russian tanks rolled in.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, Ukraine has suffered hacks of government and corporate networks, phishing attacks, &lt;mark&gt;cyber&lt;/mark&gt;attacks on citywide camera systems, near-daily attempts to install wiper software, and even tactical cyberattacks launched in conjunction with military strikes, according to representatives of Ukraine's State Service of Special Communications and Information Protection, and U.S. companies that are helping to defend these systems.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Tuesday, ESET, a Slovak-based &lt;mark&gt;cyber&lt;/mark&gt;security firm, and Ukraine's cybersecurity emergency response team reported that a new strain of malware had been wielded in an attack on high-voltage electrical substations in Ukraine that was scheduled to damage systems earlier this month.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Russians haven't taken down the Ukrainian power grid and they haven't caused a global &lt;mark&gt;cyber&lt;/mark&gt; catastrophe.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS ghack : &lt;mark&gt;Cyber&lt;/mark&gt;crime/Hacking | gcrim : Crime/Legal Action | gvio : Military Action | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220413ei4d0001b Page 184 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Leroy Merlin cited &lt;mark&gt;cyber&lt;/mark&gt;security as a reason to disconnect the systems in a message to employees viewed by the Journal, and employees said the company has continued to pay all Ukrainian staff.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Officials aren't sitting idle either: Last week, the U.S. Treasury sanctioned Russia's Garantex and Hydra for aiding &lt;mark&gt;cyber&lt;/mark&gt;crime.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Technology SE Tech HD In Ukraine, a 'Full-Scale &lt;mark&gt;Cyber&lt;/mark&gt;war' Emerges; Russians haven't pulled off a catastrophic cyberattack but have kept Ukraine's defenders busy with a relentless campaign BY By Dustin Volz in Washington and Robert McMillan in San Francisco WC 1,382 words PD 12 April 2022 ET 21:46 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Ukrainian and Western intelligence officials feared Moscow's elite corps of state-sponsored hackers would launch crippling &lt;mark&gt;cyber&lt;/mark&gt;attacks to complement its invasion of Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Instead the &lt;mark&gt;cyber&lt;/mark&gt;war has been something closer to Internet trench warfare: a grinding conflict of relentless, if sometimes unsophisticated attacks that have taken casualties but had limited impact on the course of the fight.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Others have accomplished little more than keeping Ukraine's &lt;mark&gt;cyber&lt;/mark&gt;-defenders busy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;More recently, as Russia's strategic aims appear to be shifting to eastern Ukraine, new and more alarming attacks on Ukraine's energy sector have been discovered, suggesting the next phase of the war could include a more active &lt;mark&gt;cyber&lt;/mark&gt; conflict.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Still, the &lt;mark&gt;cyber&lt;/mark&gt; fight has been "relentless," according to Tom Burt, Microsoft Corp.'s vice president of customer security and trust.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"This is full-on, full-scale &lt;mark&gt;cyber&lt;/mark&gt;war," he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Moscow has routinely denied allegations of &lt;mark&gt;cyber&lt;/mark&gt;attacks against other countries and said recently its government websites were facing unprecedented cyber disruptions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While &lt;mark&gt;cyber&lt;/mark&gt;security analysts and intelligence officials are working to understand why the scale of the Russian cyber-offenses has been so much more limited than feared, several theories have emerged.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian strategists assumed the conventional campaign would wrap up in a matter of days and didn't appear to deploy their toughest &lt;mark&gt;cyber&lt;/mark&gt; weapons, U.S. officials said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine's &lt;mark&gt;cyber&lt;/mark&gt; defenses have improved in recent years, under constant attack from Russian hackers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We're seeing B- or C-team players out of Russia," said Matthew Olney, a director with Cisco Systems Inc.'s Talos &lt;mark&gt;cyber&lt;/mark&gt;security division.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For Victor Zhora, the state &lt;mark&gt;cyber&lt;/mark&gt;protection agency's deputy chief, the current cyberwar in Ukraine began on Jan. 14—weeks before the first Russian tanks rolled over the border.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;At the end of March, Ukrtelecom, the country's largest landline provider, and a service provider to military systems, was mostly knocked offline due to a &lt;mark&gt;cyber&lt;/mark&gt;attack.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The attack didn't affect military operations, according to the state &lt;mark&gt;cyber&lt;/mark&gt;protection agency.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Just days after that, the Ukrainian government's national call center was knocked offline in another &lt;mark&gt;cyber&lt;/mark&gt;attack for about three days, according to Mr. Zhora.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, Ukraine has suffered hacks of government and corporate networks, phishing attacks, &lt;mark&gt;cyber&lt;/mark&gt;attacks on citywide camera systems, near-daily attempts to install wiper software, and even tactical cyberattacks launched in conjunction with military strikes, according to representatives of Ukraine's State Service of Special Communications and Information Protection, and U.S. companies that are helping to defend these systems.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Tuesday, ESET, a Slovak-based &lt;mark&gt;cyber&lt;/mark&gt;security firm, and Ukraine's cybersecurity emergency response team reported that a new strain of malware had been wielded in an attack on high-voltage electrical substations in Ukraine that was scheduled to damage systems earlier this month.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Sandworm is an apex predator, capable of serious operations, but they aren't infallible," said John Hultquist, vice president of intelligence analysis of the U.S.-based &lt;mark&gt;cyber&lt;/mark&gt;security firm Mandiant, on the newly detected attack.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine has suffered some of the worst &lt;mark&gt;cyber&lt;/mark&gt;attacks on record, and considering Moscow's established prowess in offensive cyberattacks, intelligence officials feared a shock-and-awe campaign of strikes on the electrical grid, government offices, or the national communications networks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In December 2015, a &lt;mark&gt;cyber&lt;/mark&gt;attack attributed to Sandworm knocked out power in parts of Kyiv for hundreds of thousands of people in the dead of winter.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A similar &lt;mark&gt;cyber&lt;/mark&gt;attack a year later plunged swaths of Kyiv in the dark again and was widely seen as a Russian test of powerful malware custom-made to disrupt electric grids.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That worm rapidly unfurled across the globe, destroying computer systems and costing billions in damages, in what some analysts have said was the costliest &lt;mark&gt;cyber&lt;/mark&gt;attack on record.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Russians haven't taken down the Ukrainian power grid and they haven't caused a global &lt;mark&gt;cyber&lt;/mark&gt; catastrophe like NotPetya.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. sent so-called hunt forward teams to Eastern Europe to detect critical &lt;mark&gt;cyber&lt;/mark&gt; vulnerabilities before the Russians could exploit them.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Justice Department announced last week that it had taken a botnet—a network of infected computers used to carry out malicious &lt;mark&gt;cyber&lt;/mark&gt; activity—linked to the GRU offline before it was able to become operational.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"He has regrouped his army to reconquer the east of Ukraine, and very likely such activity by his lieutenants in the &lt;mark&gt;cyber&lt;/mark&gt; sphere was to buttress and invigorate his soldiers."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Dustin Volz at dustin.volz@wsj.com and Robert McMillan at Robert.Mcmillan@wsj.com In Ukraine, a 'Full-Scale &lt;mark&gt;Cyber&lt;/mark&gt;war' Emerges IN i3302 : Computers/Consumer Electronics | i7902 : Telecommunication Services | icph : Computer Hardware | iint : Online Service Providers | itech : Technology | icomp : Computing NS ghack : Cybercrime/Hacking | gcrim : Crime/Legal Action | gcvir : Malware | gspy : Espionage | gvio : Military Action | ncolu : Columns | gcat : Political/General News | reqrte : Suggested Reading Telecommunications | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC CSCO PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220412ei4c00461 Page 203 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Leroy Merlin cited &lt;mark&gt;cyber&lt;/mark&gt;security as a reason to disconnect the systems in a message to employees viewed by the Journal, and employees said the company has continued to pay all Ukrainian staff.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On March 16, in a message to Ukrainian employees via the Viber phone-messaging app viewed by the Journal, Leroy Merlin cited &lt;mark&gt;cyber&lt;/mark&gt;security and said it is working to establish a new, closed, communications platform for Ukrainian staff that wouldn't be connected to the rest of the company.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>NFT</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>6</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Decentralized Finance/Marketplaces</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;SE Blog HD An &lt;mark&gt;NFT&lt;/mark&gt; of Ukraine's Zelenskyy Will Raise Funds for Sean Penn's Nonprofit BY By Fang Block WC 419 words PD 19 April 2022 ET 02:05 SN Barron's Blogs SC WCBBE LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Artist Tristan Eaton will release a nonfungible token, or &lt;mark&gt;NFT&lt;/mark&gt;, rendering of Ukrainian President Volodymyr Zelenskyy on Tuesday to raise funds for Sean Penn's nonprofit organization, Community Organized Relief Effort (CORE).&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A limited 500 editions of the digital art will be available on OpenSea, an &lt;mark&gt;NFT&lt;/mark&gt; marketplace.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;All proceeds from this sale, which would amount to US$150,000 if all the &lt;mark&gt;NFT&lt;/mark&gt;s sell, will be donated to CORE's ongoing relief effort for Ukraine refugees.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The &lt;mark&gt;NFT&lt;/mark&gt; depicts Ukrainian President Volodymyr Zelenskyy as a fighter, with a message Слава Україні (meaning "glory to Ukraine"), written in blue and yellow, colors of the Ukrainian national flag, across his portrait.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An &lt;mark&gt;NFT&lt;/mark&gt; of Ukraine's Zelenskyy Will Raise Funds for Sean Penn's Nonprofit NS gvexe : Executive Branch | gart : Art | gdev : Development/Humanitarian Aid | gent : Arts/Entertainment | gpir : Politics/International Relations | gpol : Domestic Politics | nblog : Blogs | gcat : Political/General News | gdip : International Relations | gvbod : Government Bodies | ncat : Content Types Page 28 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>cryptocurrency</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Decentralized Finance/Marketplaces</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;License this article from Dow Jones Reprint Service RF page,5043 IN ivicu : Virtual Currencies/Cryptocurrencies | ibnk : Banking/Credit | ifinal : Financial Services | ifmsoft : Financial Technology | itech : Technology NS mcryp : &lt;mark&gt;Cryptocurrency&lt;/mark&gt; Markets | m132 : Foreign Exchange Markets | mcat : Commodity/Financial Market News | ncolu : Columns | nhrd : Heard on the Street | npda : DJ Exclusive Analysis - All | c1521 : Analysts' Comments/Recommendations | ccat : Corporate/Industrial News | m13 : Money/Currency Markets | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter RE russ : Russia | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC PMDA PUB Dow Jones &amp; Company, Inc. AN Document J000000020220413ei4d0000f Page 192 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>crypto</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>15</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Decentralized Finance/Marketplaces</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;CLM Heard on the Street HD &lt;mark&gt;Crypto&lt;/mark&gt; Can't Evade Sanctions --- Only small sums of money seem to have left Russia via digital currencies BY By Jon Sindreu WC 685 words PD 13 April 2022 SN The Wall Street Journal SC J PG B14 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP [Financial Analysis and Commentary] If &lt;mark&gt;crypto&lt;/mark&gt;currencies can't have their moment in the sun when the entire Western monetary system is called into question, it may be time to call it quits.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Other digital currencies such as ether and dogecoin dropped in lockstep as stocks stumbled, confirming once again that &lt;mark&gt;crypto&lt;/mark&gt; gyrations mostly depend on broader speculative appetite.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But with U.S. lawmakers warning that &lt;mark&gt;crypto&lt;/mark&gt;currencies could be used to bypass sanctions and many nations now aware of the perils of depending on currencies weaponized by Western governments, it is remarkable that prices aren't reflecting the possibility of higher crypto adoption.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This suggests that &lt;mark&gt;crypto&lt;/mark&gt; may have helped some people circumvent capital controls and shield their savings against a depreciating ruble, but that they were few and financially unsophisticated.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Crucially, the &lt;mark&gt;crypto&lt;/mark&gt; market isn't deep enough to absorb inflows of macroeconomic significance and, if it were, Moscow could ape China and force domestic banks to crack down on exchanges of rubles for crypto.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Whatever financial backdoor &lt;mark&gt;crypto&lt;/mark&gt; offers, it doesn't even seem to be big enough for expert sanction evaders.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To be sure, there is still likely illegal activity in Russian &lt;mark&gt;crypto&lt;/mark&gt;: There is evidence of new bank-deposit addresses being used on small exchanges tied to money laundering, according to Chainalysis, a firm that tracks illicit crypto transactions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This may be true when &lt;mark&gt;crypto&lt;/mark&gt; stays within a circuit of companies with low "know your customer" controls in the niche digital economy -- someone earning bitcoin from mining or ransomware can use it to buy virtual private networks or cloud hosting, for example -- but the range of services on offer is small.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Usually, &lt;mark&gt;crypto&lt;/mark&gt; holders need to turn it into hard money by interacting with banks, and the traceability of blockchain technology becomes Page 191 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The idea that &lt;mark&gt;crypto&lt;/mark&gt; anonymity can replace the traditional, meticulously built network of shell companies is wrong.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Of course, many &lt;mark&gt;crypto&lt;/mark&gt; proponents prefer to dissociate it with crime and focus on how it has helped a war-torn Ukraine move money and receive $100 million in donations.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The hard truth is that the only feature of &lt;mark&gt;crypto&lt;/mark&gt;currencies that can't be replicated by banks is the promise to sidestep government oversight.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Crypto&lt;/mark&gt; investors need the latter to be true, but the situation in Russia is piling up ever more evidence in favor of the former.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service RF page,5043 IN ivicu : Virtual Currencies/&lt;mark&gt;Crypto&lt;/mark&gt;currencies | ibnk : Banking/Credit | ifinal : Financial Services | ifmsoft : Financial Technology | itech : Technology NS mcryp : Cryptocurrency Markets | m132 : Foreign Exchange Markets | mcat : Commodity/Financial Market News | ncolu : Columns | nhrd : Heard on the Street | npda : DJ Exclusive Analysis - All | c1521 : Analysts' Comments/Recommendations | ccat : Corporate/Industrial News | m13 : Money/Currency Markets | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter RE russ : Russia | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC PMDA PUB Dow Jones &amp; Company, Inc. AN Document J000000020220413ei4d0000f Page 192 of 235 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>23</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A lot of voters feel like they haven't g&lt;mark&gt;ott&lt;/mark&gt;en that."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"It pains my heart to see them suffering," said Eugenia Michalovski, 54, who looks after a Ukrainian cemetery in the town, d&lt;mark&gt;ott&lt;/mark&gt;ed with pink flowers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;BY By Jeffrey Sc&lt;mark&gt;ott&lt;/mark&gt; Shapiro WC 567 words PD 11 April 2022 ET 00:29 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP A Green Beret conducted U.S.-led special-operations exercises with a Guinean soldier in Nouakch&lt;mark&gt;ott&lt;/mark&gt;, Mauritania, in 2020.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A May 2020 speech in Mandarin by former Deputy National Security Adviser Matt P&lt;mark&gt;ott&lt;/mark&gt;inger was particularly alarming, they said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Speaking on the anniversary of a pivotal 1919 student protest in China, Mr. P&lt;mark&gt;ott&lt;/mark&gt;inger said: "Wasn't the goal to achieve citizen-centric government in China, and not replace one regime-centric model with another one?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In response to a request for comment, Mr. P&lt;mark&gt;ott&lt;/mark&gt;inger said that such an interpretation was "a profound admission that the Communist Party knows it has failed to deliver citizen-centric governance, and it confirms what everyone already suspected: What Beijing fears above all is its own people."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"It pains my heart to see them suffering," said Eugenia Michalovski, 54, who looks after a Ukrainian cemetery in the town, d&lt;mark&gt;ott&lt;/mark&gt;ed with pink flowers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Drinking a b&lt;mark&gt;ott&lt;/mark&gt;le of virtual Nemiroff, a Ukrainian vodka brand, makes players move faster.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Wray Charl&lt;mark&gt;ott&lt;/mark&gt;esville, Va. --- President Biden appeased Mr. Putin before, in 2021, removing the Trump administration's sanctions on the Nord Stream 2 pipeline.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Have its leaders forg&lt;mark&gt;ott&lt;/mark&gt;en how the U.S. rescued them from Saddam Hussein's dungeons in 1991?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ms. Aksenko was sp&lt;mark&gt;ott&lt;/mark&gt;ed caring for an elderly woman upstairs who was too frail to make it to the basement.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In recent days, he sp&lt;mark&gt;ott&lt;/mark&gt;ed them in a video released by separatists that showed aid being distributed to civilians.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Have its leaders forg&lt;mark&gt;ott&lt;/mark&gt;en how the U.S. rescued them from Saddam Hussein's dungeons in 1991?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"They saw a sp&lt;mark&gt;ott&lt;/mark&gt;er in every person who lived on the fifth floor," said Leonid Cherkassy, a Bucha resident.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Crimea was predominantly Muslim in the 18th century and loosely affiliated with the &lt;mark&gt;Ott&lt;/mark&gt;omans.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"It is experiencing severe cost inflation, a labor shortage due to three downturns in 12 years, shortages of drilling rigs, frack fleets, frack sand, steel pipe and other equipment and materials," said Sc&lt;mark&gt;ott&lt;/mark&gt; Sheffield, chief executive of Pioneer Natural Resources Co., one of the largest U.S. independent oil and gas producers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukraine Crisis: EU Keeps Russian Oil, Gas Flowing --- Germany resists key energy boyc&lt;mark&gt;ott&lt;/mark&gt; as allegations grow of Ukraine civilian killings BY By Laurence Norman and Bojan Pancevski WC 852 words PD 7 April 2022 SN The Wall Street Journal SC J PG A7 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Any notion Russians themselves may have entertained that somewhere at the b&lt;mark&gt;ott&lt;/mark&gt;om of all this was a rationale for uniting with the medieval political state known as the Kievan Rus is now exposed as a gross lie by their leader.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In contrast, the U.S. would need to sustain forces across thousands of miles of open ocean sparsely d&lt;mark&gt;ott&lt;/mark&gt;ed with islands.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Fortunately, expected inflation doesn't appear to have g&lt;mark&gt;ott&lt;/mark&gt;en out of hand, at least not yet.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Europe News SE World HD Europe Keeps Russian Oil, Gas Flowing Despite Tightening Sanctions; Germany resists far-reaching energy boyc&lt;mark&gt;ott&lt;/mark&gt; as allegations of civilian killings in Ukraine add pressure to increase penalties on Moscow BY By Laurence Norman and Bojan Pancevski WC 1,159 words PD 6 April 2022 ET 22:03 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;German Chancellor Olaf Scholz has dismissed such findings as based on uncertain theoretical models, instead citing warnings by German industry that boyc&lt;mark&gt;ott&lt;/mark&gt;ing Russian gas in particular could cause an economic disaster.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>87</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Write to Catherine Lucey at catherine.lucey@wsj.com and Alex Leary at alex.leary@wsj.com Democrats Search for Midterm Vote Strategy as Biden Poll Numbers Lag NS gcat : Political/General News | gpol : Domestic Politics | gvote1 : National/Presidential Elections | gsars : Novel Coronaviruses | e211 : Government Budget/Taxation | ecat : Economic News | ghea : Health | gpir : Politics/International Relations | gvote : Elections | ncolu : Columns | nsur : Surveys/Polls | e1103 : Inflation Figures/Price Indices | e11 : Economic Performance/Indicators | e21 : Government Finance | gcold : Respiratory Tract Diseases | gmed : Medical Conditions | gspox : Infectious Diseases | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE usa : United States | ukrn : Ukraine | eurz : Europe | namz : North America | uk : United Kingdom | usdc : Washington DC | uss : Southern U.S. | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC G/FED PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220411ei4b0018h Page 4 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Putin's Ukraine War Roils U.S.-India Ties NS gdip : International Relations | gvexe : Executive Branch | gcat : Political/General News | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | gsec : State Security Measures/Policies | gvio : Military Action | ncolu : Columns | nedc : Commentaries/Opinions | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE india : India | china : China | solil : Solomon Islands | asiaz : Asia | ausnz : Australia/Oceania | easiaz : Eastern Asia | eurz : Europe | ndelh : New Delhi | pacisz : Pacific Islands | pakis : Pakistan | puri : Puerto Rico | russ : Russia | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | delhi : Delhi | apacz : Asia Pacific | bric : BRICS Countries | caribz : Caribbean Islands | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | indsubz : Indian Subcontinent | lamz : Latin America | namz : North America | sasiaz : Southern Asia | usa : United States | usau : U.S. Unincorporated Territories | weurz : Western Europe IPD COLUMN IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220411ei4b005v5 Page 6 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i814 : Banking | ibnk : Banking/Credit | ifinal : Financial Services NS c22 : New Products/Services | ccat : Corporate/Industrial News | ecat : Economic News | gcat : Political/General News | cexpro : Products/Services | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE ukrn : Ukraine | eurz : Europe | uk : United Kingdom | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD PRO IPC G/FED PUB Dow Jones &amp; Company, Inc. AN Document RSTPROCB20220411ei4b0005l Page 7 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Footage from Bucha could accelerate that timetable, while leaving the &lt;mark&gt;content&lt;/mark&gt; of that "anything" ambiguous.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Email: editors@barrons.com CO euruno : European Union NS gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | ncolu : Columns | ncor : Corrections | ncrx : Corrected Items | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | russ : Russia | asiaz : Asia | belg : Belgium | brus : Brussels | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | benluxz : Benelux Countries | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Barrons.com IPC n/cor PUB Dow Jones &amp; Company, Inc. AN Document B000000020220408ei4b00030 Page 9 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i64 : Retail/Wholesale | i656000301 : Etailing | iecom : E-commerce | iint : Online Service Providers | imed : Media/Entertainment | iretail : Retail | isocial : Social Media Platforms/Tools | itech : Technology NS naudvl : Audio-visual Links | ntra : Transcripts | c31 : Marketing | ccat : Corporate/Industrial News | gcrim : Crime/Legal Action | gvio : Military Action | gwar : War Crimes | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | niwe : IWE Filter RE ukrn : Ukraine | fra : France | eecz : European Union Countries | eurz : Europe | uk : United Kingdom | weurz : Western Europe | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | medz : Mediterranean IPD SYND IPC N/CNW PUB Dow Jones &amp; Company, Inc. AN Document WSJPOD0020220411ei4b000gp Page 10 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO nvdcrp : NVIDIA Corporation IN icph : Computer Hardware | i3302 : Computers/Consumer Electronics | i34531 : Semiconductors | icnp : Consumer Goods | ifurn : Furniture | iindele : Industrial Electronics | iindstrls : Industrial Goods | iint : Online Service Providers | itech : Technology | icomp : Computing | iintcir : Integrated Circuits | ividbd : Graphics Integrated Circuits NS c15 : Financial Performance | gptech : Personal Technology | c1521 : Analysts' Comments/Recommendations | ccat : Corporate/Industrial News | glife : Living/Lifestyle | gcat : Political/General News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | asiaz : Asia | china : China | easiaz : Eastern Asia | eurz : Europe | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Technology IPC I/CPR PUB Dow Jones &amp; Company, Inc. AN Document BON0000020220411ei4b001gt Page 12 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO smdc : Cameco Corp IN i22 : Primary Metals | i224 : Non-ferrous Metals | ibasicm : Basic Materials/Resources | imet : Mining/Quarrying | iuran : Uranium Ore Mining | i211 : Metal Ore Mining | infmore : Non-ferrous Metal Ore Mining NS c1521 : Analysts' Comments/Recommendations | c181 : Acquisitions/Mergers/Shareholdings | cacqu : Acquisitions/Mergers | cactio : Corporate Actions | ccat : Corporate/Industrial News | c18 : Ownership Changes | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter Page 13 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;All WSJ Pro Cybersecurity research reports, webinars, events and data are available at wsj.com/pro/cybersecurity/research Conflict in Ukraine: Preparing for Cyberattacks NS ghack : Cybercrime/Hacking | gcvir : Malware | gdatap : Privacy Issues/Information Security | gcrim : Crime/Legal Action | ncolu : Columns | gcat : Political/General News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD 0 IPC N/CRM PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220411ei4b002gx Page 17 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Jason Douglas at jason.douglas@wsj.com China Inflation Rises as Lockdowns, Ukraine War Drive Up Prices NS ecat : Economic News | ecpin : Consumer Price Index | e1103 : Inflation Figures/Price Indices | gsars : Novel Coronaviruses | e11 : Economic Performance/Indicators | ghea : Health | ncolu : Columns | npred : Economic Predictions/Forecasts | gcat : Political/General News | gcold : Respiratory Tract Diseases | gmed : Medical Conditions | gspox : Infectious Diseases | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE china : China | chinaz : Greater China | easiaz : Eastern Asia | asiaz : Asia | eurz : Europe | namz : North America | uk : United Kingdom | ukrn : Ukraine | usa : United States | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC G/FED PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220411ei4b000jh Page 19 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Boris Johnson Tours Kyiv NS gvexe : Executive Branch | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | ncolu : Columns | nedc : Commentaries/Opinions | gpol : Domestic Politics | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220410ei4a002p9 Page 20 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO ssjhoi : Federal State Statistics Service of Russia NS gjob : General Labor Issues | nimage : Images | nsur : Surveys/Polls | gvio : Military Action | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE russ : Russia | ukrn : Ukraine | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC PIC PUB Dow Jones &amp; Company, Inc. AN Document J000000020220411ei4b00011 Page 22 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i351 : Motor Vehicles | i35104 : Alternative Fuel Vehicles | iaut : Automotive | iint : Online Service Providers | imed : Media/Entertainment | isocial : Social Media Platforms/Tools | itech : Technology NS ecat : Economic News | naudvl : Audio-visual Links | ntra : Transcripts | gvio : Military Action | ncolu : Columns | nitv : Interviews | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | niwe : IWE Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | donsk : Donbas | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD SYND IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJPOD0020220411ei4b0005l Page 26 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i351 : Motor Vehicles | i35104 : Alternative Fuel Vehicles | iaut : Automotive | iint : Online Service Providers | imed : Media/Entertainment | isocial : Social Media Platforms/Tools | itech : Technology NS naudvl : Audio-visual Links | ntra : Transcripts | c41 : Management | c411 : Management Moves | cboard : Board of Directors | ccat : Corporate/Industrial News | ncolu : Columns | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | niwe : IWE Filter RE ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD SYND IPC G/FED PUB Dow Jones &amp; Company, Inc.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service IN iaer : Aerospace/Defense | iindstrls : Industrial Goods NS gdef : Armed Forces | gvio : Military Action | npag : Page One Stories | reqrad : Suggested Reading Aerospace/Defense | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE ukrn : Ukraine | russ : Russia | donsk : Donbas | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220411ei4b0001j Page 30 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS gdip : International Relations | gvio : Military Action | mcat : Commodity/Financial Market News | nedc : Commentaries/Opinions | gcat : Political/General News | gcns : National/Public Security | gpir : Politics/International Relations | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter RE russ : Russia | ukrn : Ukraine | eurz : Europe | uk : United Kingdom | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | namz : North America | ussrz : CIS Countries | weurz : Western Europe IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220411ei4b0000n Page 39 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Doug Deaver TD Aptos, Calif. License this article from Dow Jones Reprint Service NS gvio : Military Action | nlet : Letters | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | niwe : IWE Filter | nrgn : Routine General News RE russ : Russia | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220411ei4b0000h Page 40 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Callum Keown at callum.keown@dowjones.com CO rwe : RWE AG IN i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | iaer : Aerospace/Defense | idef : Defense Equipment/Products | iindstrls : Industrial Goods | imulti : Multiutilities | iutil : Utilities | ifosfl : Fossil Fuels NS ecat : Economic News | c151 : Earnings | gdef : Armed Forces | gvbod : Government Bodies | gvio : Military Action | npag : Page One Stories | c15 : Financial Performance | ccat : Corporate/Industrial News | gcat : Political/General News | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | eurz : Europe | gfr : Germany | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Barrons.com IPC 5UH.XE PUB Dow Jones &amp; Company, Inc. AN Document B000000020220408ei4b000gp Page 43 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Georgi Kantchev at georgi.kantchev@wsj.com, Evan Gershkovich at evan.gershkovich@wsj.com and Yuliya Chernova at yuliya.chernova@wsj.com Fleeing Putin, Thousands of Educated Russians Are Moving Abroad CO ssjhoi : Federal State Statistics Service of Russia NS gjob : General Labor Issues | gvexe : Executive Branch | gvio : Military Action | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gesanc : International Sanctions | gimm : Human Migration | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | nsur : Surveys/Polls | gcat : Political/General News | gcns : National/Public Security | gdip : International Relations | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC FB PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220410ei4a0002u Page 46 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Emmanuel Macron's French Squeeze NS gvexe : Executive Branch | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | nedc : Commentaries/Opinions | gcat : Political/General News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE fra : France | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | russ : Russia | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | medz : Mediterranean IPD Opinion | IPC N/EEC PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220410ei4a002s1 Page 48 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Right's Russia Temptation NS gvexe : Executive Branch | gcat : Political/General News | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | nedc : Commentaries/Opinions | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220410ei4a00209 Page 50 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to James Marson at james.marson@wsj.com and Brett Forrest at brett.forrest@wsj.com Ukraine Urges Citizens to Flee Ahead of Expected Russian Assault in East NS gvio : Military Action | gdef : Armed Forces | gvexe : Executive Branch | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | russ : Russia | asiaz : Asia | donsk : Donbas | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220409ei49000p1 Page 55 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Michael M. Phillips at michael.phillips@wsj.com In Africa, U.S.-Trained Militaries Are Ousting Civilian Governments in Coups CO usmawp : U.S. Military Academy West Point NS gdef : Armed Forces | gcoup : Armed Rebellion | gvio : Military Action | gcrim : Crime/Legal Action | gpir : Politics/International Relations | gpol : Domestic Politics | gterr : Terrorism | gvbod : Government Bodies | ncolu : Columns | nimage : Images | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE usa : United States | africaz : Africa | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | russ : Russia | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Wires IPC G/CIA PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220409ei49000ul Page 59 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Conflict NS gdip : International Relations | gnuclw : Nuclear Weapons Programs | gcat : Political/General News | gpir : Politics/International Relations | gvbod : Government Bodies | gvio : Military Action | ncolu : Columns | gcns : National/Public Security | gdef : Armed Forces | gpol : Domestic Politics | grisk : Risk News | gweap : Weapons Programs | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types Page 65 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Samantha Pearson at samantha.pearson@wsj.com and Luciana Magalhaes at Luciana.Magalhaes@wsj.com Ukrainian Enclave in Brazil Offers Warm Welcome to War Refugees NS gimm : Human Migration | gpir : Politics/International Relations | gvio : Military Action | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | braz : Brazil | eurz : Europe | lamz : Latin America | samz : South America | uk : United Kingdom | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC MCD PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220409ei49000m9 Page 69 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS gdip : International Relations | gvio : Military Action | gpol : Domestic Politics | gtortu : Torture | nedc : Commentaries/Opinions | gcat : Political/General News | gcns : National/Public Security | gcom : Society/Community | gcrim : Crime/Legal Action | ghum : Human Rights/Civil Liberties | gpir : Politics/International Relations | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE usa : United States | ukrn : Ukraine | russ : Russia | egypt : Egypt | iran : Iran | iraq : Iraq | israel : Israel | kuwait : Kuwait | saarab : Saudi Arabia | yemar : Yemen | africaz : Africa | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | gulfstz : Persian Gulf Region | meastz : Middle East | medz : Mediterranean | nafrz : North Africa | namz : North America | ussrz : CIS Countries | wasiaz : Western Asia IPC DEF PUB Dow Jones &amp; Company, Inc. AN Document J000000020220409ei490002f Page 71 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO rosgos : Central Bank of the Russian Federation IN ibnk : Banking/Credit | ifinal : Financial Services NS e1202 : Interest Rates | e12 : Monetary Policy | ecat : Economic News | e1201 : Central Bank Intervention | m131 : Money Markets | m13 : Money/Currency Markets | mcat : Commodity/Financial Market News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220409ei490001m Page 76 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i3302 : Computers/Consumer Electronics | i330202 : Software | i4941 : Dolls/Toys/Games | i66 : Lodgings/Restaurants/Bars | i665 : Lodgings | icnp : Consumer Goods | icph : Computer Hardware | iint : Online Service Providers | ilea : Leisure/Arts/Hospitality | ilgood : Leisure/Travel Goods | itech : Technology | icomp : Computing NS gcha : Charities/Philanthropy | ccat : Corporate/Industrial News | gvio : Military Action | ncolu : Columns | gcat : Political/General News | reqlea : Suggested Reading Leisure/Arts | gcns : National/Public Security | gcom : Society/Community | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Page 78 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO utdnat : United Nations IN ifood : Food Products | i41 : Food/Beverages | icnp : Consumer Goods NS e1118 : Trade Figures | c314 : Pricing | mveoil : Vegetable Oil Markets | neqac : Equities Asset Class News | gvio : Military Action | c31 : Marketing | ccat : Corporate/Industrial News | e11 : Economic Performance/Indicators | e51 : Trade/External Payments | ecat : Economic News | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | m14 : Commodity Markets | m141 : Agricultural Commodity Markets | mcat : Commodity/Financial Market News | medoil : Edible Oils Markets | mgroil : Grains/Edible Oils Markets | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE ukrn : Ukraine | russ : Russia | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220409ei490002n Page 81 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO euruno : European Union IN i814 : Banking | ibnk : Banking/Credit | ifinal : Financial Services NS gesanc : International Sanctions | gcat : Political/General News | gtrade : Trade Barriers/Restrictions | neqac : Equities Asset Class News | reqrbc : Suggested Reading Banking/Credit | e51 : Trade/External Payments | ecat : Economic News | gdip : International Relations | gpir : Politics/International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE russ : Russia | ukrn : Ukraine | eurz : Europe | uk : United Kingdom | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | namz : North America | ussrz : CIS Countries | weurz : Western Europe IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220409ei490001l Page 85 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | niwe : IWE Filter | nrgn : Routine General News RE russ : Russia | ukrn : Ukraine | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220409ei490000f Page 93 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;14, 2022) License this article from Dow Jones Reprint Service CO utdnat : United Nations NS gdip : International Relations | gcat : Political/General News | gvexe : Executive Branch | ghum : Human Rights/Civil Liberties | gvio : Military Action | ncolu : Columns | gcns : National/Public Security | gcom : Society/Community | gpir : Politics/International Relations | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE russ : Russia | ukrn : Ukraine | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220408ei4800010 Page 95 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Congress Punts on Funding Vaccines, Treatments as Covid-19 Hits Some Lawmakers CO uscong : United States Congress NS gsars : Novel Coronaviruses | gcat : Political/General News | gout : Outbreaks/Epidemics | gvuph : Upper House | c13 : Regulation/Government Policy | gimmu : Immunizations | ccat : Corporate/Industrial News | ghea : Health | gimm : Human Migration | gpir : Politics/International Relations | gpol : Domestic Politics | gvcng : Legislative Branch | ncolu : Columns | gcold : Respiratory Tract Diseases | gmed : Medical Conditions | gspox : Infectious Diseases | gtrea : Medical Treatments/Procedures | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter Page 97 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;cexpro : Products/Services | gcns : National/Public Security | grisk : Risk News | m14 : Commodity Markets | m141 : Agricultural Commodity Markets | mcat : Commodity/Financial Market News | medoil : Edible Oils Markets | mgroil : Grains/Edible Oils Markets | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC ADM PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220408ei4800691 Page 101 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia Cuts Interest Rate as Financial System Stabilizes CO rosgos : Central Bank of the Russian Federation IN ibnk : Banking/Credit | ifinal : Financial Services NS e1202 : Interest Rates | e12 : Monetary Policy | ecat : Economic News | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | gcat : Political/General News | gdip : International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD WSJ IPC I/BKS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220408ei48000xd Page 104 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Military Action | ncolu : Columns | gcns : National/Public Security | gpol : Domestic Politics | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE gfr : Germany | ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Wires IPC G/CIA PUB Dow Jones &amp; Company, Inc. AN Document WS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cable</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Telecom Infra</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;European Commission President Ursula von der Leyen, who met with Mr. Zelensky in Kyiv on Friday, condemned the attack, calling it despi&lt;mark&gt;cable&lt;/mark&gt;.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Investment</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>33</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Digital investment</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The islands hold significant mineral deposits, and the surrounding waters offer rich fishing prospects, but continuing unrest along with pervasive corruption has discouraged foreign &lt;mark&gt;investment&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Etsy executives say the fee hike is critical for it to make &lt;mark&gt;investment&lt;/mark&gt;s in marketing and expand seller support services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;After reversing his decision to join the board of Twitter, Elon Musk now says his stake social media company is for &lt;mark&gt;investment&lt;/mark&gt; purposes and that he may engage with Twitter's board on business decisions and other matters that's according to a newly amended regulatory filing from Musk.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It added that people leaving Russia, coupled with reduced &lt;mark&gt;investment&lt;/mark&gt; and trade, would result in lower long-term productivity growth.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Both have started pivoting toward a renewable energy future, says Zach Olson, director of &lt;mark&gt;investment&lt;/mark&gt; research at Drum Hill Capital, while maintaining large oil and gas businesses.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It added that people leaving Russia, coupled with reduced &lt;mark&gt;investment&lt;/mark&gt; and trade, would result in lower long-term productivity growth.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He said the Russian marketplace has shrunk, foreign &lt;mark&gt;investment&lt;/mark&gt; has dwindled and access to foreign technology has disappeared.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Avoiding that outcome, as well as other land mines along the way, will require new, farsighted policies, wise diplomacy and smart &lt;mark&gt;investment&lt;/mark&gt;s by the private sector.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That gives a regulatory green light for new private &lt;mark&gt;investment&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Another policy challenge is the need to encourage companies to make significant &lt;mark&gt;investment&lt;/mark&gt;s in fossil-fuel projects now, while also declaring that the nation's goal is to make those projects obsolete down the road.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It's hard to convince a company to make a multibillion-dollar &lt;mark&gt;investment&lt;/mark&gt; in a pipeline that takes 30 years to pay for itself when the U.S. has embarked on a push to make the gas it carries unnecessary in 10 years.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It may be necessary, for instance, for government to provide incentives for the initial &lt;mark&gt;investment&lt;/mark&gt; or to guarantee assistance down the road to retrofit gas pipelines to carry clean-energy hydrogen.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;America's oil power helped it to build the economy that prevailed in the Cold War -- until a need for Persian Gulf oil changed America's strategic calculus and produced the &lt;mark&gt;investment&lt;/mark&gt; of trillions of dollars and American blood in the Middle East.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Moscow's invasion of Ukraine has driven an increase in Russians buying property in Turkey, including some who have invested more than $250,000 each to acquire a Turkish passport under the country's citizenship-through-&lt;mark&gt;investment&lt;/mark&gt; program, real-estate brokers said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Biden administration is prohibiting new &lt;mark&gt;investment&lt;/mark&gt; in Russia by Americans and has also barred American individuals and firms from dealing in Russian sovereign debt, cutting off a key funding source for Kremlin objectives.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The EU announced a broad ban on &lt;mark&gt;investment&lt;/mark&gt; in Russia's energy sector and is promising to cut its imports of Russian natural gas by two-thirds by the end of this year, while the U.K. said it would end Russian oil Page 134 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Shell's Russia assets were held as noncurrent, referring to long-term &lt;mark&gt;investment&lt;/mark&gt;s not readily converted to cash.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;America should offer the countries of the Caucasus and Central Asia security and intelligence cooperation, &lt;mark&gt;investment&lt;/mark&gt;, educational opportunities, technical assistance to promote transparency, good governance, legal reforms, and training for private-sector executives and the state apparatus.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That said, after Russia defaulted in 1998, it was back at &lt;mark&gt;investment&lt;/mark&gt; grade by 2003.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Before the invasion, Russia had an &lt;mark&gt;investment&lt;/mark&gt;-grade credit rating from all three major rating companies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Viktor Szabo, an &lt;mark&gt;investment&lt;/mark&gt; director with a focus on emerging-market debt at Abrdn, said his team wrote the value of its local-currency Russian government bonds down to zero.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A resumption in leasing, they say, would encourage companies to expand production and bring fresh &lt;mark&gt;investment&lt;/mark&gt; to the industry.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Over a six-hour hearing, Democrats on a House oversight panel castigated executives from Exxon Mobil Corp., Chevron Corp. and other oil giants for raking in historically high profits while slowing &lt;mark&gt;investment&lt;/mark&gt; in U.S. production.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.K., which isn't an EU member, said that it also is freezing Sberbank's assets and banning outward &lt;mark&gt;investment&lt;/mark&gt; in Russia, among other measures.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Justice Department also accused Messrs. Malofeyev and Hanick of working together to illegally transfer a $10 million &lt;mark&gt;investment&lt;/mark&gt; that Mr. Malofeyev made in a Texas bank to the business associate in Greece, in a move that violated the sanctions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Any serious rebuilding of Mariupol, Mykolaiv and other cities ceded to Russia will never happen without capital &lt;mark&gt;investment&lt;/mark&gt;s from Western banks and governments, making us the morally humiliated paymasters for Mr. Putin's demolition.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It has, though, said it would suspend all advertising, halt capital-&lt;mark&gt;investment&lt;/mark&gt; projects and not pursue any new business opportunities in Russia and Belarus.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, President Biden on Wednesday will sign an executive order prohibiting new &lt;mark&gt;investment&lt;/mark&gt; in Russia by American investors, including those outside the U.S.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.K., which isn't an EU member, said that it was also freezing Sberbank's assets and banning outward &lt;mark&gt;investment&lt;/mark&gt; in Russia, among other measures.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i814 : Banking | i81402 : Commercial Banking | i831 : Financial &lt;mark&gt;Investment&lt;/mark&gt; Services | i83106 : Securities/Commodity Exchange Activities | ibnk : Banking/Credit | ifinal : Financial Services | iibnk : Integrated Banks | iinv : Investing/Securities NS m15 : Derivative Securities | mswap : Swaps | gvtre : Finance/Treasury Department | ecat : Economic News | gpir : Politics/International Relations | gpol : Domestic Politics | mcat : Commodity/Financial Market News | e212 : Government Borrowing | gcat : Political/General News | e21 : Government Finance | gvbod : Government Bodies | gvexe : Executive Branch | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter RE ussrz : CIS Countries | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | russ : Russia | usa : United States | usc : Midwest U.S. | use : Northeast U.S. | usw : Western U.S. | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD PRO IPC G/TRE PUB Dow Jones &amp; Company, Inc. - Enterprise WSJ AN Document RSTPROBK20220406ei4600001 Page 227 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM World News SE World HD U.S., EU to Impose More Sanctions on Russia After War-Crimes Reports; Proposed EU measures include ban on imports of Russian coal while U.S. plans ban on all new &lt;mark&gt;investment&lt;/mark&gt; in Russia BY By Laurence Norman in Berlin and Ian Talley and Andrew Restuccia in Washington WC 1,242 words PD 6 April 2022 ET 06:23 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Meanwhile, the U.S. plans Wednesday to announce a new package of sanctions that would include a ban on all new &lt;mark&gt;investment&lt;/mark&gt; in Russia, according to people familiar with the matter.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Zelensky's speech came as the U.S. and European Union prepared to impose broad new packages of sanctions on Moscow, with Washington planning a ban on all new &lt;mark&gt;investment&lt;/mark&gt; in Russia and the European Commission proposing a ban on imports of Russian coal and sanctions on two daughters of Russian President Vladimir Putin .&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Privacy</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;All WSJ Pro Cybersecurity research reports, webinars, events and data are available at wsj.com/pro/cybersecurity/research Conflict in Ukraine: Preparing for Cyberattacks NS ghack : Cybercrime/Hacking | gcvir : Malware | gdatap : &lt;mark&gt;Privacy&lt;/mark&gt; Issues/Information Security | gcrim : Crime/Legal Action | ncolu : Columns | gcat : Political/General News | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD 0 IPC N/CRM PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220411ei4b002gx Page 17 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>7</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Putin &lt;mark&gt;trust&lt;/mark&gt;s few people, and he doesn't know how reliable anyone would be in this situation—nor what the Americans might do if they saw preparation for a Russian launch.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD Why Arab Allies Don't &lt;mark&gt;Trust&lt;/mark&gt; the U.S. on Ukraine BY By Robert Satloff WC 905 words PD 9 April 2022 SN The Wall Street Journal SC J PG A13 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;She also didn't think her family would &lt;mark&gt;trust&lt;/mark&gt; an escape route offered by separatists.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukraine Crisis: Kyiv Residents On Edge Despite Moscow Retreat --- Some locals return, others emerge from shelters; 'We don't &lt;mark&gt;trust&lt;/mark&gt; the Russians' BY By Isabel Coles WC 901 words PD 7 April 2022 SN The Wall Street Journal SC J PG A9 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD "We don't &lt;mark&gt;trust&lt;/mark&gt; the Russians," Ms. Rynk said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"It's important to &lt;mark&gt;trust&lt;/mark&gt; your own instincts," she said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;I &lt;mark&gt;trust&lt;/mark&gt; it to be "good."&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>69</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Decentralized Finance/Marketplaces</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;EU officials are studying ideas including a phased-in oil embargo, a tariff on Russian oil imports to reduce demand and forcing some part of the oil &lt;mark&gt;payment&lt;/mark&gt;s into an escrow account that Russia could only access to make certain payments, according to officials.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It is important that the West make clear that a settled peace with Ukraine, Russia's reversion to pre-Feb. 24 borders, the &lt;mark&gt;payment&lt;/mark&gt; of reparations to finance Ukraine's rebuilding, and restitution for the losses suffered by the Ukrainian state and its citizens are the minimal preconditions for Russia's partial reintegration into the global economy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Georgi Kantchev at georgi.kantchev@wsj.com, Evan Gershkovich at evan.gershkovich@wsj.com and Yuliya Chernova at yuliya.chernova@wsj.com Fleeing Putin, Thousands of Educated Russians Are Moving Abroad CO ssjhoi : Federal State Statistics Service of Russia NS gjob : General Labor Issues | gvexe : Executive Branch | gvio : Military Action | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gesanc : International Sanctions | gimm : Human Migration | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | nsur : Surveys/Polls | gcat : Political/General News | gcns : National/Public Security | gdip : International Relations | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC FB PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220410ei4a0002u Page 46 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO utdnat : United Nations IN ifood : Food Products | i41 : Food/Beverages | icnp : Consumer Goods NS e1118 : Trade Figures | c314 : Pricing | mveoil : Vegetable Oil Markets | neqac : Equities Asset Class News | gvio : Military Action | c31 : Marketing | ccat : Corporate/Industrial News | e11 : Economic Performance/Indicators | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | m14 : Commodity Markets | m141 : Agricultural Commodity Markets | mcat : Commodity/Financial Market News | medoil : Edible Oils Markets | mgroil : Grains/Edible Oils Markets | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE ukrn : Ukraine | russ : Russia | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220409ei490002n Page 81 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD The EU on Friday also blacklisted four banks already banned from the Swift global- &lt;mark&gt;payment&lt;/mark&gt;s system, including Russia's second-largest bank, VTB, according to diplomats.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;European diplomats say the two lenders are a conduit to &lt;mark&gt;payment&lt;/mark&gt;s for Russian oil and gas, which member countries rely heavily on for energy consumption.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO euruno : European Union IN i814 : Banking | ibnk : Banking/Credit | ifinal : Financial Services NS gesanc : International Sanctions | gcat : Political/General News | gtrade : Trade Barriers/Restrictions | neqac : Equities Asset Class News | reqrbc : Suggested Reading Banking/Credit | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gdip : International Relations | gpir : Politics/International Relations | ncat : Content Types | nfact : Factiva Filters | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE russ : Russia | ukrn : Ukraine | eurz : Europe | uk : United Kingdom | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | namz : North America | ussrz : CIS Countries | weurz : Western Europe IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220409ei490001l Page 85 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If a ban is too much, the EU should at least put &lt;mark&gt;payment&lt;/mark&gt;s for Russian energy into an escrow account until Mr. Putin ends his war, as our Holman Jenkins has suggested.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The European Union on Friday also blacklisted four banks already banned from the Swift global &lt;mark&gt;payment&lt;/mark&gt;s system, including Russia's second-largest bank, VTB, according to diplomats.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia Cuts Interest Rate as Financial System Stabilizes CO rosgos : Central Bank of the Russian Federation IN ibnk : Banking/Credit | ifinal : Financial Services NS e1202 : Interest Rates | e12 : Monetary Policy | ecat : Economic News | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | gcat : Political/General News | gdip : International Relations | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD WSJ IPC I/BKS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220408ei48000xd Page 104 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Georgi Kantchev at georgi.kantchev@wsj.com and Thomas Grove at thomas.grove@wsj.com Russian Missile Attack Kills Dozens at Railway Station in Eastern Ukraine CO doctwb : Médecins Sans Frontières IN iaer : Aerospace/Defense | iindstrls : Industrial Goods NS gvexe : Executive Branch | gcat : Political/General News | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | gvio : Military Action | ncolu : Columns | gcns : National/Public Security | gdip : International Relations | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | donsk : Donbas | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Wires IPC FB PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220408ei48000m9 Page 110 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Russians are using a variety of means to overcome Western sanctions that cut off some Russian banks from the Swift &lt;mark&gt;payment&lt;/mark&gt; system and capital controls imposed by Moscow that limit the amount of foreign currency Russians can send abroad.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;least put &lt;mark&gt;payment&lt;/mark&gt;s for Russian energy into an escrow account until Mr. Putin ends his war, as our Holman Jenkins has suggested.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The San Francisco-based &lt;mark&gt;payment&lt;/mark&gt;s giant's exit from Russia due to its invasion of Ukraine will make it difficult to compare this year's revenue with last year's, Chief Financial Officer Vasant Prabhu said this week.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Many Western businesses, including &lt;mark&gt;payment&lt;/mark&gt;s companies Mastercard Inc. and American Express Co., also said they would pause or end their operations in Russia after its invasion of Ukraine in late February.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The cards don't rely on U.S. systems to process &lt;mark&gt;payment&lt;/mark&gt;s in Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The cards for years have used the National &lt;mark&gt;Payment&lt;/mark&gt; Card System, a homegrown network overseen by Russia's central bank.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For Visa, revenue from the rebound in global travel and the continuing recovery of the company's cross-border &lt;mark&gt;payment&lt;/mark&gt;s business will likely more than make up for the sales generated in Russia, said Brett Horn, senior equity analyst at financial-services firm Morningstar Inc.'s research division.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i8150105 : Consumer Lending | i8394 : Computer Services | ifinal : Financial Services | itech : Technology | i81501 : Credit Types/Services | ibcs : Business/Consumer Services | ibnk : Banking/Credit | i8150108 : Credit Cards | ifmsoft : Financial Technology | iplastic : Electronic &lt;mark&gt;Payment&lt;/mark&gt; Systems NS c151 : Earnings | c15 : Financial Performance | c1513 : Sales Figures | c152 : Earnings Projections | c17 : Corporate Funding | c41 : Management | ccat : Corporate/Industrial News | cslmc : Senior Level Management | gvio : Military Action | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ussrz : CIS Countries | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC AXP PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220408ei48006el Page 128 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The previous rate hike, along with strict capital controls, financial sanctions that prevented Russian banks from selling, and oil and gas &lt;mark&gt;payment&lt;/mark&gt;s, have helped the currency recover to its pre-invasion level in a market with very little liquidity.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO rosgos : Central Bank of the Russian Federation NS e12 : Monetary Policy | e1202 : Interest Rates | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | gvbod : Government Bodies | gcat : Political/General News | gdip : International Relations | gpol : Domestic Politics RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Economics IPC G/UKGV PUB Dow Jones &amp; Company, Inc. AN Document BON0000020220408ei48001rx Page 130 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It has also blocked Russia from using U.S. banks to make good on foreign debt &lt;mark&gt;payment&lt;/mark&gt;s, rescinding a previous exemption and pitching Moscow closer to a sovereign default.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Using that as leverage, Mr. Putin has said Russia would demand &lt;mark&gt;payment&lt;/mark&gt; for natural gas in rubles.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Courtney McBride at courtney.mcbride@wsj.com, Ian Talley at Ian.Talley@wsj.com and Laurence Norman at laurence.norman@wsj.com What to Know as U.S., Allies Put Sanctions on Russia CO nsttwa : Nord Stream 2 AG IN i1 : Energy | i1300006 : Pipeline Transportation | iaer : Aerospace/Defense | iindstrls : Industrial Goods | ifosfl : Fossil Fuels | imidstr : Oil/Natural Gas Midstream Operations NS gtrade : Trade Barriers/Restrictions | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gpol : Domestic Politics | gspy : Espionage | gvbod : Government Bodies | gvcng : Legislative Branch | gvio : Military Action | gvtre : Finance/Treasury Department | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | gdip : International Relations | grisk : Risk News | gvexe : Executive Branch | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | usa : United States | asiaz : Asia | crimea : Crimea | easiaz : Eastern Asia | eurz : Europe | gfr : Germany | namz : North America | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eecz : European Union Countries | eeurz : Central/Eastern Europe IPD WSJ IPC AFLT.MZ PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220408ei480053d Page 136 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO envsec : Environmental Security | usagov : United States Federal Government IN i415 : Seafood Products | ifood : Food Products | iphmm : Medical/Surgical Materials | iproclth : Safety/Protective Clothing | i951 : Healthcare/Life Sciences | iclt : Clothing/Textiles | i372 : Medical Equipment/Supplies | i41 : Food/Beverages | i453 : Clothing | icnp : Consumer Goods NS gtrade : Trade Barriers/Restrictions | c13 : Regulation/Government Policy | gesanc : International Sanctions | nimage : Images | nmajev : Major News Events | ntop : Top Wire News | c12 : Corporate Crime/Legal Action | reqrct : Suggested Reading Clothing/Textiles | reqrhc : Suggested Reading Healthcare | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | ncat : Content Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE russ : Russia | usa : United States | china : China | ukrn : Ukraine | apacz : Asia Pacific | asiaz : Asia | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | easiaz : Eastern Asia | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC PIC PUB Dow Jones &amp; Company, Inc. AN Document J000000020220408ei4800018 Page 138 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Medicare limits &lt;mark&gt;payment&lt;/mark&gt;s for Biogen's Alzheimer's disease drug Aduhelm.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service IN i7501 : Passenger Airlines | i75 : Airlines | i32 : Machinery | iairtr : Air Transport | iindstrls : Industrial Goods | itsp : Transportation/Logistics NS gvcom : Commerce Department | ecat : Economic News | c312 : Corporate/Industry Exports | c13 : Regulation/Government Policy | gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | neqac : Equities Asset Class News | reqrai : Suggested Reading Airlines | ccat : Corporate/Industrial News | cdom : Domestic/Foreign Markets | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | gpol : Domestic Politics | gvbod : Government Bodies | gvexe : Executive Branch | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE russ : Russia | china : China | india : India | turk : Turkey | uae : United Arab Emirates | ukrn : Ukraine | usa : United States | apacz : Asia Pacific | asiaz : Asia | balkz : Balkan States | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | easiaz : Eastern Asia | eeurz : Central/Eastern Europe | eurz : Europe | gulfstz : Persian Gulf Region | indsubz : Indian Subcontinent | meastz : Middle East | medz : Mediterranean | namz : North America | sasiaz : Southern Asia | ussrz : CIS Countries | wasiaz : Western Asia IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220408ei480001q Page 144 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service IN i1 : Energy NS gvuph : Upper House | gcat : Political/General News | gvcng : Legislative Branch | gdip : International Relations | gesanc : International Sanctions | c13 : Regulation/Government Policy | e512 : Physical Trade | gpol : Domestic Politics | gtrade : Trade Barriers/Restrictions | gvio : Military Action | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gcns : National/Public Security | gpir : Politics/International Relations | grisk : Risk News | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE ukrn : Ukraine | usa : United States | ussrz : CIS Countries | russ : Russia | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America IPC CNG PUB Dow Jones &amp; Company, Inc. AN Document J000000020220408ei480000q Page 151 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO burby : Burberry Group Plc | freddy : Federal Home Loan Mortgage Corporation | rblxu : Roblox Corporation | supus : Supreme Court of the United States IN i3302 : Computers/Consumer Electronics | i330202 : Software | i3302021 : Applications Software | i453 : Clothing | i814 : Banking | i8150103 : Mortgage Banks/Real Estate Credit | ibnk : Banking/Credit | iclt : Clothing/Textiles | icnp : Consumer Goods | icomp : Computing | idescl : Designer Clothing | ifinal : Financial Services | igamsof : Games Software | ilgood : Leisure/Travel Goods | iluxgds : Luxury Goods | itech : Technology NS gvsup : Judicial Branch | gcrim : Crime/Legal Action | naudvl : Audio-visual Links | ntra : Transcripts | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | gcat : Political/General News | gdip : International Relations | gpol : Domestic Politics | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | niwe : IWE Filter RE turk : Turkey | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | meastz : Middle East | namz : North America | russ : Russia | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | balkz : Balkan States | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | medz : Mediterranean | wasiaz : Western Asia | weurz : Western Europe IPD SYND IPC BRBY.LN PUB Dow Jones &amp; Company, Inc. AN Document WSJPOD0020220407ei470018h Page 167 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE WSJ Pro HD What to Know About Russia's Possible Debt Default; The country has until May 4 to remit funds to foreign bondholders' accounts before defaulting BY By Alexander Saeedy and Caitlin Ostroff WC 1,377 words PD 8 April 2022 ET 00:25 SN WSJ Pro Bankruptcy SC RSTPROBK LA English CY Copyright © 2022, Dow Jones &amp; Company, Inc. LP Russia missed a big set of dollar-bond &lt;mark&gt;payment&lt;/mark&gt;s due to foreign bondholders earlier this week, and the Kremlin has until early May to make sure the creditors are paid before the country's government could be deemed in default.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia owes interest &lt;mark&gt;payment&lt;/mark&gt;s totaling $649.2 million that it was supposed to send to creditors Monday for two dollar-denominated sovereign bonds.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. announced Monday that it was blocking Russia from using U.S. banks to channel &lt;mark&gt;payment&lt;/mark&gt;s on its foreign-currency bonds, hoping to deprive Moscow of access to offshore deposits and deplete its war chest at home.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's Finance Ministry said it attempted to make the &lt;mark&gt;payment&lt;/mark&gt;s in dollars on Monday, but JPMorgan Chase &amp; Co., the Kremlin's intermediary bank for the bond in question, declined to process the $649.2 million in payments because the U.S. Treasury didn't grant approval.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;After JPMorgan refused to send the roughly $650 million on Russia's behalf, the Russian Finance Ministry said it was keeping the &lt;mark&gt;payment&lt;/mark&gt;s in special accounts inside the country.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. Treasury Department has decided to allow investors and banks to receive and process &lt;mark&gt;payment&lt;/mark&gt;s tied to Russian sovereign bonds until May 25.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia could in theory find a willing bank that isn't yet sanctioned by the U.S. to process dollar &lt;mark&gt;payment&lt;/mark&gt;s on its behalf.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia has until May 4 to make the &lt;mark&gt;payment&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Since then, Russia's government has made &lt;mark&gt;payment&lt;/mark&gt;s on those debts to local bondholders but it has blocked cross-border money transfers to foreign creditors holding local government debt.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Normally that would constitute a default, but in Russia, borrowers in the local debt market no longer have to ensure &lt;mark&gt;payment&lt;/mark&gt;s reach investors to avoid defaulting.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Alexander Saeedy at alexander.saeedy@wsj.com and Caitlin Ostroff at caitlin.ostroff@wsj.com CO rumf : Russia Ministry of Finance | cnyc : JPMorgan Chase &amp; Co. | imonf : International Monetary Fund IN ifinal : Financial Services | i814 : Banking | i81402 : Commercial Banking | ibnk : Banking/Credit | iibnk : Integrated Banks NS gvtre : Finance/Treasury Department | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gpol : Domestic Politics | gtrade : Trade Barriers/Restrictions | gcat : Political/General News | gdip : International Relations | gvbod : Government Bodies | gvexe : Executive Branch | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | asiaz : Asia | china : China | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD PRO IPC G/TRE PUB Dow Jones &amp; Company, Inc. - Enterprise WSJ AN Document RSTPROBK20220407ei470002t Page 170 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Treasury said U.S. banks would no longer be allowed to facilitate &lt;mark&gt;payment&lt;/mark&gt;s, but implied Russia could find other means, possibly using non-U.S. banks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's finance ministry said it considered its obligations fulfilled, though the bond has a 30-day grace period, so Russia has time to switch the &lt;mark&gt;payment&lt;/mark&gt;s to dollars.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If it fails to make the &lt;mark&gt;payment&lt;/mark&gt;s on the dollar bonds, investors would likely declare Russia in default when the grace period ends and seek to get their money back in English courts, where the bonds are governed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia has continued to pay on the ruble bonds, but for over a month it has blocked the &lt;mark&gt;payment&lt;/mark&gt;s going to foreign investors, who hold under a fifth of the bonds.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia changed a federal securities law in late 2018 to so that an issuer of local debt no longer has to ensure &lt;mark&gt;payment&lt;/mark&gt;s reach investors.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This is similar to how bond &lt;mark&gt;payment&lt;/mark&gt;s work under English law.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Records show that the Ministry of Finance sent the interest &lt;mark&gt;payment&lt;/mark&gt; on a ruble bond due on March 2 to the system, the National Settlement Depository, on time.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The securities law could make suing for &lt;mark&gt;payment&lt;/mark&gt; under Russian law, already a difficult prospect, even more daunting.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Fintech company Bolt Financial is buying crypto-services startup Wyre &lt;mark&gt;Payment&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We're also reporting that FinTech company Bolt Financial is buying crypto services startup, Wire &lt;mark&gt;Payment&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The EU, which imports about 60% of its energy needs, is making large &lt;mark&gt;payment&lt;/mark&gt;s to Russia, boosted by higher oil-and-gas prices during the war.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD The EU's foreign-policy chief, Josep Borrell, said Wednesday that since the invasion, the bloc's 27 member states had made energy &lt;mark&gt;payment&lt;/mark&gt;s worth roughly 35 billion euros, equivalent to about $38 billion, to Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ms. von der Leyen said the EU is considering a way of making at least some of its energy &lt;mark&gt;payment&lt;/mark&gt;s into an escrow account, effectively freezing some of Russia's energy revenues abroad.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;However, Russia has warned it would stop supplying energy if it can't access &lt;mark&gt;payment&lt;/mark&gt;s for it.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The EU, which imports around 60% of its energy needs, is making large &lt;mark&gt;payment&lt;/mark&gt;s to Russia, boosted by higher oil-and-gas prices during the war.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD The EU's foreign-policy chief, Josep Borrell, said Wednesday that since the invasion, the bloc's 27 member states had made energy &lt;mark&gt;payment&lt;/mark&gt;s worth around 35 billion euros, equivalent to about $38 billion, to Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ms. von der Leyen said the EU is also considering a way of making at least some of its energy &lt;mark&gt;payment&lt;/mark&gt;s into an escrow account, effectively freezing some of Russia's energy revenues abroad.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;However, Russia has warned it would stop supplying energy if it can't access &lt;mark&gt;payment&lt;/mark&gt;s for it.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO euruno : European Union IN i1 : Energy NS gesanc : International Sanctions | gcat : Political/General News | gvexe : Executive Branch | gdip : International Relations | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e211 : Government Budget/Taxation | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | gvbod : Government Bodies | gvio : Military Action | ncolu : Columns | e21 : Government Finance | gcns : National/Public Security | gpol : Domestic Politics | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | usa : United States | eecz : European Union Countries | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | gfr : Germany | namz : North America | uk : United Kingdom | ukrn : Ukraine | usdc : Washington DC | uss : Southern U.S. | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Wires IPC ALFA.UR PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220406ei46002xl Page 215 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE WSJ Pro HD Russia, U.S. Face-Off Boosts Default Risk; Prices of derivatives tied to the creditworthiness of the Kremlin are showing a high probability of a Russian default BY By Alexander Saeedy and Matt Wirz WC 554 words PD 7 April 2022 ET 02:04 SN WSJ Pro Bankruptcy SC RSTPROBK LA English CY Copyright © 2022, Dow Jones &amp; Company, Inc. LP The derivatives market is flashing signals that the tit-for-tat between the U.S. Treasury and the Kremlin is increasing the likelihood of a Russian government default after Russia's Ministry of Finance announced Wednesday it will restrict the ability of some foreign investors to convert their &lt;mark&gt;payment&lt;/mark&gt;s into dollars.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Monday, the U.S. blocked Russia from using U.S. banks to channel &lt;mark&gt;payment&lt;/mark&gt;s on its dollar-denominated bonds, the day that $649.2 million of payments came due.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;JPMorgan Chase &amp; Co., the correspondent bank for two bonds Russia needed to service Monday, declined to process the $649.2 million in &lt;mark&gt;payment&lt;/mark&gt;s because the U.S. Treasury did not grant approval, The Wall Street Journal reported earlier.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's finance ministry said it had disbursed the debt &lt;mark&gt;payment&lt;/mark&gt;s through its national clearinghouse.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;After JPMorgan declined to process the &lt;mark&gt;payment&lt;/mark&gt;s, the Russian finance ministry said Wednesday that it had placed ruble-equivalent amounts due to foreign bondholders that Moscow deemed unfriendly in special accounts at the National Settlement Depository.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Before this week's restrictions were enacted, Russia had managed to stay current on $732 million in sovereign debt &lt;mark&gt;payment&lt;/mark&gt;s since mid-March due to carve-outs in U.S. sanctions allowing banks and bondholders to process and receive payments until May 25.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia has also been taking advantage of alternative currency fallbacks in sovereign debts it borrowed since its 2014 annexation of Crimea to allow the government to make &lt;mark&gt;payment&lt;/mark&gt;s in rubles.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But a number of legacy debts, including the bond that matured on Monday, only allow dollar &lt;mark&gt;payment&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service RF page,5043 NS gdip : International Relations | cinesp : Industrial/Corporate Espionage | c13 : Regulation/Government Policy | gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | mcat : Commodity/Financial Market News | ncolu : Columns | nhrd : Heard on the Street | nimage : Images | npda : DJ Exclusive Analysis - All | c12 : Corporate Crime/Legal Action | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gcat : Political/General News | gpir : Politics/International Relations | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | iran : Iran | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | gulfstz : Persian Gulf Region | meastz : Middle East | ussrz : CIS Countries | wasiaz : Western Asia IPC PIC PUB Dow Jones &amp; Company, Inc. AN Document J000000020220406ei460000f Page 234 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;U.S., EU to Impose More Sanctions on Russia After War-Crimes Reports CO eucmm : European Commission | euruno : European Union IN itsp : Transportation/Logistics NS gtrade : Trade Barriers/Restrictions | gesanc : International Sanctions | gcat : Political/General News | gcrim : Crime/Legal Action | gvexe : Executive Branch | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gdip : International Relations | gpir : Politics/International Relations | gvio : Military Action | gwar : War Crimes | ncolu : Columns | gcns : National/Public Security | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : Content Types RE russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | ukrn : Ukraine | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ News Exclusive | IPC ALFA.UR PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220405ei4500105 Page 238 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Cybersecurity</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>7</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Microsoft Corp. detected malware it dubbed 'Whispergate' in January while &lt;mark&gt;cybersecurity&lt;/mark&gt; companies Symantec, a division of Broadcom Inc., and Slovakia-based cyber firm ESETrevealed a similar malware that had infected hundreds of computers in Ukraine, as well as Latvia and Lithuania, some for several months.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Outside Ukraine, the U.S. &lt;mark&gt;Cybersecurity&lt;/mark&gt; and Infrastructure Security Agency issued an alert on Feb. 14 warning of the risk to defense contractors from Russian state-sponsored hackers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Risk Mitigating Actions: While it is difficult to provide protective measures that will work for every company, CISA has promoted a 'Shields Up' approach that recommends all organizations consider a "heightened posture when it comes to &lt;mark&gt;cybersecurity&lt;/mark&gt; and protecting their most critical assets."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Meet the Author Rob Sloan is research director at WSJ Pro focusing on providing thought leadership, building datasets and contributing to the WSJ Pro &lt;mark&gt;Cybersecurity&lt;/mark&gt; product suite.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;All WSJ Pro &lt;mark&gt;Cybersecurity&lt;/mark&gt; research reports, webinars, events and data are available at wsj.com/pro/cybersecurity/research Conflict in Ukraine: Preparing for Cyberattacks NS ghack : Cybercrime/Hacking | gcvir : Malware | gdatap : Privacy Issues/Information Security | gcrim : Crime/Legal Action | ncolu : Columns | gcat : Political/General News | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD 0 IPC N/CRM PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220411ei4b002gx Page 17 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Experts at Ukrainian &lt;mark&gt;cybersecurity&lt;/mark&gt; companies, Microsoft Corp. and Cisco Systems Inc. are investigating the March 28 cyberattack on Ukrtelecom PJSC and haven't yet attributed the incident to a particular hacker group, said Kirill Goncharuk, the company's chief information officer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CERT-UA, Ukraine's &lt;mark&gt;cybersecurity&lt;/mark&gt; emergency response unit, said Monday that it had detected a malicious-email campaign mentioning the war in Ukraine that includes a file containing malware.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>gaming</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>6</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;He also lowered his estimate for &lt;mark&gt;gaming&lt;/mark&gt; revenue.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Although Citi analyst Atif Malik trimmed his &lt;mark&gt;gaming&lt;/mark&gt; revenue estimates for the first half of 2022 to reflect below-seasonal sales data in Taiwan, he maintained a Buy rating on the stock.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We continue to believe stock's multiple is supported by data center growth and expect new products launch in September to be the next catalyst for the &lt;mark&gt;gaming&lt;/mark&gt; market," Malik wrote in a research note.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;RTX, or real-time ray tracing, is Nvidia's high-end professional GPUs, used for &lt;mark&gt;gaming&lt;/mark&gt; and artificial intelligence processing.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Gucci sold 400 virtual purses for $6 in the &lt;mark&gt;gaming&lt;/mark&gt; world Roblox.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Burberry created 750 versions of a digital character for another &lt;mark&gt;gaming&lt;/mark&gt; platform, each wearing a unique Burberry design.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Devices</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Telecom Infra</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Last week, Truist analyst William Stein cut his price targets for several large semiconductor manufactures, including Nvidia, Advanced Micro &lt;mark&gt;Devices&lt;/mark&gt; (AMD), and Intel (INTC).&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We removed malware from &lt;mark&gt;devices&lt;/mark&gt; used by thousands of mostly small businesses for network security all over the world and then we shut the door the Russians had used to get in them," FBI Director Christopher Wray said.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Partnership</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>4</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Digital investment</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The EU's Eastern &lt;mark&gt;Partnership&lt;/mark&gt;, which also includes ex-Soviet neighbors Georgia and Moldova, has funneled in yet more cash.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Their arrival has brought enormous joy," said Mr. Borges, whose Comunidade Vida congregation, in the nearby town of Guarapuava, is part of a world-wide group of churches, the Global Kingdom &lt;mark&gt;Partnership&lt;/mark&gt; Network.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Their arrival has brought enormous joy," said Mr. Borges, whose Comunidade Vida congregation, in the nearby town of Guarapuava, is part of a world-wide group of churches, the Global Kingdom &lt;mark&gt;Partnership&lt;/mark&gt; Network.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Arabs' list of complaints then moves to the mercurial years of Donald Trump, who talked about restoring &lt;mark&gt;partnership&lt;/mark&gt;s with traditional friends but showed an "America first" indifference when Iran attacked the largest oil-processing facility in Saudi Arabia.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;In particular, Mr. Papadopoulos highlighted the potential from widespread disruption if a &lt;mark&gt;cloud&lt;/mark&gt; provider is attacked: "We're incredibly dependent on cloud services, especially AWS and Microsoft, and I worry about how a targeted attack bringing down a major datacenter could have huge follow on consequences across critical infrastructure."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;AWS is the &lt;mark&gt;cloud&lt;/mark&gt; service provided by Amazon.com Inc. and Microsoft's cloud service is called Azure.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>2106</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;CLM Politics and Policy SE Politics HD Democrats Search for Midterm Vote Strategy as Biden Poll Numbers Lag; President has touted job growth and infrastructure spending, but voters rem&lt;mark&gt;ai&lt;/mark&gt;n anxious on inflation, Ukraine and direction of country BY By Catherine Lucey and Alex Leary WC 1,451 words PD 11 April 2022 ET 16:30 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP WASHINGTON—The White House has long banked on the political benefits of taming Covid-19 and overseeing strong job recovery, but as midterm camp&lt;mark&gt;ai&lt;/mark&gt;gning accelerates, President Biden has been unable to shake low approval ratings as voters remain focused on higher prices for gasoline and groceries.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The president's attempts to highlight economic success and legislative victories have been complicated by rapid inflation and overshadowed by the challenge of responding to Russia's invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD As they work to settle on a camp&lt;mark&gt;ai&lt;/mark&gt;gn strategy for November, Democrats said they need to better sell the public on what they see as Mr. Biden's wins, chiefly pandemic stimulus and infrastructure spending, while making clear they will work to bring prices down.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We've done so much," s&lt;mark&gt;ai&lt;/mark&gt;d Rep. Mark Pocan (D., Wis.).&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A recent ad from the House Majority PAC, a political-action committee that supports Democrats, outlined the message the party wants to hit, stressing economic g&lt;mark&gt;ai&lt;/mark&gt;ns with jobs and wages and efforts to bring down the cost of gasoline and prescription drugs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While some past foreign-policy crises prompted the public to rally around the president, the war in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne hasn't had that effect for Mr. Biden.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Roughly the same number s&lt;mark&gt;ai&lt;/mark&gt;d they were concerned that the U.S. would send combat troops to fight in Ukraine, a step the president has said he won't take.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Overall, 71% of voters s&lt;mark&gt;ai&lt;/mark&gt;d they believed the country was headed in the wrong direction and 62% said their family incomes were falling behind the cost of living.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The midterms are definitely going to be a referendum on the Democrats' f&lt;mark&gt;ai&lt;/mark&gt;lures and specifically the rising costs they've allowed to impact every American," said Rep. Tom Emmer of Minnesota, chairman of the GOP congressional campaign effort.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some economists are predicting a recession within the next two years as the Federal Reserve r&lt;mark&gt;ai&lt;/mark&gt;ses interest rates to control inflation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Former Secretary of State and Democratic presidential nominee Hillary Clinton s&lt;mark&gt;ai&lt;/mark&gt;d on NBC recently that Democrats "have a great story to tell" but added, "We need to get out there and do a better job of telling it."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden is planning a busy month of domestic travel in April, one adviser s&lt;mark&gt;ai&lt;/mark&gt;d, and will seek to emphasize his record and draw a contrast with Republicans.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Appearances in Iowa and North Carolina are planned for this week "I'm not going to say that history is in our favor, it cert&lt;mark&gt;ai&lt;/mark&gt;nly isn't," the adviser said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"I'm not going to say that navigating Ukr&lt;mark&gt;ai&lt;/mark&gt;ne and Russia makes it any easier.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And cert&lt;mark&gt;ai&lt;/mark&gt;nly there are impacts at home," the adviser said, while contending that Mr. Biden has a message that will break through as voters start to pay attention.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On the economy, the White House has sought to emphasize global supply-ch&lt;mark&gt;ai&lt;/mark&gt;n issues and has recently shifted to blaming Russian President Vladimir Putin for rising fuel prices, though they were high before the invasion of Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The adviser s&lt;mark&gt;ai&lt;/mark&gt;d there is confidence that people will continue to feel better as time goes on, helping Democrats make their case.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Voters are receptive to candidates "working to fix the problem, who've got a plan," s&lt;mark&gt;ai&lt;/mark&gt;d Rep. Sean Patrick Maloney of New York, who heads the Democratic congressional campaign arm.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He s&lt;mark&gt;ai&lt;/mark&gt;d candidates running in close districts in midterm elections "almost invariably have to outperform the national brand."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Rep. Ami Bera of California, a leader in the moderate New Democrat Coalition, s&lt;mark&gt;ai&lt;/mark&gt;d the party should focus on bread-and-butter economics, such as attempts to bring down gasoline prices, and he is encouraged to hear the president talk about increasing funding for police, as Republicans emphasize growing violent-crime rates.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden recently met with the group and lamented that after the Affordable Care Act was made law in 2010, Democrats didn't do a good job of telling the public how it could improve their lives, Mr. Bera s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"You've got to make this about what's happening locally and a choice between two candidates," Mr. Bera s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;s&lt;mark&gt;ai&lt;/mark&gt;d Quentin James, a Democratic strategist in Cleveland, citing as examples voting rights and student-loan forgiveness.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Democratic pollster Jeff Horwitt, who conducted the NBC survey, s&lt;mark&gt;ai&lt;/mark&gt;d there is an enthusiasm gap between Republicans and Democrats.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"A vote for Biden was to end the chaos," he s&lt;mark&gt;ai&lt;/mark&gt;d, referring to the Trump era, "But it was also to achieve results.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Catherine Lucey at catherine.lucey@wsj.com and Alex Leary at alex.leary@wsj.com Democrats Search for Midterm Vote Strategy as Biden Poll Numbers Lag NS gcat : Political/General News | gpol : Domestic Politics | gvote1 : National/Presidential Elections | gsars : Novel Coronaviruses | e211 : Government Budget/Taxation | ecat : Economic News | ghea : Health | gpir : Politics/International Relations | gvote : Elections | ncolu : Columns | nsur : Surveys/Polls | e1103 : Inflation Figures/Price Indices | e11 : Economic Performance/Indicators | e21 : Government Finance | gcold : Respiratory Tract Diseases | gmed : Medical Conditions | gspox : Infectious Diseases | ncat : Content Types RE usa : United States | ukrn : Ukr&lt;mark&gt;ai&lt;/mark&gt;ne | eurz : Europe | namz : North America | uk : United Kingdom | usdc : Washington DC | uss : Southern U.S. | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC G/FED PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220411ei4b0018h Page 4 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Global View SE Opinion HD Putin's Ukr&lt;mark&gt;ai&lt;/mark&gt;ne War Roils U.S.-India Ties; Policies that drive Russia closer to China and Pakistan aren't in New Delhi's interests.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The headlines focused on Europe last week as Russia regrouped for another brutal assault on Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, but the Indo-Pacific is also heating up.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In the long run, both sets of meetings could change world politics more than the struggle in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD The Solomon Islands are a nation in the Pacific between Australia and Haw&lt;mark&gt;ai&lt;/mark&gt;i that includes six larger islands and almost 1,000 small ones.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Instability has been more the rule than the exception since the islands g&lt;mark&gt;ai&lt;/mark&gt;ned independence in 1978.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Until 2019, the Solomon Islands m&lt;mark&gt;ai&lt;/mark&gt;ntained diplomatic relations with Taiwan.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The war in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne has strengthened the North Atlantic Treaty Organization.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;M&lt;mark&gt;ai&lt;/mark&gt;ntaining a balance of power in Eurasia has been a core concept of Anglo-American strategic thought since Elizabeth Tudor fought off the Spanish Armada in 1588.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Putin's Ukr&lt;mark&gt;ai&lt;/mark&gt;ne War Roils U.S.-India Ties NS gdip : International Relations | gvexe : Executive Branch | gcat : Political/General News | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | gsec : State Security Measures/Policies | gvio : Military Action | ncolu : Columns | nedc : Commentaries/Opinions | grisk : Risk News | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE india : India | china : China | solil : Solomon Islands | asiaz : Asia | ausnz : Australia/Oceania | easiaz : Eastern Asia | eurz : Europe | ndelh : New Delhi | pacisz : Pacific Islands | pakis : Pakistan | puri : Puerto Rico | russ : Russia | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | delhi : Delhi | apacz : Asia Pacific | bric : BRICS Countries | caribz : Caribbean Islands | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | indsubz : Indian Subcontinent | lamz : Latin America | namz : North America | sasiaz : Southern Asia | usa : United States | usau : U.S. Unincorporated Territories | weurz : Western Europe IPD COLUMN IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220411ei4b005v5 Page 6 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE WSJ Pro HD Geopolitical Risk Index Well Below Recent Peak After Invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne WC 101 words PD 12 April 2022 ET 03:07 SN WSJ Pro Central Banking SC RSTPROCB LA English CY Copyright © 2022, Dow Jones &amp; Company, Inc. LP An index created by Federal Reserve economists to track international risk factors remains off the peaks it hit just after Russia launched its shambolic invasion of Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i814 : Banking | ibnk : Banking/Credit | ifinal : Financial Services NS c22 : New Products/Services | ccat : Corporate/Industrial News | ecat : Economic News | gcat : Political/General News | cexpro : Products/Services | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE ukrn : Ukr&lt;mark&gt;ai&lt;/mark&gt;ne | eurz : Europe | uk : United Kingdom | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD PRO IPC G/FED PUB Dow Jones &amp; Company, Inc. AN Document RSTPROCB20220411ei4b0005l Page 7 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Emerging Markets HD Ukr&lt;mark&gt;ai&lt;/mark&gt;ne's Bid for European Union Membership Is a Long Shot—for Now BY By Craig Mellow WC 974 words PD 11 April 2022 SN Barron's SC B PG 36 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP European Union leaders declared after a summit at Vers&lt;mark&gt;ai&lt;/mark&gt;lles last month that "Ukraine belongs to our European family."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That was a rather obvious observation from the 27 member states, considering the popular outpouring for Ukr&lt;mark&gt;ai&lt;/mark&gt;ne across the continent, and their own provision of arms and sanctions to help it fight Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But moving quickly from poor cousin to a snug room in the EU manor looks all but impossible despite Ukr&lt;mark&gt;ai&lt;/mark&gt;ne's valor in the Western cause.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"There's a huge difference between the rhetoric and the realities" on Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, says Eoin Drea, senior research officer at the Martens Center for European Studies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Support for Ukr&lt;mark&gt;ai&lt;/mark&gt;ne joining the EU was a plank of the broad peace architecture that Zelensky laid out a few weeks ago, as partial compensation for Kyiv accepting military neutrality.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, with a prewar population of 44 million, has numerous additional strikes against it.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Not what Ukr&lt;mark&gt;ai&lt;/mark&gt;ne has on offer right now.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;ne ranked 122 in last year's Corruption Perceptions Index from NGO Transparency International, a bit better than Russia at 136.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;None of that means the EU's pro-Ukr&lt;mark&gt;ai&lt;/mark&gt;nian rhetoric is empty.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A so-called association agreement Kyiv inked with Brussels in 2017 has brought in 20 billion euros ($21.8 billion) in &lt;mark&gt;ai&lt;/mark&gt;d and soft loans, estimates Richard Youngs, a senior fellow at Carnegie Europe.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;(This pact spurred the M&lt;mark&gt;ai&lt;/mark&gt;dan Revolution and Russia's first invasions of Ukraine back in 2014.)&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Relaxed visa requirements have enabled millions of Ukr&lt;mark&gt;ai&lt;/mark&gt;nians to work in the EU.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;War and alleged war crimes have r&lt;mark&gt;ai&lt;/mark&gt;sed a clamor to do more, which is dividing the EU along fairly predictable lines.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Former Soviet satellites, led by Poland, are pushing for Ukr&lt;mark&gt;ai&lt;/mark&gt;ne to become a candidate.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"It will take months, maybe years before you get to anything," Dutch Prime Minister Mark Rutte s&lt;mark&gt;ai&lt;/mark&gt;d after the Versailles conclave.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Vers&lt;mark&gt;ai&lt;/mark&gt;lles summit tasked the European Commission, the bloc's executive body, with a recommendation on the EU's next move vis a vis Kyiv.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Ukr&lt;mark&gt;ai&lt;/mark&gt;ne is one of us and we want them in the European Union," she said shortly after Russia's Feb. 24 invasion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;ne can look to Turkey to judge just how slow that can be.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The core of this conflict, which has been germinating at least since Ukr&lt;mark&gt;ai&lt;/mark&gt;ne's Orange Revolution of 2004-05, is Ukrainians' desire for a future with the rest of Europe, while Vladimir Putin dreams of keeping them in his "Russian world."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Desp&lt;mark&gt;ai&lt;/mark&gt;ring of gaining his objective by persuasion or "hybrid" sabotage, Putin opted finally to try brute force.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;nians have to be pleased with the spontaneous explosion of solidarity, despite Zelensky's constant calls for still more Western support.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Looking forward, Ukr&lt;mark&gt;ai&lt;/mark&gt;nians will need to feel that they gained something for their courage and sacrifice, not to mention foregoing NATO and de facto recognition of losing the territories Russia seized eight years ago.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The EU and its Member States will continue to provide coordinated political, financial, material, and humanitarian support" to Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, the final communiqué from Versailles read.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Em&lt;mark&gt;ai&lt;/mark&gt;l: editors@barrons.com CO euruno : European Union NS gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | ncolu : Columns | ncor : Corrections | ncrx : Corrected Items | ncat : Content Types RE ukrn : Ukraine | russ : Russia | asiaz : Asia | belg : Belgium | brus : Brussels | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | benluxz : Benelux Countries | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Barrons.com IPC n/cor PUB Dow Jones &amp; Company, Inc. AN Document B000000020220408ei4b00030 Page 9 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM WSJ Podcast Minute Briefing HD French Police Unit to Assist Ukr&lt;mark&gt;ai&lt;/mark&gt;ne in War-Crimes Probe WC 318 words PD 11 April 2022 ET 21:58 SN WSJ Podcasts SC WSJPOD LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;France is sending a police unit to investigate potential war crimes in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, expanding its involvement in the war zone.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The French government previously s&lt;mark&gt;ai&lt;/mark&gt;d it sent defensive weapons to Ukrainian forces though, it didn't say what type.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Meanwhile, French president Emmanuel Macron has been speaking to Russian president Vladimir Putin in an effort to m&lt;mark&gt;ai&lt;/mark&gt;ntain an open channel between the Kremlin and the west.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some sellers on Etsy are temporarily closing their shops to protest the company's decision to r&lt;mark&gt;ai&lt;/mark&gt;se its commissions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;More than 15,000 sellers have signed a petition ag&lt;mark&gt;ai&lt;/mark&gt;nst the rate increase, which lifts Etsy's cut on transactions from 5% to 6.5%.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i64 : Ret&lt;mark&gt;ai&lt;/mark&gt;l/Wholesale | i656000301 : Etailing | iecom : E-commerce | iint : Online Service Providers | imed : Media/Entertainment | iretail : Retail | isocial : Social Media Platforms/Tools | itech : Technology NS naudvl : Audio-visual Links | ntra : Transcripts | c31 : Marketing | ccat : Corporate/Industrial News | gcrim : Crime/Legal Action | gvio : Military Action | gwar : War Crimes | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | niwe : IWE Filter RE ukrn : Ukraine | fra : France | eecz : European Union Countries | eurz : Europe | uk : United Kingdom | weurz : Western Europe | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | medz : Mediterranean IPD SYND IPC N/CNW PUB Dow Jones &amp; Company, Inc. AN Document WSJPOD0020220411ei4b000gp Page 10 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE D&lt;mark&gt;ai&lt;/mark&gt;ly HD Nvidia Stock Is Downgraded.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Nvidia shares were falling on Monday after the stock was downgraded by a B&lt;mark&gt;ai&lt;/mark&gt;rd analyst, who cited concerns over slowing consumer demand exacerbated by the Russian embargo.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The cancellations are driven by a combination of excess GPU, or graphics processing unit, in Western Europe and Asia, as well as a slowdown in consumer demand, especially in China, he s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The macro field is also complicated for Nvidia, Gerra s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For one, recent Covid-related shutdowns in China could create further logistical problems for the company's supply ch&lt;mark&gt;ai&lt;/mark&gt;n.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Second, Russia "likely represents a larger percentage of consumer GPU than the consensus view, driven by both gamers and mining," he s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The recent embargo on trade with Russia in the wake of the invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne could weaken sales, he added.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As a result, Gerra reduced his revenue estimate, as weak GPU demand could impact revenue in the second half of 2022, he s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Gerra's new price target is based on Nvidia trading at 25 times his new 2025 earnings per share estimate, he s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Although Citi analyst Atif Malik trimmed his gaming revenue estimates for the first half of 2022 to reflect below-seasonal sales data in T&lt;mark&gt;ai&lt;/mark&gt;wan, he maintained a Buy rating on the stock.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A few weeks ago, Tigress Financial Partners analyst Ivan Feinsethr&lt;mark&gt;ai&lt;/mark&gt;sed his price target Page 11 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Indeed, Barid's Gerra rem&lt;mark&gt;ai&lt;/mark&gt;ned positive on the company's long-term fundamentals.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Despite a hiccup in consumer GPU demand this year, we expect RTX upgrades to represent a continued catalyst medium term, along with &lt;mark&gt;AI&lt;/mark&gt; and software opportunities," Gerra added.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Nvidia's data center revenue outlook also rem&lt;mark&gt;ai&lt;/mark&gt;ns strong, Gerra added.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE D&lt;mark&gt;ai&lt;/mark&gt;ly HD Uranium Miner Cameco Catches an Upgrade.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Shares are up roughly 50% since Russia invaded Ukr&lt;mark&gt;ai&lt;/mark&gt;ne in late February, for primarily two reasons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;First, the war r&lt;mark&gt;ai&lt;/mark&gt;sed the possibility that Europe would turn from using less natural gas-generated power—the continent's countries buy large supplies of natural gas from Russia—and more nuclear power.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Russia-Ukr&lt;mark&gt;ai&lt;/mark&gt;ne warwas a key factor in Wong's upgrade.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We believe the Russia/Ukr&lt;mark&gt;ai&lt;/mark&gt;ne war and subsequent shift in Western markets away from exposure to Russia have fundamentally changed the uranium market outlook and long-term market structure," wrote the analyst Monday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Pro Cyber Research SE WSJ Pro HD Conflict in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne: Preparing for Cyberattacks BY By Rob Sloan, Research Director, WSJ Pro WC 1,327 words PD 11 April 2022 ET 20:03 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The purpose of this briefing paper is to help executives understand the latest cyber developments in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, how attacks launched against Ukrainian targets could indirectly affect organizations outside the country, and what business leaders can do to reduce cyber risk at this time.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Key Points: TD * The Russian invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne has been accompanied by cyber activity, including denial-of-service attacks and malware designed to wipe data from computers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Evidence shows some attacks have spread beyond Ukr&lt;mark&gt;ai&lt;/mark&gt;ne's borders to Lithuania and Latvia, but not to U.S. businesses as of Feb. 25.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;* There are steps businesses can take at this time to reduce risk, even when it is not clear exactly what they may have to defend ag&lt;mark&gt;ai&lt;/mark&gt;nst.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;ne-Related Cyberattacks So Far: In mid-January, the first hostile cyber activity took place with the defacement of websites belonging to several Ukrainian government ministries, including the Foreign Ministry and the Ministry of Education and Science.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The attack, akin to digital vandalism, cl&lt;mark&gt;ai&lt;/mark&gt;med users' data had been compromised and uploaded online, though there was no evidence to support this.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In mid-February, a more disruptive attack took place with Ukr&lt;mark&gt;ai&lt;/mark&gt;ne's Ministry of Defense and Armed Forces websites and the online services of two state-owned banks targeted with a denial-of-service attack.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Malware capable of wiping data from machines has been spreading in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Microsoft Corp. detected malware it dubbed 'Whispergate' in January while cybersecurity companies Symantec, a division of Broadcom Inc., and Slovakia-based cyber firm ESETrevealed a similar malware that had infected hundreds of computers in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, as well as Latvia and Lithuania, some for several months.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;nian officials blamed Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While Russia cert&lt;mark&gt;ai&lt;/mark&gt;nly has the motivation to attack, it is possible the attacks were carried out by hackers aligned to the Russian state's aims.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian government hackers have previously shown their willingness to attack Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In 2017, the attack, dubbed 'NotPetya', first appeared to be ransomware and targeted users of a Ukr&lt;mark&gt;ai&lt;/mark&gt;nian software application that affected organizations around the world, ultimately causing billions of dollars of damage to firms including FedEx Corp. and Merck &amp; Co.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Likely Targets of Attacks: Inside Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, the most likely targets for attacks include the military, government agencies, financial services and energy firms.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Attacks ag&lt;mark&gt;ai&lt;/mark&gt;nst the government could yield valuable intelligence on how Ukraine planned to respond to an invasion, while disrupting the economy and energy supplies could bring normal life to a grinding halt and increase psychological pressure on civilians.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Outside Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, the U.S. Cybersecurity and Infrastructure Security Agency issued an alert on Feb. 14 warning of the risk to defense contractors from Russian state-sponsored hackers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Emilian Papadopoulos, president at cyber risk advisory firm Good Harbor Security Risk Management, s&lt;mark&gt;ai&lt;/mark&gt;d that even though a company is not on the list or organizations likely to be explicitly targeted, it still needs to think about the risk of indiscriminate attacks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;* Taking steps to quickly detect potential intrusions, especially when working with Ukr&lt;mark&gt;ai&lt;/mark&gt;nian organizations, and being prepared to investigate.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Matt Stamper, chief information security officer and executive advisor at digital services company Evotek Inc, s&lt;mark&gt;ai&lt;/mark&gt;d that while CISOs cannot anticipate all forms of cyber risk, their understanding of the organization is key.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Our knowledge as to how the organization derives enterprise value – the business processes and the applications and systems that underpin them – is foundational," he s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"CISOs need to know the organization well including dependencies on technology, staff, vendors, supply ch&lt;mark&gt;ai&lt;/mark&gt;n, locations, etc.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"I try to frame the effort up front such that there are no right or wrong answers – the goal is to evaluate how prepared the organization is," he s&lt;mark&gt;ai&lt;/mark&gt;d, adding that he seeks to highlight areas of ambiguity that require clarification, and to note where additional resources and refinement are in order.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Tabletop exercises do not need to be complicated aff&lt;mark&gt;ai&lt;/mark&gt;rs – they just need to happen."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Chief executives should be proactive in understanding the readiness of the business to defend ag&lt;mark&gt;ai&lt;/mark&gt;nst and respond to cyberattacks during this crisis.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Papadopoulos suggested asking two questions to g&lt;mark&gt;ai&lt;/mark&gt;n a level of assurance.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"CEOs need to ask 'Is there anything we can be doing right now to go 'Shields Up' for this limited period of time while we're at heightened risk from the situation in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne?"&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;he s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;All WSJ Pro Cybersecurity research reports, webinars, events and data are av&lt;mark&gt;ai&lt;/mark&gt;lable at wsj.com/pro/cybersecurity/research Conflict in Ukraine: Preparing for Cyberattacks NS ghack : Cybercrime/Hacking | gcvir : Malware | gdatap : Privacy Issues/Information Security | gcrim : Crime/Legal Action | ncolu : Columns | gcat : Political/General News | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD 0 IPC N/CRM PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220411ei4b002gx Page 17 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Asia Economy SE Economy HD China Inflation Rises as Lockdowns, Ukr&lt;mark&gt;ai&lt;/mark&gt;ne War Drive Up Prices; Inflationary pressure remains lighter than in other major economies, giving the central bank room to stimulate the slowing economy BY By Jason Douglas WC 641 words PD 11 April 2022 ET 12:15 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The overall inflationary picture in China rem&lt;mark&gt;ai&lt;/mark&gt;ns far more benign than in the U.S. and other major economies, though, giving the government and central bank ample room to support the slowing economy with stimulus.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On the flip side, prices for &lt;mark&gt;ai&lt;/mark&gt;rfares and tickets to tourist hot spots tumbled.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Gasoline prices were up 25% as Russia's invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne sent global oil prices rocketing.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;China's zero-tolerance strategy for combating Covid-19 faces its sternest test with the fast-spreading Omicron variant of the virus, which is damping consumer spending, clogging up supply ch&lt;mark&gt;ai&lt;/mark&gt;ns and casting doubt on whether the government can meet this year's economic-growth goal of around 5.5%.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Shangh&lt;mark&gt;ai&lt;/mark&gt;, China's most populous city and a financial and commercial powerhouse, remains under lockdown as authorities struggle to contain an outbreak.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ting Lu, chief China economist at Nomura in Hong Kong, s&lt;mark&gt;ai&lt;/mark&gt;d he expects consumer-price inflation in China to accelerate further this year, to around 2%, as households in China keep stocking up on food and other essentials in case they get stuck at home under Covid-19 containment measures.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Iris Pang, chief economist for Greater China at ING in Hong Kong, s&lt;mark&gt;ai&lt;/mark&gt;d that rate would still be "extremely mild" compared with inflation in the U.S., where consumer prices are notching gains not see in 40 years.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"For China, inflation is not really an issue for now," Ms. Pang s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Producer prices in March were up 1.1% from February, double the previous 0.5% monthly g&lt;mark&gt;ai&lt;/mark&gt;n, as geopolitics and other international factors drove up commodity prices, said Dong Lijuan, a senior statistician with China's statistics bureau.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne has pushed up prices for commodities ranging from oil to nickel to wheat, heaping costs on factories world-wide.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Jason Douglas at jason.douglas@wsj.com China Inflation Rises as Lockdowns, Ukr&lt;mark&gt;ai&lt;/mark&gt;ne War Drive Up Prices NS ecat : Economic News | ecpin : Consumer Price Index | e1103 : Inflation Figures/Price Indices | gsars : Novel Coronaviruses | e11 : Economic Performance/Indicators | ghea : Health | ncolu : Columns | npred : Economic Predictions/Forecasts | gcat : Political/General News | gcold : Respiratory Tract Diseases | gmed : Medical Conditions | gspox : Infectious Diseases | ncat : Content Types RE china : China | chinaz : Greater China | easiaz : Eastern Asia | asiaz : Asia | eurz : Europe | namz : North America | uk : United Kingdom | ukrn : Ukraine | usa : United States | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC G/FED PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220411ei4b000jh Page 19 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Review &amp; Outlook (U.S.) SE Opinion HD Boris Johnson Tours Kyiv; The British Prime Minister makes a surprise and welcome visit after Ukr&lt;mark&gt;ai&lt;/mark&gt;ne wins the battle for the capital against Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Boris Johnson may have messed up British energy policy, but the Prime Minister has been stalwart in support of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne against Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;ne has won the battle of Kyiv, which Mr. Johnson called "the greatest feat of arms of the 21st century."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD This solidarity sends an important political signal of European support, though it's not as crucial as more and heavier weapons as a new camp&lt;mark&gt;ai&lt;/mark&gt;gn in eastern Ukraine unfolds.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Brit&lt;mark&gt;ai&lt;/mark&gt;n is sending 120 armored vehicles and new antiship missiles to Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The latter could help deter a Russian attempt at a marine landing ag&lt;mark&gt;ai&lt;/mark&gt;nst Odessa on the Black Sea.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;President Biden, please follow the Prime Minister and help Ukr&lt;mark&gt;ai&lt;/mark&gt;ne win this war, not merely survive it.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Boris Johnson Tours Kyiv NS gvexe : Executive Branch | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | ncolu : Columns | nedc : Commentaries/Opinions | gpol : Domestic Politics | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukr&lt;mark&gt;ai&lt;/mark&gt;ne | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220410ei4a002p9 Page 20 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukr&lt;mark&gt;ai&lt;/mark&gt;ne Crisis: Conflict Sparks an Exodus Of Russia's Professionals BY By Georgi Kantchev, Evan Gershkovich and Yuliya Chernova WC 831 words PD 11 April 2022 SN The Wall Street Journal SC J PG A6 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Hundreds of thousands of professional workers, many of them young, have left Russia since its invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, accelerating an exodus of business talent and further threatening an economy targeted by Western sanctions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While precise counts of the number of people leaving Russia aren't av&lt;mark&gt;a</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AR </t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>584</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;TD As they work to settle on a campaign strategy for November, Democrats said they need to better sell the public on what they see as Mr. Biden's wins, chiefly pandemic stimulus and infrastructure spending, while making cle&lt;mark&gt;ar &lt;/mark&gt;they will work to bring prices down.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The FiveThirtyEight average of national polls put his approval at 41.8% as of last week, down from 53.1% at the same point a ye&lt;mark&gt;ar &lt;/mark&gt;earlier.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While some past foreign-policy crises prompted the public to rally around the president, the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine hasn't had that effect for Mr. Biden.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Former President Barack Obama had a simil&lt;mark&gt;ar &lt;/mark&gt;message a few days later.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden has been emphasizing job growth, a near-recovery to prepandemic levels, and last week held an event with Mr. Obama to talk about the Affordable Care Act, the legislation whose passage helped lead to steep Democratic losses in the 2010 midterms, but is now relatively popul&lt;mark&gt;ar &lt;/mark&gt;with voters.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Rep. Ami Bera of California, a leader in the moderate New Democrat Coalition, said the party should focus on bread-and-butter economics, such as attempts to bring down gasoline prices, and he is encouraged to he&lt;mark&gt;ar &lt;/mark&gt;the president talk about increasing funding for police, as Republicans emphasize growing violent-crime rates.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Democrats fe&lt;mark&gt;ar &lt;/mark&gt;that without additional achievements to show voters, they could stay home.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Global View SE Opinion HD Putin's Ukraine W&lt;mark&gt;ar &lt;/mark&gt;Roils U.S.-India Ties; Policies that drive Russia closer to China and Pakistan aren't in New Delhi's interests.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That strategic location made it the scene of some of the most bitter fighting in World W&lt;mark&gt;ar &lt;/mark&gt;II.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine has strengthened the North Atlantic Treaty Organization.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Many Indians resent American lectures on India's quest for cheap Russian oil as NATO members continue to subsidize Mr. Putin's w&lt;mark&gt;ar &lt;/mark&gt;machine by importing as much oil and gas as he is willing to ship.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A victory for the Taliban in Afghanistan, instability in Pakistan even as its relations with China deepen, civil w&lt;mark&gt;ar &lt;/mark&gt;in Myanmar, a major political crisis in Sri Lanka, and China's busily building up its forces on India's northern and northeastern boundaries—this is not the kind of world that India wants.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;American attempts to isolate and punish Myanmar's junta, however morally inspiring, appe&lt;mark&gt;ar &lt;/mark&gt;to some in Delhi to be making a bad situation worse and creating opportunities for China.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Putin's Ukraine W&lt;mark&gt;ar &lt;/mark&gt;Roils U.S.-India Ties NS gdip : International Relations | gvexe : Executive Branch | gcat : Political/General News | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | gsec : State Security Measures/Policies | gvio : Military Action | ncolu : Columns | nedc : Commentaries/Opinions | grisk : Risk News | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE india : India | china : China | solil : Solomon Islands | asiaz : Asia | ausnz : Australia/Oceania | easiaz : Eastern Asia | eurz : Europe | ndelh : New Delhi | pacisz : Pacific Islands | pakis : Pakistan | puri : Puerto Rico | russ : Russia | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | delhi : Delhi | apacz : Asia Pacific | bric : BRICS Countries | caribz : Caribbean Islands | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | indsubz : Indian Subcontinent | lamz : Latin America | namz : North America | sasiaz : Southern Asia | usa : United States | usau : U.S. Unincorporated Territories | weurz : Western Europe IPD COLUMN IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220411ei4b005v5 Page 6 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That was a rather obvious observation from the 27 member states, considering the popul&lt;mark&gt;ar &lt;/mark&gt;outpouring for Ukraine across the continent, and their own provision of arms and sanctions to help it fight Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Applications from the likes of Serbia and North Macedonia are stuck in the circul&lt;mark&gt;ar &lt;/mark&gt;file.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine, with a prew&lt;mark&gt;ar &lt;/mark&gt;population of 44 million, has numerous additional strikes against it.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;W&lt;mark&gt;ar &lt;/mark&gt;and alleged war crimes have raised a clamor to do more, which is dividing the EU along fairly predictable lines.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;How Eurocrats mince a phrase in Brussels might seem trivial while w&lt;mark&gt;ar &lt;/mark&gt;rages and corpses pile up.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;France is sending a police unit to investigate potential w&lt;mark&gt;ar &lt;/mark&gt;crimes in Ukraine, expanding its involvement in the war zone.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i64 : Retail/Wholesale | i656000301 : Etailing | iecom : E-commerce | iint : Online Service Providers | imed : Media/Entertainment | iretail : Retail | isocial : Social Media Platforms/Tools | itech : Technology NS naudvl : Audio-visual Links | ntra : Transcripts | c31 : Marketing | ccat : Corporate/Industrial News | gcrim : Crime/Legal Action | gvio : Military Action | gw&lt;mark&gt;ar &lt;/mark&gt;: War Crimes | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | niwe : IWE Filter RE ukrn : Ukraine | fra : France | eecz : European Union Countries | eurz : Europe | uk : United Kingdom | weurz : Western Europe | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | medz : Mediterranean IPD SYND IPC N/CNW PUB Dow Jones &amp; Company, Inc. AN Document WSJPOD0020220411ei4b000gp Page 10 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;BY By Sabrina Escob&lt;mark&gt;ar &lt;/mark&gt;WC 596 words PD 11 April 2022 ET 21:52 SN Barron's Online SC BON LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Sabrina Escob&lt;mark&gt;ar &lt;/mark&gt;at sabrina.escobar@barrons.com Nvidia Stock Is Downgraded.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. doll&lt;mark&gt;ar &lt;/mark&gt;price targets are roughly $40 and $24, respectively.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;First, the w&lt;mark&gt;ar &lt;/mark&gt;raised the possibility that Europe would turn from using less natural gas-generated power—the continent's countries buy large supplies of natural gas from Russia—and more nuclear power.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We believe the Russia/Ukraine w&lt;mark&gt;ar &lt;/mark&gt;and subsequent shift in Western markets away from exposure to Russia have fundamentally changed the uranium market outlook and long-term market structure," wrote the analyst Monday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We see Cameco as best-positioned to meet market needs in this transition with Western-based proven and potential production along the nucle&lt;mark&gt;ar &lt;/mark&gt;fuel cycle."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;* There are steps businesses can take at this time to reduce risk, even when it is not cle&lt;mark&gt;ar &lt;/mark&gt;exactly what they may have to defend against.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Microsoft Corp. detected malware it dubbed 'Whispergate' in January while cybersecurity companies Symantec, a division of Broadcom Inc., and Slovakia-based cyber firm ESETrevealed a simil&lt;mark&gt;ar &lt;/mark&gt;malware that had infected hundreds of computers in Ukraine, as well as Latvia and Lithuania, some for several months.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;* Ensuring the organization is prepared to respond with a crisis-response team that has cle&lt;mark&gt;ar &lt;/mark&gt;roles and responsibilities and conducts exercises to test responses.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Asia Economy SE Economy HD China Inflation Rises as Lockdowns, Ukraine W&lt;mark&gt;ar &lt;/mark&gt;Drive Up Prices; Inflationary pressure remains lighter than in other major economies, giving the central bank room to stimulate the slowing economy BY By Jason Douglas WC 641 words PD 11 April 2022 ET 12:15 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The overall inflationary picture in China remains f&lt;mark&gt;ar &lt;/mark&gt;more benign than in the U.S. and other major economies, though, giving the government and central bank ample room to support the slowing economy with stimulus.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Consumer prices in March were up 1.5% from a ye&lt;mark&gt;ar &lt;/mark&gt;earlier, the biggest annual jump in three months, while the prices charged by companies at the factory gate were up more than 8%, exceeding the expectations of economists polled by The Wall Street Journal.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Economists polled by The Wall Street Journal expect the U.S. consumer-price index for March to be up 8.4% from a ye&lt;mark&gt;ar &lt;/mark&gt;earlier.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Prices charged by companies at the factory gate were up 8.3% from a ye&lt;mark&gt;ar &lt;/mark&gt;earlier, a slower pace than February's 8.8% but faster than the 8% that economists polled by The Wall Street Journal were expecting.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Jason Douglas at jason.douglas@wsj.com China Inflation Rises as Lockdowns, Ukraine W&lt;mark&gt;ar &lt;/mark&gt;Drive Up Prices NS ecat : Economic News | ecpin : Consumer Price Index | e1103 : Inflation Figures/Price Indices | gsars : Novel Coronaviruses | e11 : Economic Performance/Indicators | ghea : Health | ncolu : Columns | npred : Economic Predictions/Forecasts | gcat : Political/General News | gcold : Respiratory Tract Diseases | gmed : Medical Conditions | gspox : Infectious Diseases | ncat : Content Types RE china : China | chinaz : Greater China | easiaz : Eastern Asia | asiaz : Asia | eurz : Europe | namz : North America | uk : United Kingdom | ukrn : Ukraine | usa : United States | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC G/FED PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220411ei4b000jh Page 19 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD A mid-March survey by OK Russians, a nonprofit helping people leave the country, estimated that around 300,000 workers had departed since the w&lt;mark&gt;ar &lt;/mark&gt;started in late February.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While precise counts of the number of people leaving Russia aren't available, some economists have reached simil&lt;mark&gt;ar &lt;/mark&gt;conclusions about the scale of the outflow.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Levada has also found much higher support for the w&lt;mark&gt;ar &lt;/mark&gt;among older respondents than younger Russians.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;When the w&lt;mark&gt;ar &lt;/mark&gt;started, she said she thought, "It was all a nightmare, and we had to wake up."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;After her husband, Leonid Rybnikov, was jailed for 13 days for posting antiw&lt;mark&gt;ar &lt;/mark&gt;stickers in their neighborhood, they decided it was time to leave.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Two Yandex employees famili&lt;mark&gt;ar &lt;/mark&gt;with the matter confirmed the announcement, which was published by Russian media.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"I can't live in a country that goes to w&lt;mark&gt;ar &lt;/mark&gt;with its neighbors," Ms. Bunina wrote.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;WSJ national security reporter Brett Forrest joins us from Kyiv to explain how the next phase of the w&lt;mark&gt;ar &lt;/mark&gt;is likely to compare with the six weeks of fighting so far, and why the battle could shift to Russia's advantage unless Ukraine receives additional weapons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Click here to listen to the podcast TD Luke Vargas: Ukraine and Russia ge&lt;mark&gt;ar &lt;/mark&gt;up as fighting shifts to Ukraine's East.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;So Ukraine will be less able to conduct the sort of gorilla warfare that has so f&lt;mark&gt;ar &lt;/mark&gt;been really successful for them.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukrainian and Russian reinforcement continue to pour into Eastern Ukraine in preparation for the next phase of the w&lt;mark&gt;ar &lt;/mark&gt;as refugees flee a looming Russian assault.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We'll have more on what the likely next phase of the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine could look like later in the show.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Meanwhile, the World Bank now projects, the w&lt;mark&gt;ar &lt;/mark&gt;will shrink Ukraine's economy this year by more than 45% in addition to inflicting enormous damage on the country's infrastructure.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The bank also said the w&lt;mark&gt;ar &lt;/mark&gt;is stoking concerns of a global economic slowdown as it forecast at countries, including Belarus, the Kyrgyz Republic, Moldova and Tajikistan will join Ukraine and Russia in falling into a recession.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;French president, Emmanuel Macron and f&lt;mark&gt;ar &lt;/mark&gt;right leader Marine Le Pen are set to face each other in the second round of the French presidential elections on April 24th after placing first and second respectively in a first round of voting yesterday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Speaker 3: The f&lt;mark&gt;ar &lt;/mark&gt;right vote is bigger than ever.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If you look at the voting from Sunday, you'll see that more than half of the votes went to parties that are either f&lt;mark&gt;ar &lt;/mark&gt;right or far left.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Luke Vargas: Inflation in China has picked up 1.5% in March compared to a ye&lt;mark&gt;ar &lt;/mark&gt;earlier, the biggest annual jump in three months.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Separately, a more than 10% drop in passenger c&lt;mark&gt;ar &lt;/mark&gt;sales in March, spotlights a different set of challenges for the world's biggest car market as car makers grapple with extended manufacturing halts because of COVID lockdowns and logistics delays.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And that's up from 18% just a few months ago in January and only 13% a ye&lt;mark&gt;ar &lt;/mark&gt;ago.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Luke Vargas: You mentioned concerns about wage growth and inflation weighing on how economists are forecasting the ye&lt;mark&gt;ar &lt;/mark&gt;to come.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We are also six plus weeks into the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And instead I think a lot of investors were caught off guard when markets just kept climbing and climbing, and the S&amp;P 500 is down only about 6% for this ye&lt;mark&gt;ar &lt;/mark&gt;now, about half of where it was at its worst.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;So a Dow Jones market data analysis showed that after one ye&lt;mark&gt;ar &lt;/mark&gt;the S&amp;P 500 and the NASDAQ composite that were up 80% of the time, one year after the Fed started hiking rates.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Luke Vargas: Coming up, we'll he&lt;mark&gt;ar &lt;/mark&gt;from our reporter in Kiev as Ukraine and Russia prepare for what's expected to be an intense fight in the Eastern Donbas region.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;What could this next phase of the w&lt;mark&gt;ar &lt;/mark&gt;look like and how are both sides mobilizing?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine and Russia have started amassing reinforcement in Eastern Ukraine as their six week w&lt;mark&gt;ar &lt;/mark&gt;seems geared for a new phase.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Luke Vargas: Brett, let's start by looking at what signs we have that a new Russian offensive in this w&lt;mark&gt;ar &lt;/mark&gt;may be imminent.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Brett Forrest: Well, I think it's pretty cle&lt;mark&gt;ar &lt;/mark&gt;that one is imminent.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;I think it's pretty cle&lt;mark&gt;ar &lt;/mark&gt;that Russia's initial goals were overly ambitious, both in terms of scope and speed, timeline, et cetera.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And then the second one is consolidation and expansion of Russian territorial gains in the east, building off of the Donbas w&lt;mark&gt;ar &lt;/mark&gt;that began in 2014.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Brett Forrest: Yeah, Luke, that's a really good question because this will be a different kind of w&lt;mark&gt;ar &lt;/mark&gt;or at least a different phase of this war.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine has had out of success so f&lt;mark&gt;ar &lt;/mark&gt;attacking extended Russian columns.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;So Russia will be able to dig in and Ukraine will be less able to conduct the sort of guerilla warfare that has so f&lt;mark&gt;ar &lt;/mark&gt;been really successful for them.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Luke Vargas: And finally, compared to the apparel industry at large, the growing active we&lt;mark&gt;ar &lt;/mark&gt;industry, hasn't made as many strides in selling their clothes in larger sizes, especially for those looking for technical gear like knee pads, hiking pants, or racing kits.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;They cited inflationary risk factors, including commodity, food, and gasoline prices, a tight labor market, and the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukrainian officials said Moscow's aims likely go f&lt;mark&gt;ar &lt;/mark&gt;beyond seizing the Donbas region, and that President Vladimir Putin of Russia seeks to destroy the best Ukrainian units in the battle to then try again to seize the rest of the country, including Kyiv.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Moscow denied it carried out that particul&lt;mark&gt;ar &lt;/mark&gt;strike.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's Defense Ministry said it targeted Dnipro with Kalibr missiles from a Black Sea fleet frigate and that its missiles also struck the southern Ukrainian region of Mykolayiv and a military airfield ne&lt;mark&gt;ar &lt;/mark&gt;Kharkiv, where it said it destroyed an S-300 antiaircraft missile system.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Light, portable missiles supplied by the U.S. and its European allies, such as the Javelin and the NLAW, played a big role in that success, as did Turkish-made Bayrakt&lt;mark&gt;ar &lt;/mark&gt;TB2 armed drones.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine managed to win the first round of the w&lt;mark&gt;ar &lt;/mark&gt;because of close-contact infantry engagements, Ukraine Defense Minister Oleksii Reznikov said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The w&lt;mark&gt;ar &lt;/mark&gt;is entering the phase of competition for resources, which are almost unlimited in Russia in comparison to Ukraine," Mr. Reznikov said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"This w&lt;mark&gt;ar &lt;/mark&gt;will be won on the battlefield," European Union foreign-policy chief Josep Borrell tweeted on Saturday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. made public $400 million in additional military aid to Ukraine in April, of a total of $1.4 billion since the w&lt;mark&gt;ar &lt;/mark&gt;started Feb. 24.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Germany, which also insisted on a slower timetable for stopping Russian coal imports than many other EU countries wanted, has said it could halve its Russian oil imports by this summer, but that it would need until the end of this ye&lt;mark&gt;ar &lt;/mark&gt;to stop them entirely.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Opposition to an oil embargo partly reflects governments' fe&lt;mark&gt;ar &lt;/mark&gt;of a voter backlash against high energy prices.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Many people's great-grandparents fled here during World W&lt;mark&gt;ar &lt;/mark&gt;II and now they are doing the same thing to help the refugees."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The leaders sat them down the next day to explain that the Amazon rainforest was very f&lt;mark&gt;ar &lt;/mark&gt;away -- about 1,200 miles -- and stressed again that this region is known for being just like Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Like most men, her husband was required to stay to help with the w&lt;mark&gt;ar &lt;/mark&gt;effort.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It also helped convince her children that they were on some exotic adventure, rather than w&lt;mark&gt;ar &lt;/mark&gt;refugees.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Serhiy Berestenko climbed into a truck outside a warehouse in Kyiv bound for Dnipro, about 300 miles to the southeast, carrying medical supplies to hospitals close to the front lines of Russia's w&lt;mark&gt;ar &lt;/mark&gt;on Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Messrs. Poliukhovych and Berestenko work for DFDS, a Denmark-based freight and logistics company that before the w&lt;mark&gt;ar &lt;/mark&gt;mostly moved metal parts, furniture and textiles between Scandinavia and Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;EnlivUA's revenues are just enough to pay the salaries of about 220 workers and to continue to make deliveries across Ukraine, including to cities such as Mykolaiv in the southeast, which have faced regul&lt;mark&gt;ar &lt;/mark&gt;rocket attacks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;At night, he parks outside towns and cities, sleeping close to Ukrainian checkpoints where he can he&lt;mark&gt;ar &lt;/mark&gt;the shelling and airstrikes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP As Russia began its w&lt;mark&gt;ar &lt;/mark&gt;against Ukraine in late February, the central banks of the U.S., Japan, U.K., European Union and others froze more than $300 billion of Russia's foreign-exchange reserves.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Indeed, Russia's brutal w&lt;mark&gt;ar &lt;/mark&gt;against Ukraine has resulted in widespread war crimes, the deliberate destruction and depopulation of Ukrainian cities, the displacement of some 11 million Ukrainians from their homes, and the deaths of many thousand Ukrainian civilians.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The confiscation and use of Russian assets would serve as a cle&lt;mark&gt;ar &lt;/mark&gt;signal to Russia's citizens and its ruling elite that they will be expected to pay for Ukraine's postwar recovery.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It is important that the West make cle&lt;mark&gt;ar &lt;/mark&gt;that a settled peace with Ukraine, Russia's reversion to pre-Feb. 24 borders, the payment of reparations to finance Ukraine's rebuilding, and restitution for the losses suffered by the Ukrainian state and its citizens are the minimal preconditions for Russia's partial reintegration into the global economy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The use of confiscated state and oligarchic assets would be an unprecedented step, but Russia's w&lt;mark&gt;ar &lt;/mark&gt;of aggression, with its deliberate focus on civilian targets, is an unprecedented event in post-World War II Europe.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Most important, a quick decision to bolster Ukraine with seized Russian assets would strengthen Ukraine's w&lt;mark&gt;ar &lt;/mark&gt;effort and economy and boost Ukrainian morale.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Your editorial "The Consequences of W&lt;mark&gt;ar &lt;/mark&gt;Crimes" (April 5) suggests holding Russian officers responsible.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Threatening action on officers and generals who commit w&lt;mark&gt;ar &lt;/mark&gt;crimes only works if you win.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But as the w&lt;mark&gt;ar &lt;/mark&gt;grinds beyond the six-week mark, one thing is clear: Europe will never be the same.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Going cold turkey isn't really possible; such a move would trigger a recession, German Chancellor Olaf Scholz warned last month, though his country has cut back 40% since the w&lt;mark&gt;ar &lt;/mark&gt;began.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The current geopolitical conflict may provide tailwinds to RWE in the ne&lt;mark&gt;ar &lt;/mark&gt;term through merchant power prices and in the long run by accelerated renewable expansion and also its ability to provide security of supply," he says.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM World News SE World HD Fleeing Putin, Thousands of Educated Russians Are Moving Abroad; Young professionals, often working in tech, have left the country after the Ukraine invasion: 'I can't live in a country that goes to w&lt;mark&gt;ar &lt;/mark&gt;with its neighbors.'&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD A mid-March survey by OK Russians, a nonprofit helping people leave the country, estimated that around 300,000 workers had departed since the w&lt;mark&gt;ar &lt;/mark&gt;started in late February.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While precise counts of the number of people leaving Russia aren't available, some economists have reached simil&lt;mark&gt;ar &lt;/mark&gt;conclusions about the scale of the outflow.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Levada has also found much higher support for the w&lt;mark&gt;ar &lt;/mark&gt;among older respondents than younger Russians.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;When the w&lt;mark&gt;ar &lt;/mark&gt;started, she said she thought, "It was all a nightmare, and we had to wake up."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;After her husband, Leonid Rybnikov, was jailed for 13 days for posting antiw&lt;mark&gt;ar &lt;/mark&gt;stickers in their neighborhood, they decided it was time to leave.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Two Yandex employees famili&lt;mark&gt;ar &lt;/mark&gt;with the matter confirmed the announcement, which was published by Russian media.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"I can't live in a country that goes to w&lt;mark&gt;ar &lt;/mark&gt;with its neighbors," Ms. Bunina wrote.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Yandex, the classified-ad site Avito, the commercial bank Tinkoff and the software firm DataArt have collectively flown more than 1,000 workers to Turkey, according to people famili&lt;mark&gt;ar &lt;/mark&gt;with the matter.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;They cited opposition to the war, fe&lt;mark&gt;ar &lt;/mark&gt;of repression and a lack of economic prospects as the main reasons for their departures.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Others still in Russia are waiting for visas, job applications or the school ye&lt;mark&gt;ar &lt;/mark&gt;to end.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Only eight students have registered so f&lt;mark&gt;ar &lt;/mark&gt;for the private school's first-year M.B.A. course that starts in May.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;52, one of the capital's main centers for Covid-19 patients, left Russia for Latvia with his family a week after the w&lt;mark&gt;ar &lt;/mark&gt;began.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But voters have a way of disrupting complacency, and they sent him a cle&lt;mark&gt;ar &lt;/mark&gt;warning in Sunday's first election round.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Inflation in particul&lt;mark&gt;ar &lt;/mark&gt;is a political wild card, running at 5.1% and raising costs of everyday life for the middle class.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He has also pressed grander plans for the EU, with himself as titul&lt;mark&gt;ar &lt;/mark&gt;leader, despite popular skepticism on the French right and left.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The runoff stakes will be especially high for Europe's policy toward Russia and the w&lt;mark&gt;ar &lt;/mark&gt;on Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But such politicians can prosper in times of economic insecurity and a w&lt;mark&gt;ar &lt;/mark&gt;in Europe's east.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;One replied with a Z, the pro-Russia w&lt;mark&gt;ar &lt;/mark&gt;symbol.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;One made a vulg&lt;mark&gt;ar &lt;/mark&gt;suggestion that President Volodymyr Zelensky was crooked.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Others supported Ukraine, and it was cle&lt;mark&gt;ar &lt;/mark&gt;our group was splitting into two factions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But the w&lt;mark&gt;ar &lt;/mark&gt;against Ukraine hasn't benefited Russians, and Mr. Putin is a ruthless dictator with contempt for human life, including the lives of Russians.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;toward extreme isolationism, producing a self-described antiw&lt;mark&gt;ar &lt;/mark&gt;movement that preaches peace while callously ignoring war crimes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Monday, President Joe Biden will meet virtually with India's Prime Minister Narendra Modi, whose government so f&lt;mark&gt;ar &lt;/mark&gt;has taken a neutral stance.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A missile fragment with lettering that read: "For the children" was found on the ground ne&lt;mark&gt;ar &lt;/mark&gt;that train station, NBC reported.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukrainian President Volodymyr Zelensky says Ukrainian forces have discovered atrocities in other towns that are even worse than what the Russian forces did in the town of Bucha ne&lt;mark&gt;ar &lt;/mark&gt;Kyiv.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Dvornikov led Russian forces in Syria, the AP reported, where Russia has waged a devastating military conflict to support President Bash&lt;mark&gt;ar &lt;/mark&gt;al-Assad.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Haidai said he expects the new Russian offensive to begin soon so that Moscow's army could deliver "some kind of victory" ahead of May 9 commemorations of victory in World W&lt;mark&gt;ar &lt;/mark&gt;II.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukrainian President Volodymyr Zelensky, in a televised address early Saturday, called the train-station strike the "latest w&lt;mark&gt;ar &lt;/mark&gt;crime of Russia, for which everyone involved will be held accountable."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"This w&lt;mark&gt;ar &lt;/mark&gt;will be won on the battlefield," EU Foreign-Policy Chief Josep Borrell, who accompanied Ms. von der Leyen, tweeted on Saturday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As part of what he called his "to do list," Mr. Borrell said that he planned to meet Sunday with the prosecutor of the International Criminal Court, who is investigating suspected w&lt;mark&gt;ar &lt;/mark&gt;crimes in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ahead of the expected offensive, Ukraine's east—a site of persistent, mostly low-boil fighting since Russian-controlled separatists took over parts of the area in 2014—is becoming a w&lt;mark&gt;ar &lt;/mark&gt;zone.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But U.S. commanders have watched with dismay over the past ye&lt;mark&gt;ar &lt;/mark&gt;as military leaders in several African allies—including officers with extensive American schooling—have overthrown civilian governments and seized power for themselves, triggering laws that forbid the U.S. government from providing them with weapons or training.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"There's no one more surprised or disappointed when partners that we're working with—or have been working with for a while in some cases—decide to overthrow their government," Re&lt;mark&gt;ar &lt;/mark&gt;Adm. Jamie Sands, commander of U.S. special-operations forces in Africa, said this week.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Senior soldiers from three dozen African countries watched American recruits tackle boot-camp obstacle courses, witnessed parachute training and saw live-ammo tank and mort&lt;mark&gt;ar &lt;/mark&gt;demonstrations.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;PHOTO: MICHAEL M. PHILLIPS/THE WALL STREET JOURNAL Sudan's ruling junta, which last ye&lt;mark&gt;ar &lt;/mark&gt;reversed a U.S.-supported transition to democratic rule, was unwelcome at the Fort Benning summit.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ethiopia hosted the last such gathering in 2020; this ye&lt;mark&gt;ar &lt;/mark&gt;its military is on the outs with the U.S. over alleged human-rights abuses in its war against Tigrayan rebels.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Why is a ye&lt;mark&gt;ar &lt;/mark&gt;at Fort Leavenworth going to change how you behave politically in your own country?"&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;American Green Berets were in the midst of training Guinean special forces last ye&lt;mark&gt;ar &lt;/mark&gt;when the local soldiers broke away to oust the country's civilian president.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But a military junta retook power last ye&lt;mark&gt;ar &lt;/mark&gt;and launched a bloody crackdown on protesters, losing its invitation to the Fort Benning event.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE Daily HD This Global-Conflict Expert Sees a Bleak End for the Russia-Ukraine W&lt;mark&gt;ar &lt;/mark&gt;and for Putin BY By George Friedman WC 1,453 words PD 9 April 2022 ET 21:07 SN Barron's Online SC BON LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As we consider how the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine will end, we must first understand how it began.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This was a different sort of Russian army, a bureaucratized one, one more afraid of the ts&lt;mark&gt;ar &lt;/mark&gt;than of losing to the enemy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Russian army wasn't designed for this war, hadn't planned for this w&lt;mark&gt;ar &lt;/mark&gt;and has only brutal counter-civilian action to take.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The only alternatives are ineffective action because the force he sent to w&lt;mark&gt;ar &lt;/mark&gt;was the wrong force from a country that didn't have the right one.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Continuing the w&lt;mark&gt;ar &lt;/mark&gt;endlessly reveals the same thing.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Every agreement must end in betrayal, and as it happens with guerrillas, they get stronger the longer the w&lt;mark&gt;ar &lt;/mark&gt;drags out.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It has been fighting a highly motivated, mobile light infantry force famili&lt;mark&gt;ar &lt;/mark&gt;with the terrain.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This means that Putin's w&lt;mark&gt;ar &lt;/mark&gt;plan is shattered.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He can't sustain this w&lt;mark&gt;ar &lt;/mark&gt;easily, especially in the face of NATO soldiers who have so far stayed out of the fray.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But for now, it's cle&lt;mark&gt;ar &lt;/mark&gt;to me that Putin will cling to power and blame everyone around him.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But every day the w&lt;mark&gt;ar &lt;/mark&gt;goes on, Putin gets weaker.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He has mumbled about nucle&lt;mark&gt;ar &lt;/mark&gt;weapons, the sign of utmost desperation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But he knows he and anyone he may love will die in a nucle&lt;mark&gt;ar &lt;/mark&gt;exchange.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Therein lies the weakness of nucle&lt;mark&gt;ar &lt;/mark&gt;war: retaliating is one thing, initiating another.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But given the situation on the ground, and given Russian internal dynamics, it does seem that all the forces coming to be&lt;mark&gt;ar &lt;/mark&gt;on Putin dictate a certain direction.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The w&lt;mark&gt;ar &lt;/mark&gt;will end, but the war is evolving in a way that creates unique pressures on the Russian political system, and, because of the nature of the system, that pressure pivots on Putin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;(Doubleday, 2020) Write to editors@barrons.com This Global-Conflict Expert Sees a Bleak End for the Russia-Ukraine W&lt;mark&gt;ar &lt;/mark&gt;and for Putin NS gvexe : Executive Branch | gcat : Political/General News | gpir : Politics/International Relations | gvio : Military Action | gcns : National/Public Security | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies Page 61 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM China News SE World HD China Is Accelerating Its Nucle&lt;mark&gt;ar &lt;/mark&gt;Buildup Over Rising Fears of U.S.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Conflict; Beijing believes U.S. could turn to nucle&lt;mark&gt;ar &lt;/mark&gt;weapons in a war; Ukraine invasion underscores the value of a robust arsenal BY By Alastair Gale WC 1,951 words PD 9 April 2022 ET 18:30 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP China has accelerated an expansion of its nucle&lt;mark&gt;ar &lt;/mark&gt;arsenal because of a change in its assessment of the threat posed by the U.S., people with knowledge of the Chinese leadership's thinking say, shedding new light on a buildup that is raising tension between the two countries.&lt;/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>metaverse</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>3</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Plus, luxury goods are fetching top dollar in the &lt;mark&gt;metaverse&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And Dolce &amp; Gabbana auctioned off a digital tiara that can only be worn in the &lt;mark&gt;metaverse&lt;/mark&gt; for 99.9 Ethereum.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some analysts think about a 10th of all luxury revenues could come from the &lt;mark&gt;metaverse&lt;/mark&gt;, and that could be over $50 billion by the end of this decade.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>VR</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>14</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The U.K. sanctioned Mr. Putin's daughters—imposing similar measures as the U.S. and European Union have—as well as the daughters of Russian Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In 2009 Mr. Obama nonetheless dispatched Secretary of State Hillary Clinton to Geneva to negotiate a "reset" on relations with her Russian counterpart Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Among the targets of Western sanctions are members of the Russian elite, key principals in Mr. Putin's inner circle such as Russian Defense Minister Sergei Shoigu and Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov, and Mr. Putin himself.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The EU is freezing any assets Mr. Putin and Mr. La&lt;mark&gt;vr&lt;/mark&gt;ov hold in the bloc, but they aren't being subjected to a travel ban, according to EU officials and diplomats, to keep open a channel for diplomacy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The EU has already blacklisted the son-in-law of Russia's Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov and the former wife of Rosneft Chief Executive Officer Igor Sechin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Over a six-hour hearing, Democrats on a House oversight panel castigated executives from Exxon Mobil Corp., Che&lt;mark&gt;vr&lt;/mark&gt;on Corp. and other oil giants for raking in historically high profits while slowing investment in U.S. production.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We do not control the price of crude oil or natural gas, nor of refined products like gasoline and diesel fuel," Che&lt;mark&gt;vr&lt;/mark&gt;on CEO Mike Wirth said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Exxon reported $23 billion and Che&lt;mark&gt;vr&lt;/mark&gt;on reported nearly $16 billion in net income for 2021, both their most profitable years since 2014.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO parpar : Pioneer Natural Resources Co | exxn : Exxon Mobil Corporation | socal : Che&lt;mark&gt;vr&lt;/mark&gt;on Corporation IN ifosfl : Fossil Fuels | i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | i1300003 : Crude Petroleum Extraction | iextra : Natural Gas/Oil Extraction | iioil : Integrated Oil/Gas NS gengsc : Energy Security | c13 : Regulation/Government Policy | gpol : Domestic Politics | gvcng : Legislative Branch | mcroil : Crude Oil Markets | c151 : Earnings | cpshrt : Product Shortage | c15 : Financial Performance | c21 : Output/Production | ccat : Corporate/Industrial News | cexpro : Products/Services | gcat : Political/General News | gpir : Politics/International Relations | gvbod : Government Bodies | m14 : Commodity Markets | m143 : Energy Markets | mcat : Commodity/Financial Market News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC MEN PUB Dow Jones &amp; Company, Inc. AN Document J000000020220407ei470001b Page 192 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. actions include sanctions against Russian President Vladimir Putin's two adult daughters, Maria Putina and Katerina Tikhonova, as well as the wife and daughter of Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov and members of Russia's security council, including former President and Prime Minister Dmitry Medvedev and Prime Minister Mikhail Mishustin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. actions announced Wednesday also include sanctions against Mr. Putin's two adult daughters, Maria Putina and Katerina Tikhonova, as well as the wife and daughter of Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov and members of Russia's security council, including former President and Prime Minister Dmitry Medvedev and Prime Minister Mikhail Mishustin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The bloc has already sanctioned the son-in-law of Russian Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov said that the media frenzy around what he called fake accounts at Bucha was designed specifically to sabotage the Russian-Ukrainian cease-fire talks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We tend to think that the reason for it lies in the desire to find a reason to disrupt the ongoing talks," Mr. La&lt;mark&gt;vr&lt;/mark&gt;ov said, speaking in a video address posted by the Russian media service TASS.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Funding</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>10</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Digital investment</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Rep. Ami Bera of California, a leader in the moderate New Democrat Coalition, said the party should focus on bread-and-butter economics, such as attempts to bring down gasoline prices, and he is encouraged to hear the president talk about increasing &lt;mark&gt;funding&lt;/mark&gt; for police, as Republicans emphasize growing violent-crime rates.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Germany's foreign and defense ministers have said German armed forces, depleted after decades of under&lt;mark&gt;funding&lt;/mark&gt;, can't spare more weapons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Politics and Policy SE Politics HD Congress Punts on &lt;mark&gt;Funding&lt;/mark&gt; Vaccines, Treatments as Covid-19 Hits Some Lawmakers; In hectic week, lawmakers approved Russia trade bills but couldn't resolve border-policy dispute tied to coronavirus bill BY By Natalie Andrews and Eliza Collins WC 1,170 words PD 9 April 2022 ET 02:42 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Congress Punts on &lt;mark&gt;Funding&lt;/mark&gt; Vaccines, Treatments as Covid-19 Hits Some Lawmakers CO uscong : United States Congress NS gsars : Novel Coronaviruses | gcat : Political/General News | gout : Outbreaks/Epidemics | gvuph : Upper House | c13 : Regulation/Government Policy | gimmu : Immunizations | ccat : Corporate/Industrial News | ghea : Health | gimm : Human Migration | gpir : Politics/International Relations | gpol : Domestic Politics | gvcng : Legislative Branch | ncolu : Columns | gcold : Respiratory Tract Diseases | gmed : Medical Conditions | gspox : Infectious Diseases | gtrea : Medical Treatments/Procedures | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter Page 97 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Germany's foreign and defense ministers have said German armed forces, depleted after decades of under&lt;mark&gt;funding&lt;/mark&gt;, were unable to spare more weapons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i8150105 : Consumer Lending | i8394 : Computer Services | ifinal : Financial Services | itech : Technology | i81501 : Credit Types/Services | ibcs : Business/Consumer Services | ibnk : Banking/Credit | i8150108 : Credit Cards | ifmsoft : Financial Technology | iplastic : Electronic Payment Systems NS c151 : Earnings | c15 : Financial Performance | c1513 : Sales Figures | c152 : Earnings Projections | c17 : Corporate &lt;mark&gt;Funding&lt;/mark&gt; | c41 : Management | ccat : Corporate/Industrial News | cslmc : Senior Level Management | gvio : Military Action | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ussrz : CIS Countries | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC AXP PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220408ei48006el Page 128 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Biden administration is prohibiting new investment in Russia by Americans and has also barred American individuals and firms from dealing in Russian sovereign debt, cutting off a key &lt;mark&gt;funding&lt;/mark&gt; source for Kremlin objectives.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It said Ms. Vorontsova leads state-funded programs that have received &lt;mark&gt;funding&lt;/mark&gt; from the Kremlin for genetics research, which the Treasury said are personally overseen by Mr. Putin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Merchant Marine is shrinking: Poor pay, long hours, low &lt;mark&gt;funding&lt;/mark&gt;, and outsourcing have created an aging workforce.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The expected increase in unemployment will force the government to boost social spending while &lt;mark&gt;funding&lt;/mark&gt; the war.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>2776</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;CLM Politics and Policy SE Politics HD Democrats Se&lt;mark&gt;ar&lt;/mark&gt;ch for Midterm Vote Strategy as Biden Poll Numbers Lag; President has touted job growth and infrastructure spending, but voters remain anxious on inflation, Ukraine and direction of country BY By Catherine Lucey and Alex Leary WC 1,451 words PD 11 April 2022 ET 16:30 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD As they work to settle on a campaign strategy for November, Democrats said they need to better sell the public on what they see as Mr. Biden's wins, chiefly pandemic stimulus and infrastructure spending, while making cle&lt;mark&gt;ar&lt;/mark&gt; they will work to bring prices down.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We've done so much," said Rep. M&lt;mark&gt;ar&lt;/mark&gt;k Pocan (D., Wis.).&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"But the Covid hangover and inflation make it h&lt;mark&gt;ar&lt;/mark&gt;der to talk about those really big things."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A recent ad from the House Majority PAC, a political-action committee that supports Democrats, outlined the message the p&lt;mark&gt;ar&lt;/mark&gt;ty wants to hit, stressing economic gains with jobs and wages and efforts to bring down the cost of gasoline and prescription drugs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Democrats &lt;mark&gt;ar&lt;/mark&gt;e getting things done to create jobs and lower costs," a narrator says.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The FiveThirtyEight average of national polls put his approval at 41.8% as of last week, down from 53.1% at the same point a ye&lt;mark&gt;ar&lt;/mark&gt; earlier.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While some past foreign-policy crises prompted the public to rally &lt;mark&gt;ar&lt;/mark&gt;ound the president, the war in Ukraine hasn't had that effect for Mr. Biden.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The midterms &lt;mark&gt;ar&lt;/mark&gt;e definitely going to be a referendum on the Democrats' failures and specifically the rising costs they've allowed to impact every American," said Rep. Tom Emmer of Minnesota, chairman of the GOP congressional campaign effort.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Republican strategy is already unfolding, with constant reminders about inflation and higher energy costs, while Democrats &lt;mark&gt;ar&lt;/mark&gt;e portrayed as soft on crime and immigration.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Historically, midterm elections &lt;mark&gt;ar&lt;/mark&gt;e a struggle for the party controlling the White House.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;More trouble might be ahead for Mr. Biden and the p&lt;mark&gt;ar&lt;/mark&gt;ty.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some economists &lt;mark&gt;ar&lt;/mark&gt;e predicting a recession within the next two years as the Federal Reserve raises interest rates to control inflation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And immigration officials &lt;mark&gt;ar&lt;/mark&gt;e bracing for a new surge of migrants at the Southern border in May following the Biden administration's decision to lift pandemic-era rules that let border agents turn migrants back at the border.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That move has prompted sh&lt;mark&gt;ar&lt;/mark&gt;p opposition from Republicans and some Democrats—including lawmakers who are vulnerable in November.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Former Secret&lt;mark&gt;ar&lt;/mark&gt;y of State and Democratic presidential nominee Hillary Clinton said on NBC recently that Democrats "have a great story to tell" but added, "We need to get out there and do a better job of telling it."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Former President B&lt;mark&gt;ar&lt;/mark&gt;ack Obama had a similar message a few days later.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Appe&lt;mark&gt;ar&lt;/mark&gt;ances in Iowa and North Carolina are planned for this week "I'm not going to say that history is in our favor, it certainly isn't," the adviser said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And certainly there &lt;mark&gt;ar&lt;/mark&gt;e impacts at home," the adviser said, while contending that Mr. Biden has a message that will break through as voters start to pay attention.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden has been emphasizing job growth, a ne&lt;mark&gt;ar&lt;/mark&gt;-recovery to prepandemic levels, and last week held an event with Mr. Obama to talk about the Affordable Care Act, the legislation whose passage helped lead to steep Democratic losses in the 2010 midterms, but is now relatively popular with voters.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He has proposed billions of doll&lt;mark&gt;ar&lt;/mark&gt;s to fight violent crime, a lift for moderates who oppose progressive calls to defund the police.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While Covid cases have declined overall and mask mandates and pandemic rules have l&lt;mark&gt;ar&lt;/mark&gt;gely been dropped around the country, Mr. Biden isn't seeing a jump in his approval ratings as a result, undercutting one of the central assumptions of his team.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Voters &lt;mark&gt;ar&lt;/mark&gt;e receptive to candidates "working to fix the problem, who've got a plan," said Rep. Sean Patrick Maloney of New York, who heads the Democratic congressional campaign arm.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He said candidates running in close districts in midterm elections "almost inv&lt;mark&gt;ar&lt;/mark&gt;iably have to outperform the national brand."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Rep. Ami Bera of California, a leader in the moderate New Democrat Coalition, said the p&lt;mark&gt;ar&lt;/mark&gt;ty should focus on bread-and-butter economics, such as attempts to bring down gasoline prices, and he is encouraged to hear the president talk about increasing funding for police, as Republicans emphasize growing violent-crime rates.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden recently met with the group and lamented that after the Affordable C&lt;mark&gt;ar&lt;/mark&gt;e Act was made law in 2010, Democrats didn't do a good job of telling the public how it could improve their lives, Mr. Bera said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SH&lt;mark&gt;AR&lt;/mark&gt;E YOUR THOUGHTS What strategies would be most effective for Democrats as they approach the midterms?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Still, p&lt;mark&gt;ar&lt;/mark&gt;ty enthusiasm has been damped by months of infighting and inaction on key issues.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Centrists, who &lt;mark&gt;ar&lt;/mark&gt;e most vulnerable in the coming election, want to focus on legislation that has a chance of passing, rather than some of the sweeping bills that consumed the focus for much of Mr. Biden's agenda.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Progressives &lt;mark&gt;ar&lt;/mark&gt;e pushing the president to sidestep Congress and use executive actions to tackle immigration, climate change and policing concerns.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Democrats fe&lt;mark&gt;ar&lt;/mark&gt; that without additional achievements to show voters, they could stay home.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"There were a lot of commitments, a lot of promises made, and people &lt;mark&gt;ar&lt;/mark&gt;e looking around asking, 'What happened?'"&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Without the wins, I'm not sure people &lt;mark&gt;ar&lt;/mark&gt;e going to be as excited about showing up."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Catherine Lucey at catherine.lucey@wsj.com and Alex Le&lt;mark&gt;ar&lt;/mark&gt;y at alex.leary@wsj.com Democrats Search for Midterm Vote Strategy as Biden Poll Numbers Lag NS gcat : Political/General News | gpol : Domestic Politics | gvote1 : National/Presidential Elections | gsars : Novel Coronaviruses | e211 : Government Budget/Taxation | ecat : Economic News | ghea : Health | gpir : Politics/International Relations | gvote : Elections | ncolu : Columns | nsur : Surveys/Polls | e1103 : Inflation Figures/Price Indices | e11 : Economic Performance/Indicators | e21 : Government Finance | gcold : Respiratory Tract Diseases | gmed : Medical Conditions | gspox : Infectious Diseases | ncat : Content Types RE usa : United States | ukrn : Ukraine | eurz : Europe | namz : North America | uk : United Kingdom | usdc : Washington DC | uss : Southern U.S. | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC G/FED PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220411ei4b0018h Page 4 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Global View SE Opinion HD Putin's Ukraine W&lt;mark&gt;ar&lt;/mark&gt; Roils U.S.-India Ties; Policies that drive Russia closer to China and Pakistan aren't in New Delhi's interests.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Kurt Campbell, senior Asia policy maker at the National Security Council, planned a trip to the Solomon Islands to stave off a potential Chinese diplomatic coup, while President Biden added a virtual meeting with Indian Prime Minister N&lt;mark&gt;ar&lt;/mark&gt;endra Modi even as Secretary of State Antony Blinken and Defense Secretary Lloyd Austin prepared for in-person meetings with their Indian counterparts.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD The Solomon Islands &lt;mark&gt;ar&lt;/mark&gt;e a nation in the Pacific between Australia and Hawaii that includes six larger islands and almost 1,000 small ones.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That strategic location made it the scene of some of the most bitter fighting in World W&lt;mark&gt;ar&lt;/mark&gt; II.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The most recent round of rioting, in November 2021, ended only after Australian troops &lt;mark&gt;ar&lt;/mark&gt;rived.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Last month, news broke that the Solomon Islands and Beijing had drafted a security agreement that could allow Chinese milit&lt;mark&gt;ar&lt;/mark&gt;y forces onto the islands.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The complicated politics of tiny Pacific island nations &lt;mark&gt;ar&lt;/mark&gt;e less attention-grabbing than missile strikes in the Donbas, but keeping the Western Pacific aligned with Washington might matter more to our future security than the outcome of Vladimir Putin's war.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The high-level meetings between top U.S. and Indian policy makers &lt;mark&gt;ar&lt;/mark&gt;e even more critical.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The w&lt;mark&gt;ar&lt;/mark&gt; in Ukraine has strengthened the North Atlantic Treaty Organization.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;India has a long history of close milit&lt;mark&gt;ar&lt;/mark&gt;y ties with Russia, and many Indian weapons systems today depend on Russian spare parts.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Many Indians resent American lectures on India's quest for cheap Russian oil as NATO members continue to subsidize Mr. Putin's w&lt;mark&gt;ar&lt;/mark&gt; machine by importing as much oil and gas as he is willing to ship.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While India and the U.S. have strengthened their bond over sh&lt;mark&gt;ar&lt;/mark&gt;ed concerns about a rising China, they view that problem through different lenses.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Maintaining a balance of power in Eurasia has been a core concept of Anglo-American strategic thought since Elizabeth Tudor fought off the Spanish &lt;mark&gt;Ar&lt;/mark&gt;mada in 1588.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Americans instinctively see the "limitless friendship" between Mr. Putin's Russia and Xi Jinping's China as a geopolitical threat to the global balance of power and see India as a valuable p&lt;mark&gt;ar&lt;/mark&gt;t of a counter-coalition.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Indians see things through a South Asian regional lens, and from that perspective, things &lt;mark&gt;ar&lt;/mark&gt;en't looking good.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A victory for the Taliban in Afghanistan, instability in Pakistan even as its relations with China deepen, civil w&lt;mark&gt;ar&lt;/mark&gt; in Myanmar, a major political crisis in Sri Lanka, and China's busily building up its forces on India's northern and northeastern boundaries—this is not the kind of world that India wants.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;American attempts to isolate and punish Myanm&lt;mark&gt;ar&lt;/mark&gt;'s junta, however morally inspiring, appear to some in Delhi to be making a bad situation worse and creating opportunities for China.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Whatever Indians think of Mr. Putin, New Delhi sees Moscow as a valuable source of weapons, an indispensable p&lt;mark&gt;ar&lt;/mark&gt;tner in Afghanistan, and, if not driven into China's arms, a valuable counterweight to Chinese power in Central Asia and beyond.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Biden administration casts its global strategy &lt;mark&gt;ar&lt;/mark&gt;ound a struggle between enlightened liberal democracy and the nonliberal world.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;India's Hindu nationalists &lt;mark&gt;ar&lt;/mark&gt;e not enlisting in that crusade.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;They want to defend India's Hindu identity, under threat in their view both from proselytizing monotheistic religions like Islam and Christianity and from a Western liberal ideology that seeks to transform communal and gender relations &lt;mark&gt;ar&lt;/mark&gt;ound the world.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The pivot to Asia is about more than moving milit&lt;mark&gt;ar&lt;/mark&gt;y assets around on the map.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To succeed in the Indo-Pacific, the U.S. must le&lt;mark&gt;ar&lt;/mark&gt;n to incorporate the outlook of great powers like India into its thinking, even as it gives priority to the stability and friendship of small but strategic states like the Solomon Islands.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Putin's Ukraine W&lt;mark&gt;ar&lt;/mark&gt; Roils U.S.-India Ties NS gdip : International Relations | gvexe : Executive Branch | gcat : Political/General News | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | gsec : State Security Measures/Policies | gvio : Military Action | ncolu : Columns | nedc : Commentaries/Opinions | grisk : Risk News | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE india : India | china : China | solil : Solomon Islands | asiaz : Asia | ausnz : Australia/Oceania | easiaz : Eastern Asia | eurz : Europe | ndelh : New Delhi | pacisz : Pacific Islands | pakis : Pakistan | puri : Puerto Rico | russ : Russia | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | delhi : Delhi | apacz : Asia Pacific | bric : BRICS Countries | caribz : Caribbean Islands | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | indsubz : Indian Subcontinent | lamz : Latin America | namz : North America | sasiaz : Southern Asia | usa : United States | usau : U.S. Unincorporated Territories | weurz : Western Europe IPD COLUMN IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220411ei4b005v5 Page 6 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Monday's update to the Geopolitical Risk Index saw it at a reading of 186.86, well under a M&lt;mark&gt;ar&lt;/mark&gt;ch 1 peak of 539.58.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Higher readings can signal a rise in downside risks, falling employment and m&lt;mark&gt;ar&lt;/mark&gt;ket trouble.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Emerging M&lt;mark&gt;ar&lt;/mark&gt;kets HD Ukraine's Bid for European Union Membership Is a Long Shot—for Now BY By Craig Mellow WC 974 words PD 11 April 2022 SN Barron's SC B PG 36 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CX Corrections &amp; Amplifications Eoin Drea is senior rese&lt;mark&gt;ar&lt;/mark&gt;ch officer at the Martens Center for European Studies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An e&lt;mark&gt;ar&lt;/mark&gt;lier version of this article incorrectly spelled his name.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP European Union leaders decl&lt;mark&gt;ar&lt;/mark&gt;ed after a summit at Versailles last month that "Ukraine belongs to our European family."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That was a rather obvious observation from the 27 member states, considering the popul&lt;mark&gt;ar&lt;/mark&gt; outpouring for Ukraine across the continent, and their own provision of arms and sanctions to help it fight Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Even becoming a candidate for membership looks like a long shot, though fresh outrage over app&lt;mark&gt;ar&lt;/mark&gt;ent Russian atrocities in the village of Bucha could shorten the odds.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"There's a huge difference between the rhetoric and the realities" on Ukraine, says Eoin Drea, senior rese&lt;mark&gt;ar&lt;/mark&gt;ch officer at the Martens Center for European Studies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Support for Ukraine joining the EU was a plank of the broad peace &lt;mark&gt;ar&lt;/mark&gt;chitecture that Zelensky laid out a few weeks ago, as partial compensation for Kyiv accepting military neutrality.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The EU took more than a decade after the Soviet collapse to absorb the ex-W&lt;mark&gt;ar&lt;/mark&gt;saw Pact and Baltic states.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Applications from the likes of Serbia and North Macedonia &lt;mark&gt;ar&lt;/mark&gt;e stuck in the circular file.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"There's enl&lt;mark&gt;ar&lt;/mark&gt;gement fatigue in the EU, and reform fatigue in the candidate countries," says Marie-Eve Belanger, a Geneva University researcher specializing in EU expansion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine, with a prew&lt;mark&gt;ar&lt;/mark&gt; population of 44 million, has numerous additional strikes against it.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It is an impoverished relative: Gross domestic product per capita is less than half of the poorest current EU member, Bulg&lt;mark&gt;ar&lt;/mark&gt;ia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That's a c&lt;mark&gt;ar&lt;/mark&gt;d Zelensky says he is willing to trade away.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The first goal of enl&lt;mark&gt;ar&lt;/mark&gt;gement has been stability," she says.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Zelensky and his government also looked less heroic to EU leaders prew&lt;mark&gt;ar&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine ranked 122 in last ye&lt;mark&gt;ar&lt;/mark&gt;'s Corruption Perceptions Index from NGO Transparency International, a bit better than Russia at 136.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A so-called association agreement Kyiv inked with Brussels in 2017 has brought in 20 billion euros ($21.8 billion) in aid and soft loans, estimates Rich&lt;mark&gt;ar&lt;/mark&gt;d Youngs, a senior fellow at Carnegie Europe.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The EU's Eastern P&lt;mark&gt;ar&lt;/mark&gt;tnership, which also includes ex-Soviet neighbors Georgia and Moldova, has funneled in yet more cash.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;W&lt;mark&gt;ar&lt;/mark&gt; and alleged war crimes have raised a clamor to do more, which is dividing the EU along fairly predictable lines.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Former Soviet satellites, led by Poland, &lt;mark&gt;ar&lt;/mark&gt;e pushing for Ukraine to become a candidate.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Germany, France, and the Netherlands &lt;mark&gt;ar&lt;/mark&gt;e tapping the brakes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"It will take months, maybe ye&lt;mark&gt;ar&lt;/mark&gt;s before you get to anything," Dutch Prime Minister Mark Rutte said after the Versailles conclave.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;How Eurocrats mince a phrase in Brussels might seem trivial while w&lt;mark&gt;ar&lt;/mark&gt; rages and corpses pile up.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukrainians have to be pleased with the spontaneous explosion of solid&lt;mark&gt;ar&lt;/mark&gt;ity, despite Zelensky's constant calls for still more Western support.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Symbolic gestures &lt;mark&gt;ar&lt;/mark&gt;e not as good as formal ones, but they're not nothing," Belanger says.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Looking forw&lt;mark&gt;ar&lt;/mark&gt;d, Ukrainians will need to feel that they gained something for their courage and sacrifice, not to mention foregoing NATO and de facto recognition of losing the territories Russia seized eight years ago.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That something is l&lt;mark&gt;ar&lt;/mark&gt;gely for the EU to deliver.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The EU and its Member States will continue to provide coordinated political, financial, material, and humanit&lt;mark&gt;ar&lt;/mark&gt;ian support" to Ukraine, the final communiqué from Versailles read.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Email: editors@b&lt;mark&gt;ar&lt;/mark&gt;rons.com CO euruno : European Union NS gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | ncolu : Columns | ncor : Corrections | ncrx : Corrected Items | ncat : Content Types RE ukrn : Ukraine | russ : Russia | asiaz : Asia | belg : Belgium | brus : Brussels | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | benluxz : Benelux Countries | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Barrons.com IPC n/cor PUB Dow Jones &amp; Company, Inc. AN Document B000000020220408ei4b00030 Page 9 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM WSJ Podcast Minute Briefing HD French Police Unit to Assist Ukraine in W&lt;mark&gt;ar&lt;/mark&gt;-Crimes Probe WC 318 words PD 11 April 2022 ET 21:58 SN WSJ Podcasts SC WSJPOD LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Plus: Some Etsy sellers tempor&lt;mark&gt;ar&lt;/mark&gt;ily close their shops to protest higher commission.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;France is sending a police unit to investigate potential w&lt;mark&gt;ar&lt;/mark&gt; crimes in Ukraine, expanding its involvement in the war zone.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some sellers on Etsy &lt;mark&gt;ar&lt;/mark&gt;e temporarily closing their shops to protest the company's decision to raise its commissions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Etsy executives say the fee hike is critical for it to make investments in m&lt;mark&gt;ar&lt;/mark&gt;keting and expand seller support services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;After reversing his decision to join the bo&lt;mark&gt;ar&lt;/mark&gt;d of Twitter, Elon Musk now says his stake social media company is for investment purposes and that he may engage with Twitter's board on business decisions and other matters that's according to a newly amended regulatory filing from Musk.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The amended filing also says Musk may express his views to the bo&lt;mark&gt;ar&lt;/mark&gt;d and the public through social media or other channels.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;You can add it to your playlist on your sm&lt;mark&gt;ar&lt;/mark&gt;t speaker or listen and subscribe wherever you get your podcasts.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i64 : Retail/Wholesale | i656000301 : Etailing | iecom : E-commerce | iint : Online Service Providers | imed : Media/Entertainment | iretail : Retail | isocial : Social Media Platforms/Tools | itech : Technology NS naudvl : Audio-visual Links | ntra : Transcripts | c31 : M&lt;mark&gt;ar&lt;/mark&gt;keting | ccat : Corporate/Industrial News | gcrim : Crime/Legal Action | gvio : Military Action | gwar : War Crimes | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | niwe : IWE Filter RE ukrn : Ukraine | fra : France | eecz : European Union Countries | eurz : Europe | uk : United Kingdom | weurz : Western Europe | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | medz : Mediterranean IPD SYND IPC N/CNW PUB Dow Jones &amp; Company, Inc. AN Document WSJPOD0020220411ei4b000gp Page 10 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;China and Russia &lt;mark&gt;Ar&lt;/mark&gt;e Headwinds.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;BY By Sabrina Escob&lt;mark&gt;ar&lt;/mark&gt; WC 596 words PD 11 April 2022 ET 21:52 SN Barron's Online SC BON LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Nvidia sh&lt;mark&gt;ar&lt;/mark&gt;es were falling on Monday after the stock was downgraded by a Baird analyst, who cited concerns over slowing consumer demand exacerbated by the Russian embargo.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The stock has lost more than 19% over this five-day period, and 25% this ye&lt;mark&gt;ar&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This is the stock's worst five-day stretch since M&lt;mark&gt;ar&lt;/mark&gt;ch 16, 2020, when it fell 19.9%, according to Dow Jones Market Data.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Analyst Tristan Gerra lowered his rating on the stock to Neutral from Outperform and slashed his price t&lt;mark&gt;ar&lt;/mark&gt;get to $225 from $360.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We believe order cancellations recently st&lt;mark&gt;ar&lt;/mark&gt;ted in consumer GPUs," he wrote in a research note on Monday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The cancellations &lt;mark&gt;ar&lt;/mark&gt;e driven by a combination of excess GPU, or graphics processing unit, in Western Europe and Asia, as well as a slowdown in consumer demand, especially in China, he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Slowing consumer demand for GPUs was evident in the continuing reduction in graphics c&lt;mark&gt;ar&lt;/mark&gt;d pricing, he added.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A B&lt;mark&gt;ar&lt;/mark&gt;ron's stock screen identified Nvidia as one of 27 stocks that could demonstrate pricing power in an inflationary environment.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Second, Russia "likely represents a l&lt;mark&gt;ar&lt;/mark&gt;ger percentage of consumer GPU than the consensus view, driven by both gamers and mining," he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The recent emb&lt;mark&gt;ar&lt;/mark&gt;go on trade with Russia in the wake of the invasion of Ukraine could weaken sales, he added.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Gerra's new price t&lt;mark&gt;ar&lt;/mark&gt;get is based on Nvidia trading at 25 times his new 2025 earnings per share estimate, he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Last week, Truist analyst William Stein cut his price t&lt;mark&gt;ar&lt;/mark&gt;gets for several large semiconductor manufactures, including Nvidia, Advanced Micro Devices (AMD), and Intel (INTC).&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We continue to believe stock's multiple is supported by data center growth and expect new products launch in September to be the next catalyst for the gaming m&lt;mark&gt;ar&lt;/mark&gt;ket," Malik wrote in a research note.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A few weeks ago, Tigress Financial P&lt;mark&gt;ar&lt;/mark&gt;tners analyst Ivan Feinsethraised his price target Page 11 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;on Nvidia to a new Wall Street-high, saying he was optimistic about the company's ongoing advancements in &lt;mark&gt;ar&lt;/mark&gt;tificial intelligence.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Indeed, B&lt;mark&gt;ar&lt;/mark&gt;id's Gerra remained positive on the company's long-term fundamentals.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Despite a hiccup in consumer GPU demand this ye&lt;mark&gt;ar&lt;/mark&gt;, we expect RTX upgrades to represent a continued catalyst medium term, along with AI and software opportunities," Gerra added.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;RTX, or real-time ray tracing, is Nvidia's high-end professional GPUs, used for gaming and &lt;mark&gt;ar&lt;/mark&gt;tificial intelligence processing.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Sabrina Escob&lt;mark&gt;ar&lt;/mark&gt; at sabrina.escobar@barrons.com Nvidia Stock Is Downgraded.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;China and Russia &lt;mark&gt;Ar&lt;/mark&gt;e Headwinds.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO nvdcrp : NVIDIA Corporation IN icph : Computer H&lt;mark&gt;ar&lt;/mark&gt;dware | i3302 : Computers/Consumer Electronics | i34531 : Semiconductors | icnp : Consumer Goods | ifurn : Furniture | iindele : Industrial Electronics | iindstrls : Industrial Goods | iint : Online Service Providers | itech : Technology | icomp : Computing | iintcir : Integrated Circuits | ividbd : Graphics Integrated Circuits NS c15 : Financial Performance | gptech : Personal Technology | c1521 : Analysts' Comments/Recommendations | ccat : Corporate/Industrial News | glife : Living/Lifestyle | gcat : Political/General News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | asiaz : Asia | china : China | easiaz : Eastern Asia | eurz : Europe | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Technology IPC I/CPR PUB Dow Jones &amp; Company, Inc. AN Document BON0000020220411ei4b001gt Page 12 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;BY Al Root WC 361 words PD 11 April 2022 ET 20:56 SN B&lt;mark&gt;ar&lt;/mark&gt;ron's Online SC BON LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Things &lt;mark&gt;ar&lt;/mark&gt;e pretty good for the company right now—and they're set to get better.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;His price t&lt;mark&gt;ar&lt;/mark&gt;get went to $50CDN a share from $30.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. doll&lt;mark&gt;ar&lt;/mark&gt; price targets are roughly $40 and $24, respectively.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Sh&lt;mark&gt;ar&lt;/mark&gt;es were up about 1.4% in early trading, then dipped into the red.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Sh&lt;mark&gt;ar&lt;/mark&gt;es are up roughly 50% since Russia invaded Ukraine in late February, for primarily two reasons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;First, the w&lt;mark&gt;ar&lt;/mark&gt; raised the possibility that Europe would turn from using less natural gas-generated power—the continent's countries buy large supplies of natural gas from Russia—and more nuclear power.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And second, Russia is also a supplier of uranium to nucle&lt;mark&gt;ar&lt;/mark&gt;-power plants.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If that supply gets hit by sanctions from the West, commodity m&lt;mark&gt;ar&lt;/mark&gt;kets would tighten even more, and Cameco more than like would pick up more business as one of the world's largest uranium producers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Russia-Ukraine w&lt;mark&gt;ar&lt;/mark&gt;was a key factor in Wong's upgrade.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We believe the Russia/Ukraine w&lt;mark&gt;ar&lt;/mark&gt; and subsequent shift in Western markets away from exposure to Russia have fundamentally changed the uranium market outlook and long-term market structure," wrote the analyst Monday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We see Cameco as best-positioned to meet m&lt;mark&gt;ar&lt;/mark&gt;ket needs in this transition with Western-based proven and potential production along the nuclear fuel cycle."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;All analysts covering Cameco rate sh&lt;mark&gt;ar&lt;/mark&gt;es Buy; before the invasion, about 85% of analysts recommended the stock.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The average analyst price t&lt;mark&gt;ar&lt;/mark&gt;get is about $32 a share, up from $29 just before the invasion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO smdc : Cameco Corp IN i22 : Prim&lt;mark&gt;ar&lt;/mark&gt;y Metals | i224 : Non-ferrous Metals | ibasicm : Basic Materials/Resources | imet : Mining/Quarrying | iuran : Uranium Ore Mining | i211 : Metal Ore Mining | infmore : Non-ferrous Metal Ore Mining NS c1521 : Analysts' Comments/Recommendations | c181 : Acquisitions/Mergers/Shareholdings | cacqu : Acquisitions/Mergers | cactio : Corporate Actions | ccat : Corporate/Industrial News | c18 : Ownership Changes | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter Page 13 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;RE russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | ussrz : CIS Countries | usa : United States | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging M&lt;mark&gt;ar&lt;/mark&gt;ket Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | namz : North America IPD Street Notes IPC CCO.T PUB Dow Jones &amp; Company, Inc. AN Document BON0000020220411ei4b0028l Page 14 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Pro Cyber Rese&lt;mark&gt;ar&lt;/mark&gt;ch SE WSJ Pro HD Conflict in Ukraine: Preparing for Cyberattacks BY By Rob Sloan, Research Director, WSJ Pro WC 1,327 words PD 11 April 2022 ET 20:03 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The purpose of this briefing paper is to help executives understand the latest cyber developments in Ukraine, how attacks launched against Ukrainian t&lt;mark&gt;ar&lt;/mark&gt;gets could indirectly affect organizations outside the country, and what business leaders can do to reduce cyber risk at this time.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Key Points: TD * The Russian invasion of Ukraine has been accompanied by cyber activity, including denial-of-service attacks and malw&lt;mark&gt;ar&lt;/mark&gt;e designed to wipe data from computers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;* There is a risk that cyber attacks could spread beyond their intended t&lt;mark&gt;ar&lt;/mark&gt;get and cause collateral damage around the world, as happened in 2017.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;* There &lt;mark&gt;ar&lt;/mark&gt;e steps businesses can take at this time to reduce risk, even when it is not clear exactly what they may have to defend against.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine-Related Cyberattacks So F&lt;mark&gt;ar&lt;/mark&gt;: In mid-January, the first hostile cyber activity took place with the defacement of websites belonging to several Ukrainian government ministries, including the Foreign Ministry and the Ministry of Education and Science.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In mid-Febru&lt;mark&gt;ar&lt;/mark&gt;y, a more disruptive attack took place with Ukraine's Ministry of Defense and Armed Forces websites and the online services of two state-owned banks targeted with a denial-of-service attack.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Malw&lt;mark&gt;ar&lt;/mark&gt;e capable of wiping data from machines has been spreading in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Microsoft Corp. detected malw&lt;mark&gt;ar&lt;/mark&gt;e it dubbed 'Whispergate' in January while cybersecurity companies Symantec, a division of Broadcom Inc., and Slovakia-based cyber firm ESETrevealed a similar malware that had infected hundreds of computers in Ukraine, as well as Latvia and Lithuania, some for several months.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;T&lt;mark&gt;ar&lt;/mark&gt;gets included financial organizations and government contractors.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While Russia certainly has the motivation to attack, it is possible the attacks were c&lt;mark&gt;ar&lt;/mark&gt;ried out by hackers aligned to the Russian state's aims.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In 2017, the attack, dubbed 'NotPetya', first appe&lt;mark&gt;ar&lt;/mark&gt;ed to be ransomware and targeted users of a Ukrainian software application that affected organizations around the world, ultimately causing billions of dollars of damage to firms including FedEx Corp. and Merck &amp; Co.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Likely T&lt;mark&gt;ar&lt;/mark&gt;gets of Attacks: Inside Ukraine, the most likely targets for attacks include the military, government agencies, financial services and energy firms.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Outside Ukraine, the U.S. Cybersecurity and Infrastructure Security Agency issued an alert on Feb. 14 w&lt;mark&gt;ar&lt;/mark&gt;ning of the risk to defense contractors from Russian state-sponsored hackers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Milit&lt;mark&gt;ar&lt;/mark&gt;y and government networks of countries allied to the North Atlantic Treaty Organization could also be targeted.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;However, Russian interests &lt;mark&gt;ar&lt;/mark&gt;e broad and the targeting could affect any number of industries or discrete businesses.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Emilian Papadopoulos, president at cyber risk advisory firm Good H&lt;mark&gt;ar&lt;/mark&gt;bor Security Risk Management, said that even though a company is not on</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Platform</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>6</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Telecom Infra</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;IN i64 : Retail/Wholesale | i656000301 : Etailing | iecom : E-commerce | iint : Online Service Providers | imed : Media/Entertainment | iretail : Retail | isocial : Social Media &lt;mark&gt;Platform&lt;/mark&gt;s/Tools | itech : Technology NS naudvl : Audio-visual Links | ntra : Transcripts | c31 : Marketing | ccat : Corporate/Industrial News | gcrim : Crime/Legal Action | gvio : Military Action | gwar : War Crimes | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | niwe : IWE Filter RE ukrn : Ukraine | fra : France | eecz : European Union Countries | eurz : Europe | uk : United Kingdom | weurz : Western Europe | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | medz : Mediterranean IPD SYND IPC N/CNW PUB Dow Jones &amp; Company, Inc. AN Document WSJPOD0020220411ei4b000gp Page 10 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i351 : Motor Vehicles | i35104 : Alternative Fuel Vehicles | iaut : Automotive | iint : Online Service Providers | imed : Media/Entertainment | isocial : Social Media &lt;mark&gt;Platform&lt;/mark&gt;s/Tools | itech : Technology NS ecat : Economic News | naudvl : Audio-visual Links | ntra : Transcripts | gvio : Military Action | ncolu : Columns | nitv : Interviews | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | niwe : IWE Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | donsk : Donbas | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD SYND IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJPOD0020220411ei4b0005l Page 26 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i351 : Motor Vehicles | i35104 : Alternative Fuel Vehicles | iaut : Automotive | iint : Online Service Providers | imed : Media/Entertainment | isocial : Social Media &lt;mark&gt;Platform&lt;/mark&gt;s/Tools | itech : Technology NS naudvl : Audio-visual Links | ntra : Transcripts | c41 : Management | c411 : Management Moves | cboard : Board of Directors | ccat : Corporate/Industrial News | ncolu : Columns | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | niwe : IWE Filter RE ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD SYND IPC G/FED PUB Dow Jones &amp; Company, Inc.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As part of that effort to hit Russia's technology ambitions, the U.S. placed financial sanctions on the largest Russian microchip manufacturer, Mikron, supercomputer company T-&lt;mark&gt;Platform&lt;/mark&gt;s and Serniya Engineering, a firm that the U.S. Treasury Department said oversaw a network of companies that procured technology and dual-use goods from abroad for the military and intelligence services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Burberry created 750 versions of a digital character for another gaming &lt;mark&gt;platform&lt;/mark&gt;, each wearing a unique Burberry design.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;She had been doing video and photo montages on the social-media &lt;mark&gt;platform&lt;/mark&gt; for small-business customers.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Cyber</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>27</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;CLM Pro &lt;mark&gt;Cyber&lt;/mark&gt; Research SE WSJ Pro HD Conflict in Ukraine: Preparing for Cyberattacks BY By Rob Sloan, Research Director, WSJ Pro WC 1,327 words PD 11 April 2022 ET 20:03 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The purpose of this briefing paper is to help executives understand the latest &lt;mark&gt;cyber&lt;/mark&gt; developments in Ukraine, how attacks launched against Ukrainian targets could indirectly affect organizations outside the country, and what business leaders can do to reduce cyber risk at this time.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Key Points: TD * The Russian invasion of Ukraine has been accompanied by &lt;mark&gt;cyber&lt;/mark&gt; activity, including denial-of-service attacks and malware designed to wipe data from computers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;* There is a risk that &lt;mark&gt;cyber&lt;/mark&gt; attacks could spread beyond their intended target and cause collateral damage around the world, as happened in 2017.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine-Related &lt;mark&gt;Cyber&lt;/mark&gt;attacks So Far: In mid-January, the first hostile cyber activity took place with the defacement of websites belonging to several Ukrainian government ministries, including the Foreign Ministry and the Ministry of Education and Science.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Microsoft Corp. detected malware it dubbed 'Whispergate' in January while &lt;mark&gt;cyber&lt;/mark&gt;security companies Symantec, a division of Broadcom Inc., and Slovakia-based cyber firm ESETrevealed a similar malware that had infected hundreds of computers in Ukraine, as well as Latvia and Lithuania, some for several months.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Russian government has previously denied any involvement in &lt;mark&gt;cyber&lt;/mark&gt;attacks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Outside Ukraine, the U.S. &lt;mark&gt;Cyber&lt;/mark&gt;security and Infrastructure Security Agency issued an alert on Feb. 14 warning of the risk to defense contractors from Russian state-sponsored hackers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Emilian Papadopoulos, president at &lt;mark&gt;cyber&lt;/mark&gt; risk advisory firm Good Harbor Security Risk Management, said that even though a company is not on the list or organizations likely to be explicitly targeted, it still needs to think about the risk of indiscriminate attacks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Risk Mitigating Actions: While it is difficult to provide protective measures that will work for every company, CISA has promoted a 'Shields Up' approach that recommends all organizations consider a "heightened posture when it comes to &lt;mark&gt;cyber&lt;/mark&gt;security and protecting their most critical assets."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This includes: * Reducing the likelihood of a damaging &lt;mark&gt;cyber&lt;/mark&gt; intrusion, for example by confirming software is up to date and multi-factor authentication is being used on all privileged accounts.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;* Maximizing the organization's resilience to a destructive &lt;mark&gt;cyber&lt;/mark&gt; incident by testing backup procedures and conducting tests of manual controls for operational technology.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Matt Stamper, chief information security officer and executive advisor at digital services company Evotek Inc, said that while CISOs cannot anticipate all forms of &lt;mark&gt;cyber&lt;/mark&gt; risk, their understanding of the organization is key.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Chief executives should be proactive in understanding the readiness of the business to defend against and respond to &lt;mark&gt;cyber&lt;/mark&gt;attacks during this crisis.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Meet the Author Rob Sloan is research director at WSJ Pro focusing on providing thought leadership, building datasets and contributing to the WSJ Pro &lt;mark&gt;Cyber&lt;/mark&gt;security product suite.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;All WSJ Pro &lt;mark&gt;Cyber&lt;/mark&gt;security research reports, webinars, events and data are available at wsj.com/pro/cybersecurity/research Conflict in Ukraine: Preparing for Cyberattacks NS ghack : Cybercrime/Hacking | gcvir : Malware | gdatap : Privacy Issues/Information Security | gcrim : Crime/Legal Action | ncolu : Columns | gcat : Political/General News | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD 0 IPC N/CRM PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220411ei4b002gx Page 17 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He was sanctioned by Washington in 2018 as part of a broad response to U.S. allegations of Russian meddling in U.S. elections, &lt;mark&gt;cyber&lt;/mark&gt;attacks and other provocations.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Also on Wednesday, the Justice Department announced it had disrupted a botnet -- a network of infected computers used to carry out malicious &lt;mark&gt;cyber&lt;/mark&gt; activity -- that officials said was operated by Russia's military intelligence service, the GRU.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;They're a little bit like &lt;mark&gt;cyber&lt;/mark&gt; in that regard.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukraine Crisis: &lt;mark&gt;Cyber&lt;/mark&gt;attacks Increase on Critical Infrastructure BY By Catherine Stupp WC 424 words PD 6 April 2022 SN The Wall Street Journal SC J PG A7 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP &lt;mark&gt;Cyber&lt;/mark&gt;attacks from Russia continued to increase in late March, mostly through attempts to gather information from, and spread malware to, Ukrainian critical infrastructure, Ukraine cyber officials said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Between March 23 and March 29, 65 &lt;mark&gt;cyber&lt;/mark&gt;attacks occurred on Ukrainian critical infrastructure, which was five times more than in the previous week, the SSSCIP said in its latest report on cyber activity during the war.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Experts at Ukrainian &lt;mark&gt;cyber&lt;/mark&gt;security companies, Microsoft Corp. and Cisco Systems Inc. are investigating the March 28 cyberattack on Ukrtelecom PJSC and haven't yet attributed the incident to a particular hacker group, said Kirill Goncharuk, the company's chief information officer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian and Belarusian military hackers were behind most recent &lt;mark&gt;cyber&lt;/mark&gt;attacks on Ukrainian organizations, the SSSCIP said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Zhora said Ukrainian authorities are gathering evidence on the &lt;mark&gt;cyber&lt;/mark&gt;attacks that they will send to the International Criminal Court, along with proof of war crimes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CERT-UA, Ukraine's &lt;mark&gt;cyber&lt;/mark&gt;security emergency response unit, said Monday that it had detected a malicious-email campaign mentioning the war in Ukraine that includes a file containing malware.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS ghack : &lt;mark&gt;Cyber&lt;/mark&gt;crime/Hacking | gcvir : Malware | gcrim : Crime/Legal Action | greg : Regional Politics | gvio : Military Action | nmajev : Major News Events | ntop : Top Wire News | gcat : Political/General News | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | Page 228 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CDN</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Telecom Infra</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;His price target went to $50&lt;mark&gt;CDN&lt;/mark&gt; a share from $30.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>crypto</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>5</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Decentralized Finance/Marketplaces</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Among the most common are Russian cash-transfer companies that operate in Turkey, &lt;mark&gt;crypto&lt;/mark&gt;currencies and simply carrying thousands of dollars in cash through airports, Russians and Turks interviewed for this article said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Based on the &lt;mark&gt;crypto&lt;/mark&gt;currencies current value, that's more than $300,000.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Fintech company Bolt Financial is buying &lt;mark&gt;crypto&lt;/mark&gt;-services startup Wyre Payments.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We're also reporting that FinTech company Bolt Financial is buying &lt;mark&gt;crypto&lt;/mark&gt; services startup, Wire Payments.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Sources say the deal is valued at $1.5 billion, which would make it the biggest merger in the &lt;mark&gt;crypto&lt;/mark&gt; sector that didn't involve a blank check company or SPAC, according to data from research firm Dealogic.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Startup</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>6</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Digital investment</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Sasha Kazilo, co-founder of the &lt;mark&gt;startup&lt;/mark&gt; Funexpected, which makes apps to help preschoolers learn math, recently left Russia for Paris.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;WSJ reporter Katie Dayton says that while a glaring oversight in product offerings might have gone unaddressed before, brands are increasingly under pressure to design around those who actually use their products, or risk possible competition from &lt;mark&gt;startup&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Sasha Kazilo, co-founder of the &lt;mark&gt;startup&lt;/mark&gt; Funexpected, which makes apps to help preschoolers learn math, recently left Russia for Paris.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Kirill Rozhkovskiy, a Moscow-based entrepreneur, is planning to leave and build his next &lt;mark&gt;startup&lt;/mark&gt; abroad.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Fintech company Bolt Financial is buying crypto-services &lt;mark&gt;startup&lt;/mark&gt; Wyre Payments.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We're also reporting that FinTech company Bolt Financial is buying crypto services &lt;mark&gt;startup&lt;/mark&gt;, Wire Payments.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>15</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Over the years, many members of the Orthodox Church in America have dropped Russia from their name to attract new members and be more American, says Sc&lt;mark&gt;ott&lt;/mark&gt; Kenworthy, a professor of Comparative Religion at Miami University in Ohio.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He said he hasn't g&lt;mark&gt;ott&lt;/mark&gt;en any redemption requests.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Shandong Yuma Sun-Shading Technology Corp. Ltd. said at the end of March that the company's exports to Ukraine, Russia and other neighboring countries were reduced last month because of the fighting in Ukraine and logistics b&lt;mark&gt;ott&lt;/mark&gt;lenecks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Thomas de Waal is a senior fellow at Carnegie Europe and co- author with Carl&lt;mark&gt;ott&lt;/mark&gt;a Gall of "Chechnya: Calamity in the Caucasus."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Health News SE Health HD Ukraine War and Other Crises Threaten Polio Eradication, Health Experts Say; Ukraine had to halt a major vaccination campaign when the war began, while Malawi had its first case in three decades BY By Brianna Abb&lt;mark&gt;ott&lt;/mark&gt; and Betsy McKay WC 1,196 words PD 2 April 2022 ET 17:30 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The b&lt;mark&gt;ott&lt;/mark&gt;om line is war and polio eradication don't go together," Dr. Bhutta said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Brianna Abb&lt;mark&gt;ott&lt;/mark&gt; at brianna.abbott@wsj.com and Betsy McKay at betsy.mckay@wsj.com Ukraine War and Other Crises Threaten Polio Eradication, Health Experts Say IN i257 : Pharmaceuticals | i951 : Healthcare/Life Sciences NS gimmu : Immunizations | gout : Outbreaks/Epidemics | gvhhs : Health/Social Services Department | gsars : Novel Coronaviruses | gglobe : Global/World Issues | ghea : Health | ncolu : Columns | nimage : Images | gcat : Political/General News | gcold : Respiratory Tract Diseases | gmed : Medical Conditions | gpir : Politics/International Relations | gpol : Domestic Politics | gspox : Infectious Diseases | gtrea : Medical Treatments/Procedures | gvbod : Government Bodies | gvexe : Executive Branch | ncat : Content Types RE ukrn : Ukraine | malaw : Malawi | eurz : Europe | meastz : Middle East | uk : United Kingdom | africaz : Africa | asiaz : Asia | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | souafrz : Southern Africa | wasiaz : Western Asia | weurz : Western Europe IPD Wires IPC I/DRG PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220402ei42000um Page 109 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"That means that the three operational commanders are relying on themselves for supply and competing between themselves for resources," said Mark Gale&lt;mark&gt;ott&lt;/mark&gt;i, senior associate fellow at the Royal United Services Institute, a London-based security think tank.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"They [invaded] profoundly unready for sustained offensive operations," said Sc&lt;mark&gt;ott&lt;/mark&gt; Boston, a defense analyst at the Rand Corp.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"That means that the three operational commanders are relying on themselves for supply and competing between themselves for resources," said Mark Gale&lt;mark&gt;ott&lt;/mark&gt;i, senior associate fellow at the Royal United Services Institute, a London-based security think tank.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"They [invaded] profoundly unready for sustained offensive operations," said Sc&lt;mark&gt;ott&lt;/mark&gt; Boston, a defense analyst at the Rand Corp.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Michel said the EU also raised their concerns about an economic boyc&lt;mark&gt;ott&lt;/mark&gt; China has imposed on Lithuania, which has also hit European and American companies with Lithuanian suppliers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Invasion accelerates rise in already climbing prices as national average tops $4 a gallon BY By Sc&lt;mark&gt;ott&lt;/mark&gt; Patterson and Sam Goldfarb WC 1,401 words PD 1 April 2022 ET 23:30 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Sc&lt;mark&gt;ott&lt;/mark&gt; Patterson at scott.patterson@wsj.com and Sam Goldfarb at sam.goldfarb@wsj.com Why Are Gasoline Prices So High?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Then it faced an economic and diplomatic boyc&lt;mark&gt;ott&lt;/mark&gt; from its neighbors, including Saudi Arabia.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Write to Michael M. Phillips at michael.phillips@wsj.com A Quarter of Africans Face Food-Security Crisis Partly Due to Ukraine War, Red Cross Says CO icrcss : International Committee of the Red Cross NS gfamin : Famine | gdev : Development/Humanitarian Aid | gdroug : Drought | gntdis : Natural Disasters/Catastrophes | gpir : Politics/International Relations | ncolu : Columns | nmajev : Major News Events | gcat : Political/General News | gdip : International Relations | gdis : Disasters/Accidents | grisk : Risk News | gwea : Weather | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis RE ukrn : Ukraine | somal : Somalia | africaz : Africa | asiaz : Asia | eafrz : East Africa | easiaz : Eastern Asia | eurz : Europe | kenya : Kenya | nairoi : Nairobi | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC N/DJN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220405ei4500439 Page 3 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Government Bodies | ncolu : Columns | ncor : Corrections | ncrx : Corrected Items | nimage : Images | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | asiaz : Asia | crimea : Crimea | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC G/FDL PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220403ei43001jl Page 7 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP China and Russia have often been &lt;mark&gt;content&lt;/mark&gt;ious rivals, but under Xi Jinping and Vladimir Putin, the two countries' relations have grown closer than at any time since the early days of the Cold War.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Beijing-Moscow Relations Explained NS gdip : International Relations | gcat : Political/General News | gvexe : Executive Branch | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | gvio : Military Action | ncolu : Columns | gcns : National/Public Security | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE china : China | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | ukrn : Ukraine | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC N/CNW PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220405ei45004mr Page 10 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Josh Zumbrun at Josh.Zumbrun@wsj.com U.S. Trade Deficit Narrowed Slightly in February NS c311 : Corporate/Industry Imports | e512 : Physical Trade | gvcom : Commerce Department | ccat : Corporate/Industrial News | e11 : Economic Performance/Indicators | e1118 : Trade Figures | e51 : Trade/External Payments | ecat : Economic News | gpir : Politics/International Relations | ncolu : Columns | npred : Economic Predictions/Forecasts | gcat : Political/General News | cdom : Domestic/Foreign Markets | gpol : Domestic Politics | gvbod : Government Bodies | gvexe : Executive Branch | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC 1176 PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220405ei450028l Page 12 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Chris Cumming at chris.cumming@wsj.com IN i81502 : Trusts/Funds/Financial Vehicles | i8150203 : Private Equity | ibnk : Banking/Credit | ifinal : Financial Services | iinv : Investing/Securities | iwealth : Private Banking/Wealth Management | i814 : Banking | i831 : Financial Investment Services | ialtinv : Alternative Investments NS gtrade : Trade Barriers/Restrictions | gesanc : International Sanctions | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gpir : Politics/International Relations | gcat : Political/General News | gdip : International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Abramovich, Roman IPC I/AMG PUB Dow Jones &amp; Company, Inc. - Enterprise WSJ AN Document RSTPROPE20220405ei4500001 Page 14 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS gcat : Political/General News | e211 : Government Budget/Taxation | c341 : Government Aid/Grants | ecat : Economic News | e212 : Government Borrowing | gpol : Domestic Politics | nfiac : Fixed Income Asset Class News | e11 : Economic Performance/Indicators | e1103 : Inflation Figures/Price Indices | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e21 : Government Finance | gpir : Politics/International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE ukrn : Ukraine | spain : Spain | egypt : Egypt | fra : France | greece : Greece | india : India | italy : Italy | kenya : Kenya | nigea : Nigeria | zambia : Zambia | africaz : Africa | asiaz : Asia | balkz : Balkan States | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eafrz : East Africa | eecz : European Union Countries | eeurz : Central/Eastern Europe | eurz : Europe | indsubz : Indian Subcontinent | meastz : Middle East | medz : Mediterranean | nafrz : North Africa | sasiaz : Southern Asia | souafrz : Southern Africa | wafrz : West Africa | wasiaz : Western Asia | weurz : Western Europe IPC AFXI PUB Dow Jones &amp; Company, Inc. AN Document J000000020220405ei450000h Page 16 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS gcrim : Crime/Legal Action | gvexe : Executive Branch | gmurd : Murder/Manslaughter | gpol : Domestic Politics | grape : Sex Crimes | gvio : Military Action | gwar : War Crimes | nmajev : Major News Events | npag : Page One Stories | ntop : Top Wire News | gcat : Political/General News | gcns : National/Public Security | gpir : Politics/International Relations | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | redit : Selection of Top Stories/Trends/Analysis RE ukrn : Ukraine | russ : Russia | fra : France | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eecz : European Union Countries | eeurz : Central/Eastern Europe | eurz : Europe | medz : Mediterranean | namz : North America | ussrz : CIS Countries | weurz : Western Europe IPC EXE PUB Dow Jones &amp; Company, Inc. AN Document J000000020220405ei450001n Page 19 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to editors@barrons.com Crude Oil Prices Rise on Threat of New Russia Sanctions IN ifosfl : Fossil Fuels | i1 : Energy NS gesanc : International Sanctions | gpir : Politics/International Relations | m14 : Commodity Markets | m143 : Energy Markets | m15 : Derivative Securities | mcroil : Crude Oil Markets | gcat : Political/General News | gdip : International Relations | mcat : Commodity/Financial Market News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter RE russ : Russia | usa : United States | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Oil IPC N/DRV Page 20 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO rumde : Russia Ministry of Defense | usasnt : United States Senate | dwitd : Morgan Stanley | palanc : Palantir Technologies, Inc. | unscou : United Nations Security Council | utdnat : United Nations IN i3302 : Computers/Consumer Electronics | i330202 : Software | i3302021 : Applications Software | i831 : Financial Investment Services | i83102 : Security Brokering/Dealing | icomp : Computing | ientrps : Enterprise Management Software | ifinal : Financial Services | iinv : Investing/Securities | iknowms : Knowledge Management Software | itech : Technology NS naudvl : Audio-visual Links | ntra : Transcripts | cdinn : Business/Disruptive Innovation | gpir : Politics/International Relations | ncolu : Columns | c12 : Corporate Crime/Legal Action | gcat : Political/General News | ccat : Corporate/Industrial News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | niwe : IWE Filter RE ukrn : Ukraine | eurz : Europe | uk : United Kingdom | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe Page 22 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS gdip : International Relations | gvexe : Executive Branch | gvio : Military Action | ncolu : Columns | nedc : Commentaries/Opinions | gcat : Political/General News | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC EXE PUB Dow Jones &amp; Company, Inc. AN Document J000000020220405ei4500015 Page 28 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO fgvger : Federal Government of Germany | gazpgg : GAZPROM Germania GmbH | gzprm : Gazprom PJSC IN i1 : Energy | ifosfl : Fossil Fuels | i13 : Crude Oil/Natural Gas Upstream Operations | i1300014 : Natural Gas Extraction | iextra : Natural Gas/Oil Extraction | iioil : Integrated Oil/Gas NS c13 : Regulation/Government Policy | gpol : Domestic Politics | neqac : Equities Asset Class News | nmajev : Major News Events | ntop : Top Wire News | reqren : Suggested Reading Energy | ccat : Corporate/Industrial News | gcat : Political/General News | gpir : Politics/International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE russ : Russia | gfr : Germany | eurz : Europe | ukrn : Ukraine | asiaz : Asia | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eecz : European Union Countries | eeurz : Central/Eastern Europe | ussrz : CIS Countries | weurz : Western Europe IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220405ei4500010 Page 31 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS gvio : Military Action | nedc : Commentaries/Opinions | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220405ei450000y Page 33 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS gvexe : Executive Branch | gspy : Espionage | gcat : Political/General News | c1521 : Analysts' Comments/Recommendations | gdip : International Relations | gvio : Military Action | nmajev : Major News Events | ntop : Top Wire News | ccat : Corporate/Industrial News | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ukrn : Ukraine | eurz : Europe | usa : United States | usdc : Washington DC | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | namz : North America | uss : Southern U.S. | ussrz : CIS Countries IPC CIA PUB Dow Jones &amp; Company, Inc. AN Document J000000020220405ei450000g Page 37 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Email: editors@barrons.com NS gpir : Politics/International Relations | ncolu : Columns | gcat : Political/General News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | gfr : Germany | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Barrons.com IPC GAZP.RS PUB Dow Jones &amp; Company, Inc. AN Document B000000020220401ei440002v Page 41 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Warren P. Strobel at Warren.Strobel@wsj.com Release of Ukraine Intelligence Represents New Front in U.S. Information War With Russia NS gvexe : Executive Branch | gspy : Espionage | gvio : Military Action | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | gpol : Domestic Politics | gvbod : Government Bodies | ncolu : Columns | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | usdc : Washington DC | uss : Southern U.S. | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC G/CIA PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220404ei44001p5 Page 44 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Laurence Norman at laurence.norman@wsj.com and Bojan Pancevski at bojan.pancevski@wsj.com Europe Faces Pressure to Dial Up Sanctions on Russia Over Ukraine Deaths CO euruno : European Union IN i1 : Energy NS gesanc : International Sanctions | gdip : International Relations | gcat : Political/General News | gvexe : Executive Branch | e51 : Trade/External Payments | ecat : Economic News | gcrim : Crime/Legal Action | gpir : Politics/International Relations | gpol : Domestic Politics | gtrade : Trade Barriers/Restrictions | gvio : Military Action | gwar : War Crimes | ncolu : Columns | nmajev : Major News Events | gcns : National/Public Security | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ukrn : Ukraine | gfr : Germany | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Wires IPC M/ENE Page 46 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Jenny Strasburg at jenny.strasburg@wsj.com and Phred Dvorak at phred.dvorak@wsj.com Ukraine War Drives Countries to Embrace Renewable Energy—but Not Yet CO bp : BP PLC IN i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | ifosfl : Fossil Fuels | iioil : Integrated Oil/Gas NS gvexe : Executive Branch | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | genv : Natural Environment | gesanc : International Sanctions | gpir : Politics/International Relations | gsust : Sustainable Development/Sustainability | gtrade : Trade Barriers/Restrictions | ncolu : Columns | nimage : Images | nmajev : Major News Events | npda : DJ Exclusive Analysis - All | c11 : Corporate Strategy/Planning | cenvire : Corporate Environmental Responsibility | gcat : Political/General News | cesg : Environmental/Social/Governance | gdip : International Relations | gpol : Domestic Politics | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC ALV.XE PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220404ei44003s5 Page 51 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Sadie Gurman at sadie.gurman@wsj.com and Eric Sylvers at eric.sylvers@wsj.com U.S. Seizes Yacht, Seeking Forfeiture and Ratcheting Up Pressure on Russian Oligarchs CO fbinv : Federal Bureau of Investigation NS gvbod : Government Bodies | gvjus : Justice Department | gcrim : Crime/Legal Action | ccat : Corporate/Industrial News | gpir : Politics/International Relations | ncolu : Columns | gcat : Political/General News | gpol : Domestic Politics | gvexe : Executive Branch | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE russ : Russia | usa : United States | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | namz : North America | spain : Spain | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | medz : Mediterranean IPD WSJ IPC G/FBI PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220404ei44004s9 Page 53 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Anne Steele at Anne.Steele@wsj.com Zelensky Sends Message at Grammys: Remember Ukraine NS gent : Arts/Entertainment | gmusic : Music | gvcng : Legislative Branch | ncolu : Columns | gcat : Political/General News | gpir : Politics/International Relations | gpol : Domestic Politics | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | russ : Russia | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe Page 55 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO rumde : Russia Ministry of Defense | bigmac : McDonald's Corporation | wlmrt : Walmart Inc IN i64 : Retail/Wholesale | i656 : Mixed Retailing | i6560011 : Shopping Malls/Superstores | i66 : Lodgings/Restaurants/Bars | i661 : Restaurants/Cafes/Fast Food Places | i6612 : Limited-Service Restaurants/Cafes | ilea : Leisure/Arts/Hospitality | iretail : Retail NS naudvl : Audio-visual Links | ntra : Transcripts | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | gcrim : Crime/Legal Action | gvio : Military Action | gwar : War Crimes | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | niwe : IWE Filter RE ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD SYND Page 59 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The man's right hand lay on the handbag that rested on his belly, as though he remained careful of its &lt;mark&gt;content&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO hrwny : Human Rights Watch NS gcrim : Crime/Legal Action | gvio : Military Action | gdef : Armed Forces | gtortu : Torture | gwar : War Crimes | gmurd : Murder/Manslaughter | grape : Sex Crimes | nmajev : Major News Events | npag : Page One Stories | ntop : Top Wire News | gcat : Political/General News | gcns : National/Public Security | gcom : Society/Community | ghum : Human Rights/Civil Liberties | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | redit : Selection of Top Stories/Trends/Analysis RE ukrn : Ukraine | russ : Russia | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220404ei440001f Page 63 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;* Caring for Older Relatives Is So Expensive That Even AARP's Expert Filed for Bankruptcy In a Pennsylvania Town, a Ukrainian Church and Its Russian Neighbor Navigate Wartime Tensions NS grel : Religion | gvexe : Executive Branch | gvio : Military Action | glife : Living/Lifestyle | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | gcom : Society/Community | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | use : Northeast U.S. | uspa : Pennsylvania | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC N/DJN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220403ei43000b6 Page 68 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Julie Steinberg at julie.steinberg@wsj.com The Investor Who's Sticking With Russia IN i8150211 : Mutual Funds | iinv : Investing/Securities | i81502 : Trusts/Funds/Financial Vehicles | ifinal : Financial Services NS c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | m11 : Equity Markets | ncolu : Columns | nimage : Images | nmajev : Major News Events | npda : DJ Exclusive Analysis - All | gcat : Political/General News | gvio : Military Action | reqris : Suggested Reading Investing/Securities | gcns : National/Public Security | gdip : International Relations | grisk : Risk News | mcat : Commodity/Financial Market News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires Page 71 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Drew Hinshaw at drew.hinshaw@wsj.com and Ian Lovett at ian.lovett@wsj.com Hungary's Viktor Orban Wins Another Term in Office CO euruno : European Union IN i1 : Energy NS gvexe : Executive Branch | gcat : Political/General News | gpol : Domestic Politics | gvote : Elections | gpir : Politics/International Relations | gvio : Military Action | gvote1 : National/Presidential Elections | ncolu : Columns | gcns : National/Public Security | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | hung : Hungary | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | russ : Russia | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | namz : North America | weurz : Western Europe IPD Wires IPC N/CMR PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220403ei43000gp Page 75 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Jon Emont at jonathan.emont@wsj.com Tourism Recovery Faces Double Whammy of Russia's War, China's Covid Policies IN ilea : Leisure/Arts/Hospitality | itourm : Tourism NS gtour : Travel | gsars : Novel Coronaviruses | gvio : Military Action | gout : Outbreaks/Epidemics | ghea : Health | glife : Living/Lifestyle | ncolu : Columns | gcat : Political/General News | reqlea : Suggested Reading Leisure/Arts | gcns : National/Public Security | gcold : Respiratory Tract Diseases | gmed : Medical Conditions | grisk : Risk News | gspox : Infectious Diseases | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE russ : Russia | ukrn : Ukraine | asiaz : Asia | china : China | easiaz : Eastern Asia | eurz : Europe | seasiaz : Southeast Asia | thail : Thailand | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC AFLT.MZ PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220403ei430015p Page 77 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Costas Paris at costas.paris@wsj.com China's Bet on Sending Its Exports Through Russia Hits Setback IN i763 : Port/Harbor Operations | iship : Water Transport/Shipping | itsp : Transportation/Logistics NS gtrade : Trade Barriers/Restrictions | e512 : Physical Trade | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | ncolu : Columns | nmajev : Major News Events | npda : DJ Exclusive Analysis - All | gcat : Political/General News | reqrts : Suggested Reading Transportation/Shipping | gdip : International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Page 86 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Chechnya's Brutal Lesson for Ukraine NS gvexe : Executive Branch | gcat : Political/General News | gpir : Politics/International Relations | gvio : Military Action | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ncolu : Columns | gcns : National/Public Security | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies RE russ : Russia | chechn : Chechen Republic | asiaz : Asia | china : China | crimea : Crimea | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | runcf : North Caucasian Federal District | weurz : Western Europe IPD Wires IPC N/DJN Page 89 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Political/General News | gcrim : Crime/Legal Action | gfinc : Financial Crime | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE russ : Russia | ukrn : Ukraine | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220402ei4200018 Page 93 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO uafor : Ukraine Ministry of Foreign Affairs NS gdip : International Relations | gcat : Political/General News | c13 : Regulation/Government Policy | e512 : Physical Trade | gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | nmajev : Major News Events | ntop : Top Wire News | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gpir : Politics/International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | redit : Selection of Top Stories/Trends/Analysis RE india : India | ndelh : New Delhi | russ : Russia | ukrn : Ukraine | delhi : Delhi | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | indsubz : Indian Subcontinent | sasiaz : Southern Asia | ussrz : CIS Countries IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220402ei420002c Page 95 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO inenag : International Energy Agency | opexpc : Organization of the Petroleum Exporting Countries IN ifosfl : Fossil Fuels | i1 : Energy NS ecat : Economic News | gvio : Military Action | c314 : Pricing | nmajev : Major News Events | ntop : Top Wire News | m143 : Energy Markets | reqren : Suggested Reading Energy | c31 : Marketing | ccat : Corporate/Industrial News | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | m14 : Commodity Markets | mcat : Commodity/Financial Market News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE russ : Russia | ukrn : Ukraine | cana : </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>cable</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>5</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Telecom Infra</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;War crimes are broadly defined and include willfully killing or causing suffering, widespread destruction and seizing of property, deliberately targeting civilian populations, in addition to other serious violations of laws appli&lt;mark&gt;cable&lt;/mark&gt; in armed conflict.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Thus, the terms-of-trade shock drives a wedge between consumer prices and the value-added prices appli&lt;mark&gt;cable&lt;/mark&gt; to producers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;After returning to Washington, the CIA chief advised President Biden that Mr. Putin hadn't yet made an irrevo&lt;mark&gt;cable&lt;/mark&gt; decision, but was strongly disposed to invade.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;After returning to Washington, the CIA chief advised President Biden that Mr. Putin hadn't yet made an irrevo&lt;mark&gt;cable&lt;/mark&gt; decision, but was strongly disposed to invade.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;I wish I could say I was surprised, but this is another in a long line of inexpli&lt;mark&gt;cable&lt;/mark&gt; U.S. government decisions.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Investment</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>41</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Digital investment</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The large number of private-equity firms forced to grapple with these challenges reflects the sanctions' unprecedented scale, said Brendan Hanifin, a partner at law firm Ropes &amp; Gray LLP who specializes in risks related to international &lt;mark&gt;investment&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Still, industry sources say private-equity managers have had to freeze numerous &lt;mark&gt;investment&lt;/mark&gt;s tied to sanctioned Russian people and companies since the new sanctions were announced in February.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;According to news reports, firms affected by the sanctions include Pamplona, some of whose funds are backed by LetterOne Holdings, an &lt;mark&gt;investment&lt;/mark&gt; firm co-founded by sanctioned Russian billionaire Mikhail Fridman, and venture-capital firm Fort Ross Ventures, whose backers include sanctioned Moscow-based bank Sberbank PJSC.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The New York Times reported March 21 that sanctioned Russian billionaire Roman Abramovich had used an intermediary to make numerous &lt;mark&gt;investment&lt;/mark&gt;s in private-equity funds and hedge funds in recent years.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Pamplona didn't provide many details on how it planned to liquidate the funds, which it said could be through a secondary sale of fund assets and direct &lt;mark&gt;investment&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We have removed all sanctioned individuals from all influence, control or benefit from LetterOne and are focused on protecting the 120,000 jobs our &lt;mark&gt;investment&lt;/mark&gt;s support while allocating $150 million and all dividends to aid efforts for the victims of this unjustifiable war," a LetterOne spokesman said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Chris Cumming at chris.cumming@wsj.com IN i81502 : Trusts/Funds/Financial Vehicles | i8150203 : Private Equity | ibnk : Banking/Credit | ifinal : Financial Services | iinv : Investing/Securities | iwealth : Private Banking/Wealth Management | i814 : Banking | i831 : Financial &lt;mark&gt;Investment&lt;/mark&gt; Services | ialtinv : Alternative Investments NS gtrade : Trade Barriers/Restrictions | gesanc : International Sanctions | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gpir : Politics/International Relations | gcat : Political/General News | gdip : International Relations | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Abramovich, Roman IPC I/AMG PUB Dow Jones &amp; Company, Inc. - Enterprise WSJ AN Document RSTPROPE20220405ei4500001 Page 14 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Plus, &lt;mark&gt;investment&lt;/mark&gt; firm Disruptive Technology Solutions accuses Morgan Stanley of front-running a block trade.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And we are exclusively reporting that &lt;mark&gt;investment&lt;/mark&gt; firm, Disruptive Technology Solutions has accused Morgan Stanley and a senior executive of leaking information about a large sale of shares of Palantir Technologies in February, 2021, saddling the investment firm with millions of dollars in losses.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO rumde : Russia Ministry of Defense | usasnt : United States Senate | dwitd : Morgan Stanley | palanc : Palantir Technologies, Inc. | unscou : United Nations Security Council | utdnat : United Nations IN i3302 : Computers/Consumer Electronics | i330202 : Software | i3302021 : Applications Software | i831 : Financial &lt;mark&gt;Investment&lt;/mark&gt; Services | i83102 : Security Brokering/Dealing | icomp : Computing | ientrps : Enterprise Management Software | ifinal : Financial Services | iinv : Investing/Securities | iknowms : Knowledge Management Software | itech : Technology NS naudvl : Audio-visual Links | ntra : Transcripts | cdinn : Business/Disruptive Innovation | gpir : Politics/International Relations | ncolu : Columns | c12 : Corporate Crime/Legal Action | gcat : Political/General News | ccat : Corporate/Industrial News | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter | niwe : IWE Filter RE ukrn : Ukraine | eurz : Europe | uk : United Kingdom | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe Page 22 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Obviously a 6% drop in earnings would have a significant impact on rates of return, &lt;mark&gt;investment&lt;/mark&gt;, and employment.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Of course, cost increases will differ substantially between different sectors, but for the economy as a whole productivity, employment, &lt;mark&gt;investment&lt;/mark&gt;, and output will suffer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For the longer term, officials across Europe describe a new sense of urgency and greater public support for renewable &lt;mark&gt;investment&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.K. plans to increase &lt;mark&gt;investment&lt;/mark&gt; in solar projects and offshore wind power.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;At a March 14 meeting with executives of offshore oil and gas producers including BP and Shell PLC, British Prime Minister Boris Johnson discussed streamlining drilling licenses to encourage new &lt;mark&gt;investment&lt;/mark&gt; and production in the North Sea, according to a government brief.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Herring spoke to WSJ Pro Private Equity about how the Ukraine-Russia war can help change investors' view of natural gas, while reinforcing Tailwater's own &lt;mark&gt;investment&lt;/mark&gt; strategy, as well as the conflict's possible implications for the U.S. natural-gas industry.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;WSJ Pro: How is Tailwater addressing these opportunities in its own &lt;mark&gt;investment&lt;/mark&gt; strategy?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Luis Garcia at luis.garcia@wsj.com CO tlwtcp : Tailwater Capital LLC IN i16 : Electricity/Gas Utilities | i1 : Energy | i1300006 : Pipeline Transportation | i8150203 : Private Equity | ibnk : Banking/Credit | ifinal : Financial Services | iinv : Investing/Securities | iutil : Utilities | iwealth : Private Banking/Wealth Management | i814 : Banking | i81502 : Trusts/Funds/Financial Vehicles | i831 : Financial &lt;mark&gt;Investment&lt;/mark&gt; Services | ialtinv : Alternative Investments | ifosfl : Fossil Fuels | imidstr : Oil/Natural Gas Midstream Operations NS gcrim : Crime/Legal Action | gcat : Political/General News RE ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | russ : Russia | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Herring, Edward IPC I/AMG PUB Dow Jones &amp; Company, Inc. - Enterprise WSJ AN Document RSTPROPE20220404ei4400002 Page 58 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD When Mr. Amaryan's buying spree ended, some 55% of his &lt;mark&gt;investment&lt;/mark&gt; firm's $250 million was in Russian stocks, up from 30% to 35% before the invasion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A stint followed at a prestigious Russian &lt;mark&gt;investment&lt;/mark&gt; bank that was later swallowed by Sberbank.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Moving shipping containers from China along a 7,500-mile corridor that runs through Russia and extends to the United Kingdom is a vital part of Belt and Road, a yearslong undertaking that includes &lt;mark&gt;investment&lt;/mark&gt;s to connect China to Europe by land and sea.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The &lt;mark&gt;investment&lt;/mark&gt;s mainly involve long-term port leases, along with developing rail and road networks and power stations.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Clients interested in ESG "are hoping for an &lt;mark&gt;investment&lt;/mark&gt; vehicle that does well by the world, whereas ESG as a concept and most vendors of ESG data and ratings go at it from the other end," Mr. Torres said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN iresinv : Sustainable &lt;mark&gt;Investment&lt;/mark&gt; | ibnk : Banking/Credit | i814 : Banking | i81402 : Commercial Banking | i8150211 : Mutual Funds | iinv : Investing/Securities | i81502 : Trusts/Funds/Financial Vehicles | ialtinv : Alternative Investments | ifinal : Financial Services | i831 : Financial Investment Services | i83107 : Portfolio/Fund/Asset Management | iibnk : Integrated Banks NS cesg : Environmental/Social/Governance | c181 : Acquisitions/Mergers/Shareholdings | gcorrp : Corruption | neqac : Equities Asset Class News | nfiac : Fixed Income Asset Class News | nimage : Images | nmajev : Major News Events | ntop : Top Wire News | c12 : Corporate Crime/Legal Action | reqrbc : Suggested Reading Banking/Credit | reqris : Suggested Reading Investing/Securities | c18 : Ownership Changes | cactio : Corporate Actions | ccat : Corporate/Industrial News | gcat : Page 92 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We do not regard it as a long-term solution to the global energy crisis, and it will not fix the structural imbalances in the oil market," said Mark Haefele, chief &lt;mark&gt;investment&lt;/mark&gt; officer at UBS Global Wealth Management, in a note to clients.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO vrtrpr : Vertical Research Partners LLC | lckhed : Lockheed Martin Corporation IN i1 : Energy | iaer : Aerospace/Defense | ibnk : Banking/Credit | icnp : Consumer Goods | idef : Defense Equipment/Products | ifinal : Financial Services | iindstrls : Industrial Goods | iinv : Investing/Securities | iwealth : Private Banking/Wealth Management | i814 : Banking | i831 : Financial &lt;mark&gt;Investment&lt;/mark&gt; Services | i83108 : Investment Advice/Research Services NS e211 : Government Budget/Taxation | ecat : Economic News | gdef : Armed Forces | e21 : Government Finance | gcat : Political/General News | gcns : National/Public Security RE eurz : Europe | uk : United Kingdom | ukrn : Ukraine | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Preview IPC ACN PUB Dow Jones &amp; Company, Inc. AN Document BON0000020220401ei410040h Page 131 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The clash froze the approval of a China-EU &lt;mark&gt;investment&lt;/mark&gt; agreement that aimed to deepen economic ties.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;* Even though &lt;mark&gt;investment&lt;/mark&gt;s tied to the metaverse have been underperforming, Citi said the metaverse could see five billion unique internet visitors by the end of the decade, driving trillions of dollars in revenue.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;MC Square Capital LLC, a Greenwich, Conn.-based &lt;mark&gt;investment&lt;/mark&gt; firm that is looking to make a minority investment in a private manufacturing company in southern Europe, has decided instead to hold off as it conducts an assessment about the effect of rising energy prices on the target company's future profitability.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"It just seems like markets are still trying to digest the rally they've seen since Russia invaded Ukraine," said Jake Manoukian, the U.S. head of &lt;mark&gt;investment&lt;/mark&gt; strategy for J.P. Morgan Private Bank.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Sharp movements in oil prices can really drive up the cost at the pump and take away our ability to spend on other items," said Luke Tilley, chief economist at Wilmington Trust &lt;mark&gt;Investment&lt;/mark&gt; Advisors.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"I think those hopes have faded away," said Susannah Streeter, senior &lt;mark&gt;investment&lt;/mark&gt; and markets analyst at Hargreaves Lansdown.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And we are reporting that Canadian miner Kinross Gold is in exclusive talks to sell its giant mine in the Russian Arctic to Russian backed &lt;mark&gt;investment&lt;/mark&gt; firm Fortiana Holdings, according to Page 184 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Beijing wants the event to reboot talks on a stalled EU-China &lt;mark&gt;investment&lt;/mark&gt; deal.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But it is in Europe's interest not to make itself vulnerable to Chinese economic extortion on supply chains, critical minerals and business &lt;mark&gt;investment&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Smart companies are already looking for safer &lt;mark&gt;investment&lt;/mark&gt; options outside China without government forcing their hands.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It stopped making new &lt;mark&gt;investment&lt;/mark&gt;s in Russia after that country's 2014 annexation of Crimea and said Monday it was closing its Moscow office.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"There will be less &lt;mark&gt;investment&lt;/mark&gt;, less international trade, less integration of Russia into global value chains, and this combined with people leaving Russia means lower long-term productivity growth," said Ms. Javorcik.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Across Europe, the security threat will amplify the economic shock, weighing on consumption and &lt;mark&gt;investment&lt;/mark&gt;, with those geographically closer to the conflict most exposed," Moody's said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Qatar &lt;mark&gt;Investment&lt;/mark&gt; Authority, a sovereign-wealth fund, has large stakes in Moscow-backed enterprises such as Rosneft Oil Co. and VTB Bank PJSC, whose share prices have fallen roughly 50% over the past month.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It stopped making new &lt;mark&gt;investment&lt;/mark&gt;s in Russia after that country's 2014 annexation of Crimea and said Monday it was closing its Moscow office.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Privacy</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;License this article from Dow Jones Reprint Service CO cyfilm : Cyber Firm Inc | kaspy : Kaspersky Lab Ltd | usnsyc : United States National Security Council IN i330202 : Software | i3302 : Computers/Consumer Electronics | icomp : Computing | itech : Technology | i3302021 : Applications Software | i8394 : Computer Services | ibcs : Business/Consumer Services | isecpri : Security/&lt;mark&gt;Privacy&lt;/mark&gt; Software NS ecat : Economic News | gvtre : Finance/Treasury Department | gesanc : International Sanctions | neqac : Equities Asset Class News | nmajev : Major News Events | ntop : Top Wire News | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | gpol : Domestic Politics | gvbod : Government Bodies | gvexe : Executive Branch | ncat : Content Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ukrn : Ukraine | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC ABO PUB Dow Jones &amp; Company, Inc.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>17</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Write to Chris Cumming at chris.cumming@wsj.com IN i81502 : &lt;mark&gt;Trust&lt;/mark&gt;s/Funds/Financial Vehicles | i8150203 : Private Equity | ibnk : Banking/Credit | ifinal : Financial Services | iinv : Investing/Securities | iwealth : Private Banking/Wealth Management | i814 : Banking | i831 : Financial Investment Services | ialtinv : Alternative Investments NS gtrade : Trade Barriers/Restrictions | gesanc : International Sanctions | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gpir : Politics/International Relations | gcat : Political/General News | gdip : International Relations | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Abramovich, Roman IPC I/AMG PUB Dow Jones &amp; Company, Inc. - Enterprise WSJ AN Document RSTPROPE20220405ei4500001 Page 14 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Economy minister Robert Habeck said Monday that the Federal Network Agency would become a &lt;mark&gt;trust&lt;/mark&gt;ee of Gazprom Germania GmbH until Sept. 30.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD "The arrangement of the &lt;mark&gt;trust&lt;/mark&gt; administration serves to protect public safety," he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We had a lot of, 'Why should we &lt;mark&gt;trust&lt;/mark&gt; you after Iraq, after…'—name your perceived intelligence failure," said the second senior U.S. official.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Luis Garcia at luis.garcia@wsj.com CO tlwtcp : Tailwater Capital LLC IN i16 : Electricity/Gas Utilities | i1 : Energy | i1300006 : Pipeline Transportation | i8150203 : Private Equity | ibnk : Banking/Credit | ifinal : Financial Services | iinv : Investing/Securities | iutil : Utilities | iwealth : Private Banking/Wealth Management | i814 : Banking | i81502 : &lt;mark&gt;Trust&lt;/mark&gt;s/Funds/Financial Vehicles | i831 : Financial Investment Services | ialtinv : Alternative Investments | ifosfl : Fossil Fuels | imidstr : Oil/Natural Gas Midstream Operations NS gcrim : Crime/Legal Action | gcat : Political/General News RE ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | russ : Russia | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Herring, Edward IPC I/AMG PUB Dow Jones &amp; Company, Inc. - Enterprise WSJ AN Document RSTPROPE20220404ei4400002 Page 58 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Julie Steinberg at julie.steinberg@wsj.com The Investor Who's Sticking With Russia IN i8150211 : Mutual Funds | iinv : Investing/Securities | i81502 : &lt;mark&gt;Trust&lt;/mark&gt;s/Funds/Financial Vehicles | ifinal : Financial Services NS c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | m11 : Equity Markets | ncolu : Columns | nimage : Images | nmajev : Major News Events | npda : DJ Exclusive Analysis - All | gcat : Political/General News | gvio : Military Action | reqris : Suggested Reading Investing/Securities | gcns : National/Public Security | gdip : International Relations | grisk : Risk News | mcat : Commodity/Financial Market News | ncat : Content Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires Page 71 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN iresinv : Sustainable Investment | ibnk : Banking/Credit | i814 : Banking | i81402 : Commercial Banking | i8150211 : Mutual Funds | iinv : Investing/Securities | i81502 : &lt;mark&gt;Trust&lt;/mark&gt;s/Funds/Financial Vehicles | ialtinv : Alternative Investments | ifinal : Financial Services | i831 : Financial Investment Services | i83107 : Portfolio/Fund/Asset Management | iibnk : Integrated Banks NS cesg : Environmental/Social/Governance | c181 : Acquisitions/Mergers/Shareholdings | gcorrp : Corruption | neqac : Equities Asset Class News | nfiac : Fixed Income Asset Class News | nimage : Images | nmajev : Major News Events | ntop : Top Wire News | c12 : Corporate Crime/Legal Action | reqrbc : Suggested Reading Banking/Credit | reqris : Suggested Reading Investing/Securities | c18 : Ownership Changes | cactio : Corporate Actions | ccat : Corporate/Industrial News | gcat : Page 92 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Europe's relationship with China has grown rocky in recent years, with economic tensions eroding &lt;mark&gt;trust&lt;/mark&gt; and clashes over Hong Kong, human rights and the handling of the pandemic creating tensions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;PHOTO: Anastasia Vlasova for The Wall Street Journal Mr. Zelensky said Mr. Putin couldn't be &lt;mark&gt;trust&lt;/mark&gt;ed to uphold such an agreement and that most Ukrainians wanted to join NATO.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Europe's relationship with China has grown increasingly rocky over the past few years, with economic tensions eroding &lt;mark&gt;trust&lt;/mark&gt; and clashes over Hong Kong, human rights and the handling of the coronavirus creating tensions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Sharp movements in oil prices can really drive up the cost at the pump and take away our ability to spend on other items," said Luke Tilley, chief economist at Wilmington &lt;mark&gt;Trust&lt;/mark&gt; Investment Advisors.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;2 Democrat and co-chairman of Ukraine Caucus, said he thought the proposal was a "little premature," adding that he doesn't &lt;mark&gt;trust&lt;/mark&gt; Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We will be willing to assist in reaching an agreement through &lt;mark&gt;trust&lt;/mark&gt;-building measures and other efforts."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;'Silent Spring' and the Manipulation of Science | March 9 Most people who "mis&lt;mark&gt;trust&lt;/mark&gt; science" can be distrustful only of what some intermediary (journalist, TV personality, author, blogger, politician, bureaucrat and, yes, scientist) told them the science is.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"You have to identify sources within that country that are &lt;mark&gt;trust&lt;/mark&gt;worthy, that are not going to basically pick a higher bidder to tell the Russian government or anti-American forces where business people might be traveling," Mr. Hayes said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;One tangible benefit for Qatar: The EU last month dropped anti&lt;mark&gt;trust&lt;/mark&gt; investigations into Qatar Petroleum, the state energy company.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The Qataris are in a unique spot as a &lt;mark&gt;trust&lt;/mark&gt;ed player to a spectrum of actors that is almost unparalleled, from the White House to the Taliban to Iran to European gas consumers," said Adel Hamaizia, a visiting fellow at the Center for Middle Eastern Studies at Harvard University.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>43</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Decentralized Finance/Marketplaces</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Beijing-Moscow Relations Explained NS gdip : International Relations | gcat : Political/General News | gvexe : Executive Branch | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | gvio : Military Action | ncolu : Columns | gcns : National/Public Security | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE china : China | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | ukrn : Ukraine | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC N/CNW PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220405ei45004mr Page 10 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The deficit has been trending wider ever since, repeatedly setting new records over the past year, as the U.S. economy roared back to life on the back of stimulus &lt;mark&gt;payment&lt;/mark&gt;s and a more-rapid reopening than much of the rest of the world.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Josh Zumbrun at Josh.Zumbrun@wsj.com U.S. Trade Deficit Narrowed Slightly in February NS c311 : Corporate/Industry Imports | e512 : Physical Trade | gvcom : Commerce Department | ccat : Corporate/Industrial News | e11 : Economic Performance/Indicators | e1118 : Trade Figures | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gpir : Politics/International Relations | ncolu : Columns | npred : Economic Predictions/Forecasts | gcat : Political/General News | cdom : Domestic/Foreign Markets | gpol : Domestic Politics | gvbod : Government Bodies | gvexe : Executive Branch | ncat : Content Types RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC 1176 PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220405ei450028l Page 12 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Chris Cumming at chris.cumming@wsj.com IN i81502 : Trusts/Funds/Financial Vehicles | i8150203 : Private Equity | ibnk : Banking/Credit | ifinal : Financial Services | iinv : Investing/Securities | iwealth : Private Banking/Wealth Management | i814 : Banking | i831 : Financial Investment Services | ialtinv : Alternative Investments NS gtrade : Trade Barriers/Restrictions | gesanc : International Sanctions | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gpir : Politics/International Relations | gcat : Political/General News | gdip : International Relations | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Abramovich, Roman IPC I/AMG PUB Dow Jones &amp; Company, Inc. - Enterprise WSJ AN Document RSTPROPE20220405ei4500001 Page 14 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In mid-March, France staved off a similar strike with a 400 million euro relief package, equivalent to $442 million, that includes direct &lt;mark&gt;payment&lt;/mark&gt;s to truckers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Germany recently unveiled cash &lt;mark&gt;payment&lt;/mark&gt;s to taxpayers, heavily discounted public-transport tickets and a temporary price cap on gasoline and diesel.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Last month, President Vladimir Putin said Russia would only receive rubles as &lt;mark&gt;payment&lt;/mark&gt; for gas exports.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The new rules would cover &lt;mark&gt;payment&lt;/mark&gt;s that have to be made later this month.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO euruno : European Union IN i1 : Energy | i111 : Coal Mining | ibasicm : Basic Materials/Resources | ifosfl : Fossil Fuels | imet : Mining/Quarrying NS gesanc : International Sanctions | gvexe : Executive Branch | gcat : Political/General News | e512 : Physical Trade | gdip : International Relations | gpol : Domestic Politics | gtrade : Trade Barriers/Restrictions | gvio : Military Action | gwar : War Crimes | nmajev : Major News Events | ntop : Top Wire News | reqren : Suggested Reading Energy | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gcns : National/Public Security | gcrim : Crime/Legal Action | gpir : Politics/International Relations | grisk : Risk News | gvbod : Government Bodies | ndj : Dow Jones Top Stories | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE russ : Russia | ukrn : Ukraine | gfr : Germany | eurz : Europe | fra : France | hung : Hungary | asiaz : Asia | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eecz : European Union Countries | eeurz : Central/Eastern Europe | medz : Mediterranean | ussrz : CIS Countries | weurz : Western Europe IPC NRG PUB Dow Jones &amp; Company, Inc. AN Document J000000020220405ei450000x Page 35 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Transcripts from a call with German Chancellor Olaf Scholz sounded more like compromise: Hard-currency &lt;mark&gt;payment&lt;/mark&gt;s could continue if they were funneled through Gazprombank (ticker: GZPR.Russia), the financial arm of Russia's state-owned export monopoly.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ruble &lt;mark&gt;payment&lt;/mark&gt; is a curious red line for Putin to draw.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Europeans complain that Putin's ruble &lt;mark&gt;payment&lt;/mark&gt; proposal would violate current agreements, which stipulate payment currency.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Laurence Norman at laurence.norman@wsj.com and Bojan Pancevski at bojan.pancevski@wsj.com Europe Faces Pressure to Dial Up Sanctions on Russia Over Ukraine Deaths CO euruno : European Union IN i1 : Energy NS gesanc : International Sanctions | gdip : International Relations | gcat : Political/General News | gvexe : Executive Branch | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gcrim : Crime/Legal Action | gpir : Politics/International Relations | gpol : Domestic Politics | gtrade : Trade Barriers/Restrictions | gvio : Military Action | gwar : War Crimes | ncolu : Columns | nmajev : Major News Events | gcns : National/Public Security | grisk : Risk News | gvbod : Government Bodies | ncat : Content Types | ndj : Dow Jones Top Stories | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ukrn : Ukraine | gfr : Germany | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Wires IPC M/ENE Page 46 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Jenny Strasburg at jenny.strasburg@wsj.com and Phred Dvorak at phred.dvorak@wsj.com Ukraine War Drives Countries to Embrace Renewable Energy—but Not Yet CO bp : BP PLC IN i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | ifosfl : Fossil Fuels | iioil : Integrated Oil/Gas NS gvexe : Executive Branch | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | genv : Natural Environment | gesanc : International Sanctions | gpir : Politics/International Relations | gsust : Sustainable Development/Sustainability | gtrade : Trade Barriers/Restrictions | ncolu : Columns | nimage : Images | nmajev : Major News Events | npda : DJ Exclusive Analysis - All | c11 : Corporate Strategy/Planning | cenvire : Corporate Environmental Responsibility | gcat : Political/General News | cesg : Environmental/Social/Governance | gdip : International Relations | gpol : Domestic Politics | gvbod : Government Bodies | ncat : Content Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC ALV.XE PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220404ei44003s5 Page 51 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. Treasury Department sanctioned Mr. Vekselberg, founder of the Renova Group, in April 2018, but he and others working on his behalf continued to make &lt;mark&gt;payment&lt;/mark&gt;s through U.S. banks for the support and maintenance of the Tango, the court filing says.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Those &lt;mark&gt;payment&lt;/mark&gt;s included one for a December 2020 stay at a luxury resort in the Maldives and mooring fees for the yacht, the Justice Department said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Julie Steinberg at julie.steinberg@wsj.com The Investor Who's Sticking With Russia IN i8150211 : Mutual Funds | iinv : Investing/Securities | i81502 : Trusts/Funds/Financial Vehicles | ifinal : Financial Services NS c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | m11 : Equity Markets | ncolu : Columns | nimage : Images | nmajev : Major News Events | npda : DJ Exclusive Analysis - All | gcat : Political/General News | gvio : Military Action | reqris : Suggested Reading Investing/Securities | gcns : National/Public Security | gdip : International Relations | grisk : Risk News | mcat : Commodity/Financial Market News | ncat : Content Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires Page 71 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Costas Paris at costas.paris@wsj.com China's Bet on Sending Its Exports Through Russia Hits Setback IN i763 : Port/Harbor Operations | iship : Water Transport/Shipping | itsp : Transportation/Logistics NS gtrade : Trade Barriers/Restrictions | e512 : Physical Trade | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | ncolu : Columns | nmajev : Major News Events | npda : DJ Exclusive Analysis - All | gcat : Political/General News | reqrts : Suggested Reading Transportation/Shipping | gdip : International Relations | ncat : Content Types | ndj : Dow Jones Top Page 86 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO uafor : Ukraine Ministry of Foreign Affairs NS gdip : International Relations | gcat : Political/General News | c13 : Regulation/Government Policy | e512 : Physical Trade | gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | nmajev : Major News Events | ntop : Top Wire News | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gpir : Politics/International Relations | ncat : Content Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | redit : Selection of Top Stories/Trends/Analysis RE india : India | ndelh : New Delhi | russ : Russia | ukrn : Ukraine | delhi : Delhi | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | indsubz : Indian Subcontinent | sasiaz : Southern Asia | ussrz : CIS Countries IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220402ei420002c Page 95 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS ecat : Economic News | gtrade : Trade Barriers/Restrictions | credun : Lay-offs/Redundancies | gvio : Military Action | c314 : Pricing | gesanc : International Sanctions | nimage : Images | nmajev : Major News Events | npred : Economic Predictions/Forecasts | nsur : Surveys/Polls | ntop : Top Wire News | c31 : Marketing | c42 : Labor/Personnel | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | gcat : Political/General News | gcns : National/Public Security | gdip : International Relations | gpir : Politics/International Relations | grisk : Risk News | ncat : Content Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ukrn : Ukraine | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC PIC PUB Dow Jones &amp; Company, Inc. AN Document J000000020220402ei420002e Page 99 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Michael R. Gordon at michael.gordon@wsj.com, Bojan Pancevski at bojan.pancevski@wsj.com, Noemie Bisserbe at noemie.bisserbe@wsj.com and Marcus Walker at marcus.walker@wsj.com Vladimir Putin's 20-Year March to War in Ukraine—and How the West Mishandled It CO euruno : European Union NS gvexe : Executive Branch | gcat : Political/General News | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gcns : National/Public Security | gdip : International Relations | gesanc : International Sanctions | gpir : Politics/International Relations | gspy : Espionage | gtrade : Trade Barriers/Restrictions | gvio : Military Action | ncat : Content Types | ncolu : Columns | nimage : Images | nmajev : Major News Events | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ukrn : Ukraine | asiaz : Asia | bucha : Bucharest | crimea : Crimea | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | gfr : Germany | munich : Munich | namz : North America | rom : Romania | uk : United Kingdom | usa : United States | usdc : Washington DC | uss : Southern U.S. | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | balkz : Balkan States | bavar : Free State of Bavaria | bric : BRICS Countries | dach : DACH Countries | Page 126 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The invoice had a &lt;mark&gt;payment&lt;/mark&gt; due date of October 2015, but Rosneft didn't pay it by that date and had attempted to make payments that were either rejected by PIRA's bank, in compliance with the sanctions program in place at the time, or met with a request for additional information from the U.S. bank, OFAC said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;S&amp;P's management also wrote to Rosneft , emphasizing the importance of timely &lt;mark&gt;payment&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;S&amp;P wrote that "when the &lt;mark&gt;payment&lt;/mark&gt; is made against an old invoice (as recent ones were), the bank may perceive that to be 'extending credit' to a Russian company, which we cannot do by law," according to the settlement agreement.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;OFAC determined S&amp;P Global didn't voluntarily self-disclose the alleged violations and that it failed to act with "a minimal degree of caution or care" when it reissued the invoices to extend the &lt;mark&gt;payment&lt;/mark&gt; date.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Mengqi Sun at mengqi.sun@wsj.com S&amp;P Global Settles Allegations It Violated Russia Sanctions CO rsneft : Rosneft Oil Company OJSC | mcgrwh : S&amp;P Global Inc. | rosnft : Rosneftegaz IN i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | i81501 : Credit Types/Services | ifinal : Financial Services | ibnk : Banking/Credit | ifosfl : Fossil Fuels | i8395416 : Rating Agencies | iioil : Integrated Oil/Gas NS gesanc : International Sanctions | cacqu : Acquisitions/Mergers | ccat : Corporate/Industrial News | c12 : Corporate Crime/Legal Action | c173 : Financing Agreements | cactio : Corporate Actions | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | gcat : Political/General News | c17 : Corporate Funding | c18 : Ownership Changes | c181 : Acquisitions/Mergers/Shareholdings | gdip : International Relations | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Wires IPC I/FIS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220401ei410080x Page 129 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Shan Li at shan.li@wsj.com Russia Says It Is Ready to Supply Any Goods India Wants to Buy CO uafor : Ukraine Ministry of Foreign Affairs NS gdip : International Relations | gcat : Political/General News | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gpol : Domestic Politics | gtrade : Trade Barriers/Restrictions | gvio : Military Action | ncolu : Columns | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE india : India | ndelh : New Delhi | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | ukrn : Ukraine | usa : United States | ussrz : CIS Countries | delhi : Delhi | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | indsubz : Indian Subcontinent | sasiaz : Southern Asia | weurz : Western Europe IPD Wires IPC N/CMR PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220401ei41002bd Page 136 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN ifosfl : Fossil Fuels | i1 : Energy NS mmotfl : Motor Fuel Markets | gvio : Military Action | ecat : Economic News | c314 : Pricing | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | gvbod : Government Bodies | m14 : Commodity Markets | m143 : Energy Markets | mcat : Commodity/Financial Market News | mcroil : Crude Oil Markets | ncolu : Columns | gcat : Political/General News | c31 : Marketing | gcns : National/Public Security | gdip : International Relations | gpol : Domestic Politics | grisk : Risk News | mcrntg : Crude Oil/Natural Gas Product Markets | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | gfr : Germany | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eecz : European Union Countries | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC G/FED PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220401ei41005v5 Page 144 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Mengqi Sun at mengqi.sun@wsj.com Compliance Pros Rethink Use of IP Addresses to Enforce Sanctions Amid Russia-Ukraine Crisis CO usdtr : United States Department of the Treasury IN i3302 : Computers/Consumer Electronics | icph : Computer Hardware | iint : Online Service Providers | itech : Technology | icomp : Computing NS gesanc : International Sanctions | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | gvtre : Finance/Treasury Department | ncolu : Columns | gcat : Political/General News | gdip : International Relations | gpol : Domestic Politics | gvbod : Government Bodies | gvexe : Executive Branch | ncat : Content Types RE ukrn : Ukraine | russ : Russia | asiaz : Asia | crimea : Crimea | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC G/TRE PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220401ei41000ur Page 146 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Gavin Newsom proposed $400 &lt;mark&gt;payment&lt;/mark&gt;s to all vehicle owners, regardless of income, for up to two cars, and Mayor Lori Lightfoot said Chicago will distribute $150 prepaid gas cards.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The whole family lived on social &lt;mark&gt;payment&lt;/mark&gt;s worth some $500 a month, plus a bit more that she brought in through odd jobs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN idef : Defense Equipment/Products | i3302 : Computers/Consumer Electronics | iaer : Aerospace/Defense | iindstrls : Industrial Goods | itech : Technology NS gesanc : International Sanctions | gvtre : Finance/Treasury Department | ecat : Economic News | c13 : Regulation/Government Policy | gtrade : Trade Barriers/Restrictions | nmajev : Major News Events | ntop : Top Wire News | cinfpo : Information Technology Policy | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | gpol : Domestic Politics | gvbod : Government Bodies | gvexe : Executive Branch | ncat : Content Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | redit : Selection of Top Stories/Trends/Analysis RE ukrn : Ukraine | russ : Russia | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC IGV PUB Dow Jones &amp; Company, Inc. AN Document J000000020220401ei410001z Page 161 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukraine Crisis: Putin Presses Gas &lt;mark&gt;Payment&lt;/mark&gt;s in Rubles BY By Matthew Luxmoore and Caitlin Ostroff WC 458 words PD 1 April 2022 SN The Wall Street Journal SC J PG A7 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Russian President Vladimir Putin said the country will halt gas deliveries to buyers from "unfriendly states" unless they switch to &lt;mark&gt;payment&lt;/mark&gt; in rubles.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD "If such &lt;mark&gt;payment&lt;/mark&gt;s aren't carried out, we will consider this a violation of responsibilities on the part of buyers," he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Also at play, a possible surge of quarter-end &lt;mark&gt;payment&lt;/mark&gt;s for Russia's commodity exports.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;One possible factor for the ruble's strength in recent days: Energy &lt;mark&gt;payment&lt;/mark&gt;s are often made at the quarter-end.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The whole family lived on social &lt;mark&gt;payment&lt;/mark&gt;s worth some $500 a month, plus a bit more that she brought in through odd jobs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Paul Hannon at paul.hannon@wsj.com Russia Set for Steep Slump and Long Stagnation in Wake of Ukraine War CO eubrd : European Bank for Reconstruction and Development IN i8150106 : Development Banking | ibnk : Banking/Credit | i814 : Banking | ifinal : Financial Services NS ecat : Economic News | e1101 : Economic Growth/Recession | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e11 : Economic Performance/Indicators | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | npred : Economic Predictions/Forecasts | gcat : Political/General News | gdip : International Relations | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC I/BKS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220331ei3v000m9 Page 211 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service RF page,5043 NS c13 : Regulation/Government Policy | e512 : Physical Trade | gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | m132 : Foreign Exchange Markets | mcat : Commodity/Financial Market News | mnatgs : Natural Gas Markets | ncolu : Columns | nhrd : Heard on the Street | npda : DJ Exclusive Analysis - All | c1521 : Analysts' Comments/Recommendations | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | m13 : Money/Currency Markets | m14 : Commodity Markets | m143 : Energy Markets | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC GMA PUB Dow Jones &amp; Company, Inc. AN Document J000000020220331ei3v0000f Page 223 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There are no plans at this point to list Gazprombank or Sberbank, which handle energy &lt;mark&gt;payment&lt;/mark&gt;s by European firms to Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO euruno : European Union IN i814 : Banking | ibnk : Banking/Credit | ifinal : Financial Services NS gesanc : International Sanctions | c13 : Regulation/Government Policy | gdip : International Relations | gtrade : Trade Barriers/Restrictions | neqac : Equities Asset Class News | nmajev : Major News Events | ntop : Top Wire News | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gcat : Political/General News | gpir : Politics/International Relations | ncat : Content Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ukrn : Ukraine | eurz : Europe | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | namz : North America | ussrz : CIS Countries IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220331ei3v0000o Page 231 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Yuka Hayashi at yuka.hayashi@wsj.com U.S. Trade Chief Outlines Policy Shift, Citing Ukraine War and Pandemic NS gtrade : Trade Barriers/Restrictions | gsars : Novel Coronaviruses | gvio : Military Action | gcat : Political/General News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | ghea : Health | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | ncor : Corrections | ncrx : Corrected Items | gcns : National/Public Security | gcold : Respiratory Tract Diseases | gdip : International Relations | gmed : Medical Conditions | grisk : Risk News | gspox : Infectious Diseases | ncat : Content Types RE ukrn : Ukraine | china : China | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | russ : Russia | uk : United Kingdom | usa : United States | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | ussrz : CIS Countries | weurz : Western Europe IPD Wires IPC N/CMR PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220330ei3u005v5 Page 240 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Cybersecurity</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;LP WASHINGTON -- The Biden administration is divided over whether to impose sanctions on Kaspersky Lab, a Russian &lt;mark&gt;cybersecurity&lt;/mark&gt; giant that officials warn could be used by the Kremlin as a surveillance tool against its customers, people familiar with the matter said.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>gaming</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;—Joe Woelfel and Megan Cassella *** Metaverse Could Become a $13 Trillion Market by 2030 The metaverse economy, encompassing virtual worlds such as &lt;mark&gt;gaming&lt;/mark&gt; and virtual reality as well as smart manufacturing, online events, and digital currency, could become an $8 trillion to $13 trillion total market by 2030, Citi said in a research report.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;* Metaverse &lt;mark&gt;gaming&lt;/mark&gt; companies include Fortnite maker Epic Games, Roblox, Ubisoft Entertainment, and Microsoft, which owns Minecraft.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Devices</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>6</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Telecom Infra</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;In addition, more than 100 nations have signed an international treaty called the Convention on Cluster Munitions prohibiting the use of such &lt;mark&gt;devices&lt;/mark&gt;, which can be scattered over a large area.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Authorities from the U.S. Federal Bureau of Investigation, Department of Homeland Security and Spain's Civil Guard boarded the yacht and seized electronic &lt;mark&gt;devices&lt;/mark&gt; and documents.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The commission is proposing to double the pace of deploying heat pumps—electrical &lt;mark&gt;devices&lt;/mark&gt; that can replace traditional gas furnaces—and speed up widespread installation of rooftop solar systems to generate more electricity without fossil fuels.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Authorities from the U.S. Federal Bureau of Investigation, Department of Homeland Security and Spain's Civil Guard boarded the yacht and seized computers, other electronic &lt;mark&gt;devices&lt;/mark&gt; and documents.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Analog &lt;mark&gt;Devices&lt;/mark&gt;, FactSet Research Systems, and Quanta Services hold their annual investor days.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Beyond stray drones, powerful electronic-jamming &lt;mark&gt;devices&lt;/mark&gt; used by the warring parties to disrupt each others' radars, aircraft and missiles are interfering with communications by commercial aircraft.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Partnership</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>11</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Digital investment</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The leaders of the U.S., Australia and Japan -- which together with India make up a security &lt;mark&gt;partnership&lt;/mark&gt; called the Quadrilateral Security Dialogue, or the Quad -- have acted in concert to roll out sanctions and other punishments intended to isolate Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Five cases were detected in the two countries in 2021, and only one case has been found in Afghanistan this year, according to data from the Global Polio Eradication Initiative, or GPEI, a &lt;mark&gt;partnership&lt;/mark&gt; of six organizations leading the eradication push.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The leaders of the U.S., Australia and Japan—which together with India make up a security &lt;mark&gt;partnership&lt;/mark&gt; called the Quadrilateral Security Dialogue, or the Quad—have acted in concert to roll out sanctions and other punishments intended to isolate Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukraine Crisis: OPEC Keeps Russia-Backed Output Plan --- &lt;mark&gt;Partnership&lt;/mark&gt; says it can't stop oil prices from rising, spurns call to increase production BY By Summer Said and Benoit Faucon WC 637 words PD 1 April 2022 SN The Wall Street Journal SC J PG A7 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In its second meeting since the Kremlin ordered the assault on Ukraine, a &lt;mark&gt;partnership&lt;/mark&gt; between OPEC and a group of Russia-led countries, dubbed OPEC+, declined again to tap into its millions of barrels of remaining capacity to pump more oil.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;to align themselves more closely with Russia and China after years of &lt;mark&gt;partnership&lt;/mark&gt; with the West.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;They added that their &lt;mark&gt;partnership&lt;/mark&gt; "has no limits, there are no 'forbidden' areas of cooperation," an explicit declaration that these two will set their own rules in the new world order.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In its second meeting since the Kremlin ordered the assault on Ukraine, a &lt;mark&gt;partnership&lt;/mark&gt; between OPEC and a group of Russia-led countries, dubbed OPEC+, declined again to tap into its millions of barrels of remaining capacity to pump more oil.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;to align themselves more closely with Russia and China after years of &lt;mark&gt;partnership&lt;/mark&gt; with the West.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Germany's Economy Minister Robert Habeck flew to Qatar this month to announce an energy &lt;mark&gt;partnership&lt;/mark&gt; and a commitment to build his country's first-ever terminal to receive shipments of liquefied natural gas from Qatar and other gas producers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;They added that their &lt;mark&gt;partnership&lt;/mark&gt; "has no limits, there are no 'forbidden' areas of cooperation," an explicit declaration that these two will set their own rules in the new world order.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>2098</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;CLM World News SE World HD A Quarter of Africans Face Food-Security Crisis Partly Due to Ukr&lt;mark&gt;ai&lt;/mark&gt;ne War, Red Cross Says; Russia's invasion drives up world food prices and worsens hunger in Africa caused by drought and local conflicts BY By Michael M. Phillips WC 845 words PD 5 April 2022 ET 21:58 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP N&lt;mark&gt;AI&lt;/mark&gt;ROBI, Kenya—A quarter of Africa's population is facing a food-security crisis driven by severe drought, raging wars and a rise in world food prices caused by Russia's invasion of Ukraine, the International Committee of the Red Cross warned Tuesday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some 346 million people, from Mauritania in the west to the Horn of Africa in the east, are affected by food insecurity, Dominik Stillhart, the agency's global operations director, told reporters in N&lt;mark&gt;ai&lt;/mark&gt;robi.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD "What we don't want to see is the response that comes too late, and that is why it is so important to draw attention to the situation now," Mr. Stillhart s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia and Ukr&lt;mark&gt;ai&lt;/mark&gt;ne were major grain suppliers before the war, and the conflict is causing pain across the developing world, spurring price shocks, constraining imports of basic commodities and causing food shortages, with poorer nations in Africa especially affected.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Somalia, one of the hardest-hit countries, faces the specter of famine by midyear should food prices continue to rise, the r&lt;mark&gt;ai&lt;/mark&gt;ns fail for the fourth consecutive season and international relief efforts fall short, according to the United Nations World Food Program.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some 800,000 Somalis have left their homes in search of food and water since the beginning of March, and 1.4 million Somali children under five years old will be acutely malnourished by the end of the year, unless donor countries step up their responses, according to the &lt;mark&gt;ai&lt;/mark&gt;d agencies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We are having to look at prioritizing assistance, which is essentially taking from the hungry to feed the starving," s&lt;mark&gt;ai&lt;/mark&gt;d Petroc Wilton, the WFP's Somalia spokesman.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"There are children there with little more than skin stretched over rib cages and limbs that are barely any more than the bones beneath," he s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There are 28 such camps around Bardere, he s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Ai&lt;/mark&gt;d agencies estimate that in February alone Somali families lost 650,000 donkeys, cows and other livestock, a key source of wealth for 40% of the country's population.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Somalia normally buys between 49% and 59% of its wheat from Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, and another 33% to 43% from Russia, according to the U.N.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The WFP in Somalia received a shipment of 1,000 tons of yellow split peas from the Ukr&lt;mark&gt;ai&lt;/mark&gt;nian port of Odessa in February and another shipload in the middle of last month, to be distributed in Somalia and Ethiopia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Other traditional food exporters, such as Egypt, have cut their own overseas sales to ensure supplies at home while the Ukr&lt;mark&gt;ai&lt;/mark&gt;ne crisis continues.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Relief workers in Africa stress that they don't want to play down Ukr&lt;mark&gt;ai&lt;/mark&gt;ne's humanitarian needs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The International Committee of the Red Cross budgeted $1 billion for its work in Africa this year, but rem&lt;mark&gt;ai&lt;/mark&gt;ns $800 million short.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"It's likely the Ukr&lt;mark&gt;ai&lt;/mark&gt;ne crisis will make donors look more inward, and our humanitarian response plan won't receive anything close to adequate funding," said Adam Abdelmoula, the U.N. humanitarian coordinator in Somalia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We are facing a significant risk of famine in Somalia," Mr. Abdelmoula s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Ai&lt;/mark&gt;d agencies warn that hunger could also worsen in Mali and Burkina Faso, West African nations facing drought amid a life-or-death struggle with al Qaeda and Islamic State affiliates.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Red Cross estimates that 29 million West Africans are in need of urgent food &lt;mark&gt;ai&lt;/mark&gt;d, a number likely to rise by another four million as the lean season progresses.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The war between Ethiopia's central government and rebels from the northern Tigray region has worsened that country's food crisis and slowed &lt;mark&gt;ai&lt;/mark&gt;d flows to those in need.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A truce allowed the Red Cross to deliver 200 tons of &lt;mark&gt;ai&lt;/mark&gt;d to Tigray over the weekend, its first successful ground convoy in months.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Michael M. Phillips at michael.phillips@wsj.com A Quarter of Africans Face Food-Security Crisis Partly Due to Ukr&lt;mark&gt;ai&lt;/mark&gt;ne War, Red Cross Says CO icrcss : International Committee of the Red Cross NS gfamin : Famine | gdev : Development/Humanitarian Aid | gdroug : Drought | gntdis : Natural Disasters/Catastrophes | gpir : Politics/International Relations | ncolu : Columns | nmajev : Major News Events | gcat : Political/General News | gdip : International Relations | gdis : Disasters/Accidents | grisk : Risk News | gwea : Weather | ncat : Content Types | ndj : Dow Jones Top Stories | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis RE ukrn : Ukraine | somal : Somalia | africaz : Africa | asiaz : Asia | eafrz : East Africa | easiaz : Eastern Asia | eurz : Europe | kenya : Kenya | nairoi : Nairobi | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC N/DJN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220405ei4500439 Page 3 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia Faces Accusations as Civilian Casualties in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne Grow; Western governments reiterate calls for investigations after reports of mass killings in formerly Russian-occupied territory BY By James Hookway WC 1,449 words PD 5 April 2022 ET 22:48 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CX Corrections &amp; Amplifications Ukr&lt;mark&gt;ai&lt;/mark&gt;nian President Volodymyr Zelensky has zeroed in on what he says is Russia's decision to specifically target civilian populations.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;(Corrected on March 16) Write to James Hookway at James.Hookway@wsj.com LP A battle in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne's capital, Kyiv, left at least 20 Russian armored fighting vehicles destroyed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;PHOTO: Christopher Occhicone for The Wall Street Journal TD Russia's invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne has brought allegations of war crimes against President Vladimir Putin and his army, including accusations from the U.S., raising the question of whether he or his commanders will ultimately be charged.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;nian President Volodymyr Zelensky said more than 300 civilians were killed or tortured in and around the Kyiv suburb of Bucha after Russian troops withdrew, prompting condemnation by Western governments, who pledged they would help gather evidence for investigations into potential war crimes by Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Zelensky s&lt;mark&gt;ai&lt;/mark&gt;d many more dead may be found in other towns as Russian forces turn back their advance to focus instead on the east of the country.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;ICC prosecutor Karim Khan four days into the invasion s&lt;mark&gt;ai&lt;/mark&gt;d he would begin an investigation into violations, based on Ukraine's previously agreeing to the court's jurisdiction.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Khan traveled to western Ukr&lt;mark&gt;ai&lt;/mark&gt;ne and Poland and held a virtual meeting with Mr. Zelensky.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. government subsequently accused Russian forces in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne of committing war crimes, a formal move designed to preserve information and evidence for future review.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Meanwhile, reports of wider abuses are mounting as Ukr&lt;mark&gt;ai&lt;/mark&gt;nian officials and independent rights watchdogs say they are uncovering evidence of war crimes perpetrated by occupation forces.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The ICC also prosecutes three other offenses: crimes ag&lt;mark&gt;ai&lt;/mark&gt;nst humanity, genocide and the crime of aggression.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Khan, the ICC prosecutor, s&lt;mark&gt;ai&lt;/mark&gt;d there was already a reasonable basis to believe that both war crimes and crimes against humanity had taken place in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Zelensky has zeroed in on what he says is Russia's decision to target civilian populations after Ukr&lt;mark&gt;ai&lt;/mark&gt;nian forces delayed the Russian battalion's initial advance on the capital, Kyiv.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He described an attack on Freedom Square in the eastern city of Kharkiv as a war crime and has called on the West to help stop "the crime Russia is committing" in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Human Rights Watch s&lt;mark&gt;ai&lt;/mark&gt;d it had documented several cases of war crimes by Russian military forces in areas around Chernihiv, Kharkiv and Kyiv.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Following the reports of mass graves, President Biden called for a war-crimes trial and s&lt;mark&gt;ai&lt;/mark&gt;d Mr. Putin was a war criminal who must be held accountable for the war in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We have to get all the det&lt;mark&gt;ai&lt;/mark&gt;l so this can be an actual war crime trial.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Russian Defense Ministry has dismissed the reports of widespread killing of civilians in Bucha, calling them "another provocation" by the Ukr&lt;mark&gt;ai&lt;/mark&gt;nian side.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In its war-crimes accusation in March ag&lt;mark&gt;ai&lt;/mark&gt;nst Russian forces operating in Ukraine, the State Department noted the Russian bombardments of a maternity hospital and a theater in the southern coastal city of Mariupol.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Every day that Russia's forces continue their brutal attacks, the number of innocent civilians killed and wounded, including women and children, climbs," Mr. Blinken s&lt;mark&gt;ai&lt;/mark&gt;d on March 23.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Based on information currently av&lt;mark&gt;ai&lt;/mark&gt;lable, the U.S. government assesses that members of Russia's forces have committed war crimes in Ukraine."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Legal experts s&lt;mark&gt;ai&lt;/mark&gt;d it would have to be proved that Russian forces were systematically selecting civilian targets.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Though Ukr&lt;mark&gt;ai&lt;/mark&gt;ne isn't party to the 1998 Rome statute that established the court, it has previously accepted the court's jurisdiction.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That means that while Ukr&lt;mark&gt;ai&lt;/mark&gt;ne can't refer any alleged crimes to the court, the ICC can investigate on its own initiative and charge Page 5 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;ne has been seeking an ICC investigation since 2014, when Russia annexed Crimea.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The court's prosecutor in 2018 s&lt;mark&gt;ai&lt;/mark&gt;d it found a reasonable basis that war crimes—including torture, rape and the intentional targeting of civilians—had taken place in eastern regions of Ukraine, where Russian-backed separatists were fighting the central government.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;ne has accused Russia of using cluster bombs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Bucha residents received humanitarian &lt;mark&gt;ai&lt;/mark&gt;d on April 2 after Russian troops left the area.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Germany did this in January when a court there sentenced a former Syrian intelligence officer to prison in relation to crimes ag&lt;mark&gt;ai&lt;/mark&gt;nst humanity committed during the civil war there.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;French prosecutors have s&lt;mark&gt;ai&lt;/mark&gt;d they would begin their own investigation into alleged war crimes in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ag&lt;mark&gt;ai&lt;/mark&gt;n, the problem would be how to arrest and try Mr. Putin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia Faces Accusations as Civilian Casualties in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne Grow NS gwar : War Crimes | gcrim : Crime/Legal Action | gvexe : Executive Branch | gvio : Military Action | gcat : Political/General News | gmurd : Murder/Manslaughter | gdip : International Relations | gpir : Politics/International Relations | gpol : Domestic Politics | gvbod : Page 6 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Government Bodies | ncolu : Columns | ncor : Corrections | ncrx : Corrected Items | nimage : Images | gcns : National/Public Security | grisk : Risk News | ncat : Content Types RE ukrn : Ukr&lt;mark&gt;ai&lt;/mark&gt;ne | asiaz : Asia | crimea : Crimea | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC G/FDL PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220403ei43001jl Page 7 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Beijing-Moscow Relations Expl&lt;mark&gt;ai&lt;/mark&gt;ned; China's pact with Russia has made its relationship with the U.S. even worse.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne has nonetheless forced Beijing to walk a diplomatic tightrope—honoring its commitment to Russia without allowing its ties with the West to collapse.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Beijing's version of the meeting sought to present China as a peacemaker, minimizing friction between the leaders over Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Beijing has repeatedly s&lt;mark&gt;ai&lt;/mark&gt;d it favors dialogue to end the conflict peacefully but there is little evidence to suggest it has played a role in the Russia-Ukraine talks that have taken place.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Xi isn't known to have spoken with Ukr&lt;mark&gt;ai&lt;/mark&gt;nian President Volodymyr Zelensky, though he did confer with Mr. Putin a few days after the invasion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Western officials worry that Moscow's actions, on the argument that Ukr&lt;mark&gt;ai&lt;/mark&gt;ne is historically a part of Russia, could embolden China to step up its own long-stated goal of bringing Taiwan into its fold.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A Chinese &lt;mark&gt;ai&lt;/mark&gt;rcraft carrier and a U.S. Navy destroyer sailed through the Strait of Taiwan in a pair of sensitive operations ahead of the Biden-Xi call.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Both are authoritarians and nationalists, and each desires to r&lt;mark&gt;ai&lt;/mark&gt;se his country's stature and challenge the U.S.-led world order.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As the Russia-Ukr&lt;mark&gt;ai&lt;/mark&gt;ne war was raging on March 30, Chinese Foreign Minister Wang Yi welcomed to China Russian Foreign Minister Sergei Lavrov and reiterated support for Beijing's recent alignment pact.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;China says it will m&lt;mark&gt;ai&lt;/mark&gt;ntain normal trade relations with Russia despite the conflict, as well as with Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But Beijing is conscious that the U.S. and its allies have the wherewithal to inflict p&lt;mark&gt;ai&lt;/mark&gt;n if it is seen undermining sanctions in considerable ways.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;So far, major Chinese companies and banks have refr&lt;mark&gt;ai&lt;/mark&gt;ned from obviously helping Russia evade financial sanctions, as that would jeopardize their access to the dollar-denominated banking system and international finance.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;U.S. officials in March s&lt;mark&gt;ai&lt;/mark&gt;d Russia had asked China for military equipment, and President Biden warned it would face consequences if it provides substantive support.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The war and related sanctions have neverthelessdisrupted Chinese trade, and capacity constr&lt;mark&gt;ai&lt;/mark&gt;nts will limit its near-term ability to significantly boost imports from Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;ne had been important to China's strategy to move more exports to Europe by rail and now, according to freight forwarders, its traders are reorienting shipments to ships or by rail through Kazakhstan and Georgia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Official reports have sometimes reported evidence of bombardment and attacks on Ukr&lt;mark&gt;ai&lt;/mark&gt;nian civilians but have been careful to avoid blaming Russian forces.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Chinese authorities have permitted social-media users and prominent nationalist voices to express support for Mr. Putin online while appearing to limit online discussion of allegations ag&lt;mark&gt;ai&lt;/mark&gt;nst Russia, and in China there has been little of the lionization of Ukraine's Mr. Zelensky common in Western media.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;What about the China-Ukr&lt;mark&gt;ai&lt;/mark&gt;ne relationship?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In recent years, as Kyiv pushed away from Moscow, China became Ukr&lt;mark&gt;ai&lt;/mark&gt;ne's biggest trading partner.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It had supplied 70% of China's imported sunflower oil, a key staple in Chinese kitchens, and has sold China military equipment, including the hull for China's first &lt;mark&gt;ai&lt;/mark&gt;rcraft carrier.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But long-running Ukr&lt;mark&gt;ai&lt;/mark&gt;ne-Russia tensions had made Beijing cautious about sinking capital into the country, and unlike some of its neighbors, Ukraine hasn't fallen into China's orbit.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In 2013, Mr. Xi signed a Chinese pledge of unspecified security guarantees for Ukr&lt;mark&gt;ai&lt;/mark&gt;ne in the event of a nuclear attack.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some interpret the pledge as something more than the assurances nuclear-armed states routinely provide nonnuclear ones—one that under some scenarios could pit Beijing ag&lt;mark&gt;ai&lt;/mark&gt;nst Moscow.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;What has China s&lt;mark&gt;ai&lt;/mark&gt;d about the Ukraine war?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;China has repeatedly stated its commitment to "territorial sovereignty," a principle that seemingly would force it to condemn Russia's invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;They express concern for destruction in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne as well as understanding for Russia's security interests.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While Chinese officials s&lt;mark&gt;ai&lt;/mark&gt;d they support a peaceful solution, they also appeared to put the onus on Europe to solve the matter.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Friction between Beijing and Washington was already high, and China's pact with Russia on the eve of its Ukr&lt;mark&gt;ai&lt;/mark&gt;ne invasion has made it worse.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As the Ukr&lt;mark&gt;ai&lt;/mark&gt;ne war has appeared to tighten U.S.-Europe ties, China has called on Europe to develop an independent China policy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. has s&lt;mark&gt;ai&lt;/mark&gt;d Beijing bears a responsibility to use its influence with Mr. Putin to seek an end to the war, while Beijing has sought to present China as a neutral party to the conflict and denied U.S. assertions that Russia has sought its help, either on military equipment or economic assistance.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Beijing's recent pact with Moscow has r&lt;mark&gt;ai&lt;/mark&gt;sed the prospect that the U.S. could need to counter two major adversaries at once, forcing the U.S. to reconsider its defense strategy and military presence.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Beijing-Moscow Relations Expl&lt;mark&gt;ai&lt;/mark&gt;ned NS gdip : International Relations | gcat : Political/General News | gvexe : Executive Branch | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | gvio : Military Action | ncolu : Columns | gcns : National/Public Security | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE china : China | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | ukrn : Ukraine | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC N/CNW PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220405ei45004mr Page 10 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM U.S. Economy SE Economy HD U.S. Trade Deficit Narrowed Slightly in February; Imports and exports both rose on cusp of war in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne BY By Josh Zumbrun WC 700 words PD 5 April 2022 ET 19:56 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The U.S. trade deficit narrowed slightly in February, shrinking 0.1% for the month but rem&lt;mark&gt;ai&lt;/mark&gt;ning close to a record.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Both exports and imports climbed as the impending conflict in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne pushed up commodity prices.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The deficit in trade of goods and services slipped to a seasonally adjusted $89.19 billion in February, the Commerce Department s&lt;mark&gt;ai&lt;/mark&gt;d Tuesday, compared with an $89.23 billion gap in January, which was the all-time monthly record for the trade gap.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Andrew Hunter, a senior U.S. economist for Capital Economics, s&lt;mark&gt;ai&lt;/mark&gt;d the high deficit to start the year likely shaved 2.5 percentage points off GDP for the first quarter of 2022, which he estimates will now grow at a seasonally adjusted annual rate of between 1% and 1.5%.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia invaded Ukr&lt;mark&gt;ai&lt;/mark&gt;ne on Feb. 24, meaning most U.S. imports for February were on the water or at U.S. ports before the war started.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;ne and Russia aren't major direct trading partnersof the U.S.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In February, the U.S. imported $2.6 billion worth of goods from Russia—less than 1% of total U.S. imports—and $188 million from Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The countries aren't major export destinations either, with the U.S. exporting $497.5 million of goods to Russia and $309 million of goods to Ukr&lt;mark&gt;ai&lt;/mark&gt;ne in February.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Economists expect, however, that the war will lead to greater supply-ch&lt;mark&gt;ai&lt;/mark&gt;n disruptions in the months ahead.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The countries are significant producers of commodities traded on global markets, such as oil, gr&lt;mark&gt;ai&lt;/mark&gt;ns and certain metals, and the conflict is disrupting economic activity across Eastern Europe.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Data for February, "didn't fully capture the trade impacts of Russia's invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, which will slow global growth through higher inflation and renewed supply chain snarls," said Mahir Rasheed, U.S. economist for Oxford Economics, in a note.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Josh Zumbrun at Josh.Zumbrun@wsj.com U.S. Trade Deficit Narrowed Slightly in February NS c311 : Corporate/Industry Imports | e512 : Physical Trade | gvcom : Commerce Department | ccat : Corporate/Industrial News | e11 : Economic Performance/Indicators | e1118 : Trade Figures | e51 : Trade/External Payments | ecat : Economic News | gpir : Politics/International Relations | ncolu : Columns | npred : Economic Predictions/Forecasts | gcat : Political/General News | cdom : Domestic/Foreign Markets | gpol : Domestic Politics | gvbod : Government Bodies | gvexe : Executive Branch | ncat : Content Types RE ukrn : Ukr&lt;mark&gt;ai&lt;/mark&gt;ne | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC 1176 PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220405ei450028l Page 12 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE WSJ Pro HD Sanctioned LPs Complicate Private-Equity Fund Dynamics; Opaque ownership and fractured rules make it challenging for private-fund managers to comply with recent Russia sanctions BY By Chris Cumming WC 1,034 words PD 5 April 2022 ET 15:30 SN WSJ Pro Private Equity SC RSTPROPE LA English CY Copyright © 2022, Dow Jones &amp; Company, Inc. LP Private-equity firms are navigating the complications of cutting sanctioned Russian investors out of their funds, a task that can create challenges for a fund's rem&lt;mark&gt;ai&lt;/mark&gt;ning investors or even threaten the fund itself.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In the weeks since the U.S. and Europe imposed sanctions on cert&lt;mark&gt;ai&lt;/mark&gt;n entities in response to Russia's invasion of Ukraine, financial-services firms world-wide have struggled with the complex logistics of removing a major economy out of the global financial system.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Fund managers may—or may not—be allowed to bring in a new limited partner to replace the sanctioned one, or to call new capital from the rem&lt;mark&gt;ai&lt;/mark&gt;ning limited partners to cover the stake of the investor under sanctions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The large number of private-equity firms forced to grapple with these challenges reflects the sanctions' unprecedented scale, s&lt;mark&gt;ai&lt;/mark&gt;d Brendan Hanifin, a partner at law firm Ropes &amp; Gray LLP who specializes in risks related to international investment.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We've never had sanctions this significant targeting a country whose companies and citizens had such widespread holdings in the global financial system," he s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;No reliable estimates are av&lt;mark&gt;ai&lt;/mark&gt;lable for how much money sanctioned Russian individuals or organizations are holding in U.S. and European private-equity funds.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Private-equity firms had already become leery of Russian investors after the U.S. imposed sanctions in 2014 in response to Russia's annexation of Crimea and support for separatists in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne's Donbas region.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;According to news reports, firms affected by the sanctions include Pamplona, some of whose funds are backed by LetterOne Holdings, an investment firm co-founded by sanctioned Russian billion&lt;mark&gt;ai&lt;/mark&gt;re Mikhail Fridman, and venture-capital firm Fort Ross Ventures, whose backers include sanctioned Moscow-based bank Sberbank PJSC.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The New York Times reported March 21 that sanctioned Russian billion&lt;mark&gt;ai&lt;/mark&gt;re Roman Abramovich had used an intermediary to make numerous investments in private-equity funds and hedge funds in recent years.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Sanctioned Russians may have far more private-equity holdings than anybody yet knows, as a result of the loose rules on private funds for identifying customers, according to the Financial Accountability and Corporate Transparency Coalition, a group that &lt;mark&gt;ai&lt;/mark&gt;ms to fight tax abuse and money laundering.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Private funds are "a black hole" because of their lack of requirements for vetting and reporting investors, s&lt;mark&gt;ai&lt;/mark&gt;d Ryan Gurule, policy director for the FACT Coalition.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"There's no real way to measure the intrusion of oligarch money into that sector, but recent revelations have proven that it has found its way into the [private funds] industry," s&lt;mark&gt;ai&lt;/mark&gt;d Mr. Gurule.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Sometimes it's really difficult to determine who the counterparties are up the ch&lt;mark&gt;ai&lt;/mark&gt;n," said Tamer Soliman, a partner at Mayer Brown LLP who heads the law firm's export control and sanctions practice.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If firms detect a sanctioned entity among their investors, they need to notify the U.S. Treasury Department's Office of Foreign Assets Control, which enforces U.S. sanctions, stop sending distributions or taking capital calls from that investor, and transfer the investor's stake to a blocked account, s&lt;mark&gt;ai&lt;/mark&gt;d Mr. Hanifin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Pamplona s&lt;mark&gt;ai&lt;/mark&gt;d March 24 it would liquidate three funds in which LetterOne, its largest investor, held an interest.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But that process may not be so str&lt;mark&gt;ai&lt;/mark&gt;ghtforward, experts say.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Pamplona didn't provide many det&lt;mark&gt;ai&lt;/mark&gt;ls on how it planned to liquidate the funds, which it said could be through a secondary sale of fund assets and direct investments.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We have removed all sanctioned individuals from all influence, control or benefit from LetterOne and are focused on protecting the 120,000 jobs our investments support while allocating $150 million and all dividends to &lt;mark&gt;ai&lt;/mark&gt;d efforts for the victims of this unjustifiable war," a LetterOne spokesman said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In some cases, the agreements may be written in a way that allows the sponsor to recoup fund expenses from the sanctioned entity, or to r&lt;mark&gt;ai&lt;/mark&gt;se money from a new investor to cover the sanctioned investor's portion of the fund, lawyers say.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Regardless, the headache of having a sanctioned limited partner, and the potential public-relations fallout, is likely to make buyout firms wary of taking money even from Russians who aren't sanctioned, s&lt;mark&gt;ai&lt;/mark&gt;d Mr. Hanifin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"I would be surprised to see many U.S. sponsors accepting Russian investors after this," he s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Chris Cumming at chris.cumming@wsj.com IN i81502 : Trusts/Funds/Financial Vehicles | i8150203 : Private Equity | ibnk : Banking/Credit | ifinal : Financial Services | iinv : Investing/Securities | iwealth : Private Banking/Wealth Management | i814 : Banking | i831 : Financial Investment Services | ialtinv : Alternative Investments NS gtrade : Trade Barriers/Restrictions | gesanc : International Sanctions | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gpir : Politics/International Relations | gcat : Political/General News | gdip : International Relations | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukr&lt;mark&gt;ai&lt;/mark&gt;ne | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Abramovich, Roman IPC I/AMG PUB Dow Jones &amp; Company, Inc. - Enterprise WSJ AN Document RSTPROPE20220405ei4500001 Page 14 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukr&lt;mark&gt;ai&lt;/mark&gt;ne Crisis: Nations World-Wide Pile on Debt to Ease Inflation Pain BY By Tom Fairless, Nicholas Bariyo and Ryan Dube WC 802 words PD 5 April 2022 SN The Wall Street Journal SC J PG A7 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP A surge in food and fuel prices is r&lt;mark&gt;ai&lt;/mark&gt;sing pressure on governments world-wide to pick up the tab for consumers, stretching precarious public finances and intensifying political instability in the shakiest economies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For some countries, the increase may prove too much, r&lt;mark&gt;ai&lt;/mark&gt;sing the specter of political unrest.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Subsidies "might support consumer confidence in the short term, but they also prevent healthy adjustments in the economy," deterring companies and consumers from adjusting to economic shifts, s&lt;mark&gt;ai&lt;/mark&gt;d Jorg Kramer, chief economist at Commerzbank in Frankfurt.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In Europe, Russia's attack on Ukr&lt;mark&gt;ai&lt;/mark&gt;ne saw gasoline and diesel prices make their biggest jumps since the oil shocks of the 1970s against a backdrop of rampant inflation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In Sp&lt;mark&gt;ai&lt;/mark&gt;n, striking truckers caused food shortages in some areas and prompted companies like Danone SA and Heineken NV to warn of production cuts.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Inditex SA, the Spanish apparel maker behind Zara, s&lt;mark&gt;ai&lt;/mark&gt;d the strike could delay getting products to stores.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Inflation in Sp&lt;mark&gt;ai&lt;/mark&gt;n rose to 9.8% in March, according to preliminary figures released last week, the highest level since 1985.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In Sp&lt;mark&gt;ai&lt;/mark&gt;n, strikers have rejected a proposed 500 million euro government aid package as too small.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Governments in the 19-nation eurozone are likely to run budget deficits of about 4.5% of GDP on average this year in part because of new subsidies, s&lt;mark&gt;ai&lt;/mark&gt;d Capital Economics.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The International Monetary Fund has s&lt;mark&gt;ai&lt;/mark&gt;d they tend to benefit richer households that consume more energy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Across Africa, governments struggling to recover from Covid-induced recessions have ret&lt;mark&gt;ai&lt;/mark&gt;ned or reintroduced subsidies and tax breaks, threatening to worsen the continent's debt crisis.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;fuel prices surging ag&lt;mark&gt;ai&lt;/mark&gt;n, many African nations are caught in the middle, unraveling efforts to repair the havoc wrought by the pandemic.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It plans to spend more than $500 million in the next two years to ease spiraling costs, s&lt;mark&gt;ai&lt;/mark&gt;d the treasury.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Egypt, the world's largest wheat impo</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AR </t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>596</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Somalia, one of the hardest-hit countries, faces the specter of famine by midye&lt;mark&gt;ar &lt;/mark&gt;should food prices continue to rise, the rains fail for the fourth consecutive season and international relief efforts fall short, according to the United Nations World Food Program.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Somalia's crisis is complicated by a continuing insurgent w&lt;mark&gt;ar &lt;/mark&gt;conducted by al-Shabaab, the local al Qaeda affiliate.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But they fe&lt;mark&gt;ar &lt;/mark&gt;the world's wealthy donor countries might prove so focused on the war in Europe that they forget the desperate need in Africa.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The w&lt;mark&gt;ar &lt;/mark&gt;between Ethiopia's central government and rebels from the northern Tigray region has worsened that country's food crisis and slowed aid flows to those in need.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Europe News SE World HD What Is a W&lt;mark&gt;ar &lt;/mark&gt;Crime?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;PHOTO: Christopher Occhicone for The Wall Street Journal TD Russia's invasion of Ukraine has brought allegations of w&lt;mark&gt;ar &lt;/mark&gt;crimes against President Vladimir Putin and his army, including accusations from the U.S., raising the question of whether he or his commanders will ultimately be charged.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukrainian President Volodymyr Zelensky said more than 300 civilians were killed or tortured in and around the Kyiv suburb of Bucha after Russian troops withdrew, prompting condemnation by Western governments, who pledged they would help gather evidence for investigations into potential w&lt;mark&gt;ar &lt;/mark&gt;crimes by Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. government subsequently accused Russian forces in Ukraine of committing w&lt;mark&gt;ar &lt;/mark&gt;crimes, a formal move designed to preserve information and evidence for future review.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It is easier to try commanders on the ground for alleged w&lt;mark&gt;ar &lt;/mark&gt;crimes than the political leaders who ordered them into the field.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Meanwhile, reports of wider abuses are mounting as Ukrainian officials and independent rights watchdogs say they are uncovering evidence of w&lt;mark&gt;ar &lt;/mark&gt;crimes perpetrated by occupation forces.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;What constitutes a w&lt;mark&gt;ar &lt;/mark&gt;crime?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;W&lt;mark&gt;ar &lt;/mark&gt;crimes are broadly defined and include willfully killing or causing suffering, widespread destruction and seizing of property, deliberately targeting civilian populations, in addition to other serious violations of laws applicable in armed conflict.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Khan, the ICC prosecutor, said there was already a reasonable basis to believe that both w&lt;mark&gt;ar &lt;/mark&gt;crimes and crimes against humanity had taken place in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He described an attack on Freedom Square in the eastern city of Kharkiv as a w&lt;mark&gt;ar &lt;/mark&gt;crime and has called on the West to help stop "the crime Russia is committing" in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Human Rights Watch said it had documented several cases of w&lt;mark&gt;ar &lt;/mark&gt;crimes by Russian military forces in areas around Chernihiv, Kharkiv and Kyiv.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Following the reports of mass graves, President Biden called for a war-crimes trial and said Mr. Putin was a w&lt;mark&gt;ar &lt;/mark&gt;criminal who must be held accountable for the war in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We have to get all the detail so this can be an actual w&lt;mark&gt;ar &lt;/mark&gt;crime trial.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Based on information currently available, the U.S. government assesses that members of Russia's forces have committed w&lt;mark&gt;ar &lt;/mark&gt;crimes in Ukraine."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The court's prosecutor in 2018 said it found a reasonable basis that w&lt;mark&gt;ar &lt;/mark&gt;crimes—including torture, rape and the intentional targeting of civilians—had taken place in eastern regions of Ukraine, where Russian-backed separatists were fighting the central government.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The initial Geneva Convention was adopted in 1864, and four additional treaties were introduced in 1949 after World W&lt;mark&gt;ar &lt;/mark&gt;II.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Will Putin be prosecuted for w&lt;mark&gt;ar &lt;/mark&gt;crimes?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Germany did this in January when a court there sentenced a former Syrian intelligence officer to prison in relation to crimes against humanity committed during the civil w&lt;mark&gt;ar &lt;/mark&gt;there.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;French prosecutors have said they would begin their own investigation into alleged w&lt;mark&gt;ar &lt;/mark&gt;crimes in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;French law allows them to conduct an investigation outside of French territory if a w&lt;mark&gt;ar &lt;/mark&gt;crime targets French people or is committed by a French national or resident.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;What Is a W&lt;mark&gt;ar &lt;/mark&gt;Crime?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia Faces Accusations as Civilian Casualties in Ukraine Grow NS gw&lt;mark&gt;ar &lt;/mark&gt;: War Crimes | gcrim : Crime/Legal Action | gvexe : Executive Branch | gvio : Military Action | gcat : Political/General News | gmurd : Murder/Manslaughter | gdip : International Relations | gpir : Politics/International Relations | gpol : Domestic Politics | gvbod : Page 6 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As the Russia-Ukraine w&lt;mark&gt;ar &lt;/mark&gt;was raging on March 30, Chinese Foreign Minister Wang Yi welcomed to China Russian Foreign Minister Sergei Lavrov and reiterated support for Beijing's recent alignment pact.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The w&lt;mark&gt;ar &lt;/mark&gt;and related sanctions have neverthelessdisrupted Chinese trade, and capacity constraints will limit its near-term ability to significantly boost imports from Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In 2013, Mr. Xi signed a Chinese pledge of unspecified security guarantees for Ukraine in the event of a nucle&lt;mark&gt;ar &lt;/mark&gt;attack.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Nucle&lt;mark&gt;ar &lt;/mark&gt;experts have debated the statement's meaning.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some interpret the pledge as something more than the assurances nuclear-armed states routinely provide nonnucle&lt;mark&gt;ar &lt;/mark&gt;ones—one that under some scenarios could pit Beijing against Moscow.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On China's side, the U.S.'s firming up of ties with allies—including a U.S.-U.K. nucle&lt;mark&gt;ar &lt;/mark&gt;submarine deal with Australia—have strengthened the desire to counter Washington.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As the Ukraine w&lt;mark&gt;ar &lt;/mark&gt;has appeared to tighten U.S.-Europe ties, China has called on Europe to develop an independent China policy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But China's position on NATO isn't a surprise: The alliance last ye&lt;mark&gt;ar &lt;/mark&gt;signaled it would devote more resources to security threats posed by China, even while seeking to deter Russian aggression.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM U.S. Economy SE Economy HD U.S. Trade Deficit Narrowed Slightly in February; Imports and exports both rose on cusp of w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine BY By Josh Zumbrun WC 700 words PD 5 April 2022 ET 19:56 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Andrew Hunter, a senior U.S. economist for Capital Economics, said the high deficit to start the ye&lt;mark&gt;ar &lt;/mark&gt;likely shaved 2.5 percentage points off GDP for the first quarter of 2022, which he estimates will now grow at a seasonally adjusted annual rate of between 1% and 1.5%.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia invaded Ukraine on Feb. 24, meaning most U.S. imports for February were on the water or at U.S. ports before the w&lt;mark&gt;ar &lt;/mark&gt;started.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Economists expect, however, that the w&lt;mark&gt;ar &lt;/mark&gt;will lead to greater supply-chain disruptions in the months ahead.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Sanctioned Russians may have f&lt;mark&gt;ar &lt;/mark&gt;more private-equity holdings than anybody yet knows, as a result of the loose rules on private funds for identifying customers, according to the Financial Accountability and Corporate Transparency Coalition, a group that aims to fight tax abuse and money laundering.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In mid-March, France staved off a simil&lt;mark&gt;ar &lt;/mark&gt;strike with a 400 million euro relief package, equivalent to $442 million, that includes direct payments to truckers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Governments in the 19-nation eurozone are likely to run budget deficits of about 4.5% of GDP on average this ye&lt;mark&gt;ar &lt;/mark&gt;in part because of new subsidies, said Capital Economics.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Economists say Asian countries are in better shape to weather the inflationary shock from the w&lt;mark&gt;ar &lt;/mark&gt;than they were in previous crises, with sounder public finances and reduced reliance on foreign capital.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In India, the government has budgeted about $40 billion for a food and fertilizer subsidy program for the fiscal ye&lt;mark&gt;ar &lt;/mark&gt;through March 2023, aimed at supporting consumers and farmers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP BUCHA, Ukraine -- Western leaders vowed to investigate alleged w&lt;mark&gt;ar &lt;/mark&gt;crimes in Ukraine and impose new penalties on Moscow over reports of Russian atrocities against Ukrainian civilians that have sparked international condemnation and outrage.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"It is very cle&lt;mark&gt;ar &lt;/mark&gt;today that there are clear indications of war crimes," Mr. Macron said on French radio.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An explosion sounded but the combat engineers crowding the sidewalk ne&lt;mark&gt;ar &lt;/mark&gt;the administrative headquarters paid little notice.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Tatiana Aleksandrovna said a Russian soldier had shot a woman standing ne&lt;mark&gt;ar &lt;/mark&gt;her.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The European Commission, the EU's executive body, said Monday that it had set up a joint team with Ukrainian authorities to investigate w&lt;mark&gt;ar &lt;/mark&gt;crimes in Ukraine, and the State Department said the U.S. was assisting the Ukrainian prosecutor general's war crimes unit in collecting, preserving, and analyzing evidence of atrocities there.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In mid-March, the U.S. government formally accused Russian forces in Ukraine of committing w&lt;mark&gt;ar &lt;/mark&gt;crimes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS gcrim : Crime/Legal Action | gvexe : Executive Branch | gmurd : Murder/Manslaughter | gpol : Domestic Politics | grape : Sex Crimes | gvio : Military Action | gw&lt;mark&gt;ar &lt;/mark&gt;: War Crimes | nmajev : Major News Events | npag : Page One Stories | ntop : Top Wire News | gcat : Political/General News | gcns : National/Public Security | gpir : Politics/International Relations | grisk : Risk News | gvbod : Government Bodies | ncat : Content Types | ndj : Dow Jones Top Stories | redit : Selection of Top Stories/Trends/Analysis RE ukrn : Ukraine | russ : Russia | fra : France | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eecz : European Union Countries | eeurz : Central/Eastern Europe | eurz : Europe | medz : Mediterranean | namz : North America | ussrz : CIS Countries | weurz : Western Europe IPC EXE PUB Dow Jones &amp; Company, Inc. AN Document J000000020220405ei450001n Page 19 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Crude extended gains Tuesday morning as the U.S. and Europe were expected to add to sanctions on Russia in response to mounting evidence of w&lt;mark&gt;ar &lt;/mark&gt;crimes in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Oil company executives, for their part, will appe&lt;mark&gt;ar &lt;/mark&gt;before Congress on Wednesday to justify the hikes and explain they are not price gouging.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE Daily HD The Hidden W&lt;mark&gt;ar &lt;/mark&gt;Tax Imposed by Russia's Invasion BY By Leslie Lipschitz and Josh Felman WC 1,399 words PD 5 April 2022 ET 13:30 SN Barron's Online SC BON LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP About the authors: Leslie Lipschitz , former director of the IMF Institute, has taught at Johns Hopkins University and Bowdoin College, been a guest schol&lt;mark&gt;ar &lt;/mark&gt;at the Brookings Institution, and an advisor at Investec Asset Management.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's w&lt;mark&gt;ar &lt;/mark&gt;has caused prices of many commodities, including energy and food, to soar.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;According to the U.K. Office for Budget Responsibility, this ye&lt;mark&gt;ar &lt;/mark&gt;could see the largest reduction in British living standards since records began in 1956.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD In economic terms, the w&lt;mark&gt;ar &lt;/mark&gt;is imposing a large terms-of-trade loss—that is, a jump in prices of imports relative to those of exports—on commodity importing countries.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Although the duration and denouement of the w&lt;mark&gt;ar &lt;/mark&gt;and the sanctions imposed are unknowable, thinking through scenarios can be informative.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;F&lt;mark&gt;ar &lt;/mark&gt;better, then, to pursue a firm monetary policy, which pushes back against the inevitable inflation pressures.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia is currently earning large "rents" from its oil and gas exports—that is, current prices are f&lt;mark&gt;ar &lt;/mark&gt;above its production costs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Hidden W&lt;mark&gt;ar &lt;/mark&gt;Tax Imposed by Russia's Invasion CO bwdcg : Bowdoin College | offbur : Office for Budget Responsibility | imonf : International Monetary Fund Page 25 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP We are only six weeks into Vladimir Putin's w&lt;mark&gt;ar &lt;/mark&gt;against Ukraine, but the conflict has already settled into a familiar pattern.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In the Second Punic W&lt;mark&gt;ar &lt;/mark&gt;(218-201 B.C.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Roman power survived, and the w&lt;mark&gt;ar &lt;/mark&gt;dragged on.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;World W&lt;mark&gt;ar &lt;/mark&gt;I started out in much the same way.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Something simil&lt;mark&gt;ar &lt;/mark&gt;seems to be happening with Mr. Putin's war.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Now both sides are stuck with a w&lt;mark&gt;ar &lt;/mark&gt;that neither knows how to win, and it is difficult to see the outlines of a compromise peace that both sides can accept.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine cannot accept a peace that leaves it exposed to further Russian aggression and that involves further territorial sacrifice, and Mr. Putin cannot end the w&lt;mark&gt;ar &lt;/mark&gt;without demonstrable gains at the expense of Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To force Russia to accept failure in Ukraine, the Biden administration would likely have to shift to a wartime mentality, perhaps including the kind of nucle&lt;mark&gt;ar &lt;/mark&gt;brinkmanship not seen since the Cuban missile crisis of Page 27 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;uncle&lt;mark&gt;ar &lt;/mark&gt;why Gazprom transferred the ownership, and the company hasn't communicated its intention to the government, the official said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Many have joined the fight as part of the Territorial Defense, where they are "a great help to the regul&lt;mark&gt;ar &lt;/mark&gt;military," former Defense Minister Andriy Zagorodnyuk says.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But since w&lt;mark&gt;ar &lt;/mark&gt;broke out, it has served as a small factory, churning out defensive equipment.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The w&lt;mark&gt;ar &lt;/mark&gt;has displaced as many as 1 in 4 Ukrainians.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Internal refugees I interviewed said they fe&lt;mark&gt;ar &lt;/mark&gt;becoming a burden, so they have thrown themselves into volunteering.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Since our interview, he has returned to Kharkiv to help cle&lt;mark&gt;ar &lt;/mark&gt;rubble.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukrainians have spent the past eight years strengthening their ability to govern themselves, and a vibrant civil society is proving to be a significant advantage in the w&lt;mark&gt;ar &lt;/mark&gt;against Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;European governments, some of them divided internally on the issue, have so f&lt;mark&gt;ar &lt;/mark&gt;tiptoed around energy imports, with proponents of some form of energy ban -- including Poland, the Baltic states, Sweden and the Netherlands -- accepting that opposition in other capitals remained too strong.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Yet, the emerging reports of potential w&lt;mark&gt;ar &lt;/mark&gt;crimes committed in Bucha -- a town near Kyiv where the bodies of hundreds of people killed during the war were found over the weekend -- have shifted the debate about what the EU should do to stop funding Russia's war effort.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That has pushed capitals that have so f&lt;mark&gt;ar &lt;/mark&gt;trodden carefully on energy sanctions to be more openly supportive.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO euruno : European Union IN i1 : Energy | i111 : Coal Mining | ibasicm : Basic Materials/Resources | ifosfl : Fossil Fuels | imet : Mining/Quarrying NS gesanc : International Sanctions | gvexe : Executive Branch | gcat : Political/General News | e512 : Physical Trade | gdip : International Relations | gpol : Domestic Politics | gtrade : Trade Barriers/Restrictions | gvio : Military Action | gw&lt;mark&gt;ar &lt;/mark&gt;: War Crimes | nmajev : Major News Events | ntop : Top Wire News | reqren : Suggested Reading Energy | e51 : Trade/External Payments | ecat : Economic News | gcns : National/Public Security | gcrim : Crime/Legal Action | gpir : Politics/International Relations | grisk : Risk News | gvbod : Government Bodies | ndj : Dow Jones Top Stories | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE russ : Russia | ukrn : Ukraine | gfr : Germany | eurz : Europe | fra : France | hung : Hungary | asiaz : Asia | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eecz : European Union Countries | eeurz : Central/Eastern Europe | medz : Mediterranean | ussrz : CIS Countries | weurz : Western Europe IPC NRG PUB Dow Jones &amp; Company, Inc. AN Document J000000020220405ei450000x Page 35 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukraine Crisis: Intelligence Sharing Marks New U.S. Front In Information W&lt;mark&gt;ar &lt;/mark&gt;BY By Warren P. Strobel WC 789 words PD 5 April 2022 SN The Wall Street Journal SC J PG A7 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The reality has been f&lt;mark&gt;ar &lt;/mark&gt;more -- 2.4 million Ukrainians have fled to Poland so far.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As many as two million Ukrainians were living in Poland before the w&lt;mark&gt;ar &lt;/mark&gt;began, and many refugees have found shelter with family and friends.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;When the w&lt;mark&gt;ar &lt;/mark&gt;broke out, he was living with his longtime girlfriend.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Still, he insists the family can live this way as long as the w&lt;mark&gt;ar &lt;/mark&gt;lasts: "Compared to Ukraine, we're in good condition."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Since the w&lt;mark&gt;ar &lt;/mark&gt;began, the mother of two has hosted 18 Ukrainians in her living room.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As the w&lt;mark&gt;ar &lt;/mark&gt;drags into its second month, however, the need for permanent housing is growing.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While many Ukrainians want to stay in Poland -- with its famili&lt;mark&gt;ar &lt;/mark&gt;Slavic language, large expat community and proximity to Ukraine -- more refugees are filtering across the continent to places with less competition for accommodation and jobs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Gazprom (GAZP.Russia) has been earning Russia $340 million (€306 million) a day since the w&lt;mark&gt;ar &lt;/mark&gt;started five weeks ago, energy consultant ICIS estimates.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"There is no replacement for the Russian gas that Europe imports," concludes Anne-Sophie Carbeau, a global research schol&lt;mark&gt;ar &lt;/mark&gt;at Columbia University's Center for Global Energy Policy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM National Security SE Politics HD Release of Ukraine Intelligence Represents New Front in U.S. Information W&lt;mark&gt;ar &lt;/mark&gt;With Russia; To fight Kremlin, Biden authorized initiative to declassify and share information with the public and allies BY By Warren P. Strobel WC 1,463 words PD 4 April 2022 ET 19:47 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;So f&lt;mark&gt;ar &lt;/mark&gt;as is known, no sources of U.S. intelligence have been compromised as a result of the disclosure of sanitized spy reports, said one U.S. official with access to such information.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Warren P. Strobel at Warren.Strobel@wsj.com Release of Ukraine Intelligence Represents New Front in U.S. Information W&lt;mark&gt;ar &lt;/mark&gt;With Russia NS gvexe : Executive Branch | gspy : Espionage | gvio : Military Action | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | gpol : Domestic Politics | gvbod : Government Bodies | ncolu : Columns | gcns : National/Public Security | grisk : Risk News | ncat : Content Types RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | usdc : Washington DC | uss : Southern U.S. | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC G/CIA PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220404ei44001p5 Page 44 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM World News SE World HD Europe Faces Pressure to Dial Up Sanctions on Russia Over Ukraine Deaths; EU leaders consider limits on Moscow's energy exports following allegations of w&lt;mark&gt;ar &lt;/mark&gt;crimes in Bucha BY By Laurence Norman and Bojan Pancevski WC 975 words PD 5 April 2022 ET 00:37 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;European governments, some of them divided internally on the issue, have so f&lt;mark&gt;ar &lt;/mark&gt;tiptoed around energy imports, with proponents of some form of energy ban—including Poland, the Baltic States, Sweden and the Netherlands—accepting that opposition in other capitals remained too strong.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Yet the emerging reports of potential w&lt;mark&gt;ar &lt;/mark&gt;crimes committed in Bucha—a town near Kyiv where the bodies of hundreds of people killed during the war were found over the weekend—has shifted the debate over what the EU should do to stop funding Russia's war effort.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That has pushed capitals that have so f&lt;mark&gt;ar &lt;/mark&gt;trodden carefully on energy sanctions to be more openly supportive.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Monday's expulsion orders dwarf simil&lt;mark&gt;ar &lt;/mark&gt;decisions taken by Paris and Berlin in the past to remove Russian diplomats.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Germany, Austria and Hungary's newly re-elected government have so f&lt;mark&gt;ar &lt;/mark&gt;led the opposition to energy-import bans, although German officials have repeatedly signaled wiggle room on oil and coal import bans.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Monday, the European Commission announced it had set up a Joint Investigative Team with Ukrainian authorities to investigate w&lt;mark&gt;ar &lt;/mark&gt;crimes in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Laurence Norman at laurence.norman@wsj.com and Bojan Pancevski at bojan.pancevski@wsj.com Europe Faces Pressure to Dial Up Sanctions on Russia Over Ukraine Deaths CO euruno : European Union IN i1 : Energy NS gesanc : International Sanctions | gdip : International Relations | gcat : Political/General News | gvexe : Executive Branch | e51 : Trade/External Payments | ecat : Economic News | gcrim : Crime/Legal Action | gpir : Politics/International Relations | gpol : Domestic Politics | gtrade : Trade Barriers/Restrictions | gvio : Military Action | gw&lt;mark&gt;ar &lt;/mark&gt;: War Crimes | ncolu : Columns | nmajev : Major News Events | gcns : National/Public Security | grisk : Risk News | gvbod : Government Bodies | ncat : Content Types | ndj : Dow Jones Top Stories | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ukrn : Ukraine | gfr : Germany | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Wires IPC M/ENE Page 46 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM World News SE World HD Ukraine W&lt;mark&gt;ar &lt;/mark&gt;Drives Countries to Embrace Renewable Energy—but Not Yet; Many nations are speeding up plans to transition to green energy, while leaning even more on oil, gas and coal in the near term BY By Jenny Strasburg and Phred Dvorak WC 2,004 words PD 4 April 2022 ET 21:16 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Russia's invasion of Ukraine has led countries to te&lt;mark&gt;ar &lt;/mark&gt;up their timelines to transition from fossil fuels.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For the ne&lt;mark&gt;ar &lt;/mark&gt;term, many countries are leaning even more on fossil fuels.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD At the same time, many, especially in Europe, are accelerating plans to switch to green energy such as wind and sol&lt;mark&gt;ar &lt;/mark&gt;power.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some are revisiting nucle&lt;mark&gt;ar &lt;/mark&gt;power.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The energy shock tied to Russia's w&lt;mark&gt;ar &lt;/mark&gt;on Ukraine is testing nations' resolve to rapidly reduce carbon emissions to combat global warming, as more than 190 nations have pledged to do under the Paris agreement.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While European leaders have been reluctant to place sanctions on the Russian energy supplies that the continent relies on, French President Emmanuel Macron called for such a move on Monday, citing evidence of w&lt;mark&gt;ar &lt;/mark&gt;crimes in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. now plans to boost liquefied natural gas shipments to Europe, aiming to ship 50 billion or more cubic meters a ye&lt;mark&gt;ar &lt;/mark&gt;through at least 2030, to help meet the continent's demand.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The w&lt;mark&gt;ar &lt;/mark&gt;has triggered emotional pleas from European politicians and environmentalists who see Russia's aggression as the clearest reason yet to cut use of fossil fuels that financially support President Vladimir Putin's government.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"They don't produce sol&lt;mark&gt;ar &lt;/mark&gt;panels or wind turbines," said Borislav Sandov, Bulgaria's deputy prime minister for climate and environmental policy, of Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The company said last week that it is teaming up with German energy group E.ON SE to supply green hydrogen to replace Russian gas, a multibillion-doll&lt;mark&gt;ar &lt;/mark&gt;effort to sate European energy needs with fuel made using water and Australian wind and solar power.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In Belgium, government officials plan to postpone longstanding plans to decommission two 1980s-era nucle&lt;mark&gt;ar &lt;/mark&gt;reactors by 2025.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The spokesman said those plants can help supply power while the Doel and Tihange nucle&lt;mark&gt;ar &lt;/mark&gt;reactors get necessary upgrades.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The commission is proposing to double the pace of deploying heat pumps—electrical devices that can replace traditional gas furnaces—and speed up widespread installation of rooftop sol&lt;mark&gt;ar &lt;/mark&gt;systems to generate more electricity without fossil fuels.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Adding to the complexity, higher commodity prices and supply-chain issues have raised the cost of wind and sol&lt;mark&gt;ar &lt;/mark&gt;farms, which face lengthy regulatory approval processes, lawyers and investors said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.K. plans to increase investment in sol&lt;mark&gt;ar &lt;/mark&gt;projects and offshore wind power.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SHARE YOUR THOUGHTS What does the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine mean for the transition to green energy?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Jenny Strasburg at jenny.strasburg@wsj.com and Phred Dvorak at phred.dvorak@wsj.com Ukraine W&lt;mark&gt;ar &lt;/mark&gt;Drives Countries to Embrace Renewable Energy—but Not Yet CO bp : BP PLC IN i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | ifosfl : Fossil Fuels | iioil : Integrated Oil/Gas NS gvexe : Executive Branch | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | genv : Natural Environment | gesanc : International Sanctions | gpir : Politics/International Relations | gsust : Sustainable Development/Sustainability | gtrade : Trade Barriers/Restrictions | ncolu : Columns | nimage : Images | nmajev : Major News Events | npda : DJ Exclusive Analysis - All | c11 : Corporate Strategy/Planning | cenvire : Corporate Environmental Responsibility | gcat : Political/General News | cesg : Environmental/Social/Governance | gdip : International Relations | gpol : Domestic Politics | gvbod : Government Bodies | ncat : Content Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC ALV.XE PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220404ei44003s5 Page 51 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The seizure of the Tango "makes cle&lt;mark&gt;ar &lt;/mark&gt;that corrupt Russian oligarchs cannot evade sanctions to live a life of luxury as innocent Ukranians are suffering," said Deputy Attorney General Lisa Monaco, whose office is overseeing the task force.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Since the start of the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine, police in Spain, Italy, France and other European countries have been sequestering yachts, real estate and other assets owned by sanctioned Russians with connections to Mr. Putin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE Daily HD Exxon Says Russia F&lt;mark&gt;ar &lt;/mark&gt;East Exit May Cost $4 Billion BY By Brian Swint WC 248 words PD 4 April 2022 ET 20:01 SN Barron's Online SC BON LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The stock ticked 0.7% higher in premarket trading Monday and is close to 36% up ye&lt;mark&gt;ar &lt;/mark&gt;to date.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to editors@barrons.com Exxon Says Russia F&lt;mark&gt;ar &lt;/mark&gt;East Exit May Cost $4 Billion CO exxn : Exxon Mobil Corporation IN ifosfl : Fossil Fuels | i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | iioil : Integrated Oil/Gas NS ccat : Corporate/Industrial News RE russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | ukrn : Ukraine | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Energy IPC 500312.BY PUB Dow Jones &amp; Company, Inc. AN Document BON0000020220404ei440018h Page 54 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Ukrainian President Volodymyr Zelensky addressed the crowd at the Grammy Awards Sunday night with an emotional message asking for support for his country's w&lt;mark&gt;ar &lt;/mark&gt;effort.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Our musicians we&lt;mark&gt;ar &lt;/mark&gt;body armor instead of tuxedos."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Tell the truth about this w&lt;mark&gt;ar &lt;/mark&gt;on your social networks, on TV," he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While there were calls for Mr. Zelensky, who was an actor before becoming a wartime leader, to make an address at last week's Oscars, he didn't appe&lt;mark&gt;ar &lt;/mark&gt;on the show.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE WSJ Pro HD Tailwater Capital's Herring Sees Promise in ‘Gasification' of the Economy; Edward Herring, a co-founder and managing partner at Tailwater Capital, said the Russia-Ukraine w&lt;mark&gt;ar &lt;/mark&gt;reinforces the private-equity firm's conviction on the importance of natural gas in the transition to clean-energy sources BY By Luis Garcia WC 598 words PD 4 April 2022 ET 16:30 SN WSJ Pro Private Equity SC RSTPROPE LA English CY Copyright © 2022, Dow Jones &amp; Company, Inc. LP Private-equity firm Tailwater Capital is a big believer that natural gas will be critical for facilitating the economy's shift to clean-energy sources.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The firm last ye&lt;mark&gt;ar &lt;/mark&gt;acquired NorTex Midstream Partners LLC, a Houston-based operator of underground systems where utilities and power generators can store natural gas and retrieve it when needed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Herring spoke to WSJ Pro Private Equity about how the Ukraine-Russia w&lt;mark&gt;ar &lt;/mark&gt;can help change investors' view of natural gas, while reinforcing Tailwater's own investment strategy, as well as the conflict's possible implications for the U.S. natural-gas industry.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;WSJ Pro: How do you see the Ukraine-Russia w&lt;mark&gt;ar &lt;/mark&gt;and the resulting rise in commodity prices affecting U.S. energy markets?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Whether the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine and the implications on Europe are the catalyst, I don't know.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM WSJ Podcast Minute Briefing HD Ukraine Alleges W&lt;mark&gt;ar &lt;/mark&gt;Crimes Following Russian Retreats WC 346 words PD 4 April 2022 ET 15:31 SN WSJ Podcasts SC WSJPOD LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukrainian of</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Ecosystem</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The deal which still requires approval from Congress is the result of four years of talks between groups long at odds over issues including vanishing fish populations and changes to river &lt;mark&gt;ecosystem&lt;/mark&gt;s.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>metaverse</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>5</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;—Joe Woelfel and Megan Cassella *** &lt;mark&gt;Metaverse&lt;/mark&gt; Could Become a $13 Trillion Market by 2030 The metaverse economy, encompassing virtual worlds such as gaming and virtual reality as well as smart manufacturing, online events, and digital currency, could become an $8 trillion to $13 trillion total market by 2030, Citi said in a research report.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;* Even though investments tied to the &lt;mark&gt;metaverse&lt;/mark&gt; have been underperforming, Citi said the metaverse could see five billion unique internet visitors by the end of the decade, driving trillions of dollars in revenue.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;* &lt;mark&gt;Metaverse&lt;/mark&gt; gaming companies include Fortnite maker Epic Games, Roblox, Ubisoft Entertainment, and Microsoft, which owns Minecraft.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;* Citi is the latest banking giant to call the &lt;mark&gt;metaverse&lt;/mark&gt; and web 3.0 a multi-trillion-dollar opportunity.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Goldman Sachs in December valued the &lt;mark&gt;metaverse&lt;/mark&gt; at $12.5 trillion, an outlook that assumes one-third of the digital economy becomes virtual and then expands another 25%.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>VR</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>23</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;As the Russia-Ukraine war was raging on March 30, Chinese Foreign Minister Wang Yi welcomed to China Russian Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov and reiterated support for Beijing's recent alignment pact.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;His national security adviser, Jake Sullivan, was a prime architect and oversaw execution of the initiative, U.S. officials said, with support from Secretary of State Antony Blinken, CIA Director William Burns and Director of National Intelligence A&lt;mark&gt;vr&lt;/mark&gt;il Haines.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;His national security adviser, Jake Sullivan, was a prime architect and oversaw execution of the initiative, U.S. officials said, with support from Secretary of State Antony Blinken, CIA Director William Burns and Director of National Intelligence A&lt;mark&gt;vr&lt;/mark&gt;il Haines.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Director of National Intelligence A&lt;mark&gt;vr&lt;/mark&gt;il Haines warned that Russian forces could be ready to attack by the end of January 2022.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP NEW DELHI -- Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov said Russia appreciates India's stance on the Ukraine invasion and is ready to cooperate on trade, as countries on both sides of the Ukraine war have ramped up efforts to pull New Delhi closer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. La&lt;mark&gt;vr&lt;/mark&gt;ov is one in a string of top foreign officials who have been dispatched to woo the Indian government since the conflict began in late February.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. La&lt;mark&gt;vr&lt;/mark&gt;ov said the longstanding ties between Russia and India have outlasted "many difficult times in the past."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov at a press briefing said Moscow supported the talks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Negotiations must continue," Mr. La&lt;mark&gt;vr&lt;/mark&gt;ov said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Director of National Intelligence A&lt;mark&gt;vr&lt;/mark&gt;il Haines warned that Russian forces could be ready to attack by the end of January 2022.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO &lt;mark&gt;vr&lt;/mark&gt;trpr : Vertical Research Partners LLC | lckhed : Lockheed Martin Corporation IN i1 : Energy | iaer : Aerospace/Defense | ibnk : Banking/Credit | icnp : Consumer Goods | idef : Defense Equipment/Products | ifinal : Financial Services | iindstrls : Industrial Goods | iinv : Investing/Securities | iwealth : Private Banking/Wealth Management | i814 : Banking | i831 : Financial Investment Services | i83108 : Investment Advice/Research Services NS e211 : Government Budget/Taxation | ecat : Economic News | gdef : Armed Forces | e21 : Government Finance | gcat : Political/General News | gcns : National/Public Security RE eurz : Europe | uk : United Kingdom | ukrn : Ukraine | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Preview IPC ACN PUB Dow Jones &amp; Company, Inc. AN Document BON0000020220401ei410040h Page 131 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM World News SE World HD Russia Says It Is Ready to Supply Any Goods India Wants to Buy; Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov said Moscow appreciated New Delhi's stance on the Ukraine War and was ready to cooperate on trade BY By Shan Li WC 795 words PD 1 April 2022 ET 18:59 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP NEW DELHI—Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov said Russia appreciated India's stance on the Ukraine invasion and is ready to cooperate on trade, as countries on both sides of the Ukraine war have ramped up efforts to pull New Delhi closer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. La&lt;mark&gt;vr&lt;/mark&gt;ov is one in a string of top foreign officials who have been dispatched to woo the Indian government since the conflict began in late February.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Friday, Mr. La&lt;mark&gt;vr&lt;/mark&gt;ov said that the longstanding ties between Russia and India have outlasted "many difficult times in the past."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On March 2 A&lt;mark&gt;vr&lt;/mark&gt;aham Wolff, Odessa's chief rabbi and Chabad representative, sent some 120 children and staff from his community's children's home to Berlin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The 2020 SolarWinds hack by the Russian intelligence service S&lt;mark&gt;VR&lt;/mark&gt; compromised hundreds of prominent U.S. companies and federal agencies, including Defense and Homeland Security.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In a case outside Russia also widely regarded as "hostage diplomacy," two Canadian businessmen—Michael Spavor and Michael Ko&lt;mark&gt;vr&lt;/mark&gt;ig—were arrested in China in December 2018, just over a week after Canadian police arrested Huawei Technologies Co. Chief Financial Officer Meng Wanzhou at the request of U.S. authorities, who accused her of bank fraud.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov, speaking in China on Wednesday, said Moscow remained committed to peace talks and de-escalation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Anton A&lt;mark&gt;vr&lt;/mark&gt;ynskyi's online medication-delivery service, Liki24.com, relies on messaging apps like Telegram and WhatsApp to find out where to get fuel for its delivery vans.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukrposhta, or private courier Nova Poshta can't deliver medicines to a besieged city, Mr. A&lt;mark&gt;vr&lt;/mark&gt;ynskyi turns to volunteers who provide vehicles and drivers free.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The EU's sanctions have already targeted Russian Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov's son-in-law and the former wife of Igor Sechin, the chief executive of oil producer Rosneft.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov on March 1 accused Ukraine of seeking to acquire nuclear weapons without providing any evidence.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Write to Jenny Strasburg at jenny.strasburg@wsj.com and Phred Dvorak at phred.dvorak@wsj.com Ukraine War Drives Countries to Embrace Renewable Energy—but Not Yet CO bp : BP PLC IN i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | ifosfl : Fossil Fuels | iioil : Integrated Oil/Gas NS gvexe : Executive Branch | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | genv : Natural Environment | gesanc : International Sanctions | gpir : Politics/International Relations | gsust : Sustainable Development/&lt;mark&gt;Sustainability&lt;/mark&gt; | gtrade : Trade Barriers/Restrictions | ncolu : Columns | nimage : Images | nmajev : Major News Events | npda : DJ Exclusive Analysis - All | c11 : Corporate Strategy/Planning | cenvire : Corporate Environmental Responsibility | gcat : Political/General News | cesg : Environmental/Social/Governance | gdip : International Relations | gpol : Domestic Politics | gvbod : Government Bodies | ncat : Content Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC ALV.XE PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220404ei44003s5 Page 51 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;JPMorgan, a self-styled leader on &lt;mark&gt;sustainability&lt;/mark&gt; in finance, announced this month that it will cut Russia from its indexes.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Funding</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>11</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Digital investment</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;"It's likely the Ukraine crisis will make donors look more inward, and our humanitarian response plan won't receive anything close to adequate &lt;mark&gt;funding&lt;/mark&gt;," said Adam Abdelmoula, the U.N. humanitarian coordinator in Somalia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Yet, the emerging reports of potential war crimes committed in Bucha -- a town near Kyiv where the bodies of hundreds of people killed during the war were found over the weekend -- have shifted the debate about what the EU should do to stop &lt;mark&gt;funding&lt;/mark&gt; Russia's war effort.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Yet the emerging reports of potential war crimes committed in Bucha—a town near Kyiv where the bodies of hundreds of people killed during the war were found over the weekend—has shifted the debate over what the EU should do to stop &lt;mark&gt;funding&lt;/mark&gt; Russia's war effort.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The intergovernmental security group took the rare step of dispatching 316 observers on Sunday; it found the last election, in 2018, free but not fair, citing restricted media freedoms and state &lt;mark&gt;funding&lt;/mark&gt; for Mr. Orban's ruling party.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In Brussels, the EU has been weighing whether to cut &lt;mark&gt;funding&lt;/mark&gt; for Hungary.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The EUhas begun withholding funds for Hungary, on the grounds that the money could be lost to corruption—and is under pressure from EU lawmakers to further slash &lt;mark&gt;funding&lt;/mark&gt; if Mr. Orban's time in power continues.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Mengqi Sun at mengqi.sun@wsj.com S&amp;P Global Settles Allegations It Violated Russia Sanctions CO rsneft : Rosneft Oil Company OJSC | mcgrwh : S&amp;P Global Inc. | rosnft : Rosneftegaz IN i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | i81501 : Credit Types/Services | ifinal : Financial Services | ibnk : Banking/Credit | ifosfl : Fossil Fuels | i8395416 : Rating Agencies | iioil : Integrated Oil/Gas NS gesanc : International Sanctions | cacqu : Acquisitions/Mergers | ccat : Corporate/Industrial News | c12 : Corporate Crime/Legal Action | c173 : Financing Agreements | cactio : Corporate Actions | e51 : Trade/External Payments | ecat : Economic News | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | gcat : Political/General News | c17 : Corporate &lt;mark&gt;Funding&lt;/mark&gt; | c18 : Ownership Changes | c181 : Acquisitions/Mergers/Shareholdings | gdip : International Relations | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Wires IPC I/FIS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220401ei410080x Page 129 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An increase in &lt;mark&gt;funding&lt;/mark&gt; for law enforcement c. A 20% minimum tax on the wealthiest Americans d. All of the above 4.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Kristin Broughton at Kristin.Broughton@wsj.com Some Companies Put M&amp;A on Hold Amid Russian War on Ukraine CO firey : Spectris PLC IN iindele : Industrial Electronics | iindstrls : Industrial Goods | itech : Technology | i3442 : Environmental Control Systems NS cacqu : Acquisitions/Mergers | c181 : Acquisitions/Mergers/Shareholdings | ccat : Corporate/Industrial News | c17 : Corporate &lt;mark&gt;Funding&lt;/mark&gt; | cactio : Corporate Actions | ncolu : Columns | c18 : Ownership Changes | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC 9984.TO PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220401ei41000um Page 152 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The designation could help mining companies get government &lt;mark&gt;funding&lt;/mark&gt; for feasibility studies on mining development, productivity and safety improvements, or on how to wring more of these metals out of ore already produced at facilities operating in the U.S.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The government &lt;mark&gt;funding&lt;/mark&gt; could encourage mines to consider adding processing operations -- now almost completely absent in the U.S. -- and persuade lenders and investors that the government won't impede U.S. mining development, lobbyists said.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>XR</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;"It's faster and costs less to send Chinese exports to Europe on trains, but now very little is moving," said George Xiradakis, managing director of Athens-based &lt;mark&gt;XR&lt;/mark&gt;TC Business Consultants and an adviser to China Development Bank.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2705</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;CLM World News SE World HD A Qu&lt;mark&gt;ar&lt;/mark&gt;ter of Africans Face Food-Security Crisis Partly Due to Ukraine War, Red Cross Says; Russia's invasion drives up world food prices and worsens hunger in Africa caused by drought and local conflicts BY By Michael M. Phillips WC 845 words PD 5 April 2022 ET 21:58 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP NAIROBI, Kenya—A qu&lt;mark&gt;ar&lt;/mark&gt;ter of Africa's population is facing a food-security crisis driven by severe drought, raging wars and a rise in world food prices caused by Russia's invasion of Ukraine, the International Committee of the Red Cross warned Tuesday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some 346 million people, from Mauritania in the west to the Horn of Africa in the east, &lt;mark&gt;ar&lt;/mark&gt;e affected by food insecurity, Dominik Stillhart, the agency's global operations director, told reporters in Nairobi.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD "What we don't want to see is the response that comes too late, and that is why it is so important to draw attention to the situation now," Mr. Stillh&lt;mark&gt;ar&lt;/mark&gt;t said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia and Ukraine were major grain suppliers before the w&lt;mark&gt;ar&lt;/mark&gt;, and the conflict is causing pain across the developing world, spurring price shocks, constraining imports of basic commodities and causing food shortages, with poorer nations in Africa especially affected.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Somalia, one of the h&lt;mark&gt;ar&lt;/mark&gt;dest-hit countries, faces the specter of famine by midyear should food prices continue to rise, the rains fail for the fourth consecutive season and international relief efforts fall short, according to the United Nations World Food Program.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some 800,000 Somalis have left their homes in se&lt;mark&gt;ar&lt;/mark&gt;ch of food and water since the beginning of March, and 1.4 million Somali children under five years old will be acutely malnourished by the end of the year, unless donor countries step up their responses, according to the aid agencies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We &lt;mark&gt;ar&lt;/mark&gt;e having to look at prioritizing assistance, which is essentially taking from the hungry to feed the starving," said Petroc Wilton, the WFP's Somalia spokesman.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Wilton recently visited displaced families in a camp in the Somali city of B&lt;mark&gt;ar&lt;/mark&gt;dere, about 210 miles west of Mogadishu, the capital.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"There &lt;mark&gt;ar&lt;/mark&gt;e children there with little more than skin stretched over rib cages and limbs that are barely any more than the bones beneath," he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There &lt;mark&gt;ar&lt;/mark&gt;e 28 such camps around Bardere, he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Aid agencies estimate that in Febru&lt;mark&gt;ar&lt;/mark&gt;y alone Somali families lost 650,000 donkeys, cows and other livestock, a key source of wealth for 40% of the country's population.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Somalia's crisis is complicated by a continuing insurgent w&lt;mark&gt;ar&lt;/mark&gt; conducted by al-Shabaab, the local al Qaeda affiliate.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The WFP in Somalia received a shipment of 1,000 tons of yellow split peas from the Ukrainian port of Odessa in Febru&lt;mark&gt;ar&lt;/mark&gt;y and another shipload in the middle of last month, to be distributed in Somalia and Ethiopia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Relief workers in Africa stress that they don't want to play down Ukraine's humanit&lt;mark&gt;ar&lt;/mark&gt;ian needs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But they fe&lt;mark&gt;ar&lt;/mark&gt; the world's wealthy donor countries might prove so focused on the war in Europe that they forget the desperate need in Africa.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The International Committee of the Red Cross budgeted $1 billion for its work in Africa this ye&lt;mark&gt;ar&lt;/mark&gt;, but remains $800 million short.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"It's likely the Ukraine crisis will make donors look more inw&lt;mark&gt;ar&lt;/mark&gt;d, and our humanitarian response plan won't receive anything close to adequate funding," said Adam Abdelmoula, the U.N. humanitarian coordinator in Somalia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We &lt;mark&gt;ar&lt;/mark&gt;e facing a significant risk of famine in Somalia," Mr. Abdelmoula said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Aid agencies w&lt;mark&gt;ar&lt;/mark&gt;n that hunger could also worsen in Mali and Burkina Faso, West African nations facing drought amid a life-or-death struggle with al Qaeda and Islamic State affiliates.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Red Cross estimates that 29 million West Africans &lt;mark&gt;ar&lt;/mark&gt;e in need of urgent food aid, a number likely to rise by another four million as the lean season progresses.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some 27 million people face acute food insecurity in the Democratic Republic of Congo, along with up to 600,000 in the Central African Republic, according to Mr. Stillh&lt;mark&gt;ar&lt;/mark&gt;t.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The w&lt;mark&gt;ar&lt;/mark&gt; between Ethiopia's central government and rebels from the northern Tigray region has worsened that country's food crisis and slowed aid flows to those in need.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Michael M. Phillips at michael.phillips@wsj.com A Qu&lt;mark&gt;ar&lt;/mark&gt;ter of Africans Face Food-Security Crisis Partly Due to Ukraine War, Red Cross Says CO icrcss : International Committee of the Red Cross NS gfamin : Famine | gdev : Development/Humanitarian Aid | gdroug : Drought | gntdis : Natural Disasters/Catastrophes | gpir : Politics/International Relations | ncolu : Columns | nmajev : Major News Events | gcat : Political/General News | gdip : International Relations | gdis : Disasters/Accidents | grisk : Risk News | gwea : Weather | ncat : Content Types | ndj : Dow Jones Top Stories | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis RE ukrn : Ukraine | somal : Somalia | africaz : Africa | asiaz : Asia | eafrz : East Africa | easiaz : Eastern Asia | eurz : Europe | kenya : Kenya | nairoi : Nairobi | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC N/DJN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220405ei4500439 Page 3 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Europe News SE World HD What Is a W&lt;mark&gt;ar&lt;/mark&gt; Crime?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CX Corrections &amp; Amplifications Ukrainian President Volodymyr Zelensky has zeroed in on what he says is Russia's decision to specifically t&lt;mark&gt;ar&lt;/mark&gt;get civilian populations.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An e&lt;mark&gt;ar&lt;/mark&gt;lier version of this article incorrectly spelled the president's name as Volodymr Zelensksy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;(Corrected on M&lt;mark&gt;ar&lt;/mark&gt;ch 16) Write to James Hookway at James.Hookway@wsj.com LP A battle in Ukraine's capital, Kyiv, left at least 20 Russian armored fighting vehicles destroyed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;PHOTO: Christopher Occhicone for The Wall Street Journal TD Russia's invasion of Ukraine has brought allegations of w&lt;mark&gt;ar&lt;/mark&gt; crimes against President Vladimir Putin and his army, including accusations from the U.S., raising the question of whether he or his commanders will ultimately be charged.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukrainian President Volodymyr Zelensky said more than 300 civilians were killed or tortured in and &lt;mark&gt;ar&lt;/mark&gt;ound the Kyiv suburb of Bucha after Russian troops withdrew, prompting condemnation by Western governments, who pledged they would help gather evidence for investigations into potential war crimes by Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Whether President Putin and his commanders can ultimately be ch&lt;mark&gt;ar&lt;/mark&gt;ged is a complex legal issue, compounded in part by the fact that Russia, like the U.S. and China, isn't a party to the International Criminal Court, which usually hears war-crime cases at its headquarters in the Netherlands.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;ICC prosecutor K&lt;mark&gt;ar&lt;/mark&gt;im Khan four days into the invasion said he would begin an investigation into violations, based on Ukraine's previously agreeing to the court's jurisdiction.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. government subsequently accused Russian forces in Ukraine of committing w&lt;mark&gt;ar&lt;/mark&gt; crimes, a formal move designed to preserve information and evidence for future review.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Secret&lt;mark&gt;ar&lt;/mark&gt;y of State Antony Blinken cited reports of attacks on civilian centers including apartment buildings, schools, hospitals, civilian vehicles and more, adding the sites were clearly identifiable as used by civilians.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It is easier to try commanders on the ground for alleged w&lt;mark&gt;ar&lt;/mark&gt; crimes than the political leaders who ordered them into the field.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If Mr. Putin were to be ch&lt;mark&gt;ar&lt;/mark&gt;ged, he would first have to be arrested in a country that accepts the jurisdiction of the court—something he could easily avoid.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Moscow has rejected w&lt;mark&gt;ar&lt;/mark&gt;-crimes allegations, including accusations that Russia has targeted civilians.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Meanwhile, reports of wider abuses &lt;mark&gt;ar&lt;/mark&gt;e mounting as Ukrainian officials and independent rights watchdogs say they are uncovering evidence of war crimes perpetrated by occupation forces.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia denies the allegations, saying video and photographic images purporting to show civilians bound and shot &lt;mark&gt;ar&lt;/mark&gt;e fakes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;What constitutes a w&lt;mark&gt;ar&lt;/mark&gt; crime?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;W&lt;mark&gt;ar&lt;/mark&gt; crimes are broadly defined and include willfully killing or causing suffering, widespread destruction and seizing of property, deliberately targeting civilian populations, in addition to other serious violations of laws applicable in armed conflict.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Khan, the ICC prosecutor, said there was already a reasonable basis to believe that both w&lt;mark&gt;ar&lt;/mark&gt; crimes and crimes against humanity had taken place in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Zelensky has zeroed in on what he says is Russia's decision to t&lt;mark&gt;ar&lt;/mark&gt;get civilian populations after Ukrainian forces delayed the Russian battalion's initial advance on the capital, Kyiv.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He described an attack on Freedom Squ&lt;mark&gt;ar&lt;/mark&gt;e in the eastern city of Kharkiv as a war crime and has called on the West to help stop "the crime Russia is committing" in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Zelensky tweeted after a Russian strike hit a maternity hospital in M&lt;mark&gt;ar&lt;/mark&gt;iupol on March 9.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Human Rights Watch said it had documented several cases of w&lt;mark&gt;ar&lt;/mark&gt; crimes by Russian military forces in areas around Chernihiv, Kharkiv and Kyiv.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Following the reports of mass graves, President Biden called for a w&lt;mark&gt;ar&lt;/mark&gt;-crimes trial and said Mr. Putin was a war criminal who must be held accountable for the war in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We have to get all the detail so this can be an actual w&lt;mark&gt;ar&lt;/mark&gt; crime trial.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In its w&lt;mark&gt;ar&lt;/mark&gt;-crimes accusation in March against Russian forces operating in Ukraine, the State Department noted the Russian bombardments of a maternity hospital and a theater in the southern coastal city of Mariupol.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Every day that Russia's forces continue their brutal attacks, the number of innocent civilians killed and wounded, including women and children, climbs," Mr. Blinken said on M&lt;mark&gt;ar&lt;/mark&gt;ch 23.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Based on information currently available, the U.S. government assesses that members of Russia's forces have committed w&lt;mark&gt;ar&lt;/mark&gt; crimes in Ukraine."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Legal experts said it would have to be proved that Russian forces were systematically selecting civilian t&lt;mark&gt;ar&lt;/mark&gt;gets.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The International Criminal Court in The Hague he&lt;mark&gt;ar&lt;/mark&gt;s war-crime cases and related matters, including genocide.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Though Ukraine isn't p&lt;mark&gt;ar&lt;/mark&gt;ty to the 1998 Rome statute that established the court, it has previously accepted the court's jurisdiction.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That means that while Ukraine can't refer any alleged crimes to the court, the ICC can investigate on its own initiative and ch&lt;mark&gt;ar&lt;/mark&gt;ge Page 5 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Kremlin spokesman Dmitry Peskov has already rejected the ICC's investigation, noting that Russia isn't a p&lt;mark&gt;ar&lt;/mark&gt;ty to the court, having withdrawn in 2016.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The court's prosecutor in 2018 said it found a reasonable basis that w&lt;mark&gt;ar&lt;/mark&gt; crimes—including torture, rape and the intentional targeting of civilians—had taken place in eastern regions of Ukraine, where Russian-backed separatists were fighting the central government.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;What &lt;mark&gt;ar&lt;/mark&gt;e the Geneva Conventions?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The initial Geneva Convention was adopted in 1864, and four additional treaties were introduced in 1949 after World W&lt;mark&gt;ar&lt;/mark&gt; II.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The conventions provide for: the protection of the sick and wounded along with medical and religious personnel; c&lt;mark&gt;ar&lt;/mark&gt;e for the wounded sick and shipwrecked at sea; the humane treatment of prisoners of war; and the protection of all civilians.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, more than 100 nations have signed an international treaty called the Convention on Cluster Munitions prohibiting the use of such devices, which can be scattered over a l&lt;mark&gt;ar&lt;/mark&gt;ge area.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Will Putin be prosecuted for w&lt;mark&gt;ar&lt;/mark&gt; crimes?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Cases at the International Criminal Court tend to revolve &lt;mark&gt;ar&lt;/mark&gt;ound the individual actions of commanders in the field, not their political masters.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, for Mr. Putin to be tried he would have to be &lt;mark&gt;ar&lt;/mark&gt;rested and handed over to the court.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Moreover, Moscow formally withdrew in 2016 after the ICC published a document describing its annexation of Crimea as an occupation, though this was a l&lt;mark&gt;ar&lt;/mark&gt;gely cosmetic move: it had never ratified its membership in the first place.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia could also veto any U.N. Security Council move to refer a w&lt;mark&gt;ar&lt;/mark&gt;-crime case—specifically the crime of aggression—to the ICC.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Bucha residents received humanit&lt;mark&gt;ar&lt;/mark&gt;ian aid on April 2 after Russian troops left the area.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some national courts, meanwhile, could move to prosecute Mr. Putin if they have what &lt;mark&gt;ar&lt;/mark&gt;e known as universal jurisdiction laws.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Germany did this in Janu&lt;mark&gt;ar&lt;/mark&gt;y when a court there sentenced a former Syrian intelligence officer to prison in relation to crimes against humanity committed during the civil war there.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;French prosecutors have said they would begin their own investigation into alleged w&lt;mark&gt;ar&lt;/mark&gt; crimes in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;French law allows them to conduct an investigation outside of French territory if a w&lt;mark&gt;ar&lt;/mark&gt; crime targets French people or is committed by a French national or resident.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Again, the problem would be how to &lt;mark&gt;ar&lt;/mark&gt;rest and try Mr. Putin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;What Is a W&lt;mark&gt;ar&lt;/mark&gt; Crime?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia Faces Accusations as Civilian Casualties in Ukraine Grow NS gw&lt;mark&gt;ar&lt;/mark&gt; : War Crimes | gcrim : Crime/Legal Action | gvexe : Executive Branch | gvio : Military Action | gcat : Political/General News | gmurd : Murder/Manslaughter | gdip : International Relations | gpir : Politics/International Relations | gpol : Domestic Politics | gvbod : Page 6 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Government Bodies | ncolu : Columns | ncor : Corrections | ncrx : Corrected Items | nimage : Images | gcns : National/Public Security | grisk : Risk News | ncat : Content Types RE ukrn : Ukraine | asiaz : Asia | crimea : Crimea | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging M&lt;mark&gt;ar&lt;/mark&gt;ket Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC G/FDL PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220403ei43001jl Page 7 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Here is a primer on what drives the frictions BY By Lingling Wei and James T. &lt;mark&gt;Ar&lt;/mark&gt;eddy WC 1,417 words PD 5 April 2022 ET 22:37 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP China and Russia have often been contentious rivals, but under Xi Jinping and Vladimir Putin, the two countries' relations have grown closer than at any time since the e&lt;mark&gt;ar&lt;/mark&gt;ly days of the Cold War.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Feb. 4, the two decl&lt;mark&gt;ar&lt;/mark&gt;ed a friendship with "no limits."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD President Biden and Mr. Xi spoke M&lt;mark&gt;ar&lt;/mark&gt;ch 18 in a nearly two-hour videoconference during which Mr. Biden warned Mr. Xi of consequences if Beijing provides substantive assistance to Russia, according to a senior U.S. official.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Xi's envoys have spoken with both sides as well as their U.S. counterp&lt;mark&gt;ar&lt;/mark&gt;ts, and they have argued they are working behind the scene to resolve the crisis.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Western officials worry that Moscow's actions, on the &lt;mark&gt;ar&lt;/mark&gt;gument that Ukraine is historically a part of Russia, could embolden China to step up its own long-stated goal of bringing Taiwan into its fold.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A Chinese aircraft c&lt;mark&gt;ar&lt;/mark&gt;rier and a U.S. Navy destroyer sailed through the Strait of Taiwan in a pair of sensitive operations ahead of the Biden-Xi call.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A sh&lt;mark&gt;ar&lt;/mark&gt;ed interest in confronting the U.S. has helped drive the relationship between the two presidents.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Both &lt;mark&gt;ar&lt;/mark&gt;e authoritarians and nationalists, and each desires to raise his country's stature and challenge the U.S.-led world order.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Putin has shown Mr. Xi a degree of respect he sometimes withholds from other world leaders and was the only major-country VIP to show up for the opening ceremony of the Beijing Winter Olympics in Febru&lt;mark&gt;ar&lt;/mark&gt;y.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As the Russia-Ukraine w&lt;mark&gt;ar&lt;/mark&gt; was raging on March 30, Chinese Foreign Minister Wang Yi welcomed to China Russian Foreign Minister Sergei Lavrov and reiterated support for Beijing's recent alignment pact.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It is expected to buy f&lt;mark&gt;ar&lt;/mark&gt;m and energy products that Russia suddenly can't sell elsewhere because of Western sanctions, perhaps at discount prices.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;So f&lt;mark&gt;ar&lt;/mark&gt;, major Chinese companies and banks have refrained from obviously helping Russia evade financial sanctions, as that would jeopardize their access to the dollar-denominated banking system and international finance.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;U.S. officials in M&lt;mark&gt;ar&lt;/mark&gt;ch said Russia had asked China for military equipment, and President Biden warned it would face consequences if it provides substantive support.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The w&lt;mark&gt;ar&lt;/mark&gt; and related sanctions have neverthelessdisrupted Chinese trade, and capacity constraints will limit its near-term ability to significantly boost imports from Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine had been important to China's strategy to move more exports to Europe by rail and now, according to freight forw&lt;mark&gt;ar&lt;/mark&gt;ders, its traders are reorienting shipments to ships or by rail through Kazakhstan and Georgia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;China has been helping Russia in other ways, including by voicing understanding for what Moscow says &lt;mark&gt;ar&lt;/mark&gt;e its security concerns in Europe related to the North Atlantic Treaty Organization's expansion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Official reports have sometimes reported evidence of bomb&lt;mark&gt;ar&lt;/mark&gt;dment and attacks on Ukrainian civilians but have been careful to avoid blaming Russian forces.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Chinese authorities have permitted social-media users and prominent nationalist voices to express support for Mr. Putin online while appe&lt;mark&gt;ar&lt;/mark&gt;ing to limit online discussion of allegations against Russia, and in China there has been little of the lionization of Ukraine's Mr. Zelensky common in Western media.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In recent ye&lt;mark&gt;ar&lt;/mark&gt;s, as Kyiv pushed away from Moscow, China became Ukraine's biggest trading partner.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It had supplied 70% of China's imported sunflower oil, a key staple in Chinese kitchens, and has sold China milit&lt;mark&gt;ar&lt;/mark&gt;y equipment, including the hull for China's first aircraft carrier.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In 2013, Mr. Xi signed a Chinese pledge of unspecified security gu&lt;mark&gt;ar&lt;/mark&gt;antees for Ukraine in the event of a nuclear attack.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Nucle&lt;mark&gt;ar&lt;/mark&gt; experts have debated the statement's meaning.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some interpret the pledge as something more than the assurances nucle&lt;mark&gt;ar&lt;/mark&gt;-armed states routinely provide nonnuclear ones—one that under some scenarios could pit Beijing against Moscow.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;What has China said about the Ukraine w&lt;mark&gt;ar&lt;/mark&gt;?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;European Union officials w&lt;mark&gt;ar&lt;/mark&gt;ned China during a summit on April 1 that Beijing's refusal to condemn Russia's invasion could create lasting damage to their ties, and called on China to use its influence to pressure Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While Chinese officials said they support a peaceful solution, they also appe&lt;mark&gt;ar&lt;/mark&gt;ed to put the onus on Europe to solve the matter.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On China's side, the U.S.'s firming up of ties with allies—including a U.S.-U.K. nucle&lt;mark&gt;ar&lt;/mark&gt; submarine deal with Australia—have strengthened the desire to counter Washington.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As the Ukraine w&lt;mark&gt;ar&lt;/mark&gt; has appeared to tighten U.S.-Europe ties, China has called on Europe to develop an independent China policy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Both sides have h&lt;mark&gt;ar&lt;/mark&gt;dened their rhetoric in recent weeks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. has said Beijing be&lt;mark&gt;ar&lt;/mark&gt;s a responsibility to use its influence with Mr. Putin to seek an end to the war, while Beijing has sought to present China as a neutral party to the conflict and denied U.S. assertions that Russia has sought its help, either on military equipment or economic assistance.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Beijing's recent pact with Moscow has raised the prospect that the U.S. could need to counter two major advers&lt;mark&gt;ar&lt;/mark&gt;ies at once, forcing the U.S. to reconsider its defense strategy and military presence.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;China isn't p&lt;mark&gt;ar&lt;/mark&gt;t of the North Atlantic Treaty Organization.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But China's position on NATO isn't a surprise: The alliance last ye&lt;mark&gt;ar&lt;/mark&gt; signaled it would devote more resources to security threats posed by China, even while seeking to deter Russian aggression.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This &lt;mark&gt;ar&lt;/mark&gt;ticle might be updated.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Lingling Wei at lingling.wei@wsj.com and James T. &lt;mark&gt;Ar&lt;/mark&gt;eddy at james.areddy@wsj.com Is China Helping Russia?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Beijing-Moscow Relations Explained NS gdip : International Relations | gcat : Political/General News | gvexe : Executive Branch | c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade B&lt;mark&gt;ar&lt;/mark&gt;riers/Restrictions | gvio : Military Action | ncolu : Columns | gcns : National/Public Security | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter RE china : China | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | ukrn : Ukraine | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC N/CNW PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220405ei45004mr Page 10 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM U.S. Economy SE Economy HD U.S. Trade Deficit N&lt;mark&gt;ar&lt;/mark&gt;rowed Slightly in February; Imports and exports both rose on cusp of war in Ukraine BY By Josh Zumbrun WC 700 words PD 5 April 2022 ET 19:56 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The U.S. trade deficit n&lt;mark&gt;ar&lt;/mark&gt;rowed slightly in February, shrinking 0.1% for the month but remaining close to a record.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The deficit in trade of goods and services slipped to a seasonally adjusted $89.19 billion in Febru&lt;mark&gt;ar&lt;/mark&gt;y, the Commerce Department said Tuesday, compared with an $89.23 billion gap in January, which was the all-time monthly record for the trade gap.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Imports rose 1.3% to $317.8 billion, while exports grew 1.8% to $228.6 billion in Febru&lt;mark&gt;ar&lt;/mark&gt;y.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Though the deficit declined from Janu&lt;mark&gt;ar&lt;/mark&gt;y's record level, it was the second-largest monthly deficit on record.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If the numbers for imports and exports were adjusted for inflation, both figures would have declined slightly in Febru&lt;mark&gt;ar&lt;/mark&gt;y, meaning that companies are importing and exporting slightly lower volumes of goods, but paying a higher price for them.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;U.S. exports of industrial supplies, including fuel and coal, increased by $1.7 billion in Febru&lt;mark&gt;ar&lt;/mark&gt;y while pharmaceutical exports such as Covid-19 vaccines rose by $1.3 billion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Andrew Hunter, a senior U.S. economist for Capital Economics, said the high deficit to st&lt;mark&gt;ar&lt;/mark&gt;t the year likely shaved 2.5 percentage points off GDP for the first quarter of 2022, which he estimates will now grow at a seasonally adjusted annual rate of between 1% and 1.5%.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The figures provide a snapshot of U.S. trade on the very cusp of being shaken by w&lt;mark&gt;ar&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia invaded Ukraine on Feb. 24, meaning most U.S. imports for Febru&lt;mark&gt;ar&lt;/mark&gt;y were on the water or at U.S. ports before the war started.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Biden administration banned Russian oil imports on M&lt;mark&gt;ar&lt;/mark&gt;ch 8, after the window of time covered by Tuesday's report.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine and Russia &lt;mark&gt;ar&lt;/mark&gt;en't major direct trading partnersof the U.S.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In Febru&lt;mark&gt;ar&lt;/mark&gt;y, the U.S. imported $2.6 billion worth of goods from Russia—less than 1% of total U.S. imports—and $188 million from Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The countries &lt;mark&gt;ar&lt;/mark&gt;en't major export destinations either, with the U.S. exporting $497.5 million of goods to Russia and $309 million of goods to Ukraine in February.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Economists expect, however, that the w&lt;mark&gt;ar&lt;/mark&gt; will lead to greater supply-chain disruptions in the months ahead.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The countries &lt;mark&gt;ar&lt;/mark&gt;e significant producers of commodities traded on global markets, such as oil, grains and certain metals, and the conflict is disrupting economic activity across Eastern Europe.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Data for Febru&lt;mark&gt;ar&lt;/mark&gt;y, "didn't fully capture the trade impacts of Russia's invasion of Ukraine, which will slow global growth through higher inflation and renewed supply chain snarls," said Mahir Rasheed, U.S. economist for Oxford Economics, in a note.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Trade has been volatile over the past ye&lt;mark&gt;ar&lt;/mark&gt;, as companies have struggled with shipping backlogs, product scarcity, order cancellations and delays.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Despite the volatility, both exports and imports have been growing rapidly after initially collapsing in the e&lt;mark&gt;ar&lt;/mark&gt;ly days of the coronavirus pandemic, which closed factories and businesses around the world.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The deficit has been trending wider ever since, repeatedly setting new records over the past ye&lt;mark&gt;ar&lt;/mark&gt;, as the U.S. economy roared back to life on the back of stimulus payments and a more-rapid reopening than much of the rest of the world.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Josh Zumbrun at Josh.Zumbrun@wsj.com U.S. Trade Deficit N&lt;mark&gt;ar&lt;/mark&gt;rowed Slightly in February NS c311 : Corporate/Industry Imports | e512 : Physical Trade | gvcom : Commerce Department | ccat : Corporate/Industrial News | e11 : Economic Performance/Indicators | e1118 : Trade Figures | e51 : Trade/External Payments | ecat : Economic News | gpir : Politics/International Relations | ncolu : Columns | npred : Economic Predictions/Forecasts | gcat : Political/General News | cdom : Domestic/Foreign Markets | gpol : Domestic Politics | gvbod : Government Bodies | gvexe : Executive Branch | ncat : Content Types RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC 1176 PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220405ei450028l Page 12 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE WSJ Pro HD Sanctioned LPs Complicate Private-Equity Fund Dynamics; Opaque ownership and fractured rules make it challenging for private-fund managers to comply with recent Russia sanctions BY By Chris Cumming WC 1,034 words PD 5 April 2022 ET 15:30 SN WSJ Pro Private Equity SC RSTPROPE LA English CY Copyright © 2022, Dow Jones &amp; Company, Inc. LP Private-equity firms &lt;mark&gt;ar&lt;/mark&gt;e navigating the complications of cutting sanctioned Russian investors out of their funds, a task that can create challenges for a fund's remaining investors or even threaten the fund itself.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD A major challenge for private-equity firms is determining whether any of their limited p&lt;mark&gt;ar&lt;/mark&gt;tners are connected with sanctioned people or companies, in which case they typically need to freeze these ownership stakes and notify regulatory authorities.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Fund managers may—or may not—be allowed to bring in a new limited p&lt;mark&gt;ar&lt;/mark&gt;tner to replace the sanctioned one, or to call new capital from the remaining limited partners to cover the stake of the investor under sanctions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The l&lt;mark&gt;ar&lt;/mark&gt;ge number of private-equity firms forced to grapple with these challenges reflects the sanctions' unprecedented scale, said Brendan Hanifin, a partner at law firm Ropes &amp; Gray LLP who specializes in risks related to international investment.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We've never had sanctions this significant t&lt;mark&gt;ar&lt;/mark&gt;geting a country whose companies and citizens had such widespread holdings in the global financial system," he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;No reliable estimates &lt;mark&gt;ar&lt;/mark&gt;e available for how much money sanctioned Russian individuals or organizations are holding in U.S. and European private-equity funds.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Private-equity firms had already become leery of Russian investors after the U.S. imposed sanctions in 2014 in response to Russia's annexation of Crimea and support for sep&lt;mark&gt;ar&lt;/mark&gt;atists in Ukraine's Donbas region.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Still, industry sources say private-equity managers have had to freeze numerous investments tied to sanctioned Russian people and companies since the new sanctions were announced in Febru&lt;mark&gt;ar&lt;/mark&gt;y.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;According to news reports, firms affected by the sanctions include Pamplona, some of whose funds &lt;mark&gt;ar&lt;/mark&gt;e backed by LetterOne Holdings, an investment firm co-founded by sanctioned Russian billionaire Mikhail Fridman, and venture-capital firm Fort Ross Ventures, whose backers include sanctioned Moscow-based bank Sberbank PJSC.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The New York Times reported M&lt;mark&gt;ar&lt;/mark&gt;ch 21 that sanctioned Russian billionaire Roman Abramovich had used an intermediary to make numerous investments in private-equity funds and hedge funds in recent years.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Sanctioned Russians may have f&lt;mark&gt;ar&lt;/mark&gt; more private-equity holdings than anybody yet knows, as a result of the loose rules on private funds for identifying customers, according to the Financial Accountability and Corporate Transparency Coalition, a group that aims to fight tax abuse and money laundering.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Private funds &lt;mark&gt;ar&lt;/mark&gt;e "a black hole" because of their lack of requirements for vetting and reporting investors, said Ryan Gurule, policy director for the FACT Coalition.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"There's no real way to measure the intrusion of olig&lt;mark&gt;ar&lt;/mark&gt;ch money into that sector, but recent revelations have proven that it has found its way into the [private funds] industry," said Mr. Gurule.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Sometimes it's really difficult to determine who the counterp&lt;mark&gt;ar&lt;/mark&gt;ties are up the chain," said Tamer Soliman, a partner at Mayer Brown LLP who heads </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Platform</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>8</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Telecom Infra</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Over the past six months, GeoComply Solutions Inc., which provides geolocation compliance data, saw more than 15 million attempted transactions on its clients' &lt;mark&gt;platform&lt;/mark&gt;s in which users from sanctioned jurisdictions manipulated the IP addresses to appear as if they were located in the U.S., according to Elizabeth Cronan, GeoComply's vice president of government relations.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Shares of Roblox, a &lt;mark&gt;platform&lt;/mark&gt; for building and experiencing virtual worlds, have plummeted 31% over the past year.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;They think the &lt;mark&gt;platform&lt;/mark&gt;'s long-term total addressable market is one billion people, though their medium-term estimate is 180 million people.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;—Jack Denton and Janet H. Cho *** New Series on Streaming &lt;mark&gt;Platform&lt;/mark&gt;s in April Streaming platforms Apple TV, HBO Max, Netflix, and Hulu are all launching new series and bringing back audience favorites for April ahead of the Emmys, MarketWatch reported.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;* Half the stocks that had their worst quarterly percentage declines as tracked by Dow Jones Market Data Group are tech companies: Etsy, PayPal, Facebook parent company Meta &lt;mark&gt;Platform&lt;/mark&gt;s, Keysight Technologies, Match Group, and Charter Communications.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Among those blacklisted include Russia's largest microchip manufacturer, Mikron, a firm named Serniya Engineering that Treasury said oversaw a network of companies that procured technology and dual-use goods from abroad for the military and intelligence services, and supercomputer company T-&lt;mark&gt;Platform&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But its formulation as a practical program for modern statecraft began in 1918 with President Woodrow Wilson's Fourteen Points, the &lt;mark&gt;platform&lt;/mark&gt; on which the U.S. entered World War I.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But its formulation as a practical program for modern statecraft began in 1918 with President Woodrow Wilson's Fourteen Points, the &lt;mark&gt;platform&lt;/mark&gt; on which the U.S. entered World War I.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Cyber</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>8</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Mr. Putin could claim victory, pause for some years while he re-arms, continue trying to assassinate Ukrainian President Volodymyr Zelensky, and otherwise make political, &lt;mark&gt;cyber&lt;/mark&gt; and other trouble for a Western-leaning Ukraine government.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There is no conceivable battlefield on which these four nations haven't attempted internal subversion, using their militaries, intel, commerce, &lt;mark&gt;cyber&lt;/mark&gt;, space, science and of course nuclear threats.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukraine Crisis: U.S. Split On Curbs For Russia&lt;mark&gt;Cyber&lt;/mark&gt; Firm BY By Vivian Salama and Dustin Volz WC 304 words PD 31 March 2022 SN The Wall Street Journal SC J PG A9 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP WASHINGTON -- The Biden administration is divided over whether to impose sanctions on Kaspersky Lab, a Russian &lt;mark&gt;cyber&lt;/mark&gt;security giant that officials warn could be used by the Kremlin as a surveillance tool against its customers, people familiar with the matter said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD In addition, some officials in the U.S. and Europe fear imposing sanctions on Kaspersky Lab will increase the likelihood of triggering a &lt;mark&gt;cyber&lt;/mark&gt;attack against the West by Moscow, even potentially leveraging the software itself.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Kaspersky Lab has repeatedly denied it works with Russia or any government to facilitate malicious &lt;mark&gt;cyber&lt;/mark&gt; activity.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO cyfilm : &lt;mark&gt;Cyber&lt;/mark&gt; Firm Inc | kaspy : Kaspersky Lab Ltd | usnsyc : United States National Security Council IN i330202 : Software | i3302 : Computers/Consumer Electronics | icomp : Computing | itech : Technology | i3302021 : Applications Software | i8394 : Computer Services | ibcs : Business/Consumer Services | isecpri : Security/Privacy Software NS ecat : Economic News | gvtre : Finance/Treasury Department | gesanc : International Sanctions | neqac : Equities Asset Class News | nmajev : Major News Events | ntop : Top Wire News | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | gpol : Domestic Politics | gvbod : Government Bodies | gvexe : Executive Branch | ncat : Content Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ukrn : Ukraine | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC ABO PUB Dow Jones &amp; Company, Inc.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The recent invasion has increased the risk of a broader conflict emerging, but it also has direct impacts on &lt;mark&gt;cyber&lt;/mark&gt; and inflation risks, Mr. Hsu said.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>NFT</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Decentralized Finance/Marketplaces</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Write to Mengqi Sun at mengqi.sun@wsj.com S&amp;P Global Settles Allegations It Violated Russia Sanctions CO rsneft : Rosneft Oil Company OJSC | mcgrwh : S&amp;P Global Inc. | ros&lt;mark&gt;nft&lt;/mark&gt; : Rosneftegaz IN i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | i81501 : Credit Types/Services | ifinal : Financial Services | ibnk : Banking/Credit | ifosfl : Fossil Fuels | i8395416 : Rating Agencies | iioil : Integrated Oil/Gas NS gesanc : International Sanctions | cacqu : Acquisitions/Mergers | ccat : Corporate/Industrial News | c12 : Corporate Crime/Legal Action | c173 : Financing Agreements | cactio : Corporate Actions | e51 : Trade/External Payments | ecat : Economic News | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | gcat : Political/General News | c17 : Corporate Funding | c18 : Ownership Changes | c181 : Acquisitions/Mergers/Shareholdings | gdip : International Relations | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Wires IPC I/FIS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220401ei410080x Page 129 of 242 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>cryptocurrency</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Decentralized Finance/Marketplaces</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Denis Kondratev, a model and fitness trainer from St. Petersburg, Russia, who has lived in Bali for two years, said he pays for purchases by converting rubles into &lt;mark&gt;cryptocurrency&lt;/mark&gt;, which some vendors in Bali will exchange for Indonesian rupiahs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Last month the Treasury's Financial Crimes Enforcement Network issued an alert warning financial institutions and &lt;mark&gt;cryptocurrency&lt;/mark&gt; firms of attempts to evade sanctions, including through transactions coming from or sent to IP addresses located in Russia or Belarus, or from IP addresses already flagged as suspicious.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Apart from the war in Ukraine, growing &lt;mark&gt;cryptocurrency&lt;/mark&gt; trading also poses serious risks, particularly in how institutions account for their crypto holdings, Mr. Hsu said.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>crypto</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>8</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Decentralized Finance/Marketplaces</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Denis Kondratev, a model and fitness trainer from St. Petersburg, Russia, who has lived in Bali for two years, said he pays for purchases by converting rubles into &lt;mark&gt;crypto&lt;/mark&gt;currency, which some vendors in Bali will exchange for Indonesian rupiahs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Last month the Treasury's Financial Crimes Enforcement Network issued an alert warning financial institutions and &lt;mark&gt;crypto&lt;/mark&gt;currency firms of attempts to evade sanctions, including through transactions coming from or sent to IP addresses located in Russia or Belarus, or from IP addresses already flagged as suspicious.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Crypto&lt;/mark&gt; exchange Bittrex Inc. added a list of location attribution data tied to the Donetsk and Luhansk regions to its database of areas it prohibits transactions from to ensure they are filtered and screened and blocked when required, according to Michael Carter, the firm's chief compliance officer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Apart from the war in Ukraine, growing &lt;mark&gt;crypto&lt;/mark&gt;currency trading also poses serious risks, particularly in how institutions account for their crypto holdings, Mr. Hsu said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Hsu said he had engaged in collaboration with U.S. federal authorities and with their U.K. counterparts to maintain a "consistent, careful and cautious" approach to bank involvement in &lt;mark&gt;crypto&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;European officials are also looking at how to stymie the use of &lt;mark&gt;crypto&lt;/mark&gt;currencies to evade sanctions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The EU had already said the ban on providing loans and credit to sanctioned people and entities included &lt;mark&gt;crypto&lt;/mark&gt; assets.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;However, the bloc is looking at how to prevent sanctioned individuals from trading between &lt;mark&gt;crypto&lt;/mark&gt; assets to evade sanctions.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>10</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;On March 23, according to the newspaper Kommersant, the man sp&lt;mark&gt;ott&lt;/mark&gt;ed doing just that in Istanbul was Anatoly Chubais, a special envoy to Russian President Vladimir Putin for relations with international organizations on the energy transition, and the architect of Russia's privatization in the 1990s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In a letter to Credit Suisse Chief Executive Thomas G&lt;mark&gt;ott&lt;/mark&gt;stein on Monday, Rep. Carolyn B. Maloney (D., N.Y.), chairwoman of the Committee on Oversight and Reform, and Rep. Stephen F. Lynch (D., Mass.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Earlier this month, Mr. G&lt;mark&gt;ott&lt;/mark&gt;stein said Credit Suisse follows all U.S., U.K. and European Union sanctions as binding, and that Switzerland applying them Feb. 28 was "almost irrelevant."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In a letter to Credit Suisse Chief Executive Thomas G&lt;mark&gt;ott&lt;/mark&gt;stein Monday, Rep. Carolyn B. Maloney (D., N.Y.), chairwoman of the Committee on Oversight and Reform, and Rep. Stephen F. Lynch (D., Mass.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Earlier this month, Mr. G&lt;mark&gt;ott&lt;/mark&gt;stein said Credit Suisse follows all U.S., U.K. and European Union sanctions as binding, and that Switzerland applying them Feb. 28 was "almost irrelevant."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Stan Connell Charl&lt;mark&gt;ott&lt;/mark&gt;e, N.C. Vladimir Putin Will Win in Ukraine Because He Has No Other Choice NS gvexe : Executive Branch | gcat : Political/General News | gpir : Politics/International Relations | gpol : Domestic Politics | nedc : Commentaries/Opinions | nlet : Letters | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | niwe : IWE Filter | nrgn : Routine General News RE ukrn : Ukraine | eurz : Europe | uk : United Kingdom | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220328ei3s003jt Page 55 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Oil prices remain sharply higher since Russia invaded Ukraine in February, as Western sanctions and boyc&lt;mark&gt;ott&lt;/mark&gt;s against Russia have effectively cut world-wide supply.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Meanwhile, U.S. oil producers face b&lt;mark&gt;ott&lt;/mark&gt;lenecks hampering their ability to respond to higher prices by expanding their output.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We had g&lt;mark&gt;ott&lt;/mark&gt;en used to Putin's crazy statements about Ukraine," she said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An hour later, the ragged clump of elderly civilians with bloody faces t&lt;mark&gt;ott&lt;/mark&gt;ered into an emergency entrance, looking top-heavy with piles of bandages on their heads.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>41</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;IN i8150105 : Consumer Lending | i8394 : Computer Services | ifinal : Financial Services | itech : Technology | i81501 : Credit Types/Services | ibcs : Business/Consumer Services | ibnk : Banking/Credit | i8150108 : Credit Cards | ifmsoft : Financial Technology | iplastic : Electronic Payment Systems NS c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | nmajev : Major News Events | npda : DJ Exclusive Analysis - All | gcat : Political/General News | gdip : International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ussrz : CIS Countries | asiaz : Asia | crimea : Crimea | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | ukrn : Ukraine | usa : United States | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC I/BKS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220329ei3t000um Page 4 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Be Afraid of Nuclear War, Not Climate Change NS gclimt : Climate Change | gvio : Military Action | gglobe : Global/World Issues | genv : Natural Environment | gpir : Politics/International Relations | gpol : Domestic Politics | gsci : Sciences/Humanities | ncolu : Columns | nedc : Commentaries/Opinions | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/ENV PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220329ei3t006pp Page 6 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Not &lt;mark&gt;content&lt;/mark&gt; to confine their hubris to Eastern Europe, anonymous Pentagon officials are also suggesting that integrated deterrence is working in the Western Pacific, where Xi Jinping may be rethinking a Chinese invasion of Taiwan.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Biden's 'Integrated Deterrence' Fails in Ukraine NS gvdef : Defense Department | gvio : Military Action | gvexe : Executive Branch | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | nedc : Commentaries/Opinions | nimage : Images | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | taiwan : Taiwan | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | apacz : Asia Pacific | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220329ei3t003bh Page 8 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Hard Truth in Biden's Gaffe NS gvexe : Executive Branch | gcat : Political/General News | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | nedc : Commentaries/Opinions | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | crimea : Crimea | easiaz : Eastern Asia | eurz : Europe | namz : North America | pol : Poland | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eecz : European Union Countries | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220329ei3t003e9 Page 10 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Part of this may be due to some branded advertisers pausing spend to avoid advertising next to negative &lt;mark&gt;content&lt;/mark&gt;, while part of this may also be driven by some incremental weakness from the European consumer," he writes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO weqboc : Nextdoor Holdings Inc. | fjfvpl : Snap Inc IN i838 : Advertising Services | i3302 : Computers/Consumer Electronics | i330202 : Software | i8385 : Digital Marketing | iadv : Advertising/Marketing/Public Relations | ibcs : Business/Consumer Services | icph : Computer Hardware | iint : Online Service Providers | imed : Media/Entertainment | itech : Technology | icomp : Computing | imark : Marketing | i3302021 : Applications Software | icmsw : Communications Software | isocial : Social Media Platforms/Tools NS c1521 : Analysts' Comments/Recommendations | c31 : Marketing | cadsp : Advertising Spending | ccat : Corporate/Industrial News | c1513 : Sales Figures | c32 : Advertising | c15 : Financial Performance | c151 : Earnings | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE ukrn : Ukraine | eurz : Europe | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Barrons IPC I/ADV PUB Dow Jones &amp; Company, Inc. AN Document BON0000020220329ei3t003pd Page 12 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS gcvir : Malware | ghack : Cybercrime/Hacking | gdatap : Privacy Issues/Information Security | gext : Extortion/Blackmail | gcrim : Crime/Legal Action | gsecbr : Data Security Breaches | gout : Outbreaks/Epidemics | c13 : Regulation/Government Policy | gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | nimage : Images | npag : Page One Stories | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gcat : Political/General News | gdip : International Relations | gfinc : Financial Crime | ghea : Health | gmed : Medical Conditions | gpir : Politics/International Relations | gspox : Infectious Diseases | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC PIC PUB Dow Jones &amp; Company, Inc. AN Document J000000020220329ei3t0001d Page 18 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS c13 : Regulation/Government Policy | gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | mcat : Commodity/Financial Market News | nimage : Images | nmajev : Major News Events | ntop : Top Wire News | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ukrn : Ukraine | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC PIC PUB Dow Jones &amp; Company, Inc. AN Document J000000020220329ei3t0000d Page 20 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO sk : Credit Suisse Group AG IN i814 : Banking | i81402 : Commercial Banking | ibnk : Banking/Credit | ifinal : Financial Services | iibnk : Integrated Banks NS gesanc : International Sanctions | gvcng : Legislative Branch | neqac : Equities Asset Class News | nmajev : Major News Events | ntop : Top Wire News | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | gpol : Domestic Politics | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | redit : Selection of Top Stories/Trends/Analysis RE ukrn : Ukraine | russ : Russia | switz : Switzerland | usa : United States | asiaz : Asia | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries | weurz : Western Europe IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220329ei3t0001x Page 22 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO urktel : Ukrtelecom | epiczz : EPIC Financial Consulting GmbH IN i7902 : Telecommunication Services | iint : Online Service Providers | itech : Technology | i79026 : Integrated Communications Providers NS gvio : Military Action | ghack : Cybercrime/Hacking | cpsrdi : Product/Service Disruptions | neqac : Equities Asset Class News | nmajev : Major News Events | ntop : Top Wire News | ccat : Corporate/Industrial News | cexpro : Products/Services | gcat : Political/General News | gcns : National/Public Security | gcrim : Crime/Legal Action | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | redit : Selection of Top Stories/Trends/Analysis RE ukrn : Ukraine | russ : Russia | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220329ei3t00017 Page 23 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Corporate/Industrial News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ussrz : CIS Countries | den : Denmark | ukrn : Ukraine | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eecz : European Union Countries | eeurz : Central/Eastern Europe | eurz : Europe | nordz : Nordic Countries | scandz : Scandinavia IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220329ei3t0000f Page 29 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i1 : Energy | i162 : Gas Utilities | i16 : Electricity/Gas Utilities | iutil : Utilities NS gvexe : Executive Branch | gcat : Political/General News | gpol : Domestic Politics | neqac : Equities Asset Class News | nmajev : Major News Events | ntop : Top Wire News | reqren : Suggested Reading Energy | gpir : Politics/International Relations | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE jap : Japan | russ : Russia | eurz : Europe | ukrn : Ukraine | fukus : Fukushima | okaya : Chugoku | apacz : Asia Pacific | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | easiaz : Eastern Asia | eeurz : Central/Eastern Europe | iwat : Tohoku | ussrz : CIS Countries IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220329ei3t0000e Page 31 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i3302 : Computers/Consumer Electronics | itech : Technology NS gmovie : Movies | naudvl : Audio-visual Links | ntra : Transcripts | gpir : Politics/International Relations | ncolu : Columns | gcat : Political/General News | gent : Arts/Entertainment | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | niwe : IWE Filter RE ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | russ : Russia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD SYND IPC N/GEN PUB Dow Jones &amp; Company, Inc.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Robert McMillan at Robert.Mcmillan@wsj.com and Dustin Volz at dustin.volz@wsj.com Internet Provider to Ukrainian Military Hit With Major Cyberattack CO urktel : Ukrtelecom | epiczz : EPIC Financial Consulting GmbH IN i3302 : Computers/Consumer Electronics | i7902 : Telecommunication Services | i79021 : Wired Telecommunications Services | icph : Computer Hardware | iint : Online Service Providers | icomp : Computing | itech : Technology | i79026 : Integrated Communications Providers NS ghack : Cybercrime/Hacking | gvio : Military Action | cpsrdi : Product/Service Disruptions | c32 : Advertising | ccat : Corporate/Industrial News | ncolu : Columns | gcat : Political/General News | c31 : Marketing | cexpro : Products/Services | gcns : National/Public Security | gcrim : Crime/Legal Action | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC FB PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220328ei3s005pl Page 35 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;npred : Economic Predictions/Forecasts | e21 : Government Finance | gcns : National/Public Security | grisk : Risk News | gvbod : Government Bodies | gvcng : Legislative Branch | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | usdc : Washington DC | uss : Southern U.S. | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC G/EPA PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220328ei3s002p9 Page 39 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Margot Patrick at margot.patrick@wsj.com Lawmakers Launch Probe of Credit Suisse Compliance With Russia Sanctions CO sk : Credit Suisse Group AG IN i814 : Banking | ibnk : Banking/Credit | ifinal : Financial Services | i81402 : Commercial Banking | iibnk : Integrated Banks NS gesanc : International Sanctions | gpir : Politics/International Relations | ncolu : Columns | gcat : Political/General News | gdip : International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ News Exclusive | IPC CS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220328ei3s0028l Page 41 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He was sentenced to 14 months in prison for some of the &lt;mark&gt;content&lt;/mark&gt; he posted online, and for possession of ammunition and child pornography.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Sune Engel Rasmussen at sune.rasmussen@wsj.com Putin's War in Ukraine Tests Allegiances of Russian Speakers in Former Soviet Latvia NS gvexe : Executive Branch | gcat : Political/General News | gcns : National/Public Security | gethm : Ethnic Minorities | gpir : Politics/International Relations | gsec : State Security Measures/Policies | gvio : Military Action | ncolu : Columns | gcom : Society/Community | gpol : Domestic Politics | grisk : Risk News | gsoc : Social Issues | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE russ : Russia | latv : Latvia | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | riga : Riga | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | apacz : Asia Pacific | baltst : Baltic States | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC N/CMR PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220328ei3s000rt Page 44 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Thomas Grove at thomas.grove@wsj.com, Evan Gershkovich at evan.gershkovich@wsj.com and Brett Forrest at brett.forrest@wsj.com Ukraine and Russia Prepare for Talks in Turkey as Russian Missiles Hit Cities NS gvio : Military Action | gdip : International Relations | gvexe : Executive Branch | gdef : Armed Forces | gpir : Politics/International Relations | ncolu : Columns | gcat : Political/General News | gcns : National/Public Security | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | meastz : Middle East | turk : Turkey | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | balkz : Balkan States | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Page 47 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Doug Cameron at doug.cameron@wsj.com Pentagon Seeks Higher Military Spending to Keep Pace With China, Russia IN i1 : Energy NS gweap : Weapons Programs | gvio : Military Action | e1108 : Budget Figures | gvdef : Defense Department | gnuclw : Nuclear Weapons Programs | e11 : Economic Performance/Indicators | e211 : Government Budget/Taxation | ecat : Economic News | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | npred : Economic Predictions/Forecasts | gcat : Political/General News | e21 : Government Finance | gcns : National/Public Security | gdef : Armed Forces | grisk : Risk News | gvbod : Government Bodies | gvexe : Executive Branch | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types RE ukrn : Ukraine | usa : United States | russ : Russia | asiaz : Asia | china : China | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usdc : Washington DC | uss : Southern U.S. | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC BA PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220328ei3s003e9 Page 50 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Biden at the Improv: Ukraine and the Dangers of Foreign Policy by Open Mic NS gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | ncolu : Columns | nedc : Commentaries/Opinions | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | usa : United States | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220328ei3s0048t Page 52 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine War Shows the 'Rules-Based International Order' Is a Myth NS gvio : Military Action | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | nedc : Commentaries/Opinions | nimage : Images | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220328ei3s004bl Page 54 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Stan Connell Charlotte, N.C. Vladimir Putin Will Win in Ukraine Because He Has No Other Choice NS gvexe : Executive Branch | gcat : Political/General News | gpir : Politics/International Relations | gpol : Domestic Politics | nedc : Commentaries/Opinions | nlet : Letters | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpex : C&amp;E Executive News Filter | niwe : IWE Filter | nrgn : Routine General News RE ukrn : Ukraine | eurz : Europe | uk : United Kingdom | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220328ei3s003jt Page 55 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's War With Ukraine Unifies Europe CO euruno : European Union NS gcat : Political/General News | gvexe : Executive Branch | gdip : International Relations | gpir : Politics/International Relations | gvio : Military Action | ncolu : Columns | nedc : Commentaries/Opinions | gcns : National/Public Security | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE gfr : Germany | usa : United States | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | namz : North America | russ : Russia | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD COLUMN IPC N/EEC PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220328ei3s0063h Page 57 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i35101 : Passenger Cars | iaut : Automotive | i351 : Motor Vehicles | i35104 : Alternative Fuel Vehicles NS gsars : Novel Coronaviruses | ghea : Health | m14 : Commodity Markets | mcat : Commodity/Financial Market News | mcroil : Crude Oil Markets | ncolu : Columns | gcat : Political/General News | gcold : Respiratory Tract Diseases | gmed : Medical Conditions | gspox : Infectious Diseases | m143 : Energy Markets | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter RE china : China | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC I/AUT PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220328ei3s004xt Page 59 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The British Broadcasting Corp. suspended its broadcasts from Russia and sought legal advice from specialists, including lawyers based in Russia, said Richard Burgess, interim head of news &lt;mark&gt;content&lt;/mark&gt; for BBC News.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To distribute its news &lt;mark&gt;content&lt;/mark&gt;, the BBC launched an account on TikTok in Russian and English and has been broadcasting over shortwave radio in Ukraine and parts of Russia to locals, said Mr. Burgess.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;NS gvbod : Government Bodies | gvio : Military Action | ncolu : Columns | nmajev : Major News Events | reqrme : Suggested Reading Media | gcat : Political/General News | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis | reqr : Suggested Reading Industry News RE ukrn : Ukraine | eurz : Europe | russ : Russia | uk : United Kingdom | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | ussrz : CIS Countries | weurz : Western Europe IPD Wires IPC BBC.YY PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220328ei3s004jx Page 62 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Yuka Hayashi at yuka.hayashi@wsj.com Ukraine War Increases Risk of Debt Defaults by Developing Countries CO imonf : International Monetary Fund | twban : The World Bank IN i8150106 : Development Banking | i0 : Agriculture | i814 : Banking | ibnk : Banking/Credit | ifinal : Financial Services NS gsars : Novel Coronaviruses | gout : Outbreaks/Epidemics | ecat : Economic News | ghea : Health | magric : Soft Commodity Markets | mgrain : Grain Markets | mwheat : Wheat Markets | ncolu : Columns | gcat : Political/General News | gcold : Respiratory Tract Diseases | gmed : Medical Conditions | gspox : Infectious Diseases | m14 : Commodity Markets | m141 : Agricultural Commodity Markets | mcat : Commodity/Financial Market News | mgroil : Grains/Edible Oils Markets | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter RE dvpcoz : Developing Economies | ukrn : Ukraine | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC G/FED PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220328ei3s004mp Page 64 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Nina Trentmann at Nina.Trentmann@wsj.com Trentmann's Take: CFOs Adopt Different Approaches to Profits Made in Russia CO cbuhoo : Columbia Business School IN ibaby : Baby Products | icnp : Consumer Goods | idurhg : Durable Household Products NS gdev : Development/Humanitarian Aid | c151 : Earnings | c17 : Corporate Funding | ccat : Corporate/Industrial News | gpir : Politics/International Relations | ncolu : Columns | nmajev : Major News Events | npda : DJ Exclusive Analysis - All | gcat : Political/General News | c15 : Financial Performance | gdip : International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ussrz : CIS Countries | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ukrn : Ukraine | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC AZN PUB Dow Jones &amp; Company, Inc.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;NS gvexe : Executive Branch | gvio : Military Action | nimage : Images | nmajev : Major News Events | npag : Page One Stories | ntop : Top Wire News | gcat : Political/General News | gcns : National/Public Security | gpir : Politics/International Relations | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | redit : Selection of Top Stories/Trends/Analysis RE ukrn : Ukraine | pol : Poland | russ : Russia | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eecz : European Union Countries | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC PIC PUB Dow Jones &amp; Company, Inc. AN Document J000000020220328ei3s0001c Page 71 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Yandex's aggregator, which under local regulations is only allowed to show licensed &lt;mark&gt;content&lt;/mark&gt;, displays news that hews ever more closely to the official line.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As pressure increases on the likes of Facebook to take more responsibility for the &lt;mark&gt;content&lt;/mark&gt; on their platforms, Yandex appears to see a risk that its social-media channel could also become a problem.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service RF page,5043 IN i8395464 : Internet Search Engines | iint : Online Service Providers | itech : Technology NS ccat : Corporate/Industrial News | ncolu : Columns | neqac : Equities Asset Class News | nhrd : Heard on the Street | npda : DJ Exclusive Analysis - All | npqda : DJ Exclusive Analysis - Equities | c1521 : Analysts' Comments/Recommendations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter RE russ : Russia | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220328ei3s0000n Page 73 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO nato : North Atlantic Treaty Organization NS gdef : Armed Forces | gvio : Military Action | nmajev : Major News Events | npag : Page One Stories | ntop : Top Wire News | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ukrn : Ukraine | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC EXE PUB Dow Jones &amp; Company, Inc. AN Document J000000020220328ei3s00018 Page 76 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO cbuhoo : Columbia Business School IN ibaby : Baby Products | icnp : Consumer Goods NS nmajev : Major News Events | ntop : Top Wire News | c151 : Earnings | c15 : Financial Performance | ccat : Corporate/Industrial News | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ussrz : CIS Countries | ukrn : Ukraine | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America IPC ESG PUB Dow Jones &amp; Company, Inc. AN Document J000000020220328ei3s0000w Page 80 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN ifosfl : Fossil Fuels | i1 : Energy | i13 : Crude Oil/Natural Gas Upstream Operations | i1300003 : Crude Petroleum Extraction | i1300004 : Liquefied/Compressed Gas | i14 : Downstream Operations | iexplo : Natural Gas/Oil Exploration | iextra : Natural Gas/Oil Extraction | iindstrls : Industrial Goods NS c15 : Financial Performance | c1522 : Share Price Movement/Disruptions | c13 : Regulation/Government Policy | gpol : Domestic Politics | nmajev : Major News Events | ntop : Top Wire News | ccat : Corporate/Industrial News | gcat : Political/General News | gpir : Politics/International Relations | ncat : &lt;mark&gt;Content&lt;/mark&gt; Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter | </t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>cable</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Telecom Infra</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;LP In the hours after three journalists working for Fox News in Ukraine took fire on March 14, staffers from rival news organization CNN stepped up to assist the &lt;mark&gt;cable&lt;/mark&gt; network.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Investment</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>9</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Digital investment</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Third, in the world's poorest countries, the international community's focus on putting up solar panels coexists with a woeful under&lt;mark&gt;investment&lt;/mark&gt; in solutions to massive existing problems.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For Meta, he thinks the headwinds from the company's &lt;mark&gt;investment&lt;/mark&gt; in the TokTok competitor Reels will eventually become a tailwind.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That would reverse the current flow of money, making sanctioning nations support Russia's currency and ensuring that all funds from energy sales support its value, said Christian Kopf, head of fixed income at asset manager Union &lt;mark&gt;Investment&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"There's so much stuff you're not allowed to buy or sell," said George Pearkes, a macro strategist at Bespoke &lt;mark&gt;Investment&lt;/mark&gt; Group.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Heineken and Carlsberg previously had halted new &lt;mark&gt;investment&lt;/mark&gt;s in Russia and scaled back some operations, while continuing to do business there.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Here's what this all adds up to: Historic deficit reduction, historic &lt;mark&gt;investment&lt;/mark&gt; in our security at home and abroad by modernizing our capabilities in both areas and an unprecedented commitment to building an economy where everyone has a chance to succeed," Mr. Biden said of his budget in remarks Monday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;U.S. military spending also will likely require additional long-term &lt;mark&gt;investment&lt;/mark&gt;s, particularly in the Navy, to stay focused on China as the larger, more strategic threat facing the U.S. Officials say investments in hypersonic missiles, machine learning, artificial intelligence and other military capabilities appropriate for confronting China will require billions of dollars in new investments over time.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Robert Howell, a portfolio manager at Gresham &lt;mark&gt;Investment&lt;/mark&gt; Management, said his fund has kept a relatively neutral stance on oil recently, but is looking for opportunities to sell.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Even before Russia invaded Ukraine, highly indebted emerging and developing economies were on shaky ground, said Marcello Estevao, the World Bank's global director for macroeconomics, trade and &lt;mark&gt;investment&lt;/mark&gt;, in a blog post on Monday.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Privacy</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;License this article from Dow Jones Reprint Service NS gcvir : Malware | ghack : Cybercrime/Hacking | gdatap : &lt;mark&gt;Privacy&lt;/mark&gt; Issues/Information Security | gext : Extortion/Blackmail | gcrim : Crime/Legal Action | gsecbr : Data Security Breaches | gout : Outbreaks/Epidemics | c13 : Regulation/Government Policy | gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | nimage : Images | npag : Page One Stories | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gcat : Political/General News | gdip : International Relations | gfinc : Financial Crime | ghea : Health | gmed : Medical Conditions | gpir : Politics/International Relations | gspox : Infectious Diseases | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC PIC PUB Dow Jones &amp; Company, Inc. AN Document J000000020220329ei3t0001d Page 18 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>3</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;They do not &lt;mark&gt;trust&lt;/mark&gt; each other, and—most importantly—they are paralyzed with fear, just like Stalin's associates in the final years of his life.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The overall aim of Russia's propaganda activities is to secure the support for the Kremlin worldview and to erode &lt;mark&gt;trust&lt;/mark&gt; in Latvia's statehood," he said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He trucked body armor, drones and other equipment to the front lines, posting videos on social media and winning the &lt;mark&gt;trust&lt;/mark&gt; of soldiers and donors.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>23</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Decentralized Finance/Marketplaces</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;CLM Business SE Business HD Russia Built Parallel &lt;mark&gt;Payment&lt;/mark&gt;s System That Escaped Western Sanctions; Crimea sanctions spurred Russia to build its own Mir payments network, taking the sting out of Visa, Mastercard exits BY By Alexander Osipovich and AnnaMaria Andriotis WC 1,111 words PD 30 March 2022 ET 03:09 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The domestic-&lt;mark&gt;payment&lt;/mark&gt;s system continued to work smoothly after Visa Inc. and Mastercard Inc. pulled out earlier this month.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But behind the scenes, the cards don't rely on the U.S. networks' systems to process &lt;mark&gt;payment&lt;/mark&gt;s in Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The National &lt;mark&gt;Payment&lt;/mark&gt; Card System—known by its Russian initials NSPK—runs the financial plumbing that underpins card transactions in Russia, even for cards bearing Visa and Mastercard logos.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The resilience of Russia's &lt;mark&gt;payment&lt;/mark&gt;s system is a rare win for President Vladimir Putin in his financial war with the West.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We provided for our national security in the &lt;mark&gt;payment&lt;/mark&gt;s space," said Alma Obayeva, head of the National Payments Council, a Russian trade association.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On a February call to discuss potential Russia sanctions, executives from Visa, Mastercard and other &lt;mark&gt;payment&lt;/mark&gt;s companies told Treasury Department officials that banning U.S. networks from handling Russian bank transactions wouldn't be especially painful, according to people familiar with the matter.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;More countries have developed their own &lt;mark&gt;payment&lt;/mark&gt;s infrastructure, limiting the clout of Visa and Mastercard and, by extension, the ability of the U.S. to influence countries' behavior through sanctions that target their banking systems.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In 2017, Russia passed a law requiring banks that handle pensioners' &lt;mark&gt;payment&lt;/mark&gt;s and salaries of public-sector employees such as teachers and military personnel to make those funds available through Mir cards.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;By taking over &lt;mark&gt;payment&lt;/mark&gt; processing, NSPK became a moneymaker for Russia's central bank, collecting fee revenue that otherwise would have flowed to Visa and Mastercard.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In 2020, the &lt;mark&gt;payment&lt;/mark&gt;s system earned 8.2 billion rubles in net profit, or about $94 million at current exchange rates, according to its annual report.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Alexander Osipovich at alexander.osipovich@wsj.com and AnnaMaria Andriotis at annamaria.andriotis@wsj.com Russia Built Parallel &lt;mark&gt;Payment&lt;/mark&gt;s System That Escaped Western Sanctions CO rosgos : Central Bank of the Russian Federation | visa : Visa Inc. | intbmc : MasterCard Inc.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i8150105 : Consumer Lending | i8394 : Computer Services | ifinal : Financial Services | itech : Technology | i81501 : Credit Types/Services | ibcs : Business/Consumer Services | ibnk : Banking/Credit | i8150108 : Credit Cards | ifmsoft : Financial Technology | iplastic : Electronic &lt;mark&gt;Payment&lt;/mark&gt; Systems NS c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | nmajev : Major News Events | npda : DJ Exclusive Analysis - All | gcat : Political/General News | gdip : International Relations | ncat : Content Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ussrz : CIS Countries | asiaz : Asia | crimea : Crimea | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | ukrn : Ukraine | usa : United States | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC I/BKS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220329ei3t000um Page 4 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ransomware locks up a target computer network's files until &lt;mark&gt;payment&lt;/mark&gt; is made for their release.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. Treasury Department said last fall that ransomware &lt;mark&gt;payment&lt;/mark&gt;s by American companies that were flagged by U.S. banks in the first six months of 2021 had nearly doubled to almost $600 million from the previous year's period.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Trickbot runs an affiliate program that allows other criminals to sign up as partners and wield the group's ransomware, servers and ransom negotiators in exchange for &lt;mark&gt;payment&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The group's Conti ransomware business received &lt;mark&gt;payment&lt;/mark&gt;s of $70 million in 2020 and more than $200 million in 2021, according to blockchain analytics firm Chainalysis.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Earlier last year, members of the group discussed specifically targeting "people who work against the Russian Federation," instead of limiting their attacks to large corporations that can afford sizable ransom &lt;mark&gt;payment&lt;/mark&gt;s, their previous strategy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"While I was sleeping, I came up with a very cool idea," wrote a midlevel manager called "Mango," who then proposed a micro&lt;mark&gt;payment&lt;/mark&gt; auction system to sell uncooperative victims' stolen data in dribs and drabs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In one of the chats, Trickbot's operators claim to have a journalist, whose name and organization wasn't revealed, on the payroll who would take a 5% commission on extortion &lt;mark&gt;payment&lt;/mark&gt;s in exchange for pressuring victims by threatening critical coverage of breaches.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS gcvir : Malware | ghack : Cybercrime/Hacking | gdatap : Privacy Issues/Information Security | gext : Extortion/Blackmail | gcrim : Crime/Legal Action | gsecbr : Data Security Breaches | gout : Outbreaks/Epidemics | c13 : Regulation/Government Policy | gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | nimage : Images | npag : Page One Stories | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gcat : Political/General News | gdip : International Relations | gfinc : Financial Crime | ghea : Health | gmed : Medical Conditions | gpir : Politics/International Relations | gspox : Infectious Diseases | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC PIC PUB Dow Jones &amp; Company, Inc. AN Document J000000020220329ei3t0001d Page 18 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS c13 : Regulation/Government Policy | gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | mcat : Commodity/Financial Market News | nimage : Images | nmajev : Major News Events | ntop : Top Wire News | ccat : Corporate/Industrial News | e51 : Trade/External &lt;mark&gt;Payment&lt;/mark&gt;s | ecat : Economic News | gcat : Political/General News | gdip : International Relations | gpir : Politics/International Relations | ncat : Content Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ukrn : Ukraine | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC PIC PUB Dow Jones &amp; Company, Inc. AN Document J000000020220329ei3t0000d Page 20 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;One man ultimately agreed and asked about $100 in &lt;mark&gt;payment&lt;/mark&gt;.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Cybersecurity</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>10</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;TD U.S. authorities and &lt;mark&gt;cybersecurity&lt;/mark&gt; researchers foiled large parts of the plan, warning hospitals before the hackers' ransomware could be installed, but the hackers shrugged off the setback, according to a cache of data and documents leaked online in recent weeks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's invasion of Ukraine last month prompted the researcher to leak the information, according to two people who know him and can verify the work he did to capture Trickbot communications and pass them on to Western &lt;mark&gt;cybersecurity&lt;/mark&gt; professionals.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Cybersecurity&lt;/mark&gt; researchers and former security officials say the chat logs and other leaked documents appeared to be authentic.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The anonymous source of the leak is one of a handful of &lt;mark&gt;cybersecurity&lt;/mark&gt; analysts who have been secretly infiltrating Trickbot's electronic infrastructure, according to Alex Holden, a security analyst whose company, Hold Security, monitors Eastern European cybercrime and Trickbot.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Cybersecurity&lt;/mark&gt; researchers who had been tracking the group warned U.S. authorities, and the Department of Homeland Security warned hospitals.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Cybersecurity&lt;/mark&gt; experts worked to minimize the damage.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"I don't think I've ever been as scared as I was that week," said Joshua Corman, former chief strategist with the &lt;mark&gt;Cybersecurity&lt;/mark&gt; and Infrastructure Security Agency's Covid Task Force, a Homeland Security group set up to protect the healthcare sector during the pandemic.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;ET on Monday, Ukrainian officials said they repelled the attack, and that the company could restore services, according to Ukraine's State Service of Special Communication and Information Protection, which is responsible for &lt;mark&gt;cybersecurity&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;ET on Monday, Ukrainian officials said that they had repelled the attack, and that the company could restore services, according to a statement from Ukraine's State Service of Special Communication and Information Protection, which is responsible for &lt;mark&gt;cybersecurity&lt;/mark&gt; in the country.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Cybersecurity&lt;/mark&gt; experts and U.S. officials have been surprised by the lack of major disruptive or destructive cyberattacks during the Ukraine conflict, as Russia is widely viewed to have some of the most capable state-sponsored hacking groups in the world, and Moscow has previously been blamed for launching cyberattacks that disrupted Ukraine's government, electricity grid and financial services.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Devices</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Telecom Infra</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The security risks for journalists in Afghanistan and Iraq were also severe—among them, the threat of improvised explosive &lt;mark&gt;devices&lt;/mark&gt;, kidnappings or suicide bombers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. learned this in Iraq with insurgent use of improvised explosive &lt;mark&gt;devices&lt;/mark&gt;, basically roadside bombs triggered with cellphones.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Partnership</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Digital investment</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Some Russian banks have said they are exploring &lt;mark&gt;partnership&lt;/mark&gt;s with China's UnionPay to issue cards that their customers can use more widely.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>787</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Russia f&lt;mark&gt;ai&lt;/mark&gt;led to break its dependence on Western imports, leaving the country in dire need of key parts for manufacturing.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We provided for our national security in the payments space," s&lt;mark&gt;ai&lt;/mark&gt;d Alma Obayeva, head of the National Payments Council, a Russian trade association.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some Russian banks have s&lt;mark&gt;ai&lt;/mark&gt;d they are exploring partnerships with China's UnionPay to issue cards that their customers can use more widely.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some Russians who have fled have s&lt;mark&gt;ai&lt;/mark&gt;d Visa and Mastercard's cutoff played into Mr. Putin's hands.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On a February call to discuss potential Russia sanctions, executives from Visa, Mastercard and other payments companies told Treasury Department officials that banning U.S. networks from handling Russian bank transactions wouldn't be especially p&lt;mark&gt;ai&lt;/mark&gt;nful, according to people familiar with the matter.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Sanctions, they s&lt;mark&gt;ai&lt;/mark&gt;d, would simply push more transactions onto Mir.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In 2017, Russia passed a law requiring banks that handle pensioners' payments and salaries of public-sector employees such as teachers and military personnel to make those funds av&lt;mark&gt;ai&lt;/mark&gt;lable through Mir cards.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"There is simply a huge, frenzied demand for Mir cards," Ms. Obayeva s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i8150105 : Consumer Lending | i8394 : Computer Services | ifinal : Financial Services | itech : Technology | i81501 : Credit Types/Services | ibcs : Business/Consumer Services | ibnk : Banking/Credit | i8150108 : Credit Cards | ifmsoft : Financial Technology | iplastic : Electronic Payment Systems NS c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | nmajev : Major News Events | npda : DJ Exclusive Analysis - All | gcat : Political/General News | gdip : International Relations | ncat : Content Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ussrz : CIS Countries | asiaz : Asia | crimea : Crimea | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | ukrn : Ukr&lt;mark&gt;ai&lt;/mark&gt;ne | usa : United States | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC I/BKS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220329ei3t000um Page 4 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Commentary (U.S.) SE Opinion HD Be Afr&lt;mark&gt;ai&lt;/mark&gt;d of Nuclear War, Not Climate Change; Russia's war in Ukraine shows that global warming has distracted us from more important threats.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Weeks before thermobaric rockets r&lt;mark&gt;ai&lt;/mark&gt;ned down on Ukraine, the chattering classes at the World Economic Forumdeclared "climate action failure" the biggest global risk for the coming decade.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But a month into the war in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, United Nations Secretary-General António Guterres—whose organization's main purpose is ensuring world peace—was focused instead on "climate catastrophe," warning that fossil-fuel addiction will bring "mutually assured destruction."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Giving the developing world affordable access to consistently av&lt;mark&gt;ai&lt;/mark&gt;lable energy—which often requires fossil fuels—is the key to lifting most of the world out of poverty.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Yet before the invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, the developed world was racing to make fossil fuel energy more expensive and less accessible for the world's poorest.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Europe's refusal to embrace shale gas—which can be found throughout the Continent but rem&lt;mark&gt;ai&lt;/mark&gt;ns untapped—has left it at the mercy of Russian gas.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Net zero is also likely to f&lt;mark&gt;ai&lt;/mark&gt;l in the developed world, where its high costs will erode prosperity and thus political support.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;His latest book is "False Alarm: How Climate Change Panic Costs Us Trillions, Hurts the Poor, and F&lt;mark&gt;ai&lt;/mark&gt;ls to Fix the Planet."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Be Afr&lt;mark&gt;ai&lt;/mark&gt;d of Nuclear War, Not Climate Change NS gclimt : Climate Change | gvio : Military Action | gglobe : Global/World Issues | genv : Natural Environment | gpir : Politics/International Relations | gpol : Domestic Politics | gsci : Sciences/Humanities | ncolu : Columns | nedc : Commentaries/Opinions | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/ENV PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220329ei3t006pp Page 6 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Commentary (U.S.) SE Opinion HD Biden's 'Integrated Deterrence' F&lt;mark&gt;ai&lt;/mark&gt;ls in Ukraine; The buzzy term is being used to justify cuts to conventional hard power that please progressives.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP PHOTO: David Klein TD Perhaps desperate for a win after their f&lt;mark&gt;ai&lt;/mark&gt;lures in Afghanistan, senior Pentagon officials are bragging to the Washington Post about the success of "integrated deterrence" in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That required the U.S. to m&lt;mark&gt;ai&lt;/mark&gt;ntain enough military strength to turn back an adversary's aggression, particularly in Taiwan and Eastern Europe.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That's why integrated deterrence f&lt;mark&gt;ai&lt;/mark&gt;led its first big test in Ukraine, where the Biden administration relied on the threat of nonmilitary punishment to deter Vladimir Putin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Even though the Ukr&lt;mark&gt;ai&lt;/mark&gt;nians have since inspired the world through their courage and the Russians have shocked the world with their incompetence, integrated deterrence didn't work.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This is a low bar for geopolitical success and ignores the obvious reality that a NATO-Russia war is more, not less, likely since the invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Moreover, the war isn't over, and while cert&lt;mark&gt;ai&lt;/mark&gt;n Pentagon officials are celebrating, others in the Biden administration are warning of Russian cyberattacks on U.S. domestic infrastructure.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If this is the success of integrated deterrence, what would f&lt;mark&gt;ai&lt;/mark&gt;lure look like?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Not content to confine their hubris to Eastern Europe, anonymous Pentagon officials are also suggesting that integrated deterrence is working in the Western Pacific, where Xi Jinping may be rethinking a Chinese invasion of T&lt;mark&gt;ai&lt;/mark&gt;wan.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If Ukr&lt;mark&gt;ai&lt;/mark&gt;ne turns out to be Mr. Putin's graveyard, perhaps Mr. Xi will abandon his ambitions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But there is little evidence to support this wishful thinking, especially since China may yet provide Russia with military assistance in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It is also possible Mr. Xi senses an opportunity and will decide to expedite his timeline for T&lt;mark&gt;ai&lt;/mark&gt;wan, especially since Mr. Biden has consistently signaled a desire to avoid direct military confrontation with a nuclear-armed adversary.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Defending T&lt;mark&gt;ai&lt;/mark&gt;wan in the event of a Chinese invasion would require the U.S. to engage directly a nuclear-armed state.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Deterring such an invasion in the first place, which the destruction on display in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne reminds us is a far preferable outcome, will require America to integrate more conventional hard power into deterrence as quickly as possible.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Nor will they substitute for arming T&lt;mark&gt;ai&lt;/mark&gt;wan to the teeth with asymmetric capabilities before Mr. Xi launches an invasion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Its new defense budget f&lt;mark&gt;ai&lt;/mark&gt;ls to keep pace with inflation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It also includes no plan to arm T&lt;mark&gt;ai&lt;/mark&gt;wan to deny a Chinese invasion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Even after the dismemberment of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne, a $2 trillion Covid stimulus bill and a $1 trillion so-called infrastructure bill, Democrats are still talking about building back better.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The Russian people don't need another foreign adventure," an anonymous senior administration official s&lt;mark&gt;ai&lt;/mark&gt;d, rebuking the Russian dictator.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It f&lt;mark&gt;ai&lt;/mark&gt;led, at great cost to the Ukrainian people and at great risk to the world.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Biden's 'Integrated Deterrence' F&lt;mark&gt;ai&lt;/mark&gt;ls in Ukraine NS gvdef : Defense Department | gvio : Military Action | gvexe : Executive Branch | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | nedc : Commentaries/Opinions | nimage : Images | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | taiwan : Taiwan | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | apacz : Asia Pacific | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220329ei3t003bh Page 8 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Politics &amp; Ideas SE Opinion HD The Hard Truth in Biden's Gaffe; The U.S. can't resume normal relations with Russia while Putin partitions Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Administration officials scurried to walk back the suggestion that regime change in Russia was among the objectives of U.S. assistance to Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;America's NATO ambassador, Julianne Smith, suggested (plausibly enough) that Mr. Biden's words represented "a principled human reaction" to his encounter earlier in the day with hundreds of desperate Ukr&lt;mark&gt;ai&lt;/mark&gt;nian refugees.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden's impromptu remark, which dominated coverage of an otherwise strong speech, r&lt;mark&gt;ai&lt;/mark&gt;ses a larger question: Is it conceivable that the rest of the world can return to business as usual with Vladimir Putin as Russia's president, or must he and his country be treated as international pariahs so long as he remains in power?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Gen. Kyrylo Budanov, head of intelligence for Ukr&lt;mark&gt;ai&lt;/mark&gt;ne's Defense Ministry, agrees with this assessment.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It is conceivable but unlikely that if the West expands the scope and accelerates the pace of arms deliveries, Ukr&lt;mark&gt;ai&lt;/mark&gt;ne's forces could completely expel Russian invaders from their land.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;At this point, however, the most likely outcome is that both sides fall short of total victory and that a stalemate sets in, with Ukr&lt;mark&gt;ai&lt;/mark&gt;ne governing the west and Russian forces occupying the east.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This would create what Gen. Budanov calls "North and South Korea in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;One possibility is that a version of the pre-invasion status quo might resume, with Russian and Russian-backed forces occupying much more Ukr&lt;mark&gt;ai&lt;/mark&gt;nian territory than before the invasion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Sanctions would continue, as would arms shipments to Ukr&lt;mark&gt;ai&lt;/mark&gt;ne and Europe's effort to decouple from Russian energy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There is a somewhat more optimistic scenario in which the negotiations hosted by Turkey between Russia and Ukr&lt;mark&gt;ai&lt;/mark&gt;ne continue to progress and the intensity of the fighting gradually subsides.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This matters because any draft agreement would be subject to approval by popular referendum in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Before the most recent Russian invasion, Ukr&lt;mark&gt;ai&lt;/mark&gt;ne refused to accept Russia's annexation of Crimea, and it is less likely to do so after so much bloodshed and destruction at the hands of Russian forces.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;a similar vein, if Ukr&lt;mark&gt;ai&lt;/mark&gt;ne did not accept the territorial gains that Russian forces achieved in the Donbas in 2014, why would it accept the larger gains Russia has made this year?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukr&lt;mark&gt;ai&lt;/mark&gt;ne seems willing to abandon its long-held aspiration to join NATO and discuss some form of neutrality, but only in return for security guarantees from a Western coalition of the willing that Russia would find no more palatable.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Zelensky would tell his people that he had refused to cede an inch of Ukr&lt;mark&gt;ai&lt;/mark&gt;nian territory, while Mr. Putin would say that he had achieved his principal objective—protecting the Ukrainians who identify with Russia linguistically and culturally from an oppressive "Nazi" government.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;I do not see how the U.S. and its allies can resume normal relations with Russia while Vladimir Putin's army enforces a de facto partition of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It is possible that over time Western sanctions will interact with the costs of occupation (including a guerrilla war ag&lt;mark&gt;ai&lt;/mark&gt;nst the invaders) to force Russia to withdraw, as the Soviets did from Afghanistan.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But having p&lt;mark&gt;ai&lt;/mark&gt;d such a heavy price for his invasion, Mr. Putin will not readily reverse it.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Besides, a reversal would violate the pan-Russian ideology that—as much as any cost-benefit calculation—shapes his stance toward Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Then, the West was dealing with Mikh&lt;mark&gt;ai&lt;/mark&gt;l Gorbachev, with whom (as Margaret Thatcher famously opined) the West could do business.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Hard Truth in Biden's Gaffe NS gvexe : Executive Branch | gcat : Political/General News | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | nedc : Commentaries/Opinions | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukr&lt;mark&gt;ai&lt;/mark&gt;ne | russ : Russia | asiaz : Asia | crimea : Crimea | easiaz : Eastern Asia | eurz : Europe | namz : North America | pol : Poland | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eecz : European Union Countries | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220329ei3t003e9 Page 10 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE D&lt;mark&gt;ai&lt;/mark&gt;ly HD Online Ad Revenue Growth Slowed By Ukraine War: Analyst BY By Eric J. Savitz WC 492 words PD 30 March 2022 ET 01:56 SN Barron's Online SC BON LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Slowing economic activity in Europe related to the Russian invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne is likely to hurt online ad spending, Morgan Stanley analyst Brian Nowak asserted in a new research note.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The macro winds of uncert&lt;mark&gt;ai&lt;/mark&gt;nty–in particular around Europe and Russia–continue to swirl," writes Nowak, who trimmed his 2022 revenue estimates for online advertising players by between 1% and 2%.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We rem&lt;mark&gt;ai&lt;/mark&gt;n on macro data point watch for any signs of further weakening in Europe or the U.S." TD As part of the call, Nowak tweaked his price targets on four stocks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For Criteo (CRTO), a digital advertising platform, he m&lt;mark&gt;ai&lt;/mark&gt;ntains his Equal Weight rating, while cutting his target to $57, from $60.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For Meta, he thinks the headwinds from the company's investment in the TokTok competitor Reels will eventually become a t&lt;mark&gt;ai&lt;/mark&gt;lwind.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We acknowledge it may be a couple of quarters for the company to deliver revenue acceleration and Reels monetization that can instill confidence in the long-term cash flow potential but [we] rem&lt;mark&gt;ai&lt;/mark&gt;n bullish from a 12-month perspective," he writes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Eric J. Savitz at eric.savitz@barrons.com Online Ad Revenue Growth Slowed By Ukr&lt;mark&gt;ai&lt;/mark&gt;ne War: Analyst Page 11 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO weqboc : Nextdoor Holdings Inc. | fjfvpl : Snap Inc IN i838 : Advertising Services | i3302 : Computers/Consumer Electronics | i330202 : Software | i8385 : Digital Marketing | iadv : Advertising/Marketing/Public Relations | ibcs : Business/Consumer Services | icph : Computer Hardware | iint : Online Service Providers | imed : Media/Entert&lt;mark&gt;ai&lt;/mark&gt;nment | itech : Technology | icomp : Computing | imark : Marketing | i3302021 : Applications Software | icmsw : Communications Software | isocial : Social Media Platforms/Tools NS c1521 : Analysts' Comments/Recommendations | c31 : Marketing | cadsp : Advertising Spending | ccat : Corporate/Industrial News | c1513 : Sales Figures | c32 : Advertising | c15 : Financial Performance | c151 : Earnings | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE ukrn : Ukraine | eurz : Europe | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Barrons IPC I/ADV PUB Dow Jones &amp; Company, Inc. AN Document BON0000020220329ei3t003pd Page 12 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE D&lt;mark&gt;ai&lt;/mark&gt;ly HD Chubais's Exit Ends a Contradictory Effort to Build a New Russia BY By Andrei Kolesnikov WC 1,251 words PD 29 March 2022 ET 13:30 SN Barron's Online SC BON LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He is author of several books, including a biography of Anatoly Chub&lt;mark&gt;ai&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ever since Russia invaded Ukr&lt;mark&gt;ai&lt;/mark&gt;ne last month, sending the ruble plummeting and prompting a mass exodus of shocked middle-class residents of the big cities, the sight of Russians lining up to empty ATMs has become a familiar one.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On March 23, according to the newspaper Kommersant, the man spotted doing just that in Istanbul was Anatoly Chub&lt;mark&gt;ai&lt;/mark&gt;s, a special envoy to Russian President Vladimir Putin for relations with international organizations on the energy transition, and the architect of Russia's privatization in the 1990s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If the reports of his departure are true, he has joined the ranks of those who have fled Russia because they feel life there is intolerable while their country is waging war on neighboring Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Anatoly Chub&lt;mark&gt;ai&lt;/mark&gt;s, a pragmatic romantic—or romantic pragmatist—who built a market economy in a land without any market traditions, was directly linked to that past.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In 1996, Putin's boss Anatoly Sobchak, the first democratically elected mayor of St. Petersburg following the Soviet collapse, f&lt;mark&gt;ai&lt;/mark&gt;led to be re-elected.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;His colleagues asked Chub&lt;mark&gt;ai&lt;/mark&gt;s, back then also at the start of his career as an official in the municipal administration of Leningrad, as St. Petersburg was known, to help find a new position for Putin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Chub&lt;mark&gt;ai&lt;/mark&gt;s knew Putin in passing from the work at the St. Petersburg mayor's office.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Such requests were commonplace, and Chub&lt;mark&gt;ai&lt;/mark&gt;s, as head of President Boris Yeltsin's administration, got Putin a minor position within the Kremlin apparatus.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;By then, Chub&lt;mark&gt;ai&lt;/mark&gt;s had left the government to work on reforming the electrical energy sector, but he retained enormous informal influence, and had direct access to the president.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Chub&lt;mark&gt;ai&lt;/mark&gt;s did not consider Putin a worthy heir to the first leader of post-Soviet Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But this was one of the rare occasions on which Yeltsin did not listen to Chub&lt;mark&gt;ai&lt;/mark&gt;s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Chub&lt;mark&gt;ai&lt;/mark&gt;s, ever politically practical, went on to support Putin in his political career, despite the warnings of many of his associates.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The relationship between Chub&lt;mark&gt;ai&lt;/mark&gt;s and Putin was full of contradictions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The future Russian dictator was barely able to forgive Chub&lt;mark&gt;ai&lt;/mark&gt;s's opposition to his appointment as Yeltsin's successor, but at the same time, he knew full well that it was Chubais who had set in motion—however indifferently—his rise to the top.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In addition, Putin and Chub&lt;mark&gt;ai&lt;/mark&gt;s shared a close mutual friend from their time at the St. Petersburg mayor's office: Alexei Kudrin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Chub&lt;mark&gt;ai&lt;/mark&gt;s played strictly by the rules, never criticizing Putin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Chub&lt;mark&gt;ai&lt;/mark&gt;s was accused of appeasement, and of being naïve or cynically opportunistic.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;One of Chub&lt;mark&gt;ai&lt;/mark&gt;s's gentle opponents was his close friend Yegor Gaidar, the main architect of Russia's post-Soviet economic and political reforms, and a moral authority for many democratic-minded intellectuals in Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;G&lt;mark&gt;ai&lt;/mark&gt;dar died in 2009, and in recent times, Chubais often said that he would have disagreed with his friend, who categorically did not believe that authoritarian modernization was possible.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On G&lt;mark&gt;ai&lt;/mark&gt;dar's birthday, March 19, Chubais wrote on social media that his late friend had, after all, turned out to have been "strategically correct."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This was a signal that Chub&lt;mark&gt;ai&lt;/mark&gt;s had lost hope in the possibility of any development in Russia under Putin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;No conspiracy ag&lt;mark&gt;ai&lt;/mark&gt;nst the dictator is possible, either within the state apparatus, or in political circles, or by the oligarchs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Putin once s&lt;mark&gt;ai&lt;/mark&gt;d that liberalism in Russia was obsolete.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An act that has destroyed all the achievements of the Yeltsin era and put an end to the Russia that Chub&lt;mark&gt;ai&lt;/mark&gt;s, Gaidar, and their colleagues had tried to build.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Chub&lt;mark&gt;ai&lt;/mark&gt;s's Exit Ends a Contradictory Effort to Build a New Russia CO cgwtpq : Carnegie Endowment for International Peace NS gvexe : Executive Branch | gcat : Political/General News | gpir : Politics/International Relations | gpol : Domestic Politics | gvbod : Government Bodies RE russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD Commentary IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document BON0000020220329ei3t0008d Page 14 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This wide-open view of the inner workings of what is perhaps the world's biggest and most dangerous organized cybercrime group is a surprising consequence of the war in Ukr&lt;mark&gt;ai&lt;/mark&gt;ne.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An anonymous researcher who had infiltrated the group's servers, and who identified himself as Ukr&lt;mark&gt;ai&lt;/mark&gt;nian, posted the data on Twitter on Feb. 27.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Ukr&lt;mark&gt;ai&lt;/mark&gt;ne will Rise!"&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne last month prompted the researcher to leak the information, according to two people who know him and can verify the work he did to capture Trickbot communications and pass them on to Western cybersecurity professionals.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The data include technical det&lt;mark&gt;ai&lt;/mark&gt;ls that align with attacks using ransomware called Conti that Trickbot has previously claimed, as well as a breach previously attributed by security experts to another strain of ransomware developed by the group called Ryuk, according to an analysis of the data by The Wall Street Journal.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. Treasury Department s&lt;mark&gt;ai&lt;/mark&gt;d last fall that ransomware payments by American companies that were flagged by U.S. banks in the first six months of 2021 had nearly doubled to almost $600 million from the previous year's period.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Officials say cybercriminal groups could target the U.S. as a form of retaliation for the West's support for Ukr&lt;mark&gt;ai&lt;/mark&gt;ne against Moscow's invasion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Gen. Paul Nakasone, the head of the National Security Agency and U.S. Cyber Command, warned during a Senate hearing this month that Russia could become more likely to lash out with ransomware or other aggressive cyberattacks as the Ukr&lt;mark&gt;ai&lt;/mark&gt;ne conflict drags on.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Monday, a Ukr&lt;mark&gt;ai&lt;/mark&gt;nian internet service provider used by the country's military suffered a massive cyberattack, disrupting its services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden last week s&lt;mark&gt;ai&lt;/mark&gt;d evolving intelligence indicated the Kremlin was looking to target the U.S. with cyberattacks in response to economic sanctions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The group's Conti ransomware str&lt;mark&gt;ai&lt;/mark&gt;n was used in 16 targeted attacks on U.S. emergency responders last year, including hospitals and 911 call centers, according to the FBI.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Feb. 27, the anonymous researcher posted nearly two years of data -- private chat messages, financial information, source code and other technical det&lt;mark&gt;ai&lt;/mark&gt;ls -- which he described as belonging to the operators of the Conti ransomware.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The leaks depict a highly professional and ruthless ransomware organization at the top of its game, s&lt;mark&gt;ai&lt;/mark&gt;d John Fokker, head of cyber investigations with the security firm Trellix.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"They don't care if they go after a hospital," he s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The network of machines had been infected for the purpose of conducting cyberattacks, they s&lt;mark&gt;ai&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"[T]hese offline bots will demoralize everyone," one Trickbot manager compl&lt;mark&gt;ai&lt;/mark&gt;ned, referring to the hacked PCs that abruptly stopped accepting orders from the group.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"I don't think I've ever been as scared as I was that week," s&lt;mark&gt;ai&lt;/mark&gt;d Joshua Corman, former chief strategist with the Cybersecurity and Infrastructure Security Agency's Covid Task Force, a Homeland Security group set up to protect the healthcare sector during the pandemic.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The group's Conti ransomware business received payments of $70 million in 2020 and more than $200 million in 2021, according to blockch&lt;mark&gt;ai&lt;/mark&gt;n analytics firm Chainalysis.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As of early March, it had taken in $13.5 million, Ch&lt;mark&gt;ai&lt;/mark&gt;nalysis said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We can see conversations that are very suggestive that at least a small portion of these threat actors might have some sort of relationship with Russian intelligence or the Russian government apparatus," where the hackers may work to obt&lt;mark&gt;ai&lt;/mark&gt;n intelligence for the government, said Kimberly Goody, director of cybercrime analysis with the security firm Mandiant.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"[T]he investigator s&lt;mark&gt;ai&lt;/mark&gt;d why it was renewed -- the Americans officially requested information on Russian hackers. . .We were summoned by the investigator next Tuesday for a talk, but sort of as witnesses for now."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Earlier last year, members of the group discussed specifically targeting "people who work ag&lt;mark&gt;ai&lt;/mark&gt;nst the Russian Federation," instead of limiting their attacks to large corporations that can afford sizable ransom payments, their previous strategy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;One of the hackers cl&lt;mark&gt;ai&lt;/mark&gt;med to have breached the email of a reporter at the open-source investigations organization Bellingcat, and scoured for information on an investigation implicating Russia's FSB, its civilian intelligence agency, in the 2020 nerve agent poisoning of Russian opposition leader Alexei Navalny.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's invasion of Ukr&lt;mark&gt;ai&lt;/mark&gt;ne stirred patriotic sentiments in some group members.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The group m&lt;mark&gt;ai&lt;/mark&gt;ntained offices in Moscow, which it used to recruit new talent, but, like other businesses, switched to a work-from-home model during the Covid outbreak, according to Vitali Kremez, the chief executive with the security company AdvIntel, who reached those conclusions based on his own intelligence gathering.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The hackers talk about the struggle to recruit technical talent, tell jokes, grouse about vacation and even muse about launching their own cryptocurrency blockch&lt;mark&gt;ai&lt;/mark&gt;n.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In one of the chats, Trickbot's operators cl&lt;mark&gt;ai&lt;/mark&gt;m to have a journalist, whose name and organization wasn't revealed, on the payroll who would take a 5% commission on extortion payments in exchange for pressuring victims by threatening critical coverage of breaches.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In late February, Trickbot announced it was supporting the Kremlin and threatened to respond forcefully to any cyberattacks ag&lt;mark&gt;ai&lt;/mark&gt;nst Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The gang itself is in shambles," s&lt;mark&gt;ai&lt;/mark&gt;d Mr. Holden, indicating the leak disrupted the group's operations.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS gcvir : Malware | ghack : Cybercrime/Hacking | gdatap : Privacy Issues/Information Security | gext : Extortion/Blackm&lt;mark&gt;ai&lt;/mark&gt;l | gcrim : Crime/Legal Action | gsecbr : Data Security Breaches | gout : Outbreaks/Epidemics | c13 : Regulation/Government Policy | gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | nimage : Images | npag : Page One Stories | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gcat : Political/General News | gdip : International Relations | gfinc : Financial Crime | ghea : Health | gmed : Medical Conditions | gpir : Politics/International Relations | gspox : Infectious Diseases | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC PIC PUB Dow Jones &amp; Company, Inc. AN Document J000000020220329ei3t0001d Page 18 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukr&lt;mark&gt;ai&lt;/mark&gt;ne Crisis: Ruble Rebounds With Bank's Help BY By Caitlin Ostroff WC 700 words PD 29 March 2022 SN The Wall Street Journal SC J PG A7 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It is now trading at about 99 rubles to the dollar, roughly 17% weaker than it was before Russian troops invaded Ukr&lt;mark&gt;ai&lt;/mark&gt;ne on Feb. 24 but stronger than its record low of 151 on March 7, according to FactSet.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Western sanctions ag&lt;mark&gt;ai&lt;/mark&gt;nst Russia left carve-outs for exporters of energy upon which Europe is particularly dependent, which kept dollars and euros flowing into the country.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"It is f&lt;mark&gt;ai&lt;/mark&gt;r to say that the ruble is not a market price," said Robin Brooks, chief economist at the Institute of International Finance.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian President Vladimir Putin recently s&lt;mark&gt;ai&lt;/mark&gt;d he wants European nations to begin buying Russian gas with rubles rather than dollars and euros.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That would reverse the current flow of money, making sanctioning nations support Russia's currency and ensuring that all funds from energy sales support its value, s&lt;mark&gt;ai&lt;/mark&gt;d Christian Kopf, head of fixed income at asset manager Union Investment.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;At the same time, Russia is continuing to sell its oil, meaning exports and money g&lt;mark&gt;ai&lt;/mark&gt;ned from those will more than make up for the money necessary for imports.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"There's so much stuff you're not allowed to buy or sell," s&lt;mark&gt;ai&lt;/mark&gt;d George Pearkes, a macro strategist at Bespoke Investment Group.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Sberbank PJSC offered about 89 rubles for a dollar while the Russian website of Austria's R&lt;mark&gt;ai&lt;/mark&gt;ffeisen Bank quoted 86.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We're looking at a Russian ruble that is longer-term significantly weakened," s&lt;mark&gt;ai&lt;/mark&gt;d </t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AR </t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>201</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;The system was part of Moscow's eight-ye&lt;mark&gt;ar &lt;/mark&gt;effort to insulate the Russian economy from Western financial pressure.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The resilience of Russia's payments system is a rare win for President Vladimir Putin in his financial w&lt;mark&gt;ar &lt;/mark&gt;with the West.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On a February call to discuss potential Russia sanctions, executives from Visa, Mastercard and other payments companies told Treasury Department officials that banning U.S. networks from handling Russian bank transactions wouldn't be especially painful, according to people famili&lt;mark&gt;ar &lt;/mark&gt;with the matter.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Commentary (U.S.) SE Opinion HD Be Afraid of Nucle&lt;mark&gt;ar &lt;/mark&gt;War, Not Climate Change; Russia's war in Ukraine shows that global warming has distracted us from more important threats.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's invasion should be a wake-up call that w&lt;mark&gt;ar &lt;/mark&gt;is still a serious danger that requires democratic nations' attention.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But a month into the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine, United Nations Secretary-General António Guterres—whose organization's main purpose is ensuring world peace—was focused instead on "climate catastrophe," warning that fossil-fuel addiction will bring "mutually assured destruction."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;His comments come at a time when nucle&lt;mark&gt;ar &lt;/mark&gt;weapons are posing the biggest risk of literal mutually assured destruction in half a century.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Third, in the world's poorest countries, the international community's focus on putting up sol&lt;mark&gt;ar &lt;/mark&gt;panels coexists with a woeful underinvestment in solutions to massive existing problems.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;These and other issues plaguing the developing world are solvable, but get f&lt;mark&gt;ar &lt;/mark&gt;less funding from wealthy countries than climate change.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If climate change continues unabated, the average person will be "only" 434% as rich—a f&lt;mark&gt;ar &lt;/mark&gt;from catastrophic outcome.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Globally, last ye&lt;mark&gt;ar &lt;/mark&gt;saw the most CO2 emissions ever, despite $5 trillion spent over the past decade on climate policies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Sol&lt;mark&gt;ar &lt;/mark&gt;and wind produce only 3% of the European Union's energy, and the technology is unreliable, often requiring backup from gas when the sun doesn't shine or the wind doesn't blow.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;According to McKinsey, the policies will cost $9.2 trillion every ye&lt;mark&gt;ar &lt;/mark&gt;until net zero is supposed to be achieved in 2050.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Be Afraid of Nucle&lt;mark&gt;ar &lt;/mark&gt;War, Not Climate Change NS gclimt : Climate Change | gvio : Military Action | gglobe : Global/World Issues | genv : Natural Environment | gpir : Politics/International Relations | gpol : Domestic Politics | gsci : Sciences/Humanities | ncolu : Columns | nedc : Commentaries/Opinions | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/ENV PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220329ei3t006pp Page 6 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The administration delayed lethal assistance to Kyiv for months and repeatedly signaled that military force was off the table for fe&lt;mark&gt;ar &lt;/mark&gt;of provoking Mr. Putin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Nevertheless, anonymous Pentagon officials are spiking the football and moving the goal posts, arguing that integrated deterrence is working because Mr. Putin hasn't expanded his w&lt;mark&gt;ar &lt;/mark&gt;into North Atlantic Treaty Organization territory.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This is a low b&lt;mark&gt;ar &lt;/mark&gt;for geopolitical success and ignores the obvious reality that a NATO-Russia war is more, not less, likely since the invasion of Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Moreover, the w&lt;mark&gt;ar &lt;/mark&gt;isn't over, and while certain Pentagon officials are celebrating, others in the Biden administration are warning of Russian cyberattacks on U.S. domestic infrastructure.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;are concerned that Mr. Putin could use tactical nucle&lt;mark&gt;ar &lt;/mark&gt;weapons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Deterring such an invasion in the first place, which the destruction on display in Ukraine reminds us is a f&lt;mark&gt;ar &lt;/mark&gt;preferable outcome, will require America to integrate more conventional hard power into deterrence as quickly as possible.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;They've gone so f&lt;mark&gt;ar &lt;/mark&gt;as to project these preferences onto Mr. Putin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Much depends on how the w&lt;mark&gt;ar &lt;/mark&gt;ends.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It is now cle&lt;mark&gt;ar &lt;/mark&gt;that Mr. Putin cannot achieve his initial objective: swiftly overthrowing Volodymyr Zelensky's government and installing a compliant regime in Kyiv.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Even so, the most Mr. Zelensky could offer without sparking domestic opposition would fall f&lt;mark&gt;ar &lt;/mark&gt;short of the least Mr. Putin could accept without jeopardizing his survival as Russia's leader.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This matters because any draft agreement would be subject to approval by popul&lt;mark&gt;ar &lt;/mark&gt;referendum in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;a simil&lt;mark&gt;ar &lt;/mark&gt;vein, if Ukraine did not accept the territorial gains that Russian forces achieved in the Donbas in 2014, why would it accept the larger gains Russia has made this year?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It is possible that over time Western sanctions will interact with the costs of occupation (including a guerrilla w&lt;mark&gt;ar &lt;/mark&gt;against the invaders) to force Russia to withdraw, as the Soviets did from Afghanistan.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Could the kind of creative statesmanship that peacefully ended the Cold W&lt;mark&gt;ar &lt;/mark&gt;succeed in these circumstances?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The macro winds of uncertainty–in particul&lt;mark&gt;ar &lt;/mark&gt;around Europe and Russia–continue to swirl," writes Nowak, who trimmed his 2022 revenue estimates for online advertising players by between 1% and 2%.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ever since Russia invaded Ukraine last month, sending the ruble plummeting and prompting a mass exodus of shocked middle-class residents of the big cities, the sight of Russians lining up to empty ATMs has become a famili&lt;mark&gt;ar &lt;/mark&gt;one.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If the reports of his departure are true, he has joined the ranks of those who have fled Russia because they feel life there is intolerable while their country is waging w&lt;mark&gt;ar &lt;/mark&gt;on neighboring Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;At that time, the liberals assumed they would have complete control over Putin as the new presidential candidate, who had become popul&lt;mark&gt;ar &lt;/mark&gt;as a result of his tough actions in Russia's breakaway republic of Chechnya.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Gaid&lt;mark&gt;ar &lt;/mark&gt;died in 2009, and in recent times, Chubais often said that he would have disagreed with his friend, who categorically did not believe that authoritarian modernization was possible.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It was an admission of defeat: the defeat of a more than 40-ye&lt;mark&gt;ar &lt;/mark&gt;mission by young Soviet economists, first to draw up reforms, and then to implement them under Yeltsin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This wide-open view of the inner workings of what is perhaps the world's biggest and most dangerous organized cybercrime group is a surprising consequence of the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;U.S. officials are weighing whether to sanction the Trickbot group, according to sources famili&lt;mark&gt;ar &lt;/mark&gt;with the Treasury Department's thinking.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In September 2020, U.S. officials at U.S. Cyber Command and elsewhere were successful in freeing thousands of computers from the hackers' control, according to current and former officials and others famili&lt;mark&gt;ar &lt;/mark&gt;with the operation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"If there were a free flow in both directions, we would see a f&lt;mark&gt;ar &lt;/mark&gt;weaker ruble."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;After the w&lt;mark&gt;ar &lt;/mark&gt;broke out, the ruble market split to have one value within Russia and another on international markets.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In onshore trading, Russia's currency was valued at 94 rubles to the doll&lt;mark&gt;ar &lt;/mark&gt;on Monday, while it traded at 98 in international markets.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Sberbank PJSC offered about 89 rubles for a doll&lt;mark&gt;ar &lt;/mark&gt;while the Russian website of Austria's Raiffeisen Bank quoted 86.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Banks, worried about running afoul of Western sanctions, are having to cle&lt;mark&gt;ar &lt;/mark&gt;every ruble transaction with their legal and compliance departments, traders say.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;HD The Ukraine Crisis: W&lt;mark&gt;ar &lt;/mark&gt;Divides Russian Speakers in Latvia --- More young people reject older relatives' allegiance to Moscow as conflict deepens BY By Sune Engel Rasmussen WC 838 words PD 29 March 2022 SN The Wall Street Journal SC J PG A6 LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Now those old allegiances are being tested and generational divides exposed by President Vladimir Putin's w&lt;mark&gt;ar &lt;/mark&gt;on Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Journalist Anna Leitland-Grigorjeva and her husband, Arturs, an engineer, run a YouTube channel where she interviews experts about the w&lt;mark&gt;ar &lt;/mark&gt;in Russian.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The couple have only carefully broached the subject of the w&lt;mark&gt;ar &lt;/mark&gt;with her parents back in Russia, and his in Riga.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Whether they and others like them succeed could determine Russia's future influence among its aging pockets of sympathizers, for whom the wounds of the Cold W&lt;mark&gt;ar &lt;/mark&gt;had never fully healed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;However, the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine could change views among Russian speakers, he said, weakening Moscow's leverage in the community.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP TEL AVIV -- Israel is bracing for one of the biggest waves of non-Jewish refugees in its history, as incoming Ukrainians force the country to balance its historic desire to help people fleeing w&lt;mark&gt;ar &lt;/mark&gt;with its responsibility as a haven for Jews.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While most of the 3.7 million Ukrainians who have fled the w&lt;mark&gt;ar &lt;/mark&gt;are headed to neighboring European countries, the influx has jolted Israel, which has a population of 9.3 million.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Some Israeli officials fe&lt;mark&gt;ar &lt;/mark&gt;that an unchecked wave of refugees could undercut the country's Jewish majority.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Israeli Interior Minister Ayelet Shaked on March 8 announced a policy to cap non-Jewish refugees from Ukraine at 5,000 while permitting an additional 20,000 Ukrainians residing in Israel largely without legal status before the w&lt;mark&gt;ar &lt;/mark&gt;to remain during the hostilities.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The nearby United Arab Emirates took a simil&lt;mark&gt;ar &lt;/mark&gt;step in early March before quickly backtracking.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Zelensky, who is Jewish, compared Ukrainians fleeing the w&lt;mark&gt;ar &lt;/mark&gt;to Jews escaping Nazi persecution during the Holocaust.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Israeli officials have argued the visa-waiver program is for touristic purposes, while those fleeing w&lt;mark&gt;ar &lt;/mark&gt;would be more likely to remain in the country.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Alla Misiuk and her daughter are among about a dozen non-Jewish families being brought to Israel with the help of Jerusalem's Yad Vashem Holocaust Museum because their families saved the lives of Jews during World W&lt;mark&gt;ar &lt;/mark&gt;II.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It said any profit generated from its Russian business during the w&lt;mark&gt;ar &lt;/mark&gt;would be donated to relief organizations.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Heineken said it would continue to pay its 1,800 staff in Russia until the end of the ye&lt;mark&gt;ar &lt;/mark&gt;and that it wouldn't profit from any transfer of ownership of its operations there.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Japan imports most of its energy, including natural gas from the Russian island of Sakhalin in the F&lt;mark&gt;ar &lt;/mark&gt;East just north of Japan.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But Hiroshima Gas committed itself more deeply to Moscow in a 2006 deal under which it is importing up to 210,000 tons of liquefied natural gas from Sakhalin every ye&lt;mark&gt;ar &lt;/mark&gt;from 2008 to 2028.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Starting in 2009, Hiroshima Gas executive Hideki Fukayama, then president and subsequently chairman, donated 240,000 yen, equivalent to $2,000, each ye&lt;mark&gt;ar &lt;/mark&gt;to the ruling Liberal Democratic Party's political organization in the district, which is headed by Mr. Kishida.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;After Mr. Fukayama retired as chairman in June 2017, he halted his donations and the new chairman, Kozo Tamura, started donating at the same $2,000-a-ye&lt;mark&gt;ar &lt;/mark&gt;pace through 2020, the most recent year for which records are available.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Tamura was one of only three individuals in that ye&lt;mark&gt;ar &lt;/mark&gt;to donate more than $500.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The prime minister's aides rejected the notion that Japan's purchases from Russia amounted to significant support for Mr. Putin's w&lt;mark&gt;ar &lt;/mark&gt;machine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The energy trade has been one of the few areas of cooperation between Japan and Russia amid a long-running dispute over islands seized from Japan by Soviet troops at the end of World W&lt;mark&gt;ar &lt;/mark&gt;II.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukrainian forces say they drove Moscow's troops out of a northeastern town ne&lt;mark&gt;ar &lt;/mark&gt;the Russian border, potentially opening a road to the provincial capital of Sumy, which is encircled by the Russians.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Jessica Chastain won the Best Actress Osc&lt;mark&gt;ar &lt;/mark&gt;for The Eyes of Tammy Faye.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Europe News SE World HD Internet Provider to Ukrainian Military Hit With Major Cyberattack; Attack fuels fears that Russia, with ground w&lt;mark&gt;ar &lt;/mark&gt;stalling, could launch destructive cyber campaign BY By Robert McMillan and Dustin Volz WC 605 words PD 29 March 2022 ET 03:20 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP A Ukrainian internet service provider used by the country's military suffered a massive cyberattack on Monday, Ukrainian officials said, fueling fears that Russia intends to wield more dangerous digital weapons as the w&lt;mark&gt;ar &lt;/mark&gt;drags into its second month.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The administration is seeking $813 billion for military spending in fiscal ye&lt;mark&gt;ar &lt;/mark&gt;2023, which begins Oct. 1, a roughly 4% increase from the $782 billion enacted for this fiscal year.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The proposed military spending would be the largest ever, if enacted, but it wouldn't be the biggest one-ye&lt;mark&gt;ar &lt;/mark&gt;increase when compared with some previous years during the wars in Iraq and Afghanistan.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. ended its 20-ye&lt;mark&gt;ar &lt;/mark&gt;war in Afghanistan in August, but is now working to address the crisis in Europe.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Senate Minority Leader Mitch McConnell (R., Ky.) said the administration's proposed increase in military funding was inadequate because it doesn't keep up with the rate of inflation, which rose nearly 8% from a ye&lt;mark&gt;ar &lt;/mark&gt;earlier in February.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The proposal reflects the administration's desire to please immigration advocates after a ye&lt;mark&gt;ar &lt;/mark&gt;of maintaining several Trump administration immigration policies, and reflects its goal of releasing more immigrants in the country illegally with ankle bracelets rather than jailing them.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Russia News SE World HD Putin's W&lt;mark&gt;ar &lt;/mark&gt;in Ukraine Tests Allegiances of Russian Speakers in Former Soviet Latvia; A large minority in the country looked to Moscow after the Cold War.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Now those old allegiances are being tested and generational divides exposed by President Vladimir Putin's w&lt;mark&gt;ar &lt;/mark&gt;on Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Journalist Anna Leitland-Grigorjeva and her husband, Arturs, who has a day job as an engineer, run a YouTube channel where she interviews experts about the w&lt;mark&gt;ar &lt;/mark&gt;in Russian.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The couple have only carefully broached the subject of the w&lt;mark&gt;ar &lt;/mark&gt;with her parents back in Russia, and his in Riga.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Whether they and others like them succeed could determine Russia's future influence among its aging pockets of sympathizers, for whom the wounds of the Cold W&lt;mark&gt;ar &lt;/mark&gt;had never fully healed.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In Serbia, where NATO bombardments during the Kosovo w&lt;mark&gt;ar &lt;/mark&gt;are keenly remembered, protesters recently mobilized a mass protest in support of Mr. Putin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;However, the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine could change views among Russian speakers, he said, weakening Moscow's leverage in the community.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Sune Engel Rasmussen at sune.rasmussen@wsj.com Putin's W&lt;mark&gt;ar &lt;/mark&gt;in Ukraine Tests Allegiances of Russian Speakers in Former Soviet Latvia NS gvexe : Executive Branch | gcat : Political/General News | gcns : National/Public Security | gethm : Ethnic Minorities | gpir : Politics/International Relations | gsec : State Security Measures/Policies | gvio : Military Action | ncolu : Columns | gcom : Society/Community | gpol : Domestic Politics | grisk : Risk News | gsoc : Social Issues | gvbod : Government Bodies | ncat : Content Types RE russ : Russia | latv : Latvia | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | riga : Riga | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | apacz : Asia Pacific | baltst : Baltic States | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC N/CMR PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220328ei3s000rt Page 44 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP KYIV, Ukraine—Russia and Ukraine prepared to hold cease-fire talks in Turkey to try to end more than a month of w&lt;mark&gt;ar &lt;/mark&gt;while intense fighting continued, with Ukrainian forces pressing to retake territory north of the capital Kyiv after Russian forces fired missiles at several Ukrainian cities overnight.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Read live updates on Russia's invasion of Ukraine The Kremlin said negotiations so f&lt;mark&gt;ar &lt;/mark&gt;haven't yielded any breakthroughs, and Western officials have expressed doubts about whether Russia is ready to halt hostilities in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;At the White House on Monday, President Biden said his comment suggesting Russian President Vladimir Putin shouldn't continue to hold power reflected moral outrage he was feeling, and he said it didn't hurt attempts to end the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Earlier this month, Russian oligarch Roman Abramovich, who has become involved in attempts to end the war, and Ukrainian peace negotiators suffered symptoms of suspected poisoning after a meeting in Kyiv, people famili&lt;mark&gt;ar &lt;/mark&gt;with the matter said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He pointed to the 1994 Budapest memorandum, in which Ukraine renounced nucle&lt;mark&gt;ar &lt;/mark&gt;weapons in return for security guarantees from Russia, the U.S. and the U.K., noting that Russia had invaded Ukraine anyway and Western countries hadn't prevented it.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;He reiterated that Ukraine's government won't step down, nor accept demilitarization of the country, rejecting two of Russia's w&lt;mark&gt;ar &lt;/mark&gt;aims.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukrainian forces said Sunday they drove Russian troops out of Trostyanets, in the northeast ne&lt;mark&gt;ar &lt;/mark&gt;the Russian border, potentially opening a road to the provincial capital of Sumy, which is encircled by the Russians.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's Defense Ministry said its forces had shot down Ukrainian jets ne&lt;mark&gt;ar &lt;/mark&gt;the city of Chernihiv, north of Kyiv.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It isn't cle&lt;mark&gt;ar &lt;/mark&gt;how well trained these new Russian troops will be and whether they will have access to enough high-grade weaponry to make quick gains against battle-hardened Ukrainian troops there.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But they warn that the w&lt;mark&gt;ar &lt;/mark&gt;is far from won for Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM National Security SE Politics HD Pentagon Seeks Higher Military Spending to Keep Pace With China, Russia; Officials cite threat of Beijing's expanding forces and Ukraine w&lt;mark&gt;ar &lt;/mark&gt;in budget request that focuses on space and nuclear capabilities BY By Doug Cameron WC 692 words PD 29 March 2022 ET 02:44 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP The White House requested an initial $773 billion budget for the Pentagon in fiscal 2023, up 4% from the prior ye&lt;mark&gt;ar &lt;/mark&gt;and the starting point for discussions with Congress, elevated by the continuing war in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Biden administration's military budget request focuses on development of new weapons systems, especially refreshing America's arsenal of long-range nucle&lt;mark&gt;ar &lt;/mark&gt;missiles delivered from bombers, land-based silos and submarines.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. spends more by f&lt;mark&gt;ar &lt;/mark&gt;on defense than any other country, with watchdogs such as the Project on Government Oversight estimating an annual budget of over $1 trillion on national security.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Boeing in recent years lost out to Northrop Grumman on deals to build the B-21 long-range bomber and new nucle&lt;mark&gt;ar &lt;/mark&gt;missiles.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Defense stocks underperformed the broader market in 2021 after companies forecast a flat or shrinking budget this ye&lt;mark&gt;ar &lt;/mark&gt;in real terms, when inflation was taken into account.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Doug Cameron at doug.cameron@wsj.com Pentagon Seeks Higher Military Spending to Keep Pace With China, Russia IN i1 : Energy NS gweap : Weapons Programs | gvio : Military Action | e1108 : Budget Figures | gvdef : Defense Department | gnuclw : Nucle&lt;mark&gt;ar &lt;/mark&gt;Weapons Programs | e11 : Economic Performance/Indicators | e211 : Government Budget/Taxation | ecat : Economic News | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | npred : Economic Predictions/Forecasts | gcat : Political/General News | e21 : Government Finance | gcns : National/Public Security | gdef : Armed Forces | grisk : Risk News | gvbod : Government Bodies | gvexe : Executive Branch | ncat : Content Types RE ukrn : Ukraine | usa : United States | russ : Russia | asiaz : Asia | china : China | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usdc : Washington DC | uss : Southern U.S. | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC BA PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220328ei3s003e9 Page 50 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It's one thing to misidentify your vice president as the first lady, quite another to call for the ouster of an autocratic and bellicose leader of a nation with nucle&lt;mark&gt;ar &lt;/mark&gt;weapons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;John F. Kennedy said that during World W&lt;mark&gt;ar &lt;/mark&gt;II, Winston Churchill "mobilized the English language and sent it into battle."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Commentary (U.S.) SE Opinion HD Ukraine W&lt;mark&gt;ar &lt;/mark&gt;Shows the 'Rules-Based International Order' Is a Myth; There are no global threats or standards, only regional equilibria requiring constant maintenance.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An Earth-spanning security space governed by global rules or a few key powers doesn't exist, as the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine should remind us.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Realists saw a world order underwritten by a rough equilibrium between the great powers—the U.S., Russia and China—with nucle&lt;mark&gt;ar &lt;/mark&gt;weapons as an effective pacifying equalizer.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine is the first full-fledged military offensive that aims to change the local balance of power drastically.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A revisionist power is likely to pursue its goals, such as conquest of territory or control over a neighboring state's political life, through w&lt;mark&gt;ar &lt;/mark&gt;more than through Page 53 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In the end, both sides are interested less in preventing w&lt;mark&gt;ar &lt;/mark&gt;than in making war usable for their own objectives.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;W&lt;mark&gt;ar &lt;/mark&gt;is an enduring regional reality.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As President Biden has said, the goal is to "strive to prevent" World W&lt;mark&gt;ar &lt;/mark&gt;III.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The states they threaten will also choose w&lt;mark&gt;ar &lt;/mark&gt;over submission, regional disorder over lost independence.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.S. will have to figure out how to navigate, even embrace, instability and w&lt;mark&gt;ar &lt;/mark&gt;in regions that are important to its national interests.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Thus we he&lt;mark&gt;ar &lt;/mark&gt;talk of "uniting" Europe and "pivoting" to Asia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It is historically rare for a local contest to come to a permanent end—usually only when a devastating w&lt;mark&gt;ar &lt;/mark&gt;redraws the map in blood.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The current w&lt;mark&gt;ar &lt;/mark&gt;between Russia and Ukraine will end at some point, but the contest between the two nations won't.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine W&lt;mark&gt;ar &lt;/mark&gt;Shows the 'Rules-Based International Order' Is a Myth NS gvio : Military Action | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | nedc : Commentaries/Opinions | nimage : Images | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220328ei3s004bl Page 54 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Global View SE Opinion HD Russia's W&lt;mark&gt;ar &lt;/mark&gt;With Ukraine Unifies Europe; The conflict positions Germany to be the military and economic powerhouse of the EU.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Worse for Russia, Mr. Putin's w&lt;mark&gt;ar &lt;/mark&gt;is making Germany more powerful, more activist and more Atlanticist, a combination likely to support American power and undercut Russian influence in Europe for many years to come.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD To describe Germany as a winner in Mr. Putin's w&lt;mark&gt;ar &lt;/mark&gt;against Ukraine would go too far.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The w&lt;mark&gt;ar &lt;/mark&gt;upended the assumptions on which German energy and security policy has long rested and forced Germany to make harsh decisions it preferred to avoid.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The American military presence in Europe calms countries like Poland that might otherwise fe&lt;mark&gt;ar &lt;/mark&gt;a rearming Germany even as the NATO security guarantee provides much more confidence than EU security guarantees alone ever could.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Putin's war, so f&lt;mark&gt;ar &lt;/mark&gt;at least, looks set to promote the emergence of a Europe that is militarily stronger and more deeply engaged with the U.S. than at any time since the end of the Cold War.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's W&lt;mark&gt;ar &lt;/mark&gt;With Ukraine Unifies Europe CO euruno : European Union NS gcat : Political/General News | gvexe : Executive Branch | gdip : International Relations | gpir : Politics/International Relations | gvio : Military Action | ncolu : Columns | nedc : Commentaries/Opinions | gcns : National/Public Security | gpol : Domestic Politics | grisk : Risk News | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE gfr : Germany | usa : United States | asiaz : Asia | easiaz : Eastern Asia | eecz : European Union Countries | eurz : Europe | namz : North America | russ : Russia | uk : United Kingdom | ukrn : Ukraine | ussrz : CIS Countries | weurz : Western Europe | apacz : Asia Pacific | bric : BRICS Countries | dach : DACH Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe IPD COLUMN IPC N/EEC PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220328ei3s0063h Page 57 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A reduction in demand from China could ease pressure on global markets after prices surged to multiye&lt;mark&gt;ar &lt;/mark&gt;highs following Russia's invasion of Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Clarissa Ward, chief international correspondent for CNN, and Trey Yingst, a foreign correspondent for Fox News, worked in CNN's makeshift newsroom in a Kyiv hotel suite, calling morgues and hospitals to track down Fox News cameraman Pierre Zakrzewski and Oleksandra "Sasha" Kuvshynova, a consultant for the network, according to people famili&lt;mark&gt;ar &lt;/mark&gt;with the situation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Such coordination is common in w&lt;mark&gt;ar &lt;/mark&gt;zones, but the Ukraine conflict has exposed news organizations to different types of threats compared to some other conflicts of recent years.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Hall was evacuated to Poland and was eventually transported back to the U.S. Elena Cosentino, the director of the International News Safety Institute, which supports outlets covering hazardous situations, said she began organizing daily safety calls in the weeks before the w&lt;mark&gt;ar &lt;/mark&gt;with news executives from organizations including the Associated Press, Reuters, Agence France-Presse and Dow Jones &amp; Co., which publishes The Wall Street Journal.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Ultimately, the aim is to raise the b&lt;mark&gt;ar &lt;/mark&gt;for safety and have the best mitigations in place while doing the best-possible journalism," Ms. Cosentino said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Associated Press and other news outlets, including Reuters, are sharing information that can help them shape individual decisions, such as about where to send correspondents, according to people famili&lt;mark&gt;ar &lt;/mark&gt;with the matter.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;After news organizations communicated their plans in response to the new law, Russia's Ministry of Foreign Affairs summoned several correspondents to discuss the matter, according to people famili&lt;mark&gt;ar &lt;/mark&gt;with the situation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM World News SE World HD Ukraine W&lt;mark&gt;ar &lt;/mark&gt;Increases Risk of Debt Defaults by Developing Countries; World Bank economist says countries that import a lot of wheat in Mideast and Africa are under extra pressure BY By Yuka Hayashi WC 562 words PD 29 March 2022 ET 00:40 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP WASHINGTON—Up to a dozen developing countries face increased risk of debt defaults in the coming ye&lt;mark&gt;ar &lt;/mark&gt;as the war in Ukraine boosts commodity prices and adds to existing Covid-19 pandemic-related pressures, a top World Bank economist said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The pandemic had pushed up total indebtedness of the countries to a 50-ye&lt;mark&gt;ar &lt;/mark&gt;high, or the equivalent of more than 2.5 times government revenues.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD "The Ukraine w&lt;mark&gt;ar &lt;/mark&gt;immediately darkened the outlook for many developing countries that are major commodity importers or highly dependent on tourism or remittances," he said, adding that the world could experience the "largest spate of debt crises in developing economies in a generation."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The rapidly changing global environment and spillovers related to the w&lt;mark&gt;ar &lt;/mark&gt;in Ukraine are posing important challenges for countries around the world, including Egypt," said Celine Allard, the IMF's mission chief for Egypt.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Estevao said crises could develop rapidly once they start, though he ruled out the possibility of a global crisis simil&lt;mark&gt;ar &lt;/mark&gt;to the Latin American debt crisis in the 1980s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Yuka Hayashi at yuka.hayashi@wsj.com Ukraine W&lt;mark&gt;ar &lt;/mark&gt;Increases Risk of Debt Defaults by Developing Countries CO imonf : International Monetary Fund | twban : The World Bank IN i8150106 : Development Banking | i0 : Agriculture | i814 : Banking | ibnk : Banking/Credit | ifinal : Financial Services NS gsars : Novel Coronaviruses | gout : Outbreaks/Epidemics | ecat : Economic News | ghea : Health | magric : Soft Commodity Markets | mgrain : Grain Markets | mwheat : Wheat Markets | ncolu : Columns | gcat : Political/General News | gcold : Respiratory Tract Diseases | gmed : Medical Conditions | gspox : Infectious Diseases | m14 : Commodity Markets | m141 : Agricultural Commodity Markets | mcat : Commodity/Financial Market News | mgroil : Grains/Edible Oils Markets | ncat : Content </t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>VR</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>2</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;License this article from Dow Jones Reprint Service CO dfobry : Carlsberg A/S | hh : Heineken NV | hhhold : Heineken Holding NV IN i427 : Brewing | i41 : Food/Beverages | ibe&lt;mark&gt;vr&lt;/mark&gt;ge : Beverages/Drinks | ialco : Alcoholic Beverages/Drinks | icnp : Consumer Goods NS c181 : Acquisitions/Mergers/Shareholdings | neqac : Equities Asset Class News | nmajev : Major News Events | ntop : Top Wire News | c18 : Ownership Changes | cactio : Corporate Actions | ccat : Page 28 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian Foreign Minister Sergei La&lt;mark&gt;vr&lt;/mark&gt;ov said Monday that a meeting between the two presidents now would be counterproductive.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Funding</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>14</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Digital investment</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;These and other issues plaguing the developing world are solvable, but get far less &lt;mark&gt;funding&lt;/mark&gt; from wealthy countries than climate change.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP WASHINGTON—President Biden called for the largest-ever level of military spending and increased &lt;mark&gt;funding&lt;/mark&gt; for law enforcement in a $5.8 trillion budget, playing down his proposals for expanding social programs in favor of backing initiatives generally favored by centrist lawmakers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The proposal calls for $682 million in &lt;mark&gt;funding&lt;/mark&gt; to go to Ukraine for efforts to counter Russiaand shore up its security and economic interests.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Senate Minority Leader Mitch McConnell (R., Ky.) said the administration's proposed increase in military &lt;mark&gt;funding&lt;/mark&gt; was inadequate because it doesn't keep up with the rate of inflation, which rose nearly 8% from a year earlier in February.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The White House is desperately spinning to call this budget centrist, but there's nothing remotely moderate about what's in it," he said, pointing to the &lt;mark&gt;funding&lt;/mark&gt; increases for nondefense agencies such as the Environmental Protection Agency.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It proposes $17.4 billion for law enforcement at the Justice Department, including $1.7 billion to fight gun trafficking and for other firearm-related efforts, and provides &lt;mark&gt;funding&lt;/mark&gt; for the U.S.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It also calls for &lt;mark&gt;funding&lt;/mark&gt; 300 additional border patrol agent positions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The new budget proposal includes $17.4 billion for law enforcement and provides &lt;mark&gt;funding&lt;/mark&gt; for the FBI to address violent crime.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ben Ritz, director of the Center for &lt;mark&gt;Funding&lt;/mark&gt; America's Future at the Progressive Policy Institute, said the budget missed an opportunity to provide more direction to Congress about what the bill should look like.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;However, inflation left the budget request up just 1.5% in real terms from &lt;mark&gt;funding&lt;/mark&gt; in the 2022 budget, Pentagon Comptroller Mike McCord said at a briefing.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Planned U.S. purchases of Lockheed Martin F-35 combat jets were trimmed from recent years, while Boeing-made fighters and refueling tankers secured more &lt;mark&gt;funding&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Air Force and the Navy received the biggest increases in proposed &lt;mark&gt;funding&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The increase over the recently enacted military-&lt;mark&gt;funding&lt;/mark&gt; bill for fiscal 2022 doubles the pace of the White House request for last year.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Nina Trentmann at Nina.Trentmann@wsj.com Trentmann's Take: CFOs Adopt Different Approaches to Profits Made in Russia CO cbuhoo : Columbia Business School IN ibaby : Baby Products | icnp : Consumer Goods | idurhg : Durable Household Products NS gdev : Development/Humanitarian Aid | c151 : Earnings | c17 : Corporate &lt;mark&gt;Funding&lt;/mark&gt; | ccat : Corporate/Industrial News | gpir : Politics/International Relations | ncolu : Columns | nmajev : Major News Events | npda : DJ Exclusive Analysis - All | gcat : Political/General News | c15 : Financial Performance | gdip : International Relations | ncat : Content Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ussrz : CIS Countries | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ukrn : Ukraine | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD WSJ IPC AZN PUB Dow Jones &amp; Company, Inc.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>992</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;CLM Business SE Business HD Russia Built P&lt;mark&gt;ar&lt;/mark&gt;allel Payments System That Escaped Western Sanctions; Crimea sanctions spurred Russia to build its own Mir payments network, taking the sting out of Visa, Mastercard exits BY By Alexander Osipovich and AnnaMaria Andriotis WC 1,111 words PD 30 March 2022 ET 03:09 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Western sanctions have disrupted ne&lt;mark&gt;ar&lt;/mark&gt;ly every part of Russia's financial system, but there is one big exception.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The domestic-payments system continued to work smoothly after Visa Inc. and Masterc&lt;mark&gt;ar&lt;/mark&gt;d Inc. pulled out earlier this month.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;While the c&lt;mark&gt;ar&lt;/mark&gt;d giants' exit from Russia was viewed as a significant move by many in the West, the reality on the ground was anything but.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Most Russian consumers never lost the ability to use their Masterc&lt;mark&gt;ar&lt;/mark&gt;d- and Visa-branded cards to pay for things within the country.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD SH&lt;mark&gt;AR&lt;/mark&gt;E YOUR THOUGHTS How effective will sanctions be in putting pressure on Vladimir Putin to end the war?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There were roughly 197 million Masterc&lt;mark&gt;ar&lt;/mark&gt;d or Visa cards in Russia at the end of 2020, according to the Nilson Report, a trade publication.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But behind the scenes, the c&lt;mark&gt;ar&lt;/mark&gt;ds don't rely on the U.S. networks' systems to process payments in Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For ye&lt;mark&gt;ar&lt;/mark&gt;s, they have used a homegrown system overseen by Russia's central bank.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The National Payment C&lt;mark&gt;ar&lt;/mark&gt;d System—known by its Russian initials NSPK—runs the financial plumbing that underpins card transactions in Russia, even for cards bearing Visa and Mastercard logos.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The system was p&lt;mark&gt;ar&lt;/mark&gt;t of Moscow's eight-year effort to insulate the Russian economy from Western financial pressure.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Kremlin also has aggressively promoted Russia's own c&lt;mark&gt;ar&lt;/mark&gt;d company, called Mir, which is built on NSPK's infrastructure.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;More than 100 million Mir c&lt;mark&gt;ar&lt;/mark&gt;ds have been issued since its launch in 2015, according to Mir's website.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The resilience of Russia's payments system is a r&lt;mark&gt;ar&lt;/mark&gt;e win for President Vladimir Putin in his financial war with the West.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia failed to break its dependence on Western imports, leaving the country in dire need of key p&lt;mark&gt;ar&lt;/mark&gt;ts for manufacturing.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Before the w&lt;mark&gt;ar&lt;/mark&gt;, Russia amassed $630 billion in reserves to ensure it could protect the ruble, but that effort was undermined when the U.S. and European Unionfroze Russian central-bank assets.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The retreat of Visa and Masterc&lt;mark&gt;ar&lt;/mark&gt;d did have one big consequence for Russians: In many cases, their cards now don't work outside the country.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Mir network extends only to a small number of countries besides Russia, most of which &lt;mark&gt;ar&lt;/mark&gt;e former Soviet republics.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some Russian banks have said they &lt;mark&gt;ar&lt;/mark&gt;e exploring partnerships with China's UnionPay to issue cards that their customers can use more widely.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Still, Russians' inability to use their c&lt;mark&gt;ar&lt;/mark&gt;ds to withdraw cash or make purchases abroad is aligned with the Kremlin's goal to keep assets in the country.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Some Russians who have fled have said Visa and Masterc&lt;mark&gt;ar&lt;/mark&gt;d's cutoff played into Mr. Putin's hands.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On a Febru&lt;mark&gt;ar&lt;/mark&gt;y call to discuss potential Russia sanctions, executives from Visa, Mastercard and other payments companies told Treasury Department officials that banning U.S. networks from handling Russian bank transactions wouldn't be especially painful, according to people familiar with the matter.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Representatives for Visa and Masterc&lt;mark&gt;ar&lt;/mark&gt;d declined to comment.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;More countries have developed their own payments infrastructure, limiting the clout of Visa and Masterc&lt;mark&gt;ar&lt;/mark&gt;d and, by extension, the ability of the U.S. to influence countries' behavior through sanctions that target their banking systems.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;China's state-owned UnionPay handles most domestic transactions on c&lt;mark&gt;ar&lt;/mark&gt;ds issued by Chinese banks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Turkey and India st&lt;mark&gt;ar&lt;/mark&gt;ted their own networks in recent years to wean the countries' banks off Visa and Mastercard.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Visa and Masterc&lt;mark&gt;ar&lt;/mark&gt;d at the time accounted for nearly all card network activity in Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Their networks serve as a link between merchants and banks that issue debit and credit c&lt;mark&gt;ar&lt;/mark&gt;ds, and they handle the routing of card transactions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In M&lt;mark&gt;ar&lt;/mark&gt;ch 2014, hundreds of thousands of Russians discovered that their cards had been rendered useless overnight.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;U.S. sanctions over Crimea had prompted Visa and Masterc&lt;mark&gt;ar&lt;/mark&gt;d to block services to several banks linked to associates of Mr. Putin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A later amendment to the law effectively forced Visa and Masterc&lt;mark&gt;ar&lt;/mark&gt;d to transfer processing of transactions to NSPK.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But by e&lt;mark&gt;ar&lt;/mark&gt;ly 2015, both had agreed to use NSPK's system.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Later that ye&lt;mark&gt;ar&lt;/mark&gt;, NSPK launched Mir.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Initially, Russians saw little reason to swap their Visa- and Masterc&lt;mark&gt;ar&lt;/mark&gt;d-branded cards for Mir cards.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In 2017, Russia passed a law requiring banks that handle pensioners' payments and sal&lt;mark&gt;ar&lt;/mark&gt;ies of public-sector employees such as teachers and military personnel to make those funds available through Mir cards.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mir usage surged, with c&lt;mark&gt;ar&lt;/mark&gt;d issuance rising to 95 million by the end of 2020 from about 2 million in 2016, according to NSPK.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;NSPK invested heavily in m&lt;mark&gt;ar&lt;/mark&gt;keting Mir, sponsoring the Russian national soccer team and promoting incentives such as cashback programs.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;By taking over payment processing, NSPK became a moneymaker for Russia's central bank, collecting fee revenue that otherwise would have flowed to Visa and Masterc&lt;mark&gt;ar&lt;/mark&gt;d.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In 2020, the payments system e&lt;mark&gt;ar&lt;/mark&gt;ned 8.2 billion rubles in net profit, or about $94 million at current exchange rates, according to its annual report.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Issuance of Mir c&lt;mark&gt;ar&lt;/mark&gt;ds has boomed in recent weeks after the exit of the foreign card giants.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russian lender Rosbank has reported that demand for debit c&lt;mark&gt;ar&lt;/mark&gt;ds that run on Mir's network more than doubled between January and March from the same period last year.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"There is simply a huge, frenzied demand for Mir c&lt;mark&gt;ar&lt;/mark&gt;ds," Ms. Obayeva said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Alexander Osipovich at alexander.osipovich@wsj.com and AnnaM&lt;mark&gt;ar&lt;/mark&gt;ia Andriotis at annamaria.andriotis@wsj.com Russia Built Parallel Payments System That Escaped Western Sanctions CO rosgos : Central Bank of the Russian Federation | visa : Visa Inc. | intbmc : MasterCard Inc.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;IN i8150105 : Consumer Lending | i8394 : Computer Services | ifinal : Financial Services | itech : Technology | i81501 : Credit Types/Services | ibcs : Business/Consumer Services | ibnk : Banking/Credit | i8150108 : Credit C&lt;mark&gt;ar&lt;/mark&gt;ds | ifmsoft : Financial Technology | iplastic : Electronic Payment Systems NS c13 : Regulation/Government Policy | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gesanc : International Sanctions | gpir : Politics/International Relations | gtrade : Trade Barriers/Restrictions | ncolu : Columns | nmajev : Major News Events | npda : DJ Exclusive Analysis - All | gcat : Political/General News | gdip : International Relations | ncat : Content Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpin : C&amp;E Industry News Filter | ntop : Top Wire News | redit : Selection of Top Stories/Trends/Analysis RE russ : Russia | ussrz : CIS Countries | asiaz : Asia | crimea : Crimea | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | ukrn : Ukraine | usa : United States | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC I/BKS PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220329ei3t000um Page 4 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Comment&lt;mark&gt;ar&lt;/mark&gt;y (U.S.) SE Opinion HD Be Afraid of Nuclear War, Not Climate Change; Russia's war in Ukraine shows that global warming has distracted us from more important threats.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;BY By Bjorn Lomborg WC 1,066 words PD 30 M&lt;mark&gt;ar&lt;/mark&gt;ch 2022 ET 03:48 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Weeks before thermob&lt;mark&gt;ar&lt;/mark&gt;ic rockets rained down on Ukraine, the chattering classes at the World Economic Forumdeclared "climate action failure" the biggest global risk for the coming decade.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On the eve of w&lt;mark&gt;ar&lt;/mark&gt;, U.S. climate envoy John Kerry fretted about the "massive emissions consequences" of Russian invasion and worried that the world might forget about the risks of climate change if fighting broke out.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's invasion should be a wake-up call that w&lt;mark&gt;ar&lt;/mark&gt; is still a serious danger that requires democratic nations' attention.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But a month into the w&lt;mark&gt;ar&lt;/mark&gt; in Ukraine, United Nations Secretary-General António Guterres—whose organization's main purpose is ensuring world peace—was focused instead on "climate catastrophe," warning that fossil-fuel addiction will bring "mutually assured destruction."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;His comments come at a time when nucle&lt;mark&gt;ar&lt;/mark&gt; weapons are posing the biggest risk of literal mutually assured destruction in half a century.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Second, the n&lt;mark&gt;ar&lt;/mark&gt;row focus on immediate climate objectives undermines future prosperity.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The world currently shells out more than half a trillion doll&lt;mark&gt;ar&lt;/mark&gt;s annually in private and public funds on climate policies, while spending from the governments of countries in the Organization for Economic Cooperation and Development on innovation that underpins growth in areas such as healthcare, space, defense, agriculture and science has been declining as a percentage of gross domestic product over recent decades.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;By contrast, in China, where innovation-related spending is up 50% from where it was in 2000 and education is rapidly improving, average incomes have increased fivefold since the st&lt;mark&gt;ar&lt;/mark&gt;t of the 21st century.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Third, in the world's poorest countries, the international community's focus on putting up sol&lt;mark&gt;ar&lt;/mark&gt; panels coexists with a woeful underinvestment in solutions to massive existing problems.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Infectious diseases like tuberculosis and mal&lt;mark&gt;ar&lt;/mark&gt;ia kill millions; malnutrition afflicts almost a billion people; more than three billion lack access to reliable energy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;These and other issues plaguing the developing world &lt;mark&gt;ar&lt;/mark&gt;e solvable, but get far less funding from wealthy countries than climate change.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The false and irresponsible idea that global w&lt;mark&gt;ar&lt;/mark&gt;ming poses an immediate existential risk for the world.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If climate change continues unabated, the average person will be "only" 434% as rich—a f&lt;mark&gt;ar&lt;/mark&gt; from catastrophic outcome.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;A world sc&lt;mark&gt;ar&lt;/mark&gt;ed witless doesn't make smart decisions—so it should be no surprise it hasn't managed to make a dent in climate change.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Globally, last ye&lt;mark&gt;ar&lt;/mark&gt; saw the most CO2 emissions ever, despite $5 trillion spent over the past decade on climate policies.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The U.N. admitted in 2019 that there has been "no real change in the global emissions pathway in the last decade" despite the global P&lt;mark&gt;ar&lt;/mark&gt;is agreement.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Sol&lt;mark&gt;ar&lt;/mark&gt; and wind produce only 3% of the European Union's energy, and the technology is unreliable, often requiring backup from gas when the sun doesn't shine or the wind doesn't blow.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;According to McKinsey, the policies will cost $9.2 trillion every ye&lt;mark&gt;ar&lt;/mark&gt; until net zero is supposed to be achieved in 2050.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Such extremely costly policies &lt;mark&gt;ar&lt;/mark&gt;e unlikely to be enacted by emerging economies such as India or Africa, whose emissions will skyrocket as their populations and economies grow.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Achieving net zero would cost every American family $19,300 a ye&lt;mark&gt;ar&lt;/mark&gt;, according to the McKinsey study.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;To respond to climate change effectively, the world needs to spend more on green-energy innovation and develop renewables that &lt;mark&gt;ar&lt;/mark&gt;e reliable and cost-effective.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There &lt;mark&gt;ar&lt;/mark&gt;e many serious threats in the world today, but most won't get the attention they deserve until the political classes drop their hyperbole about climate change and treat it like what it actually is—only one of the many problems to be solved in the 21st century.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;His latest book is "False Al&lt;mark&gt;ar&lt;/mark&gt;m: How Climate Change Panic Costs Us Trillions, Hurts the Poor, and Fails to Fix the Planet."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Be Afraid of Nucle&lt;mark&gt;ar&lt;/mark&gt; War, Not Climate Change NS gclimt : Climate Change | gvio : Military Action | gglobe : Global/World Issues | genv : Natural Environment | gpir : Politics/International Relations | gpol : Domestic Politics | gsci : Sciences/Humanities | ncolu : Columns | nedc : Commentaries/Opinions | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/ENV PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220329ei3t006pp Page 6 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Comment&lt;mark&gt;ar&lt;/mark&gt;y (U.S.) SE Opinion HD Biden's 'Integrated Deterrence' Fails in Ukraine; The buzzy term is being used to justify cuts to conventional hard power that please progressives.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;BY By Mike Gallagher WC 921 words PD 29 M&lt;mark&gt;ar&lt;/mark&gt;ch 2022 ET 22:02 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP PHOTO: David Klein TD Perhaps desperate for a win after their failures in Afghanistan, senior Pentagon officials &lt;mark&gt;ar&lt;/mark&gt;e bragging to the Washington Post about the success of "integrated deterrence" in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This buzzy new phrase serves as the intellectual foundation of President Biden's forthcoming National Defense Strategy, combining diplomacy, alliances and new technology with conventional h&lt;mark&gt;ar&lt;/mark&gt;d power to deter bad guys from doing bad things.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That required the U.S. to maintain enough milit&lt;mark&gt;ar&lt;/mark&gt;y strength to turn back an adversary's aggression, particularly in Taiwan and Eastern Europe.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In April 2021, Defense Secret&lt;mark&gt;ar&lt;/mark&gt;y Lloyd Austin justified the new approach under the premise that allies and "galloping advances in technology" can pick up the slack.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Innovative technologies and allied cooperation &lt;mark&gt;ar&lt;/mark&gt;e important, but deterrence ultimately rests on an adversary's assessment of existing U.S. military power and Washington's willingness to employ it.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That's why integrated deterrence failed its first big test in Ukraine, where the Biden administration relied on the threat of nonmilit&lt;mark&gt;ar&lt;/mark&gt;y punishment to deter Vladimir Putin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The administration delayed lethal assistance to Kyiv for months and repeatedly signaled that milit&lt;mark&gt;ar&lt;/mark&gt;y force was off the table for fear of provoking Mr. Putin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Nevertheless, anonymous Pentagon officials &lt;mark&gt;ar&lt;/mark&gt;e spiking the football and moving the goal posts, arguing that integrated deterrence is working because Mr. Putin hasn't expanded his war into North Atlantic Treaty Organization territory.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This is a low b&lt;mark&gt;ar&lt;/mark&gt; for geopolitical success and ignores the obvious reality that a NATO-Russia war is more, not less, likely since the invasion of Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Moreover, the w&lt;mark&gt;ar&lt;/mark&gt; isn't over, and while certain Pentagon officials are celebrating, others in the Biden administration are warning of Russian cyberattacks on U.S. domestic infrastructure.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;ar&lt;/mark&gt;e concerned that Mr. Putin could use tactical nuclear weapons.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The confidently anonymous Pentagon officials &lt;mark&gt;ar&lt;/mark&gt;e crowing "that the model of integrated deterrence comes out smelling pretty good from this" should go to Kyiv or Mariupol, take in the smell, and spend some time looking at the bombed-out city blocks and bodies lying in the street.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Not content to confine their hubris to Eastern Europe, anonymous Pentagon officials &lt;mark&gt;ar&lt;/mark&gt;e also suggesting that integrated deterrence is working in the Western Pacific, where Xi Jinping may be rethinking a Chinese invasion of Taiwan.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If Ukraine turns out to be Mr. Putin's gravey&lt;mark&gt;ar&lt;/mark&gt;d, perhaps Mr. Xi will abandon his ambitions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;But there is little evidence to support this wishful thinking, especially since China may yet provide Russia with milit&lt;mark&gt;ar&lt;/mark&gt;y assistance in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It is also possible Mr. Xi senses an opportunity and will decide to expedite his timeline for Taiwan, especially since Mr. Biden has consistently signaled a desire to avoid direct milit&lt;mark&gt;ar&lt;/mark&gt;y confrontation with a nuclear-armed adversary.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Defending Taiwan in the event of a Chinese invasion would require the U.S. to engage directly a nucle&lt;mark&gt;ar&lt;/mark&gt;-armed state.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Deterring such an invasion in the first place, which the destruction on display in Ukraine reminds us is a f&lt;mark&gt;ar&lt;/mark&gt; preferable outcome, will require America to integrate more conventional hard power into deterrence as quickly as possible.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Sanctions, diplomacy and promising but unproven technologies can't substitute for h&lt;mark&gt;ar&lt;/mark&gt;d power.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Nor will they substitute for &lt;mark&gt;ar&lt;/mark&gt;ming Taiwan to the teeth with asymmetric capabilities before Mr. Xi launches an invasion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The Pentagon, while taking an anonymous victory lap, appe&lt;mark&gt;ar&lt;/mark&gt;s to be moving in the opposite direction.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Rather than growing the Navy, the budget proposes to purchase four fewer ships than the 13 that Congress funded in the current fiscal ye&lt;mark&gt;ar&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It also includes no plan to &lt;mark&gt;ar&lt;/mark&gt;m Taiwan to deny a Chinese invasion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This lack of urgency confirms that the Biden administration is using the academic j&lt;mark&gt;ar&lt;/mark&gt;gon of "integrated deterrence" to justify cuts to conventional hard power and avoid the hard work of fielding combat-credible forces capable of denying our enemies their objectives.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It isn't h&lt;mark&gt;ar&lt;/mark&gt;d to understand why.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Even after the dismemberment of Ukraine, a $2 trillion Covid stimulus bill and a $1 trillion so-called infrastructure bill, Democrats &lt;mark&gt;ar&lt;/mark&gt;e still talking about building back better.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;They've gone so f&lt;mark&gt;ar&lt;/mark&gt; as to project these preferences onto Mr. Putin.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"What they need is better health c&lt;mark&gt;ar&lt;/mark&gt;e, build back better, roads, schools, economic opportunity."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Gallagher, a Republican, represents Wisconsin's Eighth Congressional District and is a member of the House &lt;mark&gt;Ar&lt;/mark&gt;med Services and Intelligence committees.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Biden's 'Integrated Deterrence' Fails in Ukraine NS gvdef : Defense Dep&lt;mark&gt;ar&lt;/mark&gt;tment | gvio : Military Action | gvexe : Executive Branch | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | nedc : Commentaries/Opinions | nimage : Images | gcat : Political/General News | gcns : National/Public Security | grisk : Risk News | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | taiwan : Taiwan | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | namz : North America | uk : United Kingdom | usa : United States | apacz : Asia Pacific | chinaz : Greater China | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220329ei3t003bh Page 8 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Politics &amp; Ideas SE Opinion HD The H&lt;mark&gt;ar&lt;/mark&gt;d Truth in Biden's Gaffe; The U.S. can't resume normal relations with Russia while Putin partitions Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;BY By William A. Galston WC 864 words PD 29 M&lt;mark&gt;ar&lt;/mark&gt;ch 2022 ET 22:03 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;By this stand&lt;mark&gt;ar&lt;/mark&gt;d, the ad libbed final sentence of President Biden's Warsaw speech may be a gaffe for the ages.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;America's NATO ambassador, Julianne Smith, suggested (plausibly enough) that Mr. Biden's words represented "a principled human reaction" to his encounter e&lt;mark&gt;ar&lt;/mark&gt;lier in the day with hundreds of desperate Ukrainian refugees.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden's impromptu rem&lt;mark&gt;ar&lt;/mark&gt;k, which dominated coverage of an otherwise strong speech, raises a larger question: Is it conceivable that the rest of the world can return to business as usual with Vladimir Putin as Russia's president, or must he and his country be treated as international pariahs so long as he remains in power?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD Much depends on how the w&lt;mark&gt;ar&lt;/mark&gt; ends.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It is now cle&lt;mark&gt;ar&lt;/mark&gt; that Mr. Putin cannot achieve his initial objective: swiftly overthrowing Volodymyr Zelensky's government and installing a compliant regime in Kyiv.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Although it is too e&lt;mark&gt;ar&lt;/mark&gt;ly to know for sure, recent statements by Russian officials suggest that Mr. Putin is pivoting to Plan B—securing the Donetsk and Luhansk regions as well as the coastal land bridge to Crimea.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It is conceivable but unlikely that if the West expands the scope and accelerates the pace of &lt;mark&gt;ar&lt;/mark&gt;ms deliveries, Ukraine's forces could completely expel Russian invaders from their land.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Fighting would probably continue at a lower intensity along the new informal line of dem&lt;mark&gt;ar&lt;/mark&gt;cation between the contending forces.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Sanctions would continue, as would &lt;mark&gt;ar&lt;/mark&gt;ms shipments to Ukraine and Europe's effort to decouple from Russian energy.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;There is a somewhat more optimistic scen&lt;mark&gt;ar&lt;/mark&gt;io in which the negotiations hosted by Turkey between Russia and Ukraine continue to progress and the intensity of the fighting gradually subsides.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Even so, the most Mr. Zelensky could offer without sp&lt;mark&gt;ar&lt;/mark&gt;king domestic opposition would fall far short of the least Mr. Putin could accept without jeopardizing his survival as Russia's leader.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This matters because any draft agreement would be subject to approval by popul&lt;mark&gt;ar&lt;/mark&gt; referendum in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;a simil&lt;mark&gt;ar&lt;/mark&gt; vein, if Ukraine did not accept the territorial gains that Russian forces achieved in the Donbas in 2014, why would it accept the larger gains Russia has made this year?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ukraine seems willing to abandon its long-held aspiration to join NATO and discuss some form of neutrality, but only in return for security gu&lt;mark&gt;ar&lt;/mark&gt;antees from a Western coalition of the willing that Russia would find no more palatable.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The most likely outcome, I believe, is an &lt;mark&gt;ar&lt;/mark&gt;mistice along the lines of the agreement that ended the shooting phase of the Korean War, leaving the large issues unresolved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;I do not see how the U.S. and its allies can resume normal relations with Russia while Vladimir Putin's &lt;mark&gt;ar&lt;/mark&gt;my enforces a de facto partition of Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Putin cannot be rew&lt;mark&gt;ar&lt;/mark&gt;ded for naked aggression.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;It is possible that over time Western sanctions will interact with the costs of occupation (including a guerrilla w&lt;mark&gt;ar&lt;/mark&gt; against the invaders) to force Russia to withdraw, as the Soviets did from Afghanistan.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Besides, a reversal would violate the pan-Russian ideology that—as much as any cost-benefit calculation—shapes his stance tow&lt;mark&gt;ar&lt;/mark&gt;d Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In the meantime, there would be a frozen conflict—and a ticking time bomb—in the he&lt;mark&gt;ar&lt;/mark&gt;t of Europe.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Could the kind of creative statesmanship that peacefully ended the Cold W&lt;mark&gt;ar&lt;/mark&gt; succeed in these circumstances?&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Then, the West was dealing with Mikhail Gorbachev, with whom (as M&lt;mark&gt;ar&lt;/mark&gt;garet Thatcher famously opined) the West could do business.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The H&lt;mark&gt;ar&lt;/mark&gt;d Truth in Biden's Gaffe NS gvexe : Executive Branch | gcat : Political/General News | gpir : Politics/International Relations | gpol : Domestic Politics | ncolu : Columns | nedc : Commentaries/Opinions | gvbod : Government Bodies | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter RE ukrn : Ukraine | russ : Russia | asiaz : Asia | crimea : Crimea | easiaz : Eastern Asia | eurz : Europe | namz : North America | pol : Poland | uk : United Kingdom | usa : United States | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eecz : European Union Countries | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Opinion | IPC N/GEN PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220329ei3t003e9 Page 10 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE Daily HD Online Ad Revenue Growth Slowed By Ukraine W&lt;mark&gt;ar&lt;/mark&gt;: Analyst BY By Eric J. Savitz WC 492 words PD 30 March 2022 ET 01:56 SN Barron's Online SC BON LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP Slowing economic activity in Europe related to the Russian invasion of Ukraine is likely to hurt online ad spending, Morgan Stanley analyst Brian Nowak asserted in a new rese&lt;mark&gt;ar&lt;/mark&gt;ch note.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"The macro winds of uncertainty–in p&lt;mark&gt;ar&lt;/mark&gt;ticular around Europe and Russia–continue to swirl," writes Nowak, who trimmed his 2022 revenue estimates for online advertising players by between 1% and 2%.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We remain on macro data point watch for any signs of further weakening in Europe or the U.S." TD As p&lt;mark&gt;ar&lt;/mark&gt;t of the call, Nowak tweaked his price targets on four stocks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For Twitter (ticker: TWTR) he keeps his Equal Weight rating, and trims his t&lt;mark&gt;ar&lt;/mark&gt;get by $1 to $58.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For Overweight-rated Snap (SNAP), he likewise snips his t&lt;mark&gt;ar&lt;/mark&gt;get by a buck, to $58, while for Nextdoor Holdings (KIND), still Equal Weight-rated, his target drops to $6.50, from $7.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;For Criteo (CRTO), a digital advertising platform, he maintains his Equal Weight rating, while cutting his t&lt;mark&gt;ar&lt;/mark&gt;get to $57, from $60.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"P&lt;mark&gt;ar&lt;/mark&gt;t of this may be due to some branded advertisers pausing spend to avoid advertising next to negative content, while part of this may also be driven by some incremental weakness from the European consumer," he writes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Nowak notes that European contribution to Internet ad platform sales range from 8% for Pinterest (PINS) to 34% for Facebook-p&lt;mark&gt;ar&lt;/mark&gt;ent Meta Platforms (FB), with Russia alone about 1%-2% of the total.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Nowak adds that for now he is leaving his 2023 estimates in place–and that the new forecast doesn't factor in any further weakening of the U.S. consumer or ad m&lt;mark&gt;ar&lt;/mark&gt;kets.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;We acknowledge it may be a couple of qu&lt;mark&gt;ar&lt;/mark&gt;ters for the company to deliver revenue acceleration and Reels monetization that can instill confidence in the long-term cash flow potential but [we] remain bullish from a 12-month perspective," he writes.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;And for Snap, he says that the company has a smaller measurement gap to close relative to Facebook on responding to Apple's ad t&lt;mark&gt;ar&lt;/mark&gt;geting changes, and he expects improve ad efficacy, targeting and measurement to boost ad spend per advertiser and ad unit pricing.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Eric J. Savitz at eric.savitz@b&lt;mark&gt;ar&lt;/mark&gt;rons.com Online Ad Revenue Growth Slowed By Ukraine War: Analyst Page 11 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO weqboc : Nextdoor Holdings Inc. | fjfvpl : Snap Inc IN i838 : Advertising Services | i3302 : Computers/Consumer Electronics | i330202 : Softw&lt;mark&gt;ar&lt;/mark&gt;e | i8385 : Digital Marketing | iadv : Advertising/Marketing/Public Relations | ibcs : Business/Consumer Services | icph : Computer Hardware | iint : Online Service Providers | imed : Media/Entertainment | itech : Technology | icomp : Computing | imark : Marketing | i3302021 : Applications Software | icmsw : Communications Software | isocial : Social Media Platforms/Tools NS c1521 : Analysts' Comments/Recommendations | c31 : Marketing | cadsp : Advertising Spending | ccat : Corporate/Industrial News | c1513 : Sales Figures | c32 : Advertising | c15 : Financial Performance | c151 : Earnings | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE ukrn : Ukraine | eurz : Europe | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Barrons IPC I/ADV PUB Dow Jones &amp; Company, Inc. AN Document BON0000020220329ei3t003pd Page 12 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;SE Daily HD Chubais's Exit Ends a Contradictory Effort to Build a New Russia BY By Andrei Kolesnikov WC 1,251 words PD 29 M&lt;mark&gt;ar&lt;/mark&gt;ch 2022 ET 13:30 SN Barron's Online SC BON LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP About the author: Andrei Kolesnikov is a senior fellow at the C&lt;mark&gt;ar&lt;/mark&gt;negie Endowment for International Peace.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Ever since Russia invaded Ukraine last month, sending the ruble plummeting and prompting a mass exodus of shocked middle-class residents of the big cities, the sight of Russians lining up to empty ATMs has become a famili&lt;mark&gt;ar&lt;/mark&gt; one.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On M&lt;mark&gt;ar&lt;/mark&gt;ch 23, according to the newspaper Kommersant, the man spotted doing just that in Istanbul was Anatoly Chubais, a special envoy to Russian President Vladimir Putin for relations with international organizations on the energy transition, and the architect of Russia's privatization in the 1990s.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD This once influential deputy prime minister for economic and financial policy, the man who secured Boris Yeltsin's victory in the 1996 presidential election and went on to reform the electric power sector and then found Russia's nanotechnology industry, has app&lt;mark&gt;ar&lt;/mark&gt;ently become a political refugee like so many other Russians right now.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;If the reports of his dep&lt;mark&gt;ar&lt;/mark&gt;ture are true, he has joined the ranks of those who have fled Russia because they feel life there is intolerable while their country is waging war on neighboring Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;That their country has not only destroyed its own future with its "special milit&lt;mark&gt;ar&lt;/mark&gt;y operation," but also lost part of its past: several decades of contradictory efforts to build a new Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Anatoly Chubais, a pragmatic romantic—or romantic pragmatist—who built a m&lt;mark&gt;ar&lt;/mark&gt;ket e</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Platform</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>6</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Telecom Infra</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;For Criteo (CRTO), a digital advertising &lt;mark&gt;platform&lt;/mark&gt;, he maintains his Equal Weight rating, while cutting his target to $57, from $60.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Nowak notes that European contribution to Internet ad &lt;mark&gt;platform&lt;/mark&gt; sales range from 8% for Pinterest (PINS) to 34% for Facebook-parent Meta Platforms (FB), with Russia alone about 1%-2% of the total.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CO weqboc : Nextdoor Holdings Inc. | fjfvpl : Snap Inc IN i838 : Advertising Services | i3302 : Computers/Consumer Electronics | i330202 : Software | i8385 : Digital Marketing | iadv : Advertising/Marketing/Public Relations | ibcs : Business/Consumer Services | icph : Computer Hardware | iint : Online Service Providers | imed : Media/Entertainment | itech : Technology | icomp : Computing | imark : Marketing | i3302021 : Applications Software | icmsw : Communications Software | isocial : Social Media &lt;mark&gt;Platform&lt;/mark&gt;s/Tools NS c1521 : Analysts' Comments/Recommendations | c31 : Marketing | cadsp : Advertising Spending | ccat : Corporate/Industrial News | c1513 : Sales Figures | c32 : Advertising | c15 : Financial Performance | c151 : Earnings | ncat : Content Types | nfact : Factiva Filters | nfce : C&amp;E Exclusion Filter | nfcpin : C&amp;E Industry News Filter RE ukrn : Ukraine | eurz : Europe | russ : Russia | asiaz : Asia | easiaz : Eastern Asia | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Barrons IPC I/ADV PUB Dow Jones &amp; Company, Inc. AN Document BON0000020220329ei3t003pd Page 12 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The latest flashpoint is the potential sale of its media interests, which consist of a news-aggregation service and a social &lt;mark&gt;platform&lt;/mark&gt; called Zen.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;As pressure increases on the likes of Facebook to take more responsibility for the content on their &lt;mark&gt;platform&lt;/mark&gt;s, Yandex appears to see a risk that its social-media channel could also become a problem.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The president, who campaigned on a &lt;mark&gt;platform&lt;/mark&gt; to transition the U.S. to cleaner energy, on Friday said the U.S. is working to ship 50 billion cubic meters of LNG to Europe annually through at least 2030 to help the continent wean itself from dependence on Russian supplies.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Cyber</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>45</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Moreover, the war isn't over, and while certain Pentagon officials are celebrating, others in the Biden administration are warning of Russian &lt;mark&gt;cyber&lt;/mark&gt;attacks on U.S. domestic infrastructure.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP In a secret chat room run by a group of Russian-affiliated &lt;mark&gt;cyber&lt;/mark&gt;criminals, a hacker expressed excitement about a plan to attack and disable more than 400 U.S. hospitals.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD U.S. authorities and &lt;mark&gt;cyber&lt;/mark&gt;security researchers foiled large parts of the plan, warning hospitals before the hackers' ransomware could be installed, but the hackers shrugged off the setback, according to a cache of data and documents leaked online in recent weeks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;This wide-open view of the inner workings of what is perhaps the world's biggest and most dangerous organized &lt;mark&gt;cyber&lt;/mark&gt;crime group is a surprising consequence of the war in Ukraine.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia's invasion of Ukraine last month prompted the researcher to leak the information, according to two people who know him and can verify the work he did to capture Trickbot communications and pass them on to Western &lt;mark&gt;cyber&lt;/mark&gt;security professionals.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Cyber&lt;/mark&gt;security researchers and former security officials say the chat logs and other leaked documents appeared to be authentic.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Much of the world's &lt;mark&gt;cyber&lt;/mark&gt;crime -- including ransomware -- originates there or in Eastern Europe, say security researchers and government officials.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia has denied U.S. accusations its state security apparatus is involved with &lt;mark&gt;cyber&lt;/mark&gt;crime or tolerates it.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Officials say &lt;mark&gt;cyber&lt;/mark&gt;criminal groups could target the U.S. as a form of retaliation for the West's support for Ukraine against Moscow's invasion.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Gen. Paul Nakasone, the head of the National Security Agency and U.S. &lt;mark&gt;Cyber&lt;/mark&gt; Command, warned during a Senate hearing this month that Russia could become more likely to lash out with ransomware or other aggressive cyberattacks as the Ukraine conflict drags on.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;On Monday, a Ukrainian internet service provider used by the country's military suffered a massive &lt;mark&gt;cyber&lt;/mark&gt;attack, disrupting its services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Mr. Biden last week said evolving intelligence indicated the Kremlin was looking to target the U.S. with &lt;mark&gt;cyber&lt;/mark&gt;attacks in response to economic sanctions.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Trickbot is one of the most prolific and widely feared of the ransomware groups, and its Conti ransomware was the most used in 2021, according to &lt;mark&gt;cyber&lt;/mark&gt;-threat researchers at Unit 42, at Palo Alto Networks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The leaks depict a highly professional and ruthless ransomware organization at the top of its game, said John Fokker, head of &lt;mark&gt;cyber&lt;/mark&gt; investigations with the security firm Trellix.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The anonymous source of the leak is one of a handful of &lt;mark&gt;cyber&lt;/mark&gt;security analysts who have been secretly infiltrating Trickbot's electronic infrastructure, according to Alex Holden, a security analyst whose company, Hold Security, monitors Eastern European cybercrime and Trickbot.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In September 2020, U.S. officials at U.S. &lt;mark&gt;Cyber&lt;/mark&gt; Command and elsewhere were successful in freeing thousands of computers from the hackers' control, according to current and former officials and others familiar with the operation.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The network of machines had been infected for the purpose of conducting &lt;mark&gt;cyber&lt;/mark&gt;attacks, they said.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Cyber&lt;/mark&gt;security researchers who had been tracking the group warned U.S. authorities, and the Department of Homeland Security warned hospitals.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Cyber&lt;/mark&gt;security experts worked to minimize the damage.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"I don't think I've ever been as scared as I was that week," said Joshua Corman, former chief strategist with the &lt;mark&gt;Cyber&lt;/mark&gt;security and Infrastructure Security Agency's Covid Task Force, a Homeland Security group set up to protect the healthcare sector during the pandemic.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"We can see conversations that are very suggestive that at least a small portion of these threat actors might have some sort of relationship with Russian intelligence or the Russian government apparatus," where the hackers may work to obtain intelligence for the government, said Kimberly Goody, director of &lt;mark&gt;cyber&lt;/mark&gt;crime analysis with the security firm Mandiant.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;"Happy holidays, &lt;mark&gt;cyber&lt;/mark&gt; troops!"&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Last year, the FBI arrested Alla Witte, a Latvian national accused of serving as one of the &lt;mark&gt;cyber&lt;/mark&gt;crime group's key developers.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;In late February, Trickbot announced it was supporting the Kremlin and threatened to respond forcefully to any &lt;mark&gt;cyber&lt;/mark&gt;attacks against Russia.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service NS gcvir : Malware | ghack : &lt;mark&gt;Cyber&lt;/mark&gt;crime/Hacking | gdatap : Privacy Issues/Information Security | gext : Extortion/Blackmail | gcrim : Crime/Legal Action | gsecbr : Data Security Breaches | gout : Outbreaks/Epidemics | c13 : Regulation/Government Policy | gesanc : International Sanctions | gtrade : Trade Barriers/Restrictions | nimage : Images | npag : Page One Stories | ccat : Corporate/Industrial News | e51 : Trade/External Payments | ecat : Economic News | gcat : Political/General News | gdip : International Relations | gfinc : Financial Crime | ghea : Health | gmed : Medical Conditions | gpir : Politics/International Relations | gspox : Infectious Diseases | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | usa : United States | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | namz : North America | ussrz : CIS Countries IPC PIC PUB Dow Jones &amp; Company, Inc. AN Document J000000020220329ei3t0001d Page 18 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP A Ukrainian internet service provider used by the country's military suffered a massive &lt;mark&gt;cyber&lt;/mark&gt;attack on Monday.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The attack on Ukrtelecom PJSC was described by some experts as among the most harmful &lt;mark&gt;cyber&lt;/mark&gt;attacks since the Russian invasion of Ukraine on Feb. 24.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;ET on Monday, Ukrainian officials said they repelled the attack, and that the company could restore services, according to Ukraine's State Service of Special Communication and Information Protection, which is responsible for &lt;mark&gt;cyber&lt;/mark&gt;security.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD The Ukrainian &lt;mark&gt;cyber&lt;/mark&gt; agency didn't say who was responsible for the attack.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Security experts have said Russian-linked hackers launched &lt;mark&gt;cyber&lt;/mark&gt;attacks against financial-services companies, internet-service providers and government agencies in the run-up to the Feb. 24 invasion and after.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;License this article from Dow Jones Reprint Service CO urktel : Ukrtelecom | epiczz : EPIC Financial Consulting GmbH IN i7902 : Telecommunication Services | iint : Online Service Providers | itech : Technology | i79026 : Integrated Communications Providers NS gvio : Military Action | ghack : &lt;mark&gt;Cyber&lt;/mark&gt;crime/Hacking | cpsrdi : Product/Service Disruptions | neqac : Equities Asset Class News | nmajev : Major News Events | ntop : Top Wire News | ccat : Corporate/Industrial News | cexpro : Products/Services | gcat : Political/General News | gcns : National/Public Security | gcrim : Crime/Legal Action | grisk : Risk News | ncat : Content Types | ndj : Dow Jones Top Stories | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | redit : Selection of Top Stories/Trends/Analysis RE ukrn : Ukraine | russ : Russia | asiaz : Asia | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | eurz : Europe | ussrz : CIS Countries IPC ABO PUB Dow Jones &amp; Company, Inc. AN Document J000000020220329ei3t00017 Page 23 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;CLM Europe News SE World HD Internet Provider to Ukrainian Military Hit With Major &lt;mark&gt;Cyber&lt;/mark&gt;attack; Attack fuels fears that Russia, with ground war stalling, could launch destructive cyber campaign BY By Robert McMillan and Dustin Volz WC 605 words PD 29 March 2022 ET 03:20 SN The Wall Street Journal Online SC WSJO LA English CY Copyright 2022 Dow Jones &amp; Company, Inc. All Rights Reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;LP A Ukrainian internet service provider used by the country's military suffered a massive &lt;mark&gt;cyber&lt;/mark&gt;attack on Monday, Ukrainian officials said, fueling fears that Russia intends to wield more dangerous digital weapons as the war drags into its second month.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The attack on Ukrtelecom PJSC was described by some experts as among the most harmful &lt;mark&gt;cyber&lt;/mark&gt;attacks since the Russian invasion of Ukraine on Feb. 24.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;ET on Monday, Ukrainian officials said that they had repelled the attack, and that the company could restore services, according to a statement from Ukraine's State Service of Special Communication and Information Protection, which is responsible for &lt;mark&gt;cyber&lt;/mark&gt;security in the country.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;TD The Ukrainian &lt;mark&gt;cyber&lt;/mark&gt; agency's statement didn't say who was responsible for the cyberattack.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Security experts have said Russian-linked hackers have launched a variety of &lt;mark&gt;cyber&lt;/mark&gt;attacks against financial services companies, internet service providers and government agencies since this February, in the run-up to the Feb. 24 invasion and after.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Russia has denied involvement in &lt;mark&gt;cyber&lt;/mark&gt;attacks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Cyber&lt;/mark&gt;security experts and U.S. officials have been surprised by the lack of major disruptive or destructive cyberattacks during the Ukraine conflict, as Russia is widely viewed to have some of the most capable state-sponsored hacking groups in the world, and Moscow has previously been blamed for launching cyberattacks that disrupted Ukraine's government, electricity grid and financial services.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The malicious &lt;mark&gt;cyber&lt;/mark&gt; activity has largely been confined to service disruptions of websites and the limited deployment of so-called wiper malware, which can destroy computer files.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Last week, President Biden said there was evolving intelligence that suggested Russia was exploring options to target the U.S. with &lt;mark&gt;cyber&lt;/mark&gt;attacks.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Write to Robert McMillan at Robert.Mcmillan@wsj.com and Dustin Volz at dustin.volz@wsj.com Internet Provider to Ukrainian Military Hit With Major &lt;mark&gt;Cyber&lt;/mark&gt;attack CO urktel : Ukrtelecom | epiczz : EPIC Financial Consulting GmbH IN i3302 : Computers/Consumer Electronics | i7902 : Telecommunication Services | i79021 : Wired Telecommunications Services | icph : Computer Hardware | iint : Online Service Providers | icomp : Computing | itech : Technology | i79026 : Integrated Communications Providers NS ghack : Cybercrime/Hacking | gvio : Military Action | cpsrdi : Product/Service Disruptions | c32 : Advertising | ccat : Corporate/Industrial News | ncolu : Columns | gcat : Political/General News | c31 : Marketing | cexpro : Products/Services | gcns : National/Public Security | gcrim : Crime/Legal Action | grisk : Risk News | ncat : Content Types | nfact : Factiva Filters | nfcpex : C&amp;E Executive News Filter | nfcpin : C&amp;E Industry News Filter RE russ : Russia | ukrn : Ukraine | asiaz : Asia | easiaz : Eastern Asia | eurz : Europe | uk : United Kingdom | ussrz : CIS Countries | apacz : Asia Pacific | bric : BRICS Countries | devgcoz : Emerging Market Countries | dvpcoz : Developing Economies | eeurz : Central/Eastern Europe | weurz : Western Europe IPD Wires IPC FB PUB Dow Jones &amp; Company, Inc. AN Document WSJO000020220328ei3s005pl Page 35 of 93 © 2022 Factiva, Inc. All rights reserved.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;Most surprisingly, after much hype and many warnings, Russian &lt;mark&gt;cyber&lt;/mark&gt;warfare has been deemed fairly ineffective.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;&lt;mark&gt;Cyber&lt;/mark&gt;attack tracking firm Netscout called the attack "modest."&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;An officer of the Ukraine State Service of Special Communications said they were engaged in "&lt;mark&gt;cyber&lt;/mark&gt;-resistance."&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>cryptocurrency</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>2</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Decentralized Finance/Marketplaces</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;They show an organizational resilience that allowed the group to rapidly recover from counterattacks by law enforcement, and grand ambitions to diversify and develop a &lt;mark&gt;cryptocurrency&lt;/mark&gt;.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The hackers talk about the struggle to recruit technical talent, tell jokes, grouse about vacation and even muse about launching their own &lt;mark&gt;cryptocurrency&lt;/mark&gt; blockchain.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>crypto</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>2</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Decentralized Finance/Marketplaces</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;They show an organizational resilience that allowed the group to rapidly recover from counterattacks by law enforcement, and grand ambitions to diversify and develop a &lt;mark&gt;crypto&lt;/mark&gt;currency.&lt;/p&gt; &lt;br&gt;&lt;br&gt;&lt;p&gt;The hackers talk about the struggle to recruit technical talent, tell jokes, grouse about vacation and even muse about launching their own &lt;mark&gt;crypto&lt;/mark&gt;currency blockchain.&lt;/p&gt;</t>
         </is>
       </c>
     </row>
